--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>id</t>
   </si>
@@ -227,6 +227,9 @@
     <t>unlocks_class_id</t>
   </si>
   <si>
+    <t>item_skill_id</t>
+  </si>
+  <si>
     <t>Weaponsmith's Book</t>
   </si>
   <si>
@@ -242,7 +245,7 @@
     <t>Spell Weaving Book</t>
   </si>
   <si>
-    <t>Makes spell crafting slightly easier. (See Skill Modifiers below)</t>
+    <t>Makes spell crafting slightly easier.</t>
   </si>
   <si>
     <t>Spell Crafting</t>
@@ -1524,7 +1527,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BR145"/>
+  <dimension ref="A1:BS145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,7 +1535,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -1602,9 +1605,10 @@
     <col min="68" max="68" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="69" max="69" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="70" max="70" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="71" max="71" width="16.425" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:71">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1815,28 +1819,37 @@
       <c r="BR1" t="s">
         <v>69</v>
       </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:71">
       <c r="A2">
-        <v>182</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>0</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2">
         <v>0.15</v>
@@ -1895,19 +1908,31 @@
       <c r="BL2">
         <v>0</v>
       </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:71">
       <c r="A3">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1916,13 +1941,19 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>0</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3">
         <v>0.15</v>
@@ -1945,21 +1976,9 @@
       <c r="AM3">
         <v>0.25</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
       <c r="AU3">
         <v>0</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
       <c r="BA3">
         <v>0</v>
       </c>
@@ -1981,25 +2000,43 @@
       <c r="BL3">
         <v>0</v>
       </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:71">
       <c r="A4">
-        <v>184</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -2055,28 +2092,46 @@
       <c r="BL4">
         <v>0</v>
       </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:71">
       <c r="A5">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>0</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG5">
         <v>0.15</v>
@@ -2135,19 +2190,31 @@
       <c r="BL5">
         <v>0</v>
       </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:71">
       <c r="A6">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2156,13 +2223,19 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
       <c r="AB6">
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6">
         <v>0.15</v>
@@ -2221,28 +2294,46 @@
       <c r="BL6">
         <v>0</v>
       </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:71">
       <c r="A7">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>0</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7">
         <v>0.15</v>
@@ -2301,25 +2392,43 @@
       <c r="BL7">
         <v>0</v>
       </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:71">
       <c r="A8">
-        <v>557</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
       <c r="Z8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -2375,19 +2484,31 @@
       <c r="BL8">
         <v>0</v>
       </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:71">
       <c r="A9">
-        <v>65469</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2398,8 +2519,14 @@
       <c r="N9">
         <v>0</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
       <c r="Z9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -2455,19 +2582,31 @@
       <c r="BL9">
         <v>0</v>
       </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:71">
       <c r="A10">
-        <v>65470</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2478,8 +2617,14 @@
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
       <c r="Z10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2532,19 +2677,31 @@
       <c r="BL10">
         <v>0</v>
       </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:71">
       <c r="A11">
-        <v>65471</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2555,8 +2712,14 @@
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
       <c r="Z11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2609,19 +2772,31 @@
       <c r="BL11">
         <v>0</v>
       </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:71">
       <c r="A12">
-        <v>65472</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2630,6 +2805,12 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>0</v>
       </c>
       <c r="AB12">
@@ -2686,19 +2867,31 @@
       <c r="BL12">
         <v>0</v>
       </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:71">
       <c r="A13">
-        <v>65473</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2707,6 +2900,12 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0</v>
       </c>
       <c r="AB13">
@@ -2763,19 +2962,31 @@
       <c r="BL13">
         <v>0</v>
       </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:71">
       <c r="A14">
-        <v>65474</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2784,13 +2995,19 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>0</v>
       </c>
       <c r="AB14">
         <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG14">
         <v>0.5</v>
@@ -2849,19 +3066,31 @@
       <c r="BL14">
         <v>0</v>
       </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:71">
       <c r="A15">
-        <v>65475</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2870,13 +3099,19 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>0</v>
       </c>
       <c r="AB15">
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG15">
         <v>0.5</v>
@@ -2935,19 +3170,31 @@
       <c r="BL15">
         <v>0</v>
       </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:71">
       <c r="A16">
-        <v>65476</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2956,13 +3203,19 @@
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>0</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG16">
         <v>0.5</v>
@@ -3021,19 +3274,31 @@
       <c r="BL16">
         <v>0</v>
       </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:71">
       <c r="A17">
-        <v>65477</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3042,13 +3307,19 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG17">
         <v>0.5</v>
@@ -3107,19 +3378,31 @@
       <c r="BL17">
         <v>0</v>
       </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:71">
       <c r="A18">
-        <v>65479</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3130,8 +3413,14 @@
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
       <c r="AF18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG18">
         <v>0.5</v>
@@ -3190,19 +3479,31 @@
       <c r="BL18">
         <v>0</v>
       </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:71">
       <c r="A19">
-        <v>65480</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3211,6 +3512,12 @@
         <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>0</v>
       </c>
       <c r="AB19">
@@ -3267,19 +3574,31 @@
       <c r="BL19">
         <v>0</v>
       </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:71">
       <c r="A20">
-        <v>66761</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3290,8 +3609,14 @@
       <c r="N20">
         <v>0</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
       <c r="Z20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3344,19 +3669,31 @@
       <c r="BL20">
         <v>0</v>
       </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:71">
       <c r="A21">
-        <v>69006</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3374,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG21">
         <v>0.45</v>
@@ -3433,19 +3770,31 @@
       <c r="BL21">
         <v>0</v>
       </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:71">
       <c r="A22">
-        <v>69007</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3463,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG22">
         <v>0.45</v>
@@ -3522,19 +3871,31 @@
       <c r="BL22">
         <v>0</v>
       </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:71">
       <c r="A23">
-        <v>69008</v>
+        <v>384</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3552,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3605,37 +3966,49 @@
       <c r="BL23">
         <v>0</v>
       </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:71">
       <c r="A24">
-        <v>81870</v>
+        <v>385</v>
       </c>
       <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>128</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3688,19 +4061,31 @@
       <c r="BL24">
         <v>0</v>
       </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:71">
       <c r="A25">
-        <v>81871</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3718,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3771,19 +4156,31 @@
       <c r="BL25">
         <v>0</v>
       </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:71">
       <c r="A26">
-        <v>81872</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3801,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3854,19 +4251,31 @@
       <c r="BL26">
         <v>0</v>
       </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:71">
       <c r="A27">
-        <v>81873</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3934,19 +4343,31 @@
       <c r="BL27">
         <v>0</v>
       </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:71">
       <c r="A28">
-        <v>81874</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3964,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -4017,19 +4438,31 @@
       <c r="BL28">
         <v>0</v>
       </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:71">
       <c r="A29">
-        <v>81875</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4047,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -4100,19 +4533,31 @@
       <c r="BL29">
         <v>0</v>
       </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:71">
       <c r="A30">
-        <v>296266</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4130,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -4183,19 +4628,31 @@
       <c r="BL30">
         <v>0</v>
       </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:71">
       <c r="A31">
-        <v>296267</v>
+        <v>392</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4263,19 +4720,31 @@
       <c r="BL31">
         <v>0</v>
       </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:71">
       <c r="A32">
-        <v>296268</v>
+        <v>393</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4343,19 +4812,31 @@
       <c r="BL32">
         <v>0</v>
       </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:71">
       <c r="A33">
-        <v>296269</v>
+        <v>394</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4423,19 +4904,31 @@
       <c r="BL33">
         <v>0</v>
       </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:71">
       <c r="A34">
-        <v>296270</v>
+        <v>395</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4453,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH34">
         <v>0</v>
@@ -4506,19 +4999,31 @@
       <c r="BL34">
         <v>0</v>
       </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:71">
       <c r="A35">
-        <v>296271</v>
+        <v>396</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4553,6 +5058,15 @@
       <c r="AR35">
         <v>0</v>
       </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
       <c r="AZ35">
         <v>0</v>
       </c>
@@ -4574,25 +5088,34 @@
       <c r="BF35">
         <v>0</v>
       </c>
-      <c r="BG35">
-        <v>28</v>
-      </c>
       <c r="BL35">
         <v>0</v>
       </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:71">
       <c r="A36">
-        <v>296272</v>
+        <v>397</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4657,25 +5180,34 @@
       <c r="BF36">
         <v>0</v>
       </c>
-      <c r="BG36">
-        <v>29</v>
-      </c>
       <c r="BL36">
         <v>0</v>
       </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:71">
       <c r="A37">
-        <v>296273</v>
+        <v>398</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4743,19 +5275,31 @@
       <c r="BL37">
         <v>0</v>
       </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:71">
       <c r="A38">
-        <v>296274</v>
+        <v>399</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4820,25 +5364,34 @@
       <c r="BF38">
         <v>0</v>
       </c>
-      <c r="BG38">
-        <v>24</v>
-      </c>
       <c r="BL38">
         <v>0</v>
       </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:71">
       <c r="A39">
-        <v>296275</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4856,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -4909,19 +5462,31 @@
       <c r="BL39">
         <v>0</v>
       </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:71">
       <c r="A40">
-        <v>296276</v>
+        <v>401</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4986,25 +5551,34 @@
       <c r="BF40">
         <v>0</v>
       </c>
-      <c r="BG40">
-        <v>30</v>
-      </c>
       <c r="BL40">
         <v>0</v>
       </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:71">
       <c r="A41">
-        <v>296277</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5022,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AF41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG41">
         <v>0.25</v>
@@ -5078,25 +5652,34 @@
       <c r="BF41">
         <v>0</v>
       </c>
-      <c r="BG41">
-        <v>27</v>
-      </c>
       <c r="BL41">
         <v>0</v>
       </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:71">
       <c r="A42">
-        <v>296278</v>
+        <v>403</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5114,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AF42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG42">
         <v>0.75</v>
@@ -5170,25 +5753,34 @@
       <c r="BF42">
         <v>0</v>
       </c>
-      <c r="BG42">
-        <v>29</v>
-      </c>
       <c r="BL42">
         <v>0</v>
       </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:71">
       <c r="A43">
-        <v>296279</v>
+        <v>404</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5256,19 +5848,31 @@
       <c r="BL43">
         <v>0</v>
       </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:71">
       <c r="A44">
-        <v>296280</v>
+        <v>405</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5286,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AF44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG44">
         <v>0.75</v>
@@ -5345,19 +5949,31 @@
       <c r="BL44">
         <v>0</v>
       </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:71">
       <c r="A45">
-        <v>296281</v>
+        <v>406</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -5375,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH45">
         <v>0</v>
@@ -5428,19 +6044,31 @@
       <c r="BL45">
         <v>0</v>
       </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:71">
       <c r="A46">
-        <v>296282</v>
+        <v>407</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -5458,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -5511,19 +6139,31 @@
       <c r="BL46">
         <v>0</v>
       </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:71">
       <c r="A47">
-        <v>296283</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -5591,19 +6231,31 @@
       <c r="BL47">
         <v>0</v>
       </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:71">
       <c r="A48">
-        <v>296284</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5668,25 +6320,34 @@
       <c r="BF48">
         <v>0</v>
       </c>
-      <c r="BG48">
-        <v>28</v>
-      </c>
       <c r="BL48">
         <v>0</v>
       </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:71">
       <c r="A49">
-        <v>296285</v>
+        <v>410</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5754,19 +6415,31 @@
       <c r="BL49">
         <v>0</v>
       </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:71">
       <c r="A50">
-        <v>296286</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5831,25 +6504,34 @@
       <c r="BF50">
         <v>0</v>
       </c>
-      <c r="BG50">
-        <v>27</v>
-      </c>
       <c r="BL50">
         <v>0</v>
       </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:71">
       <c r="A51">
-        <v>296287</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5917,19 +6599,31 @@
       <c r="BL51">
         <v>0</v>
       </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:71">
       <c r="A52">
-        <v>296288</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5997,19 +6691,31 @@
       <c r="BL52">
         <v>0</v>
       </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:71">
       <c r="A53">
-        <v>296289</v>
+        <v>414</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -6074,25 +6780,34 @@
       <c r="BF53">
         <v>0</v>
       </c>
-      <c r="BG53">
-        <v>29</v>
-      </c>
       <c r="BL53">
         <v>0</v>
       </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:71">
       <c r="A54">
-        <v>296290</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -6157,25 +6872,34 @@
       <c r="BF54">
         <v>0</v>
       </c>
-      <c r="BG54">
-        <v>24</v>
-      </c>
       <c r="BL54">
         <v>0</v>
       </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:71">
       <c r="A55">
-        <v>296291</v>
+        <v>416</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -6240,25 +6964,34 @@
       <c r="BF55">
         <v>0</v>
       </c>
-      <c r="BG55">
-        <v>27</v>
-      </c>
       <c r="BL55">
         <v>0</v>
       </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:71">
       <c r="A56">
-        <v>308670</v>
+        <v>417</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -6329,19 +7062,31 @@
       <c r="BL56">
         <v>0</v>
       </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:71">
       <c r="A57">
-        <v>308671</v>
+        <v>418</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -6406,25 +7151,34 @@
       <c r="BF57">
         <v>0</v>
       </c>
-      <c r="BG57">
-        <v>28</v>
-      </c>
       <c r="BL57">
         <v>0</v>
       </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:71">
       <c r="A58">
-        <v>308672</v>
+        <v>419</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -6489,25 +7243,34 @@
       <c r="BF58">
         <v>0</v>
       </c>
-      <c r="BG58">
-        <v>28</v>
-      </c>
       <c r="BL58">
         <v>0</v>
       </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:71">
       <c r="A59">
-        <v>308673</v>
+        <v>420</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -6572,25 +7335,34 @@
       <c r="BF59">
         <v>0</v>
       </c>
-      <c r="BG59">
-        <v>29</v>
-      </c>
       <c r="BL59">
         <v>0</v>
       </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:71">
       <c r="A60">
-        <v>308674</v>
+        <v>421</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -6661,19 +7433,31 @@
       <c r="BL60">
         <v>0</v>
       </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:71">
       <c r="A61">
-        <v>308675</v>
+        <v>422</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -6738,25 +7522,34 @@
       <c r="BF61">
         <v>0</v>
       </c>
-      <c r="BG61">
-        <v>29</v>
-      </c>
       <c r="BL61">
         <v>0</v>
       </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:71">
       <c r="A62">
-        <v>308676</v>
+        <v>423</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -6827,19 +7620,31 @@
       <c r="BL62">
         <v>0</v>
       </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:71">
       <c r="A63">
-        <v>308677</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -6910,19 +7715,31 @@
       <c r="BL63">
         <v>0</v>
       </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:71">
       <c r="A64">
-        <v>308678</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -6993,19 +7810,31 @@
       <c r="BL64">
         <v>0</v>
       </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:71">
       <c r="A65">
-        <v>308679</v>
+        <v>426</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -7023,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AH65">
         <v>0</v>
@@ -7076,19 +7905,31 @@
       <c r="BL65">
         <v>0</v>
       </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:71">
       <c r="A66">
-        <v>308680</v>
+        <v>427</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -7153,25 +7994,34 @@
       <c r="BF66">
         <v>0</v>
       </c>
-      <c r="BG66">
-        <v>29</v>
-      </c>
       <c r="BL66">
         <v>0</v>
       </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:71">
       <c r="A67">
-        <v>308681</v>
+        <v>428</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -7236,25 +8086,34 @@
       <c r="BF67">
         <v>0</v>
       </c>
-      <c r="BG67">
-        <v>28</v>
-      </c>
       <c r="BL67">
         <v>0</v>
       </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:71">
       <c r="A68">
-        <v>308682</v>
+        <v>429</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -7322,19 +8181,31 @@
       <c r="BL68">
         <v>0</v>
       </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:70">
+    <row r="69" spans="1:71">
       <c r="A69">
-        <v>308683</v>
+        <v>430</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -7352,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -7405,19 +8276,31 @@
       <c r="BL69">
         <v>0</v>
       </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:70">
+    <row r="70" spans="1:71">
       <c r="A70">
-        <v>308684</v>
+        <v>431</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -7481,9 +8364,6 @@
       </c>
       <c r="BF70">
         <v>0</v>
-      </c>
-      <c r="BG70">
-        <v>29</v>
       </c>
       <c r="BH70">
         <v>0.05</v>
@@ -7494,19 +8374,31 @@
       <c r="BL70">
         <v>0</v>
       </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:70">
+    <row r="71" spans="1:71">
       <c r="A71">
-        <v>308685</v>
+        <v>432</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -7580,19 +8472,31 @@
       <c r="BL71">
         <v>0</v>
       </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:70">
+    <row r="72" spans="1:71">
       <c r="A72">
-        <v>308686</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -7656,9 +8560,6 @@
       </c>
       <c r="BF72">
         <v>0</v>
-      </c>
-      <c r="BG72">
-        <v>27</v>
       </c>
       <c r="BH72">
         <v>0.15</v>
@@ -7669,19 +8570,31 @@
       <c r="BL72">
         <v>0</v>
       </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:70">
+    <row r="73" spans="1:71">
       <c r="A73">
-        <v>308687</v>
+        <v>434</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -7755,19 +8668,31 @@
       <c r="BL73">
         <v>0</v>
       </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:70">
+    <row r="74" spans="1:71">
       <c r="A74">
-        <v>308688</v>
+        <v>435</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -7841,19 +8766,31 @@
       <c r="BL74">
         <v>0</v>
       </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:70">
+    <row r="75" spans="1:71">
       <c r="A75">
-        <v>308807</v>
+        <v>436</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -7921,19 +8858,31 @@
       <c r="BL75">
         <v>0</v>
       </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:70">
+    <row r="76" spans="1:71">
       <c r="A76">
-        <v>308808</v>
+        <v>437</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7998,25 +8947,34 @@
       <c r="BF76">
         <v>0</v>
       </c>
-      <c r="BG76">
-        <v>29</v>
-      </c>
       <c r="BL76">
         <v>0</v>
       </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:70">
+    <row r="77" spans="1:71">
       <c r="A77">
-        <v>308809</v>
+        <v>438</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -8081,25 +9039,34 @@
       <c r="BF77">
         <v>0</v>
       </c>
-      <c r="BG77">
-        <v>27</v>
-      </c>
       <c r="BL77">
         <v>0</v>
       </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:70">
+    <row r="78" spans="1:71">
       <c r="A78">
-        <v>308810</v>
+        <v>439</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -8164,25 +9131,34 @@
       <c r="BF78">
         <v>0</v>
       </c>
-      <c r="BG78">
-        <v>24</v>
-      </c>
       <c r="BL78">
         <v>0</v>
       </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:70">
+    <row r="79" spans="1:71">
       <c r="A79">
-        <v>308811</v>
+        <v>440</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -8217,6 +9193,15 @@
       <c r="AR79">
         <v>0</v>
       </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
       <c r="AZ79">
         <v>0</v>
       </c>
@@ -8238,25 +9223,34 @@
       <c r="BF79">
         <v>0</v>
       </c>
-      <c r="BG79">
-        <v>29</v>
-      </c>
       <c r="BL79">
         <v>0</v>
       </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:70">
+    <row r="80" spans="1:71">
       <c r="A80">
-        <v>308812</v>
+        <v>441</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -8330,19 +9324,31 @@
       <c r="BL80">
         <v>0</v>
       </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:70">
+    <row r="81" spans="1:71">
       <c r="A81">
-        <v>308813</v>
+        <v>442</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -8377,6 +9383,15 @@
       <c r="AR81">
         <v>0</v>
       </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
       <c r="AZ81">
         <v>0</v>
       </c>
@@ -8398,25 +9413,34 @@
       <c r="BF81">
         <v>0</v>
       </c>
-      <c r="BG81">
-        <v>30</v>
-      </c>
       <c r="BL81">
         <v>0</v>
       </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:70">
+    <row r="82" spans="1:71">
       <c r="A82">
-        <v>308814</v>
+        <v>443</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -8490,19 +9514,31 @@
       <c r="BL82">
         <v>0</v>
       </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:70">
+    <row r="83" spans="1:71">
       <c r="A83">
-        <v>308815</v>
+        <v>444</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -8537,6 +9573,15 @@
       <c r="AR83">
         <v>0</v>
       </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
       <c r="AZ83">
         <v>0</v>
       </c>
@@ -8558,25 +9603,34 @@
       <c r="BF83">
         <v>0</v>
       </c>
-      <c r="BG83">
-        <v>27</v>
-      </c>
       <c r="BL83">
         <v>0</v>
       </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:70">
+    <row r="84" spans="1:71">
       <c r="A84">
-        <v>310026</v>
+        <v>445</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -8594,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="AF84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG84">
         <v>0.25</v>
@@ -8653,19 +9707,31 @@
       <c r="BL84">
         <v>0</v>
       </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:70">
+    <row r="85" spans="1:71">
       <c r="A85">
-        <v>310027</v>
+        <v>446</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -8683,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="AF85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG85">
         <v>0.25</v>
@@ -8742,19 +9808,31 @@
       <c r="BL85">
         <v>0</v>
       </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:70">
+    <row r="86" spans="1:71">
       <c r="A86">
-        <v>310028</v>
+        <v>447</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -8772,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="AF86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH86">
         <v>0</v>
@@ -8828,19 +9906,31 @@
       <c r="BL86">
         <v>0</v>
       </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:70">
+    <row r="87" spans="1:71">
       <c r="A87">
-        <v>310029</v>
+        <v>448</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -8858,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AF87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH87">
         <v>0</v>
@@ -8914,19 +10004,31 @@
       <c r="BL87">
         <v>0</v>
       </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:70">
+    <row r="88" spans="1:71">
       <c r="A88">
-        <v>310030</v>
+        <v>449</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -8944,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="AF88" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH88">
         <v>0</v>
@@ -9000,19 +10102,31 @@
       <c r="BL88">
         <v>0</v>
       </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:70">
+    <row r="89" spans="1:71">
       <c r="A89">
-        <v>310031</v>
+        <v>450</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -9030,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="AF89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH89">
         <v>0</v>
@@ -9086,19 +10200,31 @@
       <c r="BL89">
         <v>0</v>
       </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:70">
+    <row r="90" spans="1:71">
       <c r="A90">
-        <v>310032</v>
+        <v>451</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -9116,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="AF90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH90">
         <v>0</v>
@@ -9172,19 +10298,31 @@
       <c r="BL90">
         <v>0</v>
       </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:70">
+    <row r="91" spans="1:71">
       <c r="A91">
-        <v>310033</v>
+        <v>452</v>
       </c>
       <c r="C91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -9202,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="AF91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AH91">
         <v>0</v>
@@ -9258,19 +10396,31 @@
       <c r="BL91">
         <v>0</v>
       </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:70">
+    <row r="92" spans="1:71">
       <c r="A92">
-        <v>310034</v>
+        <v>453</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -9288,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="AF92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AH92">
         <v>0</v>
@@ -9344,19 +10494,31 @@
       <c r="BL92">
         <v>0</v>
       </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:70">
+    <row r="93" spans="1:71">
       <c r="A93">
-        <v>310035</v>
+        <v>454</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -9374,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AF93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AH93">
         <v>0</v>
@@ -9430,19 +10592,31 @@
       <c r="BL93">
         <v>0</v>
       </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:70">
+    <row r="94" spans="1:71">
       <c r="A94">
-        <v>310036</v>
+        <v>455</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -9460,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="AF94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH94">
         <v>0</v>
@@ -9516,19 +10690,31 @@
       <c r="BL94">
         <v>0</v>
       </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:70">
+    <row r="95" spans="1:71">
       <c r="A95">
-        <v>310037</v>
+        <v>456</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -9546,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="AF95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH95">
         <v>0</v>
@@ -9602,19 +10788,31 @@
       <c r="BL95">
         <v>0</v>
       </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:70">
+    <row r="96" spans="1:71">
       <c r="A96">
-        <v>310038</v>
+        <v>457</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -9632,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="AF96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH96">
         <v>0</v>
@@ -9688,19 +10886,31 @@
       <c r="BL96">
         <v>0</v>
       </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:70">
+    <row r="97" spans="1:71">
       <c r="A97">
-        <v>310039</v>
+        <v>458</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -9718,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="AF97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG97">
         <v>0.5</v>
@@ -9777,19 +10987,31 @@
       <c r="BL97">
         <v>0</v>
       </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:70">
+    <row r="98" spans="1:71">
       <c r="A98">
-        <v>310040</v>
+        <v>459</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -9807,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="AF98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH98">
         <v>0</v>
@@ -9863,19 +11085,31 @@
       <c r="BL98">
         <v>0</v>
       </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:70">
+    <row r="99" spans="1:71">
       <c r="A99">
-        <v>310041</v>
+        <v>460</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -9893,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AF99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH99">
         <v>0</v>
@@ -9949,19 +11183,31 @@
       <c r="BL99">
         <v>0</v>
       </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:70">
+    <row r="100" spans="1:71">
       <c r="A100">
-        <v>310042</v>
+        <v>461</v>
       </c>
       <c r="C100" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F100" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -9979,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="AF100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH100">
         <v>0</v>
@@ -10035,19 +11281,31 @@
       <c r="BL100">
         <v>0</v>
       </c>
+      <c r="BM100">
+        <v>0</v>
+      </c>
+      <c r="BN100">
+        <v>0</v>
+      </c>
+      <c r="BO100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:70">
+    <row r="101" spans="1:71">
       <c r="A101">
-        <v>318127</v>
+        <v>462</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -10118,19 +11376,31 @@
       <c r="BL101">
         <v>0</v>
       </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:70">
+    <row r="102" spans="1:71">
       <c r="A102">
-        <v>318128</v>
+        <v>463</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -10148,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="Z102" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AH102">
         <v>0</v>
@@ -10201,19 +11471,31 @@
       <c r="BL102">
         <v>0</v>
       </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:70">
+    <row r="103" spans="1:71">
       <c r="A103">
-        <v>318129</v>
+        <v>464</v>
       </c>
       <c r="C103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -10287,19 +11569,31 @@
       <c r="BL103">
         <v>0</v>
       </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:70">
+    <row r="104" spans="1:71">
       <c r="A104">
-        <v>318130</v>
+        <v>465</v>
       </c>
       <c r="C104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -10317,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="Z104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AH104">
         <v>0</v>
@@ -10370,19 +11664,31 @@
       <c r="BL104">
         <v>0</v>
       </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:70">
+    <row r="105" spans="1:71">
       <c r="A105">
-        <v>318139</v>
+        <v>466</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -10400,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="AF105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH105">
         <v>0</v>
@@ -10456,19 +11762,31 @@
       <c r="BL105">
         <v>0</v>
       </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>0</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:70">
+    <row r="106" spans="1:71">
       <c r="A106">
-        <v>318141</v>
+        <v>467</v>
       </c>
       <c r="C106" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -10486,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="AF106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH106">
         <v>0</v>
@@ -10542,19 +11860,31 @@
       <c r="BL106">
         <v>0</v>
       </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:70">
+    <row r="107" spans="1:71">
       <c r="A107">
-        <v>318144</v>
+        <v>468</v>
       </c>
       <c r="C107" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F107" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -10628,19 +11958,31 @@
       <c r="BL107">
         <v>0</v>
       </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:70">
+    <row r="108" spans="1:71">
       <c r="A108">
-        <v>318147</v>
+        <v>469</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -10705,25 +12047,34 @@
       <c r="BF108">
         <v>0</v>
       </c>
-      <c r="BG108">
-        <v>27</v>
-      </c>
       <c r="BL108">
         <v>0</v>
       </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:70">
+    <row r="109" spans="1:71">
       <c r="A109">
-        <v>318148</v>
+        <v>470</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -10744,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="AF109" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG109">
         <v>0.5</v>
@@ -10803,19 +12154,31 @@
       <c r="BL109">
         <v>0</v>
       </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:70">
+    <row r="110" spans="1:71">
       <c r="A110">
-        <v>338462</v>
+        <v>471</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -10877,25 +12240,34 @@
       <c r="BF110">
         <v>0</v>
       </c>
-      <c r="BG110">
-        <v>24</v>
-      </c>
       <c r="BL110">
         <v>0</v>
       </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>0</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:70">
+    <row r="111" spans="1:71">
       <c r="A111">
-        <v>338463</v>
+        <v>472</v>
       </c>
       <c r="C111" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F111" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -10957,25 +12329,34 @@
       <c r="BF111">
         <v>0</v>
       </c>
-      <c r="BG111">
-        <v>27</v>
-      </c>
       <c r="BL111">
         <v>0</v>
       </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:70">
+    <row r="112" spans="1:71">
       <c r="A112">
-        <v>338464</v>
+        <v>473</v>
       </c>
       <c r="C112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F112" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -10990,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="AF112" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG112">
         <v>0.1</v>
@@ -11049,19 +12430,31 @@
       <c r="BL112">
         <v>0</v>
       </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:70">
+    <row r="113" spans="1:71">
       <c r="A113">
-        <v>338465</v>
+        <v>474</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F113" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -11123,25 +12516,34 @@
       <c r="BF113">
         <v>0</v>
       </c>
-      <c r="BG113">
-        <v>29</v>
-      </c>
       <c r="BL113">
         <v>0</v>
       </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:70">
+    <row r="114" spans="1:71">
       <c r="A114">
-        <v>338466</v>
+        <v>475</v>
       </c>
       <c r="C114" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F114" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -11156,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="AF114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG114">
         <v>0.25</v>
@@ -11215,19 +12617,31 @@
       <c r="BL114">
         <v>0</v>
       </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:70">
+    <row r="115" spans="1:71">
       <c r="A115">
-        <v>338467</v>
+        <v>476</v>
       </c>
       <c r="C115" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D115" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F115" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -11256,9 +12670,21 @@
       <c r="AL115">
         <v>0</v>
       </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
       <c r="AU115">
         <v>0</v>
       </c>
+      <c r="AW115">
+        <v>0</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
       <c r="BA115">
         <v>0</v>
       </c>
@@ -11277,25 +12703,34 @@
       <c r="BF115">
         <v>0</v>
       </c>
-      <c r="BG115">
-        <v>34</v>
-      </c>
       <c r="BL115">
         <v>0</v>
       </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:70">
+    <row r="116" spans="1:71">
       <c r="A116">
-        <v>338468</v>
+        <v>477</v>
       </c>
       <c r="C116" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F116" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -11310,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="AF116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG116">
         <v>0.35</v>
@@ -11369,19 +12804,31 @@
       <c r="BL116">
         <v>0</v>
       </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:70">
+    <row r="117" spans="1:71">
       <c r="A117">
-        <v>338469</v>
+        <v>478</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D117" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -11443,25 +12890,34 @@
       <c r="BF117">
         <v>0</v>
       </c>
-      <c r="BG117">
-        <v>30</v>
-      </c>
       <c r="BL117">
         <v>0</v>
       </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:70">
+    <row r="118" spans="1:71">
       <c r="A118">
-        <v>338470</v>
+        <v>479</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -11476,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="AF118" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG118">
         <v>0.5</v>
@@ -11535,19 +12991,31 @@
       <c r="BL118">
         <v>0</v>
       </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:70">
+    <row r="119" spans="1:71">
       <c r="A119">
-        <v>338471</v>
+        <v>480</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D119" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F119" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -11609,25 +13077,34 @@
       <c r="BF119">
         <v>0</v>
       </c>
-      <c r="BG119">
-        <v>30</v>
-      </c>
       <c r="BL119">
         <v>0</v>
       </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:70">
+    <row r="120" spans="1:71">
       <c r="A120">
-        <v>338472</v>
+        <v>481</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D120" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F120" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -11692,19 +13169,31 @@
       <c r="BL120">
         <v>0</v>
       </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:70">
+    <row r="121" spans="1:71">
       <c r="A121">
-        <v>338473</v>
+        <v>482</v>
       </c>
       <c r="C121" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F121" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -11769,19 +13258,31 @@
       <c r="BL121">
         <v>0</v>
       </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:70">
+    <row r="122" spans="1:71">
       <c r="A122">
-        <v>338474</v>
+        <v>483</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D122" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F122" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -11793,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="Z122" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB122">
         <v>1</v>
@@ -11849,19 +13350,31 @@
       <c r="BL122">
         <v>0</v>
       </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:70">
+    <row r="123" spans="1:71">
       <c r="A123">
-        <v>492286</v>
+        <v>484</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F123" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -11926,19 +13439,31 @@
       <c r="BL123">
         <v>0</v>
       </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:70">
+    <row r="124" spans="1:71">
       <c r="A124">
-        <v>492287</v>
+        <v>485</v>
       </c>
       <c r="C124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F124" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -12003,19 +13528,31 @@
       <c r="BL124">
         <v>0</v>
       </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:70">
+    <row r="125" spans="1:71">
       <c r="A125">
-        <v>492288</v>
+        <v>486</v>
       </c>
       <c r="C125" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D125" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F125" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -12080,19 +13617,31 @@
       <c r="BL125">
         <v>0</v>
       </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:70">
+    <row r="126" spans="1:71">
       <c r="A126">
-        <v>492289</v>
+        <v>487</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F126" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -12157,19 +13706,31 @@
       <c r="BL126">
         <v>0</v>
       </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:70">
+    <row r="127" spans="1:71">
       <c r="A127">
-        <v>520232</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -12234,19 +13795,31 @@
       <c r="BL127">
         <v>0</v>
       </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:70">
+    <row r="128" spans="1:71">
       <c r="A128">
-        <v>520233</v>
+        <v>489</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F128" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -12308,25 +13881,34 @@
       <c r="BF128">
         <v>0</v>
       </c>
-      <c r="BG128">
-        <v>29</v>
-      </c>
       <c r="BL128">
         <v>0</v>
       </c>
+      <c r="BM128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:70">
+    <row r="129" spans="1:71">
       <c r="A129">
-        <v>520234</v>
+        <v>490</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F129" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -12388,25 +13970,34 @@
       <c r="BF129">
         <v>0</v>
       </c>
-      <c r="BG129">
-        <v>30</v>
-      </c>
       <c r="BL129">
         <v>0</v>
       </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:70">
+    <row r="130" spans="1:71">
       <c r="A130">
-        <v>520235</v>
+        <v>491</v>
       </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F130" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -12471,19 +14062,31 @@
       <c r="BL130">
         <v>0</v>
       </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:70">
+    <row r="131" spans="1:71">
       <c r="A131">
-        <v>520236</v>
+        <v>492</v>
       </c>
       <c r="C131" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F131" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -12545,25 +14148,34 @@
       <c r="BF131">
         <v>0</v>
       </c>
-      <c r="BG131">
-        <v>28</v>
-      </c>
       <c r="BL131">
         <v>0</v>
       </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:70">
+    <row r="132" spans="1:71">
       <c r="A132">
-        <v>520237</v>
+        <v>493</v>
       </c>
       <c r="C132" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F132" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -12628,19 +14240,31 @@
       <c r="BL132">
         <v>0</v>
       </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:70">
+    <row r="133" spans="1:71">
       <c r="A133">
-        <v>520238</v>
+        <v>494</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F133" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -12702,25 +14326,34 @@
       <c r="BF133">
         <v>0</v>
       </c>
-      <c r="BG133">
-        <v>27</v>
-      </c>
       <c r="BL133">
         <v>0</v>
       </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:70">
+    <row r="134" spans="1:71">
       <c r="A134">
-        <v>520239</v>
+        <v>495</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D134" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -12782,25 +14415,34 @@
       <c r="BF134">
         <v>0</v>
       </c>
-      <c r="BG134">
-        <v>34</v>
-      </c>
       <c r="BL134">
         <v>0</v>
       </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:70">
+    <row r="135" spans="1:71">
       <c r="A135">
-        <v>520240</v>
+        <v>496</v>
       </c>
       <c r="C135" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D135" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F135" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -12862,25 +14504,34 @@
       <c r="BF135">
         <v>0</v>
       </c>
-      <c r="BG135">
-        <v>30</v>
-      </c>
       <c r="BL135">
         <v>0</v>
       </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:70">
+    <row r="136" spans="1:71">
       <c r="A136">
-        <v>520241</v>
+        <v>497</v>
       </c>
       <c r="C136" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D136" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -12942,217 +14593,820 @@
       <c r="BF136">
         <v>0</v>
       </c>
-      <c r="BG136">
-        <v>24</v>
-      </c>
       <c r="BL136">
         <v>0</v>
       </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:70">
+    <row r="137" spans="1:71">
       <c r="A137">
-        <v>965960</v>
+        <v>498</v>
       </c>
       <c r="C137" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D137" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F137" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
       <c r="AU137">
         <v>0</v>
       </c>
+      <c r="AW137">
+        <v>0</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
       <c r="BL137">
         <v>0</v>
       </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:70">
+    <row r="138" spans="1:71">
       <c r="A138">
-        <v>965970</v>
+        <v>499</v>
       </c>
       <c r="C138" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D138" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F138" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
       </c>
       <c r="AB138">
         <v>1</v>
       </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AR138">
+        <v>0</v>
+      </c>
       <c r="AU138">
         <v>0</v>
       </c>
+      <c r="AW138">
+        <v>0</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
       <c r="BL138">
         <v>0</v>
       </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:70">
+    <row r="139" spans="1:71">
       <c r="A139">
-        <v>965971</v>
+        <v>500</v>
       </c>
       <c r="C139" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F139" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
       <c r="AU139">
         <v>0</v>
       </c>
+      <c r="AW139">
+        <v>0</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
       <c r="BL139">
         <v>0</v>
       </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:70">
+    <row r="140" spans="1:71">
       <c r="A140">
-        <v>965972</v>
+        <v>501</v>
       </c>
       <c r="C140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F140" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
       </c>
       <c r="AB140">
         <v>1</v>
       </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AR140">
+        <v>0</v>
+      </c>
       <c r="AU140">
         <v>0</v>
       </c>
+      <c r="AW140">
+        <v>0</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
       <c r="BL140">
         <v>0</v>
       </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:70">
+    <row r="141" spans="1:71">
       <c r="A141">
-        <v>965973</v>
+        <v>502</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F141" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
       </c>
       <c r="AB141">
         <v>1</v>
       </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AR141">
+        <v>0</v>
+      </c>
       <c r="AU141">
         <v>0</v>
       </c>
+      <c r="AW141">
+        <v>0</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
       <c r="BL141">
         <v>0</v>
       </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:70">
+    <row r="142" spans="1:71">
       <c r="A142">
-        <v>965974</v>
+        <v>503</v>
       </c>
       <c r="C142" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D142" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F142" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
       </c>
       <c r="AB142">
         <v>1</v>
       </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AR142">
+        <v>0</v>
+      </c>
       <c r="AU142">
         <v>0</v>
       </c>
+      <c r="AW142">
+        <v>0</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
       <c r="BL142">
         <v>0</v>
       </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:70">
+    <row r="143" spans="1:71">
       <c r="A143">
-        <v>965975</v>
+        <v>504</v>
       </c>
       <c r="C143" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D143" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F143" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
       </c>
       <c r="AB143">
         <v>1</v>
       </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AR143">
+        <v>0</v>
+      </c>
       <c r="AU143">
         <v>0</v>
       </c>
+      <c r="AW143">
+        <v>0</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>0</v>
+      </c>
       <c r="BL143">
         <v>0</v>
       </c>
+      <c r="BM143">
+        <v>0</v>
+      </c>
+      <c r="BN143">
+        <v>0</v>
+      </c>
+      <c r="BO143">
+        <v>0</v>
+      </c>
+      <c r="BP143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:70">
+    <row r="144" spans="1:71">
       <c r="A144">
-        <v>965976</v>
+        <v>505</v>
       </c>
       <c r="C144" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D144" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F144" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AR144">
+        <v>0</v>
+      </c>
       <c r="AU144">
         <v>0</v>
       </c>
+      <c r="AW144">
+        <v>0</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>0</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>0</v>
+      </c>
       <c r="BL144">
         <v>0</v>
       </c>
+      <c r="BM144">
+        <v>0</v>
+      </c>
+      <c r="BN144">
+        <v>0</v>
+      </c>
+      <c r="BO144">
+        <v>0</v>
+      </c>
+      <c r="BP144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:70">
+    <row r="145" spans="1:71">
       <c r="A145">
-        <v>965977</v>
+        <v>506</v>
       </c>
       <c r="C145" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F145" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AR145">
+        <v>0</v>
+      </c>
       <c r="AU145">
         <v>0</v>
       </c>
+      <c r="AW145">
+        <v>0</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
       <c r="BL145">
+        <v>0</v>
+      </c>
+      <c r="BM145">
+        <v>0</v>
+      </c>
+      <c r="BN145">
+        <v>0</v>
+      </c>
+      <c r="BO145">
+        <v>0</v>
+      </c>
+      <c r="BP145">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -272,7 +272,7 @@
     <t>Ring Crafter's Book</t>
   </si>
   <si>
-    <t>Makes ring crafting slightly easier. (See Skill Modifiers below)</t>
+    <t>Makes ring crafting slightly easier.</t>
   </si>
   <si>
     <t>Ring Crafting</t>
@@ -2258,19 +2258,7 @@
       <c r="AM6">
         <v>0.25</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
       <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t>id</t>
   </si>
@@ -1188,6 +1188,24 @@
   </si>
   <si>
     <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
+  </si>
+  <si>
+    <t>Lost Tome Of Spells</t>
+  </si>
+  <si>
+    <t>A lost tome The Witch was looking for.</t>
+  </si>
+  <si>
+    <t>Clean White Feather</t>
+  </si>
+  <si>
+    <t>A single clean white feather the Dungeon Master is searching for.</t>
+  </si>
+  <si>
+    <t>Ratty Toy Bear</t>
+  </si>
+  <si>
+    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BS145"/>
+  <dimension ref="A1:BS148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1976,7 +1994,19 @@
       <c r="AM3">
         <v>0.25</v>
       </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
       <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
@@ -2258,7 +2288,19 @@
       <c r="AM6">
         <v>0.25</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
       <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">
@@ -15395,6 +15437,117 @@
         <v>0</v>
       </c>
       <c r="BP145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:71">
+      <c r="A146">
+        <v>988</v>
+      </c>
+      <c r="C146" t="s">
+        <v>391</v>
+      </c>
+      <c r="D146" t="s">
+        <v>72</v>
+      </c>
+      <c r="F146" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>34</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:71">
+      <c r="A147">
+        <v>989</v>
+      </c>
+      <c r="C147" t="s">
+        <v>393</v>
+      </c>
+      <c r="D147" t="s">
+        <v>72</v>
+      </c>
+      <c r="F147" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB147">
+        <v>1</v>
+      </c>
+      <c r="AU147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>34</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:71">
+      <c r="A148">
+        <v>990</v>
+      </c>
+      <c r="C148" t="s">
+        <v>395</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+      <c r="F148" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB148">
+        <v>1</v>
+      </c>
+      <c r="AU148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
   <si>
     <t>id</t>
   </si>
@@ -1347,6 +1347,114 @@
   </si>
   <si>
     <t>The key to The Fathers Tomb.</t>
+  </si>
+  <si>
+    <t>Bloody Shirt</t>
+  </si>
+  <si>
+    <t>A basic shirt covered in blood.</t>
+  </si>
+  <si>
+    <t>Broken Forest Road</t>
+  </si>
+  <si>
+    <t>The Child's Journal</t>
+  </si>
+  <si>
+    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
+  </si>
+  <si>
+    <t>The Soldiers Journal</t>
+  </si>
+  <si>
+    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
+  </si>
+  <si>
+    <t>Bloody Snowball</t>
+  </si>
+  <si>
+    <t>Blood stained snowball, a child's broken memory.</t>
+  </si>
+  <si>
+    <t>Pages of the holy book</t>
+  </si>
+  <si>
+    <t>pages that detail the scripture of The Churches holy book</t>
+  </si>
+  <si>
+    <t>Bloody Snowman</t>
+  </si>
+  <si>
+    <t>Box of Memories</t>
+  </si>
+  <si>
+    <t>A child's toy that lights up and shows a story as it spins</t>
+  </si>
+  <si>
+    <t>Child's Drawings</t>
+  </si>
+  <si>
+    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
+  </si>
+  <si>
+    <t>Red Hawks Sword</t>
+  </si>
+  <si>
+    <t>A Red Hawk Sword used in the attack on The Church</t>
+  </si>
+  <si>
+    <t>The Letter</t>
+  </si>
+  <si>
+    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
+  </si>
+  <si>
+    <t>Ice Queens Treaty Scrolls</t>
+  </si>
+  <si>
+    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
+  </si>
+  <si>
+    <t>settle-on-the-ice-plane</t>
+  </si>
+  <si>
+    <t>Ice Shard of Memories</t>
+  </si>
+  <si>
+    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
+  </si>
+  <si>
+    <t>Bottle of Frozen Tears</t>
+  </si>
+  <si>
+    <t>The tears of a child that have been frozen in time.</t>
+  </si>
+  <si>
+    <t>Ice Stave of Hope</t>
+  </si>
+  <si>
+    <t>A stave made of ice that holds the last hope of a grieving mother</t>
+  </si>
+  <si>
+    <t>Wilted Frozen Rose</t>
+  </si>
+  <si>
+    <t>A single rose placed upon the tombstone of a child.</t>
+  </si>
+  <si>
+    <t>The Old Church</t>
+  </si>
+  <si>
+    <t>Love Letter</t>
+  </si>
+  <si>
+    <t>A love letter written by The Child to his then lover.</t>
+  </si>
+  <si>
+    <t>The Poets Walking Stick</t>
+  </si>
+  <si>
+    <t>A simple walking stick used by The Poet</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1794,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT165"/>
+  <dimension ref="A1:BT181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -15953,7 +16061,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>102908</v>
+        <v>126850</v>
       </c>
       <c r="C149" t="s">
         <v>405</v>
@@ -15964,10 +16072,64 @@
       <c r="G149" t="s">
         <v>406</v>
       </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
       <c r="AC149">
         <v>1</v>
       </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AS149">
+        <v>0</v>
+      </c>
       <c r="AV149">
+        <v>0</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
         <v>0</v>
       </c>
       <c r="BH149" t="s">
@@ -15991,7 +16153,7 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>102909</v>
+        <v>126851</v>
       </c>
       <c r="C150" t="s">
         <v>408</v>
@@ -16002,10 +16164,64 @@
       <c r="G150" t="s">
         <v>409</v>
       </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
       <c r="AC150">
         <v>1</v>
       </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AS150">
+        <v>0</v>
+      </c>
       <c r="AV150">
+        <v>0</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
         <v>0</v>
       </c>
       <c r="BH150" t="s">
@@ -16029,7 +16245,7 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>102910</v>
+        <v>126852</v>
       </c>
       <c r="C151" t="s">
         <v>410</v>
@@ -16040,10 +16256,64 @@
       <c r="G151" t="s">
         <v>411</v>
       </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
       <c r="AC151">
         <v>1</v>
       </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AS151">
+        <v>0</v>
+      </c>
       <c r="AV151">
+        <v>0</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
         <v>0</v>
       </c>
       <c r="BH151" t="s">
@@ -16067,7 +16337,7 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>102911</v>
+        <v>126853</v>
       </c>
       <c r="C152" t="s">
         <v>413</v>
@@ -16078,6 +16348,15 @@
       <c r="G152" t="s">
         <v>414</v>
       </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
       <c r="AC152">
         <v>1</v>
       </c>
@@ -16087,10 +16366,55 @@
       <c r="AH152">
         <v>0.35</v>
       </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>0</v>
+      </c>
+      <c r="AM152">
+        <v>0</v>
+      </c>
       <c r="AN152">
         <v>0.35</v>
       </c>
+      <c r="AS152">
+        <v>0</v>
+      </c>
       <c r="AV152">
+        <v>0</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
         <v>0</v>
       </c>
       <c r="BH152" t="s">
@@ -16114,7 +16438,7 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>102912</v>
+        <v>126854</v>
       </c>
       <c r="C153" t="s">
         <v>415</v>
@@ -16125,10 +16449,64 @@
       <c r="G153" t="s">
         <v>416</v>
       </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
       <c r="AC153">
         <v>1</v>
       </c>
+      <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>0</v>
+      </c>
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AS153">
+        <v>0</v>
+      </c>
       <c r="AV153">
+        <v>0</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
         <v>0</v>
       </c>
       <c r="BH153" t="s">
@@ -16152,7 +16530,7 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>102913</v>
+        <v>126855</v>
       </c>
       <c r="C154" t="s">
         <v>417</v>
@@ -16163,10 +16541,64 @@
       <c r="G154" t="s">
         <v>418</v>
       </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
       <c r="AC154">
         <v>1</v>
       </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
+      <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AS154">
+        <v>0</v>
+      </c>
       <c r="AV154">
+        <v>0</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
         <v>0</v>
       </c>
       <c r="BH154" t="s">
@@ -16190,7 +16622,7 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>102914</v>
+        <v>126856</v>
       </c>
       <c r="C155" t="s">
         <v>419</v>
@@ -16201,13 +16633,67 @@
       <c r="G155" t="s">
         <v>420</v>
       </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
       <c r="AA155" t="s">
         <v>421</v>
       </c>
       <c r="AC155">
         <v>1</v>
       </c>
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>0</v>
+      </c>
+      <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AS155">
+        <v>0</v>
+      </c>
       <c r="AV155">
+        <v>0</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
         <v>0</v>
       </c>
       <c r="BM155">
@@ -16228,7 +16714,7 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>102915</v>
+        <v>126857</v>
       </c>
       <c r="C156" t="s">
         <v>422</v>
@@ -16239,10 +16725,64 @@
       <c r="G156" t="s">
         <v>423</v>
       </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
       <c r="AC156">
         <v>1</v>
       </c>
+      <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>0</v>
+      </c>
+      <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AS156">
+        <v>0</v>
+      </c>
       <c r="AV156">
+        <v>0</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>0</v>
+      </c>
+      <c r="BG156">
         <v>0</v>
       </c>
       <c r="BH156" t="s">
@@ -16266,7 +16806,7 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>102916</v>
+        <v>126858</v>
       </c>
       <c r="C157" t="s">
         <v>424</v>
@@ -16277,10 +16817,64 @@
       <c r="G157" t="s">
         <v>425</v>
       </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
       <c r="AC157">
         <v>1</v>
       </c>
+      <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AS157">
+        <v>0</v>
+      </c>
       <c r="AV157">
+        <v>0</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>0</v>
+      </c>
+      <c r="BG157">
         <v>0</v>
       </c>
       <c r="BM157">
@@ -16301,7 +16895,7 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>102917</v>
+        <v>126859</v>
       </c>
       <c r="C158" t="s">
         <v>426</v>
@@ -16312,6 +16906,15 @@
       <c r="G158" t="s">
         <v>427</v>
       </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
       <c r="AC158">
         <v>1</v>
       </c>
@@ -16321,10 +16924,55 @@
       <c r="AH158">
         <v>0.6</v>
       </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
       <c r="AN158">
         <v>0.6</v>
       </c>
+      <c r="AS158">
+        <v>0</v>
+      </c>
       <c r="AV158">
+        <v>0</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
         <v>0</v>
       </c>
       <c r="BH158" t="s">
@@ -16348,7 +16996,7 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>102918</v>
+        <v>126860</v>
       </c>
       <c r="C159" t="s">
         <v>429</v>
@@ -16359,6 +17007,15 @@
       <c r="G159" t="s">
         <v>430</v>
       </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
       <c r="AC159">
         <v>1</v>
       </c>
@@ -16368,10 +17025,55 @@
       <c r="AH159">
         <v>1</v>
       </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
       <c r="AN159">
         <v>1</v>
       </c>
+      <c r="AS159">
+        <v>0</v>
+      </c>
       <c r="AV159">
+        <v>0</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
         <v>0</v>
       </c>
       <c r="BH159" t="s">
@@ -16395,7 +17097,7 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>102919</v>
+        <v>126861</v>
       </c>
       <c r="C160" t="s">
         <v>432</v>
@@ -16406,10 +17108,64 @@
       <c r="G160" t="s">
         <v>433</v>
       </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
       <c r="AC160">
         <v>1</v>
       </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AS160">
+        <v>0</v>
+      </c>
       <c r="AV160">
+        <v>0</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>0</v>
+      </c>
+      <c r="BG160">
         <v>0</v>
       </c>
       <c r="BH160" t="s">
@@ -16433,7 +17189,7 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>102920</v>
+        <v>126862</v>
       </c>
       <c r="C161" t="s">
         <v>434</v>
@@ -16444,6 +17200,15 @@
       <c r="G161" t="s">
         <v>435</v>
       </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
       <c r="AC161">
         <v>1</v>
       </c>
@@ -16453,10 +17218,55 @@
       <c r="AH161">
         <v>0.3</v>
       </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
       <c r="AN161">
         <v>0.3</v>
       </c>
+      <c r="AS161">
+        <v>0</v>
+      </c>
       <c r="AV161">
+        <v>0</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>0</v>
+      </c>
+      <c r="BG161">
         <v>0</v>
       </c>
       <c r="BH161" t="s">
@@ -16480,7 +17290,7 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>102921</v>
+        <v>126863</v>
       </c>
       <c r="C162" t="s">
         <v>436</v>
@@ -16491,10 +17301,64 @@
       <c r="G162" t="s">
         <v>437</v>
       </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
       <c r="AC162">
         <v>1</v>
       </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AS162">
+        <v>0</v>
+      </c>
       <c r="AV162">
+        <v>0</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>0</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>0</v>
+      </c>
+      <c r="BG162">
         <v>0</v>
       </c>
       <c r="BH162" t="s">
@@ -16518,7 +17382,7 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>102922</v>
+        <v>126864</v>
       </c>
       <c r="C163" t="s">
         <v>438</v>
@@ -16529,10 +17393,64 @@
       <c r="G163" t="s">
         <v>439</v>
       </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
       <c r="AC163">
         <v>1</v>
       </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AS163">
+        <v>0</v>
+      </c>
       <c r="AV163">
+        <v>0</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>0</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
         <v>0</v>
       </c>
       <c r="BH163" t="s">
@@ -16556,7 +17474,7 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>102923</v>
+        <v>126865</v>
       </c>
       <c r="C164" t="s">
         <v>440</v>
@@ -16567,10 +17485,64 @@
       <c r="G164" t="s">
         <v>441</v>
       </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
       <c r="AC164">
         <v>1</v>
       </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AS164">
+        <v>0</v>
+      </c>
       <c r="AV164">
+        <v>0</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
         <v>0</v>
       </c>
       <c r="BM164">
@@ -16591,7 +17563,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>102924</v>
+        <v>126866</v>
       </c>
       <c r="C165" t="s">
         <v>442</v>
@@ -16602,12 +17574,66 @@
       <c r="G165" t="s">
         <v>443</v>
       </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
       <c r="AC165">
         <v>1</v>
       </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AS165">
+        <v>0</v>
+      </c>
       <c r="AV165">
         <v>0</v>
       </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
       <c r="BM165">
         <v>0</v>
       </c>
@@ -16621,6 +17647,626 @@
         <v>0</v>
       </c>
       <c r="BQ165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:72">
+      <c r="A166">
+        <v>126967</v>
+      </c>
+      <c r="C166" t="s">
+        <v>444</v>
+      </c>
+      <c r="D166" t="s">
+        <v>73</v>
+      </c>
+      <c r="G166" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC166">
+        <v>1</v>
+      </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
+      <c r="BH166" t="s">
+        <v>446</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
+        <v>0</v>
+      </c>
+      <c r="BQ166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:72">
+      <c r="A167">
+        <v>126968</v>
+      </c>
+      <c r="C167" t="s">
+        <v>447</v>
+      </c>
+      <c r="D167" t="s">
+        <v>73</v>
+      </c>
+      <c r="G167" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC167">
+        <v>1</v>
+      </c>
+      <c r="AV167">
+        <v>0</v>
+      </c>
+      <c r="BH167" t="s">
+        <v>446</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+      <c r="BQ167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:72">
+      <c r="A168">
+        <v>126969</v>
+      </c>
+      <c r="C168" t="s">
+        <v>449</v>
+      </c>
+      <c r="D168" t="s">
+        <v>73</v>
+      </c>
+      <c r="G168" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC168">
+        <v>1</v>
+      </c>
+      <c r="AV168">
+        <v>0</v>
+      </c>
+      <c r="BH168" t="s">
+        <v>446</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+      <c r="BQ168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:72">
+      <c r="A169">
+        <v>126972</v>
+      </c>
+      <c r="C169" t="s">
+        <v>451</v>
+      </c>
+      <c r="D169" t="s">
+        <v>73</v>
+      </c>
+      <c r="G169" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+      <c r="AV169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
+        <v>0</v>
+      </c>
+      <c r="BQ169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:72">
+      <c r="A170">
+        <v>126985</v>
+      </c>
+      <c r="C170" t="s">
+        <v>453</v>
+      </c>
+      <c r="D170" t="s">
+        <v>73</v>
+      </c>
+      <c r="G170" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC170">
+        <v>1</v>
+      </c>
+      <c r="AV170">
+        <v>0</v>
+      </c>
+      <c r="BH170" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
+        <v>0</v>
+      </c>
+      <c r="BQ170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:72">
+      <c r="A171">
+        <v>126986</v>
+      </c>
+      <c r="C171" t="s">
+        <v>456</v>
+      </c>
+      <c r="D171" t="s">
+        <v>73</v>
+      </c>
+      <c r="G171" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC171">
+        <v>1</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH171">
+        <v>0.75</v>
+      </c>
+      <c r="AN171">
+        <v>1.25</v>
+      </c>
+      <c r="AV171">
+        <v>0</v>
+      </c>
+      <c r="BH171" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+      <c r="BQ171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:72">
+      <c r="A172">
+        <v>126987</v>
+      </c>
+      <c r="C172" t="s">
+        <v>458</v>
+      </c>
+      <c r="D172" t="s">
+        <v>73</v>
+      </c>
+      <c r="G172" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC172">
+        <v>1</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH172">
+        <v>1</v>
+      </c>
+      <c r="AN172">
+        <v>1.25</v>
+      </c>
+      <c r="AV172">
+        <v>0</v>
+      </c>
+      <c r="BH172" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
+        <v>0</v>
+      </c>
+      <c r="BQ172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:72">
+      <c r="A173">
+        <v>126988</v>
+      </c>
+      <c r="C173" t="s">
+        <v>460</v>
+      </c>
+      <c r="D173" t="s">
+        <v>73</v>
+      </c>
+      <c r="G173" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC173">
+        <v>1</v>
+      </c>
+      <c r="AV173">
+        <v>0</v>
+      </c>
+      <c r="BH173" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
+        <v>0</v>
+      </c>
+      <c r="BQ173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:72">
+      <c r="A174">
+        <v>126989</v>
+      </c>
+      <c r="C174" t="s">
+        <v>462</v>
+      </c>
+      <c r="D174" t="s">
+        <v>73</v>
+      </c>
+      <c r="G174" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC174">
+        <v>1</v>
+      </c>
+      <c r="AV174">
+        <v>0</v>
+      </c>
+      <c r="BM174">
+        <v>0</v>
+      </c>
+      <c r="BN174">
+        <v>0</v>
+      </c>
+      <c r="BO174">
+        <v>0</v>
+      </c>
+      <c r="BP174">
+        <v>0</v>
+      </c>
+      <c r="BQ174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:72">
+      <c r="A175">
+        <v>126990</v>
+      </c>
+      <c r="C175" t="s">
+        <v>464</v>
+      </c>
+      <c r="D175" t="s">
+        <v>73</v>
+      </c>
+      <c r="G175" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC175">
+        <v>1</v>
+      </c>
+      <c r="AV175">
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <v>0</v>
+      </c>
+      <c r="BQ175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:72">
+      <c r="A176">
+        <v>126991</v>
+      </c>
+      <c r="C176" t="s">
+        <v>467</v>
+      </c>
+      <c r="D176" t="s">
+        <v>73</v>
+      </c>
+      <c r="G176" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC176">
+        <v>1</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH176">
+        <v>1</v>
+      </c>
+      <c r="AN176">
+        <v>1.2</v>
+      </c>
+      <c r="AV176">
+        <v>0</v>
+      </c>
+      <c r="BH176" t="s">
+        <v>407</v>
+      </c>
+      <c r="BM176">
+        <v>0</v>
+      </c>
+      <c r="BN176">
+        <v>0</v>
+      </c>
+      <c r="BO176">
+        <v>0</v>
+      </c>
+      <c r="BP176">
+        <v>0</v>
+      </c>
+      <c r="BQ176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:72">
+      <c r="A177">
+        <v>126992</v>
+      </c>
+      <c r="C177" t="s">
+        <v>469</v>
+      </c>
+      <c r="D177" t="s">
+        <v>73</v>
+      </c>
+      <c r="G177" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC177">
+        <v>1</v>
+      </c>
+      <c r="AV177">
+        <v>0</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
+        <v>0</v>
+      </c>
+      <c r="BQ177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:72">
+      <c r="A178">
+        <v>126993</v>
+      </c>
+      <c r="C178" t="s">
+        <v>471</v>
+      </c>
+      <c r="D178" t="s">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC178">
+        <v>1</v>
+      </c>
+      <c r="AV178">
+        <v>0</v>
+      </c>
+      <c r="BM178">
+        <v>0</v>
+      </c>
+      <c r="BN178">
+        <v>0</v>
+      </c>
+      <c r="BO178">
+        <v>0</v>
+      </c>
+      <c r="BP178">
+        <v>0</v>
+      </c>
+      <c r="BQ178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:72">
+      <c r="A179">
+        <v>126994</v>
+      </c>
+      <c r="C179" t="s">
+        <v>473</v>
+      </c>
+      <c r="D179" t="s">
+        <v>73</v>
+      </c>
+      <c r="G179" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC179">
+        <v>1</v>
+      </c>
+      <c r="AV179">
+        <v>0</v>
+      </c>
+      <c r="BH179" t="s">
+        <v>475</v>
+      </c>
+      <c r="BM179">
+        <v>0</v>
+      </c>
+      <c r="BN179">
+        <v>0</v>
+      </c>
+      <c r="BO179">
+        <v>0</v>
+      </c>
+      <c r="BP179">
+        <v>0</v>
+      </c>
+      <c r="BQ179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:72">
+      <c r="A180">
+        <v>126995</v>
+      </c>
+      <c r="C180" t="s">
+        <v>476</v>
+      </c>
+      <c r="D180" t="s">
+        <v>73</v>
+      </c>
+      <c r="G180" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC180">
+        <v>1</v>
+      </c>
+      <c r="AV180">
+        <v>0</v>
+      </c>
+      <c r="BH180" t="s">
+        <v>475</v>
+      </c>
+      <c r="BM180">
+        <v>0</v>
+      </c>
+      <c r="BN180">
+        <v>0</v>
+      </c>
+      <c r="BO180">
+        <v>0</v>
+      </c>
+      <c r="BP180">
+        <v>0</v>
+      </c>
+      <c r="BQ180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:72">
+      <c r="A181">
+        <v>126996</v>
+      </c>
+      <c r="C181" t="s">
+        <v>478</v>
+      </c>
+      <c r="D181" t="s">
+        <v>73</v>
+      </c>
+      <c r="G181" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC181">
+        <v>1</v>
+      </c>
+      <c r="AV181">
+        <v>0</v>
+      </c>
+      <c r="BM181">
+        <v>0</v>
+      </c>
+      <c r="BN181">
+        <v>0</v>
+      </c>
+      <c r="BO181">
+        <v>0</v>
+      </c>
+      <c r="BP181">
+        <v>0</v>
+      </c>
+      <c r="BQ181">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t>id</t>
   </si>
@@ -1455,6 +1455,18 @@
   </si>
   <si>
     <t>A simple walking stick used by The Poet</t>
+  </si>
+  <si>
+    <t>Rusted Keys</t>
+  </si>
+  <si>
+    <t>A set of keys that once made the frozen wreck move.</t>
+  </si>
+  <si>
+    <t>Husbands Wallet</t>
+  </si>
+  <si>
+    <t>A wallet covered in blood with a single picture of The Creators father</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1806,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT181"/>
+  <dimension ref="A1:BT183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -18270,6 +18282,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="1:72">
+      <c r="A182">
+        <v>126997</v>
+      </c>
+      <c r="C182" t="s">
+        <v>480</v>
+      </c>
+      <c r="D182" t="s">
+        <v>73</v>
+      </c>
+      <c r="G182" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC182">
+        <v>1</v>
+      </c>
+      <c r="AV182">
+        <v>0</v>
+      </c>
+      <c r="BH182" t="s">
+        <v>407</v>
+      </c>
+      <c r="BM182">
+        <v>0</v>
+      </c>
+      <c r="BN182">
+        <v>0</v>
+      </c>
+      <c r="BO182">
+        <v>0</v>
+      </c>
+      <c r="BP182">
+        <v>0</v>
+      </c>
+      <c r="BQ182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:72">
+      <c r="A183">
+        <v>126998</v>
+      </c>
+      <c r="C183" t="s">
+        <v>482</v>
+      </c>
+      <c r="D183" t="s">
+        <v>73</v>
+      </c>
+      <c r="G183" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC183">
+        <v>1</v>
+      </c>
+      <c r="AV183">
+        <v>0</v>
+      </c>
+      <c r="BM183">
+        <v>0</v>
+      </c>
+      <c r="BN183">
+        <v>0</v>
+      </c>
+      <c r="BO183">
+        <v>0</v>
+      </c>
+      <c r="BP183">
+        <v>0</v>
+      </c>
+      <c r="BQ183">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
   <si>
     <t>id</t>
   </si>
@@ -1467,6 +1467,12 @@
   </si>
   <si>
     <t>A wallet covered in blood with a single picture of The Creators father</t>
+  </si>
+  <si>
+    <t>Christmas Tree Light Bulb</t>
+  </si>
+  <si>
+    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1812,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT183"/>
+  <dimension ref="A1:BT184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -16073,7 +16079,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>126850</v>
+        <v>210180</v>
       </c>
       <c r="C149" t="s">
         <v>405</v>
@@ -16165,7 +16171,7 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>126851</v>
+        <v>210181</v>
       </c>
       <c r="C150" t="s">
         <v>408</v>
@@ -16257,7 +16263,7 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>126852</v>
+        <v>210182</v>
       </c>
       <c r="C151" t="s">
         <v>410</v>
@@ -16349,7 +16355,7 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>126853</v>
+        <v>210183</v>
       </c>
       <c r="C152" t="s">
         <v>413</v>
@@ -16450,7 +16456,7 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>126854</v>
+        <v>210184</v>
       </c>
       <c r="C153" t="s">
         <v>415</v>
@@ -16542,7 +16548,7 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>126855</v>
+        <v>210185</v>
       </c>
       <c r="C154" t="s">
         <v>417</v>
@@ -16634,7 +16640,7 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>126856</v>
+        <v>210186</v>
       </c>
       <c r="C155" t="s">
         <v>419</v>
@@ -16726,7 +16732,7 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>126857</v>
+        <v>210187</v>
       </c>
       <c r="C156" t="s">
         <v>422</v>
@@ -16818,7 +16824,7 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>126858</v>
+        <v>210188</v>
       </c>
       <c r="C157" t="s">
         <v>424</v>
@@ -16907,7 +16913,7 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>126859</v>
+        <v>210189</v>
       </c>
       <c r="C158" t="s">
         <v>426</v>
@@ -17008,7 +17014,7 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>126860</v>
+        <v>210190</v>
       </c>
       <c r="C159" t="s">
         <v>429</v>
@@ -17109,7 +17115,7 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>126861</v>
+        <v>210191</v>
       </c>
       <c r="C160" t="s">
         <v>432</v>
@@ -17201,7 +17207,7 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>126862</v>
+        <v>210192</v>
       </c>
       <c r="C161" t="s">
         <v>434</v>
@@ -17302,7 +17308,7 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>126863</v>
+        <v>210193</v>
       </c>
       <c r="C162" t="s">
         <v>436</v>
@@ -17394,7 +17400,7 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>126864</v>
+        <v>210194</v>
       </c>
       <c r="C163" t="s">
         <v>438</v>
@@ -17486,7 +17492,7 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>126865</v>
+        <v>210195</v>
       </c>
       <c r="C164" t="s">
         <v>440</v>
@@ -17575,7 +17581,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>126866</v>
+        <v>210196</v>
       </c>
       <c r="C165" t="s">
         <v>442</v>
@@ -17664,7 +17670,7 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>126967</v>
+        <v>210197</v>
       </c>
       <c r="C166" t="s">
         <v>444</v>
@@ -17675,10 +17681,64 @@
       <c r="G166" t="s">
         <v>445</v>
       </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
       <c r="AC166">
         <v>1</v>
       </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AS166">
+        <v>0</v>
+      </c>
       <c r="AV166">
+        <v>0</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
         <v>0</v>
       </c>
       <c r="BH166" t="s">
@@ -17702,7 +17762,7 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>126968</v>
+        <v>210198</v>
       </c>
       <c r="C167" t="s">
         <v>447</v>
@@ -17713,10 +17773,64 @@
       <c r="G167" t="s">
         <v>448</v>
       </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
       <c r="AC167">
         <v>1</v>
       </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AS167">
+        <v>0</v>
+      </c>
       <c r="AV167">
+        <v>0</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
         <v>0</v>
       </c>
       <c r="BH167" t="s">
@@ -17740,7 +17854,7 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>126969</v>
+        <v>210199</v>
       </c>
       <c r="C168" t="s">
         <v>449</v>
@@ -17751,10 +17865,64 @@
       <c r="G168" t="s">
         <v>450</v>
       </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
       <c r="AC168">
         <v>1</v>
       </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AS168">
+        <v>0</v>
+      </c>
       <c r="AV168">
+        <v>0</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>0</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
         <v>0</v>
       </c>
       <c r="BH168" t="s">
@@ -17778,7 +17946,7 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>126972</v>
+        <v>210200</v>
       </c>
       <c r="C169" t="s">
         <v>451</v>
@@ -17789,10 +17957,64 @@
       <c r="G169" t="s">
         <v>452</v>
       </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
       <c r="AC169">
         <v>1</v>
       </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AS169">
+        <v>0</v>
+      </c>
       <c r="AV169">
+        <v>0</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
         <v>0</v>
       </c>
       <c r="BM169">
@@ -17813,7 +18035,7 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>126985</v>
+        <v>210201</v>
       </c>
       <c r="C170" t="s">
         <v>453</v>
@@ -17824,10 +18046,64 @@
       <c r="G170" t="s">
         <v>454</v>
       </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
       <c r="AC170">
         <v>1</v>
       </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AS170">
+        <v>0</v>
+      </c>
       <c r="AV170">
+        <v>0</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
         <v>0</v>
       </c>
       <c r="BH170" t="s">
@@ -17851,7 +18127,7 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>126986</v>
+        <v>210202</v>
       </c>
       <c r="C171" t="s">
         <v>456</v>
@@ -17862,6 +18138,15 @@
       <c r="G171" t="s">
         <v>457</v>
       </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
       <c r="AC171">
         <v>1</v>
       </c>
@@ -17871,10 +18156,55 @@
       <c r="AH171">
         <v>0.75</v>
       </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>0</v>
+      </c>
       <c r="AN171">
         <v>1.25</v>
       </c>
+      <c r="AS171">
+        <v>0</v>
+      </c>
       <c r="AV171">
+        <v>0</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
         <v>0</v>
       </c>
       <c r="BH171" t="s">
@@ -17898,7 +18228,7 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>126987</v>
+        <v>210203</v>
       </c>
       <c r="C172" t="s">
         <v>458</v>
@@ -17909,6 +18239,15 @@
       <c r="G172" t="s">
         <v>459</v>
       </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
       <c r="AC172">
         <v>1</v>
       </c>
@@ -17918,10 +18257,55 @@
       <c r="AH172">
         <v>1</v>
       </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>0</v>
+      </c>
+      <c r="AM172">
+        <v>0</v>
+      </c>
       <c r="AN172">
         <v>1.25</v>
       </c>
+      <c r="AS172">
+        <v>0</v>
+      </c>
       <c r="AV172">
+        <v>0</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
         <v>0</v>
       </c>
       <c r="BH172" t="s">
@@ -17945,7 +18329,7 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>126988</v>
+        <v>210204</v>
       </c>
       <c r="C173" t="s">
         <v>460</v>
@@ -17956,10 +18340,64 @@
       <c r="G173" t="s">
         <v>461</v>
       </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
       <c r="AC173">
         <v>1</v>
       </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>0</v>
+      </c>
+      <c r="AL173">
+        <v>0</v>
+      </c>
+      <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AS173">
+        <v>0</v>
+      </c>
       <c r="AV173">
+        <v>0</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
         <v>0</v>
       </c>
       <c r="BH173" t="s">
@@ -17983,7 +18421,7 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>126989</v>
+        <v>210205</v>
       </c>
       <c r="C174" t="s">
         <v>462</v>
@@ -17994,10 +18432,64 @@
       <c r="G174" t="s">
         <v>463</v>
       </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
       <c r="AC174">
         <v>1</v>
       </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>0</v>
+      </c>
+      <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AS174">
+        <v>0</v>
+      </c>
       <c r="AV174">
+        <v>0</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>0</v>
+      </c>
+      <c r="BG174">
         <v>0</v>
       </c>
       <c r="BM174">
@@ -18018,7 +18510,7 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>126990</v>
+        <v>210206</v>
       </c>
       <c r="C175" t="s">
         <v>464</v>
@@ -18029,13 +18521,67 @@
       <c r="G175" t="s">
         <v>465</v>
       </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
       <c r="AA175" t="s">
         <v>466</v>
       </c>
       <c r="AC175">
         <v>1</v>
       </c>
+      <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>0</v>
+      </c>
+      <c r="AM175">
+        <v>0</v>
+      </c>
+      <c r="AS175">
+        <v>0</v>
+      </c>
       <c r="AV175">
+        <v>0</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
         <v>0</v>
       </c>
       <c r="BM175">
@@ -18056,7 +18602,7 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>126991</v>
+        <v>210207</v>
       </c>
       <c r="C176" t="s">
         <v>467</v>
@@ -18067,6 +18613,15 @@
       <c r="G176" t="s">
         <v>468</v>
       </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
       <c r="AC176">
         <v>1</v>
       </c>
@@ -18076,10 +18631,55 @@
       <c r="AH176">
         <v>1</v>
       </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>0</v>
+      </c>
+      <c r="AK176">
+        <v>0</v>
+      </c>
+      <c r="AL176">
+        <v>0</v>
+      </c>
+      <c r="AM176">
+        <v>0</v>
+      </c>
       <c r="AN176">
         <v>1.2</v>
       </c>
+      <c r="AS176">
+        <v>0</v>
+      </c>
       <c r="AV176">
+        <v>0</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>0</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>0</v>
+      </c>
+      <c r="BC176">
+        <v>0</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>0</v>
+      </c>
+      <c r="BG176">
         <v>0</v>
       </c>
       <c r="BH176" t="s">
@@ -18103,7 +18703,7 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>126992</v>
+        <v>210208</v>
       </c>
       <c r="C177" t="s">
         <v>469</v>
@@ -18114,10 +18714,64 @@
       <c r="G177" t="s">
         <v>470</v>
       </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
       <c r="AC177">
         <v>1</v>
       </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AS177">
+        <v>0</v>
+      </c>
       <c r="AV177">
+        <v>0</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
         <v>0</v>
       </c>
       <c r="BM177">
@@ -18138,7 +18792,7 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>126993</v>
+        <v>210209</v>
       </c>
       <c r="C178" t="s">
         <v>471</v>
@@ -18149,10 +18803,64 @@
       <c r="G178" t="s">
         <v>472</v>
       </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
       <c r="AC178">
         <v>1</v>
       </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>0</v>
+      </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
+      <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AS178">
+        <v>0</v>
+      </c>
       <c r="AV178">
+        <v>0</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
         <v>0</v>
       </c>
       <c r="BM178">
@@ -18173,7 +18881,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>126994</v>
+        <v>210210</v>
       </c>
       <c r="C179" t="s">
         <v>473</v>
@@ -18184,10 +18892,64 @@
       <c r="G179" t="s">
         <v>474</v>
       </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
       <c r="AC179">
         <v>1</v>
       </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AS179">
+        <v>0</v>
+      </c>
       <c r="AV179">
+        <v>0</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>0</v>
+      </c>
+      <c r="BG179">
         <v>0</v>
       </c>
       <c r="BH179" t="s">
@@ -18211,7 +18973,7 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>126995</v>
+        <v>210211</v>
       </c>
       <c r="C180" t="s">
         <v>476</v>
@@ -18222,10 +18984,64 @@
       <c r="G180" t="s">
         <v>477</v>
       </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
       <c r="AC180">
         <v>1</v>
       </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AS180">
+        <v>0</v>
+      </c>
       <c r="AV180">
+        <v>0</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>0</v>
+      </c>
+      <c r="BG180">
         <v>0</v>
       </c>
       <c r="BH180" t="s">
@@ -18249,7 +19065,7 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>126996</v>
+        <v>210212</v>
       </c>
       <c r="C181" t="s">
         <v>478</v>
@@ -18260,10 +19076,64 @@
       <c r="G181" t="s">
         <v>479</v>
       </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
       <c r="AC181">
         <v>1</v>
       </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AS181">
+        <v>0</v>
+      </c>
       <c r="AV181">
+        <v>0</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>0</v>
+      </c>
+      <c r="BG181">
         <v>0</v>
       </c>
       <c r="BM181">
@@ -18284,7 +19154,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>126997</v>
+        <v>210213</v>
       </c>
       <c r="C182" t="s">
         <v>480</v>
@@ -18295,10 +19165,64 @@
       <c r="G182" t="s">
         <v>481</v>
       </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
       <c r="AC182">
         <v>1</v>
       </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>0</v>
+      </c>
+      <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AS182">
+        <v>0</v>
+      </c>
       <c r="AV182">
+        <v>0</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>0</v>
+      </c>
+      <c r="BG182">
         <v>0</v>
       </c>
       <c r="BH182" t="s">
@@ -18322,7 +19246,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>126998</v>
+        <v>210214</v>
       </c>
       <c r="C183" t="s">
         <v>482</v>
@@ -18333,12 +19257,66 @@
       <c r="G183" t="s">
         <v>483</v>
       </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
       <c r="AC183">
         <v>1</v>
       </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AS183">
+        <v>0</v>
+      </c>
       <c r="AV183">
         <v>0</v>
       </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>0</v>
+      </c>
+      <c r="BG183">
+        <v>0</v>
+      </c>
       <c r="BM183">
         <v>0</v>
       </c>
@@ -18352,6 +19330,41 @@
         <v>0</v>
       </c>
       <c r="BQ183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:72">
+      <c r="A184">
+        <v>318013</v>
+      </c>
+      <c r="C184" t="s">
+        <v>484</v>
+      </c>
+      <c r="D184" t="s">
+        <v>73</v>
+      </c>
+      <c r="G184" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC184">
+        <v>1</v>
+      </c>
+      <c r="AV184">
+        <v>0</v>
+      </c>
+      <c r="BM184">
+        <v>0</v>
+      </c>
+      <c r="BN184">
+        <v>0</v>
+      </c>
+      <c r="BO184">
+        <v>0</v>
+      </c>
+      <c r="BP184">
+        <v>0</v>
+      </c>
+      <c r="BQ184">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -617,61 +617,61 @@
     <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
   </si>
   <si>
+    <t>Satanic Sigil</t>
+  </si>
+  <si>
+    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
+  </si>
+  <si>
+    <t>Bottle of Fire Demon Essence</t>
+  </si>
+  <si>
+    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
+  </si>
+  <si>
+    <t>Flaming Coin</t>
+  </si>
+  <si>
+    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
+  </si>
+  <si>
+    <t>Shadow Ink</t>
+  </si>
+  <si>
+    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
+  </si>
+  <si>
+    <t>Flaming Sword of Ascension</t>
+  </si>
+  <si>
+    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
+  </si>
+  <si>
+    <t>Candle Stick of Hope</t>
+  </si>
+  <si>
+    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
+  </si>
+  <si>
+    <t>Holy Wax</t>
+  </si>
+  <si>
+    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
+  </si>
+  <si>
+    <t>Burnt Wick</t>
+  </si>
+  <si>
+    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
+  </si>
+  <si>
+    <t>Bishop's Enchanted Scroll</t>
+  </si>
+  <si>
+    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
+  </si>
+  <si>
     <t>Satans Cage</t>
-  </si>
-  <si>
-    <t>Satanic Sigil</t>
-  </si>
-  <si>
-    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
-  </si>
-  <si>
-    <t>Bottle of Fire Demon Essence</t>
-  </si>
-  <si>
-    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
-  </si>
-  <si>
-    <t>Flaming Coin</t>
-  </si>
-  <si>
-    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
-  </si>
-  <si>
-    <t>Shadow Ink</t>
-  </si>
-  <si>
-    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
-  </si>
-  <si>
-    <t>Flaming Sword of Ascension</t>
-  </si>
-  <si>
-    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
-  </si>
-  <si>
-    <t>Candle Stick of Hope</t>
-  </si>
-  <si>
-    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
-  </si>
-  <si>
-    <t>Holy Wax</t>
-  </si>
-  <si>
-    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
-  </si>
-  <si>
-    <t>Burnt Wick</t>
-  </si>
-  <si>
-    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
-  </si>
-  <si>
-    <t>Bishop's Enchanted Scroll</t>
-  </si>
-  <si>
-    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
   </si>
   <si>
     <t>Enchanted Candlestick of Light</t>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="BH50" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>536</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6930,13 +6930,13 @@
         <v>537</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>538</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7114,13 +7114,13 @@
         <v>539</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7209,13 +7209,13 @@
         <v>540</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7304,13 +7304,13 @@
         <v>541</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -7399,13 +7399,13 @@
         <v>542</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7494,13 +7494,13 @@
         <v>543</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7589,79 +7589,79 @@
         <v>544</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
+        <v>217</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59" t="s">
         <v>218</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AS59">
-        <v>0</v>
-      </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AX59">
-        <v>0</v>
-      </c>
-      <c r="AY59">
-        <v>0</v>
-      </c>
-      <c r="BA59">
-        <v>0</v>
-      </c>
-      <c r="BB59">
-        <v>0</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-      <c r="BD59">
-        <v>0</v>
-      </c>
-      <c r="BE59">
-        <v>0</v>
-      </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
-      </c>
-      <c r="BH59" t="s">
-        <v>200</v>
       </c>
       <c r="BM59">
         <v>0</v>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="BH61" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="BH113" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="BM113">
         <v>0</v>
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="BH119" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="BM119">
         <v>0</v>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="BH136" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="BM136">
         <v>0</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>318013</v>
+        <v>376323</v>
       </c>
       <c r="C184" t="s">
         <v>484</v>
@@ -19346,10 +19346,64 @@
       <c r="G184" t="s">
         <v>485</v>
       </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
       <c r="AC184">
         <v>1</v>
       </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AS184">
+        <v>0</v>
+      </c>
       <c r="AV184">
+        <v>0</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>0</v>
+      </c>
+      <c r="BG184">
         <v>0</v>
       </c>
       <c r="BM184">

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t>id</t>
   </si>
@@ -1473,6 +1473,15 @@
   </si>
   <si>
     <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1821,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT184"/>
+  <dimension ref="A1:BT185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -19335,7 +19344,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>376323</v>
+        <v>410519</v>
       </c>
       <c r="C184" t="s">
         <v>484</v>
@@ -19419,6 +19428,44 @@
         <v>0</v>
       </c>
       <c r="BQ184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:72">
+      <c r="A185">
+        <v>938325</v>
+      </c>
+      <c r="C185" t="s">
+        <v>486</v>
+      </c>
+      <c r="D185" t="s">
+        <v>73</v>
+      </c>
+      <c r="G185" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC185">
+        <v>1</v>
+      </c>
+      <c r="AV185">
+        <v>0</v>
+      </c>
+      <c r="BM185">
+        <v>0</v>
+      </c>
+      <c r="BN185">
+        <v>0</v>
+      </c>
+      <c r="BO185">
+        <v>0</v>
+      </c>
+      <c r="BP185">
+        <v>0</v>
+      </c>
+      <c r="BQ185">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>id</t>
   </si>
@@ -1482,6 +1482,12 @@
   </si>
   <si>
     <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1827,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT185"/>
+  <dimension ref="A1:BT186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -19433,7 +19439,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>938325</v>
+        <v>938213</v>
       </c>
       <c r="C185" t="s">
         <v>486</v>
@@ -19444,15 +19450,69 @@
       <c r="G185" t="s">
         <v>487</v>
       </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
       <c r="AA185" t="s">
         <v>488</v>
       </c>
       <c r="AC185">
         <v>1</v>
       </c>
+      <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <v>0</v>
+      </c>
+      <c r="AL185">
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AS185">
+        <v>0</v>
+      </c>
       <c r="AV185">
         <v>0</v>
       </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>0</v>
+      </c>
+      <c r="BG185">
+        <v>0</v>
+      </c>
       <c r="BM185">
         <v>0</v>
       </c>
@@ -19466,6 +19526,41 @@
         <v>0</v>
       </c>
       <c r="BQ185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:72">
+      <c r="A186">
+        <v>938214</v>
+      </c>
+      <c r="C186" t="s">
+        <v>489</v>
+      </c>
+      <c r="D186" t="s">
+        <v>73</v>
+      </c>
+      <c r="G186" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC186">
+        <v>1</v>
+      </c>
+      <c r="AV186">
+        <v>0</v>
+      </c>
+      <c r="BM186">
+        <v>0</v>
+      </c>
+      <c r="BN186">
+        <v>0</v>
+      </c>
+      <c r="BO186">
+        <v>0</v>
+      </c>
+      <c r="BP186">
+        <v>0</v>
+      </c>
+      <c r="BQ186">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t>id</t>
   </si>
@@ -1488,6 +1488,54 @@
   </si>
   <si>
     <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>Twisted Dice</t>
+  </si>
+  <si>
+    <t>Dice that you find in the depths of the dungeons. Their rolls and outcome are always twisted to your own delusional desire.</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1875,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT186"/>
+  <dimension ref="A1:BT194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -19564,6 +19612,310 @@
         <v>0</v>
       </c>
     </row>
+    <row r="187" spans="1:72">
+      <c r="A187">
+        <v>938215</v>
+      </c>
+      <c r="C187" t="s">
+        <v>491</v>
+      </c>
+      <c r="D187" t="s">
+        <v>73</v>
+      </c>
+      <c r="G187" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC187">
+        <v>1</v>
+      </c>
+      <c r="AV187">
+        <v>0</v>
+      </c>
+      <c r="BH187" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM187">
+        <v>0</v>
+      </c>
+      <c r="BN187">
+        <v>0</v>
+      </c>
+      <c r="BO187">
+        <v>0</v>
+      </c>
+      <c r="BP187">
+        <v>0</v>
+      </c>
+      <c r="BQ187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:72">
+      <c r="A188">
+        <v>938216</v>
+      </c>
+      <c r="C188" t="s">
+        <v>493</v>
+      </c>
+      <c r="D188" t="s">
+        <v>73</v>
+      </c>
+      <c r="G188" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC188">
+        <v>1</v>
+      </c>
+      <c r="AV188">
+        <v>0</v>
+      </c>
+      <c r="BH188" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM188">
+        <v>0</v>
+      </c>
+      <c r="BN188">
+        <v>0</v>
+      </c>
+      <c r="BO188">
+        <v>0</v>
+      </c>
+      <c r="BP188">
+        <v>0</v>
+      </c>
+      <c r="BQ188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:72">
+      <c r="A189">
+        <v>938217</v>
+      </c>
+      <c r="C189" t="s">
+        <v>495</v>
+      </c>
+      <c r="D189" t="s">
+        <v>73</v>
+      </c>
+      <c r="G189" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC189">
+        <v>1</v>
+      </c>
+      <c r="AV189">
+        <v>0</v>
+      </c>
+      <c r="BH189" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM189">
+        <v>0</v>
+      </c>
+      <c r="BN189">
+        <v>0</v>
+      </c>
+      <c r="BO189">
+        <v>0</v>
+      </c>
+      <c r="BP189">
+        <v>0</v>
+      </c>
+      <c r="BQ189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:72">
+      <c r="A190">
+        <v>938218</v>
+      </c>
+      <c r="C190" t="s">
+        <v>497</v>
+      </c>
+      <c r="D190" t="s">
+        <v>73</v>
+      </c>
+      <c r="G190" t="s">
+        <v>498</v>
+      </c>
+      <c r="AC190">
+        <v>1</v>
+      </c>
+      <c r="AV190">
+        <v>0</v>
+      </c>
+      <c r="BH190" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM190">
+        <v>0</v>
+      </c>
+      <c r="BN190">
+        <v>0</v>
+      </c>
+      <c r="BO190">
+        <v>0</v>
+      </c>
+      <c r="BP190">
+        <v>0</v>
+      </c>
+      <c r="BQ190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:72">
+      <c r="A191">
+        <v>938219</v>
+      </c>
+      <c r="C191" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" t="s">
+        <v>73</v>
+      </c>
+      <c r="G191" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC191">
+        <v>1</v>
+      </c>
+      <c r="AV191">
+        <v>0</v>
+      </c>
+      <c r="BH191" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM191">
+        <v>0</v>
+      </c>
+      <c r="BN191">
+        <v>0</v>
+      </c>
+      <c r="BO191">
+        <v>0</v>
+      </c>
+      <c r="BP191">
+        <v>0</v>
+      </c>
+      <c r="BQ191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:72">
+      <c r="A192">
+        <v>938220</v>
+      </c>
+      <c r="C192" t="s">
+        <v>501</v>
+      </c>
+      <c r="D192" t="s">
+        <v>73</v>
+      </c>
+      <c r="G192" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC192">
+        <v>1</v>
+      </c>
+      <c r="AV192">
+        <v>0</v>
+      </c>
+      <c r="BH192" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM192">
+        <v>0</v>
+      </c>
+      <c r="BN192">
+        <v>0</v>
+      </c>
+      <c r="BO192">
+        <v>0</v>
+      </c>
+      <c r="BP192">
+        <v>0</v>
+      </c>
+      <c r="BQ192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:72">
+      <c r="A193">
+        <v>938221</v>
+      </c>
+      <c r="C193" t="s">
+        <v>503</v>
+      </c>
+      <c r="D193" t="s">
+        <v>73</v>
+      </c>
+      <c r="G193" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC193">
+        <v>1</v>
+      </c>
+      <c r="AV193">
+        <v>0</v>
+      </c>
+      <c r="BH193" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM193">
+        <v>0</v>
+      </c>
+      <c r="BN193">
+        <v>0</v>
+      </c>
+      <c r="BO193">
+        <v>0</v>
+      </c>
+      <c r="BP193">
+        <v>0</v>
+      </c>
+      <c r="BQ193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:72">
+      <c r="A194">
+        <v>938222</v>
+      </c>
+      <c r="C194" t="s">
+        <v>505</v>
+      </c>
+      <c r="D194" t="s">
+        <v>73</v>
+      </c>
+      <c r="G194" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC194">
+        <v>1</v>
+      </c>
+      <c r="AV194">
+        <v>0</v>
+      </c>
+      <c r="BH194" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM194">
+        <v>0</v>
+      </c>
+      <c r="BN194">
+        <v>0</v>
+      </c>
+      <c r="BO194">
+        <v>0</v>
+      </c>
+      <c r="BP194">
+        <v>0</v>
+      </c>
+      <c r="BQ194">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
   <si>
     <t>id</t>
   </si>
@@ -233,12 +233,48 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Vile of Twisted Laughter</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Lover of the queens charred bones</t>
+  </si>
+  <si>
+    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Scholars Glasses</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Mothers Quill</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
     <t>Weaponsmith's Book</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>Grants the ability to craft weapons better.</t>
   </si>
   <si>
@@ -494,9 +530,6 @@
     <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
   </si>
   <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
     <t>Purse of Copper Coins</t>
   </si>
   <si>
@@ -515,9 +548,6 @@
     <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
   </si>
   <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
     <t>Purgatory's Lantern</t>
   </si>
   <si>
@@ -671,9 +701,6 @@
     <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
   </si>
   <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
     <t>Enchanted Candlestick of Light</t>
   </si>
   <si>
@@ -782,9 +809,6 @@
     <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
   </si>
   <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
     <t>Smith's Iron Chunks</t>
   </si>
   <si>
@@ -1536,6 +1560,12 @@
   </si>
   <si>
     <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1905,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT194"/>
+  <dimension ref="A1:BT199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2177,7 +2207,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>487</v>
+        <v>938260</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2188,74 +2218,14 @@
       <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
         <v>75</v>
-      </c>
-      <c r="AH2">
-        <v>0.15</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0.25</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -2275,7 +2245,7 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>488</v>
+        <v>938261</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2286,80 +2256,14 @@
       <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="s">
         <v>78</v>
-      </c>
-      <c r="AH3">
-        <v>0.15</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0.25</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2379,7 +2283,7 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>489</v>
+        <v>938262</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2390,68 +2294,14 @@
       <c r="G4" t="s">
         <v>80</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>81</v>
-      </c>
       <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
+      <c r="BH4" t="s">
+        <v>81</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2471,7 +2321,7 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>490</v>
+        <v>938263</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -2482,74 +2332,14 @@
       <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AC5">
         <v>1</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
         <v>84</v>
-      </c>
-      <c r="AH5">
-        <v>0.15</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0.25</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2569,7 +2359,7 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -2579,12 +2369,6 @@
       </c>
       <c r="G6" t="s">
         <v>86</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2673,7 +2457,7 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -2683,6 +2467,12 @@
       </c>
       <c r="G7" t="s">
         <v>89</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2771,7 +2561,7 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -2863,7 +2653,7 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -2874,12 +2664,6 @@
       <c r="G9" t="s">
         <v>95</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -2888,13 +2672,16 @@
       </c>
       <c r="Z9">
         <v>0</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>96</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
+      <c r="AG9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9">
+        <v>0.15</v>
+      </c>
       <c r="AI9">
         <v>0</v>
       </c>
@@ -2909,6 +2696,9 @@
       </c>
       <c r="AM9">
         <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0.25</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -2961,7 +2751,7 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C10" t="s">
         <v>97</v>
@@ -2987,9 +2777,15 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
         <v>99</v>
       </c>
+      <c r="AH10">
+        <v>0.15</v>
+      </c>
       <c r="AI10">
         <v>0</v>
       </c>
@@ -3004,6 +2800,9 @@
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0.25</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -3056,7 +2855,7 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -3067,12 +2866,6 @@
       <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -3082,9 +2875,15 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
         <v>102</v>
       </c>
+      <c r="AH11">
+        <v>0.15</v>
+      </c>
       <c r="AI11">
         <v>0</v>
       </c>
@@ -3099,6 +2898,9 @@
       </c>
       <c r="AM11">
         <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0.25</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -3151,7 +2953,7 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -3162,12 +2964,6 @@
       <c r="G12" t="s">
         <v>104</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -3176,6 +2972,9 @@
       </c>
       <c r="Z12">
         <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>105</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -3246,16 +3045,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3271,6 +3070,9 @@
       </c>
       <c r="Z13">
         <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>108</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -3341,16 +3143,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3367,14 +3169,8 @@
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH14">
-        <v>0.5</v>
+      <c r="AA14" t="s">
+        <v>111</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3390,9 +3186,6 @@
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0.3</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -3445,16 +3238,16 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3471,14 +3264,8 @@
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH15">
-        <v>0.5</v>
+      <c r="AA15" t="s">
+        <v>114</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3494,9 +3281,6 @@
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0.3</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -3549,16 +3333,16 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -3578,12 +3362,6 @@
       <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AG16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH16">
-        <v>0.5</v>
-      </c>
       <c r="AI16">
         <v>0</v>
       </c>
@@ -3598,9 +3376,6 @@
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0.3</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -3653,16 +3428,16 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3682,12 +3457,6 @@
       <c r="AC17">
         <v>1</v>
       </c>
-      <c r="AG17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH17">
-        <v>0.5</v>
-      </c>
       <c r="AI17">
         <v>0</v>
       </c>
@@ -3702,9 +3471,6 @@
       </c>
       <c r="AM17">
         <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0.3</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -3757,16 +3523,16 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3783,8 +3549,11 @@
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
       <c r="AG18" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AH18">
         <v>0.5</v>
@@ -3858,16 +3627,16 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3887,6 +3656,12 @@
       <c r="AC19">
         <v>1</v>
       </c>
+      <c r="AG19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH19">
+        <v>0.5</v>
+      </c>
       <c r="AI19">
         <v>0</v>
       </c>
@@ -3901,6 +3676,9 @@
       </c>
       <c r="AM19">
         <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0.3</v>
       </c>
       <c r="AS19">
         <v>0</v>
@@ -3953,16 +3731,16 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3979,8 +3757,14 @@
       <c r="Z20">
         <v>0</v>
       </c>
-      <c r="AA20" t="s">
-        <v>121</v>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH20">
+        <v>0.5</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -3996,6 +3780,9 @@
       </c>
       <c r="AM20">
         <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0.3</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -4048,16 +3835,16 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4074,11 +3861,14 @@
       <c r="Z21">
         <v>0</v>
       </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
       <c r="AG21" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AH21">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -4096,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -4149,16 +3939,16 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4176,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="AG22" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AH22">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4197,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS22">
         <v>0</v>
@@ -4250,16 +4040,16 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4276,8 +4066,8 @@
       <c r="Z23">
         <v>0</v>
       </c>
-      <c r="AA23" t="s">
-        <v>130</v>
+      <c r="AC23">
+        <v>1</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4345,7 +4135,7 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
         <v>131</v>
@@ -4372,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4417,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="BF24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -4440,16 +4230,16 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4466,8 +4256,11 @@
       <c r="Z25">
         <v>0</v>
       </c>
-      <c r="AA25" t="s">
-        <v>130</v>
+      <c r="AG25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH25">
+        <v>0.45</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4484,6 +4277,9 @@
       <c r="AM25">
         <v>0</v>
       </c>
+      <c r="AN25">
+        <v>0.45</v>
+      </c>
       <c r="AS25">
         <v>0</v>
       </c>
@@ -4512,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="BF25">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BG25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -4535,16 +4331,16 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4561,8 +4357,11 @@
       <c r="Z26">
         <v>0</v>
       </c>
-      <c r="AA26" t="s">
-        <v>130</v>
+      <c r="AG26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH26">
+        <v>0.45</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4579,6 +4378,9 @@
       <c r="AM26">
         <v>0</v>
       </c>
+      <c r="AN26">
+        <v>0.45</v>
+      </c>
       <c r="AS26">
         <v>0</v>
       </c>
@@ -4607,10 +4409,10 @@
         <v>0</v>
       </c>
       <c r="BF26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4630,16 +4432,16 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -4655,6 +4457,9 @@
       </c>
       <c r="Z27">
         <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>142</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -4722,16 +4527,16 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4749,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -4794,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="BF28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BG28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4817,16 +4622,16 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4844,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -4889,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="BF29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -4912,16 +4717,16 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4939,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4984,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30">
         <v>0</v>
@@ -5007,16 +4812,16 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5099,16 +4904,16 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5124,6 +4929,9 @@
       </c>
       <c r="Z32">
         <v>0</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>153</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -5191,16 +4999,16 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5216,6 +5024,9 @@
       </c>
       <c r="Z33">
         <v>0</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>156</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -5283,16 +5094,16 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5310,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5378,16 +5189,16 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5451,9 +5262,6 @@
       </c>
       <c r="BG35">
         <v>0</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>159</v>
       </c>
       <c r="BM35">
         <v>0</v>
@@ -5473,16 +5281,16 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5546,9 +5354,6 @@
       </c>
       <c r="BG36">
         <v>0</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>159</v>
       </c>
       <c r="BM36">
         <v>0</v>
@@ -5568,16 +5373,16 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5660,16 +5465,16 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5686,6 +5491,9 @@
       <c r="Z38">
         <v>0</v>
       </c>
+      <c r="AA38" t="s">
+        <v>168</v>
+      </c>
       <c r="AI38">
         <v>0</v>
       </c>
@@ -5733,9 +5541,6 @@
       </c>
       <c r="BG38">
         <v>0</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>166</v>
       </c>
       <c r="BM38">
         <v>0</v>
@@ -5755,16 +5560,16 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5781,9 +5586,6 @@
       <c r="Z39">
         <v>0</v>
       </c>
-      <c r="AA39" t="s">
-        <v>169</v>
-      </c>
       <c r="AI39">
         <v>0</v>
       </c>
@@ -5831,6 +5633,9 @@
       </c>
       <c r="BG39">
         <v>0</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>84</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5850,16 +5655,16 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5925,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="BH40" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5945,7 +5750,7 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -5971,12 +5776,6 @@
       <c r="Z41">
         <v>0</v>
       </c>
-      <c r="AG41" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH41">
-        <v>0.25</v>
-      </c>
       <c r="AI41">
         <v>0</v>
       </c>
@@ -5992,9 +5791,6 @@
       <c r="AM41">
         <v>0</v>
       </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
       <c r="AS41">
         <v>0</v>
       </c>
@@ -6027,9 +5823,6 @@
       </c>
       <c r="BG41">
         <v>0</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>176</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -6049,16 +5842,16 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -6075,12 +5868,6 @@
       <c r="Z42">
         <v>0</v>
       </c>
-      <c r="AG42" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH42">
-        <v>0.75</v>
-      </c>
       <c r="AI42">
         <v>0</v>
       </c>
@@ -6096,9 +5883,6 @@
       <c r="AM42">
         <v>0</v>
       </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
       <c r="AS42">
         <v>0</v>
       </c>
@@ -6133,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="BH42" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -6153,16 +5937,16 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -6178,6 +5962,9 @@
       </c>
       <c r="Z43">
         <v>0</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>179</v>
       </c>
       <c r="AI43">
         <v>0</v>
@@ -6245,16 +6032,16 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
         <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6271,12 +6058,6 @@
       <c r="Z44">
         <v>0</v>
       </c>
-      <c r="AG44" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH44">
-        <v>0.75</v>
-      </c>
       <c r="AI44">
         <v>0</v>
       </c>
@@ -6292,9 +6073,6 @@
       <c r="AM44">
         <v>0</v>
       </c>
-      <c r="AN44">
-        <v>2</v>
-      </c>
       <c r="AS44">
         <v>0</v>
       </c>
@@ -6323,10 +6101,13 @@
         <v>0</v>
       </c>
       <c r="BF44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG44">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>182</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -6346,16 +6127,16 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6372,8 +6153,11 @@
       <c r="Z45">
         <v>0</v>
       </c>
-      <c r="AA45" t="s">
-        <v>188</v>
+      <c r="AG45" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH45">
+        <v>0.25</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -6390,6 +6174,9 @@
       <c r="AM45">
         <v>0</v>
       </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
       <c r="AS45">
         <v>0</v>
       </c>
@@ -6418,10 +6205,13 @@
         <v>0</v>
       </c>
       <c r="BF45">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BG45">
-        <v>0.45</v>
+        <v>0</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>186</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -6441,82 +6231,91 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
+        <v>188</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH46">
+        <v>0.75</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="s">
         <v>190</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6536,16 +6335,16 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6628,31 +6427,37 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
+        <v>194</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="s">
         <v>195</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
+      <c r="AH48">
+        <v>0.75</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6669,6 +6474,9 @@
       <c r="AM48">
         <v>0</v>
       </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
       <c r="AS48">
         <v>0</v>
       </c>
@@ -6697,13 +6505,10 @@
         <v>0</v>
       </c>
       <c r="BF48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48" t="s">
-        <v>172</v>
+        <v>0.3</v>
       </c>
       <c r="BM48">
         <v>0</v>
@@ -6723,7 +6528,7 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C49" t="s">
         <v>196</v>
@@ -6749,6 +6554,9 @@
       <c r="Z49">
         <v>0</v>
       </c>
+      <c r="AA49" t="s">
+        <v>198</v>
+      </c>
       <c r="AI49">
         <v>0</v>
       </c>
@@ -6792,10 +6600,10 @@
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG49">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BM49">
         <v>0</v>
@@ -6815,16 +6623,16 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6841,6 +6649,9 @@
       <c r="Z50">
         <v>0</v>
       </c>
+      <c r="AA50" t="s">
+        <v>201</v>
+      </c>
       <c r="AI50">
         <v>0</v>
       </c>
@@ -6856,9 +6667,21 @@
       <c r="AM50">
         <v>0</v>
       </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
       <c r="AV50">
         <v>0</v>
       </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
       <c r="BB50">
         <v>0</v>
       </c>
@@ -6876,9 +6699,6 @@
       </c>
       <c r="BG50">
         <v>0</v>
-      </c>
-      <c r="BH50" t="s">
-        <v>176</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6898,16 +6718,16 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6990,16 +6810,16 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -7063,6 +6883,9 @@
       </c>
       <c r="BG52">
         <v>0</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>182</v>
       </c>
       <c r="BM52">
         <v>0</v>
@@ -7082,16 +6905,16 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7174,16 +6997,16 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7215,21 +7038,9 @@
       <c r="AM54">
         <v>0</v>
       </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
       <c r="AV54">
         <v>0</v>
       </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
       <c r="BB54">
         <v>0</v>
       </c>
@@ -7249,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="BH54" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="BM54">
         <v>0</v>
@@ -7269,16 +7080,16 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7342,9 +7153,6 @@
       </c>
       <c r="BG55">
         <v>0</v>
-      </c>
-      <c r="BH55" t="s">
-        <v>159</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -7364,16 +7172,16 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -7437,9 +7245,6 @@
       </c>
       <c r="BG56">
         <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>0.15</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -7459,16 +7264,16 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7532,9 +7337,6 @@
       </c>
       <c r="BG57">
         <v>0</v>
-      </c>
-      <c r="BH57" t="s">
-        <v>180</v>
       </c>
       <c r="BM57">
         <v>0</v>
@@ -7554,16 +7356,16 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7629,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="BH58" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BM58">
         <v>0</v>
@@ -7649,16 +7451,16 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7724,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="BH59" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="BM59">
         <v>0</v>
@@ -7744,16 +7546,16 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7819,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="BI60">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="BM60">
         <v>0</v>
@@ -7839,16 +7641,16 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7914,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="BH61" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -7934,16 +7736,16 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -8008,8 +7810,8 @@
       <c r="BG62">
         <v>0</v>
       </c>
-      <c r="BI62">
-        <v>0.5</v>
+      <c r="BH62" t="s">
+        <v>182</v>
       </c>
       <c r="BM62">
         <v>0</v>
@@ -8029,16 +7831,16 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -8103,8 +7905,8 @@
       <c r="BG63">
         <v>0</v>
       </c>
-      <c r="BI63">
-        <v>0.05</v>
+      <c r="BH63" t="s">
+        <v>75</v>
       </c>
       <c r="BM63">
         <v>0</v>
@@ -8124,16 +7926,16 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8198,11 +8000,8 @@
       <c r="BG64">
         <v>0</v>
       </c>
-      <c r="BH64" t="s">
-        <v>176</v>
-      </c>
       <c r="BI64">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="BM64">
         <v>0</v>
@@ -8222,16 +8021,16 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8248,9 +8047,6 @@
       <c r="Z65">
         <v>0</v>
       </c>
-      <c r="AA65" t="s">
-        <v>231</v>
-      </c>
       <c r="AI65">
         <v>0</v>
       </c>
@@ -8298,6 +8094,9 @@
       </c>
       <c r="BG65">
         <v>0</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>75</v>
       </c>
       <c r="BM65">
         <v>0</v>
@@ -8317,7 +8116,7 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C66" t="s">
         <v>232</v>
@@ -8391,8 +8190,8 @@
       <c r="BG66">
         <v>0</v>
       </c>
-      <c r="BH66" t="s">
-        <v>166</v>
+      <c r="BI66">
+        <v>0.5</v>
       </c>
       <c r="BM66">
         <v>0</v>
@@ -8412,7 +8211,7 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C67" t="s">
         <v>234</v>
@@ -8486,8 +8285,8 @@
       <c r="BG67">
         <v>0</v>
       </c>
-      <c r="BH67" t="s">
-        <v>180</v>
+      <c r="BI67">
+        <v>0.05</v>
       </c>
       <c r="BM67">
         <v>0</v>
@@ -8507,7 +8306,7 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C68" t="s">
         <v>236</v>
@@ -8580,6 +8379,12 @@
       </c>
       <c r="BG68">
         <v>0</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI68">
+        <v>0.8</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -8599,7 +8404,7 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C69" t="s">
         <v>238</v>
@@ -8694,7 +8499,7 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C70" t="s">
         <v>241</v>
@@ -8769,13 +8574,7 @@
         <v>0</v>
       </c>
       <c r="BH70" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI70">
-        <v>0.05</v>
-      </c>
-      <c r="BJ70">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="BM70">
         <v>0</v>
@@ -8795,7 +8594,7 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C71" t="s">
         <v>243</v>
@@ -8869,11 +8668,8 @@
       <c r="BG71">
         <v>0</v>
       </c>
-      <c r="BI71">
-        <v>0.95</v>
-      </c>
-      <c r="BJ71">
-        <v>1</v>
+      <c r="BH71" t="s">
+        <v>190</v>
       </c>
       <c r="BM71">
         <v>0</v>
@@ -8893,7 +8689,7 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C72" t="s">
         <v>245</v>
@@ -8966,15 +8762,6 @@
       </c>
       <c r="BG72">
         <v>0</v>
-      </c>
-      <c r="BH72" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI72">
-        <v>0.15</v>
-      </c>
-      <c r="BJ72">
-        <v>1</v>
       </c>
       <c r="BM72">
         <v>0</v>
@@ -8994,7 +8781,7 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C73" t="s">
         <v>247</v>
@@ -9020,6 +8807,9 @@
       <c r="Z73">
         <v>0</v>
       </c>
+      <c r="AA73" t="s">
+        <v>249</v>
+      </c>
       <c r="AI73">
         <v>0</v>
       </c>
@@ -9067,12 +8857,6 @@
       </c>
       <c r="BG73">
         <v>0</v>
-      </c>
-      <c r="BI73">
-        <v>1.25</v>
-      </c>
-      <c r="BJ73">
-        <v>1</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -9092,16 +8876,16 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -9166,8 +8950,11 @@
       <c r="BG74">
         <v>0</v>
       </c>
+      <c r="BH74" t="s">
+        <v>190</v>
+      </c>
       <c r="BI74">
-        <v>1.6</v>
+        <v>0.05</v>
       </c>
       <c r="BJ74">
         <v>1</v>
@@ -9190,16 +8977,16 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9263,6 +9050,12 @@
       </c>
       <c r="BG75">
         <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0.95</v>
+      </c>
+      <c r="BJ75">
+        <v>1</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -9282,16 +9075,16 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9357,7 +9150,13 @@
         <v>0</v>
       </c>
       <c r="BH76" t="s">
-        <v>255</v>
+        <v>81</v>
+      </c>
+      <c r="BI76">
+        <v>0.15</v>
+      </c>
+      <c r="BJ76">
+        <v>1</v>
       </c>
       <c r="BM76">
         <v>0</v>
@@ -9377,7 +9176,7 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C77" t="s">
         <v>256</v>
@@ -9451,8 +9250,11 @@
       <c r="BG77">
         <v>0</v>
       </c>
-      <c r="BH77" t="s">
-        <v>176</v>
+      <c r="BI77">
+        <v>1.25</v>
+      </c>
+      <c r="BJ77">
+        <v>1</v>
       </c>
       <c r="BM77">
         <v>0</v>
@@ -9472,7 +9274,7 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C78" t="s">
         <v>258</v>
@@ -9546,8 +9348,11 @@
       <c r="BG78">
         <v>0</v>
       </c>
-      <c r="BH78" t="s">
-        <v>255</v>
+      <c r="BI78">
+        <v>1.6</v>
+      </c>
+      <c r="BJ78">
+        <v>1</v>
       </c>
       <c r="BM78">
         <v>0</v>
@@ -9567,7 +9372,7 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C79" t="s">
         <v>260</v>
@@ -9640,9 +9445,6 @@
       </c>
       <c r="BG79">
         <v>0</v>
-      </c>
-      <c r="BH79" t="s">
-        <v>159</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9662,7 +9464,7 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C80" t="s">
         <v>262</v>
@@ -9736,11 +9538,8 @@
       <c r="BG80">
         <v>0</v>
       </c>
-      <c r="BI80">
-        <v>0.25</v>
-      </c>
-      <c r="BJ80">
-        <v>1</v>
+      <c r="BH80" t="s">
+        <v>78</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9760,7 +9559,7 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C81" t="s">
         <v>264</v>
@@ -9835,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="BH81" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="BM81">
         <v>0</v>
@@ -9855,7 +9654,7 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C82" t="s">
         <v>266</v>
@@ -9927,13 +9726,10 @@
         <v>0</v>
       </c>
       <c r="BG82">
-        <v>0.35</v>
-      </c>
-      <c r="BI82">
-        <v>1.6</v>
-      </c>
-      <c r="BJ82">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH82" t="s">
+        <v>78</v>
       </c>
       <c r="BM82">
         <v>0</v>
@@ -9953,7 +9749,7 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C83" t="s">
         <v>268</v>
@@ -10028,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -10048,7 +9844,7 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C84" t="s">
         <v>270</v>
@@ -10074,62 +9870,59 @@
       <c r="Z84">
         <v>0</v>
       </c>
-      <c r="AG84" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH84">
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
         <v>0.25</v>
       </c>
-      <c r="AI84">
-        <v>0</v>
-      </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
-      <c r="AK84">
-        <v>0</v>
-      </c>
-      <c r="AL84">
-        <v>0</v>
-      </c>
-      <c r="AM84">
-        <v>0</v>
-      </c>
-      <c r="AN84">
-        <v>0.25</v>
-      </c>
-      <c r="AS84">
-        <v>0</v>
-      </c>
-      <c r="AV84">
-        <v>0</v>
-      </c>
-      <c r="AX84">
-        <v>0</v>
-      </c>
-      <c r="AY84">
-        <v>0</v>
-      </c>
-      <c r="BA84">
-        <v>0</v>
-      </c>
-      <c r="BB84">
-        <v>0</v>
-      </c>
-      <c r="BC84">
-        <v>0</v>
-      </c>
-      <c r="BD84">
-        <v>0</v>
-      </c>
-      <c r="BE84">
-        <v>0</v>
-      </c>
-      <c r="BF84">
-        <v>0</v>
-      </c>
-      <c r="BG84">
-        <v>0</v>
+      <c r="BJ84">
+        <v>1</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -10149,7 +9942,7 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C85" t="s">
         <v>272</v>
@@ -10175,12 +9968,6 @@
       <c r="Z85">
         <v>0</v>
       </c>
-      <c r="AG85" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH85">
-        <v>0.25</v>
-      </c>
       <c r="AI85">
         <v>0</v>
       </c>
@@ -10196,9 +9983,6 @@
       <c r="AM85">
         <v>0</v>
       </c>
-      <c r="AN85">
-        <v>0.25</v>
-      </c>
       <c r="AS85">
         <v>0</v>
       </c>
@@ -10231,6 +10015,9 @@
       </c>
       <c r="BG85">
         <v>0</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>81</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -10250,16 +10037,16 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10276,9 +10063,6 @@
       <c r="Z86">
         <v>0</v>
       </c>
-      <c r="AG86" t="s">
-        <v>175</v>
-      </c>
       <c r="AI86">
         <v>0</v>
       </c>
@@ -10294,9 +10078,6 @@
       <c r="AM86">
         <v>0</v>
       </c>
-      <c r="AN86">
-        <v>0.25</v>
-      </c>
       <c r="AS86">
         <v>0</v>
       </c>
@@ -10328,7 +10109,13 @@
         <v>0</v>
       </c>
       <c r="BG86">
-        <v>0</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI86">
+        <v>1.6</v>
+      </c>
+      <c r="BJ86">
+        <v>1</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -10348,16 +10135,16 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10374,9 +10161,6 @@
       <c r="Z87">
         <v>0</v>
       </c>
-      <c r="AG87" t="s">
-        <v>279</v>
-      </c>
       <c r="AI87">
         <v>0</v>
       </c>
@@ -10392,9 +10176,6 @@
       <c r="AM87">
         <v>0</v>
       </c>
-      <c r="AN87">
-        <v>0.25</v>
-      </c>
       <c r="AS87">
         <v>0</v>
       </c>
@@ -10427,6 +10208,9 @@
       </c>
       <c r="BG87">
         <v>0</v>
+      </c>
+      <c r="BH87" t="s">
+        <v>75</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -10446,16 +10230,16 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10473,7 +10257,10 @@
         <v>0</v>
       </c>
       <c r="AG88" t="s">
-        <v>274</v>
+        <v>195</v>
+      </c>
+      <c r="AH88">
+        <v>0.25</v>
       </c>
       <c r="AI88">
         <v>0</v>
@@ -10491,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="AN88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS88">
         <v>0</v>
@@ -10544,16 +10331,16 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10571,7 +10358,10 @@
         <v>0</v>
       </c>
       <c r="AG89" t="s">
-        <v>274</v>
+        <v>282</v>
+      </c>
+      <c r="AH89">
+        <v>0.25</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -10589,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS89">
         <v>0</v>
@@ -10642,16 +10432,16 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10669,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="AG90" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -10687,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="AN90">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS90">
         <v>0</v>
@@ -10740,35 +10530,35 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
+        <v>286</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="s">
         <v>287</v>
       </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="s">
-        <v>185</v>
-      </c>
       <c r="AI91">
         <v>0</v>
       </c>
@@ -10785,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AN91">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS91">
         <v>0</v>
@@ -10838,7 +10628,7 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C92" t="s">
         <v>288</v>
@@ -10865,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="AG92" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AI92">
         <v>0</v>
@@ -10883,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS92">
         <v>0</v>
@@ -10936,7 +10726,7 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C93" t="s">
         <v>290</v>
@@ -10963,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="AG93" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AI93">
         <v>0</v>
@@ -10981,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="AN93">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS93">
         <v>0</v>
@@ -11034,7 +10824,7 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C94" t="s">
         <v>292</v>
@@ -11061,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AG94" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -11079,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="AN94">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS94">
         <v>0</v>
@@ -11132,7 +10922,7 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C95" t="s">
         <v>294</v>
@@ -11159,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="AG95" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AI95">
         <v>0</v>
@@ -11177,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS95">
         <v>0</v>
@@ -11230,7 +11020,7 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C96" t="s">
         <v>296</v>
@@ -11257,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="AG96" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AI96">
         <v>0</v>
@@ -11275,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="AN96">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS96">
         <v>0</v>
@@ -11328,7 +11118,7 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C97" t="s">
         <v>298</v>
@@ -11355,10 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AG97" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH97">
-        <v>0.5</v>
+        <v>195</v>
       </c>
       <c r="AI97">
         <v>0</v>
@@ -11376,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AS97">
         <v>0</v>
@@ -11429,7 +11216,7 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C98" t="s">
         <v>300</v>
@@ -11456,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="AG98" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="AI98">
         <v>0</v>
@@ -11527,7 +11314,7 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C99" t="s">
         <v>302</v>
@@ -11554,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="AG99" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="AI99">
         <v>0</v>
@@ -11625,7 +11412,7 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C100" t="s">
         <v>304</v>
@@ -11652,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="AG100" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="AI100">
         <v>0</v>
@@ -11723,7 +11510,7 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C101" t="s">
         <v>306</v>
@@ -11749,6 +11536,12 @@
       <c r="Z101">
         <v>0</v>
       </c>
+      <c r="AG101" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH101">
+        <v>0.5</v>
+      </c>
       <c r="AI101">
         <v>0</v>
       </c>
@@ -11764,6 +11557,9 @@
       <c r="AM101">
         <v>0</v>
       </c>
+      <c r="AN101">
+        <v>1.1</v>
+      </c>
       <c r="AS101">
         <v>0</v>
       </c>
@@ -11796,9 +11592,6 @@
       </c>
       <c r="BG101">
         <v>0</v>
-      </c>
-      <c r="BI101">
-        <v>0.05</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -11818,7 +11611,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C102" t="s">
         <v>308</v>
@@ -11844,8 +11637,8 @@
       <c r="Z102">
         <v>0</v>
       </c>
-      <c r="AA102" t="s">
-        <v>310</v>
+      <c r="AG102" t="s">
+        <v>287</v>
       </c>
       <c r="AI102">
         <v>0</v>
@@ -11861,6 +11654,9 @@
       </c>
       <c r="AM102">
         <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>0.5</v>
       </c>
       <c r="AS102">
         <v>0</v>
@@ -11913,16 +11709,16 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
         <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -11939,6 +11735,9 @@
       <c r="Z103">
         <v>0</v>
       </c>
+      <c r="AG103" t="s">
+        <v>287</v>
+      </c>
       <c r="AI103">
         <v>0</v>
       </c>
@@ -11954,6 +11753,9 @@
       <c r="AM103">
         <v>0</v>
       </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
       <c r="AS103">
         <v>0</v>
       </c>
@@ -11986,12 +11788,6 @@
       </c>
       <c r="BG103">
         <v>0</v>
-      </c>
-      <c r="BI103">
-        <v>1.25</v>
-      </c>
-      <c r="BJ103">
-        <v>1</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -12011,16 +11807,16 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -12037,8 +11833,8 @@
       <c r="Z104">
         <v>0</v>
       </c>
-      <c r="AA104" t="s">
-        <v>240</v>
+      <c r="AG104" t="s">
+        <v>287</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -12054,6 +11850,9 @@
       </c>
       <c r="AM104">
         <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1.25</v>
       </c>
       <c r="AS104">
         <v>0</v>
@@ -12106,16 +11905,16 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -12132,9 +11931,6 @@
       <c r="Z105">
         <v>0</v>
       </c>
-      <c r="AG105" t="s">
-        <v>175</v>
-      </c>
       <c r="AI105">
         <v>0</v>
       </c>
@@ -12150,9 +11946,6 @@
       <c r="AM105">
         <v>0</v>
       </c>
-      <c r="AN105">
-        <v>0.5</v>
-      </c>
       <c r="AS105">
         <v>0</v>
       </c>
@@ -12185,6 +11978,9 @@
       </c>
       <c r="BG105">
         <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>0.05</v>
       </c>
       <c r="BM105">
         <v>0</v>
@@ -12204,35 +12000,35 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D106" t="s">
         <v>73</v>
       </c>
       <c r="G106" t="s">
+        <v>317</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="s">
         <v>318</v>
       </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
-      <c r="AG106" t="s">
-        <v>274</v>
-      </c>
       <c r="AI106">
         <v>0</v>
       </c>
@@ -12247,9 +12043,6 @@
       </c>
       <c r="AM106">
         <v>0</v>
-      </c>
-      <c r="AN106">
-        <v>1</v>
       </c>
       <c r="AS106">
         <v>0</v>
@@ -12302,7 +12095,7 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C107" t="s">
         <v>319</v>
@@ -12377,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="BI107">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="BJ107">
         <v>1</v>
@@ -12400,7 +12193,7 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C108" t="s">
         <v>321</v>
@@ -12425,6 +12218,9 @@
       </c>
       <c r="Z108">
         <v>0</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>249</v>
       </c>
       <c r="AI108">
         <v>0</v>
@@ -12492,7 +12288,7 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C109" t="s">
         <v>323</v>
@@ -12518,32 +12314,26 @@
       <c r="Z109">
         <v>0</v>
       </c>
-      <c r="AC109">
-        <v>1</v>
-      </c>
       <c r="AG109" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH109">
+        <v>185</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
         <v>0.5</v>
-      </c>
-      <c r="AI109">
-        <v>0</v>
-      </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
-      <c r="AK109">
-        <v>0</v>
-      </c>
-      <c r="AL109">
-        <v>0</v>
-      </c>
-      <c r="AM109">
-        <v>0</v>
-      </c>
-      <c r="AN109">
-        <v>0.3</v>
       </c>
       <c r="AS109">
         <v>0</v>
@@ -12596,7 +12386,7 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C110" t="s">
         <v>325</v>
@@ -12607,6 +12397,12 @@
       <c r="G110" t="s">
         <v>326</v>
       </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
       <c r="O110">
         <v>0</v>
       </c>
@@ -12616,24 +12412,27 @@
       <c r="Z110">
         <v>0</v>
       </c>
-      <c r="AC110">
+      <c r="AG110" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
         <v>1</v>
       </c>
-      <c r="AI110">
-        <v>0</v>
-      </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
-      <c r="AK110">
-        <v>0</v>
-      </c>
-      <c r="AL110">
-        <v>0</v>
-      </c>
-      <c r="AM110">
-        <v>0</v>
-      </c>
       <c r="AS110">
         <v>0</v>
       </c>
@@ -12666,9 +12465,6 @@
       </c>
       <c r="BG110">
         <v>0</v>
-      </c>
-      <c r="BH110" t="s">
-        <v>255</v>
       </c>
       <c r="BM110">
         <v>0</v>
@@ -12688,7 +12484,7 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C111" t="s">
         <v>327</v>
@@ -12699,6 +12495,12 @@
       <c r="G111" t="s">
         <v>328</v>
       </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
       <c r="O111">
         <v>0</v>
       </c>
@@ -12708,59 +12510,59 @@
       <c r="Z111">
         <v>0</v>
       </c>
-      <c r="AC111">
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AS111">
+        <v>0</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0.25</v>
+      </c>
+      <c r="BJ111">
         <v>1</v>
-      </c>
-      <c r="AI111">
-        <v>0</v>
-      </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
-      <c r="AK111">
-        <v>0</v>
-      </c>
-      <c r="AL111">
-        <v>0</v>
-      </c>
-      <c r="AM111">
-        <v>0</v>
-      </c>
-      <c r="AS111">
-        <v>0</v>
-      </c>
-      <c r="AV111">
-        <v>0</v>
-      </c>
-      <c r="AX111">
-        <v>0</v>
-      </c>
-      <c r="AY111">
-        <v>0</v>
-      </c>
-      <c r="BA111">
-        <v>0</v>
-      </c>
-      <c r="BB111">
-        <v>0</v>
-      </c>
-      <c r="BC111">
-        <v>0</v>
-      </c>
-      <c r="BD111">
-        <v>0</v>
-      </c>
-      <c r="BE111">
-        <v>0</v>
-      </c>
-      <c r="BF111">
-        <v>0</v>
-      </c>
-      <c r="BG111">
-        <v>0</v>
-      </c>
-      <c r="BH111" t="s">
-        <v>159</v>
       </c>
       <c r="BM111">
         <v>0</v>
@@ -12780,7 +12582,7 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C112" t="s">
         <v>329</v>
@@ -12791,6 +12593,12 @@
       <c r="G112" t="s">
         <v>330</v>
       </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
       <c r="O112">
         <v>0</v>
       </c>
@@ -12800,15 +12608,6 @@
       <c r="Z112">
         <v>0</v>
       </c>
-      <c r="AC112">
-        <v>1</v>
-      </c>
-      <c r="AG112" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH112">
-        <v>0.1</v>
-      </c>
       <c r="AI112">
         <v>0</v>
       </c>
@@ -12823,9 +12622,6 @@
       </c>
       <c r="AM112">
         <v>0</v>
-      </c>
-      <c r="AN112">
-        <v>0.15</v>
       </c>
       <c r="AS112">
         <v>0</v>
@@ -12878,16 +12674,22 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -12901,6 +12703,12 @@
       <c r="AC113">
         <v>1</v>
       </c>
+      <c r="AG113" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH113">
+        <v>0.5</v>
+      </c>
       <c r="AI113">
         <v>0</v>
       </c>
@@ -12916,6 +12724,9 @@
       <c r="AM113">
         <v>0</v>
       </c>
+      <c r="AN113">
+        <v>0.3</v>
+      </c>
       <c r="AS113">
         <v>0</v>
       </c>
@@ -12948,9 +12759,6 @@
       </c>
       <c r="BG113">
         <v>0</v>
-      </c>
-      <c r="BH113" t="s">
-        <v>218</v>
       </c>
       <c r="BM113">
         <v>0</v>
@@ -12970,16 +12778,16 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -12993,12 +12801,6 @@
       <c r="AC114">
         <v>1</v>
       </c>
-      <c r="AG114" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH114">
-        <v>0.25</v>
-      </c>
       <c r="AI114">
         <v>0</v>
       </c>
@@ -13014,9 +12816,6 @@
       <c r="AM114">
         <v>0</v>
       </c>
-      <c r="AN114">
-        <v>0.3</v>
-      </c>
       <c r="AS114">
         <v>0</v>
       </c>
@@ -13049,6 +12848,9 @@
       </c>
       <c r="BG114">
         <v>0</v>
+      </c>
+      <c r="BH114" t="s">
+        <v>78</v>
       </c>
       <c r="BM114">
         <v>0</v>
@@ -13068,16 +12870,16 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -13140,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="BH115" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -13160,16 +12962,16 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -13184,10 +12986,10 @@
         <v>1</v>
       </c>
       <c r="AG116" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AH116">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="AI116">
         <v>0</v>
@@ -13205,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="AN116">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="AS116">
         <v>0</v>
@@ -13258,7 +13060,7 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C117" t="s">
         <v>340</v>
@@ -13330,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="BH117" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="BM117">
         <v>0</v>
@@ -13350,7 +13152,7 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C118" t="s">
         <v>342</v>
@@ -13374,10 +13176,10 @@
         <v>1</v>
       </c>
       <c r="AG118" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AH118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -13395,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="AN118">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="AS118">
         <v>0</v>
@@ -13448,7 +13250,7 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C119" t="s">
         <v>344</v>
@@ -13520,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="BH119" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="BM119">
         <v>0</v>
@@ -13540,7 +13342,7 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C120" t="s">
         <v>346</v>
@@ -13563,6 +13365,12 @@
       <c r="AC120">
         <v>1</v>
       </c>
+      <c r="AG120" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH120">
+        <v>0.35</v>
+      </c>
       <c r="AI120">
         <v>0</v>
       </c>
@@ -13577,6 +13385,9 @@
       </c>
       <c r="AM120">
         <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0.45</v>
       </c>
       <c r="AS120">
         <v>0</v>
@@ -13629,7 +13440,7 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C121" t="s">
         <v>348</v>
@@ -13699,6 +13510,9 @@
       </c>
       <c r="BG121">
         <v>0</v>
+      </c>
+      <c r="BH121" t="s">
+        <v>182</v>
       </c>
       <c r="BM121">
         <v>0</v>
@@ -13718,7 +13532,7 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C122" t="s">
         <v>350</v>
@@ -13738,12 +13552,15 @@
       <c r="Z122">
         <v>0</v>
       </c>
-      <c r="AA122" t="s">
-        <v>352</v>
-      </c>
       <c r="AC122">
         <v>1</v>
       </c>
+      <c r="AG122" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH122">
+        <v>0.5</v>
+      </c>
       <c r="AI122">
         <v>0</v>
       </c>
@@ -13758,6 +13575,9 @@
       </c>
       <c r="AM122">
         <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0.55</v>
       </c>
       <c r="AS122">
         <v>0</v>
@@ -13810,16 +13630,16 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -13880,6 +13700,9 @@
       </c>
       <c r="BG123">
         <v>0</v>
+      </c>
+      <c r="BH123" t="s">
+        <v>75</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13899,16 +13722,16 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -13988,16 +13811,16 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -14077,25 +13900,28 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
+        <v>359</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="s">
         <v>360</v>
-      </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-      <c r="Y126">
-        <v>0</v>
-      </c>
-      <c r="Z126">
-        <v>0</v>
       </c>
       <c r="AC126">
         <v>1</v>
@@ -14166,7 +13992,7 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C127" t="s">
         <v>361</v>
@@ -14255,7 +14081,7 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C128" t="s">
         <v>363</v>
@@ -14325,9 +14151,6 @@
       </c>
       <c r="BG128">
         <v>0</v>
-      </c>
-      <c r="BH128" t="s">
-        <v>166</v>
       </c>
       <c r="BM128">
         <v>0</v>
@@ -14347,7 +14170,7 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C129" t="s">
         <v>365</v>
@@ -14417,9 +14240,6 @@
       </c>
       <c r="BG129">
         <v>0</v>
-      </c>
-      <c r="BH129" t="s">
-        <v>176</v>
       </c>
       <c r="BM129">
         <v>0</v>
@@ -14439,7 +14259,7 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C130" t="s">
         <v>367</v>
@@ -14528,7 +14348,7 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C131" t="s">
         <v>369</v>
@@ -14598,9 +14418,6 @@
       </c>
       <c r="BG131">
         <v>0</v>
-      </c>
-      <c r="BH131" t="s">
-        <v>159</v>
       </c>
       <c r="BM131">
         <v>0</v>
@@ -14620,7 +14437,7 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C132" t="s">
         <v>371</v>
@@ -14690,6 +14507,9 @@
       </c>
       <c r="BG132">
         <v>0</v>
+      </c>
+      <c r="BH132" t="s">
+        <v>81</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -14709,7 +14529,7 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C133" t="s">
         <v>373</v>
@@ -14781,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="BH133" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="BM133">
         <v>0</v>
@@ -14801,7 +14621,7 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C134" t="s">
         <v>375</v>
@@ -14871,9 +14691,6 @@
       </c>
       <c r="BG134">
         <v>0</v>
-      </c>
-      <c r="BH134" t="s">
-        <v>180</v>
       </c>
       <c r="BM134">
         <v>0</v>
@@ -14893,7 +14710,7 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C135" t="s">
         <v>377</v>
@@ -14963,6 +14780,9 @@
       </c>
       <c r="BG135">
         <v>0</v>
+      </c>
+      <c r="BH135" t="s">
+        <v>84</v>
       </c>
       <c r="BM135">
         <v>0</v>
@@ -14982,7 +14802,7 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C136" t="s">
         <v>379</v>
@@ -15052,9 +14872,6 @@
       </c>
       <c r="BG136">
         <v>0</v>
-      </c>
-      <c r="BH136" t="s">
-        <v>218</v>
       </c>
       <c r="BM136">
         <v>0</v>
@@ -15074,7 +14891,7 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C137" t="s">
         <v>381</v>
@@ -15144,6 +14961,9 @@
       </c>
       <c r="BG137">
         <v>0</v>
+      </c>
+      <c r="BH137" t="s">
+        <v>182</v>
       </c>
       <c r="BM137">
         <v>0</v>
@@ -15163,7 +14983,7 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C138" t="s">
         <v>383</v>
@@ -15233,6 +15053,9 @@
       </c>
       <c r="BG138">
         <v>0</v>
+      </c>
+      <c r="BH138" t="s">
+        <v>190</v>
       </c>
       <c r="BM138">
         <v>0</v>
@@ -15252,7 +15075,7 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C139" t="s">
         <v>385</v>
@@ -15341,7 +15164,7 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C140" t="s">
         <v>387</v>
@@ -15411,6 +15234,9 @@
       </c>
       <c r="BG140">
         <v>0</v>
+      </c>
+      <c r="BH140" t="s">
+        <v>75</v>
       </c>
       <c r="BM140">
         <v>0</v>
@@ -15430,7 +15256,7 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C141" t="s">
         <v>389</v>
@@ -15519,7 +15345,7 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C142" t="s">
         <v>391</v>
@@ -15608,7 +15434,7 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C143" t="s">
         <v>393</v>
@@ -15697,7 +15523,7 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C144" t="s">
         <v>395</v>
@@ -15786,7 +15612,7 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C145" t="s">
         <v>397</v>
@@ -15875,7 +15701,7 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C146" t="s">
         <v>399</v>
@@ -15964,7 +15790,7 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C147" t="s">
         <v>401</v>
@@ -16053,7 +15879,7 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C148" t="s">
         <v>403</v>
@@ -16142,7 +15968,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>210180</v>
+        <v>630</v>
       </c>
       <c r="C149" t="s">
         <v>405</v>
@@ -16212,9 +16038,6 @@
       </c>
       <c r="BG149">
         <v>0</v>
-      </c>
-      <c r="BH149" t="s">
-        <v>407</v>
       </c>
       <c r="BM149">
         <v>0</v>
@@ -16234,16 +16057,16 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>210181</v>
+        <v>631</v>
       </c>
       <c r="C150" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -16304,9 +16127,6 @@
       </c>
       <c r="BG150">
         <v>0</v>
-      </c>
-      <c r="BH150" t="s">
-        <v>407</v>
       </c>
       <c r="BM150">
         <v>0</v>
@@ -16326,16 +16146,16 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>210182</v>
+        <v>632</v>
       </c>
       <c r="C151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -16396,9 +16216,6 @@
       </c>
       <c r="BG151">
         <v>0</v>
-      </c>
-      <c r="BH151" t="s">
-        <v>412</v>
       </c>
       <c r="BM151">
         <v>0</v>
@@ -16418,16 +16235,16 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>210183</v>
+        <v>633</v>
       </c>
       <c r="C152" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -16441,12 +16258,6 @@
       <c r="AC152">
         <v>1</v>
       </c>
-      <c r="AG152" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH152">
-        <v>0.35</v>
-      </c>
       <c r="AI152">
         <v>0</v>
       </c>
@@ -16462,9 +16273,6 @@
       <c r="AM152">
         <v>0</v>
       </c>
-      <c r="AN152">
-        <v>0.35</v>
-      </c>
       <c r="AS152">
         <v>0</v>
       </c>
@@ -16497,9 +16305,6 @@
       </c>
       <c r="BG152">
         <v>0</v>
-      </c>
-      <c r="BH152" t="s">
-        <v>412</v>
       </c>
       <c r="BM152">
         <v>0</v>
@@ -16519,16 +16324,16 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>210184</v>
+        <v>210180</v>
       </c>
       <c r="C153" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -16591,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="BH153" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16611,16 +16416,16 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>210185</v>
+        <v>210181</v>
       </c>
       <c r="C154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -16683,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="BH154" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16703,16 +16508,16 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>210186</v>
+        <v>210182</v>
       </c>
       <c r="C155" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -16722,9 +16527,6 @@
       </c>
       <c r="Z155">
         <v>0</v>
-      </c>
-      <c r="AA155" t="s">
-        <v>421</v>
       </c>
       <c r="AC155">
         <v>1</v>
@@ -16776,6 +16578,9 @@
       </c>
       <c r="BG155">
         <v>0</v>
+      </c>
+      <c r="BH155" t="s">
+        <v>420</v>
       </c>
       <c r="BM155">
         <v>0</v>
@@ -16795,16 +16600,16 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>210187</v>
+        <v>210183</v>
       </c>
       <c r="C156" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -16818,6 +16623,12 @@
       <c r="AC156">
         <v>1</v>
       </c>
+      <c r="AG156" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH156">
+        <v>0.35</v>
+      </c>
       <c r="AI156">
         <v>0</v>
       </c>
@@ -16833,6 +16644,9 @@
       <c r="AM156">
         <v>0</v>
       </c>
+      <c r="AN156">
+        <v>0.35</v>
+      </c>
       <c r="AS156">
         <v>0</v>
       </c>
@@ -16867,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="BH156" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -16887,16 +16701,16 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>210188</v>
+        <v>210184</v>
       </c>
       <c r="C157" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -16957,6 +16771,9 @@
       </c>
       <c r="BG157">
         <v>0</v>
+      </c>
+      <c r="BH157" t="s">
+        <v>420</v>
       </c>
       <c r="BM157">
         <v>0</v>
@@ -16976,16 +16793,16 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>210189</v>
+        <v>210185</v>
       </c>
       <c r="C158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -16999,12 +16816,6 @@
       <c r="AC158">
         <v>1</v>
       </c>
-      <c r="AG158" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH158">
-        <v>0.6</v>
-      </c>
       <c r="AI158">
         <v>0</v>
       </c>
@@ -17020,9 +16831,6 @@
       <c r="AM158">
         <v>0</v>
       </c>
-      <c r="AN158">
-        <v>0.6</v>
-      </c>
       <c r="AS158">
         <v>0</v>
       </c>
@@ -17057,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="BH158" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -17077,16 +16885,16 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>210190</v>
+        <v>210186</v>
       </c>
       <c r="C159" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -17096,16 +16904,13 @@
       </c>
       <c r="Z159">
         <v>0</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>429</v>
       </c>
       <c r="AC159">
         <v>1</v>
       </c>
-      <c r="AG159" t="s">
-        <v>431</v>
-      </c>
-      <c r="AH159">
-        <v>1</v>
-      </c>
       <c r="AI159">
         <v>0</v>
       </c>
@@ -17121,9 +16926,6 @@
       <c r="AM159">
         <v>0</v>
       </c>
-      <c r="AN159">
-        <v>1</v>
-      </c>
       <c r="AS159">
         <v>0</v>
       </c>
@@ -17156,9 +16958,6 @@
       </c>
       <c r="BG159">
         <v>0</v>
-      </c>
-      <c r="BH159" t="s">
-        <v>428</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -17178,16 +16977,16 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>210191</v>
+        <v>210187</v>
       </c>
       <c r="C160" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -17250,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="BH160" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -17270,16 +17069,16 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>210192</v>
+        <v>210188</v>
       </c>
       <c r="C161" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -17293,12 +17092,6 @@
       <c r="AC161">
         <v>1</v>
       </c>
-      <c r="AG161" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH161">
-        <v>0.3</v>
-      </c>
       <c r="AI161">
         <v>0</v>
       </c>
@@ -17314,9 +17107,6 @@
       <c r="AM161">
         <v>0</v>
       </c>
-      <c r="AN161">
-        <v>0.3</v>
-      </c>
       <c r="AS161">
         <v>0</v>
       </c>
@@ -17349,9 +17139,6 @@
       </c>
       <c r="BG161">
         <v>0</v>
-      </c>
-      <c r="BH161" t="s">
-        <v>428</v>
       </c>
       <c r="BM161">
         <v>0</v>
@@ -17371,16 +17158,16 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>210193</v>
+        <v>210189</v>
       </c>
       <c r="C162" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -17394,6 +17181,12 @@
       <c r="AC162">
         <v>1</v>
       </c>
+      <c r="AG162" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH162">
+        <v>0.6</v>
+      </c>
       <c r="AI162">
         <v>0</v>
       </c>
@@ -17409,6 +17202,9 @@
       <c r="AM162">
         <v>0</v>
       </c>
+      <c r="AN162">
+        <v>0.6</v>
+      </c>
       <c r="AS162">
         <v>0</v>
       </c>
@@ -17443,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="BH162" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="BM162">
         <v>0</v>
@@ -17463,16 +17259,16 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>210194</v>
+        <v>210190</v>
       </c>
       <c r="C163" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17486,6 +17282,12 @@
       <c r="AC163">
         <v>1</v>
       </c>
+      <c r="AG163" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH163">
+        <v>1</v>
+      </c>
       <c r="AI163">
         <v>0</v>
       </c>
@@ -17501,6 +17303,9 @@
       <c r="AM163">
         <v>0</v>
       </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
       <c r="AS163">
         <v>0</v>
       </c>
@@ -17535,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="BH163" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="BM163">
         <v>0</v>
@@ -17555,7 +17360,7 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>210195</v>
+        <v>210191</v>
       </c>
       <c r="C164" t="s">
         <v>440</v>
@@ -17625,6 +17430,9 @@
       </c>
       <c r="BG164">
         <v>0</v>
+      </c>
+      <c r="BH164" t="s">
+        <v>436</v>
       </c>
       <c r="BM164">
         <v>0</v>
@@ -17644,7 +17452,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>210196</v>
+        <v>210192</v>
       </c>
       <c r="C165" t="s">
         <v>442</v>
@@ -17667,6 +17475,12 @@
       <c r="AC165">
         <v>1</v>
       </c>
+      <c r="AG165" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH165">
+        <v>0.3</v>
+      </c>
       <c r="AI165">
         <v>0</v>
       </c>
@@ -17682,6 +17496,9 @@
       <c r="AM165">
         <v>0</v>
       </c>
+      <c r="AN165">
+        <v>0.3</v>
+      </c>
       <c r="AS165">
         <v>0</v>
       </c>
@@ -17714,6 +17531,9 @@
       </c>
       <c r="BG165">
         <v>0</v>
+      </c>
+      <c r="BH165" t="s">
+        <v>436</v>
       </c>
       <c r="BM165">
         <v>0</v>
@@ -17733,7 +17553,7 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>210197</v>
+        <v>210193</v>
       </c>
       <c r="C166" t="s">
         <v>444</v>
@@ -17805,7 +17625,7 @@
         <v>0</v>
       </c>
       <c r="BH166" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -17825,16 +17645,16 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>210198</v>
+        <v>210194</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -17897,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="BH167" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM167">
         <v>0</v>
@@ -17917,16 +17737,16 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>210199</v>
+        <v>210195</v>
       </c>
       <c r="C168" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -17987,9 +17807,6 @@
       </c>
       <c r="BG168">
         <v>0</v>
-      </c>
-      <c r="BH168" t="s">
-        <v>446</v>
       </c>
       <c r="BM168">
         <v>0</v>
@@ -18009,16 +17826,16 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>210200</v>
+        <v>210196</v>
       </c>
       <c r="C169" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -18098,16 +17915,16 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>210201</v>
+        <v>210197</v>
       </c>
       <c r="C170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D170" t="s">
         <v>73</v>
       </c>
       <c r="G170" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -18170,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="BH170" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BM170">
         <v>0</v>
@@ -18190,16 +18007,16 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>210202</v>
+        <v>210198</v>
       </c>
       <c r="C171" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -18213,12 +18030,6 @@
       <c r="AC171">
         <v>1</v>
       </c>
-      <c r="AG171" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH171">
-        <v>0.75</v>
-      </c>
       <c r="AI171">
         <v>0</v>
       </c>
@@ -18234,9 +18045,6 @@
       <c r="AM171">
         <v>0</v>
       </c>
-      <c r="AN171">
-        <v>1.25</v>
-      </c>
       <c r="AS171">
         <v>0</v>
       </c>
@@ -18271,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="BH171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BM171">
         <v>0</v>
@@ -18291,16 +18099,16 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>210203</v>
+        <v>210199</v>
       </c>
       <c r="C172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D172" t="s">
         <v>73</v>
       </c>
       <c r="G172" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -18314,12 +18122,6 @@
       <c r="AC172">
         <v>1</v>
       </c>
-      <c r="AG172" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH172">
-        <v>1</v>
-      </c>
       <c r="AI172">
         <v>0</v>
       </c>
@@ -18335,9 +18137,6 @@
       <c r="AM172">
         <v>0</v>
       </c>
-      <c r="AN172">
-        <v>1.25</v>
-      </c>
       <c r="AS172">
         <v>0</v>
       </c>
@@ -18372,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="BH172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BM172">
         <v>0</v>
@@ -18392,16 +18191,16 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>210204</v>
+        <v>210200</v>
       </c>
       <c r="C173" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D173" t="s">
         <v>73</v>
       </c>
       <c r="G173" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -18462,9 +18261,6 @@
       </c>
       <c r="BG173">
         <v>0</v>
-      </c>
-      <c r="BH173" t="s">
-        <v>455</v>
       </c>
       <c r="BM173">
         <v>0</v>
@@ -18484,16 +18280,16 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>210205</v>
+        <v>210201</v>
       </c>
       <c r="C174" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18554,6 +18350,9 @@
       </c>
       <c r="BG174">
         <v>0</v>
+      </c>
+      <c r="BH174" t="s">
+        <v>463</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18573,7 +18372,7 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>210206</v>
+        <v>210202</v>
       </c>
       <c r="C175" t="s">
         <v>464</v>
@@ -18593,12 +18392,15 @@
       <c r="Z175">
         <v>0</v>
       </c>
-      <c r="AA175" t="s">
-        <v>466</v>
-      </c>
       <c r="AC175">
         <v>1</v>
       </c>
+      <c r="AG175" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH175">
+        <v>0.75</v>
+      </c>
       <c r="AI175">
         <v>0</v>
       </c>
@@ -18614,6 +18416,9 @@
       <c r="AM175">
         <v>0</v>
       </c>
+      <c r="AN175">
+        <v>1.25</v>
+      </c>
       <c r="AS175">
         <v>0</v>
       </c>
@@ -18646,6 +18451,9 @@
       </c>
       <c r="BG175">
         <v>0</v>
+      </c>
+      <c r="BH175" t="s">
+        <v>463</v>
       </c>
       <c r="BM175">
         <v>0</v>
@@ -18665,16 +18473,16 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>210207</v>
+        <v>210203</v>
       </c>
       <c r="C176" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -18689,7 +18497,7 @@
         <v>1</v>
       </c>
       <c r="AG176" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AH176">
         <v>1</v>
@@ -18710,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="AN176">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS176">
         <v>0</v>
@@ -18746,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="BH176" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18766,16 +18574,16 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>210208</v>
+        <v>210204</v>
       </c>
       <c r="C177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -18836,6 +18644,9 @@
       </c>
       <c r="BG177">
         <v>0</v>
+      </c>
+      <c r="BH177" t="s">
+        <v>463</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18855,16 +18666,16 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>210209</v>
+        <v>210205</v>
       </c>
       <c r="C178" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D178" t="s">
         <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -18944,25 +18755,28 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>210210</v>
+        <v>210206</v>
       </c>
       <c r="C179" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D179" t="s">
         <v>73</v>
       </c>
       <c r="G179" t="s">
+        <v>473</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="s">
         <v>474</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
       </c>
       <c r="AC179">
         <v>1</v>
@@ -19014,9 +18828,6 @@
       </c>
       <c r="BG179">
         <v>0</v>
-      </c>
-      <c r="BH179" t="s">
-        <v>475</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -19036,16 +18847,16 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>210211</v>
+        <v>210207</v>
       </c>
       <c r="C180" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -19059,6 +18870,12 @@
       <c r="AC180">
         <v>1</v>
       </c>
+      <c r="AG180" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH180">
+        <v>1</v>
+      </c>
       <c r="AI180">
         <v>0</v>
       </c>
@@ -19074,6 +18891,9 @@
       <c r="AM180">
         <v>0</v>
       </c>
+      <c r="AN180">
+        <v>1.2</v>
+      </c>
       <c r="AS180">
         <v>0</v>
       </c>
@@ -19108,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="BH180" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="BM180">
         <v>0</v>
@@ -19128,16 +18948,16 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>210212</v>
+        <v>210208</v>
       </c>
       <c r="C181" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
       </c>
       <c r="G181" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -19217,16 +19037,16 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>210213</v>
+        <v>210209</v>
       </c>
       <c r="C182" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D182" t="s">
         <v>73</v>
       </c>
       <c r="G182" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -19287,9 +19107,6 @@
       </c>
       <c r="BG182">
         <v>0</v>
-      </c>
-      <c r="BH182" t="s">
-        <v>407</v>
       </c>
       <c r="BM182">
         <v>0</v>
@@ -19309,16 +19126,16 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>210214</v>
+        <v>210210</v>
       </c>
       <c r="C183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D183" t="s">
         <v>73</v>
       </c>
       <c r="G183" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -19379,6 +19196,9 @@
       </c>
       <c r="BG183">
         <v>0</v>
+      </c>
+      <c r="BH183" t="s">
+        <v>483</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -19398,7 +19218,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>410519</v>
+        <v>210211</v>
       </c>
       <c r="C184" t="s">
         <v>484</v>
@@ -19468,6 +19288,9 @@
       </c>
       <c r="BG184">
         <v>0</v>
+      </c>
+      <c r="BH184" t="s">
+        <v>483</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19487,7 +19310,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>938213</v>
+        <v>210212</v>
       </c>
       <c r="C185" t="s">
         <v>486</v>
@@ -19506,9 +19329,6 @@
       </c>
       <c r="Z185">
         <v>0</v>
-      </c>
-      <c r="AA185" t="s">
-        <v>488</v>
       </c>
       <c r="AC185">
         <v>1</v>
@@ -19579,22 +19399,79 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>938214</v>
+        <v>210213</v>
       </c>
       <c r="C186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D186" t="s">
         <v>73</v>
       </c>
       <c r="G186" t="s">
-        <v>490</v>
+        <v>489</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
       </c>
       <c r="AC186">
         <v>1</v>
       </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>0</v>
+      </c>
+      <c r="AK186">
+        <v>0</v>
+      </c>
+      <c r="AL186">
+        <v>0</v>
+      </c>
+      <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AS186">
+        <v>0</v>
+      </c>
       <c r="AV186">
         <v>0</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>0</v>
+      </c>
+      <c r="BG186">
+        <v>0</v>
+      </c>
+      <c r="BH186" t="s">
+        <v>415</v>
       </c>
       <c r="BM186">
         <v>0</v>
@@ -19614,25 +19491,76 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>938215</v>
+        <v>210214</v>
       </c>
       <c r="C187" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D187" t="s">
         <v>73</v>
       </c>
       <c r="G187" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
       </c>
       <c r="AC187">
         <v>1</v>
       </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>0</v>
+      </c>
+      <c r="AK187">
+        <v>0</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AS187">
+        <v>0</v>
+      </c>
       <c r="AV187">
         <v>0</v>
       </c>
-      <c r="BH187" t="s">
-        <v>166</v>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>0</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
       </c>
       <c r="BM187">
         <v>0</v>
@@ -19652,25 +19580,76 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>938216</v>
+        <v>410519</v>
       </c>
       <c r="C188" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D188" t="s">
         <v>73</v>
       </c>
       <c r="G188" t="s">
-        <v>494</v>
+        <v>493</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
       </c>
       <c r="AC188">
         <v>1</v>
       </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>0</v>
+      </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
+      <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AS188">
+        <v>0</v>
+      </c>
       <c r="AV188">
         <v>0</v>
       </c>
-      <c r="BH188" t="s">
-        <v>166</v>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>0</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
       </c>
       <c r="BM188">
         <v>0</v>
@@ -19690,25 +19669,79 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>938217</v>
+        <v>938213</v>
       </c>
       <c r="C189" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="G189" t="s">
+        <v>495</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="s">
         <v>496</v>
       </c>
       <c r="AC189">
         <v>1</v>
       </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>0</v>
+      </c>
+      <c r="AK189">
+        <v>0</v>
+      </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
+      <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AS189">
+        <v>0</v>
+      </c>
       <c r="AV189">
         <v>0</v>
       </c>
-      <c r="BH189" t="s">
-        <v>166</v>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>0</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
       </c>
       <c r="BM189">
         <v>0</v>
@@ -19728,7 +19761,7 @@
     </row>
     <row r="190" spans="1:72">
       <c r="A190">
-        <v>938218</v>
+        <v>938214</v>
       </c>
       <c r="C190" t="s">
         <v>497</v>
@@ -19744,9 +19777,6 @@
       </c>
       <c r="AV190">
         <v>0</v>
-      </c>
-      <c r="BH190" t="s">
-        <v>172</v>
       </c>
       <c r="BM190">
         <v>0</v>
@@ -19766,7 +19796,7 @@
     </row>
     <row r="191" spans="1:72">
       <c r="A191">
-        <v>938219</v>
+        <v>938215</v>
       </c>
       <c r="C191" t="s">
         <v>499</v>
@@ -19784,7 +19814,7 @@
         <v>0</v>
       </c>
       <c r="BH191" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -19804,7 +19834,7 @@
     </row>
     <row r="192" spans="1:72">
       <c r="A192">
-        <v>938220</v>
+        <v>938216</v>
       </c>
       <c r="C192" t="s">
         <v>501</v>
@@ -19822,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="BH192" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -19842,7 +19872,7 @@
     </row>
     <row r="193" spans="1:72">
       <c r="A193">
-        <v>938221</v>
+        <v>938217</v>
       </c>
       <c r="C193" t="s">
         <v>503</v>
@@ -19860,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="BH193" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -19880,7 +19910,7 @@
     </row>
     <row r="194" spans="1:72">
       <c r="A194">
-        <v>938222</v>
+        <v>938218</v>
       </c>
       <c r="C194" t="s">
         <v>505</v>
@@ -19898,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="BH194" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="BM194">
         <v>0</v>
@@ -19913,6 +19943,196 @@
         <v>0</v>
       </c>
       <c r="BQ194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:72">
+      <c r="A195">
+        <v>938219</v>
+      </c>
+      <c r="C195" t="s">
+        <v>507</v>
+      </c>
+      <c r="D195" t="s">
+        <v>73</v>
+      </c>
+      <c r="G195" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
+      </c>
+      <c r="AV195">
+        <v>0</v>
+      </c>
+      <c r="BH195" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM195">
+        <v>0</v>
+      </c>
+      <c r="BN195">
+        <v>0</v>
+      </c>
+      <c r="BO195">
+        <v>0</v>
+      </c>
+      <c r="BP195">
+        <v>0</v>
+      </c>
+      <c r="BQ195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:72">
+      <c r="A196">
+        <v>938220</v>
+      </c>
+      <c r="C196" t="s">
+        <v>509</v>
+      </c>
+      <c r="D196" t="s">
+        <v>73</v>
+      </c>
+      <c r="G196" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC196">
+        <v>1</v>
+      </c>
+      <c r="AV196">
+        <v>0</v>
+      </c>
+      <c r="BH196" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM196">
+        <v>0</v>
+      </c>
+      <c r="BN196">
+        <v>0</v>
+      </c>
+      <c r="BO196">
+        <v>0</v>
+      </c>
+      <c r="BP196">
+        <v>0</v>
+      </c>
+      <c r="BQ196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:72">
+      <c r="A197">
+        <v>938221</v>
+      </c>
+      <c r="C197" t="s">
+        <v>511</v>
+      </c>
+      <c r="D197" t="s">
+        <v>73</v>
+      </c>
+      <c r="G197" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC197">
+        <v>1</v>
+      </c>
+      <c r="AV197">
+        <v>0</v>
+      </c>
+      <c r="BH197" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM197">
+        <v>0</v>
+      </c>
+      <c r="BN197">
+        <v>0</v>
+      </c>
+      <c r="BO197">
+        <v>0</v>
+      </c>
+      <c r="BP197">
+        <v>0</v>
+      </c>
+      <c r="BQ197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:72">
+      <c r="A198">
+        <v>938222</v>
+      </c>
+      <c r="C198" t="s">
+        <v>513</v>
+      </c>
+      <c r="D198" t="s">
+        <v>73</v>
+      </c>
+      <c r="G198" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC198">
+        <v>1</v>
+      </c>
+      <c r="AV198">
+        <v>0</v>
+      </c>
+      <c r="BH198" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM198">
+        <v>0</v>
+      </c>
+      <c r="BN198">
+        <v>0</v>
+      </c>
+      <c r="BO198">
+        <v>0</v>
+      </c>
+      <c r="BP198">
+        <v>0</v>
+      </c>
+      <c r="BQ198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:72">
+      <c r="A199">
+        <v>938259</v>
+      </c>
+      <c r="C199" t="s">
+        <v>515</v>
+      </c>
+      <c r="D199" t="s">
+        <v>73</v>
+      </c>
+      <c r="G199" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC199">
+        <v>1</v>
+      </c>
+      <c r="AV199">
+        <v>0</v>
+      </c>
+      <c r="BH199" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM199">
+        <v>0</v>
+      </c>
+      <c r="BN199">
+        <v>0</v>
+      </c>
+      <c r="BO199">
+        <v>0</v>
+      </c>
+      <c r="BP199">
+        <v>0</v>
+      </c>
+      <c r="BQ199">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>id</t>
   </si>
@@ -233,1272 +233,1302 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Book</t>
+  </si>
+  <si>
+    <t>Grants the ability to craft weapons better.</t>
+  </si>
+  <si>
+    <t>Weapon Crafting</t>
+  </si>
+  <si>
+    <t>Spell Weaving Book</t>
+  </si>
+  <si>
+    <t>Makes spell crafting slightly easier.</t>
+  </si>
+  <si>
+    <t>Spell Crafting</t>
+  </si>
+  <si>
+    <t>Flask Of Fresh Air</t>
+  </si>
+  <si>
+    <t>Allows you to walk on water.</t>
+  </si>
+  <si>
+    <t>walk-on-water</t>
+  </si>
+  <si>
+    <t>Blacksmith's Book</t>
+  </si>
+  <si>
+    <t>Makes crafting armour better.</t>
+  </si>
+  <si>
+    <t>Armour Crafting</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Book</t>
+  </si>
+  <si>
+    <t>Makes ring crafting slightly easier.</t>
+  </si>
+  <si>
+    <t>Ring Crafting</t>
+  </si>
+  <si>
+    <t>Enchanter's Book</t>
+  </si>
+  <si>
+    <t>Allows you to enchant easily.</t>
+  </si>
+  <si>
+    <t>Enchanting</t>
+  </si>
+  <si>
+    <t>Key of the Labyrinth</t>
+  </si>
+  <si>
+    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
+  </si>
+  <si>
+    <t>labyrinth</t>
+  </si>
+  <si>
+    <t>River Styx Sandals</t>
+  </si>
+  <si>
+    <t>Walk across water made to kill you.</t>
+  </si>
+  <si>
+    <t>walk-on-death-water</t>
+  </si>
+  <si>
+    <t>Life's Flail</t>
+  </si>
+  <si>
+    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
+  </si>
+  <si>
+    <t>shadow-plane</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Now you can see child, you can see deep into the darkness. Let it illuminate your way child.</t>
+  </si>
+  <si>
+    <t>dungeon</t>
+  </si>
+  <si>
+    <t>Dungeon Map</t>
+  </si>
+  <si>
+    <t>It is said that this map is the way to the fabled dungeon plane. Give this item to the Dungeon Master for the torch, with out the torch you will be lost.</t>
+  </si>
+  <si>
+    <t>Dungeon Ink</t>
+  </si>
+  <si>
+    <t>Used in the creation of a dungeon map, it is said this ink has mystical properties.</t>
+  </si>
+  <si>
+    <t>Enchantress' Diary</t>
+  </si>
+  <si>
+    <t>Reading through her diary, it's clear she was a master enchantress. All her notes are here for you, child. Read them.</t>
+  </si>
+  <si>
+    <t>Mage's Tome</t>
+  </si>
+  <si>
+    <t>With this tome you can better craft the spells you need to take down your enemies.</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Master Book</t>
+  </si>
+  <si>
+    <t>The weaponsmiths have all come together and compiled a list of instructions on being proficient at creating weapons.</t>
+  </si>
+  <si>
+    <t>Blacksmith's Master Recipes</t>
+  </si>
+  <si>
+    <t>Ever wanted to create better armour? Have a better chance at crafting it? Here ya go! These notes are compiled from the masters of their craft: Blacksmiths.</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Master Book</t>
+  </si>
+  <si>
+    <t>The masters of the old days have jotted down their notes and now you too can craft powerful rings.</t>
+  </si>
+  <si>
+    <t>Alchemist Tools</t>
+  </si>
+  <si>
+    <t>Speak to the appropriate quest quiver to turn this item in and unlock the Alchemy Skill.</t>
+  </si>
+  <si>
+    <t>Crystal Eye Glass</t>
+  </si>
+  <si>
+    <t>With this, you can use the /pct chat command as opposed to just /pc when hunting Celestial Entities. /pct will teleport you to the plane and location of the entity, free of charge with a 10 second timeout before you can move again.</t>
+  </si>
+  <si>
+    <t>teleport-to-celestial</t>
+  </si>
+  <si>
+    <t>Alchemist Book</t>
+  </si>
+  <si>
+    <t>Makes the crafting of alchemical items easier. (See Skill Modifiers below)</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Disenchanter's Magnifying Glass</t>
+  </si>
+  <si>
+    <t>Increase Disenchanting XP and Skill bonus by 45%. Used automatically.</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>Creepy Baby Doll</t>
+  </si>
+  <si>
+    <t>Makes your affixes irresistible to the enemy. (None of your affixes will be resisted).</t>
+  </si>
+  <si>
+    <t>affixes-irresistible</t>
+  </si>
+  <si>
+    <t>Shadow Plane Grimoire</t>
+  </si>
+  <si>
+    <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 30% chance to devoid an enemy. See below for the Devouring Information. You can also check the Help Docs for Voidance and Devoidance under the Character Information section.</t>
+  </si>
+  <si>
+    <t>Eye of the Beholder</t>
+  </si>
+  <si>
+    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy. Check the Devouring info below, or the Help Docs for Voidance and Devoidance under the Character Information section.</t>
+  </si>
+  <si>
+    <t>Dead King's Crown</t>
+  </si>
+  <si>
+    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
+  </si>
+  <si>
+    <t>Leather Sash</t>
+  </si>
+  <si>
+    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
+  </si>
+  <si>
+    <t>Sash of the Heavens</t>
+  </si>
+  <si>
+    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
+  </si>
+  <si>
+    <t>continue-leveling</t>
+  </si>
+  <si>
+    <t>Grain of sand</t>
+  </si>
+  <si>
+    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
+  </si>
+  <si>
+    <t>gold-dust-rush</t>
+  </si>
+  <si>
+    <t>Golden Wand of Gold</t>
+  </si>
+  <si>
+    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms. It's limited by plane, so you must switch planes to embezzle from that plane. All you have to do is go to your kingdoms tab, click on a kingdom, and you will see the new Mass Embezzle option!</t>
+  </si>
+  <si>
+    <t>mass-embezzle</t>
+  </si>
+  <si>
+    <t>Goblins Jewels</t>
+  </si>
+  <si>
+    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
+  </si>
+  <si>
+    <t>Satan's Mask</t>
+  </si>
+  <si>
+    <t>Satan once wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him, he dropped his mask on the ground before turning to stone.</t>
+  </si>
+  <si>
+    <t>Prison Key</t>
+  </si>
+  <si>
+    <t>This key does not unlock any particular prison on any particular plane. But Hells Gate Keeper might have an answer</t>
+  </si>
+  <si>
+    <t>Demonic Leather Boots</t>
+  </si>
+  <si>
+    <t>Lets you walk on magma in hell.</t>
+  </si>
+  <si>
+    <t>walk-on-magma</t>
+  </si>
+  <si>
+    <t>Second prison key</t>
+  </si>
+  <si>
+    <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
+    <t>Purse of Copper Coins</t>
+  </si>
+  <si>
+    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
+  </si>
+  <si>
+    <t>Dead Fiend's Hide</t>
+  </si>
+  <si>
+    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
+  </si>
+  <si>
+    <t>Book of the Dead Souls</t>
+  </si>
+  <si>
+    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Purgatory's Lantern</t>
+  </si>
+  <si>
+    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
+  </si>
+  <si>
+    <t>purgatory</t>
+  </si>
+  <si>
+    <t>Purse of Shards and Dust</t>
+  </si>
+  <si>
+    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
+  </si>
+  <si>
+    <t>Bag of Child's Bones</t>
+  </si>
+  <si>
+    <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
+  </si>
+  <si>
+    <t>Kingmanship</t>
+  </si>
+  <si>
+    <t>Bone Chalice of Animal Blood</t>
+  </si>
+  <si>
+    <t>This item can be given to the Dungeon master for something you might need.</t>
+  </si>
+  <si>
+    <t>Criticality</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Mirror of the Queen</t>
+  </si>
+  <si>
+    <t>Looking into this mirror causes you to hear the beating of a heart.</t>
+  </si>
+  <si>
+    <t>Bag of Dice</t>
+  </si>
+  <si>
+    <t>A bag of dice, what could this have to do with anything?</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Bag of Chance</t>
+  </si>
+  <si>
+    <t>With this item, you can talk to the Queen of Hearts and reroll and purchase randomly generated affixes as well as move these affixes from one item to the next for a price of course.</t>
+  </si>
+  <si>
+    <t>speak-to-queen-of-hearts</t>
+  </si>
+  <si>
+    <t>Satan's Heart</t>
+  </si>
+  <si>
+    <t>Allows access to Hell.</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>Mark of Hell</t>
+  </si>
+  <si>
+    <t>Give this item to the Shade Lord on Shadow Plane, he will then give you access to Hell.</t>
+  </si>
+  <si>
+    <t>Broken Copper Coin</t>
+  </si>
+  <si>
+    <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
+  </si>
+  <si>
+    <t>Scroll of Prayer</t>
+  </si>
+  <si>
+    <t>Give this item to the Dungeon master, along with a copper coin and he will give you Satans Mark.</t>
+  </si>
+  <si>
+    <t>Satan's Hide</t>
+  </si>
+  <si>
+    <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
+  </si>
+  <si>
+    <t>Satanic Sigil</t>
+  </si>
+  <si>
+    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
+  </si>
+  <si>
+    <t>Bottle of Fire Demon Essence</t>
+  </si>
+  <si>
+    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
+  </si>
+  <si>
+    <t>Flaming Coin</t>
+  </si>
+  <si>
+    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
+  </si>
+  <si>
+    <t>Shadow Ink</t>
+  </si>
+  <si>
+    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
+  </si>
+  <si>
+    <t>Flaming Sword of Ascension</t>
+  </si>
+  <si>
+    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
+  </si>
+  <si>
+    <t>Candle Stick of Hope</t>
+  </si>
+  <si>
+    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
+  </si>
+  <si>
+    <t>Holy Wax</t>
+  </si>
+  <si>
+    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
+  </si>
+  <si>
+    <t>Burnt Wick</t>
+  </si>
+  <si>
+    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
+  </si>
+  <si>
+    <t>Bishop's Enchanted Scroll</t>
+  </si>
+  <si>
+    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
+  </si>
+  <si>
+    <t>Enchanted Candlestick of Light</t>
+  </si>
+  <si>
+    <t>Gain even more experience per fight with this specially enchanted candle!</t>
+  </si>
+  <si>
+    <t>Holy Enchanted Oil</t>
+  </si>
+  <si>
+    <t>Apply this oil to an enchanted candle and watch it become even more powerful. I think the Candle Maker can help you out here.</t>
+  </si>
+  <si>
+    <t>Blessed Enchanted Candle Stick</t>
+  </si>
+  <si>
+    <t>Now that the candle is blessed and enchanted, you should feel more hopeful child!</t>
+  </si>
+  <si>
+    <t>Simple Candlestick</t>
+  </si>
+  <si>
+    <t>Can you see in the darkness, child?</t>
+  </si>
+  <si>
+    <t>Pillar Candle of the Church</t>
+  </si>
+  <si>
+    <t>Light this specially imbued and enchanted candle to gain even more XP per fight!</t>
+  </si>
+  <si>
+    <t>Essence of Rage</t>
+  </si>
+  <si>
+    <t>Rage at the enemy. For each enemy you kill starting at Level 1 of the faction will give you 10 points per kill as opposed to 2 points. (from level 0-1 you only get 1 point).</t>
+  </si>
+  <si>
+    <t>effects-faction-points</t>
+  </si>
+  <si>
+    <t>Book of Currencies</t>
+  </si>
+  <si>
+    <t>This book details the various currencies in Tlessa, which is useful for those looking to learn more about the currencies. If not, Hells Accountant might want this.</t>
+  </si>
+  <si>
+    <t>Treaty of the Smith</t>
+  </si>
+  <si>
+    <t>I am surprised you found this. Long ago, when the doors too Purgatory opened and The Creator walked forward, he left behind his friend: The Smith of Purgatory. The treaty stated that as long as The Creator walked the land the smith could not come into being, for their would be no peace across the land if he did.</t>
+  </si>
+  <si>
+    <t>Magician's Enchanted Copper Coin</t>
+  </si>
+  <si>
+    <t>This rare enchanted copper coin has the magical marking of The Creator, which means it must be a key to the Smith himself. Quick, child! Find the Treaty!</t>
+  </si>
+  <si>
+    <t>The Creator's Last Copper Coin</t>
+  </si>
+  <si>
+    <t>You should not have this, child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
+  </si>
+  <si>
+    <t>get-copper-coins</t>
+  </si>
+  <si>
+    <t>Musty old Church Records</t>
+  </si>
+  <si>
+    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
+  </si>
+  <si>
+    <t>Alchemically Enchanted Holy Candle</t>
+  </si>
+  <si>
+    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
+  </si>
+  <si>
+    <t>Dried up Enchanted Holy Ink</t>
+  </si>
+  <si>
+    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
+  </si>
+  <si>
+    <t>Fanatic's Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick, child. I think...</t>
+  </si>
+  <si>
+    <t>Corrupted Candle of the Church</t>
+  </si>
+  <si>
+    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
+  </si>
+  <si>
+    <t>Purgatory Smith's House Key</t>
+  </si>
+  <si>
+    <t>Lets you enter the house of the purgatory smith.</t>
+  </si>
+  <si>
+    <t>Smith's Hammer</t>
+  </si>
+  <si>
+    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Smith's Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these would be found on the surface. First his hammer is in Dungeons and now some of his components are on the surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Broken Smith's Anvil</t>
+  </si>
+  <si>
+    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smith's tools across the various planes. Was it The Creator?</t>
+  </si>
+  <si>
+    <t>Smith's Dying Ember</t>
+  </si>
+  <si>
+    <t>Satan's cage holds a lot of interesting things to say the least, however why is the Smith's Dying Ember here? Something smells off, child.</t>
+  </si>
+  <si>
+    <t>Candle of the Smith</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smith and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Vial of Water from the well of the Smith</t>
+  </si>
+  <si>
+    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
+  </si>
+  <si>
+    <t>Purgatory's Cursed Candle</t>
+  </si>
+  <si>
+    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
+  </si>
+  <si>
+    <t>Bag of Transformation</t>
+  </si>
+  <si>
+    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
+  </si>
+  <si>
+    <t>Heart of the Eye</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Tome of the Winds</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>King's Book of Hope</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>Feathers of the sky</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>Book of speed</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragon's Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>The Wizard's Enchantment</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
+  </si>
+  <si>
+    <t>Arrow of Truth</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Goddess Bow of Light</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>The Book of Guidance</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
+  </si>
+  <si>
+    <t>Settler's Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>King's Scepter</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>King's Ring</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
+  </si>
+  <si>
+    <t>Alchemist Scrolls</t>
+  </si>
+  <si>
+    <t>A powerful set of scroll to help those who seek to learn even more about the Alchemical arts. (See Skill Modifiers below)</t>
+  </si>
+  <si>
+    <t>Mage's Teleport Scroll</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>Goblin's Quickening Rune</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>Golden Ring of Blur</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
+  </si>
+  <si>
+    <t>Simple Candle Stick</t>
+  </si>
+  <si>
+    <t>Can you see in the darkness child?</t>
+  </si>
+  <si>
+    <t>Purgatory Smiths House Key</t>
+  </si>
+  <si>
+    <t>Something lies in the basement of the house of the Purgatory Smith. Something lies in the cracks of the stone in the basement, a green glowing light that was once thought of as forever lost.</t>
+  </si>
+  <si>
+    <t>enter-purgatory-house</t>
+  </si>
+  <si>
+    <t>Fanatics Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
+  </si>
+  <si>
+    <t>The Creators Last Copper Coin</t>
+  </si>
+  <si>
+    <t>You should not have this child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
+  </si>
+  <si>
+    <t>Settlers Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragons Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Candle of the Smithy</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Smithies Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Enchantresses Diary</t>
+  </si>
+  <si>
+    <t>Reading through her diary, its clear she was a master enchantress. All her notes are here for you child. Read them.</t>
+  </si>
+  <si>
+    <t>Broken Trinket</t>
+  </si>
+  <si>
+    <t>A simple broken trinket. You have heard about these from sources around the world. Maybe someone is looking for this?</t>
+  </si>
+  <si>
+    <t>Book of Tactics</t>
+  </si>
+  <si>
+    <t>They say there is away to get upper hand on the enemy. This book might hold the key. But who would help you get more info out it?</t>
+  </si>
+  <si>
+    <t>Shades book of stories</t>
+  </si>
+  <si>
+    <t>A book on the subject of crafting trinkets. Should make things a bit easier</t>
+  </si>
+  <si>
+    <t>Trinketry</t>
+  </si>
+  <si>
+    <t>Rusted Trinket Tools</t>
+  </si>
+  <si>
+    <t>A set of old and rusted trinket tools that might be able to polished up.</t>
+  </si>
+  <si>
+    <t>Polished Trinket Tools</t>
+  </si>
+  <si>
+    <t>Polished by the shadows and given to you for your service. Now you should find trinketry a little easier.</t>
+  </si>
+  <si>
+    <t>The Beating Heart</t>
+  </si>
+  <si>
+    <t>The heart of purgatory, bloody and still beating. Who would want such a gross item?</t>
+  </si>
+  <si>
+    <t>Lock of hair</t>
+  </si>
+  <si>
+    <t>A lock of hair from the Child of Shade. It might help you with trinketry.</t>
+  </si>
+  <si>
+    <t>Soiled Night Gown</t>
+  </si>
+  <si>
+    <t>Tattered and soiled. This night gown reminds you of a painful story.</t>
+  </si>
+  <si>
+    <t>Locket of the Church</t>
+  </si>
+  <si>
+    <t>A simple locket given to you by the Child of Shade. Let this give your trinketry a boost.</t>
+  </si>
+  <si>
+    <t>Book of Faith</t>
+  </si>
+  <si>
+    <t>A simple book full of fables and stories of ones faith.</t>
+  </si>
+  <si>
+    <t>Ring of Faith</t>
+  </si>
+  <si>
+    <t>A simple ring of ones faith.</t>
+  </si>
+  <si>
+    <t>Cloth of the invisible</t>
+  </si>
+  <si>
+    <t>A simple piece of cloth that sometimes goes invisible.</t>
+  </si>
+  <si>
+    <t>Cloak of Invisibility</t>
+  </si>
+  <si>
+    <t>A cloak you can wear so your enemies cannot find you. This item will hide your location in chat.</t>
+  </si>
+  <si>
+    <t>hide-chat-location</t>
+  </si>
+  <si>
+    <t>Stories of The Children</t>
+  </si>
+  <si>
+    <t>This book contains the story's of the children of the church. Maybe the candle maker wants this for something?</t>
+  </si>
+  <si>
+    <t>Scroll of the Children</t>
+  </si>
+  <si>
+    <t>This scroll holds secrets the Candle Maker is looking for.</t>
+  </si>
+  <si>
+    <t>Small Black Carved Box</t>
+  </si>
+  <si>
+    <t>A small black carved wooden box that contains the screams and pain of those the magic was used on.</t>
+  </si>
+  <si>
+    <t>Missing Scroll Piece</t>
+  </si>
+  <si>
+    <t>This is a missing piece of a scroll for The Candle Maker</t>
+  </si>
+  <si>
+    <t>Research Papers on Flight</t>
+  </si>
+  <si>
+    <t>papers about the research on flight. Some one is looking for these papers.</t>
+  </si>
+  <si>
+    <t>Kalitore Ore</t>
+  </si>
+  <si>
+    <t>A mysterious ore from the depths of the Dungeons of Valifore. It was said this ore was mined to provide power to the airships.</t>
+  </si>
+  <si>
+    <t>Chemists Tools</t>
+  </si>
+  <si>
+    <t>Used by chemists for their old world science research.</t>
+  </si>
+  <si>
+    <t>Chemist Journal</t>
+  </si>
+  <si>
+    <t>A journal that holds the key to the old world science the chemists were once known for practicing.</t>
+  </si>
+  <si>
+    <t>Bullet Casings and Bullets</t>
+  </si>
+  <si>
+    <t>Old tech for the old world. Someone is looking for these.</t>
+  </si>
+  <si>
+    <t>Papers of Flight</t>
+  </si>
+  <si>
+    <t>A set of papers that describe the flight of airships. Someone in hell must want these for some research purposes.</t>
+  </si>
+  <si>
+    <t>Airship Blueprints</t>
+  </si>
+  <si>
+    <t>Blueprints that layout how to build airships for ones kingdoms.</t>
+  </si>
+  <si>
+    <t>Soul Gem of Galith</t>
+  </si>
+  <si>
+    <t>Used in the ancient magic of Rebirth.</t>
+  </si>
+  <si>
+    <t>Judges Helm</t>
+  </si>
+  <si>
+    <t>Back when there was a set of entities known as Judges these were the helms they would wear. Formidable look is what it gave them.</t>
+  </si>
+  <si>
+    <t>Judges Cards</t>
+  </si>
+  <si>
+    <t>A set of cards that the Judges of the past would use to apply the law of the land in an instant.</t>
+  </si>
+  <si>
+    <t>Stolen Coin</t>
+  </si>
+  <si>
+    <t>A simple single coin, that was stolen from a merchant. Did it spark the war?</t>
+  </si>
+  <si>
+    <t>Smugglers Coin</t>
+  </si>
+  <si>
+    <t>Smugglers Coin is an old coin that was once found by The Poet on The Soldier when he first arrived. Now The Soldier hands you the coin.</t>
+  </si>
+  <si>
+    <t>Pirates Lost Key</t>
+  </si>
+  <si>
+    <t>This was once used to open an old vault that was once under Smugglers Port. The key no longer works as the entire vault was demolished long ago.</t>
+  </si>
+  <si>
+    <t>Corrupted Bracelet</t>
+  </si>
+  <si>
+    <t>A corrupted bracelet that eminates dark magic.</t>
+  </si>
+  <si>
+    <t>Shade Dust</t>
+  </si>
+  <si>
+    <t>Dust dropped by the shadows of The Creator. A bit of the past is trapped in this bottle. A bit of the pain, misery and sense of self loathing emanates through you as you hold it.</t>
+  </si>
+  <si>
+    <t>Scholars Necklace</t>
+  </si>
+  <si>
+    <t>Stolen by a cultist from the Scholar of Hell, he might be happy to have this back.</t>
+  </si>
+  <si>
+    <t>The Quartermasters Severed Head</t>
+  </si>
+  <si>
+    <t>You hack, slash and sever the head of the corpse. The blood drains quickly from the head as you place it into the sack.</t>
+  </si>
+  <si>
+    <t>Merchants Walking Stick</t>
+  </si>
+  <si>
+    <t>The Wandering Merchant seems to have lost his walking stick. Will this help guide you back to him?</t>
+  </si>
+  <si>
+    <t>Simple Gem Necklace</t>
+  </si>
+  <si>
+    <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
+  </si>
+  <si>
+    <t>Lost Tome Of Spells</t>
+  </si>
+  <si>
+    <t>A lost tome The Witch was looking for.</t>
+  </si>
+  <si>
+    <t>Clean White Feather</t>
+  </si>
+  <si>
+    <t>A single clean white feather the Dungeon Master is searching for.</t>
+  </si>
+  <si>
+    <t>Ratty Toy Bear</t>
+  </si>
+  <si>
+    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
+  </si>
+  <si>
+    <t>Queens Lost Bracelet</t>
+  </si>
+  <si>
+    <t>The Queen has lost her bracelet here at this weird looking metal wreck. Why it's called a wreck you have no idea. But she lost it here.</t>
+  </si>
+  <si>
+    <t>The Frozen Wreck</t>
+  </si>
+  <si>
+    <t>Wedding Ring</t>
+  </si>
+  <si>
+    <t>A simple diamond wedding ring</t>
+  </si>
+  <si>
+    <t>Christmas Ornament</t>
+  </si>
+  <si>
+    <t>A single shiny silver object that hangs from the tree. What does it symbolize?</t>
+  </si>
+  <si>
+    <t>Abandoned Village</t>
+  </si>
+  <si>
+    <t>Snow balls</t>
+  </si>
+  <si>
+    <t>Round and fluffy, they are fun to throw at people.</t>
+  </si>
+  <si>
+    <t>Coal and Carrot</t>
+  </si>
+  <si>
+    <t>A carrot and two pieces of coal. What are we doing with this?</t>
+  </si>
+  <si>
+    <t>Top Hat and Scarf</t>
+  </si>
+  <si>
+    <t>Who would ware these? They seem so ugly.</t>
+  </si>
+  <si>
+    <t>Ice Skates</t>
+  </si>
+  <si>
+    <t>Should make walking on the ice easier.</t>
+  </si>
+  <si>
+    <t>walk-on-ice</t>
+  </si>
+  <si>
+    <t>Busted Pocket Watch</t>
+  </si>
+  <si>
+    <t>A busted pocket watch stuck on a time from long ago.</t>
+  </si>
+  <si>
+    <t>Queens Coin</t>
+  </si>
+  <si>
+    <t>The a simple coin for the queen - the currency of The Queen</t>
+  </si>
+  <si>
+    <t>Broken Knife</t>
+  </si>
+  <si>
+    <t>A broken knife found in the bank on the ground. What is the story here?</t>
+  </si>
+  <si>
+    <t>Frozen Queens Bank</t>
+  </si>
+  <si>
+    <t>Frozen Cat Toy</t>
+  </si>
+  <si>
+    <t>Mr. Whiskers does love his cat toys.</t>
+  </si>
+  <si>
+    <t>Looting</t>
+  </si>
+  <si>
+    <t>Candy Cane</t>
+  </si>
+  <si>
+    <t>A delicious looking red and white striped cane looking candy treat.</t>
+  </si>
+  <si>
+    <t>Catnip</t>
+  </si>
+  <si>
+    <t>Mr. Whiskers might like this. it's common fact that all cats are drug addicts.</t>
+  </si>
+  <si>
+    <t>Christmas Card</t>
+  </si>
+  <si>
+    <t>A Christmas card that reads: "We are sorry for your loss, but do know that Mr. Whiskers has moved on to a better place. He is beyond the rainbow and is playing and waiting for you to one day, far into the future, when you are old and lived a long and happy life, join him."</t>
+  </si>
+  <si>
+    <t>Gift Wrapped Ashes</t>
+  </si>
+  <si>
+    <t>A gift wrap box of ashes, examining the box it states: Mr. Whiskers - Goose. Why is it gift wrapped? That's so depressing.</t>
+  </si>
+  <si>
+    <t>The Queens Diary</t>
+  </si>
+  <si>
+    <t>The diary of the queen. No matter how hard you try, the book will not open. The back of the book has a name inscribed: The Poet.</t>
+  </si>
+  <si>
+    <t>The Key To Home</t>
+  </si>
+  <si>
+    <t>The key to The Fathers Tomb.</t>
+  </si>
+  <si>
+    <t>Bloody Shirt</t>
+  </si>
+  <si>
+    <t>A basic shirt covered in blood.</t>
+  </si>
+  <si>
+    <t>Broken Forest Road</t>
+  </si>
+  <si>
+    <t>The Child's Journal</t>
+  </si>
+  <si>
+    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
+  </si>
+  <si>
+    <t>The Soldiers Journal</t>
+  </si>
+  <si>
+    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
+  </si>
+  <si>
+    <t>Bloody Snowball</t>
+  </si>
+  <si>
+    <t>Blood stained snowball, a child's broken memory.</t>
+  </si>
+  <si>
+    <t>Pages of the holy book</t>
+  </si>
+  <si>
+    <t>pages that detail the scripture of The Churches holy book</t>
+  </si>
+  <si>
+    <t>Bloody Snowman</t>
+  </si>
+  <si>
+    <t>Box of Memories</t>
+  </si>
+  <si>
+    <t>A child's toy that lights up and shows a story as it spins</t>
+  </si>
+  <si>
+    <t>Child's Drawings</t>
+  </si>
+  <si>
+    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
+  </si>
+  <si>
+    <t>Red Hawks Sword</t>
+  </si>
+  <si>
+    <t>A Red Hawk Sword used in the attack on The Church</t>
+  </si>
+  <si>
+    <t>The Letter</t>
+  </si>
+  <si>
+    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
+  </si>
+  <si>
+    <t>Ice Queens Treaty Scrolls</t>
+  </si>
+  <si>
+    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
+  </si>
+  <si>
+    <t>settle-on-the-ice-plane</t>
+  </si>
+  <si>
+    <t>Ice Shard of Memories</t>
+  </si>
+  <si>
+    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
+  </si>
+  <si>
+    <t>Bottle of Frozen Tears</t>
+  </si>
+  <si>
+    <t>The tears of a child that have been frozen in time.</t>
+  </si>
+  <si>
+    <t>Ice Stave of Hope</t>
+  </si>
+  <si>
+    <t>A stave made of ice that holds the last hope of a grieving mother</t>
+  </si>
+  <si>
+    <t>Wilted Frozen Rose</t>
+  </si>
+  <si>
+    <t>A single rose placed upon the tombstone of a child.</t>
+  </si>
+  <si>
+    <t>The Old Church</t>
+  </si>
+  <si>
+    <t>Love Letter</t>
+  </si>
+  <si>
+    <t>A love letter written by The Child to his then lover.</t>
+  </si>
+  <si>
+    <t>The Poets Walking Stick</t>
+  </si>
+  <si>
+    <t>A simple walking stick used by The Poet</t>
+  </si>
+  <si>
+    <t>Rusted Keys</t>
+  </si>
+  <si>
+    <t>A set of keys that once made the frozen wreck move.</t>
+  </si>
+  <si>
+    <t>Husbands Wallet</t>
+  </si>
+  <si>
+    <t>A wallet covered in blood with a single picture of The Creators father</t>
+  </si>
+  <si>
+    <t>Christmas Tree Light Bulb</t>
+  </si>
+  <si>
+    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
+  </si>
+  <si>
     <t>Vile of Twisted Laughter</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
   </si>
   <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
     <t>Lover of the queens charred bones</t>
   </si>
   <si>
     <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
   </si>
   <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
     <t>Scholars Glasses</t>
   </si>
   <si>
     <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
   </si>
   <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
     <t>Mothers Quill</t>
   </si>
   <si>
     <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
   </si>
   <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
-    <t>Weaponsmith's Book</t>
-  </si>
-  <si>
-    <t>Grants the ability to craft weapons better.</t>
-  </si>
-  <si>
-    <t>Weapon Crafting</t>
-  </si>
-  <si>
-    <t>Spell Weaving Book</t>
-  </si>
-  <si>
-    <t>Makes spell crafting slightly easier.</t>
-  </si>
-  <si>
-    <t>Spell Crafting</t>
-  </si>
-  <si>
-    <t>Flask Of Fresh Air</t>
-  </si>
-  <si>
-    <t>Allows you to walk on water.</t>
-  </si>
-  <si>
-    <t>walk-on-water</t>
-  </si>
-  <si>
-    <t>Blacksmith's Book</t>
-  </si>
-  <si>
-    <t>Makes crafting armour better.</t>
-  </si>
-  <si>
-    <t>Armour Crafting</t>
-  </si>
-  <si>
-    <t>Ring Crafter's Book</t>
-  </si>
-  <si>
-    <t>Makes ring crafting slightly easier.</t>
-  </si>
-  <si>
-    <t>Ring Crafting</t>
-  </si>
-  <si>
-    <t>Enchanter's Book</t>
-  </si>
-  <si>
-    <t>Allows you to enchant easily.</t>
-  </si>
-  <si>
-    <t>Enchanting</t>
-  </si>
-  <si>
-    <t>Key of the Labyrinth</t>
-  </si>
-  <si>
-    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
-  </si>
-  <si>
-    <t>labyrinth</t>
-  </si>
-  <si>
-    <t>River Styx Sandals</t>
-  </si>
-  <si>
-    <t>Walk across water made to kill you.</t>
-  </si>
-  <si>
-    <t>walk-on-death-water</t>
-  </si>
-  <si>
-    <t>Life's Flail</t>
-  </si>
-  <si>
-    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
-  </si>
-  <si>
-    <t>shadow-plane</t>
-  </si>
-  <si>
-    <t>Torch</t>
-  </si>
-  <si>
-    <t>Now you can see child, you can see deep into the darkness. Let it illuminate your way child.</t>
-  </si>
-  <si>
-    <t>dungeon</t>
-  </si>
-  <si>
-    <t>Dungeon Map</t>
-  </si>
-  <si>
-    <t>It is said that this map is the way to the fabled dungeon plane. Give this item to the Dungeon Master for the torch, with out the torch you will be lost.</t>
-  </si>
-  <si>
-    <t>Dungeon Ink</t>
-  </si>
-  <si>
-    <t>Used in the creation of a dungeon map, it is said this ink has mystical properties.</t>
-  </si>
-  <si>
-    <t>Enchantress' Diary</t>
-  </si>
-  <si>
-    <t>Reading through her diary, it's clear she was a master enchantress. All her notes are here for you, child. Read them.</t>
-  </si>
-  <si>
-    <t>Mage's Tome</t>
-  </si>
-  <si>
-    <t>With this tome you can better craft the spells you need to take down your enemies.</t>
-  </si>
-  <si>
-    <t>Weaponsmith's Master Book</t>
-  </si>
-  <si>
-    <t>The weaponsmiths have all come together and compiled a list of instructions on being proficient at creating weapons.</t>
-  </si>
-  <si>
-    <t>Blacksmith's Master Recipes</t>
-  </si>
-  <si>
-    <t>Ever wanted to create better armour? Have a better chance at crafting it? Here ya go! These notes are compiled from the masters of their craft: Blacksmiths.</t>
-  </si>
-  <si>
-    <t>Ring Crafter's Master Book</t>
-  </si>
-  <si>
-    <t>The masters of the old days have jotted down their notes and now you too can craft powerful rings.</t>
-  </si>
-  <si>
-    <t>Alchemist Tools</t>
-  </si>
-  <si>
-    <t>Speak to the appropriate quest quiver to turn this item in and unlock the Alchemy Skill.</t>
-  </si>
-  <si>
-    <t>Crystal Eye Glass</t>
-  </si>
-  <si>
-    <t>With this, you can use the /pct chat command as opposed to just /pc when hunting Celestial Entities. /pct will teleport you to the plane and location of the entity, free of charge with a 10 second timeout before you can move again.</t>
-  </si>
-  <si>
-    <t>teleport-to-celestial</t>
-  </si>
-  <si>
-    <t>Alchemist Book</t>
-  </si>
-  <si>
-    <t>Makes the crafting of alchemical items easier. (See Skill Modifiers below)</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
-  </si>
-  <si>
-    <t>Disenchanter's Magnifying Glass</t>
-  </si>
-  <si>
-    <t>Increase Disenchanting XP and Skill bonus by 45%. Used automatically.</t>
-  </si>
-  <si>
-    <t>Disenchanting</t>
-  </si>
-  <si>
-    <t>Creepy Baby Doll</t>
-  </si>
-  <si>
-    <t>Makes your affixes irresistible to the enemy. (None of your affixes will be resisted).</t>
-  </si>
-  <si>
-    <t>affixes-irresistible</t>
-  </si>
-  <si>
-    <t>Shadow Plane Grimoire</t>
-  </si>
-  <si>
-    <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 30% chance to devoid an enemy. See below for the Devouring Information. You can also check the Help Docs for Voidance and Devoidance under the Character Information section.</t>
-  </si>
-  <si>
-    <t>Eye of the Beholder</t>
-  </si>
-  <si>
-    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy. Check the Devouring info below, or the Help Docs for Voidance and Devoidance under the Character Information section.</t>
-  </si>
-  <si>
-    <t>Dead King's Crown</t>
-  </si>
-  <si>
-    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
-  </si>
-  <si>
-    <t>Leather Sash</t>
-  </si>
-  <si>
-    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
-  </si>
-  <si>
-    <t>Sash of the Heavens</t>
-  </si>
-  <si>
-    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
-  </si>
-  <si>
-    <t>continue-leveling</t>
-  </si>
-  <si>
-    <t>Grain of sand</t>
-  </si>
-  <si>
-    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
-  </si>
-  <si>
-    <t>gold-dust-rush</t>
-  </si>
-  <si>
-    <t>Golden Wand of Gold</t>
-  </si>
-  <si>
-    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms. It's limited by plane, so you must switch planes to embezzle from that plane. All you have to do is go to your kingdoms tab, click on a kingdom, and you will see the new Mass Embezzle option!</t>
-  </si>
-  <si>
-    <t>mass-embezzle</t>
-  </si>
-  <si>
-    <t>Goblins Jewels</t>
-  </si>
-  <si>
-    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
-  </si>
-  <si>
-    <t>Satan's Mask</t>
-  </si>
-  <si>
-    <t>Satan once wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him, he dropped his mask on the ground before turning to stone.</t>
-  </si>
-  <si>
-    <t>Prison Key</t>
-  </si>
-  <si>
-    <t>This key does not unlock any particular prison on any particular plane. But Hells Gate Keeper might have an answer</t>
-  </si>
-  <si>
-    <t>Demonic Leather Boots</t>
-  </si>
-  <si>
-    <t>Lets you walk on magma in hell.</t>
-  </si>
-  <si>
-    <t>walk-on-magma</t>
-  </si>
-  <si>
-    <t>Second prison key</t>
-  </si>
-  <si>
-    <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
-  </si>
-  <si>
-    <t>Purse of Copper Coins</t>
-  </si>
-  <si>
-    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
-  </si>
-  <si>
-    <t>Dead Fiend's Hide</t>
-  </si>
-  <si>
-    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
-  </si>
-  <si>
-    <t>Book of the Dead Souls</t>
-  </si>
-  <si>
-    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
-  </si>
-  <si>
-    <t>Purgatory's Lantern</t>
-  </si>
-  <si>
-    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
-  </si>
-  <si>
-    <t>purgatory</t>
-  </si>
-  <si>
-    <t>Purse of Shards and Dust</t>
-  </si>
-  <si>
-    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Bag of Child's Bones</t>
-  </si>
-  <si>
-    <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
-  </si>
-  <si>
-    <t>Kingmanship</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>Bone Chalice of Animal Blood</t>
-  </si>
-  <si>
-    <t>This item can be given to the Dungeon master for something you might need.</t>
-  </si>
-  <si>
-    <t>Criticality</t>
-  </si>
-  <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Mirror of the Queen</t>
-  </si>
-  <si>
-    <t>Looking into this mirror causes you to hear the beating of a heart.</t>
-  </si>
-  <si>
-    <t>Bag of Dice</t>
-  </si>
-  <si>
-    <t>A bag of dice, what could this have to do with anything?</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Bag of Chance</t>
-  </si>
-  <si>
-    <t>With this item, you can talk to the Queen of Hearts and reroll and purchase randomly generated affixes as well as move these affixes from one item to the next for a price of course.</t>
-  </si>
-  <si>
-    <t>speak-to-queen-of-hearts</t>
-  </si>
-  <si>
-    <t>Satan's Heart</t>
-  </si>
-  <si>
-    <t>Allows access to Hell.</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>Mark of Hell</t>
-  </si>
-  <si>
-    <t>Give this item to the Shade Lord on Shadow Plane, he will then give you access to Hell.</t>
-  </si>
-  <si>
-    <t>Broken Copper Coin</t>
-  </si>
-  <si>
-    <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
-  </si>
-  <si>
-    <t>Scroll of Prayer</t>
-  </si>
-  <si>
-    <t>Give this item to the Dungeon master, along with a copper coin and he will give you Satans Mark.</t>
-  </si>
-  <si>
-    <t>Satan's Hide</t>
-  </si>
-  <si>
-    <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
-  </si>
-  <si>
-    <t>Satanic Sigil</t>
-  </si>
-  <si>
-    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
-  </si>
-  <si>
-    <t>Bottle of Fire Demon Essence</t>
-  </si>
-  <si>
-    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
-  </si>
-  <si>
-    <t>Flaming Coin</t>
-  </si>
-  <si>
-    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
-  </si>
-  <si>
-    <t>Shadow Ink</t>
-  </si>
-  <si>
-    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
-  </si>
-  <si>
-    <t>Flaming Sword of Ascension</t>
-  </si>
-  <si>
-    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
-  </si>
-  <si>
-    <t>Candle Stick of Hope</t>
-  </si>
-  <si>
-    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
-  </si>
-  <si>
-    <t>Holy Wax</t>
-  </si>
-  <si>
-    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
-  </si>
-  <si>
-    <t>Burnt Wick</t>
-  </si>
-  <si>
-    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
-  </si>
-  <si>
-    <t>Bishop's Enchanted Scroll</t>
-  </si>
-  <si>
-    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
-  </si>
-  <si>
-    <t>Enchanted Candlestick of Light</t>
-  </si>
-  <si>
-    <t>Gain even more experience per fight with this specially enchanted candle!</t>
-  </si>
-  <si>
-    <t>Holy Enchanted Oil</t>
-  </si>
-  <si>
-    <t>Apply this oil to an enchanted candle and watch it become even more powerful. I think the Candle Maker can help you out here.</t>
-  </si>
-  <si>
-    <t>Blessed Enchanted Candle Stick</t>
-  </si>
-  <si>
-    <t>Now that the candle is blessed and enchanted, you should feel more hopeful child!</t>
-  </si>
-  <si>
-    <t>Simple Candlestick</t>
-  </si>
-  <si>
-    <t>Can you see in the darkness, child?</t>
-  </si>
-  <si>
-    <t>Pillar Candle of the Church</t>
-  </si>
-  <si>
-    <t>Light this specially imbued and enchanted candle to gain even more XP per fight!</t>
-  </si>
-  <si>
-    <t>Essence of Rage</t>
-  </si>
-  <si>
-    <t>Rage at the enemy. For each enemy you kill starting at Level 1 of the faction will give you 10 points per kill as opposed to 2 points. (from level 0-1 you only get 1 point).</t>
-  </si>
-  <si>
-    <t>effects-faction-points</t>
-  </si>
-  <si>
-    <t>Book of Currencies</t>
-  </si>
-  <si>
-    <t>This book details the various currencies in Tlessa, which is useful for those looking to learn more about the currencies. If not, Hells Accountant might want this.</t>
-  </si>
-  <si>
-    <t>Treaty of the Smith</t>
-  </si>
-  <si>
-    <t>I am surprised you found this. Long ago, when the doors too Purgatory opened and The Creator walked forward, he left behind his friend: The Smith of Purgatory. The treaty stated that as long as The Creator walked the land the smith could not come into being, for their would be no peace across the land if he did.</t>
-  </si>
-  <si>
-    <t>Magician's Enchanted Copper Coin</t>
-  </si>
-  <si>
-    <t>This rare enchanted copper coin has the magical marking of The Creator, which means it must be a key to the Smith himself. Quick, child! Find the Treaty!</t>
-  </si>
-  <si>
-    <t>The Creator's Last Copper Coin</t>
-  </si>
-  <si>
-    <t>You should not have this, child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
-  </si>
-  <si>
-    <t>get-copper-coins</t>
-  </si>
-  <si>
-    <t>Musty old Church Records</t>
-  </si>
-  <si>
-    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
-  </si>
-  <si>
-    <t>Alchemically Enchanted Holy Candle</t>
-  </si>
-  <si>
-    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
-  </si>
-  <si>
-    <t>Dried up Enchanted Holy Ink</t>
-  </si>
-  <si>
-    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
-  </si>
-  <si>
-    <t>Fanatic's Candle of Despair</t>
-  </si>
-  <si>
-    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick, child. I think...</t>
-  </si>
-  <si>
-    <t>Corrupted Candle of the Church</t>
-  </si>
-  <si>
-    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
-  </si>
-  <si>
-    <t>Purgatory Smith's House Key</t>
-  </si>
-  <si>
-    <t>Lets you enter the house of the purgatory smith.</t>
-  </si>
-  <si>
-    <t>Smith's Hammer</t>
-  </si>
-  <si>
-    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
-  </si>
-  <si>
-    <t>Smith's Iron Chunks</t>
-  </si>
-  <si>
-    <t>Funny that these would be found on the surface. First his hammer is in Dungeons and now some of his components are on the surface. What is happening?</t>
-  </si>
-  <si>
-    <t>Broken Smith's Anvil</t>
-  </si>
-  <si>
-    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smith's tools across the various planes. Was it The Creator?</t>
-  </si>
-  <si>
-    <t>Smith's Dying Ember</t>
-  </si>
-  <si>
-    <t>Satan's cage holds a lot of interesting things to say the least, however why is the Smith's Dying Ember here? Something smells off, child.</t>
-  </si>
-  <si>
-    <t>Candle of the Smith</t>
-  </si>
-  <si>
-    <t>This unique looking candle has some enchanted engravings on it... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smith and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
-  </si>
-  <si>
-    <t>Vial of Water from the well of the Smith</t>
-  </si>
-  <si>
-    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
-  </si>
-  <si>
-    <t>Purgatory's Cursed Candle</t>
-  </si>
-  <si>
-    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
-  </si>
-  <si>
-    <t>Bag of Transformation</t>
-  </si>
-  <si>
-    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
-  </si>
-  <si>
-    <t>Heart of the Eye</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
-  </si>
-  <si>
-    <t>Tome of the Winds</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>King's Book of Hope</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>Feathers of the sky</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Quick Feet</t>
-  </si>
-  <si>
-    <t>Book of speed</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Sky Dragon's Blood Vial</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>The Wizard's Enchantment</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
-  </si>
-  <si>
-    <t>Arrow of Truth</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Goddess Bow of Light</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
-  </si>
-  <si>
-    <t>The Book of Guidance</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
-  </si>
-  <si>
-    <t>Settler's Walking Stick</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>King's Scepter</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>King's Ring</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
-  </si>
-  <si>
-    <t>Alchemist Scrolls</t>
-  </si>
-  <si>
-    <t>A powerful set of scroll to help those who seek to learn even more about the Alchemical arts. (See Skill Modifiers below)</t>
-  </si>
-  <si>
-    <t>Mage's Teleport Scroll</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>Goblin's Quickening Rune</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>Golden Ring of Blur</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
-  </si>
-  <si>
-    <t>Simple Candle Stick</t>
-  </si>
-  <si>
-    <t>Can you see in the darkness child?</t>
-  </si>
-  <si>
-    <t>Purgatory Smiths House Key</t>
-  </si>
-  <si>
-    <t>Something lies in the basement of the house of the Purgatory Smith. Something lies in the cracks of the stone in the basement, a green glowing light that was once thought of as forever lost.</t>
-  </si>
-  <si>
-    <t>enter-purgatory-house</t>
-  </si>
-  <si>
-    <t>Fanatics Candle of Despair</t>
-  </si>
-  <si>
-    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
-  </si>
-  <si>
-    <t>The Creators Last Copper Coin</t>
-  </si>
-  <si>
-    <t>You should not have this child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
-  </si>
-  <si>
-    <t>Settlers Walking Stick</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Sky Dragons Blood Vial</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Candle of the Smithy</t>
-  </si>
-  <si>
-    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
-  </si>
-  <si>
-    <t>Smithies Iron Chunks</t>
-  </si>
-  <si>
-    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
-  </si>
-  <si>
-    <t>Enchantresses Diary</t>
-  </si>
-  <si>
-    <t>Reading through her diary, its clear she was a master enchantress. All her notes are here for you child. Read them.</t>
-  </si>
-  <si>
-    <t>Broken Trinket</t>
-  </si>
-  <si>
-    <t>A simple broken trinket. You have heard about these from sources around the world. Maybe someone is looking for this?</t>
-  </si>
-  <si>
-    <t>Book of Tactics</t>
-  </si>
-  <si>
-    <t>They say there is away to get upper hand on the enemy. This book might hold the key. But who would help you get more info out it?</t>
-  </si>
-  <si>
-    <t>Shades book of stories</t>
-  </si>
-  <si>
-    <t>A book on the subject of crafting trinkets. Should make things a bit easier</t>
-  </si>
-  <si>
-    <t>Trinketry</t>
-  </si>
-  <si>
-    <t>Rusted Trinket Tools</t>
-  </si>
-  <si>
-    <t>A set of old and rusted trinket tools that might be able to polished up.</t>
-  </si>
-  <si>
-    <t>Polished Trinket Tools</t>
-  </si>
-  <si>
-    <t>Polished by the shadows and given to you for your service. Now you should find trinketry a little easier.</t>
-  </si>
-  <si>
-    <t>The Beating Heart</t>
-  </si>
-  <si>
-    <t>The heart of purgatory, bloody and still beating. Who would want such a gross item?</t>
-  </si>
-  <si>
-    <t>Lock of hair</t>
-  </si>
-  <si>
-    <t>A lock of hair from the Child of Shade. It might help you with trinketry.</t>
-  </si>
-  <si>
-    <t>Soiled Night Gown</t>
-  </si>
-  <si>
-    <t>Tattered and soiled. This night gown reminds you of a painful story.</t>
-  </si>
-  <si>
-    <t>Locket of the Church</t>
-  </si>
-  <si>
-    <t>A simple locket given to you by the Child of Shade. Let this give your trinketry a boost.</t>
-  </si>
-  <si>
-    <t>Book of Faith</t>
-  </si>
-  <si>
-    <t>A simple book full of fables and stories of ones faith.</t>
-  </si>
-  <si>
-    <t>Ring of Faith</t>
-  </si>
-  <si>
-    <t>A simple ring of ones faith.</t>
-  </si>
-  <si>
-    <t>Cloth of the invisible</t>
-  </si>
-  <si>
-    <t>A simple piece of cloth that sometimes goes invisible.</t>
-  </si>
-  <si>
-    <t>Cloak of Invisibility</t>
-  </si>
-  <si>
-    <t>A cloak you can wear so your enemies cannot find you. This item will hide your location in chat.</t>
-  </si>
-  <si>
-    <t>hide-chat-location</t>
-  </si>
-  <si>
-    <t>Stories of The Children</t>
-  </si>
-  <si>
-    <t>This book contains the story's of the children of the church. Maybe the candle maker wants this for something?</t>
-  </si>
-  <si>
-    <t>Scroll of the Children</t>
-  </si>
-  <si>
-    <t>This scroll holds secrets the Candle Maker is looking for.</t>
-  </si>
-  <si>
-    <t>Small Black Carved Box</t>
-  </si>
-  <si>
-    <t>A small black carved wooden box that contains the screams and pain of those the magic was used on.</t>
-  </si>
-  <si>
-    <t>Missing Scroll Piece</t>
-  </si>
-  <si>
-    <t>This is a missing piece of a scroll for The Candle Maker</t>
-  </si>
-  <si>
-    <t>Research Papers on Flight</t>
-  </si>
-  <si>
-    <t>papers about the research on flight. Some one is looking for these papers.</t>
-  </si>
-  <si>
-    <t>Kalitore Ore</t>
-  </si>
-  <si>
-    <t>A mysterious ore from the depths of the Dungeons of Valifore. It was said this ore was mined to provide power to the airships.</t>
-  </si>
-  <si>
-    <t>Chemists Tools</t>
-  </si>
-  <si>
-    <t>Used by chemists for their old world science research.</t>
-  </si>
-  <si>
-    <t>Chemist Journal</t>
-  </si>
-  <si>
-    <t>A journal that holds the key to the old world science the chemists were once known for practicing.</t>
-  </si>
-  <si>
-    <t>Bullet Casings and Bullets</t>
-  </si>
-  <si>
-    <t>Old tech for the old world. Someone is looking for these.</t>
-  </si>
-  <si>
-    <t>Papers of Flight</t>
-  </si>
-  <si>
-    <t>A set of papers that describe the flight of airships. Someone in hell must want these for some research purposes.</t>
-  </si>
-  <si>
-    <t>Airship Blueprints</t>
-  </si>
-  <si>
-    <t>Blueprints that layout how to build airships for ones kingdoms.</t>
-  </si>
-  <si>
-    <t>Soul Gem of Galith</t>
-  </si>
-  <si>
-    <t>Used in the ancient magic of Rebirth.</t>
-  </si>
-  <si>
-    <t>Judges Helm</t>
-  </si>
-  <si>
-    <t>Back when there was a set of entities known as Judges these were the helms they would wear. Formidable look is what it gave them.</t>
-  </si>
-  <si>
-    <t>Judges Cards</t>
-  </si>
-  <si>
-    <t>A set of cards that the Judges of the past would use to apply the law of the land in an instant.</t>
-  </si>
-  <si>
-    <t>Stolen Coin</t>
-  </si>
-  <si>
-    <t>A simple single coin, that was stolen from a merchant. Did it spark the war?</t>
-  </si>
-  <si>
-    <t>Smugglers Coin</t>
-  </si>
-  <si>
-    <t>Smugglers Coin is an old coin that was once found by The Poet on The Soldier when he first arrived. Now The Soldier hands you the coin.</t>
-  </si>
-  <si>
-    <t>Pirates Lost Key</t>
-  </si>
-  <si>
-    <t>This was once used to open an old vault that was once under Smugglers Port. The key no longer works as the entire vault was demolished long ago.</t>
-  </si>
-  <si>
-    <t>Corrupted Bracelet</t>
-  </si>
-  <si>
-    <t>A corrupted bracelet that eminates dark magic.</t>
-  </si>
-  <si>
-    <t>Shade Dust</t>
-  </si>
-  <si>
-    <t>Dust dropped by the shadows of The Creator. A bit of the past is trapped in this bottle. A bit of the pain, misery and sense of self loathing emanates through you as you hold it.</t>
-  </si>
-  <si>
-    <t>Scholars Necklace</t>
-  </si>
-  <si>
-    <t>Stolen by a cultist from the Scholar of Hell, he might be happy to have this back.</t>
-  </si>
-  <si>
-    <t>The Quartermasters Severed Head</t>
-  </si>
-  <si>
-    <t>You hack, slash and sever the head of the corpse. The blood drains quickly from the head as you place it into the sack.</t>
-  </si>
-  <si>
-    <t>Merchants Walking Stick</t>
-  </si>
-  <si>
-    <t>The Wandering Merchant seems to have lost his walking stick. Will this help guide you back to him?</t>
-  </si>
-  <si>
-    <t>Simple Gem Necklace</t>
-  </si>
-  <si>
-    <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
-  </si>
-  <si>
-    <t>Lost Tome Of Spells</t>
-  </si>
-  <si>
-    <t>A lost tome The Witch was looking for.</t>
-  </si>
-  <si>
-    <t>Clean White Feather</t>
-  </si>
-  <si>
-    <t>A single clean white feather the Dungeon Master is searching for.</t>
-  </si>
-  <si>
-    <t>Ratty Toy Bear</t>
-  </si>
-  <si>
-    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
-  </si>
-  <si>
-    <t>Queens Lost Bracelet</t>
-  </si>
-  <si>
-    <t>The Queen has lost her bracelet here at this weird looking metal wreck. Why it's called a wreck you have no idea. But she lost it here.</t>
-  </si>
-  <si>
-    <t>The Frozen Wreck</t>
-  </si>
-  <si>
-    <t>Wedding Ring</t>
-  </si>
-  <si>
-    <t>A simple diamond wedding ring</t>
-  </si>
-  <si>
-    <t>Christmas Ornament</t>
-  </si>
-  <si>
-    <t>A single shiny silver object that hangs from the tree. What does it symbolize?</t>
-  </si>
-  <si>
-    <t>Abandoned Village</t>
-  </si>
-  <si>
-    <t>Snow balls</t>
-  </si>
-  <si>
-    <t>Round and fluffy, they are fun to throw at people.</t>
-  </si>
-  <si>
-    <t>Coal and Carrot</t>
-  </si>
-  <si>
-    <t>A carrot and two pieces of coal. What are we doing with this?</t>
-  </si>
-  <si>
-    <t>Top Hat and Scarf</t>
-  </si>
-  <si>
-    <t>Who would ware these? They seem so ugly.</t>
-  </si>
-  <si>
-    <t>Ice Skates</t>
-  </si>
-  <si>
-    <t>Should make walking on the ice easier.</t>
-  </si>
-  <si>
-    <t>walk-on-ice</t>
-  </si>
-  <si>
-    <t>Busted Pocket Watch</t>
-  </si>
-  <si>
-    <t>A busted pocket watch stuck on a time from long ago.</t>
-  </si>
-  <si>
-    <t>Queens Coin</t>
-  </si>
-  <si>
-    <t>The a simple coin for the queen - the currency of The Queen</t>
-  </si>
-  <si>
-    <t>Broken Knife</t>
-  </si>
-  <si>
-    <t>A broken knife found in the bank on the ground. What is the story here?</t>
-  </si>
-  <si>
-    <t>Frozen Queens Bank</t>
-  </si>
-  <si>
-    <t>Frozen Cat Toy</t>
-  </si>
-  <si>
-    <t>Mr. Whiskers does love his cat toys.</t>
-  </si>
-  <si>
-    <t>Looting</t>
-  </si>
-  <si>
-    <t>Candy Cane</t>
-  </si>
-  <si>
-    <t>A delicious looking red and white striped cane looking candy treat.</t>
-  </si>
-  <si>
-    <t>Catnip</t>
-  </si>
-  <si>
-    <t>Mr. Whiskers might like this. it's common fact that all cats are drug addicts.</t>
-  </si>
-  <si>
-    <t>Christmas Card</t>
-  </si>
-  <si>
-    <t>A Christmas card that reads: "We are sorry for your loss, but do know that Mr. Whiskers has moved on to a better place. He is beyond the rainbow and is playing and waiting for you to one day, far into the future, when you are old and lived a long and happy life, join him."</t>
-  </si>
-  <si>
-    <t>Gift Wrapped Ashes</t>
-  </si>
-  <si>
-    <t>A gift wrap box of ashes, examining the box it states: Mr. Whiskers - Goose. Why is it gift wrapped? That's so depressing.</t>
-  </si>
-  <si>
-    <t>The Queens Diary</t>
-  </si>
-  <si>
-    <t>The diary of the queen. No matter how hard you try, the book will not open. The back of the book has a name inscribed: The Poet.</t>
-  </si>
-  <si>
-    <t>The Key To Home</t>
-  </si>
-  <si>
-    <t>The key to The Fathers Tomb.</t>
-  </si>
-  <si>
-    <t>Bloody Shirt</t>
-  </si>
-  <si>
-    <t>A basic shirt covered in blood.</t>
-  </si>
-  <si>
-    <t>Broken Forest Road</t>
-  </si>
-  <si>
-    <t>The Child's Journal</t>
-  </si>
-  <si>
-    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
-  </si>
-  <si>
-    <t>The Soldiers Journal</t>
-  </si>
-  <si>
-    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
-  </si>
-  <si>
-    <t>Bloody Snowball</t>
-  </si>
-  <si>
-    <t>Blood stained snowball, a child's broken memory.</t>
-  </si>
-  <si>
-    <t>Pages of the holy book</t>
-  </si>
-  <si>
-    <t>pages that detail the scripture of The Churches holy book</t>
-  </si>
-  <si>
-    <t>Bloody Snowman</t>
-  </si>
-  <si>
-    <t>Box of Memories</t>
-  </si>
-  <si>
-    <t>A child's toy that lights up and shows a story as it spins</t>
-  </si>
-  <si>
-    <t>Child's Drawings</t>
-  </si>
-  <si>
-    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
-  </si>
-  <si>
-    <t>Red Hawks Sword</t>
-  </si>
-  <si>
-    <t>A Red Hawk Sword used in the attack on The Church</t>
-  </si>
-  <si>
-    <t>The Letter</t>
-  </si>
-  <si>
-    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
-  </si>
-  <si>
-    <t>Ice Queens Treaty Scrolls</t>
-  </si>
-  <si>
-    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
-  </si>
-  <si>
-    <t>settle-on-the-ice-plane</t>
-  </si>
-  <si>
-    <t>Ice Shard of Memories</t>
-  </si>
-  <si>
-    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
-  </si>
-  <si>
-    <t>Bottle of Frozen Tears</t>
-  </si>
-  <si>
-    <t>The tears of a child that have been frozen in time.</t>
-  </si>
-  <si>
-    <t>Ice Stave of Hope</t>
-  </si>
-  <si>
-    <t>A stave made of ice that holds the last hope of a grieving mother</t>
-  </si>
-  <si>
-    <t>Wilted Frozen Rose</t>
-  </si>
-  <si>
-    <t>A single rose placed upon the tombstone of a child.</t>
-  </si>
-  <si>
-    <t>The Old Church</t>
-  </si>
-  <si>
-    <t>Love Letter</t>
-  </si>
-  <si>
-    <t>A love letter written by The Child to his then lover.</t>
-  </si>
-  <si>
-    <t>The Poets Walking Stick</t>
-  </si>
-  <si>
-    <t>A simple walking stick used by The Poet</t>
-  </si>
-  <si>
-    <t>Rusted Keys</t>
-  </si>
-  <si>
-    <t>A set of keys that once made the frozen wreck move.</t>
-  </si>
-  <si>
-    <t>Husbands Wallet</t>
-  </si>
-  <si>
-    <t>A wallet covered in blood with a single picture of The Creators father</t>
-  </si>
-  <si>
-    <t>Christmas Tree Light Bulb</t>
-  </si>
-  <si>
-    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
-  </si>
-  <si>
     <t>Childs Faceless Idol</t>
   </si>
   <si>
@@ -1542,30 +1572,6 @@
   </si>
   <si>
     <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Bottle of missery</t>
-  </si>
-  <si>
-    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
-  </si>
-  <si>
-    <t>The princes ring</t>
-  </si>
-  <si>
-    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Ashes of the shade</t>
-  </si>
-  <si>
-    <t>Ashes that the Child of Shade holds on to. Why?</t>
-  </si>
-  <si>
-    <t>Emerald Necklace</t>
-  </si>
-  <si>
-    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1911,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT199"/>
+  <dimension ref="A1:BT200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>938260</v>
+        <v>938225</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2218,10 +2224,64 @@
       <c r="G2" t="s">
         <v>74</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
       <c r="AC2">
         <v>1</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
       <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
         <v>0</v>
       </c>
       <c r="BH2" t="s">
@@ -2245,7 +2305,7 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>938261</v>
+        <v>938226</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2256,10 +2316,64 @@
       <c r="G3" t="s">
         <v>77</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
       <c r="AC3">
         <v>1</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3" t="s">
@@ -2283,7 +2397,7 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>938262</v>
+        <v>938227</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2294,14 +2408,68 @@
       <c r="G4" t="s">
         <v>80</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
       <c r="AC4">
         <v>1</v>
       </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
       <c r="BH4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2321,25 +2489,79 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>938263</v>
+        <v>938228</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
       <c r="BH5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2359,84 +2581,21 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>487</v>
+        <v>938230</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
-      <c r="AG6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH6">
-        <v>0.15</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0.25</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
       <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
         <v>0</v>
       </c>
       <c r="BM6">
@@ -2457,22 +2616,16 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2487,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH7">
         <v>0.15</v>
@@ -2561,16 +2714,22 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2580,13 +2739,16 @@
       </c>
       <c r="Z8">
         <v>0</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>93</v>
       </c>
       <c r="AC8">
         <v>1</v>
       </c>
+      <c r="AG8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8">
+        <v>0.15</v>
+      </c>
       <c r="AI8">
         <v>0</v>
       </c>
@@ -2601,6 +2763,9 @@
       </c>
       <c r="AM8">
         <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0.25</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -2653,16 +2818,16 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2672,16 +2837,13 @@
       </c>
       <c r="Z9">
         <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>94</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AG9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH9">
-        <v>0.15</v>
-      </c>
       <c r="AI9">
         <v>0</v>
       </c>
@@ -2696,9 +2858,6 @@
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0.25</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -2751,22 +2910,16 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2781,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="AG10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH10">
         <v>0.15</v>
@@ -2855,16 +3008,22 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2879,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH11">
         <v>0.15</v>
@@ -2953,16 +3112,16 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2972,13 +3131,16 @@
       </c>
       <c r="Z12">
         <v>0</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>105</v>
       </c>
       <c r="AC12">
         <v>1</v>
       </c>
+      <c r="AG12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH12">
+        <v>0.15</v>
+      </c>
       <c r="AI12">
         <v>0</v>
       </c>
@@ -2993,6 +3155,9 @@
       </c>
       <c r="AM12">
         <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0.25</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3045,22 +3210,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3072,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -3143,16 +3302,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3170,7 +3329,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3238,16 +3400,16 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3265,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3333,16 +3495,16 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -3359,8 +3521,8 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
+      <c r="AA16" t="s">
+        <v>115</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3428,16 +3590,16 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3523,16 +3685,16 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3552,12 +3714,6 @@
       <c r="AC18">
         <v>1</v>
       </c>
-      <c r="AG18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH18">
-        <v>0.5</v>
-      </c>
       <c r="AI18">
         <v>0</v>
       </c>
@@ -3572,9 +3728,6 @@
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0.3</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -3627,16 +3780,16 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3657,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="AG19" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AH19">
         <v>0.5</v>
@@ -3731,16 +3884,16 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3761,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="AG20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH20">
         <v>0.5</v>
@@ -3835,16 +3988,16 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3865,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="AG21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AH21">
         <v>0.5</v>
@@ -3939,16 +4092,16 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3965,8 +4118,11 @@
       <c r="Z22">
         <v>0</v>
       </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
       <c r="AG22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH22">
         <v>0.5</v>
@@ -4040,16 +4196,16 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4066,8 +4222,11 @@
       <c r="Z23">
         <v>0</v>
       </c>
-      <c r="AC23">
-        <v>1</v>
+      <c r="AG23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH23">
+        <v>0.5</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4083,6 +4242,9 @@
       </c>
       <c r="AM23">
         <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0.3</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -4135,16 +4297,16 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4161,8 +4323,8 @@
       <c r="Z24">
         <v>0</v>
       </c>
-      <c r="AA24" t="s">
-        <v>133</v>
+      <c r="AC24">
+        <v>1</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4230,16 +4392,16 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4256,11 +4418,8 @@
       <c r="Z25">
         <v>0</v>
       </c>
-      <c r="AG25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH25">
-        <v>0.45</v>
+      <c r="AA25" t="s">
+        <v>134</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4276,9 +4435,6 @@
       </c>
       <c r="AM25">
         <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0.45</v>
       </c>
       <c r="AS25">
         <v>0</v>
@@ -4331,16 +4487,16 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4358,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AG26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AH26">
         <v>0.45</v>
@@ -4432,16 +4588,16 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -4458,8 +4614,11 @@
       <c r="Z27">
         <v>0</v>
       </c>
-      <c r="AA27" t="s">
-        <v>142</v>
+      <c r="AG27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH27">
+        <v>0.45</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -4475,6 +4634,9 @@
       </c>
       <c r="AM27">
         <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0.45</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -4527,16 +4689,16 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4554,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -4599,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="BF28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG28">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4622,16 +4784,16 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4649,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -4694,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="BF29">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BG29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -4717,16 +4879,16 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4744,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4789,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="BF30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BG30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BM30">
         <v>0</v>
@@ -4812,16 +4974,16 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4838,6 +5000,9 @@
       <c r="Z31">
         <v>0</v>
       </c>
+      <c r="AA31" t="s">
+        <v>143</v>
+      </c>
       <c r="AI31">
         <v>0</v>
       </c>
@@ -4881,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="BF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -4904,16 +5069,16 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4929,9 +5094,6 @@
       </c>
       <c r="Z32">
         <v>0</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>153</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4999,16 +5161,16 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5026,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -5094,16 +5256,16 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5121,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5189,16 +5351,16 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5214,6 +5376,9 @@
       </c>
       <c r="Z35">
         <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>160</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -5281,16 +5446,16 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5373,16 +5538,16 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5465,16 +5630,16 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5490,9 +5655,6 @@
       </c>
       <c r="Z38">
         <v>0</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>168</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -5560,16 +5722,16 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5586,6 +5748,9 @@
       <c r="Z39">
         <v>0</v>
       </c>
+      <c r="AA39" t="s">
+        <v>169</v>
+      </c>
       <c r="AI39">
         <v>0</v>
       </c>
@@ -5633,9 +5798,6 @@
       </c>
       <c r="BG39">
         <v>0</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>84</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5655,82 +5817,82 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="s">
         <v>172</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40">
-        <v>0</v>
-      </c>
-      <c r="BE40">
-        <v>0</v>
-      </c>
-      <c r="BF40">
-        <v>0</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>84</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5750,7 +5912,7 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -5823,6 +5985,9 @@
       </c>
       <c r="BG41">
         <v>0</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>172</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -5842,7 +6007,7 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C42" t="s">
         <v>175</v>
@@ -5915,9 +6080,6 @@
       </c>
       <c r="BG42">
         <v>0</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>81</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -5937,7 +6099,7 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C43" t="s">
         <v>177</v>
@@ -5963,56 +6125,56 @@
       <c r="Z43">
         <v>0</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="s">
         <v>179</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -6032,7 +6194,7 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C44" t="s">
         <v>180</v>
@@ -6058,6 +6220,9 @@
       <c r="Z44">
         <v>0</v>
       </c>
+      <c r="AA44" t="s">
+        <v>182</v>
+      </c>
       <c r="AI44">
         <v>0</v>
       </c>
@@ -6105,9 +6270,6 @@
       </c>
       <c r="BG44">
         <v>0</v>
-      </c>
-      <c r="BH44" t="s">
-        <v>182</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -6127,7 +6289,7 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C45" t="s">
         <v>183</v>
@@ -6153,12 +6315,6 @@
       <c r="Z45">
         <v>0</v>
       </c>
-      <c r="AG45" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH45">
-        <v>0.25</v>
-      </c>
       <c r="AI45">
         <v>0</v>
       </c>
@@ -6174,9 +6330,6 @@
       <c r="AM45">
         <v>0</v>
       </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
       <c r="AS45">
         <v>0</v>
       </c>
@@ -6211,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="BH45" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -6231,16 +6384,16 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6258,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="AG46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AH46">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AI46">
         <v>0</v>
@@ -6315,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="BH46" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6335,16 +6488,16 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6361,6 +6514,12 @@
       <c r="Z47">
         <v>0</v>
       </c>
+      <c r="AG47" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH47">
+        <v>0.75</v>
+      </c>
       <c r="AI47">
         <v>0</v>
       </c>
@@ -6376,6 +6535,9 @@
       <c r="AM47">
         <v>0</v>
       </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
       <c r="AS47">
         <v>0</v>
       </c>
@@ -6408,6 +6570,9 @@
       </c>
       <c r="BG47">
         <v>0</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>191</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -6427,16 +6592,16 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6453,12 +6618,6 @@
       <c r="Z48">
         <v>0</v>
       </c>
-      <c r="AG48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH48">
-        <v>0.75</v>
-      </c>
       <c r="AI48">
         <v>0</v>
       </c>
@@ -6474,9 +6633,6 @@
       <c r="AM48">
         <v>0</v>
       </c>
-      <c r="AN48">
-        <v>2</v>
-      </c>
       <c r="AS48">
         <v>0</v>
       </c>
@@ -6505,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="BF48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG48">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM48">
         <v>0</v>
@@ -6528,16 +6684,16 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6554,8 +6710,11 @@
       <c r="Z49">
         <v>0</v>
       </c>
-      <c r="AA49" t="s">
-        <v>198</v>
+      <c r="AG49" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH49">
+        <v>0.75</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6572,6 +6731,9 @@
       <c r="AM49">
         <v>0</v>
       </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
       <c r="AS49">
         <v>0</v>
       </c>
@@ -6600,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="BG49">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="BM49">
         <v>0</v>
@@ -6623,16 +6785,16 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6650,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -6695,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG50">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6718,16 +6880,16 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6743,6 +6905,9 @@
       </c>
       <c r="Z51">
         <v>0</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>202</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6810,16 +6975,16 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6883,9 +7048,6 @@
       </c>
       <c r="BG52">
         <v>0</v>
-      </c>
-      <c r="BH52" t="s">
-        <v>182</v>
       </c>
       <c r="BM52">
         <v>0</v>
@@ -6905,16 +7067,16 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6978,6 +7140,9 @@
       </c>
       <c r="BG53">
         <v>0</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>75</v>
       </c>
       <c r="BM53">
         <v>0</v>
@@ -6997,16 +7162,16 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7038,9 +7203,21 @@
       <c r="AM54">
         <v>0</v>
       </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
       <c r="AV54">
         <v>0</v>
       </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
       <c r="BB54">
         <v>0</v>
       </c>
@@ -7058,9 +7235,6 @@
       </c>
       <c r="BG54">
         <v>0</v>
-      </c>
-      <c r="BH54" t="s">
-        <v>186</v>
       </c>
       <c r="BM54">
         <v>0</v>
@@ -7080,16 +7254,16 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7121,21 +7295,9 @@
       <c r="AM55">
         <v>0</v>
       </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
       <c r="AV55">
         <v>0</v>
       </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
       <c r="BB55">
         <v>0</v>
       </c>
@@ -7153,6 +7315,9 @@
       </c>
       <c r="BG55">
         <v>0</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>78</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -7172,16 +7337,16 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -7264,16 +7429,16 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7356,16 +7521,16 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7429,9 +7594,6 @@
       </c>
       <c r="BG58">
         <v>0</v>
-      </c>
-      <c r="BH58" t="s">
-        <v>182</v>
       </c>
       <c r="BM58">
         <v>0</v>
@@ -7451,16 +7613,16 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7526,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="BH59" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="BM59">
         <v>0</v>
@@ -7546,16 +7708,16 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7620,8 +7782,8 @@
       <c r="BG60">
         <v>0</v>
       </c>
-      <c r="BI60">
-        <v>0.15</v>
+      <c r="BH60" t="s">
+        <v>172</v>
       </c>
       <c r="BM60">
         <v>0</v>
@@ -7641,16 +7803,16 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7715,8 +7877,8 @@
       <c r="BG61">
         <v>0</v>
       </c>
-      <c r="BH61" t="s">
-        <v>190</v>
+      <c r="BI61">
+        <v>0.15</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -7736,16 +7898,16 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7811,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="BH62" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="BM62">
         <v>0</v>
@@ -7831,16 +7993,16 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -7926,16 +8088,16 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8000,8 +8162,8 @@
       <c r="BG64">
         <v>0</v>
       </c>
-      <c r="BI64">
-        <v>0.3</v>
+      <c r="BH64" t="s">
+        <v>83</v>
       </c>
       <c r="BM64">
         <v>0</v>
@@ -8021,16 +8183,16 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8095,8 +8257,8 @@
       <c r="BG65">
         <v>0</v>
       </c>
-      <c r="BH65" t="s">
-        <v>75</v>
+      <c r="BI65">
+        <v>0.3</v>
       </c>
       <c r="BM65">
         <v>0</v>
@@ -8116,16 +8278,16 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8190,8 +8352,8 @@
       <c r="BG66">
         <v>0</v>
       </c>
-      <c r="BI66">
-        <v>0.5</v>
+      <c r="BH66" t="s">
+        <v>83</v>
       </c>
       <c r="BM66">
         <v>0</v>
@@ -8211,16 +8373,16 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8286,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="BI67">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="BM67">
         <v>0</v>
@@ -8306,16 +8468,16 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8380,11 +8542,8 @@
       <c r="BG68">
         <v>0</v>
       </c>
-      <c r="BH68" t="s">
-        <v>186</v>
-      </c>
       <c r="BI68">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -8404,16 +8563,16 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8430,9 +8589,6 @@
       <c r="Z69">
         <v>0</v>
       </c>
-      <c r="AA69" t="s">
-        <v>240</v>
-      </c>
       <c r="AI69">
         <v>0</v>
       </c>
@@ -8480,6 +8636,12 @@
       </c>
       <c r="BG69">
         <v>0</v>
+      </c>
+      <c r="BH69" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI69">
+        <v>0.8</v>
       </c>
       <c r="BM69">
         <v>0</v>
@@ -8499,16 +8661,16 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8525,6 +8687,9 @@
       <c r="Z70">
         <v>0</v>
       </c>
+      <c r="AA70" t="s">
+        <v>241</v>
+      </c>
       <c r="AI70">
         <v>0</v>
       </c>
@@ -8572,9 +8737,6 @@
       </c>
       <c r="BG70">
         <v>0</v>
-      </c>
-      <c r="BH70" t="s">
-        <v>81</v>
       </c>
       <c r="BM70">
         <v>0</v>
@@ -8594,16 +8756,16 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8669,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="BH71" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="BM71">
         <v>0</v>
@@ -8689,16 +8851,16 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8762,6 +8924,9 @@
       </c>
       <c r="BG72">
         <v>0</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>191</v>
       </c>
       <c r="BM72">
         <v>0</v>
@@ -8781,16 +8946,16 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8806,9 +8971,6 @@
       </c>
       <c r="Z73">
         <v>0</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>249</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -8876,16 +9038,16 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8902,6 +9064,9 @@
       <c r="Z74">
         <v>0</v>
       </c>
+      <c r="AA74" t="s">
+        <v>250</v>
+      </c>
       <c r="AI74">
         <v>0</v>
       </c>
@@ -8949,15 +9114,6 @@
       </c>
       <c r="BG74">
         <v>0</v>
-      </c>
-      <c r="BH74" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI74">
-        <v>0.05</v>
-      </c>
-      <c r="BJ74">
-        <v>1</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -8977,16 +9133,16 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9051,8 +9207,11 @@
       <c r="BG75">
         <v>0</v>
       </c>
+      <c r="BH75" t="s">
+        <v>191</v>
+      </c>
       <c r="BI75">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="BJ75">
         <v>1</v>
@@ -9075,16 +9234,16 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9149,11 +9308,8 @@
       <c r="BG76">
         <v>0</v>
       </c>
-      <c r="BH76" t="s">
-        <v>81</v>
-      </c>
       <c r="BI76">
-        <v>0.15</v>
+        <v>0.95</v>
       </c>
       <c r="BJ76">
         <v>1</v>
@@ -9176,16 +9332,16 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9250,8 +9406,11 @@
       <c r="BG77">
         <v>0</v>
       </c>
+      <c r="BH77" t="s">
+        <v>179</v>
+      </c>
       <c r="BI77">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="BJ77">
         <v>1</v>
@@ -9274,16 +9433,16 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9349,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="BI78">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="BJ78">
         <v>1</v>
@@ -9372,16 +9531,16 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9445,6 +9604,12 @@
       </c>
       <c r="BG79">
         <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>1.6</v>
+      </c>
+      <c r="BJ79">
+        <v>1</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9464,16 +9629,16 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9537,9 +9702,6 @@
       </c>
       <c r="BG80">
         <v>0</v>
-      </c>
-      <c r="BH80" t="s">
-        <v>78</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9559,82 +9721,82 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
+        <v>264</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="s">
         <v>265</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AS81">
-        <v>0</v>
-      </c>
-      <c r="AV81">
-        <v>0</v>
-      </c>
-      <c r="AX81">
-        <v>0</v>
-      </c>
-      <c r="AY81">
-        <v>0</v>
-      </c>
-      <c r="BA81">
-        <v>0</v>
-      </c>
-      <c r="BB81">
-        <v>0</v>
-      </c>
-      <c r="BC81">
-        <v>0</v>
-      </c>
-      <c r="BD81">
-        <v>0</v>
-      </c>
-      <c r="BE81">
-        <v>0</v>
-      </c>
-      <c r="BF81">
-        <v>0</v>
-      </c>
-      <c r="BG81">
-        <v>0</v>
-      </c>
-      <c r="BH81" t="s">
-        <v>186</v>
       </c>
       <c r="BM81">
         <v>0</v>
@@ -9654,7 +9816,7 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C82" t="s">
         <v>266</v>
@@ -9749,7 +9911,7 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C83" t="s">
         <v>268</v>
@@ -9824,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -9844,7 +10006,7 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C84" t="s">
         <v>270</v>
@@ -9918,11 +10080,8 @@
       <c r="BG84">
         <v>0</v>
       </c>
-      <c r="BI84">
-        <v>0.25</v>
-      </c>
-      <c r="BJ84">
-        <v>1</v>
+      <c r="BH84" t="s">
+        <v>172</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -9942,7 +10101,7 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C85" t="s">
         <v>272</v>
@@ -10016,8 +10175,11 @@
       <c r="BG85">
         <v>0</v>
       </c>
-      <c r="BH85" t="s">
-        <v>81</v>
+      <c r="BI85">
+        <v>0.25</v>
+      </c>
+      <c r="BJ85">
+        <v>1</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -10037,7 +10199,7 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C86" t="s">
         <v>274</v>
@@ -10109,13 +10271,10 @@
         <v>0</v>
       </c>
       <c r="BG86">
-        <v>0.35</v>
-      </c>
-      <c r="BI86">
-        <v>1.6</v>
-      </c>
-      <c r="BJ86">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH86" t="s">
+        <v>179</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -10135,7 +10294,7 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
         <v>276</v>
@@ -10207,10 +10366,13 @@
         <v>0</v>
       </c>
       <c r="BG87">
-        <v>0</v>
-      </c>
-      <c r="BH87" t="s">
-        <v>75</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI87">
+        <v>1.6</v>
+      </c>
+      <c r="BJ87">
+        <v>1</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -10230,7 +10392,7 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C88" t="s">
         <v>278</v>
@@ -10256,12 +10418,6 @@
       <c r="Z88">
         <v>0</v>
       </c>
-      <c r="AG88" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH88">
-        <v>0.25</v>
-      </c>
       <c r="AI88">
         <v>0</v>
       </c>
@@ -10277,9 +10433,6 @@
       <c r="AM88">
         <v>0</v>
       </c>
-      <c r="AN88">
-        <v>0.25</v>
-      </c>
       <c r="AS88">
         <v>0</v>
       </c>
@@ -10312,6 +10465,9 @@
       </c>
       <c r="BG88">
         <v>0</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>83</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -10331,7 +10487,7 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C89" t="s">
         <v>280</v>
@@ -10358,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="AG89" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="AH89">
         <v>0.25</v>
@@ -10432,34 +10588,37 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
+        <v>283</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="s">
         <v>284</v>
       </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>185</v>
+      <c r="AH90">
+        <v>0.25</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -10530,7 +10689,7 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C91" t="s">
         <v>285</v>
@@ -10557,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="AG91" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="AI91">
         <v>0</v>
@@ -10628,35 +10787,35 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
+        <v>288</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="s">
         <v>289</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>282</v>
-      </c>
       <c r="AI92">
         <v>0</v>
       </c>
@@ -10673,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS92">
         <v>0</v>
@@ -10726,7 +10885,7 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C93" t="s">
         <v>290</v>
@@ -10753,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="AG93" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AI93">
         <v>0</v>
@@ -10771,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS93">
         <v>0</v>
@@ -10824,7 +10983,7 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C94" t="s">
         <v>292</v>
@@ -10851,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="AG94" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -10869,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="AN94">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS94">
         <v>0</v>
@@ -10922,7 +11081,7 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C95" t="s">
         <v>294</v>
@@ -10949,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="AG95" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="AI95">
         <v>0</v>
@@ -10967,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AN95">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS95">
         <v>0</v>
@@ -11020,7 +11179,7 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C96" t="s">
         <v>296</v>
@@ -11047,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="AG96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AI96">
         <v>0</v>
@@ -11065,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="AN96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS96">
         <v>0</v>
@@ -11118,7 +11277,7 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C97" t="s">
         <v>298</v>
@@ -11145,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="AG97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AI97">
         <v>0</v>
@@ -11163,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS97">
         <v>0</v>
@@ -11216,7 +11375,7 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C98" t="s">
         <v>300</v>
@@ -11243,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="AG98" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AI98">
         <v>0</v>
@@ -11261,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS98">
         <v>0</v>
@@ -11314,7 +11473,7 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C99" t="s">
         <v>302</v>
@@ -11341,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="AG99" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AI99">
         <v>0</v>
@@ -11359,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="AN99">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS99">
         <v>0</v>
@@ -11412,7 +11571,7 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C100" t="s">
         <v>304</v>
@@ -11439,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AG100" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AI100">
         <v>0</v>
@@ -11457,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="AN100">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS100">
         <v>0</v>
@@ -11510,7 +11669,7 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C101" t="s">
         <v>306</v>
@@ -11537,10 +11696,7 @@
         <v>0</v>
       </c>
       <c r="AG101" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH101">
-        <v>0.5</v>
+        <v>187</v>
       </c>
       <c r="AI101">
         <v>0</v>
@@ -11558,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="AN101">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AS101">
         <v>0</v>
@@ -11611,7 +11767,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C102" t="s">
         <v>308</v>
@@ -11638,7 +11794,10 @@
         <v>0</v>
       </c>
       <c r="AG102" t="s">
-        <v>287</v>
+        <v>137</v>
+      </c>
+      <c r="AH102">
+        <v>0.5</v>
       </c>
       <c r="AI102">
         <v>0</v>
@@ -11656,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="AN102">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS102">
         <v>0</v>
@@ -11709,7 +11868,7 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C103" t="s">
         <v>310</v>
@@ -11736,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="AG103" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AI103">
         <v>0</v>
@@ -11754,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS103">
         <v>0</v>
@@ -11807,7 +11966,7 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C104" t="s">
         <v>312</v>
@@ -11834,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AG104" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -11852,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS104">
         <v>0</v>
@@ -11905,7 +12064,7 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C105" t="s">
         <v>314</v>
@@ -11931,6 +12090,9 @@
       <c r="Z105">
         <v>0</v>
       </c>
+      <c r="AG105" t="s">
+        <v>289</v>
+      </c>
       <c r="AI105">
         <v>0</v>
       </c>
@@ -11946,6 +12108,9 @@
       <c r="AM105">
         <v>0</v>
       </c>
+      <c r="AN105">
+        <v>1.25</v>
+      </c>
       <c r="AS105">
         <v>0</v>
       </c>
@@ -11978,9 +12143,6 @@
       </c>
       <c r="BG105">
         <v>0</v>
-      </c>
-      <c r="BI105">
-        <v>0.05</v>
       </c>
       <c r="BM105">
         <v>0</v>
@@ -12000,7 +12162,7 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C106" t="s">
         <v>316</v>
@@ -12026,9 +12188,6 @@
       <c r="Z106">
         <v>0</v>
       </c>
-      <c r="AA106" t="s">
-        <v>318</v>
-      </c>
       <c r="AI106">
         <v>0</v>
       </c>
@@ -12076,6 +12235,9 @@
       </c>
       <c r="BG106">
         <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0.05</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -12095,32 +12257,35 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="G107" t="s">
+        <v>319</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="s">
         <v>320</v>
       </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
       <c r="AI107">
         <v>0</v>
       </c>
@@ -12168,12 +12333,6 @@
       </c>
       <c r="BG107">
         <v>0</v>
-      </c>
-      <c r="BI107">
-        <v>1.25</v>
-      </c>
-      <c r="BJ107">
-        <v>1</v>
       </c>
       <c r="BM107">
         <v>0</v>
@@ -12193,7 +12352,7 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C108" t="s">
         <v>321</v>
@@ -12219,9 +12378,6 @@
       <c r="Z108">
         <v>0</v>
       </c>
-      <c r="AA108" t="s">
-        <v>249</v>
-      </c>
       <c r="AI108">
         <v>0</v>
       </c>
@@ -12269,6 +12425,12 @@
       </c>
       <c r="BG108">
         <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>1.25</v>
+      </c>
+      <c r="BJ108">
+        <v>1</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -12288,7 +12450,7 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C109" t="s">
         <v>323</v>
@@ -12314,8 +12476,8 @@
       <c r="Z109">
         <v>0</v>
       </c>
-      <c r="AG109" t="s">
-        <v>185</v>
+      <c r="AA109" t="s">
+        <v>250</v>
       </c>
       <c r="AI109">
         <v>0</v>
@@ -12331,9 +12493,6 @@
       </c>
       <c r="AM109">
         <v>0</v>
-      </c>
-      <c r="AN109">
-        <v>0.5</v>
       </c>
       <c r="AS109">
         <v>0</v>
@@ -12386,7 +12545,7 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C110" t="s">
         <v>325</v>
@@ -12413,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AG110" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="AI110">
         <v>0</v>
@@ -12431,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS110">
         <v>0</v>
@@ -12484,7 +12643,7 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C111" t="s">
         <v>327</v>
@@ -12510,6 +12669,9 @@
       <c r="Z111">
         <v>0</v>
       </c>
+      <c r="AG111" t="s">
+        <v>284</v>
+      </c>
       <c r="AI111">
         <v>0</v>
       </c>
@@ -12525,6 +12687,9 @@
       <c r="AM111">
         <v>0</v>
       </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
       <c r="AS111">
         <v>0</v>
       </c>
@@ -12557,12 +12722,6 @@
       </c>
       <c r="BG111">
         <v>0</v>
-      </c>
-      <c r="BI111">
-        <v>0.25</v>
-      </c>
-      <c r="BJ111">
-        <v>1</v>
       </c>
       <c r="BM111">
         <v>0</v>
@@ -12582,7 +12741,7 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C112" t="s">
         <v>329</v>
@@ -12655,6 +12814,12 @@
       </c>
       <c r="BG112">
         <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0.25</v>
+      </c>
+      <c r="BJ112">
+        <v>1</v>
       </c>
       <c r="BM112">
         <v>0</v>
@@ -12674,7 +12839,7 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C113" t="s">
         <v>331</v>
@@ -12700,15 +12865,6 @@
       <c r="Z113">
         <v>0</v>
       </c>
-      <c r="AC113">
-        <v>1</v>
-      </c>
-      <c r="AG113" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH113">
-        <v>0.5</v>
-      </c>
       <c r="AI113">
         <v>0</v>
       </c>
@@ -12723,9 +12879,6 @@
       </c>
       <c r="AM113">
         <v>0</v>
-      </c>
-      <c r="AN113">
-        <v>0.3</v>
       </c>
       <c r="AS113">
         <v>0</v>
@@ -12778,7 +12931,7 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C114" t="s">
         <v>333</v>
@@ -12789,6 +12942,12 @@
       <c r="G114" t="s">
         <v>334</v>
       </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
       <c r="O114">
         <v>0</v>
       </c>
@@ -12801,6 +12960,12 @@
       <c r="AC114">
         <v>1</v>
       </c>
+      <c r="AG114" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH114">
+        <v>0.5</v>
+      </c>
       <c r="AI114">
         <v>0</v>
       </c>
@@ -12816,6 +12981,9 @@
       <c r="AM114">
         <v>0</v>
       </c>
+      <c r="AN114">
+        <v>0.3</v>
+      </c>
       <c r="AS114">
         <v>0</v>
       </c>
@@ -12848,9 +13016,6 @@
       </c>
       <c r="BG114">
         <v>0</v>
-      </c>
-      <c r="BH114" t="s">
-        <v>78</v>
       </c>
       <c r="BM114">
         <v>0</v>
@@ -12870,7 +13035,7 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C115" t="s">
         <v>335</v>
@@ -12942,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="BH115" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -12962,7 +13127,7 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C116" t="s">
         <v>337</v>
@@ -12985,12 +13150,6 @@
       <c r="AC116">
         <v>1</v>
       </c>
-      <c r="AG116" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH116">
-        <v>0.1</v>
-      </c>
       <c r="AI116">
         <v>0</v>
       </c>
@@ -13006,9 +13165,6 @@
       <c r="AM116">
         <v>0</v>
       </c>
-      <c r="AN116">
-        <v>0.15</v>
-      </c>
       <c r="AS116">
         <v>0</v>
       </c>
@@ -13041,6 +13197,9 @@
       </c>
       <c r="BG116">
         <v>0</v>
+      </c>
+      <c r="BH116" t="s">
+        <v>172</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -13060,16 +13219,16 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -13083,6 +13242,12 @@
       <c r="AC117">
         <v>1</v>
       </c>
+      <c r="AG117" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH117">
+        <v>0.1</v>
+      </c>
       <c r="AI117">
         <v>0</v>
       </c>
@@ -13098,6 +13263,9 @@
       <c r="AM117">
         <v>0</v>
       </c>
+      <c r="AN117">
+        <v>0.15</v>
+      </c>
       <c r="AS117">
         <v>0</v>
       </c>
@@ -13130,9 +13298,6 @@
       </c>
       <c r="BG117">
         <v>0</v>
-      </c>
-      <c r="BH117" t="s">
-        <v>75</v>
       </c>
       <c r="BM117">
         <v>0</v>
@@ -13152,7 +13317,7 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C118" t="s">
         <v>342</v>
@@ -13175,12 +13340,6 @@
       <c r="AC118">
         <v>1</v>
       </c>
-      <c r="AG118" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH118">
-        <v>0.25</v>
-      </c>
       <c r="AI118">
         <v>0</v>
       </c>
@@ -13196,9 +13355,6 @@
       <c r="AM118">
         <v>0</v>
       </c>
-      <c r="AN118">
-        <v>0.3</v>
-      </c>
       <c r="AS118">
         <v>0</v>
       </c>
@@ -13231,6 +13387,9 @@
       </c>
       <c r="BG118">
         <v>0</v>
+      </c>
+      <c r="BH118" t="s">
+        <v>83</v>
       </c>
       <c r="BM118">
         <v>0</v>
@@ -13250,7 +13409,7 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C119" t="s">
         <v>344</v>
@@ -13273,6 +13432,12 @@
       <c r="AC119">
         <v>1</v>
       </c>
+      <c r="AG119" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH119">
+        <v>0.25</v>
+      </c>
       <c r="AI119">
         <v>0</v>
       </c>
@@ -13288,6 +13453,9 @@
       <c r="AM119">
         <v>0</v>
       </c>
+      <c r="AN119">
+        <v>0.3</v>
+      </c>
       <c r="AS119">
         <v>0</v>
       </c>
@@ -13320,9 +13488,6 @@
       </c>
       <c r="BG119">
         <v>0</v>
-      </c>
-      <c r="BH119" t="s">
-        <v>186</v>
       </c>
       <c r="BM119">
         <v>0</v>
@@ -13342,7 +13507,7 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C120" t="s">
         <v>346</v>
@@ -13365,12 +13530,6 @@
       <c r="AC120">
         <v>1</v>
       </c>
-      <c r="AG120" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH120">
-        <v>0.35</v>
-      </c>
       <c r="AI120">
         <v>0</v>
       </c>
@@ -13386,9 +13545,6 @@
       <c r="AM120">
         <v>0</v>
       </c>
-      <c r="AN120">
-        <v>0.45</v>
-      </c>
       <c r="AS120">
         <v>0</v>
       </c>
@@ -13421,6 +13577,9 @@
       </c>
       <c r="BG120">
         <v>0</v>
+      </c>
+      <c r="BH120" t="s">
+        <v>78</v>
       </c>
       <c r="BM120">
         <v>0</v>
@@ -13440,7 +13599,7 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C121" t="s">
         <v>348</v>
@@ -13463,6 +13622,12 @@
       <c r="AC121">
         <v>1</v>
       </c>
+      <c r="AG121" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH121">
+        <v>0.35</v>
+      </c>
       <c r="AI121">
         <v>0</v>
       </c>
@@ -13478,6 +13643,9 @@
       <c r="AM121">
         <v>0</v>
       </c>
+      <c r="AN121">
+        <v>0.45</v>
+      </c>
       <c r="AS121">
         <v>0</v>
       </c>
@@ -13510,9 +13678,6 @@
       </c>
       <c r="BG121">
         <v>0</v>
-      </c>
-      <c r="BH121" t="s">
-        <v>182</v>
       </c>
       <c r="BM121">
         <v>0</v>
@@ -13532,7 +13697,7 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C122" t="s">
         <v>350</v>
@@ -13555,12 +13720,6 @@
       <c r="AC122">
         <v>1</v>
       </c>
-      <c r="AG122" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH122">
-        <v>0.5</v>
-      </c>
       <c r="AI122">
         <v>0</v>
       </c>
@@ -13576,9 +13735,6 @@
       <c r="AM122">
         <v>0</v>
       </c>
-      <c r="AN122">
-        <v>0.55</v>
-      </c>
       <c r="AS122">
         <v>0</v>
       </c>
@@ -13611,6 +13767,9 @@
       </c>
       <c r="BG122">
         <v>0</v>
+      </c>
+      <c r="BH122" t="s">
+        <v>75</v>
       </c>
       <c r="BM122">
         <v>0</v>
@@ -13630,7 +13789,7 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C123" t="s">
         <v>352</v>
@@ -13653,6 +13812,12 @@
       <c r="AC123">
         <v>1</v>
       </c>
+      <c r="AG123" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH123">
+        <v>0.5</v>
+      </c>
       <c r="AI123">
         <v>0</v>
       </c>
@@ -13668,6 +13833,9 @@
       <c r="AM123">
         <v>0</v>
       </c>
+      <c r="AN123">
+        <v>0.55</v>
+      </c>
       <c r="AS123">
         <v>0</v>
       </c>
@@ -13700,9 +13868,6 @@
       </c>
       <c r="BG123">
         <v>0</v>
-      </c>
-      <c r="BH123" t="s">
-        <v>75</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13722,7 +13887,7 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C124" t="s">
         <v>354</v>
@@ -13792,6 +13957,9 @@
       </c>
       <c r="BG124">
         <v>0</v>
+      </c>
+      <c r="BH124" t="s">
+        <v>83</v>
       </c>
       <c r="BM124">
         <v>0</v>
@@ -13811,7 +13979,7 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C125" t="s">
         <v>356</v>
@@ -13900,7 +14068,7 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C126" t="s">
         <v>358</v>
@@ -13919,9 +14087,6 @@
       </c>
       <c r="Z126">
         <v>0</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>360</v>
       </c>
       <c r="AC126">
         <v>1</v>
@@ -13992,25 +14157,28 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C127" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
+        <v>361</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="s">
         <v>362</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="Y127">
-        <v>0</v>
-      </c>
-      <c r="Z127">
-        <v>0</v>
       </c>
       <c r="AC127">
         <v>1</v>
@@ -14081,7 +14249,7 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C128" t="s">
         <v>363</v>
@@ -14170,7 +14338,7 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C129" t="s">
         <v>365</v>
@@ -14259,7 +14427,7 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C130" t="s">
         <v>367</v>
@@ -14348,7 +14516,7 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C131" t="s">
         <v>369</v>
@@ -14437,7 +14605,7 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C132" t="s">
         <v>371</v>
@@ -14507,9 +14675,6 @@
       </c>
       <c r="BG132">
         <v>0</v>
-      </c>
-      <c r="BH132" t="s">
-        <v>81</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -14529,7 +14694,7 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C133" t="s">
         <v>373</v>
@@ -14601,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="BH133" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="BM133">
         <v>0</v>
@@ -14621,7 +14786,7 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C134" t="s">
         <v>375</v>
@@ -14691,6 +14856,9 @@
       </c>
       <c r="BG134">
         <v>0</v>
+      </c>
+      <c r="BH134" t="s">
+        <v>78</v>
       </c>
       <c r="BM134">
         <v>0</v>
@@ -14710,7 +14878,7 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C135" t="s">
         <v>377</v>
@@ -14780,9 +14948,6 @@
       </c>
       <c r="BG135">
         <v>0</v>
-      </c>
-      <c r="BH135" t="s">
-        <v>84</v>
       </c>
       <c r="BM135">
         <v>0</v>
@@ -14802,7 +14967,7 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C136" t="s">
         <v>379</v>
@@ -14872,6 +15037,9 @@
       </c>
       <c r="BG136">
         <v>0</v>
+      </c>
+      <c r="BH136" t="s">
+        <v>172</v>
       </c>
       <c r="BM136">
         <v>0</v>
@@ -14891,7 +15059,7 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C137" t="s">
         <v>381</v>
@@ -14961,9 +15129,6 @@
       </c>
       <c r="BG137">
         <v>0</v>
-      </c>
-      <c r="BH137" t="s">
-        <v>182</v>
       </c>
       <c r="BM137">
         <v>0</v>
@@ -14983,7 +15148,7 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C138" t="s">
         <v>383</v>
@@ -15055,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="BH138" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="BM138">
         <v>0</v>
@@ -15075,7 +15240,7 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C139" t="s">
         <v>385</v>
@@ -15145,6 +15310,9 @@
       </c>
       <c r="BG139">
         <v>0</v>
+      </c>
+      <c r="BH139" t="s">
+        <v>191</v>
       </c>
       <c r="BM139">
         <v>0</v>
@@ -15164,7 +15332,7 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C140" t="s">
         <v>387</v>
@@ -15234,9 +15402,6 @@
       </c>
       <c r="BG140">
         <v>0</v>
-      </c>
-      <c r="BH140" t="s">
-        <v>75</v>
       </c>
       <c r="BM140">
         <v>0</v>
@@ -15256,7 +15421,7 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C141" t="s">
         <v>389</v>
@@ -15326,6 +15491,9 @@
       </c>
       <c r="BG141">
         <v>0</v>
+      </c>
+      <c r="BH141" t="s">
+        <v>83</v>
       </c>
       <c r="BM141">
         <v>0</v>
@@ -15345,7 +15513,7 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C142" t="s">
         <v>391</v>
@@ -15434,7 +15602,7 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C143" t="s">
         <v>393</v>
@@ -15523,7 +15691,7 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C144" t="s">
         <v>395</v>
@@ -15612,7 +15780,7 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C145" t="s">
         <v>397</v>
@@ -15701,7 +15869,7 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C146" t="s">
         <v>399</v>
@@ -15790,7 +15958,7 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C147" t="s">
         <v>401</v>
@@ -15879,7 +16047,7 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C148" t="s">
         <v>403</v>
@@ -15968,7 +16136,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C149" t="s">
         <v>405</v>
@@ -16057,7 +16225,7 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C150" t="s">
         <v>407</v>
@@ -16146,7 +16314,7 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C151" t="s">
         <v>409</v>
@@ -16235,7 +16403,7 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C152" t="s">
         <v>411</v>
@@ -16324,7 +16492,7 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>210180</v>
+        <v>633</v>
       </c>
       <c r="C153" t="s">
         <v>413</v>
@@ -16394,9 +16562,6 @@
       </c>
       <c r="BG153">
         <v>0</v>
-      </c>
-      <c r="BH153" t="s">
-        <v>415</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16416,16 +16581,16 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>210181</v>
+        <v>210180</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -16488,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="BH154" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16508,7 +16673,7 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>210182</v>
+        <v>210181</v>
       </c>
       <c r="C155" t="s">
         <v>418</v>
@@ -16580,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="BH155" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="BM155">
         <v>0</v>
@@ -16600,16 +16765,16 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>210183</v>
+        <v>210182</v>
       </c>
       <c r="C156" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -16623,12 +16788,6 @@
       <c r="AC156">
         <v>1</v>
       </c>
-      <c r="AG156" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH156">
-        <v>0.35</v>
-      </c>
       <c r="AI156">
         <v>0</v>
       </c>
@@ -16644,9 +16803,6 @@
       <c r="AM156">
         <v>0</v>
       </c>
-      <c r="AN156">
-        <v>0.35</v>
-      </c>
       <c r="AS156">
         <v>0</v>
       </c>
@@ -16681,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="BH156" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -16701,7 +16857,7 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>210184</v>
+        <v>210183</v>
       </c>
       <c r="C157" t="s">
         <v>423</v>
@@ -16724,6 +16880,12 @@
       <c r="AC157">
         <v>1</v>
       </c>
+      <c r="AG157" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH157">
+        <v>0.35</v>
+      </c>
       <c r="AI157">
         <v>0</v>
       </c>
@@ -16739,6 +16901,9 @@
       <c r="AM157">
         <v>0</v>
       </c>
+      <c r="AN157">
+        <v>0.35</v>
+      </c>
       <c r="AS157">
         <v>0</v>
       </c>
@@ -16773,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="BH157" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="BM157">
         <v>0</v>
@@ -16793,7 +16958,7 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>210185</v>
+        <v>210184</v>
       </c>
       <c r="C158" t="s">
         <v>425</v>
@@ -16865,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="BH158" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -16885,7 +17050,7 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>210186</v>
+        <v>210185</v>
       </c>
       <c r="C159" t="s">
         <v>427</v>
@@ -16905,9 +17070,6 @@
       <c r="Z159">
         <v>0</v>
       </c>
-      <c r="AA159" t="s">
-        <v>429</v>
-      </c>
       <c r="AC159">
         <v>1</v>
       </c>
@@ -16958,6 +17120,9 @@
       </c>
       <c r="BG159">
         <v>0</v>
+      </c>
+      <c r="BH159" t="s">
+        <v>422</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -16977,25 +17142,28 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>210187</v>
+        <v>210186</v>
       </c>
       <c r="C160" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
+        <v>430</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160" t="s">
         <v>431</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-      <c r="Z160">
-        <v>0</v>
       </c>
       <c r="AC160">
         <v>1</v>
@@ -17047,9 +17215,6 @@
       </c>
       <c r="BG160">
         <v>0</v>
-      </c>
-      <c r="BH160" t="s">
-        <v>415</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -17069,7 +17234,7 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>210188</v>
+        <v>210187</v>
       </c>
       <c r="C161" t="s">
         <v>432</v>
@@ -17139,6 +17304,9 @@
       </c>
       <c r="BG161">
         <v>0</v>
+      </c>
+      <c r="BH161" t="s">
+        <v>417</v>
       </c>
       <c r="BM161">
         <v>0</v>
@@ -17158,7 +17326,7 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>210189</v>
+        <v>210188</v>
       </c>
       <c r="C162" t="s">
         <v>434</v>
@@ -17181,12 +17349,6 @@
       <c r="AC162">
         <v>1</v>
       </c>
-      <c r="AG162" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH162">
-        <v>0.6</v>
-      </c>
       <c r="AI162">
         <v>0</v>
       </c>
@@ -17202,9 +17364,6 @@
       <c r="AM162">
         <v>0</v>
       </c>
-      <c r="AN162">
-        <v>0.6</v>
-      </c>
       <c r="AS162">
         <v>0</v>
       </c>
@@ -17237,9 +17396,6 @@
       </c>
       <c r="BG162">
         <v>0</v>
-      </c>
-      <c r="BH162" t="s">
-        <v>436</v>
       </c>
       <c r="BM162">
         <v>0</v>
@@ -17259,16 +17415,16 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>210190</v>
+        <v>210189</v>
       </c>
       <c r="C163" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17283,10 +17439,10 @@
         <v>1</v>
       </c>
       <c r="AG163" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
       <c r="AH163">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AI163">
         <v>0</v>
@@ -17304,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AS163">
         <v>0</v>
@@ -17340,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="BH163" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="BM163">
         <v>0</v>
@@ -17360,16 +17516,16 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>210191</v>
+        <v>210190</v>
       </c>
       <c r="C164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17383,6 +17539,12 @@
       <c r="AC164">
         <v>1</v>
       </c>
+      <c r="AG164" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH164">
+        <v>1</v>
+      </c>
       <c r="AI164">
         <v>0</v>
       </c>
@@ -17398,6 +17560,9 @@
       <c r="AM164">
         <v>0</v>
       </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
       <c r="AS164">
         <v>0</v>
       </c>
@@ -17432,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="BH164" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="BM164">
         <v>0</v>
@@ -17452,7 +17617,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>210192</v>
+        <v>210191</v>
       </c>
       <c r="C165" t="s">
         <v>442</v>
@@ -17475,12 +17640,6 @@
       <c r="AC165">
         <v>1</v>
       </c>
-      <c r="AG165" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH165">
-        <v>0.3</v>
-      </c>
       <c r="AI165">
         <v>0</v>
       </c>
@@ -17496,9 +17655,6 @@
       <c r="AM165">
         <v>0</v>
       </c>
-      <c r="AN165">
-        <v>0.3</v>
-      </c>
       <c r="AS165">
         <v>0</v>
       </c>
@@ -17533,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="BH165" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="BM165">
         <v>0</v>
@@ -17553,7 +17709,7 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>210193</v>
+        <v>210192</v>
       </c>
       <c r="C166" t="s">
         <v>444</v>
@@ -17576,6 +17732,12 @@
       <c r="AC166">
         <v>1</v>
       </c>
+      <c r="AG166" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH166">
+        <v>0.3</v>
+      </c>
       <c r="AI166">
         <v>0</v>
       </c>
@@ -17591,6 +17753,9 @@
       <c r="AM166">
         <v>0</v>
       </c>
+      <c r="AN166">
+        <v>0.3</v>
+      </c>
       <c r="AS166">
         <v>0</v>
       </c>
@@ -17625,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="BH166" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -17645,7 +17810,7 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>210194</v>
+        <v>210193</v>
       </c>
       <c r="C167" t="s">
         <v>446</v>
@@ -17717,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="BH167" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="BM167">
         <v>0</v>
@@ -17737,7 +17902,7 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>210195</v>
+        <v>210194</v>
       </c>
       <c r="C168" t="s">
         <v>448</v>
@@ -17807,6 +17972,9 @@
       </c>
       <c r="BG168">
         <v>0</v>
+      </c>
+      <c r="BH168" t="s">
+        <v>438</v>
       </c>
       <c r="BM168">
         <v>0</v>
@@ -17826,7 +17994,7 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>210196</v>
+        <v>210195</v>
       </c>
       <c r="C169" t="s">
         <v>450</v>
@@ -17915,7 +18083,7 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>210197</v>
+        <v>210196</v>
       </c>
       <c r="C170" t="s">
         <v>452</v>
@@ -17985,9 +18153,6 @@
       </c>
       <c r="BG170">
         <v>0</v>
-      </c>
-      <c r="BH170" t="s">
-        <v>454</v>
       </c>
       <c r="BM170">
         <v>0</v>
@@ -18007,16 +18172,16 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>210198</v>
+        <v>210197</v>
       </c>
       <c r="C171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -18079,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="BH171" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="BM171">
         <v>0</v>
@@ -18099,7 +18264,7 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>210199</v>
+        <v>210198</v>
       </c>
       <c r="C172" t="s">
         <v>457</v>
@@ -18171,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="BH172" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="BM172">
         <v>0</v>
@@ -18191,7 +18356,7 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>210200</v>
+        <v>210199</v>
       </c>
       <c r="C173" t="s">
         <v>459</v>
@@ -18261,6 +18426,9 @@
       </c>
       <c r="BG173">
         <v>0</v>
+      </c>
+      <c r="BH173" t="s">
+        <v>456</v>
       </c>
       <c r="BM173">
         <v>0</v>
@@ -18280,7 +18448,7 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>210201</v>
+        <v>210200</v>
       </c>
       <c r="C174" t="s">
         <v>461</v>
@@ -18350,9 +18518,6 @@
       </c>
       <c r="BG174">
         <v>0</v>
-      </c>
-      <c r="BH174" t="s">
-        <v>463</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18372,16 +18537,16 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>210202</v>
+        <v>210201</v>
       </c>
       <c r="C175" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18395,12 +18560,6 @@
       <c r="AC175">
         <v>1</v>
       </c>
-      <c r="AG175" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH175">
-        <v>0.75</v>
-      </c>
       <c r="AI175">
         <v>0</v>
       </c>
@@ -18416,9 +18575,6 @@
       <c r="AM175">
         <v>0</v>
       </c>
-      <c r="AN175">
-        <v>1.25</v>
-      </c>
       <c r="AS175">
         <v>0</v>
       </c>
@@ -18453,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="BH175" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BM175">
         <v>0</v>
@@ -18473,7 +18629,7 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>210203</v>
+        <v>210202</v>
       </c>
       <c r="C176" t="s">
         <v>466</v>
@@ -18497,10 +18653,10 @@
         <v>1</v>
       </c>
       <c r="AG176" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="AH176">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI176">
         <v>0</v>
@@ -18554,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="BH176" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18574,7 +18730,7 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>210204</v>
+        <v>210203</v>
       </c>
       <c r="C177" t="s">
         <v>468</v>
@@ -18597,6 +18753,12 @@
       <c r="AC177">
         <v>1</v>
       </c>
+      <c r="AG177" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH177">
+        <v>1</v>
+      </c>
       <c r="AI177">
         <v>0</v>
       </c>
@@ -18612,6 +18774,9 @@
       <c r="AM177">
         <v>0</v>
       </c>
+      <c r="AN177">
+        <v>1.25</v>
+      </c>
       <c r="AS177">
         <v>0</v>
       </c>
@@ -18646,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18666,7 +18831,7 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>210205</v>
+        <v>210204</v>
       </c>
       <c r="C178" t="s">
         <v>470</v>
@@ -18736,6 +18901,9 @@
       </c>
       <c r="BG178">
         <v>0</v>
+      </c>
+      <c r="BH178" t="s">
+        <v>465</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -18755,7 +18923,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>210206</v>
+        <v>210205</v>
       </c>
       <c r="C179" t="s">
         <v>472</v>
@@ -18774,9 +18942,6 @@
       </c>
       <c r="Z179">
         <v>0</v>
-      </c>
-      <c r="AA179" t="s">
-        <v>474</v>
       </c>
       <c r="AC179">
         <v>1</v>
@@ -18847,35 +19012,32 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>210207</v>
+        <v>210206</v>
       </c>
       <c r="C180" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
+        <v>475</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="s">
         <v>476</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="Y180">
-        <v>0</v>
-      </c>
-      <c r="Z180">
-        <v>0</v>
       </c>
       <c r="AC180">
         <v>1</v>
       </c>
-      <c r="AG180" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH180">
-        <v>1</v>
-      </c>
       <c r="AI180">
         <v>0</v>
       </c>
@@ -18891,9 +19053,6 @@
       <c r="AM180">
         <v>0</v>
       </c>
-      <c r="AN180">
-        <v>1.2</v>
-      </c>
       <c r="AS180">
         <v>0</v>
       </c>
@@ -18926,9 +19085,6 @@
       </c>
       <c r="BG180">
         <v>0</v>
-      </c>
-      <c r="BH180" t="s">
-        <v>415</v>
       </c>
       <c r="BM180">
         <v>0</v>
@@ -18948,7 +19104,7 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>210208</v>
+        <v>210207</v>
       </c>
       <c r="C181" t="s">
         <v>477</v>
@@ -18971,6 +19127,12 @@
       <c r="AC181">
         <v>1</v>
       </c>
+      <c r="AG181" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH181">
+        <v>1</v>
+      </c>
       <c r="AI181">
         <v>0</v>
       </c>
@@ -18986,6 +19148,9 @@
       <c r="AM181">
         <v>0</v>
       </c>
+      <c r="AN181">
+        <v>1.2</v>
+      </c>
       <c r="AS181">
         <v>0</v>
       </c>
@@ -19018,6 +19183,9 @@
       </c>
       <c r="BG181">
         <v>0</v>
+      </c>
+      <c r="BH181" t="s">
+        <v>417</v>
       </c>
       <c r="BM181">
         <v>0</v>
@@ -19037,7 +19205,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>210209</v>
+        <v>210208</v>
       </c>
       <c r="C182" t="s">
         <v>479</v>
@@ -19126,7 +19294,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>210210</v>
+        <v>210209</v>
       </c>
       <c r="C183" t="s">
         <v>481</v>
@@ -19196,9 +19364,6 @@
       </c>
       <c r="BG183">
         <v>0</v>
-      </c>
-      <c r="BH183" t="s">
-        <v>483</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -19218,16 +19383,16 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>210211</v>
+        <v>210210</v>
       </c>
       <c r="C184" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D184" t="s">
         <v>73</v>
       </c>
       <c r="G184" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -19290,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="BH184" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19310,7 +19475,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>210212</v>
+        <v>210211</v>
       </c>
       <c r="C185" t="s">
         <v>486</v>
@@ -19380,6 +19545,9 @@
       </c>
       <c r="BG185">
         <v>0</v>
+      </c>
+      <c r="BH185" t="s">
+        <v>485</v>
       </c>
       <c r="BM185">
         <v>0</v>
@@ -19399,7 +19567,7 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>210213</v>
+        <v>210212</v>
       </c>
       <c r="C186" t="s">
         <v>488</v>
@@ -19469,9 +19637,6 @@
       </c>
       <c r="BG186">
         <v>0</v>
-      </c>
-      <c r="BH186" t="s">
-        <v>415</v>
       </c>
       <c r="BM186">
         <v>0</v>
@@ -19491,7 +19656,7 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>210214</v>
+        <v>210213</v>
       </c>
       <c r="C187" t="s">
         <v>490</v>
@@ -19561,6 +19726,9 @@
       </c>
       <c r="BG187">
         <v>0</v>
+      </c>
+      <c r="BH187" t="s">
+        <v>417</v>
       </c>
       <c r="BM187">
         <v>0</v>
@@ -19580,7 +19748,7 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>410519</v>
+        <v>210214</v>
       </c>
       <c r="C188" t="s">
         <v>492</v>
@@ -19669,7 +19837,7 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>938213</v>
+        <v>410519</v>
       </c>
       <c r="C189" t="s">
         <v>494</v>
@@ -19688,9 +19856,6 @@
       </c>
       <c r="Z189">
         <v>0</v>
-      </c>
-      <c r="AA189" t="s">
-        <v>496</v>
       </c>
       <c r="AC189">
         <v>1</v>
@@ -19764,19 +19929,76 @@
         <v>938214</v>
       </c>
       <c r="C190" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="G190" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
       </c>
       <c r="AC190">
         <v>1</v>
       </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>0</v>
+      </c>
+      <c r="AK190">
+        <v>0</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AS190">
+        <v>0</v>
+      </c>
       <c r="AV190">
         <v>0</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>0</v>
+      </c>
+      <c r="BG190">
+        <v>0</v>
+      </c>
+      <c r="BH190" t="s">
+        <v>83</v>
       </c>
       <c r="BM190">
         <v>0</v>
@@ -19799,22 +20021,76 @@
         <v>938215</v>
       </c>
       <c r="C191" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="G191" t="s">
-        <v>500</v>
+        <v>499</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
       </c>
       <c r="AC191">
         <v>1</v>
       </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>0</v>
+      </c>
+      <c r="AK191">
+        <v>0</v>
+      </c>
+      <c r="AL191">
+        <v>0</v>
+      </c>
+      <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AS191">
+        <v>0</v>
+      </c>
       <c r="AV191">
         <v>0</v>
       </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>0</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>0</v>
+      </c>
+      <c r="BG191">
+        <v>0</v>
+      </c>
       <c r="BH191" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -19837,22 +20113,76 @@
         <v>938216</v>
       </c>
       <c r="C192" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="G192" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
       </c>
       <c r="AC192">
         <v>1</v>
       </c>
+      <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>0</v>
+      </c>
+      <c r="AL192">
+        <v>0</v>
+      </c>
+      <c r="AM192">
+        <v>0</v>
+      </c>
+      <c r="AS192">
+        <v>0</v>
+      </c>
       <c r="AV192">
         <v>0</v>
       </c>
+      <c r="AX192">
+        <v>0</v>
+      </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>0</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>0</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
       <c r="BH192" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -19875,22 +20205,76 @@
         <v>938217</v>
       </c>
       <c r="C193" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
       </c>
       <c r="AC193">
         <v>1</v>
       </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>0</v>
+      </c>
+      <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AS193">
+        <v>0</v>
+      </c>
       <c r="AV193">
         <v>0</v>
       </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>0</v>
+      </c>
+      <c r="BG193">
+        <v>0</v>
+      </c>
       <c r="BH193" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -19913,22 +20297,76 @@
         <v>938218</v>
       </c>
       <c r="C194" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
+        <v>505</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="s">
         <v>506</v>
       </c>
       <c r="AC194">
         <v>1</v>
       </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>0</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AS194">
+        <v>0</v>
+      </c>
       <c r="AV194">
         <v>0</v>
       </c>
-      <c r="BH194" t="s">
-        <v>182</v>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>0</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
       </c>
       <c r="BM194">
         <v>0</v>
@@ -19959,14 +20397,65 @@
       <c r="G195" t="s">
         <v>508</v>
       </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
       <c r="AC195">
         <v>1</v>
       </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>0</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AS195">
+        <v>0</v>
+      </c>
       <c r="AV195">
         <v>0</v>
       </c>
-      <c r="BH195" t="s">
-        <v>186</v>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>0</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
       </c>
       <c r="BM195">
         <v>0</v>
@@ -19997,14 +20486,68 @@
       <c r="G196" t="s">
         <v>510</v>
       </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
       <c r="AC196">
         <v>1</v>
       </c>
+      <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>0</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AS196">
+        <v>0</v>
+      </c>
       <c r="AV196">
         <v>0</v>
       </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>0</v>
+      </c>
+      <c r="BG196">
+        <v>0</v>
+      </c>
       <c r="BH196" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BM196">
         <v>0</v>
@@ -20035,14 +20578,68 @@
       <c r="G197" t="s">
         <v>512</v>
       </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
       <c r="AC197">
         <v>1</v>
       </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>0</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AS197">
+        <v>0</v>
+      </c>
       <c r="AV197">
         <v>0</v>
       </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>0</v>
+      </c>
+      <c r="BG197">
+        <v>0</v>
+      </c>
       <c r="BH197" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20073,14 +20670,68 @@
       <c r="G198" t="s">
         <v>514</v>
       </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
       <c r="AC198">
         <v>1</v>
       </c>
+      <c r="AI198">
+        <v>0</v>
+      </c>
+      <c r="AJ198">
+        <v>0</v>
+      </c>
+      <c r="AK198">
+        <v>0</v>
+      </c>
+      <c r="AL198">
+        <v>0</v>
+      </c>
+      <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AS198">
+        <v>0</v>
+      </c>
       <c r="AV198">
         <v>0</v>
       </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>0</v>
+      </c>
+      <c r="BG198">
+        <v>0</v>
+      </c>
       <c r="BH198" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20100,7 +20751,7 @@
     </row>
     <row r="199" spans="1:72">
       <c r="A199">
-        <v>938259</v>
+        <v>938223</v>
       </c>
       <c r="C199" t="s">
         <v>515</v>
@@ -20111,10 +20762,64 @@
       <c r="G199" t="s">
         <v>516</v>
       </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
       <c r="AC199">
         <v>1</v>
       </c>
+      <c r="AI199">
+        <v>0</v>
+      </c>
+      <c r="AJ199">
+        <v>0</v>
+      </c>
+      <c r="AK199">
+        <v>0</v>
+      </c>
+      <c r="AL199">
+        <v>0</v>
+      </c>
+      <c r="AM199">
+        <v>0</v>
+      </c>
+      <c r="AS199">
+        <v>0</v>
+      </c>
       <c r="AV199">
+        <v>0</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>0</v>
+      </c>
+      <c r="BG199">
         <v>0</v>
       </c>
       <c r="BH199" t="s">
@@ -20133,6 +20838,98 @@
         <v>0</v>
       </c>
       <c r="BQ199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:72">
+      <c r="A200">
+        <v>938224</v>
+      </c>
+      <c r="C200" t="s">
+        <v>517</v>
+      </c>
+      <c r="D200" t="s">
+        <v>73</v>
+      </c>
+      <c r="G200" t="s">
+        <v>518</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>1</v>
+      </c>
+      <c r="AI200">
+        <v>0</v>
+      </c>
+      <c r="AJ200">
+        <v>0</v>
+      </c>
+      <c r="AK200">
+        <v>0</v>
+      </c>
+      <c r="AL200">
+        <v>0</v>
+      </c>
+      <c r="AM200">
+        <v>0</v>
+      </c>
+      <c r="AS200">
+        <v>0</v>
+      </c>
+      <c r="AV200">
+        <v>0</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>0</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
+        <v>0</v>
+      </c>
+      <c r="BG200">
+        <v>0</v>
+      </c>
+      <c r="BH200" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM200">
+        <v>0</v>
+      </c>
+      <c r="BN200">
+        <v>0</v>
+      </c>
+      <c r="BO200">
+        <v>0</v>
+      </c>
+      <c r="BP200">
+        <v>0</v>
+      </c>
+      <c r="BQ200">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="552">
   <si>
     <t>id</t>
   </si>
@@ -233,115 +233,148 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Emerald Chipped Ring</t>
+  </si>
+  <si>
+    <t>A chipped emerald ring that you found at the Grave Diggers brothers grave. It is a sign you are on the right path.</t>
+  </si>
+  <si>
+    <t>Twsited grave site</t>
+  </si>
+  <si>
+    <t>Black and Silver Ever Living Rose</t>
+  </si>
+  <si>
+    <t>A magical rose that was found growing by the spot where the Ascension took place.</t>
+  </si>
+  <si>
+    <t>Church of God</t>
+  </si>
+  <si>
+    <t>Musty Childs Teddy bare</t>
+  </si>
+  <si>
+    <t>A musty old child's teddy bare that Trix once carried when he watched the Ascension.</t>
+  </si>
+  <si>
+    <t>Brothers Chipped Sword</t>
+  </si>
+  <si>
+    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
+  </si>
+  <si>
+    <t>Silver Red Hawk Badge</t>
+  </si>
+  <si>
+    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
+  </si>
+  <si>
+    <t>Papers of Ascension</t>
+  </si>
+  <si>
+    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
+  </si>
+  <si>
+    <t>Strand of golden hair</t>
+  </si>
+  <si>
+    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
+  </si>
+  <si>
+    <t>Brothels Port</t>
+  </si>
+  <si>
+    <t>Vile of the ocean</t>
+  </si>
+  <si>
+    <t>A vile containing the water of the ocean that surrounds the lands. An ocean deeper then any ever known to any man, beast or otherwise.</t>
+  </si>
+  <si>
+    <t>Bloody Shield</t>
+  </si>
+  <si>
+    <t>A bloody Red Hawk shield that was found on the battle fields.</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
     <t>Twisted Dice</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>Dice that you find in the depths of the dungeons. Their rolls and outcome are always twisted to your own delusional desire.</t>
   </si>
   <si>
-    <t>Dungeons of Valifore</t>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
+  </si>
+  <si>
+    <t>Shattered Mace of The Holy</t>
+  </si>
+  <si>
+    <t>This broken mace was once used by the holy warriors of The Church.</t>
+  </si>
+  <si>
+    <t>Faithless Scripture</t>
+  </si>
+  <si>
+    <t>Scripture that was once apart of The Church has faded in the sands of time and is a facinating read by the faithless.</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
+  </si>
+  <si>
+    <t>Vile of Sensual Perfume</t>
+  </si>
+  <si>
+    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
   </si>
   <si>
     <t>Shattered Emerald</t>
   </si>
   <si>
     <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
-  </si>
-  <si>
-    <t>Torn map of another land</t>
-  </si>
-  <si>
-    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
-  </si>
-  <si>
-    <t>Tear of the shade</t>
-  </si>
-  <si>
-    <t>A single tear from The Shadoe Lord.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Faceless Robe</t>
-  </si>
-  <si>
-    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>Vile of Sensual Perfume</t>
-  </si>
-  <si>
-    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
-  </si>
-  <si>
-    <t>Brothels Port</t>
-  </si>
-  <si>
-    <t>Broken Hand Mirror</t>
-  </si>
-  <si>
-    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
-  </si>
-  <si>
-    <t>Faithless Scripture</t>
-  </si>
-  <si>
-    <t>Scripture that was once apart of The Church has faded in the sands of time and is a facinating read by the faithless.</t>
-  </si>
-  <si>
-    <t>Church of God</t>
-  </si>
-  <si>
-    <t>Shattered Mace of The Holy</t>
-  </si>
-  <si>
-    <t>This broken mace was once used by the holy warriors of The Church.</t>
-  </si>
-  <si>
-    <t>Small wooden cross</t>
-  </si>
-  <si>
-    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
-    <t>Bloody Shield</t>
-  </si>
-  <si>
-    <t>A bloody Red Hawk shield that was found on the battle fields.</t>
-  </si>
-  <si>
-    <t>Vile of the ocean</t>
-  </si>
-  <si>
-    <t>A vile containing the water of the ocean that surrounds the lands. An ocean deeper then any ever known to any man, beast or otherwise.</t>
-  </si>
-  <si>
-    <t>Strand of golden hair</t>
-  </si>
-  <si>
-    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
-  </si>
-  <si>
-    <t>Papers of Ascension</t>
-  </si>
-  <si>
-    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
   </si>
   <si>
     <t>Weaponsmith's Book</t>
@@ -1977,7 +2010,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT210"/>
+  <dimension ref="A1:BT215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2279,7 +2312,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1011192</v>
+        <v>1011202</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2290,64 +2323,10 @@
       <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
       <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
         <v>0</v>
       </c>
       <c r="BH2" t="s">
@@ -2371,7 +2350,7 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>1011193</v>
+        <v>1011211</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2382,68 +2361,14 @@
       <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
       <c r="BH3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2463,79 +2388,25 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>1011194</v>
+        <v>1011210</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
       <c r="BH4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2555,79 +2426,25 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>1011195</v>
+        <v>1011209</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
       <c r="BH5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2647,79 +2464,25 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>1011196</v>
+        <v>1011208</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
       <c r="BH6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -2739,7 +2502,7 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>1011197</v>
+        <v>1011207</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -2757,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="BH7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -2777,16 +2540,16 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>1011198</v>
+        <v>1011206</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -2795,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -2815,16 +2578,16 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>1011199</v>
+        <v>1011205</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -2833,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="BH9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BM9">
         <v>0</v>
@@ -2853,16 +2616,16 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>1011200</v>
+        <v>1011204</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -2871,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="BH10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -2891,16 +2654,16 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>1011201</v>
+        <v>1011203</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -2909,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="BH11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -2929,7 +2692,7 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>1011202</v>
+        <v>1011192</v>
       </c>
       <c r="C12" t="s">
         <v>98</v>
@@ -2940,14 +2703,68 @@
       <c r="G12" t="s">
         <v>99</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
       <c r="AC12">
         <v>1</v>
       </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
       <c r="BH12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -2967,16 +2784,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>1011203</v>
+        <v>1011201</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -2985,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="BH13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3005,16 +2822,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1011204</v>
+        <v>1011200</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -3023,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BH14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -3043,16 +2860,16 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1011205</v>
+        <v>1011199</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -3061,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="BH15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -3081,16 +2898,16 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>1011206</v>
+        <v>1011198</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -3099,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="BH16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3119,85 +2936,25 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>487</v>
+        <v>1011197</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AC17">
         <v>1</v>
       </c>
-      <c r="AG17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH17">
-        <v>0.15</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0.25</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
       <c r="AV17">
         <v>0</v>
       </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
+      <c r="BH17" t="s">
+        <v>92</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -3217,22 +2974,16 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>488</v>
+        <v>1011196</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3246,12 +2997,6 @@
       <c r="AC18">
         <v>1</v>
       </c>
-      <c r="AG18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH18">
-        <v>0.15</v>
-      </c>
       <c r="AI18">
         <v>0</v>
       </c>
@@ -3267,9 +3012,6 @@
       <c r="AM18">
         <v>0</v>
       </c>
-      <c r="AN18">
-        <v>0.25</v>
-      </c>
       <c r="AS18">
         <v>0</v>
       </c>
@@ -3302,6 +3044,9 @@
       </c>
       <c r="BG18">
         <v>0</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>112</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -3321,16 +3066,16 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>489</v>
+        <v>1011195</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3340,9 +3085,6 @@
       </c>
       <c r="Z19">
         <v>0</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>117</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -3394,6 +3136,9 @@
       </c>
       <c r="BG19">
         <v>0</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>115</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -3413,16 +3158,16 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>490</v>
+        <v>1011194</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3436,12 +3181,6 @@
       <c r="AC20">
         <v>1</v>
       </c>
-      <c r="AG20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH20">
-        <v>0.15</v>
-      </c>
       <c r="AI20">
         <v>0</v>
       </c>
@@ -3457,9 +3196,6 @@
       <c r="AM20">
         <v>0</v>
       </c>
-      <c r="AN20">
-        <v>0.25</v>
-      </c>
       <c r="AS20">
         <v>0</v>
       </c>
@@ -3492,6 +3228,9 @@
       </c>
       <c r="BG20">
         <v>0</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>97</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -3511,22 +3250,16 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>491</v>
+        <v>1011193</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3540,12 +3273,6 @@
       <c r="AC21">
         <v>1</v>
       </c>
-      <c r="AG21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH21">
-        <v>0.15</v>
-      </c>
       <c r="AI21">
         <v>0</v>
       </c>
@@ -3561,9 +3288,6 @@
       <c r="AM21">
         <v>0</v>
       </c>
-      <c r="AN21">
-        <v>0.25</v>
-      </c>
       <c r="AS21">
         <v>0</v>
       </c>
@@ -3596,6 +3320,9 @@
       </c>
       <c r="BG21">
         <v>0</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>97</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -3615,16 +3342,16 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3639,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH22">
         <v>0.15</v>
@@ -3713,16 +3440,22 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -3732,13 +3465,16 @@
       </c>
       <c r="Z23">
         <v>0</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>129</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
+      <c r="AG23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH23">
+        <v>0.15</v>
+      </c>
       <c r="AI23">
         <v>0</v>
       </c>
@@ -3753,6 +3489,9 @@
       </c>
       <c r="AM23">
         <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0.25</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -3805,22 +3544,16 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3832,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -3903,22 +3636,16 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3929,8 +3656,14 @@
       <c r="Z25">
         <v>0</v>
       </c>
-      <c r="AA25" t="s">
-        <v>135</v>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH25">
+        <v>0.15</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3946,6 +3679,9 @@
       </c>
       <c r="AM25">
         <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0.25</v>
       </c>
       <c r="AS25">
         <v>0</v>
@@ -3998,16 +3734,16 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4024,8 +3760,14 @@
       <c r="Z26">
         <v>0</v>
       </c>
-      <c r="AA26" t="s">
-        <v>138</v>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH26">
+        <v>0.15</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4041,6 +3783,9 @@
       </c>
       <c r="AM26">
         <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0.25</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -4093,22 +3838,16 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4122,6 +3861,12 @@
       <c r="AC27">
         <v>1</v>
       </c>
+      <c r="AG27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH27">
+        <v>0.15</v>
+      </c>
       <c r="AI27">
         <v>0</v>
       </c>
@@ -4136,6 +3881,9 @@
       </c>
       <c r="AM27">
         <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0.25</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -4188,22 +3936,16 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4213,6 +3955,9 @@
       </c>
       <c r="Z28">
         <v>0</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>140</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -4283,16 +4028,16 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4308,16 +4053,13 @@
       </c>
       <c r="Z29">
         <v>0</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>143</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
-      <c r="AG29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH29">
-        <v>0.5</v>
-      </c>
       <c r="AI29">
         <v>0</v>
       </c>
@@ -4332,9 +4074,6 @@
       </c>
       <c r="AM29">
         <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0.3</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -4387,41 +4126,35 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
+        <v>145</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
         <v>146</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH30">
-        <v>0.5</v>
-      </c>
       <c r="AI30">
         <v>0</v>
       </c>
@@ -4436,9 +4169,6 @@
       </c>
       <c r="AM30">
         <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0.3</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -4491,7 +4221,7 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C31" t="s">
         <v>147</v>
@@ -4517,14 +4247,8 @@
       <c r="Z31">
         <v>0</v>
       </c>
-      <c r="AC31">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH31">
-        <v>0.5</v>
+      <c r="AA31" t="s">
+        <v>149</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4540,9 +4264,6 @@
       </c>
       <c r="AM31">
         <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0.3</v>
       </c>
       <c r="AS31">
         <v>0</v>
@@ -4595,16 +4316,16 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4624,12 +4345,6 @@
       <c r="AC32">
         <v>1</v>
       </c>
-      <c r="AG32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH32">
-        <v>0.5</v>
-      </c>
       <c r="AI32">
         <v>0</v>
       </c>
@@ -4644,9 +4359,6 @@
       </c>
       <c r="AM32">
         <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0.3</v>
       </c>
       <c r="AS32">
         <v>0</v>
@@ -4699,16 +4411,16 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4725,11 +4437,8 @@
       <c r="Z33">
         <v>0</v>
       </c>
-      <c r="AG33" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH33">
-        <v>0.5</v>
+      <c r="AC33">
+        <v>1</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4745,9 +4454,6 @@
       </c>
       <c r="AM33">
         <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>0.3</v>
       </c>
       <c r="AS33">
         <v>0</v>
@@ -4800,16 +4506,16 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4829,6 +4535,12 @@
       <c r="AC34">
         <v>1</v>
       </c>
+      <c r="AG34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH34">
+        <v>0.5</v>
+      </c>
       <c r="AI34">
         <v>0</v>
       </c>
@@ -4843,6 +4555,9 @@
       </c>
       <c r="AM34">
         <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0.3</v>
       </c>
       <c r="AS34">
         <v>0</v>
@@ -4895,16 +4610,16 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4921,8 +4636,14 @@
       <c r="Z35">
         <v>0</v>
       </c>
-      <c r="AA35" t="s">
-        <v>157</v>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH35">
+        <v>0.5</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -4938,6 +4659,9 @@
       </c>
       <c r="AM35">
         <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0.3</v>
       </c>
       <c r="AS35">
         <v>0</v>
@@ -4990,7 +4714,7 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C36" t="s">
         <v>158</v>
@@ -5016,11 +4740,14 @@
       <c r="Z36">
         <v>0</v>
       </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
       <c r="AG36" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="AH36">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -5038,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -5091,16 +4818,16 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5117,11 +4844,14 @@
       <c r="Z37">
         <v>0</v>
       </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
       <c r="AG37" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="AH37">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI37">
         <v>0</v>
@@ -5139,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS37">
         <v>0</v>
@@ -5192,16 +4922,16 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5218,8 +4948,11 @@
       <c r="Z38">
         <v>0</v>
       </c>
-      <c r="AA38" t="s">
-        <v>166</v>
+      <c r="AG38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH38">
+        <v>0.5</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -5235,6 +4968,9 @@
       </c>
       <c r="AM38">
         <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0.3</v>
       </c>
       <c r="AS38">
         <v>0</v>
@@ -5287,16 +5023,16 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5313,8 +5049,8 @@
       <c r="Z39">
         <v>0</v>
       </c>
-      <c r="AA39" t="s">
-        <v>166</v>
+      <c r="AC39">
+        <v>1</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -5359,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="BF39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG39">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5382,16 +5118,16 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5409,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -5454,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="BF40">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BG40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5477,16 +5213,16 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5503,8 +5239,11 @@
       <c r="Z41">
         <v>0</v>
       </c>
-      <c r="AA41" t="s">
-        <v>166</v>
+      <c r="AG41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH41">
+        <v>0.45</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -5521,6 +5260,9 @@
       <c r="AM41">
         <v>0</v>
       </c>
+      <c r="AN41">
+        <v>0.45</v>
+      </c>
       <c r="AS41">
         <v>0</v>
       </c>
@@ -5549,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="BF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -5572,31 +5314,37 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
+        <v>173</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="s">
         <v>174</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
+      <c r="AH42">
+        <v>0.45</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -5612,6 +5360,9 @@
       </c>
       <c r="AM42">
         <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0.45</v>
       </c>
       <c r="AS42">
         <v>0</v>
@@ -5664,7 +5415,7 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C43" t="s">
         <v>175</v>
@@ -5759,7 +5510,7 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C44" t="s">
         <v>178</v>
@@ -5786,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -5831,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="BF44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BG44">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -5854,16 +5605,16 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5881,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -5926,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="BF45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -5949,16 +5700,16 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5975,6 +5726,9 @@
       <c r="Z46">
         <v>0</v>
       </c>
+      <c r="AA46" t="s">
+        <v>177</v>
+      </c>
       <c r="AI46">
         <v>0</v>
       </c>
@@ -6018,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="BF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6041,16 +5795,16 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6133,16 +5887,16 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6158,6 +5912,9 @@
       </c>
       <c r="Z48">
         <v>0</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>188</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6225,34 +5982,34 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
+        <v>190</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="s">
         <v>191</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>192</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6320,32 +6077,35 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
+        <v>193</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="s">
         <v>194</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
       <c r="AI50">
         <v>0</v>
       </c>
@@ -6393,9 +6153,6 @@
       </c>
       <c r="BG50">
         <v>0</v>
-      </c>
-      <c r="BH50" t="s">
-        <v>195</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6415,16 +6172,16 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6488,9 +6245,6 @@
       </c>
       <c r="BG51">
         <v>0</v>
-      </c>
-      <c r="BH51" t="s">
-        <v>195</v>
       </c>
       <c r="BM51">
         <v>0</v>
@@ -6510,16 +6264,16 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6602,16 +6356,16 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6675,9 +6429,6 @@
       </c>
       <c r="BG53">
         <v>0</v>
-      </c>
-      <c r="BH53" t="s">
-        <v>75</v>
       </c>
       <c r="BM53">
         <v>0</v>
@@ -6697,34 +6448,34 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
+        <v>202</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="s">
         <v>203</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>204</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -6792,82 +6543,82 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
+        <v>205</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="s">
         <v>206</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55" t="s">
-        <v>82</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -6887,7 +6638,7 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C56" t="s">
         <v>207</v>
@@ -6913,12 +6664,6 @@
       <c r="Z56">
         <v>0</v>
       </c>
-      <c r="AG56" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH56">
-        <v>0.25</v>
-      </c>
       <c r="AI56">
         <v>0</v>
       </c>
@@ -6934,9 +6679,6 @@
       <c r="AM56">
         <v>0</v>
       </c>
-      <c r="AN56">
-        <v>1</v>
-      </c>
       <c r="AS56">
         <v>0</v>
       </c>
@@ -6971,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="BH56" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -6991,16 +6733,16 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7017,12 +6759,6 @@
       <c r="Z57">
         <v>0</v>
       </c>
-      <c r="AG57" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH57">
-        <v>0.75</v>
-      </c>
       <c r="AI57">
         <v>0</v>
       </c>
@@ -7038,9 +6774,6 @@
       <c r="AM57">
         <v>0</v>
       </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
       <c r="AS57">
         <v>0</v>
       </c>
@@ -7073,9 +6806,6 @@
       </c>
       <c r="BG57">
         <v>0</v>
-      </c>
-      <c r="BH57" t="s">
-        <v>213</v>
       </c>
       <c r="BM57">
         <v>0</v>
@@ -7095,16 +6825,16 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7168,6 +6898,9 @@
       </c>
       <c r="BG58">
         <v>0</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>97</v>
       </c>
       <c r="BM58">
         <v>0</v>
@@ -7187,16 +6920,16 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7213,11 +6946,8 @@
       <c r="Z59">
         <v>0</v>
       </c>
-      <c r="AG59" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH59">
-        <v>0.75</v>
+      <c r="AA59" t="s">
+        <v>215</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7234,9 +6964,6 @@
       <c r="AM59">
         <v>0</v>
       </c>
-      <c r="AN59">
-        <v>2</v>
-      </c>
       <c r="AS59">
         <v>0</v>
       </c>
@@ -7265,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="BF59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG59">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM59">
         <v>0</v>
@@ -7288,16 +7015,16 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7314,9 +7041,6 @@
       <c r="Z60">
         <v>0</v>
       </c>
-      <c r="AA60" t="s">
-        <v>221</v>
-      </c>
       <c r="AI60">
         <v>0</v>
       </c>
@@ -7360,10 +7084,13 @@
         <v>0</v>
       </c>
       <c r="BF60">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BG60">
-        <v>0.45</v>
+        <v>0</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>115</v>
       </c>
       <c r="BM60">
         <v>0</v>
@@ -7383,16 +7110,16 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7409,8 +7136,11 @@
       <c r="Z61">
         <v>0</v>
       </c>
-      <c r="AA61" t="s">
-        <v>224</v>
+      <c r="AG61" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH61">
+        <v>0.25</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -7427,6 +7157,9 @@
       <c r="AM61">
         <v>0</v>
       </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
       <c r="AS61">
         <v>0</v>
       </c>
@@ -7459,6 +7192,9 @@
       </c>
       <c r="BG61">
         <v>0</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>112</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -7478,16 +7214,16 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7504,6 +7240,12 @@
       <c r="Z62">
         <v>0</v>
       </c>
+      <c r="AG62" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH62">
+        <v>0.75</v>
+      </c>
       <c r="AI62">
         <v>0</v>
       </c>
@@ -7519,6 +7261,9 @@
       <c r="AM62">
         <v>0</v>
       </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
       <c r="AS62">
         <v>0</v>
       </c>
@@ -7551,6 +7296,9 @@
       </c>
       <c r="BG62">
         <v>0</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>224</v>
       </c>
       <c r="BM62">
         <v>0</v>
@@ -7570,16 +7318,16 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -7643,9 +7391,6 @@
       </c>
       <c r="BG63">
         <v>0</v>
-      </c>
-      <c r="BH63" t="s">
-        <v>82</v>
       </c>
       <c r="BM63">
         <v>0</v>
@@ -7665,16 +7410,16 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -7691,6 +7436,12 @@
       <c r="Z64">
         <v>0</v>
       </c>
+      <c r="AG64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH64">
+        <v>0.75</v>
+      </c>
       <c r="AI64">
         <v>0</v>
       </c>
@@ -7706,6 +7457,9 @@
       <c r="AM64">
         <v>0</v>
       </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
       <c r="AS64">
         <v>0</v>
       </c>
@@ -7734,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="BF64">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG64">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM64">
         <v>0</v>
@@ -7757,32 +7511,35 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
+        <v>231</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="s">
         <v>232</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
       <c r="AI65">
         <v>0</v>
       </c>
@@ -7798,9 +7555,21 @@
       <c r="AM65">
         <v>0</v>
       </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
       <c r="AV65">
         <v>0</v>
       </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
       <c r="BB65">
         <v>0</v>
       </c>
@@ -7814,13 +7583,10 @@
         <v>0</v>
       </c>
       <c r="BF65">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG65">
-        <v>0</v>
-      </c>
-      <c r="BH65" t="s">
-        <v>85</v>
+        <v>0.45</v>
       </c>
       <c r="BM65">
         <v>0</v>
@@ -7840,7 +7606,7 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -7865,6 +7631,9 @@
       </c>
       <c r="Z66">
         <v>0</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>235</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -7932,16 +7701,16 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8024,16 +7793,16 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8097,6 +7866,9 @@
       </c>
       <c r="BG68">
         <v>0</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>115</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -8116,16 +7888,16 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8189,9 +7961,6 @@
       </c>
       <c r="BG69">
         <v>0</v>
-      </c>
-      <c r="BH69" t="s">
-        <v>82</v>
       </c>
       <c r="BM69">
         <v>0</v>
@@ -8211,16 +7980,16 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8252,21 +8021,9 @@
       <c r="AM70">
         <v>0</v>
       </c>
-      <c r="AS70">
-        <v>0</v>
-      </c>
       <c r="AV70">
         <v>0</v>
       </c>
-      <c r="AX70">
-        <v>0</v>
-      </c>
-      <c r="AY70">
-        <v>0</v>
-      </c>
-      <c r="BA70">
-        <v>0</v>
-      </c>
       <c r="BB70">
         <v>0</v>
       </c>
@@ -8286,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="BH70" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="BM70">
         <v>0</v>
@@ -8306,16 +8063,16 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8379,9 +8136,6 @@
       </c>
       <c r="BG71">
         <v>0</v>
-      </c>
-      <c r="BI71">
-        <v>0.15</v>
       </c>
       <c r="BM71">
         <v>0</v>
@@ -8401,16 +8155,16 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8474,9 +8228,6 @@
       </c>
       <c r="BG72">
         <v>0</v>
-      </c>
-      <c r="BH72" t="s">
-        <v>213</v>
       </c>
       <c r="BM72">
         <v>0</v>
@@ -8496,16 +8247,16 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8569,9 +8320,6 @@
       </c>
       <c r="BG73">
         <v>0</v>
-      </c>
-      <c r="BH73" t="s">
-        <v>82</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -8591,16 +8339,16 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8666,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="BH74" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -8686,16 +8434,16 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8760,8 +8508,8 @@
       <c r="BG75">
         <v>0</v>
       </c>
-      <c r="BI75">
-        <v>0.3</v>
+      <c r="BH75" t="s">
+        <v>206</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -8781,16 +8529,16 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -8855,8 +8603,8 @@
       <c r="BG76">
         <v>0</v>
       </c>
-      <c r="BH76" t="s">
-        <v>100</v>
+      <c r="BI76">
+        <v>0.15</v>
       </c>
       <c r="BM76">
         <v>0</v>
@@ -8876,16 +8624,16 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -8950,8 +8698,8 @@
       <c r="BG77">
         <v>0</v>
       </c>
-      <c r="BI77">
-        <v>0.5</v>
+      <c r="BH77" t="s">
+        <v>224</v>
       </c>
       <c r="BM77">
         <v>0</v>
@@ -8971,16 +8719,16 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9045,8 +8793,8 @@
       <c r="BG78">
         <v>0</v>
       </c>
-      <c r="BI78">
-        <v>0.05</v>
+      <c r="BH78" t="s">
+        <v>115</v>
       </c>
       <c r="BM78">
         <v>0</v>
@@ -9066,16 +8814,16 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9141,10 +8889,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI79">
-        <v>0.8</v>
+        <v>75</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9164,16 +8909,16 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9190,9 +8935,6 @@
       <c r="Z80">
         <v>0</v>
       </c>
-      <c r="AA80" t="s">
-        <v>263</v>
-      </c>
       <c r="AI80">
         <v>0</v>
       </c>
@@ -9240,6 +8982,9 @@
       </c>
       <c r="BG80">
         <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0.3</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9259,7 +9004,7 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C81" t="s">
         <v>264</v>
@@ -9354,7 +9099,7 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C82" t="s">
         <v>266</v>
@@ -9428,8 +9173,8 @@
       <c r="BG82">
         <v>0</v>
       </c>
-      <c r="BH82" t="s">
-        <v>213</v>
+      <c r="BI82">
+        <v>0.5</v>
       </c>
       <c r="BM82">
         <v>0</v>
@@ -9449,7 +9194,7 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C83" t="s">
         <v>268</v>
@@ -9522,6 +9267,9 @@
       </c>
       <c r="BG83">
         <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0.05</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -9541,7 +9289,7 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C84" t="s">
         <v>270</v>
@@ -9567,9 +9315,6 @@
       <c r="Z84">
         <v>0</v>
       </c>
-      <c r="AA84" t="s">
-        <v>272</v>
-      </c>
       <c r="AI84">
         <v>0</v>
       </c>
@@ -9617,6 +9362,12 @@
       </c>
       <c r="BG84">
         <v>0</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI84">
+        <v>0.8</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -9636,32 +9387,35 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
+        <v>273</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="s">
         <v>274</v>
       </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
       <c r="AI85">
         <v>0</v>
       </c>
@@ -9709,15 +9463,6 @@
       </c>
       <c r="BG85">
         <v>0</v>
-      </c>
-      <c r="BH85" t="s">
-        <v>213</v>
-      </c>
-      <c r="BI85">
-        <v>0.05</v>
-      </c>
-      <c r="BJ85">
-        <v>1</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -9737,7 +9482,7 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C86" t="s">
         <v>275</v>
@@ -9811,11 +9556,8 @@
       <c r="BG86">
         <v>0</v>
       </c>
-      <c r="BI86">
-        <v>0.95</v>
-      </c>
-      <c r="BJ86">
-        <v>1</v>
+      <c r="BH86" t="s">
+        <v>97</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -9835,7 +9577,7 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C87" t="s">
         <v>277</v>
@@ -9910,13 +9652,7 @@
         <v>0</v>
       </c>
       <c r="BH87" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI87">
-        <v>0.15</v>
-      </c>
-      <c r="BJ87">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -9936,7 +9672,7 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C88" t="s">
         <v>279</v>
@@ -10009,12 +9745,6 @@
       </c>
       <c r="BG88">
         <v>0</v>
-      </c>
-      <c r="BI88">
-        <v>1.25</v>
-      </c>
-      <c r="BJ88">
-        <v>1</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -10034,7 +9764,7 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C89" t="s">
         <v>281</v>
@@ -10060,6 +9790,9 @@
       <c r="Z89">
         <v>0</v>
       </c>
+      <c r="AA89" t="s">
+        <v>283</v>
+      </c>
       <c r="AI89">
         <v>0</v>
       </c>
@@ -10107,12 +9840,6 @@
       </c>
       <c r="BG89">
         <v>0</v>
-      </c>
-      <c r="BI89">
-        <v>1.6</v>
-      </c>
-      <c r="BJ89">
-        <v>1</v>
       </c>
       <c r="BM89">
         <v>0</v>
@@ -10132,16 +9859,16 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10205,6 +9932,15 @@
       </c>
       <c r="BG90">
         <v>0</v>
+      </c>
+      <c r="BH90" t="s">
+        <v>224</v>
+      </c>
+      <c r="BI90">
+        <v>0.05</v>
+      </c>
+      <c r="BJ90">
+        <v>1</v>
       </c>
       <c r="BM90">
         <v>0</v>
@@ -10224,16 +9960,16 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10298,8 +10034,11 @@
       <c r="BG91">
         <v>0</v>
       </c>
-      <c r="BH91" t="s">
-        <v>287</v>
+      <c r="BI91">
+        <v>0.95</v>
+      </c>
+      <c r="BJ91">
+        <v>1</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10319,7 +10058,7 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C92" t="s">
         <v>288</v>
@@ -10394,7 +10133,13 @@
         <v>0</v>
       </c>
       <c r="BH92" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="BI92">
+        <v>0.15</v>
+      </c>
+      <c r="BJ92">
+        <v>1</v>
       </c>
       <c r="BM92">
         <v>0</v>
@@ -10414,7 +10159,7 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C93" t="s">
         <v>290</v>
@@ -10488,8 +10233,11 @@
       <c r="BG93">
         <v>0</v>
       </c>
-      <c r="BH93" t="s">
-        <v>287</v>
+      <c r="BI93">
+        <v>1.25</v>
+      </c>
+      <c r="BJ93">
+        <v>1</v>
       </c>
       <c r="BM93">
         <v>0</v>
@@ -10509,7 +10257,7 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C94" t="s">
         <v>292</v>
@@ -10583,8 +10331,11 @@
       <c r="BG94">
         <v>0</v>
       </c>
-      <c r="BH94" t="s">
-        <v>195</v>
+      <c r="BI94">
+        <v>1.6</v>
+      </c>
+      <c r="BJ94">
+        <v>1</v>
       </c>
       <c r="BM94">
         <v>0</v>
@@ -10604,7 +10355,7 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C95" t="s">
         <v>294</v>
@@ -10677,12 +10428,6 @@
       </c>
       <c r="BG95">
         <v>0</v>
-      </c>
-      <c r="BI95">
-        <v>0.25</v>
-      </c>
-      <c r="BJ95">
-        <v>1</v>
       </c>
       <c r="BM95">
         <v>0</v>
@@ -10702,7 +10447,7 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C96" t="s">
         <v>296</v>
@@ -10777,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="BH96" t="s">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="BM96">
         <v>0</v>
@@ -10797,16 +10542,16 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
         <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -10869,13 +10614,10 @@
         <v>0</v>
       </c>
       <c r="BG97">
-        <v>0.35</v>
-      </c>
-      <c r="BI97">
-        <v>1.6</v>
-      </c>
-      <c r="BJ97">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH97" t="s">
+        <v>112</v>
       </c>
       <c r="BM97">
         <v>0</v>
@@ -10895,16 +10637,16 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D98" t="s">
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -10970,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="BH98" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="BM98">
         <v>0</v>
@@ -10990,16 +10732,16 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C99" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -11016,12 +10758,6 @@
       <c r="Z99">
         <v>0</v>
       </c>
-      <c r="AG99" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH99">
-        <v>0.25</v>
-      </c>
       <c r="AI99">
         <v>0</v>
       </c>
@@ -11037,9 +10773,6 @@
       <c r="AM99">
         <v>0</v>
       </c>
-      <c r="AN99">
-        <v>0.25</v>
-      </c>
       <c r="AS99">
         <v>0</v>
       </c>
@@ -11072,6 +10805,9 @@
       </c>
       <c r="BG99">
         <v>0</v>
+      </c>
+      <c r="BH99" t="s">
+        <v>206</v>
       </c>
       <c r="BM99">
         <v>0</v>
@@ -11091,16 +10827,16 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C100" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11117,62 +10853,59 @@
       <c r="Z100">
         <v>0</v>
       </c>
-      <c r="AG100" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH100">
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AS100">
+        <v>0</v>
+      </c>
+      <c r="AV100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>0</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
         <v>0.25</v>
       </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>0.25</v>
-      </c>
-      <c r="AS100">
-        <v>0</v>
-      </c>
-      <c r="AV100">
-        <v>0</v>
-      </c>
-      <c r="AX100">
-        <v>0</v>
-      </c>
-      <c r="AY100">
-        <v>0</v>
-      </c>
-      <c r="BA100">
-        <v>0</v>
-      </c>
-      <c r="BB100">
-        <v>0</v>
-      </c>
-      <c r="BC100">
-        <v>0</v>
-      </c>
-      <c r="BD100">
-        <v>0</v>
-      </c>
-      <c r="BE100">
-        <v>0</v>
-      </c>
-      <c r="BF100">
-        <v>0</v>
-      </c>
-      <c r="BG100">
-        <v>0</v>
+      <c r="BJ100">
+        <v>1</v>
       </c>
       <c r="BM100">
         <v>0</v>
@@ -11192,7 +10925,7 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C101" t="s">
         <v>307</v>
@@ -11218,9 +10951,6 @@
       <c r="Z101">
         <v>0</v>
       </c>
-      <c r="AG101" t="s">
-        <v>209</v>
-      </c>
       <c r="AI101">
         <v>0</v>
       </c>
@@ -11236,9 +10966,6 @@
       <c r="AM101">
         <v>0</v>
       </c>
-      <c r="AN101">
-        <v>0.25</v>
-      </c>
       <c r="AS101">
         <v>0</v>
       </c>
@@ -11271,6 +10998,9 @@
       </c>
       <c r="BG101">
         <v>0</v>
+      </c>
+      <c r="BH101" t="s">
+        <v>97</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -11290,7 +11020,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C102" t="s">
         <v>309</v>
@@ -11316,9 +11046,6 @@
       <c r="Z102">
         <v>0</v>
       </c>
-      <c r="AG102" t="s">
-        <v>311</v>
-      </c>
       <c r="AI102">
         <v>0</v>
       </c>
@@ -11334,9 +11061,6 @@
       <c r="AM102">
         <v>0</v>
       </c>
-      <c r="AN102">
-        <v>0.25</v>
-      </c>
       <c r="AS102">
         <v>0</v>
       </c>
@@ -11368,7 +11092,13 @@
         <v>0</v>
       </c>
       <c r="BG102">
-        <v>0</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI102">
+        <v>1.6</v>
+      </c>
+      <c r="BJ102">
+        <v>1</v>
       </c>
       <c r="BM102">
         <v>0</v>
@@ -11388,16 +11118,16 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D103" t="s">
         <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -11414,9 +11144,6 @@
       <c r="Z103">
         <v>0</v>
       </c>
-      <c r="AG103" t="s">
-        <v>306</v>
-      </c>
       <c r="AI103">
         <v>0</v>
       </c>
@@ -11432,9 +11159,6 @@
       <c r="AM103">
         <v>0</v>
       </c>
-      <c r="AN103">
-        <v>0.5</v>
-      </c>
       <c r="AS103">
         <v>0</v>
       </c>
@@ -11467,6 +11191,9 @@
       </c>
       <c r="BG103">
         <v>0</v>
+      </c>
+      <c r="BH103" t="s">
+        <v>75</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11486,16 +11213,16 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -11513,7 +11240,10 @@
         <v>0</v>
       </c>
       <c r="AG104" t="s">
-        <v>306</v>
+        <v>229</v>
+      </c>
+      <c r="AH104">
+        <v>0.25</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -11531,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS104">
         <v>0</v>
@@ -11584,34 +11314,37 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
+        <v>316</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="s">
         <v>317</v>
       </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>306</v>
+      <c r="AH105">
+        <v>0.25</v>
       </c>
       <c r="AI105">
         <v>0</v>
@@ -11629,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="AN105">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS105">
         <v>0</v>
@@ -11682,7 +11415,7 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
@@ -11709,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="AG106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AI106">
         <v>0</v>
@@ -11727,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="AN106">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS106">
         <v>0</v>
@@ -11780,7 +11513,7 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C107" t="s">
         <v>320</v>
@@ -11807,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="AG107" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="AI107">
         <v>0</v>
@@ -11825,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AN107">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS107">
         <v>0</v>
@@ -11878,16 +11611,16 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -11905,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="AG108" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="AI108">
         <v>0</v>
@@ -11923,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="AN108">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS108">
         <v>0</v>
@@ -11976,16 +11709,16 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12003,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="AG109" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="AI109">
         <v>0</v>
@@ -12021,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS109">
         <v>0</v>
@@ -12074,16 +11807,16 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12101,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="AG110" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="AI110">
         <v>0</v>
@@ -12119,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS110">
         <v>0</v>
@@ -12172,16 +11905,16 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12199,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="AG111" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AI111">
         <v>0</v>
@@ -12217,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="AN111">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS111">
         <v>0</v>
@@ -12270,16 +12003,16 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12297,10 +12030,7 @@
         <v>0</v>
       </c>
       <c r="AG112" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH112">
-        <v>0.5</v>
+        <v>229</v>
       </c>
       <c r="AI112">
         <v>0</v>
@@ -12318,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="AN112">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AS112">
         <v>0</v>
@@ -12371,16 +12101,16 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12398,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="AG113" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="AI113">
         <v>0</v>
@@ -12416,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="AN113">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS113">
         <v>0</v>
@@ -12469,16 +12199,16 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -12496,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AG114" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="AI114">
         <v>0</v>
@@ -12514,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="AN114">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS114">
         <v>0</v>
@@ -12567,16 +12297,16 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -12594,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="AG115" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="AI115">
         <v>0</v>
@@ -12612,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS115">
         <v>0</v>
@@ -12665,16 +12395,16 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -12691,6 +12421,9 @@
       <c r="Z116">
         <v>0</v>
       </c>
+      <c r="AG116" t="s">
+        <v>220</v>
+      </c>
       <c r="AI116">
         <v>0</v>
       </c>
@@ -12706,6 +12439,9 @@
       <c r="AM116">
         <v>0</v>
       </c>
+      <c r="AN116">
+        <v>1.25</v>
+      </c>
       <c r="AS116">
         <v>0</v>
       </c>
@@ -12738,9 +12474,6 @@
       </c>
       <c r="BG116">
         <v>0</v>
-      </c>
-      <c r="BI116">
-        <v>0.05</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -12760,16 +12493,16 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -12786,8 +12519,11 @@
       <c r="Z117">
         <v>0</v>
       </c>
-      <c r="AA117" t="s">
-        <v>342</v>
+      <c r="AG117" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH117">
+        <v>0.5</v>
       </c>
       <c r="AI117">
         <v>0</v>
@@ -12803,6 +12539,9 @@
       </c>
       <c r="AM117">
         <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1.1</v>
       </c>
       <c r="AS117">
         <v>0</v>
@@ -12855,7 +12594,7 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C118" t="s">
         <v>343</v>
@@ -12881,6 +12620,9 @@
       <c r="Z118">
         <v>0</v>
       </c>
+      <c r="AG118" t="s">
+        <v>322</v>
+      </c>
       <c r="AI118">
         <v>0</v>
       </c>
@@ -12896,6 +12638,9 @@
       <c r="AM118">
         <v>0</v>
       </c>
+      <c r="AN118">
+        <v>0.5</v>
+      </c>
       <c r="AS118">
         <v>0</v>
       </c>
@@ -12928,12 +12673,6 @@
       </c>
       <c r="BG118">
         <v>0</v>
-      </c>
-      <c r="BI118">
-        <v>1.25</v>
-      </c>
-      <c r="BJ118">
-        <v>1</v>
       </c>
       <c r="BM118">
         <v>0</v>
@@ -12953,7 +12692,7 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C119" t="s">
         <v>345</v>
@@ -12979,8 +12718,8 @@
       <c r="Z119">
         <v>0</v>
       </c>
-      <c r="AA119" t="s">
-        <v>272</v>
+      <c r="AG119" t="s">
+        <v>322</v>
       </c>
       <c r="AI119">
         <v>0</v>
@@ -12996,6 +12735,9 @@
       </c>
       <c r="AM119">
         <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
       </c>
       <c r="AS119">
         <v>0</v>
@@ -13048,7 +12790,7 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C120" t="s">
         <v>347</v>
@@ -13075,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AG120" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -13093,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AN120">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS120">
         <v>0</v>
@@ -13146,7 +12888,7 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C121" t="s">
         <v>349</v>
@@ -13172,9 +12914,6 @@
       <c r="Z121">
         <v>0</v>
       </c>
-      <c r="AG121" t="s">
-        <v>306</v>
-      </c>
       <c r="AI121">
         <v>0</v>
       </c>
@@ -13190,9 +12929,6 @@
       <c r="AM121">
         <v>0</v>
       </c>
-      <c r="AN121">
-        <v>1</v>
-      </c>
       <c r="AS121">
         <v>0</v>
       </c>
@@ -13225,6 +12961,9 @@
       </c>
       <c r="BG121">
         <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0.05</v>
       </c>
       <c r="BM121">
         <v>0</v>
@@ -13244,7 +12983,7 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C122" t="s">
         <v>351</v>
@@ -13270,6 +13009,9 @@
       <c r="Z122">
         <v>0</v>
       </c>
+      <c r="AA122" t="s">
+        <v>353</v>
+      </c>
       <c r="AI122">
         <v>0</v>
       </c>
@@ -13317,12 +13059,6 @@
       </c>
       <c r="BG122">
         <v>0</v>
-      </c>
-      <c r="BI122">
-        <v>0.25</v>
-      </c>
-      <c r="BJ122">
-        <v>1</v>
       </c>
       <c r="BM122">
         <v>0</v>
@@ -13342,16 +13078,16 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C123" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -13415,6 +13151,12 @@
       </c>
       <c r="BG123">
         <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>1.25</v>
+      </c>
+      <c r="BJ123">
+        <v>1</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13434,16 +13176,16 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -13460,14 +13202,8 @@
       <c r="Z124">
         <v>0</v>
       </c>
-      <c r="AC124">
-        <v>1</v>
-      </c>
-      <c r="AG124" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH124">
-        <v>0.5</v>
+      <c r="AA124" t="s">
+        <v>283</v>
       </c>
       <c r="AI124">
         <v>0</v>
@@ -13483,9 +13219,6 @@
       </c>
       <c r="AM124">
         <v>0</v>
-      </c>
-      <c r="AN124">
-        <v>0.3</v>
       </c>
       <c r="AS124">
         <v>0</v>
@@ -13538,16 +13271,22 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -13558,8 +13297,8 @@
       <c r="Z125">
         <v>0</v>
       </c>
-      <c r="AC125">
-        <v>1</v>
+      <c r="AG125" t="s">
+        <v>220</v>
       </c>
       <c r="AI125">
         <v>0</v>
@@ -13576,6 +13315,9 @@
       <c r="AM125">
         <v>0</v>
       </c>
+      <c r="AN125">
+        <v>0.5</v>
+      </c>
       <c r="AS125">
         <v>0</v>
       </c>
@@ -13608,9 +13350,6 @@
       </c>
       <c r="BG125">
         <v>0</v>
-      </c>
-      <c r="BH125" t="s">
-        <v>287</v>
       </c>
       <c r="BM125">
         <v>0</v>
@@ -13630,16 +13369,22 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -13650,24 +13395,27 @@
       <c r="Z126">
         <v>0</v>
       </c>
-      <c r="AC126">
+      <c r="AG126" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
         <v>1</v>
       </c>
-      <c r="AI126">
-        <v>0</v>
-      </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
-      <c r="AK126">
-        <v>0</v>
-      </c>
-      <c r="AL126">
-        <v>0</v>
-      </c>
-      <c r="AM126">
-        <v>0</v>
-      </c>
       <c r="AS126">
         <v>0</v>
       </c>
@@ -13700,9 +13448,6 @@
       </c>
       <c r="BG126">
         <v>0</v>
-      </c>
-      <c r="BH126" t="s">
-        <v>195</v>
       </c>
       <c r="BM126">
         <v>0</v>
@@ -13722,16 +13467,22 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C127" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -13742,65 +13493,59 @@
       <c r="Z127">
         <v>0</v>
       </c>
-      <c r="AC127">
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AS127">
+        <v>0</v>
+      </c>
+      <c r="AV127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0.25</v>
+      </c>
+      <c r="BJ127">
         <v>1</v>
-      </c>
-      <c r="AG127" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH127">
-        <v>0.1</v>
-      </c>
-      <c r="AI127">
-        <v>0</v>
-      </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
-      <c r="AK127">
-        <v>0</v>
-      </c>
-      <c r="AL127">
-        <v>0</v>
-      </c>
-      <c r="AM127">
-        <v>0</v>
-      </c>
-      <c r="AN127">
-        <v>0.15</v>
-      </c>
-      <c r="AS127">
-        <v>0</v>
-      </c>
-      <c r="AV127">
-        <v>0</v>
-      </c>
-      <c r="AX127">
-        <v>0</v>
-      </c>
-      <c r="AY127">
-        <v>0</v>
-      </c>
-      <c r="BA127">
-        <v>0</v>
-      </c>
-      <c r="BB127">
-        <v>0</v>
-      </c>
-      <c r="BC127">
-        <v>0</v>
-      </c>
-      <c r="BD127">
-        <v>0</v>
-      </c>
-      <c r="BE127">
-        <v>0</v>
-      </c>
-      <c r="BF127">
-        <v>0</v>
-      </c>
-      <c r="BG127">
-        <v>0</v>
       </c>
       <c r="BM127">
         <v>0</v>
@@ -13820,7 +13565,7 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C128" t="s">
         <v>364</v>
@@ -13831,6 +13576,12 @@
       <c r="G128" t="s">
         <v>365</v>
       </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
       <c r="O128">
         <v>0</v>
       </c>
@@ -13840,9 +13591,6 @@
       <c r="Z128">
         <v>0</v>
       </c>
-      <c r="AC128">
-        <v>1</v>
-      </c>
       <c r="AI128">
         <v>0</v>
       </c>
@@ -13890,9 +13638,6 @@
       </c>
       <c r="BG128">
         <v>0</v>
-      </c>
-      <c r="BH128" t="s">
-        <v>100</v>
       </c>
       <c r="BM128">
         <v>0</v>
@@ -13912,7 +13657,7 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C129" t="s">
         <v>366</v>
@@ -13923,6 +13668,12 @@
       <c r="G129" t="s">
         <v>367</v>
       </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
       <c r="O129">
         <v>0</v>
       </c>
@@ -13936,10 +13687,10 @@
         <v>1</v>
       </c>
       <c r="AG129" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="AH129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI129">
         <v>0</v>
@@ -14010,7 +13761,7 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C130" t="s">
         <v>368</v>
@@ -14082,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="BH130" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="BM130">
         <v>0</v>
@@ -14102,7 +13853,7 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C131" t="s">
         <v>370</v>
@@ -14125,12 +13876,6 @@
       <c r="AC131">
         <v>1</v>
       </c>
-      <c r="AG131" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH131">
-        <v>0.35</v>
-      </c>
       <c r="AI131">
         <v>0</v>
       </c>
@@ -14146,9 +13891,6 @@
       <c r="AM131">
         <v>0</v>
       </c>
-      <c r="AN131">
-        <v>0.45</v>
-      </c>
       <c r="AS131">
         <v>0</v>
       </c>
@@ -14181,6 +13923,9 @@
       </c>
       <c r="BG131">
         <v>0</v>
+      </c>
+      <c r="BH131" t="s">
+        <v>206</v>
       </c>
       <c r="BM131">
         <v>0</v>
@@ -14200,7 +13945,7 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C132" t="s">
         <v>372</v>
@@ -14223,6 +13968,12 @@
       <c r="AC132">
         <v>1</v>
       </c>
+      <c r="AG132" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH132">
+        <v>0.1</v>
+      </c>
       <c r="AI132">
         <v>0</v>
       </c>
@@ -14238,6 +13989,9 @@
       <c r="AM132">
         <v>0</v>
       </c>
+      <c r="AN132">
+        <v>0.15</v>
+      </c>
       <c r="AS132">
         <v>0</v>
       </c>
@@ -14270,9 +14024,6 @@
       </c>
       <c r="BG132">
         <v>0</v>
-      </c>
-      <c r="BH132" t="s">
-        <v>82</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -14292,16 +14043,16 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D133" t="s">
         <v>73</v>
       </c>
       <c r="G133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -14315,12 +14066,6 @@
       <c r="AC133">
         <v>1</v>
       </c>
-      <c r="AG133" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH133">
-        <v>0.5</v>
-      </c>
       <c r="AI133">
         <v>0</v>
       </c>
@@ -14336,9 +14081,6 @@
       <c r="AM133">
         <v>0</v>
       </c>
-      <c r="AN133">
-        <v>0.55</v>
-      </c>
       <c r="AS133">
         <v>0</v>
       </c>
@@ -14371,6 +14113,9 @@
       </c>
       <c r="BG133">
         <v>0</v>
+      </c>
+      <c r="BH133" t="s">
+        <v>75</v>
       </c>
       <c r="BM133">
         <v>0</v>
@@ -14390,16 +14135,16 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O134">
         <v>0</v>
@@ -14413,6 +14158,12 @@
       <c r="AC134">
         <v>1</v>
       </c>
+      <c r="AG134" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH134">
+        <v>0.25</v>
+      </c>
       <c r="AI134">
         <v>0</v>
       </c>
@@ -14428,6 +14179,9 @@
       <c r="AM134">
         <v>0</v>
       </c>
+      <c r="AN134">
+        <v>0.3</v>
+      </c>
       <c r="AS134">
         <v>0</v>
       </c>
@@ -14460,9 +14214,6 @@
       </c>
       <c r="BG134">
         <v>0</v>
-      </c>
-      <c r="BH134" t="s">
-        <v>100</v>
       </c>
       <c r="BM134">
         <v>0</v>
@@ -14482,16 +14233,16 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -14552,6 +14303,9 @@
       </c>
       <c r="BG135">
         <v>0</v>
+      </c>
+      <c r="BH135" t="s">
+        <v>112</v>
       </c>
       <c r="BM135">
         <v>0</v>
@@ -14571,16 +14325,16 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -14594,6 +14348,12 @@
       <c r="AC136">
         <v>1</v>
       </c>
+      <c r="AG136" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH136">
+        <v>0.35</v>
+      </c>
       <c r="AI136">
         <v>0</v>
       </c>
@@ -14608,6 +14368,9 @@
       </c>
       <c r="AM136">
         <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0.45</v>
       </c>
       <c r="AS136">
         <v>0</v>
@@ -14660,16 +14423,16 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
         <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -14679,9 +14442,6 @@
       </c>
       <c r="Z137">
         <v>0</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>384</v>
       </c>
       <c r="AC137">
         <v>1</v>
@@ -14733,6 +14493,9 @@
       </c>
       <c r="BG137">
         <v>0</v>
+      </c>
+      <c r="BH137" t="s">
+        <v>115</v>
       </c>
       <c r="BM137">
         <v>0</v>
@@ -14752,7 +14515,7 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C138" t="s">
         <v>385</v>
@@ -14775,6 +14538,12 @@
       <c r="AC138">
         <v>1</v>
       </c>
+      <c r="AG138" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH138">
+        <v>0.5</v>
+      </c>
       <c r="AI138">
         <v>0</v>
       </c>
@@ -14789,6 +14558,9 @@
       </c>
       <c r="AM138">
         <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0.55</v>
       </c>
       <c r="AS138">
         <v>0</v>
@@ -14841,7 +14613,7 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C139" t="s">
         <v>387</v>
@@ -14911,6 +14683,9 @@
       </c>
       <c r="BG139">
         <v>0</v>
+      </c>
+      <c r="BH139" t="s">
+        <v>75</v>
       </c>
       <c r="BM139">
         <v>0</v>
@@ -14930,7 +14705,7 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C140" t="s">
         <v>389</v>
@@ -15019,7 +14794,7 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C141" t="s">
         <v>391</v>
@@ -15108,7 +14883,7 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C142" t="s">
         <v>393</v>
@@ -15127,6 +14902,9 @@
       </c>
       <c r="Z142">
         <v>0</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>395</v>
       </c>
       <c r="AC142">
         <v>1</v>
@@ -15197,16 +14975,16 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C143" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D143" t="s">
         <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -15267,9 +15045,6 @@
       </c>
       <c r="BG143">
         <v>0</v>
-      </c>
-      <c r="BH143" t="s">
-        <v>75</v>
       </c>
       <c r="BM143">
         <v>0</v>
@@ -15289,16 +15064,16 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C144" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D144" t="s">
         <v>73</v>
       </c>
       <c r="G144" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -15359,9 +15134,6 @@
       </c>
       <c r="BG144">
         <v>0</v>
-      </c>
-      <c r="BH144" t="s">
-        <v>85</v>
       </c>
       <c r="BM144">
         <v>0</v>
@@ -15381,16 +15153,16 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C145" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
       </c>
       <c r="G145" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -15470,16 +15242,16 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C146" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D146" t="s">
         <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O146">
         <v>0</v>
@@ -15540,9 +15312,6 @@
       </c>
       <c r="BG146">
         <v>0</v>
-      </c>
-      <c r="BH146" t="s">
-        <v>195</v>
       </c>
       <c r="BM146">
         <v>0</v>
@@ -15562,16 +15331,16 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C147" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D147" t="s">
         <v>73</v>
       </c>
       <c r="G147" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -15651,16 +15420,16 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C148" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
         <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -15723,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="BH148" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="BM148">
         <v>0</v>
@@ -15743,16 +15512,16 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C149" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D149" t="s">
         <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -15815,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="BH149" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="BM149">
         <v>0</v>
@@ -15835,16 +15604,16 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C150" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -15924,16 +15693,16 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C151" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -15996,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="BH151" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="BM151">
         <v>0</v>
@@ -16016,16 +15785,16 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C152" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -16105,16 +15874,16 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C153" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -16175,6 +15944,9 @@
       </c>
       <c r="BG153">
         <v>0</v>
+      </c>
+      <c r="BH153" t="s">
+        <v>115</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16194,16 +15966,16 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C154" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -16264,6 +16036,9 @@
       </c>
       <c r="BG154">
         <v>0</v>
+      </c>
+      <c r="BH154" t="s">
+        <v>224</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16283,16 +16058,16 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C155" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -16372,16 +16147,16 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C156" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -16442,6 +16217,9 @@
       </c>
       <c r="BG156">
         <v>0</v>
+      </c>
+      <c r="BH156" t="s">
+        <v>75</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -16461,16 +16239,16 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C157" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -16550,16 +16328,16 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C158" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -16639,16 +16417,16 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -16728,16 +16506,16 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C160" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -16817,16 +16595,16 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C161" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -16906,16 +16684,16 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C162" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -16995,16 +16773,16 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C163" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17084,16 +16862,16 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>210180</v>
+        <v>629</v>
       </c>
       <c r="C164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17154,9 +16932,6 @@
       </c>
       <c r="BG164">
         <v>0</v>
-      </c>
-      <c r="BH164" t="s">
-        <v>439</v>
       </c>
       <c r="BM164">
         <v>0</v>
@@ -17176,7 +16951,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>210181</v>
+        <v>630</v>
       </c>
       <c r="C165" t="s">
         <v>440</v>
@@ -17246,9 +17021,6 @@
       </c>
       <c r="BG165">
         <v>0</v>
-      </c>
-      <c r="BH165" t="s">
-        <v>439</v>
       </c>
       <c r="BM165">
         <v>0</v>
@@ -17268,7 +17040,7 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>210182</v>
+        <v>631</v>
       </c>
       <c r="C166" t="s">
         <v>442</v>
@@ -17338,9 +17110,6 @@
       </c>
       <c r="BG166">
         <v>0</v>
-      </c>
-      <c r="BH166" t="s">
-        <v>444</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -17360,16 +17129,16 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>210183</v>
+        <v>632</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -17383,12 +17152,6 @@
       <c r="AC167">
         <v>1</v>
       </c>
-      <c r="AG167" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH167">
-        <v>0.35</v>
-      </c>
       <c r="AI167">
         <v>0</v>
       </c>
@@ -17404,9 +17167,6 @@
       <c r="AM167">
         <v>0</v>
       </c>
-      <c r="AN167">
-        <v>0.35</v>
-      </c>
       <c r="AS167">
         <v>0</v>
       </c>
@@ -17439,9 +17199,6 @@
       </c>
       <c r="BG167">
         <v>0</v>
-      </c>
-      <c r="BH167" t="s">
-        <v>444</v>
       </c>
       <c r="BM167">
         <v>0</v>
@@ -17461,16 +17218,16 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>210184</v>
+        <v>633</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -17531,9 +17288,6 @@
       </c>
       <c r="BG168">
         <v>0</v>
-      </c>
-      <c r="BH168" t="s">
-        <v>444</v>
       </c>
       <c r="BM168">
         <v>0</v>
@@ -17553,16 +17307,16 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>210185</v>
+        <v>210180</v>
       </c>
       <c r="C169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -17625,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="BH169" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="BM169">
         <v>0</v>
@@ -17645,7 +17399,7 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>210186</v>
+        <v>210181</v>
       </c>
       <c r="C170" t="s">
         <v>451</v>
@@ -17665,9 +17419,6 @@
       <c r="Z170">
         <v>0</v>
       </c>
-      <c r="AA170" t="s">
-        <v>453</v>
-      </c>
       <c r="AC170">
         <v>1</v>
       </c>
@@ -17718,6 +17469,9 @@
       </c>
       <c r="BG170">
         <v>0</v>
+      </c>
+      <c r="BH170" t="s">
+        <v>450</v>
       </c>
       <c r="BM170">
         <v>0</v>
@@ -17737,16 +17491,16 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>210187</v>
+        <v>210182</v>
       </c>
       <c r="C171" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -17809,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="BH171" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="BM171">
         <v>0</v>
@@ -17829,7 +17583,7 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>210188</v>
+        <v>210183</v>
       </c>
       <c r="C172" t="s">
         <v>456</v>
@@ -17852,6 +17606,12 @@
       <c r="AC172">
         <v>1</v>
       </c>
+      <c r="AG172" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH172">
+        <v>0.35</v>
+      </c>
       <c r="AI172">
         <v>0</v>
       </c>
@@ -17867,6 +17627,9 @@
       <c r="AM172">
         <v>0</v>
       </c>
+      <c r="AN172">
+        <v>0.35</v>
+      </c>
       <c r="AS172">
         <v>0</v>
       </c>
@@ -17899,6 +17662,9 @@
       </c>
       <c r="BG172">
         <v>0</v>
+      </c>
+      <c r="BH172" t="s">
+        <v>455</v>
       </c>
       <c r="BM172">
         <v>0</v>
@@ -17918,7 +17684,7 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>210189</v>
+        <v>210184</v>
       </c>
       <c r="C173" t="s">
         <v>458</v>
@@ -17941,12 +17707,6 @@
       <c r="AC173">
         <v>1</v>
       </c>
-      <c r="AG173" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH173">
-        <v>0.6</v>
-      </c>
       <c r="AI173">
         <v>0</v>
       </c>
@@ -17962,9 +17722,6 @@
       <c r="AM173">
         <v>0</v>
       </c>
-      <c r="AN173">
-        <v>0.6</v>
-      </c>
       <c r="AS173">
         <v>0</v>
       </c>
@@ -17999,7 +17756,7 @@
         <v>0</v>
       </c>
       <c r="BH173" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BM173">
         <v>0</v>
@@ -18019,16 +17776,16 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>210190</v>
+        <v>210185</v>
       </c>
       <c r="C174" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18042,12 +17799,6 @@
       <c r="AC174">
         <v>1</v>
       </c>
-      <c r="AG174" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH174">
-        <v>1</v>
-      </c>
       <c r="AI174">
         <v>0</v>
       </c>
@@ -18063,9 +17814,6 @@
       <c r="AM174">
         <v>0</v>
       </c>
-      <c r="AN174">
-        <v>1</v>
-      </c>
       <c r="AS174">
         <v>0</v>
       </c>
@@ -18100,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="BH174" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18120,16 +17868,16 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>210191</v>
+        <v>210186</v>
       </c>
       <c r="C175" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18139,6 +17887,9 @@
       </c>
       <c r="Z175">
         <v>0</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>464</v>
       </c>
       <c r="AC175">
         <v>1</v>
@@ -18190,9 +17941,6 @@
       </c>
       <c r="BG175">
         <v>0</v>
-      </c>
-      <c r="BH175" t="s">
-        <v>460</v>
       </c>
       <c r="BM175">
         <v>0</v>
@@ -18212,16 +17960,16 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>210192</v>
+        <v>210187</v>
       </c>
       <c r="C176" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -18235,12 +17983,6 @@
       <c r="AC176">
         <v>1</v>
       </c>
-      <c r="AG176" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH176">
-        <v>0.3</v>
-      </c>
       <c r="AI176">
         <v>0</v>
       </c>
@@ -18256,9 +17998,6 @@
       <c r="AM176">
         <v>0</v>
       </c>
-      <c r="AN176">
-        <v>0.3</v>
-      </c>
       <c r="AS176">
         <v>0</v>
       </c>
@@ -18293,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="BH176" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18313,16 +18052,16 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>210193</v>
+        <v>210188</v>
       </c>
       <c r="C177" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -18383,9 +18122,6 @@
       </c>
       <c r="BG177">
         <v>0</v>
-      </c>
-      <c r="BH177" t="s">
-        <v>460</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18405,16 +18141,16 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>210194</v>
+        <v>210189</v>
       </c>
       <c r="C178" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D178" t="s">
         <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -18428,6 +18164,12 @@
       <c r="AC178">
         <v>1</v>
       </c>
+      <c r="AG178" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH178">
+        <v>0.6</v>
+      </c>
       <c r="AI178">
         <v>0</v>
       </c>
@@ -18443,6 +18185,9 @@
       <c r="AM178">
         <v>0</v>
       </c>
+      <c r="AN178">
+        <v>0.6</v>
+      </c>
       <c r="AS178">
         <v>0</v>
       </c>
@@ -18477,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="BH178" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -18497,7 +18242,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>210195</v>
+        <v>210190</v>
       </c>
       <c r="C179" t="s">
         <v>472</v>
@@ -18520,6 +18265,12 @@
       <c r="AC179">
         <v>1</v>
       </c>
+      <c r="AG179" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH179">
+        <v>1</v>
+      </c>
       <c r="AI179">
         <v>0</v>
       </c>
@@ -18535,6 +18286,9 @@
       <c r="AM179">
         <v>0</v>
       </c>
+      <c r="AN179">
+        <v>1</v>
+      </c>
       <c r="AS179">
         <v>0</v>
       </c>
@@ -18567,6 +18321,9 @@
       </c>
       <c r="BG179">
         <v>0</v>
+      </c>
+      <c r="BH179" t="s">
+        <v>471</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -18586,16 +18343,16 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>210196</v>
+        <v>210191</v>
       </c>
       <c r="C180" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -18656,6 +18413,9 @@
       </c>
       <c r="BG180">
         <v>0</v>
+      </c>
+      <c r="BH180" t="s">
+        <v>471</v>
       </c>
       <c r="BM180">
         <v>0</v>
@@ -18675,16 +18435,16 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>210197</v>
+        <v>210192</v>
       </c>
       <c r="C181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
       </c>
       <c r="G181" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -18698,6 +18458,12 @@
       <c r="AC181">
         <v>1</v>
       </c>
+      <c r="AG181" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH181">
+        <v>0.3</v>
+      </c>
       <c r="AI181">
         <v>0</v>
       </c>
@@ -18713,6 +18479,9 @@
       <c r="AM181">
         <v>0</v>
       </c>
+      <c r="AN181">
+        <v>0.3</v>
+      </c>
       <c r="AS181">
         <v>0</v>
       </c>
@@ -18747,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="BH181" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="BM181">
         <v>0</v>
@@ -18767,7 +18536,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>210198</v>
+        <v>210193</v>
       </c>
       <c r="C182" t="s">
         <v>479</v>
@@ -18839,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="BH182" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="BM182">
         <v>0</v>
@@ -18859,7 +18628,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>210199</v>
+        <v>210194</v>
       </c>
       <c r="C183" t="s">
         <v>481</v>
@@ -18931,7 +18700,7 @@
         <v>0</v>
       </c>
       <c r="BH183" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -18951,7 +18720,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>210200</v>
+        <v>210195</v>
       </c>
       <c r="C184" t="s">
         <v>483</v>
@@ -19040,7 +18809,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>210201</v>
+        <v>210196</v>
       </c>
       <c r="C185" t="s">
         <v>485</v>
@@ -19110,9 +18879,6 @@
       </c>
       <c r="BG185">
         <v>0</v>
-      </c>
-      <c r="BH185" t="s">
-        <v>487</v>
       </c>
       <c r="BM185">
         <v>0</v>
@@ -19132,16 +18898,16 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>210202</v>
+        <v>210197</v>
       </c>
       <c r="C186" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D186" t="s">
         <v>73</v>
       </c>
       <c r="G186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -19155,12 +18921,6 @@
       <c r="AC186">
         <v>1</v>
       </c>
-      <c r="AG186" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH186">
-        <v>0.75</v>
-      </c>
       <c r="AI186">
         <v>0</v>
       </c>
@@ -19176,9 +18936,6 @@
       <c r="AM186">
         <v>0</v>
       </c>
-      <c r="AN186">
-        <v>1.25</v>
-      </c>
       <c r="AS186">
         <v>0</v>
       </c>
@@ -19213,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="BH186" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BM186">
         <v>0</v>
@@ -19233,7 +18990,7 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>210203</v>
+        <v>210198</v>
       </c>
       <c r="C187" t="s">
         <v>490</v>
@@ -19256,12 +19013,6 @@
       <c r="AC187">
         <v>1</v>
       </c>
-      <c r="AG187" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH187">
-        <v>1</v>
-      </c>
       <c r="AI187">
         <v>0</v>
       </c>
@@ -19277,9 +19028,6 @@
       <c r="AM187">
         <v>0</v>
       </c>
-      <c r="AN187">
-        <v>1.25</v>
-      </c>
       <c r="AS187">
         <v>0</v>
       </c>
@@ -19314,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="BH187" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BM187">
         <v>0</v>
@@ -19334,7 +19082,7 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>210204</v>
+        <v>210199</v>
       </c>
       <c r="C188" t="s">
         <v>492</v>
@@ -19406,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="BH188" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BM188">
         <v>0</v>
@@ -19426,7 +19174,7 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>210205</v>
+        <v>210200</v>
       </c>
       <c r="C189" t="s">
         <v>494</v>
@@ -19515,7 +19263,7 @@
     </row>
     <row r="190" spans="1:72">
       <c r="A190">
-        <v>210206</v>
+        <v>210201</v>
       </c>
       <c r="C190" t="s">
         <v>496</v>
@@ -19535,9 +19283,6 @@
       <c r="Z190">
         <v>0</v>
       </c>
-      <c r="AA190" t="s">
-        <v>498</v>
-      </c>
       <c r="AC190">
         <v>1</v>
       </c>
@@ -19588,6 +19333,9 @@
       </c>
       <c r="BG190">
         <v>0</v>
+      </c>
+      <c r="BH190" t="s">
+        <v>498</v>
       </c>
       <c r="BM190">
         <v>0</v>
@@ -19607,7 +19355,7 @@
     </row>
     <row r="191" spans="1:72">
       <c r="A191">
-        <v>210207</v>
+        <v>210202</v>
       </c>
       <c r="C191" t="s">
         <v>499</v>
@@ -19631,10 +19379,10 @@
         <v>1</v>
       </c>
       <c r="AG191" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="AH191">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI191">
         <v>0</v>
@@ -19652,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="AN191">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS191">
         <v>0</v>
@@ -19688,7 +19436,7 @@
         <v>0</v>
       </c>
       <c r="BH191" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -19708,7 +19456,7 @@
     </row>
     <row r="192" spans="1:72">
       <c r="A192">
-        <v>210208</v>
+        <v>210203</v>
       </c>
       <c r="C192" t="s">
         <v>501</v>
@@ -19731,6 +19479,12 @@
       <c r="AC192">
         <v>1</v>
       </c>
+      <c r="AG192" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH192">
+        <v>1</v>
+      </c>
       <c r="AI192">
         <v>0</v>
       </c>
@@ -19746,6 +19500,9 @@
       <c r="AM192">
         <v>0</v>
       </c>
+      <c r="AN192">
+        <v>1.25</v>
+      </c>
       <c r="AS192">
         <v>0</v>
       </c>
@@ -19778,6 +19535,9 @@
       </c>
       <c r="BG192">
         <v>0</v>
+      </c>
+      <c r="BH192" t="s">
+        <v>498</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -19797,7 +19557,7 @@
     </row>
     <row r="193" spans="1:72">
       <c r="A193">
-        <v>210209</v>
+        <v>210204</v>
       </c>
       <c r="C193" t="s">
         <v>503</v>
@@ -19867,6 +19627,9 @@
       </c>
       <c r="BG193">
         <v>0</v>
+      </c>
+      <c r="BH193" t="s">
+        <v>498</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -19886,7 +19649,7 @@
     </row>
     <row r="194" spans="1:72">
       <c r="A194">
-        <v>210210</v>
+        <v>210205</v>
       </c>
       <c r="C194" t="s">
         <v>505</v>
@@ -19956,9 +19719,6 @@
       </c>
       <c r="BG194">
         <v>0</v>
-      </c>
-      <c r="BH194" t="s">
-        <v>507</v>
       </c>
       <c r="BM194">
         <v>0</v>
@@ -19978,25 +19738,28 @@
     </row>
     <row r="195" spans="1:72">
       <c r="A195">
-        <v>210211</v>
+        <v>210206</v>
       </c>
       <c r="C195" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
+        <v>508</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195" t="s">
         <v>509</v>
-      </c>
-      <c r="O195">
-        <v>0</v>
-      </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-      <c r="Z195">
-        <v>0</v>
       </c>
       <c r="AC195">
         <v>1</v>
@@ -20048,9 +19811,6 @@
       </c>
       <c r="BG195">
         <v>0</v>
-      </c>
-      <c r="BH195" t="s">
-        <v>507</v>
       </c>
       <c r="BM195">
         <v>0</v>
@@ -20070,7 +19830,7 @@
     </row>
     <row r="196" spans="1:72">
       <c r="A196">
-        <v>210212</v>
+        <v>210207</v>
       </c>
       <c r="C196" t="s">
         <v>510</v>
@@ -20093,6 +19853,12 @@
       <c r="AC196">
         <v>1</v>
       </c>
+      <c r="AG196" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH196">
+        <v>1</v>
+      </c>
       <c r="AI196">
         <v>0</v>
       </c>
@@ -20108,6 +19874,9 @@
       <c r="AM196">
         <v>0</v>
       </c>
+      <c r="AN196">
+        <v>1.2</v>
+      </c>
       <c r="AS196">
         <v>0</v>
       </c>
@@ -20140,6 +19909,9 @@
       </c>
       <c r="BG196">
         <v>0</v>
+      </c>
+      <c r="BH196" t="s">
+        <v>450</v>
       </c>
       <c r="BM196">
         <v>0</v>
@@ -20159,7 +19931,7 @@
     </row>
     <row r="197" spans="1:72">
       <c r="A197">
-        <v>210213</v>
+        <v>210208</v>
       </c>
       <c r="C197" t="s">
         <v>512</v>
@@ -20229,9 +20001,6 @@
       </c>
       <c r="BG197">
         <v>0</v>
-      </c>
-      <c r="BH197" t="s">
-        <v>439</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20251,7 +20020,7 @@
     </row>
     <row r="198" spans="1:72">
       <c r="A198">
-        <v>210214</v>
+        <v>210209</v>
       </c>
       <c r="C198" t="s">
         <v>514</v>
@@ -20340,7 +20109,7 @@
     </row>
     <row r="199" spans="1:72">
       <c r="A199">
-        <v>410519</v>
+        <v>210210</v>
       </c>
       <c r="C199" t="s">
         <v>516</v>
@@ -20410,6 +20179,9 @@
       </c>
       <c r="BG199">
         <v>0</v>
+      </c>
+      <c r="BH199" t="s">
+        <v>518</v>
       </c>
       <c r="BM199">
         <v>0</v>
@@ -20429,16 +20201,16 @@
     </row>
     <row r="200" spans="1:72">
       <c r="A200">
-        <v>1011181</v>
+        <v>210211</v>
       </c>
       <c r="C200" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20501,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="BH200" t="s">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="BM200">
         <v>0</v>
@@ -20521,16 +20293,16 @@
     </row>
     <row r="201" spans="1:72">
       <c r="A201">
-        <v>1011182</v>
+        <v>210212</v>
       </c>
       <c r="C201" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -20591,9 +20363,6 @@
       </c>
       <c r="BG201">
         <v>0</v>
-      </c>
-      <c r="BH201" t="s">
-        <v>85</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -20613,16 +20382,16 @@
     </row>
     <row r="202" spans="1:72">
       <c r="A202">
-        <v>1011183</v>
+        <v>210213</v>
       </c>
       <c r="C202" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -20685,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="BH202" t="s">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="BM202">
         <v>0</v>
@@ -20705,16 +20474,16 @@
     </row>
     <row r="203" spans="1:72">
       <c r="A203">
-        <v>1011184</v>
+        <v>210214</v>
       </c>
       <c r="C203" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -20775,9 +20544,6 @@
       </c>
       <c r="BG203">
         <v>0</v>
-      </c>
-      <c r="BH203" t="s">
-        <v>100</v>
       </c>
       <c r="BM203">
         <v>0</v>
@@ -20797,16 +20563,16 @@
     </row>
     <row r="204" spans="1:72">
       <c r="A204">
-        <v>1011185</v>
+        <v>410519</v>
       </c>
       <c r="C204" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -20886,16 +20652,16 @@
     </row>
     <row r="205" spans="1:72">
       <c r="A205">
-        <v>1011186</v>
+        <v>1011181</v>
       </c>
       <c r="C205" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -20958,7 +20724,7 @@
         <v>0</v>
       </c>
       <c r="BH205" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -20978,16 +20744,16 @@
     </row>
     <row r="206" spans="1:72">
       <c r="A206">
-        <v>1011187</v>
+        <v>1011182</v>
       </c>
       <c r="C206" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21050,7 +20816,7 @@
         <v>0</v>
       </c>
       <c r="BH206" t="s">
-        <v>287</v>
+        <v>112</v>
       </c>
       <c r="BM206">
         <v>0</v>
@@ -21070,16 +20836,16 @@
     </row>
     <row r="207" spans="1:72">
       <c r="A207">
-        <v>1011188</v>
+        <v>1011183</v>
       </c>
       <c r="C207" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21142,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="BH207" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21162,16 +20928,16 @@
     </row>
     <row r="208" spans="1:72">
       <c r="A208">
-        <v>1011189</v>
+        <v>1011184</v>
       </c>
       <c r="C208" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21234,7 +21000,7 @@
         <v>0</v>
       </c>
       <c r="BH208" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="BM208">
         <v>0</v>
@@ -21254,16 +21020,16 @@
     </row>
     <row r="209" spans="1:72">
       <c r="A209">
-        <v>1011190</v>
+        <v>1011185</v>
       </c>
       <c r="C209" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -21273,9 +21039,6 @@
       </c>
       <c r="Z209">
         <v>0</v>
-      </c>
-      <c r="AA209" t="s">
-        <v>538</v>
       </c>
       <c r="AC209">
         <v>1</v>
@@ -21346,7 +21109,7 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>1011191</v>
+        <v>1011186</v>
       </c>
       <c r="C210" t="s">
         <v>539</v>
@@ -21417,6 +21180,9 @@
       <c r="BG210">
         <v>0</v>
       </c>
+      <c r="BH210" t="s">
+        <v>75</v>
+      </c>
       <c r="BM210">
         <v>0</v>
       </c>
@@ -21430,6 +21196,463 @@
         <v>0</v>
       </c>
       <c r="BQ210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:72">
+      <c r="A211">
+        <v>1011187</v>
+      </c>
+      <c r="C211" t="s">
+        <v>541</v>
+      </c>
+      <c r="D211" t="s">
+        <v>73</v>
+      </c>
+      <c r="G211" t="s">
+        <v>542</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>1</v>
+      </c>
+      <c r="AI211">
+        <v>0</v>
+      </c>
+      <c r="AJ211">
+        <v>0</v>
+      </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
+      <c r="AL211">
+        <v>0</v>
+      </c>
+      <c r="AM211">
+        <v>0</v>
+      </c>
+      <c r="AS211">
+        <v>0</v>
+      </c>
+      <c r="AV211">
+        <v>0</v>
+      </c>
+      <c r="AX211">
+        <v>0</v>
+      </c>
+      <c r="AY211">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>0</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
+      <c r="BC211">
+        <v>0</v>
+      </c>
+      <c r="BD211">
+        <v>0</v>
+      </c>
+      <c r="BE211">
+        <v>0</v>
+      </c>
+      <c r="BF211">
+        <v>0</v>
+      </c>
+      <c r="BG211">
+        <v>0</v>
+      </c>
+      <c r="BH211" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM211">
+        <v>0</v>
+      </c>
+      <c r="BN211">
+        <v>0</v>
+      </c>
+      <c r="BO211">
+        <v>0</v>
+      </c>
+      <c r="BP211">
+        <v>0</v>
+      </c>
+      <c r="BQ211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:72">
+      <c r="A212">
+        <v>1011188</v>
+      </c>
+      <c r="C212" t="s">
+        <v>543</v>
+      </c>
+      <c r="D212" t="s">
+        <v>73</v>
+      </c>
+      <c r="G212" t="s">
+        <v>544</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>1</v>
+      </c>
+      <c r="AI212">
+        <v>0</v>
+      </c>
+      <c r="AJ212">
+        <v>0</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+      <c r="AL212">
+        <v>0</v>
+      </c>
+      <c r="AM212">
+        <v>0</v>
+      </c>
+      <c r="AS212">
+        <v>0</v>
+      </c>
+      <c r="AV212">
+        <v>0</v>
+      </c>
+      <c r="AX212">
+        <v>0</v>
+      </c>
+      <c r="AY212">
+        <v>0</v>
+      </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212">
+        <v>0</v>
+      </c>
+      <c r="BC212">
+        <v>0</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>0</v>
+      </c>
+      <c r="BF212">
+        <v>0</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM212">
+        <v>0</v>
+      </c>
+      <c r="BN212">
+        <v>0</v>
+      </c>
+      <c r="BO212">
+        <v>0</v>
+      </c>
+      <c r="BP212">
+        <v>0</v>
+      </c>
+      <c r="BQ212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:72">
+      <c r="A213">
+        <v>1011189</v>
+      </c>
+      <c r="C213" t="s">
+        <v>545</v>
+      </c>
+      <c r="D213" t="s">
+        <v>73</v>
+      </c>
+      <c r="G213" t="s">
+        <v>546</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>1</v>
+      </c>
+      <c r="AI213">
+        <v>0</v>
+      </c>
+      <c r="AJ213">
+        <v>0</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+      <c r="AL213">
+        <v>0</v>
+      </c>
+      <c r="AM213">
+        <v>0</v>
+      </c>
+      <c r="AS213">
+        <v>0</v>
+      </c>
+      <c r="AV213">
+        <v>0</v>
+      </c>
+      <c r="AX213">
+        <v>0</v>
+      </c>
+      <c r="AY213">
+        <v>0</v>
+      </c>
+      <c r="BA213">
+        <v>0</v>
+      </c>
+      <c r="BB213">
+        <v>0</v>
+      </c>
+      <c r="BC213">
+        <v>0</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>0</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM213">
+        <v>0</v>
+      </c>
+      <c r="BN213">
+        <v>0</v>
+      </c>
+      <c r="BO213">
+        <v>0</v>
+      </c>
+      <c r="BP213">
+        <v>0</v>
+      </c>
+      <c r="BQ213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:72">
+      <c r="A214">
+        <v>1011190</v>
+      </c>
+      <c r="C214" t="s">
+        <v>547</v>
+      </c>
+      <c r="D214" t="s">
+        <v>73</v>
+      </c>
+      <c r="G214" t="s">
+        <v>548</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC214">
+        <v>1</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AS214">
+        <v>0</v>
+      </c>
+      <c r="AV214">
+        <v>0</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>0</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>0</v>
+      </c>
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BM214">
+        <v>0</v>
+      </c>
+      <c r="BN214">
+        <v>0</v>
+      </c>
+      <c r="BO214">
+        <v>0</v>
+      </c>
+      <c r="BP214">
+        <v>0</v>
+      </c>
+      <c r="BQ214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:72">
+      <c r="A215">
+        <v>1011191</v>
+      </c>
+      <c r="C215" t="s">
+        <v>550</v>
+      </c>
+      <c r="D215" t="s">
+        <v>73</v>
+      </c>
+      <c r="G215" t="s">
+        <v>551</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>1</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AJ215">
+        <v>0</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>0</v>
+      </c>
+      <c r="AS215">
+        <v>0</v>
+      </c>
+      <c r="AV215">
+        <v>0</v>
+      </c>
+      <c r="AX215">
+        <v>0</v>
+      </c>
+      <c r="AY215">
+        <v>0</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>0</v>
+      </c>
+      <c r="BD215">
+        <v>0</v>
+      </c>
+      <c r="BE215">
+        <v>0</v>
+      </c>
+      <c r="BF215">
+        <v>0</v>
+      </c>
+      <c r="BG215">
+        <v>0</v>
+      </c>
+      <c r="BM215">
+        <v>0</v>
+      </c>
+      <c r="BN215">
+        <v>0</v>
+      </c>
+      <c r="BO215">
+        <v>0</v>
+      </c>
+      <c r="BP215">
+        <v>0</v>
+      </c>
+      <c r="BQ215">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
   <si>
     <t>id</t>
   </si>
@@ -233,36 +233,1416 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Faithless Scripture</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>Scripture that was once apart of The Church has faded in the sands of time and is a facinating read by the faithless.</t>
+  </si>
+  <si>
+    <t>Twisted Dice</t>
+  </si>
+  <si>
+    <t>Dice that you find in the depths of the dungeons. Their rolls and outcome are always twisted to your own delusional desire.</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Bloody Shield</t>
+  </si>
+  <si>
+    <t>A bloody Red Hawk shield that was found on the battle fields.</t>
+  </si>
+  <si>
+    <t>Vile of the ocean</t>
+  </si>
+  <si>
+    <t>A vile containing the water of the ocean that surrounds the lands. An ocean deeper then any ever known to any man, beast or otherwise.</t>
+  </si>
+  <si>
+    <t>Strand of golden hair</t>
+  </si>
+  <si>
+    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
+  </si>
+  <si>
+    <t>Papers of Ascension</t>
+  </si>
+  <si>
+    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
+  </si>
+  <si>
+    <t>Silver Red Hawk Badge</t>
+  </si>
+  <si>
+    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
+  </si>
+  <si>
+    <t>Brothers Chipped Sword</t>
+  </si>
+  <si>
+    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
+  </si>
+  <si>
+    <t>Musty Childs Teddy bare</t>
+  </si>
+  <si>
+    <t>A musty old child's teddy bare that Trix once carried when he watched the Ascension.</t>
+  </si>
+  <si>
+    <t>Black and Silver Ever Living Rose</t>
+  </si>
+  <si>
+    <t>A magical rose that was found growing by the spot where the Ascension took place.</t>
+  </si>
+  <si>
+    <t>Emerald Chipped Ring</t>
+  </si>
+  <si>
+    <t>A chipped emerald ring that you found at the Grave Diggers brothers grave. It is a sign you are on the right path.</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Shattered Mace of The Holy</t>
+  </si>
+  <si>
+    <t>This broken mace was once used by the holy warriors of The Church.</t>
+  </si>
+  <si>
+    <t>Vile of Twisted Laughter</t>
+  </si>
+  <si>
+    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
+  </si>
+  <si>
+    <t>Vile of Sensual Perfume</t>
+  </si>
+  <si>
+    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Book</t>
+  </si>
+  <si>
+    <t>Grants the ability to craft weapons better.</t>
+  </si>
+  <si>
+    <t>Weapon Crafting</t>
+  </si>
+  <si>
+    <t>Spell Weaving Book</t>
+  </si>
+  <si>
+    <t>Makes spell crafting slightly easier.</t>
+  </si>
+  <si>
+    <t>Spell Crafting</t>
+  </si>
+  <si>
+    <t>Flask Of Fresh Air</t>
+  </si>
+  <si>
+    <t>Allows you to walk on water.</t>
+  </si>
+  <si>
+    <t>walk-on-water</t>
+  </si>
+  <si>
+    <t>Blacksmith's Book</t>
+  </si>
+  <si>
+    <t>Makes crafting armour better.</t>
+  </si>
+  <si>
+    <t>Armour Crafting</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Book</t>
+  </si>
+  <si>
+    <t>Makes ring crafting slightly easier.</t>
+  </si>
+  <si>
+    <t>Ring Crafting</t>
+  </si>
+  <si>
+    <t>Enchanter's Book</t>
+  </si>
+  <si>
+    <t>Allows you to enchant easily.</t>
+  </si>
+  <si>
+    <t>Enchanting</t>
+  </si>
+  <si>
+    <t>Key of the Labyrinth</t>
+  </si>
+  <si>
+    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
+  </si>
+  <si>
+    <t>labyrinth</t>
+  </si>
+  <si>
+    <t>River Styx Sandals</t>
+  </si>
+  <si>
+    <t>Walk across water made to kill you.</t>
+  </si>
+  <si>
+    <t>walk-on-death-water</t>
+  </si>
+  <si>
+    <t>Life's Flail</t>
+  </si>
+  <si>
+    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
+  </si>
+  <si>
+    <t>shadow-plane</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Now you can see child, you can see deep into the darkness. Let it illuminate your way child.</t>
+  </si>
+  <si>
+    <t>dungeon</t>
+  </si>
+  <si>
+    <t>Dungeon Map</t>
+  </si>
+  <si>
+    <t>It is said that this map is the way to the fabled dungeon plane. Give this item to the Dungeon Master for the torch, with out the torch you will be lost.</t>
+  </si>
+  <si>
+    <t>Dungeon Ink</t>
+  </si>
+  <si>
+    <t>Used in the creation of a dungeon map, it is said this ink has mystical properties.</t>
+  </si>
+  <si>
+    <t>Enchantress' Diary</t>
+  </si>
+  <si>
+    <t>Reading through her diary, it's clear she was a master enchantress. All her notes are here for you, child. Read them.</t>
+  </si>
+  <si>
+    <t>Mage's Tome</t>
+  </si>
+  <si>
+    <t>With this tome you can better craft the spells you need to take down your enemies.</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Master Book</t>
+  </si>
+  <si>
+    <t>The weaponsmiths have all come together and compiled a list of instructions on being proficient at creating weapons.</t>
+  </si>
+  <si>
+    <t>Blacksmith's Master Recipes</t>
+  </si>
+  <si>
+    <t>Ever wanted to create better armour? Have a better chance at crafting it? Here ya go! These notes are compiled from the masters of their craft: Blacksmiths.</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Master Book</t>
+  </si>
+  <si>
+    <t>The masters of the old days have jotted down their notes and now you too can craft powerful rings.</t>
+  </si>
+  <si>
+    <t>Alchemist Tools</t>
+  </si>
+  <si>
+    <t>Speak to the appropriate quest quiver to turn this item in and unlock the Alchemy Skill.</t>
+  </si>
+  <si>
+    <t>Crystal Eye Glass</t>
+  </si>
+  <si>
+    <t>With this, you can use the /pct chat command as opposed to just /pc when hunting Celestial Entities. /pct will teleport you to the plane and location of the entity, free of charge with a 10 second timeout before you can move again.</t>
+  </si>
+  <si>
+    <t>teleport-to-celestial</t>
+  </si>
+  <si>
+    <t>Alchemist Book</t>
+  </si>
+  <si>
+    <t>Makes the crafting of alchemical items easier. (See Skill Modifiers below)</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Disenchanter's Magnifying Glass</t>
+  </si>
+  <si>
+    <t>Increase Disenchanting XP and Skill bonus by 45%. Used automatically.</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>Creepy Baby Doll</t>
+  </si>
+  <si>
+    <t>Makes your affixes irresistible to the enemy. (None of your affixes will be resisted).</t>
+  </si>
+  <si>
+    <t>affixes-irresistible</t>
+  </si>
+  <si>
+    <t>Shadow Plane Grimoire</t>
+  </si>
+  <si>
+    <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 30% chance to devoid an enemy. See below for the Devouring Information. You can also check the Help Docs for Voidance and Devoidance under the Character Information section.</t>
+  </si>
+  <si>
+    <t>Eye of the Beholder</t>
+  </si>
+  <si>
+    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy. Check the Devouring info below, or the Help Docs for Voidance and Devoidance under the Character Information section.</t>
+  </si>
+  <si>
+    <t>Dead King's Crown</t>
+  </si>
+  <si>
+    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
+  </si>
+  <si>
+    <t>Leather Sash</t>
+  </si>
+  <si>
+    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
+  </si>
+  <si>
+    <t>Sash of the Heavens</t>
+  </si>
+  <si>
+    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
+  </si>
+  <si>
+    <t>continue-leveling</t>
+  </si>
+  <si>
+    <t>Grain of sand</t>
+  </si>
+  <si>
+    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
+  </si>
+  <si>
+    <t>gold-dust-rush</t>
+  </si>
+  <si>
+    <t>Golden Wand of Gold</t>
+  </si>
+  <si>
+    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms. It's limited by plane, so you must switch planes to embezzle from that plane. All you have to do is go to your kingdoms tab, click on a kingdom, and you will see the new Mass Embezzle option!</t>
+  </si>
+  <si>
+    <t>mass-embezzle</t>
+  </si>
+  <si>
+    <t>Goblins Jewels</t>
+  </si>
+  <si>
+    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
+  </si>
+  <si>
+    <t>Satan's Mask</t>
+  </si>
+  <si>
+    <t>Satan once wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him, he dropped his mask on the ground before turning to stone.</t>
+  </si>
+  <si>
+    <t>Prison Key</t>
+  </si>
+  <si>
+    <t>This key does not unlock any particular prison on any particular plane. But Hells Gate Keeper might have an answer</t>
+  </si>
+  <si>
+    <t>Demonic Leather Boots</t>
+  </si>
+  <si>
+    <t>Lets you walk on magma in hell.</t>
+  </si>
+  <si>
+    <t>walk-on-magma</t>
+  </si>
+  <si>
+    <t>Second prison key</t>
+  </si>
+  <si>
+    <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
+    <t>Purse of Copper Coins</t>
+  </si>
+  <si>
+    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
+  </si>
+  <si>
+    <t>Dead Fiend's Hide</t>
+  </si>
+  <si>
+    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
+  </si>
+  <si>
+    <t>Book of the Dead Souls</t>
+  </si>
+  <si>
+    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
+  </si>
+  <si>
+    <t>Purgatory's Lantern</t>
+  </si>
+  <si>
+    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
+  </si>
+  <si>
+    <t>purgatory</t>
+  </si>
+  <si>
+    <t>Purse of Shards and Dust</t>
+  </si>
+  <si>
+    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
+  </si>
+  <si>
+    <t>Bag of Child's Bones</t>
+  </si>
+  <si>
+    <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
+  </si>
+  <si>
+    <t>Kingmanship</t>
+  </si>
+  <si>
+    <t>Bone Chalice of Animal Blood</t>
+  </si>
+  <si>
+    <t>This item can be given to the Dungeon master for something you might need.</t>
+  </si>
+  <si>
+    <t>Criticality</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Mirror of the Queen</t>
+  </si>
+  <si>
+    <t>Looking into this mirror causes you to hear the beating of a heart.</t>
+  </si>
+  <si>
+    <t>Bag of Dice</t>
+  </si>
+  <si>
+    <t>A bag of dice, what could this have to do with anything?</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Bag of Chance</t>
+  </si>
+  <si>
+    <t>With this item, you can talk to the Queen of Hearts and reroll and purchase randomly generated affixes as well as move these affixes from one item to the next for a price of course.</t>
+  </si>
+  <si>
+    <t>speak-to-queen-of-hearts</t>
+  </si>
+  <si>
+    <t>Satan's Heart</t>
+  </si>
+  <si>
+    <t>Allows access to Hell.</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>Mark of Hell</t>
+  </si>
+  <si>
+    <t>Give this item to the Shade Lord on Shadow Plane, he will then give you access to Hell.</t>
+  </si>
+  <si>
+    <t>Broken Copper Coin</t>
+  </si>
+  <si>
+    <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
+  </si>
+  <si>
+    <t>Scroll of Prayer</t>
+  </si>
+  <si>
+    <t>Give this item to the Dungeon master, along with a copper coin and he will give you Satans Mark.</t>
+  </si>
+  <si>
+    <t>Satan's Hide</t>
+  </si>
+  <si>
+    <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
+  </si>
+  <si>
+    <t>Satanic Sigil</t>
+  </si>
+  <si>
+    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
+  </si>
+  <si>
+    <t>Bottle of Fire Demon Essence</t>
+  </si>
+  <si>
+    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
+  </si>
+  <si>
+    <t>Flaming Coin</t>
+  </si>
+  <si>
+    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
+  </si>
+  <si>
+    <t>Shadow Ink</t>
+  </si>
+  <si>
+    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
+  </si>
+  <si>
+    <t>Flaming Sword of Ascension</t>
+  </si>
+  <si>
+    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
+  </si>
+  <si>
+    <t>Candle Stick of Hope</t>
+  </si>
+  <si>
+    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
+  </si>
+  <si>
+    <t>Holy Wax</t>
+  </si>
+  <si>
+    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
+  </si>
+  <si>
+    <t>Burnt Wick</t>
+  </si>
+  <si>
+    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
+  </si>
+  <si>
+    <t>Bishop's Enchanted Scroll</t>
+  </si>
+  <si>
+    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
+  </si>
+  <si>
+    <t>Enchanted Candlestick of Light</t>
+  </si>
+  <si>
+    <t>Gain even more experience per fight with this specially enchanted candle!</t>
+  </si>
+  <si>
+    <t>Holy Enchanted Oil</t>
+  </si>
+  <si>
+    <t>Apply this oil to an enchanted candle and watch it become even more powerful. I think the Candle Maker can help you out here.</t>
+  </si>
+  <si>
+    <t>Blessed Enchanted Candle Stick</t>
+  </si>
+  <si>
+    <t>Now that the candle is blessed and enchanted, you should feel more hopeful child!</t>
+  </si>
+  <si>
+    <t>Simple Candlestick</t>
+  </si>
+  <si>
+    <t>Can you see in the darkness, child?</t>
+  </si>
+  <si>
+    <t>Pillar Candle of the Church</t>
+  </si>
+  <si>
+    <t>Light this specially imbued and enchanted candle to gain even more XP per fight!</t>
+  </si>
+  <si>
+    <t>Essence of Rage</t>
+  </si>
+  <si>
+    <t>With this quest item you will gain 50 points per kill in the faction of the map you are currently on.</t>
+  </si>
+  <si>
+    <t>effects-faction-points</t>
+  </si>
+  <si>
+    <t>Book of Currencies</t>
+  </si>
+  <si>
+    <t>This book details the various currencies in Tlessa, which is useful for those looking to learn more about the currencies. If not, Hells Accountant might want this.</t>
+  </si>
+  <si>
+    <t>Treaty of the Smith</t>
+  </si>
+  <si>
+    <t>I am surprised you found this. Long ago, when the doors too Purgatory opened and The Creator walked forward, he left behind his friend: The Smith of Purgatory. The treaty stated that as long as The Creator walked the land the smith could not come into being, for their would be no peace across the land if he did.</t>
+  </si>
+  <si>
+    <t>Magician's Enchanted Copper Coin</t>
+  </si>
+  <si>
+    <t>This rare enchanted copper coin has the magical marking of The Creator, which means it must be a key to the Smith himself. Quick, child! Find the Treaty!</t>
+  </si>
+  <si>
+    <t>The Creator's Last Copper Coin</t>
+  </si>
+  <si>
+    <t>You should not have this, child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
+  </si>
+  <si>
+    <t>get-copper-coins</t>
+  </si>
+  <si>
+    <t>Musty old Church Records</t>
+  </si>
+  <si>
+    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
+  </si>
+  <si>
+    <t>Alchemically Enchanted Holy Candle</t>
+  </si>
+  <si>
+    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
+  </si>
+  <si>
+    <t>Dried up Enchanted Holy Ink</t>
+  </si>
+  <si>
+    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
+  </si>
+  <si>
+    <t>Fanatic's Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick, child. I think...</t>
+  </si>
+  <si>
+    <t>Corrupted Candle of the Church</t>
+  </si>
+  <si>
+    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
+  </si>
+  <si>
+    <t>Purgatory Smith's House Key</t>
+  </si>
+  <si>
+    <t>Lets you enter the house of the purgatory smith.</t>
+  </si>
+  <si>
+    <t>Smith's Hammer</t>
+  </si>
+  <si>
+    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Smith's Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these would be found on the surface. First his hammer is in Dungeons and now some of his components are on the surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Broken Smith's Anvil</t>
+  </si>
+  <si>
+    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smith's tools across the various planes. Was it The Creator?</t>
+  </si>
+  <si>
+    <t>Smith's Dying Ember</t>
+  </si>
+  <si>
+    <t>Satan's cage holds a lot of interesting things to say the least, however why is the Smith's Dying Ember here? Something smells off, child.</t>
+  </si>
+  <si>
+    <t>Candle of the Smith</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smith and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Vial of Water from the well of the Smith</t>
+  </si>
+  <si>
+    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
+  </si>
+  <si>
+    <t>Purgatory's Cursed Candle</t>
+  </si>
+  <si>
+    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
+  </si>
+  <si>
+    <t>Bag of Transformation</t>
+  </si>
+  <si>
+    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
+  </si>
+  <si>
+    <t>Heart of the Eye</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Tome of the Winds</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>King's Book of Hope</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>Feathers of the sky</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>Book of speed</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragon's Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>The Wizard's Enchantment</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
+  </si>
+  <si>
+    <t>Arrow of Truth</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Goddess Bow of Light</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>The Book of Guidance</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
+  </si>
+  <si>
+    <t>Settler's Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>King's Scepter</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>King's Ring</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
+  </si>
+  <si>
+    <t>Alchemist Scrolls</t>
+  </si>
+  <si>
+    <t>A powerful set of scroll to help those who seek to learn even more about the Alchemical arts. (See Skill Modifiers below)</t>
+  </si>
+  <si>
+    <t>Mage's Teleport Scroll</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>Goblin's Quickening Rune</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>Golden Ring of Blur</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
+  </si>
+  <si>
+    <t>Simple Candle Stick</t>
+  </si>
+  <si>
+    <t>Can you see in the darkness child?</t>
+  </si>
+  <si>
+    <t>Purgatory Smiths House Key</t>
+  </si>
+  <si>
+    <t>Something lies in the basement of the house of the Purgatory Smith. Something lies in the cracks of the stone in the basement, a green glowing light that was once thought of as forever lost.</t>
+  </si>
+  <si>
+    <t>enter-purgatory-house</t>
+  </si>
+  <si>
+    <t>Fanatics Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
+  </si>
+  <si>
+    <t>The Creators Last Copper Coin</t>
+  </si>
+  <si>
+    <t>You should not have this child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
+  </si>
+  <si>
+    <t>Settlers Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragons Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Candle of the Smithy</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Smithies Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Enchantresses Diary</t>
+  </si>
+  <si>
+    <t>Reading through her diary, its clear she was a master enchantress. All her notes are here for you child. Read them.</t>
+  </si>
+  <si>
+    <t>Broken Trinket</t>
+  </si>
+  <si>
+    <t>A simple broken trinket. You have heard about these from sources around the world. Maybe someone is looking for this?</t>
+  </si>
+  <si>
+    <t>Book of Tactics</t>
+  </si>
+  <si>
+    <t>They say there is away to get upper hand on the enemy. This book might hold the key. But who would help you get more info out it?</t>
+  </si>
+  <si>
+    <t>Shades book of stories</t>
+  </si>
+  <si>
+    <t>A book on the subject of crafting trinkets. Should make things a bit easier</t>
+  </si>
+  <si>
+    <t>Trinketry</t>
+  </si>
+  <si>
+    <t>Rusted Trinket Tools</t>
+  </si>
+  <si>
+    <t>A set of old and rusted trinket tools that might be able to polished up.</t>
+  </si>
+  <si>
+    <t>Polished Trinket Tools</t>
+  </si>
+  <si>
+    <t>Polished by the shadows and given to you for your service. Now you should find trinketry a little easier.</t>
+  </si>
+  <si>
+    <t>The Beating Heart</t>
+  </si>
+  <si>
+    <t>The heart of purgatory, bloody and still beating. Who would want such a gross item?</t>
+  </si>
+  <si>
+    <t>Lock of hair</t>
+  </si>
+  <si>
+    <t>A lock of hair from the Child of Shade. It might help you with trinketry.</t>
+  </si>
+  <si>
+    <t>Soiled Night Gown</t>
+  </si>
+  <si>
+    <t>Tattered and soiled. This night gown reminds you of a painful story.</t>
+  </si>
+  <si>
+    <t>Locket of the Church</t>
+  </si>
+  <si>
+    <t>A simple locket given to you by the Child of Shade. Let this give your trinketry a boost.</t>
+  </si>
+  <si>
+    <t>Book of Faith</t>
+  </si>
+  <si>
+    <t>A simple book full of fables and stories of ones faith.</t>
+  </si>
+  <si>
+    <t>Ring of Faith</t>
+  </si>
+  <si>
+    <t>A simple ring of ones faith.</t>
+  </si>
+  <si>
+    <t>Cloth of the invisible</t>
+  </si>
+  <si>
+    <t>A simple piece of cloth that sometimes goes invisible.</t>
+  </si>
+  <si>
+    <t>Cloak of Invisibility</t>
+  </si>
+  <si>
+    <t>A cloak you can wear so your enemies cannot find you. This item will hide your location in chat.</t>
+  </si>
+  <si>
+    <t>hide-chat-location</t>
+  </si>
+  <si>
+    <t>Stories of The Children</t>
+  </si>
+  <si>
+    <t>This book contains the story's of the children of the church. Maybe the candle maker wants this for something?</t>
+  </si>
+  <si>
+    <t>Scroll of the Children</t>
+  </si>
+  <si>
+    <t>This scroll holds secrets the Candle Maker is looking for.</t>
+  </si>
+  <si>
+    <t>Small Black Carved Box</t>
+  </si>
+  <si>
+    <t>A small black carved wooden box that contains the screams and pain of those the magic was used on.</t>
+  </si>
+  <si>
+    <t>Missing Scroll Piece</t>
+  </si>
+  <si>
+    <t>This is a missing piece of a scroll for The Candle Maker</t>
+  </si>
+  <si>
+    <t>Research Papers on Flight</t>
+  </si>
+  <si>
+    <t>papers about the research on flight. Some one is looking for these papers.</t>
+  </si>
+  <si>
+    <t>Kalitore Ore</t>
+  </si>
+  <si>
+    <t>A mysterious ore from the depths of the Dungeons of Valifore. It was said this ore was mined to provide power to the airships.</t>
+  </si>
+  <si>
+    <t>Chemists Tools</t>
+  </si>
+  <si>
+    <t>Used by chemists for their old world science research.</t>
+  </si>
+  <si>
+    <t>Chemist Journal</t>
+  </si>
+  <si>
+    <t>A journal that holds the key to the old world science the chemists were once known for practicing.</t>
+  </si>
+  <si>
+    <t>Bullet Casings and Bullets</t>
+  </si>
+  <si>
+    <t>Old tech for the old world. Someone is looking for these.</t>
+  </si>
+  <si>
+    <t>Papers of Flight</t>
+  </si>
+  <si>
+    <t>A set of papers that describe the flight of airships. Someone in hell must want these for some research purposes.</t>
+  </si>
+  <si>
+    <t>Airship Blueprints</t>
+  </si>
+  <si>
+    <t>Blueprints that layout how to build airships for ones kingdoms.</t>
+  </si>
+  <si>
+    <t>Soul Gem of Galith</t>
+  </si>
+  <si>
+    <t>Used in the ancient magic of Rebirth.</t>
+  </si>
+  <si>
+    <t>Judges Helm</t>
+  </si>
+  <si>
+    <t>Back when there was a set of entities known as Judges these were the helms they would wear. Formidable look is what it gave them.</t>
+  </si>
+  <si>
+    <t>Judges Cards</t>
+  </si>
+  <si>
+    <t>A set of cards that the Judges of the past would use to apply the law of the land in an instant.</t>
+  </si>
+  <si>
+    <t>Stolen Coin</t>
+  </si>
+  <si>
+    <t>A simple single coin, that was stolen from a merchant. Did it spark the war?</t>
+  </si>
+  <si>
+    <t>Smugglers Coin</t>
+  </si>
+  <si>
+    <t>Smugglers Coin is an old coin that was once found by The Poet on The Soldier when he first arrived. Now The Soldier hands you the coin.</t>
+  </si>
+  <si>
+    <t>Pirates Lost Key</t>
+  </si>
+  <si>
+    <t>This was once used to open an old vault that was once under Smugglers Port. The key no longer works as the entire vault was demolished long ago.</t>
+  </si>
+  <si>
+    <t>Corrupted Bracelet</t>
+  </si>
+  <si>
+    <t>A corrupted bracelet that eminates dark magic.</t>
+  </si>
+  <si>
+    <t>Shade Dust</t>
+  </si>
+  <si>
+    <t>Dust dropped by the shadows of The Creator. A bit of the past is trapped in this bottle. A bit of the pain, misery and sense of self loathing emanates through you as you hold it.</t>
+  </si>
+  <si>
+    <t>Scholars Necklace</t>
+  </si>
+  <si>
+    <t>Stolen by a cultist from the Scholar of Hell, he might be happy to have this back.</t>
+  </si>
+  <si>
+    <t>The Quartermasters Severed Head</t>
+  </si>
+  <si>
+    <t>You hack, slash and sever the head of the corpse. The blood drains quickly from the head as you place it into the sack.</t>
+  </si>
+  <si>
+    <t>Merchants Walking Stick</t>
+  </si>
+  <si>
+    <t>The Wandering Merchant seems to have lost his walking stick. Will this help guide you back to him?</t>
+  </si>
+  <si>
+    <t>Simple Gem Necklace</t>
+  </si>
+  <si>
+    <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
+  </si>
+  <si>
+    <t>Lost Tome Of Spells</t>
+  </si>
+  <si>
+    <t>A lost tome The Witch was looking for.</t>
+  </si>
+  <si>
+    <t>Clean White Feather</t>
+  </si>
+  <si>
+    <t>A single clean white feather the Dungeon Master is searching for.</t>
+  </si>
+  <si>
+    <t>Ratty Toy Bear</t>
+  </si>
+  <si>
+    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
+  </si>
+  <si>
+    <t>Queens Lost Bracelet</t>
+  </si>
+  <si>
+    <t>The Queen has lost her bracelet here at this weird looking metal wreck. Why it's called a wreck you have no idea. But she lost it here.</t>
+  </si>
+  <si>
+    <t>The Frozen Wreck</t>
+  </si>
+  <si>
+    <t>Wedding Ring</t>
+  </si>
+  <si>
+    <t>A simple diamond wedding ring</t>
+  </si>
+  <si>
+    <t>Christmas Ornament</t>
+  </si>
+  <si>
+    <t>A single shiny silver object that hangs from the tree. What does it symbolize?</t>
+  </si>
+  <si>
+    <t>Abandoned Village</t>
+  </si>
+  <si>
+    <t>Snow balls</t>
+  </si>
+  <si>
+    <t>Round and fluffy, they are fun to throw at people.</t>
+  </si>
+  <si>
+    <t>Coal and Carrot</t>
+  </si>
+  <si>
+    <t>A carrot and two pieces of coal. What are we doing with this?</t>
+  </si>
+  <si>
+    <t>Top Hat and Scarf</t>
+  </si>
+  <si>
+    <t>Who would ware these? They seem so ugly.</t>
+  </si>
+  <si>
+    <t>Ice Skates</t>
+  </si>
+  <si>
+    <t>Should make walking on the ice easier.</t>
+  </si>
+  <si>
+    <t>walk-on-ice</t>
+  </si>
+  <si>
+    <t>Busted Pocket Watch</t>
+  </si>
+  <si>
+    <t>A busted pocket watch stuck on a time from long ago.</t>
+  </si>
+  <si>
+    <t>Queens Coin</t>
+  </si>
+  <si>
+    <t>The a simple coin for the queen - the currency of The Queen</t>
+  </si>
+  <si>
+    <t>Broken Knife</t>
+  </si>
+  <si>
+    <t>A broken knife found in the bank on the ground. What is the story here?</t>
+  </si>
+  <si>
+    <t>Frozen Queens Bank</t>
+  </si>
+  <si>
+    <t>Frozen Cat Toy</t>
+  </si>
+  <si>
+    <t>Mr. Whiskers does love his cat toys.</t>
+  </si>
+  <si>
+    <t>Looting</t>
+  </si>
+  <si>
+    <t>Candy Cane</t>
+  </si>
+  <si>
+    <t>A delicious looking red and white striped cane looking candy treat.</t>
+  </si>
+  <si>
+    <t>Catnip</t>
+  </si>
+  <si>
+    <t>Mr. Whiskers might like this. it's common fact that all cats are drug addicts.</t>
+  </si>
+  <si>
+    <t>Christmas Card</t>
+  </si>
+  <si>
+    <t>A Christmas card that reads: "We are sorry for your loss, but do know that Mr. Whiskers has moved on to a better place. He is beyond the rainbow and is playing and waiting for you to one day, far into the future, when you are old and lived a long and happy life, join him."</t>
+  </si>
+  <si>
+    <t>Gift Wrapped Ashes</t>
+  </si>
+  <si>
+    <t>A gift wrap box of ashes, examining the box it states: Mr. Whiskers - Goose. Why is it gift wrapped? That's so depressing.</t>
+  </si>
+  <si>
+    <t>The Queens Diary</t>
+  </si>
+  <si>
+    <t>The diary of the queen. No matter how hard you try, the book will not open. The back of the book has a name inscribed: The Poet.</t>
+  </si>
+  <si>
+    <t>The Key To Home</t>
+  </si>
+  <si>
+    <t>The key to The Fathers Tomb.</t>
+  </si>
+  <si>
+    <t>Bloody Shirt</t>
+  </si>
+  <si>
+    <t>A basic shirt covered in blood.</t>
+  </si>
+  <si>
+    <t>Broken Forest Road</t>
+  </si>
+  <si>
+    <t>The Child's Journal</t>
+  </si>
+  <si>
+    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
+  </si>
+  <si>
+    <t>The Soldiers Journal</t>
+  </si>
+  <si>
+    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
+  </si>
+  <si>
+    <t>Bloody Snowball</t>
+  </si>
+  <si>
+    <t>Blood stained snowball, a child's broken memory.</t>
+  </si>
+  <si>
+    <t>Pages of the holy book</t>
+  </si>
+  <si>
+    <t>pages that detail the scripture of The Churches holy book</t>
+  </si>
+  <si>
+    <t>Bloody Snowman</t>
+  </si>
+  <si>
+    <t>Box of Memories</t>
+  </si>
+  <si>
+    <t>A child's toy that lights up and shows a story as it spins</t>
+  </si>
+  <si>
+    <t>Child's Drawings</t>
+  </si>
+  <si>
+    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
+  </si>
+  <si>
+    <t>Red Hawks Sword</t>
+  </si>
+  <si>
+    <t>A Red Hawk Sword used in the attack on The Church</t>
+  </si>
+  <si>
+    <t>The Letter</t>
+  </si>
+  <si>
+    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
+  </si>
+  <si>
+    <t>Ice Queens Treaty Scrolls</t>
+  </si>
+  <si>
+    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
+  </si>
+  <si>
+    <t>settle-on-the-ice-plane</t>
+  </si>
+  <si>
+    <t>Ice Shard of Memories</t>
+  </si>
+  <si>
+    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
+  </si>
+  <si>
+    <t>Bottle of Frozen Tears</t>
+  </si>
+  <si>
+    <t>The tears of a child that have been frozen in time.</t>
+  </si>
+  <si>
+    <t>Ice Stave of Hope</t>
+  </si>
+  <si>
+    <t>A stave made of ice that holds the last hope of a grieving mother</t>
+  </si>
+  <si>
+    <t>Wilted Frozen Rose</t>
+  </si>
+  <si>
+    <t>A single rose placed upon the tombstone of a child.</t>
+  </si>
+  <si>
+    <t>The Old Church</t>
+  </si>
+  <si>
+    <t>Love Letter</t>
+  </si>
+  <si>
+    <t>A love letter written by The Child to his then lover.</t>
+  </si>
+  <si>
+    <t>The Poets Walking Stick</t>
+  </si>
+  <si>
+    <t>A simple walking stick used by The Poet</t>
+  </si>
+  <si>
+    <t>Rusted Keys</t>
+  </si>
+  <si>
+    <t>A set of keys that once made the frozen wreck move.</t>
+  </si>
+  <si>
+    <t>Husbands Wallet</t>
+  </si>
+  <si>
+    <t>A wallet covered in blood with a single picture of The Creators father</t>
+  </si>
+  <si>
+    <t>Christmas Tree Light Bulb</t>
+  </si>
+  <si>
+    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
+  </si>
+  <si>
     <t>Emerald Necklace</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
   </si>
   <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
     <t>Slaves Journal</t>
   </si>
   <si>
     <t>A journal that details the work the slaves had to do in the mines.</t>
   </si>
   <si>
-    <t>Delusional Abandoned Gold Mines</t>
-  </si>
-  <si>
     <t>Dwarven Chains</t>
   </si>
   <si>
     <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
   </si>
   <si>
-    <t>Federation Controlled Town</t>
-  </si>
-  <si>
     <t>Broken Childs Doll</t>
   </si>
   <si>
@@ -275,9 +1655,6 @@
     <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
   </si>
   <si>
-    <t>Federation City</t>
-  </si>
-  <si>
     <t>Federation Broach</t>
   </si>
   <si>
@@ -305,1402 +1682,16 @@
     <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
   </si>
   <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
     <t>Scholars Glasses</t>
   </si>
   <si>
     <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
   </si>
   <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
     <t>Lover of the queens charred bones</t>
   </si>
   <si>
     <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
-  </si>
-  <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
-    <t>Vile of Twisted Laughter</t>
-  </si>
-  <si>
-    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
-  </si>
-  <si>
-    <t>Old Silver Flask</t>
-  </si>
-  <si>
-    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
-  </si>
-  <si>
-    <t>Small wooden cross</t>
-  </si>
-  <si>
-    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
-  </si>
-  <si>
-    <t>Ashes of the shade</t>
-  </si>
-  <si>
-    <t>Ashes that the Child of Shade holds on to. Why?</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>The princes ring</t>
-  </si>
-  <si>
-    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Bottle of missery</t>
-  </si>
-  <si>
-    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Shattered Emerald</t>
-  </si>
-  <si>
-    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
-  </si>
-  <si>
-    <t>Torn map of another land</t>
-  </si>
-  <si>
-    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
-  </si>
-  <si>
-    <t>Tear of the shade</t>
-  </si>
-  <si>
-    <t>A single tear from The Shadoe Lord.</t>
-  </si>
-  <si>
-    <t>Faceless Robe</t>
-  </si>
-  <si>
-    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Vile of Sensual Perfume</t>
-  </si>
-  <si>
-    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
-  </si>
-  <si>
-    <t>Broken Hand Mirror</t>
-  </si>
-  <si>
-    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
-  </si>
-  <si>
-    <t>Faithless Scripture</t>
-  </si>
-  <si>
-    <t>Scripture that was once apart of The Church has faded in the sands of time and is a facinating read by the faithless.</t>
-  </si>
-  <si>
-    <t>Shattered Mace of The Holy</t>
-  </si>
-  <si>
-    <t>This broken mace was once used by the holy warriors of The Church.</t>
-  </si>
-  <si>
-    <t>Weaponsmith's Book</t>
-  </si>
-  <si>
-    <t>Grants the ability to craft weapons better.</t>
-  </si>
-  <si>
-    <t>Weapon Crafting</t>
-  </si>
-  <si>
-    <t>Spell Weaving Book</t>
-  </si>
-  <si>
-    <t>Makes spell crafting slightly easier.</t>
-  </si>
-  <si>
-    <t>Spell Crafting</t>
-  </si>
-  <si>
-    <t>Flask Of Fresh Air</t>
-  </si>
-  <si>
-    <t>Allows you to walk on water.</t>
-  </si>
-  <si>
-    <t>walk-on-water</t>
-  </si>
-  <si>
-    <t>Blacksmith's Book</t>
-  </si>
-  <si>
-    <t>Makes crafting armour better.</t>
-  </si>
-  <si>
-    <t>Armour Crafting</t>
-  </si>
-  <si>
-    <t>Ring Crafter's Book</t>
-  </si>
-  <si>
-    <t>Makes ring crafting slightly easier.</t>
-  </si>
-  <si>
-    <t>Ring Crafting</t>
-  </si>
-  <si>
-    <t>Enchanter's Book</t>
-  </si>
-  <si>
-    <t>Allows you to enchant easily.</t>
-  </si>
-  <si>
-    <t>Enchanting</t>
-  </si>
-  <si>
-    <t>Key of the Labyrinth</t>
-  </si>
-  <si>
-    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
-  </si>
-  <si>
-    <t>labyrinth</t>
-  </si>
-  <si>
-    <t>River Styx Sandals</t>
-  </si>
-  <si>
-    <t>Walk across water made to kill you.</t>
-  </si>
-  <si>
-    <t>walk-on-death-water</t>
-  </si>
-  <si>
-    <t>Life's Flail</t>
-  </si>
-  <si>
-    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
-  </si>
-  <si>
-    <t>shadow-plane</t>
-  </si>
-  <si>
-    <t>Torch</t>
-  </si>
-  <si>
-    <t>Now you can see child, you can see deep into the darkness. Let it illuminate your way child.</t>
-  </si>
-  <si>
-    <t>dungeon</t>
-  </si>
-  <si>
-    <t>Dungeon Map</t>
-  </si>
-  <si>
-    <t>It is said that this map is the way to the fabled dungeon plane. Give this item to the Dungeon Master for the torch, with out the torch you will be lost.</t>
-  </si>
-  <si>
-    <t>Dungeon Ink</t>
-  </si>
-  <si>
-    <t>Used in the creation of a dungeon map, it is said this ink has mystical properties.</t>
-  </si>
-  <si>
-    <t>Enchantress' Diary</t>
-  </si>
-  <si>
-    <t>Reading through her diary, it's clear she was a master enchantress. All her notes are here for you, child. Read them.</t>
-  </si>
-  <si>
-    <t>Mage's Tome</t>
-  </si>
-  <si>
-    <t>With this tome you can better craft the spells you need to take down your enemies.</t>
-  </si>
-  <si>
-    <t>Weaponsmith's Master Book</t>
-  </si>
-  <si>
-    <t>The weaponsmiths have all come together and compiled a list of instructions on being proficient at creating weapons.</t>
-  </si>
-  <si>
-    <t>Blacksmith's Master Recipes</t>
-  </si>
-  <si>
-    <t>Ever wanted to create better armour? Have a better chance at crafting it? Here ya go! These notes are compiled from the masters of their craft: Blacksmiths.</t>
-  </si>
-  <si>
-    <t>Ring Crafter's Master Book</t>
-  </si>
-  <si>
-    <t>The masters of the old days have jotted down their notes and now you too can craft powerful rings.</t>
-  </si>
-  <si>
-    <t>Alchemist Tools</t>
-  </si>
-  <si>
-    <t>Speak to the appropriate quest quiver to turn this item in and unlock the Alchemy Skill.</t>
-  </si>
-  <si>
-    <t>Crystal Eye Glass</t>
-  </si>
-  <si>
-    <t>With this, you can use the /pct chat command as opposed to just /pc when hunting Celestial Entities. /pct will teleport you to the plane and location of the entity, free of charge with a 10 second timeout before you can move again.</t>
-  </si>
-  <si>
-    <t>teleport-to-celestial</t>
-  </si>
-  <si>
-    <t>Alchemist Book</t>
-  </si>
-  <si>
-    <t>Makes the crafting of alchemical items easier. (See Skill Modifiers below)</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
-  </si>
-  <si>
-    <t>Disenchanter's Magnifying Glass</t>
-  </si>
-  <si>
-    <t>Increase Disenchanting XP and Skill bonus by 45%. Used automatically.</t>
-  </si>
-  <si>
-    <t>Disenchanting</t>
-  </si>
-  <si>
-    <t>Creepy Baby Doll</t>
-  </si>
-  <si>
-    <t>Makes your affixes irresistible to the enemy. (None of your affixes will be resisted).</t>
-  </si>
-  <si>
-    <t>affixes-irresistible</t>
-  </si>
-  <si>
-    <t>Shadow Plane Grimoire</t>
-  </si>
-  <si>
-    <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 30% chance to devoid an enemy. See below for the Devouring Information. You can also check the Help Docs for Voidance and Devoidance under the Character Information section.</t>
-  </si>
-  <si>
-    <t>Eye of the Beholder</t>
-  </si>
-  <si>
-    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy. Check the Devouring info below, or the Help Docs for Voidance and Devoidance under the Character Information section.</t>
-  </si>
-  <si>
-    <t>Dead King's Crown</t>
-  </si>
-  <si>
-    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
-  </si>
-  <si>
-    <t>Leather Sash</t>
-  </si>
-  <si>
-    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
-  </si>
-  <si>
-    <t>Sash of the Heavens</t>
-  </si>
-  <si>
-    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
-  </si>
-  <si>
-    <t>continue-leveling</t>
-  </si>
-  <si>
-    <t>Grain of sand</t>
-  </si>
-  <si>
-    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
-  </si>
-  <si>
-    <t>gold-dust-rush</t>
-  </si>
-  <si>
-    <t>Golden Wand of Gold</t>
-  </si>
-  <si>
-    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms. It's limited by plane, so you must switch planes to embezzle from that plane. All you have to do is go to your kingdoms tab, click on a kingdom, and you will see the new Mass Embezzle option!</t>
-  </si>
-  <si>
-    <t>mass-embezzle</t>
-  </si>
-  <si>
-    <t>Goblins Jewels</t>
-  </si>
-  <si>
-    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
-  </si>
-  <si>
-    <t>Satan's Mask</t>
-  </si>
-  <si>
-    <t>Satan once wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him, he dropped his mask on the ground before turning to stone.</t>
-  </si>
-  <si>
-    <t>Prison Key</t>
-  </si>
-  <si>
-    <t>This key does not unlock any particular prison on any particular plane. But Hells Gate Keeper might have an answer</t>
-  </si>
-  <si>
-    <t>Demonic Leather Boots</t>
-  </si>
-  <si>
-    <t>Lets you walk on magma in hell.</t>
-  </si>
-  <si>
-    <t>walk-on-magma</t>
-  </si>
-  <si>
-    <t>Second prison key</t>
-  </si>
-  <si>
-    <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
-  </si>
-  <si>
-    <t>Purse of Copper Coins</t>
-  </si>
-  <si>
-    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
-  </si>
-  <si>
-    <t>Dead Fiend's Hide</t>
-  </si>
-  <si>
-    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
-  </si>
-  <si>
-    <t>Book of the Dead Souls</t>
-  </si>
-  <si>
-    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
-  </si>
-  <si>
-    <t>Purgatory's Lantern</t>
-  </si>
-  <si>
-    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
-  </si>
-  <si>
-    <t>purgatory</t>
-  </si>
-  <si>
-    <t>Purse of Shards and Dust</t>
-  </si>
-  <si>
-    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
-  </si>
-  <si>
-    <t>Bag of Child's Bones</t>
-  </si>
-  <si>
-    <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
-  </si>
-  <si>
-    <t>Kingmanship</t>
-  </si>
-  <si>
-    <t>Bone Chalice of Animal Blood</t>
-  </si>
-  <si>
-    <t>This item can be given to the Dungeon master for something you might need.</t>
-  </si>
-  <si>
-    <t>Criticality</t>
-  </si>
-  <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Mirror of the Queen</t>
-  </si>
-  <si>
-    <t>Looking into this mirror causes you to hear the beating of a heart.</t>
-  </si>
-  <si>
-    <t>Bag of Dice</t>
-  </si>
-  <si>
-    <t>A bag of dice, what could this have to do with anything?</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Bag of Chance</t>
-  </si>
-  <si>
-    <t>With this item, you can talk to the Queen of Hearts and reroll and purchase randomly generated affixes as well as move these affixes from one item to the next for a price of course.</t>
-  </si>
-  <si>
-    <t>speak-to-queen-of-hearts</t>
-  </si>
-  <si>
-    <t>Satan's Heart</t>
-  </si>
-  <si>
-    <t>Allows access to Hell.</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>Mark of Hell</t>
-  </si>
-  <si>
-    <t>Give this item to the Shade Lord on Shadow Plane, he will then give you access to Hell.</t>
-  </si>
-  <si>
-    <t>Broken Copper Coin</t>
-  </si>
-  <si>
-    <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
-  </si>
-  <si>
-    <t>Scroll of Prayer</t>
-  </si>
-  <si>
-    <t>Give this item to the Dungeon master, along with a copper coin and he will give you Satans Mark.</t>
-  </si>
-  <si>
-    <t>Satan's Hide</t>
-  </si>
-  <si>
-    <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
-  </si>
-  <si>
-    <t>Satanic Sigil</t>
-  </si>
-  <si>
-    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
-  </si>
-  <si>
-    <t>Bottle of Fire Demon Essence</t>
-  </si>
-  <si>
-    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
-  </si>
-  <si>
-    <t>Flaming Coin</t>
-  </si>
-  <si>
-    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
-  </si>
-  <si>
-    <t>Shadow Ink</t>
-  </si>
-  <si>
-    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
-  </si>
-  <si>
-    <t>Flaming Sword of Ascension</t>
-  </si>
-  <si>
-    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
-  </si>
-  <si>
-    <t>Candle Stick of Hope</t>
-  </si>
-  <si>
-    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
-  </si>
-  <si>
-    <t>Holy Wax</t>
-  </si>
-  <si>
-    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
-  </si>
-  <si>
-    <t>Burnt Wick</t>
-  </si>
-  <si>
-    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
-  </si>
-  <si>
-    <t>Bishop's Enchanted Scroll</t>
-  </si>
-  <si>
-    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
-  </si>
-  <si>
-    <t>Enchanted Candlestick of Light</t>
-  </si>
-  <si>
-    <t>Gain even more experience per fight with this specially enchanted candle!</t>
-  </si>
-  <si>
-    <t>Holy Enchanted Oil</t>
-  </si>
-  <si>
-    <t>Apply this oil to an enchanted candle and watch it become even more powerful. I think the Candle Maker can help you out here.</t>
-  </si>
-  <si>
-    <t>Blessed Enchanted Candle Stick</t>
-  </si>
-  <si>
-    <t>Now that the candle is blessed and enchanted, you should feel more hopeful child!</t>
-  </si>
-  <si>
-    <t>Simple Candlestick</t>
-  </si>
-  <si>
-    <t>Can you see in the darkness, child?</t>
-  </si>
-  <si>
-    <t>Pillar Candle of the Church</t>
-  </si>
-  <si>
-    <t>Light this specially imbued and enchanted candle to gain even more XP per fight!</t>
-  </si>
-  <si>
-    <t>Essence of Rage</t>
-  </si>
-  <si>
-    <t>Rage at the enemy. For each enemy you kill starting at Level 1 of the faction will give you 10 points per kill as opposed to 2 points. (from level 0-1 you only get 1 point).</t>
-  </si>
-  <si>
-    <t>effects-faction-points</t>
-  </si>
-  <si>
-    <t>Book of Currencies</t>
-  </si>
-  <si>
-    <t>This book details the various currencies in Tlessa, which is useful for those looking to learn more about the currencies. If not, Hells Accountant might want this.</t>
-  </si>
-  <si>
-    <t>Treaty of the Smith</t>
-  </si>
-  <si>
-    <t>I am surprised you found this. Long ago, when the doors too Purgatory opened and The Creator walked forward, he left behind his friend: The Smith of Purgatory. The treaty stated that as long as The Creator walked the land the smith could not come into being, for their would be no peace across the land if he did.</t>
-  </si>
-  <si>
-    <t>Magician's Enchanted Copper Coin</t>
-  </si>
-  <si>
-    <t>This rare enchanted copper coin has the magical marking of The Creator, which means it must be a key to the Smith himself. Quick, child! Find the Treaty!</t>
-  </si>
-  <si>
-    <t>The Creator's Last Copper Coin</t>
-  </si>
-  <si>
-    <t>You should not have this, child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
-  </si>
-  <si>
-    <t>get-copper-coins</t>
-  </si>
-  <si>
-    <t>Musty old Church Records</t>
-  </si>
-  <si>
-    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
-  </si>
-  <si>
-    <t>Alchemically Enchanted Holy Candle</t>
-  </si>
-  <si>
-    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
-  </si>
-  <si>
-    <t>Dried up Enchanted Holy Ink</t>
-  </si>
-  <si>
-    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
-  </si>
-  <si>
-    <t>Fanatic's Candle of Despair</t>
-  </si>
-  <si>
-    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick, child. I think...</t>
-  </si>
-  <si>
-    <t>Corrupted Candle of the Church</t>
-  </si>
-  <si>
-    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
-  </si>
-  <si>
-    <t>Purgatory Smith's House Key</t>
-  </si>
-  <si>
-    <t>Lets you enter the house of the purgatory smith.</t>
-  </si>
-  <si>
-    <t>Smith's Hammer</t>
-  </si>
-  <si>
-    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
-  </si>
-  <si>
-    <t>Smith's Iron Chunks</t>
-  </si>
-  <si>
-    <t>Funny that these would be found on the surface. First his hammer is in Dungeons and now some of his components are on the surface. What is happening?</t>
-  </si>
-  <si>
-    <t>Broken Smith's Anvil</t>
-  </si>
-  <si>
-    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smith's tools across the various planes. Was it The Creator?</t>
-  </si>
-  <si>
-    <t>Smith's Dying Ember</t>
-  </si>
-  <si>
-    <t>Satan's cage holds a lot of interesting things to say the least, however why is the Smith's Dying Ember here? Something smells off, child.</t>
-  </si>
-  <si>
-    <t>Candle of the Smith</t>
-  </si>
-  <si>
-    <t>This unique looking candle has some enchanted engravings on it... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smith and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
-  </si>
-  <si>
-    <t>Vial of Water from the well of the Smith</t>
-  </si>
-  <si>
-    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
-  </si>
-  <si>
-    <t>Purgatory's Cursed Candle</t>
-  </si>
-  <si>
-    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
-  </si>
-  <si>
-    <t>Bag of Transformation</t>
-  </si>
-  <si>
-    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
-  </si>
-  <si>
-    <t>Heart of the Eye</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
-  </si>
-  <si>
-    <t>Tome of the Winds</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>King's Book of Hope</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>Feathers of the sky</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Quick Feet</t>
-  </si>
-  <si>
-    <t>Book of speed</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Sky Dragon's Blood Vial</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>The Wizard's Enchantment</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
-  </si>
-  <si>
-    <t>Arrow of Truth</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Goddess Bow of Light</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
-  </si>
-  <si>
-    <t>The Book of Guidance</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
-  </si>
-  <si>
-    <t>Settler's Walking Stick</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>King's Scepter</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>King's Ring</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
-  </si>
-  <si>
-    <t>Alchemist Scrolls</t>
-  </si>
-  <si>
-    <t>A powerful set of scroll to help those who seek to learn even more about the Alchemical arts. (See Skill Modifiers below)</t>
-  </si>
-  <si>
-    <t>Mage's Teleport Scroll</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>Goblin's Quickening Rune</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>Golden Ring of Blur</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
-  </si>
-  <si>
-    <t>Simple Candle Stick</t>
-  </si>
-  <si>
-    <t>Can you see in the darkness child?</t>
-  </si>
-  <si>
-    <t>Purgatory Smiths House Key</t>
-  </si>
-  <si>
-    <t>Something lies in the basement of the house of the Purgatory Smith. Something lies in the cracks of the stone in the basement, a green glowing light that was once thought of as forever lost.</t>
-  </si>
-  <si>
-    <t>enter-purgatory-house</t>
-  </si>
-  <si>
-    <t>Fanatics Candle of Despair</t>
-  </si>
-  <si>
-    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
-  </si>
-  <si>
-    <t>The Creators Last Copper Coin</t>
-  </si>
-  <si>
-    <t>You should not have this child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
-  </si>
-  <si>
-    <t>Settlers Walking Stick</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Sky Dragons Blood Vial</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Candle of the Smithy</t>
-  </si>
-  <si>
-    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
-  </si>
-  <si>
-    <t>Smithies Iron Chunks</t>
-  </si>
-  <si>
-    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
-  </si>
-  <si>
-    <t>Enchantresses Diary</t>
-  </si>
-  <si>
-    <t>Reading through her diary, its clear she was a master enchantress. All her notes are here for you child. Read them.</t>
-  </si>
-  <si>
-    <t>Broken Trinket</t>
-  </si>
-  <si>
-    <t>A simple broken trinket. You have heard about these from sources around the world. Maybe someone is looking for this?</t>
-  </si>
-  <si>
-    <t>Book of Tactics</t>
-  </si>
-  <si>
-    <t>They say there is away to get upper hand on the enemy. This book might hold the key. But who would help you get more info out it?</t>
-  </si>
-  <si>
-    <t>Shades book of stories</t>
-  </si>
-  <si>
-    <t>A book on the subject of crafting trinkets. Should make things a bit easier</t>
-  </si>
-  <si>
-    <t>Trinketry</t>
-  </si>
-  <si>
-    <t>Rusted Trinket Tools</t>
-  </si>
-  <si>
-    <t>A set of old and rusted trinket tools that might be able to polished up.</t>
-  </si>
-  <si>
-    <t>Polished Trinket Tools</t>
-  </si>
-  <si>
-    <t>Polished by the shadows and given to you for your service. Now you should find trinketry a little easier.</t>
-  </si>
-  <si>
-    <t>The Beating Heart</t>
-  </si>
-  <si>
-    <t>The heart of purgatory, bloody and still beating. Who would want such a gross item?</t>
-  </si>
-  <si>
-    <t>Lock of hair</t>
-  </si>
-  <si>
-    <t>A lock of hair from the Child of Shade. It might help you with trinketry.</t>
-  </si>
-  <si>
-    <t>Soiled Night Gown</t>
-  </si>
-  <si>
-    <t>Tattered and soiled. This night gown reminds you of a painful story.</t>
-  </si>
-  <si>
-    <t>Locket of the Church</t>
-  </si>
-  <si>
-    <t>A simple locket given to you by the Child of Shade. Let this give your trinketry a boost.</t>
-  </si>
-  <si>
-    <t>Book of Faith</t>
-  </si>
-  <si>
-    <t>A simple book full of fables and stories of ones faith.</t>
-  </si>
-  <si>
-    <t>Ring of Faith</t>
-  </si>
-  <si>
-    <t>A simple ring of ones faith.</t>
-  </si>
-  <si>
-    <t>Cloth of the invisible</t>
-  </si>
-  <si>
-    <t>A simple piece of cloth that sometimes goes invisible.</t>
-  </si>
-  <si>
-    <t>Cloak of Invisibility</t>
-  </si>
-  <si>
-    <t>A cloak you can wear so your enemies cannot find you. This item will hide your location in chat.</t>
-  </si>
-  <si>
-    <t>hide-chat-location</t>
-  </si>
-  <si>
-    <t>Stories of The Children</t>
-  </si>
-  <si>
-    <t>This book contains the story's of the children of the church. Maybe the candle maker wants this for something?</t>
-  </si>
-  <si>
-    <t>Scroll of the Children</t>
-  </si>
-  <si>
-    <t>This scroll holds secrets the Candle Maker is looking for.</t>
-  </si>
-  <si>
-    <t>Small Black Carved Box</t>
-  </si>
-  <si>
-    <t>A small black carved wooden box that contains the screams and pain of those the magic was used on.</t>
-  </si>
-  <si>
-    <t>Missing Scroll Piece</t>
-  </si>
-  <si>
-    <t>This is a missing piece of a scroll for The Candle Maker</t>
-  </si>
-  <si>
-    <t>Research Papers on Flight</t>
-  </si>
-  <si>
-    <t>papers about the research on flight. Some one is looking for these papers.</t>
-  </si>
-  <si>
-    <t>Kalitore Ore</t>
-  </si>
-  <si>
-    <t>A mysterious ore from the depths of the Dungeons of Valifore. It was said this ore was mined to provide power to the airships.</t>
-  </si>
-  <si>
-    <t>Chemists Tools</t>
-  </si>
-  <si>
-    <t>Used by chemists for their old world science research.</t>
-  </si>
-  <si>
-    <t>Chemist Journal</t>
-  </si>
-  <si>
-    <t>A journal that holds the key to the old world science the chemists were once known for practicing.</t>
-  </si>
-  <si>
-    <t>Bullet Casings and Bullets</t>
-  </si>
-  <si>
-    <t>Old tech for the old world. Someone is looking for these.</t>
-  </si>
-  <si>
-    <t>Papers of Flight</t>
-  </si>
-  <si>
-    <t>A set of papers that describe the flight of airships. Someone in hell must want these for some research purposes.</t>
-  </si>
-  <si>
-    <t>Airship Blueprints</t>
-  </si>
-  <si>
-    <t>Blueprints that layout how to build airships for ones kingdoms.</t>
-  </si>
-  <si>
-    <t>Soul Gem of Galith</t>
-  </si>
-  <si>
-    <t>Used in the ancient magic of Rebirth.</t>
-  </si>
-  <si>
-    <t>Judges Helm</t>
-  </si>
-  <si>
-    <t>Back when there was a set of entities known as Judges these were the helms they would wear. Formidable look is what it gave them.</t>
-  </si>
-  <si>
-    <t>Judges Cards</t>
-  </si>
-  <si>
-    <t>A set of cards that the Judges of the past would use to apply the law of the land in an instant.</t>
-  </si>
-  <si>
-    <t>Stolen Coin</t>
-  </si>
-  <si>
-    <t>A simple single coin, that was stolen from a merchant. Did it spark the war?</t>
-  </si>
-  <si>
-    <t>Smugglers Coin</t>
-  </si>
-  <si>
-    <t>Smugglers Coin is an old coin that was once found by The Poet on The Soldier when he first arrived. Now The Soldier hands you the coin.</t>
-  </si>
-  <si>
-    <t>Pirates Lost Key</t>
-  </si>
-  <si>
-    <t>This was once used to open an old vault that was once under Smugglers Port. The key no longer works as the entire vault was demolished long ago.</t>
-  </si>
-  <si>
-    <t>Corrupted Bracelet</t>
-  </si>
-  <si>
-    <t>A corrupted bracelet that eminates dark magic.</t>
-  </si>
-  <si>
-    <t>Shade Dust</t>
-  </si>
-  <si>
-    <t>Dust dropped by the shadows of The Creator. A bit of the past is trapped in this bottle. A bit of the pain, misery and sense of self loathing emanates through you as you hold it.</t>
-  </si>
-  <si>
-    <t>Scholars Necklace</t>
-  </si>
-  <si>
-    <t>Stolen by a cultist from the Scholar of Hell, he might be happy to have this back.</t>
-  </si>
-  <si>
-    <t>The Quartermasters Severed Head</t>
-  </si>
-  <si>
-    <t>You hack, slash and sever the head of the corpse. The blood drains quickly from the head as you place it into the sack.</t>
-  </si>
-  <si>
-    <t>Merchants Walking Stick</t>
-  </si>
-  <si>
-    <t>The Wandering Merchant seems to have lost his walking stick. Will this help guide you back to him?</t>
-  </si>
-  <si>
-    <t>Simple Gem Necklace</t>
-  </si>
-  <si>
-    <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
-  </si>
-  <si>
-    <t>Lost Tome Of Spells</t>
-  </si>
-  <si>
-    <t>A lost tome The Witch was looking for.</t>
-  </si>
-  <si>
-    <t>Clean White Feather</t>
-  </si>
-  <si>
-    <t>A single clean white feather the Dungeon Master is searching for.</t>
-  </si>
-  <si>
-    <t>Ratty Toy Bear</t>
-  </si>
-  <si>
-    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
-  </si>
-  <si>
-    <t>Queens Lost Bracelet</t>
-  </si>
-  <si>
-    <t>The Queen has lost her bracelet here at this weird looking metal wreck. Why it's called a wreck you have no idea. But she lost it here.</t>
-  </si>
-  <si>
-    <t>The Frozen Wreck</t>
-  </si>
-  <si>
-    <t>Wedding Ring</t>
-  </si>
-  <si>
-    <t>A simple diamond wedding ring</t>
-  </si>
-  <si>
-    <t>Christmas Ornament</t>
-  </si>
-  <si>
-    <t>A single shiny silver object that hangs from the tree. What does it symbolize?</t>
-  </si>
-  <si>
-    <t>Abandoned Village</t>
-  </si>
-  <si>
-    <t>Snow balls</t>
-  </si>
-  <si>
-    <t>Round and fluffy, they are fun to throw at people.</t>
-  </si>
-  <si>
-    <t>Coal and Carrot</t>
-  </si>
-  <si>
-    <t>A carrot and two pieces of coal. What are we doing with this?</t>
-  </si>
-  <si>
-    <t>Top Hat and Scarf</t>
-  </si>
-  <si>
-    <t>Who would ware these? They seem so ugly.</t>
-  </si>
-  <si>
-    <t>Ice Skates</t>
-  </si>
-  <si>
-    <t>Should make walking on the ice easier.</t>
-  </si>
-  <si>
-    <t>walk-on-ice</t>
-  </si>
-  <si>
-    <t>Busted Pocket Watch</t>
-  </si>
-  <si>
-    <t>A busted pocket watch stuck on a time from long ago.</t>
-  </si>
-  <si>
-    <t>Queens Coin</t>
-  </si>
-  <si>
-    <t>The a simple coin for the queen - the currency of The Queen</t>
-  </si>
-  <si>
-    <t>Broken Knife</t>
-  </si>
-  <si>
-    <t>A broken knife found in the bank on the ground. What is the story here?</t>
-  </si>
-  <si>
-    <t>Frozen Queens Bank</t>
-  </si>
-  <si>
-    <t>Frozen Cat Toy</t>
-  </si>
-  <si>
-    <t>Mr. Whiskers does love his cat toys.</t>
-  </si>
-  <si>
-    <t>Looting</t>
-  </si>
-  <si>
-    <t>Candy Cane</t>
-  </si>
-  <si>
-    <t>A delicious looking red and white striped cane looking candy treat.</t>
-  </si>
-  <si>
-    <t>Catnip</t>
-  </si>
-  <si>
-    <t>Mr. Whiskers might like this. it's common fact that all cats are drug addicts.</t>
-  </si>
-  <si>
-    <t>Christmas Card</t>
-  </si>
-  <si>
-    <t>A Christmas card that reads: "We are sorry for your loss, but do know that Mr. Whiskers has moved on to a better place. He is beyond the rainbow and is playing and waiting for you to one day, far into the future, when you are old and lived a long and happy life, join him."</t>
-  </si>
-  <si>
-    <t>Gift Wrapped Ashes</t>
-  </si>
-  <si>
-    <t>A gift wrap box of ashes, examining the box it states: Mr. Whiskers - Goose. Why is it gift wrapped? That's so depressing.</t>
-  </si>
-  <si>
-    <t>The Queens Diary</t>
-  </si>
-  <si>
-    <t>The diary of the queen. No matter how hard you try, the book will not open. The back of the book has a name inscribed: The Poet.</t>
-  </si>
-  <si>
-    <t>The Key To Home</t>
-  </si>
-  <si>
-    <t>The key to The Fathers Tomb.</t>
-  </si>
-  <si>
-    <t>Bloody Shirt</t>
-  </si>
-  <si>
-    <t>A basic shirt covered in blood.</t>
-  </si>
-  <si>
-    <t>Broken Forest Road</t>
-  </si>
-  <si>
-    <t>The Child's Journal</t>
-  </si>
-  <si>
-    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
-  </si>
-  <si>
-    <t>The Soldiers Journal</t>
-  </si>
-  <si>
-    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
-  </si>
-  <si>
-    <t>Bloody Snowball</t>
-  </si>
-  <si>
-    <t>Blood stained snowball, a child's broken memory.</t>
-  </si>
-  <si>
-    <t>Pages of the holy book</t>
-  </si>
-  <si>
-    <t>pages that detail the scripture of The Churches holy book</t>
-  </si>
-  <si>
-    <t>Bloody Snowman</t>
-  </si>
-  <si>
-    <t>Box of Memories</t>
-  </si>
-  <si>
-    <t>A child's toy that lights up and shows a story as it spins</t>
-  </si>
-  <si>
-    <t>Child's Drawings</t>
-  </si>
-  <si>
-    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
-  </si>
-  <si>
-    <t>Red Hawks Sword</t>
-  </si>
-  <si>
-    <t>A Red Hawk Sword used in the attack on The Church</t>
-  </si>
-  <si>
-    <t>The Letter</t>
-  </si>
-  <si>
-    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
-  </si>
-  <si>
-    <t>Ice Queens Treaty Scrolls</t>
-  </si>
-  <si>
-    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
-  </si>
-  <si>
-    <t>settle-on-the-ice-plane</t>
-  </si>
-  <si>
-    <t>Ice Shard of Memories</t>
-  </si>
-  <si>
-    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
-  </si>
-  <si>
-    <t>Bottle of Frozen Tears</t>
-  </si>
-  <si>
-    <t>The tears of a child that have been frozen in time.</t>
-  </si>
-  <si>
-    <t>Ice Stave of Hope</t>
-  </si>
-  <si>
-    <t>A stave made of ice that holds the last hope of a grieving mother</t>
-  </si>
-  <si>
-    <t>Wilted Frozen Rose</t>
-  </si>
-  <si>
-    <t>A single rose placed upon the tombstone of a child.</t>
-  </si>
-  <si>
-    <t>The Old Church</t>
-  </si>
-  <si>
-    <t>Love Letter</t>
-  </si>
-  <si>
-    <t>A love letter written by The Child to his then lover.</t>
-  </si>
-  <si>
-    <t>The Poets Walking Stick</t>
-  </si>
-  <si>
-    <t>A simple walking stick used by The Poet</t>
-  </si>
-  <si>
-    <t>Rusted Keys</t>
-  </si>
-  <si>
-    <t>A set of keys that once made the frozen wreck move.</t>
-  </si>
-  <si>
-    <t>Husbands Wallet</t>
-  </si>
-  <si>
-    <t>A wallet covered in blood with a single picture of The Creators father</t>
-  </si>
-  <si>
-    <t>Christmas Tree Light Bulb</t>
-  </si>
-  <si>
-    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Emerald Chipped Ring</t>
-  </si>
-  <si>
-    <t>A chipped emerald ring that you found at the Grave Diggers brothers grave. It is a sign you are on the right path.</t>
-  </si>
-  <si>
-    <t>Black and Silver Ever Living Rose</t>
-  </si>
-  <si>
-    <t>A magical rose that was found growing by the spot where the Ascension took place.</t>
-  </si>
-  <si>
-    <t>Musty Childs Teddy bare</t>
-  </si>
-  <si>
-    <t>A musty old child's teddy bare that Trix once carried when he watched the Ascension.</t>
-  </si>
-  <si>
-    <t>Brothers Chipped Sword</t>
-  </si>
-  <si>
-    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
-  </si>
-  <si>
-    <t>Silver Red Hawk Badge</t>
-  </si>
-  <si>
-    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
-  </si>
-  <si>
-    <t>Papers of Ascension</t>
-  </si>
-  <si>
-    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
-  </si>
-  <si>
-    <t>Strand of golden hair</t>
-  </si>
-  <si>
-    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
-  </si>
-  <si>
-    <t>Vile of the ocean</t>
-  </si>
-  <si>
-    <t>A vile containing the water of the ocean that surrounds the lands. An ocean deeper then any ever known to any man, beast or otherwise.</t>
-  </si>
-  <si>
-    <t>Bloody Shield</t>
-  </si>
-  <si>
-    <t>A bloody Red Hawk shield that was found on the battle fields.</t>
-  </si>
-  <si>
-    <t>Twisted Dice</t>
-  </si>
-  <si>
-    <t>Dice that you find in the depths of the dungeons. Their rolls and outcome are always twisted to your own delusional desire.</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2098,7 @@
     <col min="57" max="57" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="58" max="58" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="59" max="59" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="60" max="60" width="37.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="61" max="61" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="62" max="62" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="63" max="63" width="26.993" bestFit="true" customWidth="true" style="0"/>
@@ -2342,7 +2333,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1061820</v>
+        <v>1094958</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2412,9 +2403,6 @@
       </c>
       <c r="BG2">
         <v>0</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>75</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -2434,25 +2422,79 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>1061834</v>
+        <v>1094970</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
       <c r="AV3">
         <v>0</v>
       </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
       <c r="BH3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2472,25 +2514,79 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>1061833</v>
+        <v>1094969</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
       <c r="BH4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2510,25 +2606,76 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>1061832</v>
+        <v>1094968</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="BH5" t="s">
-        <v>81</v>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2548,25 +2695,76 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>1061831</v>
+        <v>1094967</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="BH6" t="s">
-        <v>86</v>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -2586,25 +2784,76 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>1061830</v>
+        <v>1094966</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
       <c r="AV7">
         <v>0</v>
       </c>
-      <c r="BH7" t="s">
-        <v>86</v>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -2624,16 +2873,16 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>1061827</v>
+        <v>1094965</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2713,16 +2962,16 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>1061826</v>
+        <v>1094964</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2732,9 +2981,6 @@
       </c>
       <c r="Z9">
         <v>0</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>93</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -2805,16 +3051,16 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>1061825</v>
+        <v>1094963</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2875,9 +3121,6 @@
       </c>
       <c r="BG10">
         <v>0</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>96</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -2897,16 +3140,16 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>1061824</v>
+        <v>1094962</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2967,9 +3210,6 @@
       </c>
       <c r="BG11">
         <v>0</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>99</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -2989,16 +3229,16 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>1061823</v>
+        <v>1094961</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3059,9 +3299,6 @@
       </c>
       <c r="BG12">
         <v>0</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>102</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3081,16 +3318,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>1061822</v>
+        <v>1094960</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3153,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="BH13" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3173,16 +3410,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1061821</v>
+        <v>1094959</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3262,16 +3499,16 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1061808</v>
+        <v>1094946</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3332,6 +3569,9 @@
       </c>
       <c r="BG15">
         <v>0</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>98</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -3351,16 +3591,16 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>1061819</v>
+        <v>1094957</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3421,9 +3661,6 @@
       </c>
       <c r="BG16">
         <v>0</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>111</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3443,16 +3680,16 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>1061818</v>
+        <v>1094956</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3513,9 +3750,6 @@
       </c>
       <c r="BG17">
         <v>0</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>111</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -3535,16 +3769,16 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>1061817</v>
+        <v>1094955</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3607,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="BH18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -3627,16 +3861,16 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>1061816</v>
+        <v>1094954</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3699,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="BH19" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -3719,16 +3953,16 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>1061815</v>
+        <v>1094953</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3791,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BH20" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -3811,16 +4045,16 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>1061814</v>
+        <v>1094952</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3883,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="BH21" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -3903,16 +4137,16 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>1061813</v>
+        <v>1094951</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3975,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="BH22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -3995,16 +4229,16 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>1061812</v>
+        <v>1094950</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4065,6 +4299,9 @@
       </c>
       <c r="BG23">
         <v>0</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>109</v>
       </c>
       <c r="BM23">
         <v>0</v>
@@ -4084,16 +4321,16 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>1061811</v>
+        <v>1094949</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4154,6 +4391,9 @@
       </c>
       <c r="BG24">
         <v>0</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>109</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -4173,16 +4413,16 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>1061810</v>
+        <v>1094948</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4262,16 +4502,16 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>1061809</v>
+        <v>1094947</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4354,13 +4594,13 @@
         <v>487</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4375,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AG27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH27">
         <v>0.15</v>
@@ -4452,13 +4692,13 @@
         <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4479,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="AG28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH28">
         <v>0.15</v>
@@ -4556,13 +4796,13 @@
         <v>489</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4574,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -4648,13 +4888,13 @@
         <v>490</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4669,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AG30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AH30">
         <v>0.15</v>
@@ -4746,13 +4986,13 @@
         <v>491</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4773,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="AG31" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AH31">
         <v>0.15</v>
@@ -4850,13 +5090,13 @@
         <v>492</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4871,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="AG32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH32">
         <v>0.15</v>
@@ -4948,13 +5188,13 @@
         <v>493</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4966,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -5040,13 +5280,13 @@
         <v>494</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5064,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -5138,13 +5378,13 @@
         <v>495</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5162,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -5233,13 +5473,13 @@
         <v>496</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5257,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -5328,13 +5568,13 @@
         <v>497</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5423,13 +5663,13 @@
         <v>498</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5518,13 +5758,13 @@
         <v>499</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5545,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="AG39" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH39">
         <v>0.5</v>
@@ -5622,13 +5862,13 @@
         <v>500</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5649,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="AG40" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH40">
         <v>0.5</v>
@@ -5726,13 +5966,13 @@
         <v>501</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5753,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="AG41" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH41">
         <v>0.5</v>
@@ -5830,13 +6070,13 @@
         <v>502</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -5857,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="AG42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AH42">
         <v>0.5</v>
@@ -5934,13 +6174,13 @@
         <v>503</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5958,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AH43">
         <v>0.5</v>
@@ -6035,13 +6275,13 @@
         <v>504</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
         <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6130,13 +6370,13 @@
         <v>505</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6154,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -6225,13 +6465,13 @@
         <v>506</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6249,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AH46">
         <v>0.45</v>
@@ -6326,13 +6566,13 @@
         <v>507</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6350,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="AG47" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AH47">
         <v>0.45</v>
@@ -6427,13 +6667,13 @@
         <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6451,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6522,13 +6762,13 @@
         <v>509</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6546,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6617,13 +6857,13 @@
         <v>510</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6641,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -6712,13 +6952,13 @@
         <v>511</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6736,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="AA51" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6807,13 +7047,13 @@
         <v>512</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6899,13 +7139,13 @@
         <v>513</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6923,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="AA53" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -6994,13 +7234,13 @@
         <v>514</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7018,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -7089,13 +7329,13 @@
         <v>515</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7113,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -7184,13 +7424,13 @@
         <v>516</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -7276,13 +7516,13 @@
         <v>517</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7368,13 +7608,13 @@
         <v>518</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7460,13 +7700,13 @@
         <v>519</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7484,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7555,13 +7795,13 @@
         <v>520</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7627,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="BH60" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="BM60">
         <v>0</v>
@@ -7650,13 +7890,13 @@
         <v>521</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7722,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="BH61" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -7745,13 +7985,13 @@
         <v>522</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7837,13 +8077,13 @@
         <v>523</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -7909,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="BH63" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM63">
         <v>0</v>
@@ -7932,13 +8172,13 @@
         <v>524</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -7956,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -8027,13 +8267,13 @@
         <v>525</v>
       </c>
       <c r="C65" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8099,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BM65">
         <v>0</v>
@@ -8122,13 +8362,13 @@
         <v>526</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8146,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="AG66" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AH66">
         <v>0.25</v>
@@ -8203,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="BH66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BM66">
         <v>0</v>
@@ -8226,13 +8466,13 @@
         <v>527</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8250,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="AG67" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AH67">
         <v>0.75</v>
@@ -8307,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="BH67" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BM67">
         <v>0</v>
@@ -8330,13 +8570,13 @@
         <v>528</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8422,13 +8662,13 @@
         <v>529</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8446,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="AG69" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AH69">
         <v>0.75</v>
@@ -8523,13 +8763,13 @@
         <v>530</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8547,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AI70">
         <v>0</v>
@@ -8618,13 +8858,13 @@
         <v>531</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8642,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8713,13 +8953,13 @@
         <v>532</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8805,13 +9045,13 @@
         <v>533</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8877,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="BH73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -8900,13 +9140,13 @@
         <v>534</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8992,13 +9232,13 @@
         <v>535</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9052,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="BH75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -9075,13 +9315,13 @@
         <v>536</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9167,13 +9407,13 @@
         <v>537</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9259,13 +9499,13 @@
         <v>538</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9351,13 +9591,13 @@
         <v>539</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9423,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9446,13 +9686,13 @@
         <v>540</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9518,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="BH80" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9541,13 +9781,13 @@
         <v>541</v>
       </c>
       <c r="C81" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9636,13 +9876,13 @@
         <v>542</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9708,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="BH82" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BM82">
         <v>0</v>
@@ -9731,13 +9971,13 @@
         <v>543</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9803,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -9826,13 +10066,13 @@
         <v>544</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9898,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="BH84" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -9921,13 +10161,13 @@
         <v>545</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -10016,13 +10256,13 @@
         <v>546</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10088,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="BH86" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -10111,13 +10351,13 @@
         <v>547</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10206,13 +10446,13 @@
         <v>548</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10301,13 +10541,13 @@
         <v>549</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10373,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="BH89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BI89">
         <v>0.8</v>
@@ -10399,13 +10639,13 @@
         <v>550</v>
       </c>
       <c r="C90" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10423,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="AA90" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -10440,19 +10680,7 @@
       <c r="AM90">
         <v>0</v>
       </c>
-      <c r="AS90">
-        <v>0</v>
-      </c>
       <c r="AV90">
-        <v>0</v>
-      </c>
-      <c r="AX90">
-        <v>0</v>
-      </c>
-      <c r="AY90">
-        <v>0</v>
-      </c>
-      <c r="BA90">
         <v>0</v>
       </c>
       <c r="BB90">
@@ -10494,13 +10722,13 @@
         <v>551</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10566,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="BH91" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10589,13 +10817,13 @@
         <v>552</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -10661,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="BH92" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BM92">
         <v>0</v>
@@ -10684,13 +10912,13 @@
         <v>553</v>
       </c>
       <c r="C93" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -10776,13 +11004,13 @@
         <v>554</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -10800,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -10871,13 +11099,13 @@
         <v>555</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D95" t="s">
         <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -10943,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="BH95" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BI95">
         <v>0.05</v>
@@ -10972,13 +11200,13 @@
         <v>556</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D96" t="s">
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -11070,13 +11298,13 @@
         <v>557</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D97" t="s">
         <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -11142,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="BH97" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BI97">
         <v>0.15</v>
@@ -11171,13 +11399,13 @@
         <v>558</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D98" t="s">
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -11269,13 +11497,13 @@
         <v>559</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -11367,13 +11595,13 @@
         <v>560</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11459,13 +11687,13 @@
         <v>561</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -11531,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="BH101" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -11554,13 +11782,13 @@
         <v>562</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
         <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -11626,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="BH102" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BM102">
         <v>0</v>
@@ -11649,13 +11877,13 @@
         <v>563</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
         <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -11721,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="BH103" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11744,13 +11972,13 @@
         <v>564</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -11816,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BH104" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -11839,13 +12067,13 @@
         <v>565</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -11937,13 +12165,13 @@
         <v>566</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D106" t="s">
         <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -12009,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="BH106" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -12032,13 +12260,13 @@
         <v>567</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="G107" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -12130,13 +12358,13 @@
         <v>568</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -12202,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="BH108" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -12225,13 +12453,13 @@
         <v>569</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12249,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="AG109" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AH109">
         <v>0.25</v>
@@ -12326,13 +12554,13 @@
         <v>570</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12350,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AG110" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AH110">
         <v>0.25</v>
@@ -12427,13 +12655,13 @@
         <v>571</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12451,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="AG111" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AI111">
         <v>0</v>
@@ -12525,13 +12753,13 @@
         <v>572</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12549,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="AG112" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AI112">
         <v>0</v>
@@ -12623,13 +12851,13 @@
         <v>573</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12647,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="AG113" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AI113">
         <v>0</v>
@@ -12721,13 +12949,13 @@
         <v>574</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -12745,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="AG114" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AI114">
         <v>0</v>
@@ -12819,13 +13047,13 @@
         <v>575</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -12843,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="AG115" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AI115">
         <v>0</v>
@@ -12917,13 +13145,13 @@
         <v>576</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -12941,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="AG116" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AI116">
         <v>0</v>
@@ -13015,13 +13243,13 @@
         <v>577</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -13039,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="AG117" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AI117">
         <v>0</v>
@@ -13113,13 +13341,13 @@
         <v>578</v>
       </c>
       <c r="C118" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -13137,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="AG118" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -13211,13 +13439,13 @@
         <v>579</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D119" t="s">
         <v>73</v>
       </c>
       <c r="G119" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -13235,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AI119">
         <v>0</v>
@@ -13309,13 +13537,13 @@
         <v>580</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D120" t="s">
         <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -13333,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="AG120" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -13407,13 +13635,13 @@
         <v>581</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D121" t="s">
         <v>73</v>
       </c>
       <c r="G121" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -13431,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AG121" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AI121">
         <v>0</v>
@@ -13505,13 +13733,13 @@
         <v>582</v>
       </c>
       <c r="C122" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D122" t="s">
         <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -13529,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="AG122" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AH122">
         <v>0.5</v>
@@ -13606,13 +13834,13 @@
         <v>583</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -13630,7 +13858,7 @@
         <v>0</v>
       </c>
       <c r="AG123" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AI123">
         <v>0</v>
@@ -13704,13 +13932,13 @@
         <v>584</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -13728,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="AG124" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AI124">
         <v>0</v>
@@ -13802,13 +14030,13 @@
         <v>585</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -13826,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AG125" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AI125">
         <v>0</v>
@@ -13900,13 +14128,13 @@
         <v>586</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -13995,13 +14223,13 @@
         <v>587</v>
       </c>
       <c r="C127" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -14019,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="AA127" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AI127">
         <v>0</v>
@@ -14090,13 +14318,13 @@
         <v>588</v>
       </c>
       <c r="C128" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D128" t="s">
         <v>73</v>
       </c>
       <c r="G128" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -14188,13 +14416,13 @@
         <v>589</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D129" t="s">
         <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -14212,7 +14440,7 @@
         <v>0</v>
       </c>
       <c r="AA129" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AI129">
         <v>0</v>
@@ -14283,13 +14511,13 @@
         <v>590</v>
       </c>
       <c r="C130" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D130" t="s">
         <v>73</v>
       </c>
       <c r="G130" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -14307,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="AG130" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AI130">
         <v>0</v>
@@ -14381,13 +14609,13 @@
         <v>591</v>
       </c>
       <c r="C131" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s">
         <v>73</v>
       </c>
       <c r="G131" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -14405,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="AG131" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -14479,13 +14707,13 @@
         <v>592</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
         <v>73</v>
       </c>
       <c r="G132" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -14577,13 +14805,13 @@
         <v>593</v>
       </c>
       <c r="C133" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
         <v>73</v>
       </c>
       <c r="G133" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14669,13 +14897,13 @@
         <v>594</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -14696,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="AG134" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH134">
         <v>0.5</v>
@@ -14773,13 +15001,13 @@
         <v>595</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -14842,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="BH135" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="BM135">
         <v>0</v>
@@ -14865,13 +15093,13 @@
         <v>596</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -14934,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="BH136" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="BM136">
         <v>0</v>
@@ -14957,13 +15185,13 @@
         <v>597</v>
       </c>
       <c r="C137" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D137" t="s">
         <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -14978,7 +15206,7 @@
         <v>1</v>
       </c>
       <c r="AG137" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH137">
         <v>0.1</v>
@@ -15055,13 +15283,13 @@
         <v>598</v>
       </c>
       <c r="C138" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D138" t="s">
         <v>73</v>
       </c>
       <c r="G138" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -15124,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="BH138" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM138">
         <v>0</v>
@@ -15147,13 +15375,13 @@
         <v>599</v>
       </c>
       <c r="C139" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D139" t="s">
         <v>73</v>
       </c>
       <c r="G139" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -15168,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="AG139" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH139">
         <v>0.25</v>
@@ -15245,13 +15473,13 @@
         <v>600</v>
       </c>
       <c r="C140" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D140" t="s">
         <v>73</v>
       </c>
       <c r="G140" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -15314,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="BH140" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BM140">
         <v>0</v>
@@ -15337,13 +15565,13 @@
         <v>601</v>
       </c>
       <c r="C141" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D141" t="s">
         <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -15358,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="AG141" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH141">
         <v>0.35</v>
@@ -15435,13 +15663,13 @@
         <v>602</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D142" t="s">
         <v>73</v>
       </c>
       <c r="G142" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O142">
         <v>0</v>
@@ -15504,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="BH142" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BM142">
         <v>0</v>
@@ -15527,13 +15755,13 @@
         <v>603</v>
       </c>
       <c r="C143" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D143" t="s">
         <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -15548,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="AG143" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH143">
         <v>0.5</v>
@@ -15625,13 +15853,13 @@
         <v>604</v>
       </c>
       <c r="C144" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D144" t="s">
         <v>73</v>
       </c>
       <c r="G144" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -15694,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="BH144" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM144">
         <v>0</v>
@@ -15717,13 +15945,13 @@
         <v>605</v>
       </c>
       <c r="C145" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
       </c>
       <c r="G145" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -15806,13 +16034,13 @@
         <v>606</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D146" t="s">
         <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O146">
         <v>0</v>
@@ -15895,13 +16123,13 @@
         <v>607</v>
       </c>
       <c r="C147" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D147" t="s">
         <v>73</v>
       </c>
       <c r="G147" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -15913,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="AA147" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AC147">
         <v>1</v>
@@ -15987,13 +16215,13 @@
         <v>608</v>
       </c>
       <c r="C148" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D148" t="s">
         <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -16076,13 +16304,13 @@
         <v>609</v>
       </c>
       <c r="C149" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D149" t="s">
         <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -16165,13 +16393,13 @@
         <v>610</v>
       </c>
       <c r="C150" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -16254,13 +16482,13 @@
         <v>611</v>
       </c>
       <c r="C151" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -16343,13 +16571,13 @@
         <v>612</v>
       </c>
       <c r="C152" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -16432,13 +16660,13 @@
         <v>613</v>
       </c>
       <c r="C153" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -16501,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="BH153" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16524,13 +16752,13 @@
         <v>614</v>
       </c>
       <c r="C154" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -16593,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="BH154" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16616,13 +16844,13 @@
         <v>615</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -16705,13 +16933,13 @@
         <v>616</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -16774,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="BH156" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -16797,13 +17025,13 @@
         <v>617</v>
       </c>
       <c r="C157" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -16886,13 +17114,13 @@
         <v>618</v>
       </c>
       <c r="C158" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -16955,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="BH158" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -16978,13 +17206,13 @@
         <v>619</v>
       </c>
       <c r="C159" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -17047,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="BH159" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -17070,13 +17298,13 @@
         <v>620</v>
       </c>
       <c r="C160" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -17159,13 +17387,13 @@
         <v>621</v>
       </c>
       <c r="C161" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -17228,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="BH161" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM161">
         <v>0</v>
@@ -17251,13 +17479,13 @@
         <v>622</v>
       </c>
       <c r="C162" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -17340,13 +17568,13 @@
         <v>623</v>
       </c>
       <c r="C163" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17429,13 +17657,13 @@
         <v>624</v>
       </c>
       <c r="C164" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17518,13 +17746,13 @@
         <v>625</v>
       </c>
       <c r="C165" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D165" t="s">
         <v>73</v>
       </c>
       <c r="G165" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -17607,13 +17835,13 @@
         <v>626</v>
       </c>
       <c r="C166" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D166" t="s">
         <v>73</v>
       </c>
       <c r="G166" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -17696,13 +17924,13 @@
         <v>627</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -17785,13 +18013,13 @@
         <v>628</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -17874,13 +18102,13 @@
         <v>629</v>
       </c>
       <c r="C169" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -17963,13 +18191,13 @@
         <v>630</v>
       </c>
       <c r="C170" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D170" t="s">
         <v>73</v>
       </c>
       <c r="G170" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -18052,13 +18280,13 @@
         <v>631</v>
       </c>
       <c r="C171" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -18141,13 +18369,13 @@
         <v>632</v>
       </c>
       <c r="C172" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D172" t="s">
         <v>73</v>
       </c>
       <c r="G172" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -18230,13 +18458,13 @@
         <v>633</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D173" t="s">
         <v>73</v>
       </c>
       <c r="G173" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -18319,13 +18547,13 @@
         <v>210180</v>
       </c>
       <c r="C174" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18388,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="BH174" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18411,13 +18639,13 @@
         <v>210181</v>
       </c>
       <c r="C175" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18480,7 +18708,7 @@
         <v>0</v>
       </c>
       <c r="BH175" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BM175">
         <v>0</v>
@@ -18503,13 +18731,13 @@
         <v>210182</v>
       </c>
       <c r="C176" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -18572,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="BH176" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18595,13 +18823,13 @@
         <v>210183</v>
       </c>
       <c r="C177" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -18616,7 +18844,7 @@
         <v>1</v>
       </c>
       <c r="AG177" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AH177">
         <v>0.35</v>
@@ -18673,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18696,13 +18924,13 @@
         <v>210184</v>
       </c>
       <c r="C178" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D178" t="s">
         <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -18765,7 +18993,7 @@
         <v>0</v>
       </c>
       <c r="BH178" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -18788,13 +19016,13 @@
         <v>210185</v>
       </c>
       <c r="C179" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D179" t="s">
         <v>73</v>
       </c>
       <c r="G179" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -18857,7 +19085,7 @@
         <v>0</v>
       </c>
       <c r="BH179" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -18880,13 +19108,13 @@
         <v>210186</v>
       </c>
       <c r="C180" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -18898,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="AA180" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AC180">
         <v>1</v>
@@ -18972,13 +19200,13 @@
         <v>210187</v>
       </c>
       <c r="C181" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
       </c>
       <c r="G181" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -19041,7 +19269,7 @@
         <v>0</v>
       </c>
       <c r="BH181" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BM181">
         <v>0</v>
@@ -19064,13 +19292,13 @@
         <v>210188</v>
       </c>
       <c r="C182" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D182" t="s">
         <v>73</v>
       </c>
       <c r="G182" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -19153,13 +19381,13 @@
         <v>210189</v>
       </c>
       <c r="C183" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D183" t="s">
         <v>73</v>
       </c>
       <c r="G183" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -19174,7 +19402,7 @@
         <v>1</v>
       </c>
       <c r="AG183" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AH183">
         <v>0.6</v>
@@ -19231,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="BH183" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -19254,13 +19482,13 @@
         <v>210190</v>
       </c>
       <c r="C184" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D184" t="s">
         <v>73</v>
       </c>
       <c r="G184" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -19275,7 +19503,7 @@
         <v>1</v>
       </c>
       <c r="AG184" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AH184">
         <v>1</v>
@@ -19332,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="BH184" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19355,13 +19583,13 @@
         <v>210191</v>
       </c>
       <c r="C185" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D185" t="s">
         <v>73</v>
       </c>
       <c r="G185" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -19424,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="BH185" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BM185">
         <v>0</v>
@@ -19447,13 +19675,13 @@
         <v>210192</v>
       </c>
       <c r="C186" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D186" t="s">
         <v>73</v>
       </c>
       <c r="G186" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -19468,7 +19696,7 @@
         <v>1</v>
       </c>
       <c r="AG186" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH186">
         <v>0.3</v>
@@ -19525,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="BH186" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BM186">
         <v>0</v>
@@ -19548,13 +19776,13 @@
         <v>210193</v>
       </c>
       <c r="C187" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D187" t="s">
         <v>73</v>
       </c>
       <c r="G187" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -19617,7 +19845,7 @@
         <v>0</v>
       </c>
       <c r="BH187" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BM187">
         <v>0</v>
@@ -19640,13 +19868,13 @@
         <v>210194</v>
       </c>
       <c r="C188" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D188" t="s">
         <v>73</v>
       </c>
       <c r="G188" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -19709,7 +19937,7 @@
         <v>0</v>
       </c>
       <c r="BH188" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BM188">
         <v>0</v>
@@ -19732,13 +19960,13 @@
         <v>210195</v>
       </c>
       <c r="C189" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="G189" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -19821,13 +20049,13 @@
         <v>210196</v>
       </c>
       <c r="C190" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="G190" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -19910,13 +20138,13 @@
         <v>210197</v>
       </c>
       <c r="C191" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="G191" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -19979,7 +20207,7 @@
         <v>0</v>
       </c>
       <c r="BH191" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -20002,13 +20230,13 @@
         <v>210198</v>
       </c>
       <c r="C192" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="G192" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -20071,7 +20299,7 @@
         <v>0</v>
       </c>
       <c r="BH192" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -20094,13 +20322,13 @@
         <v>210199</v>
       </c>
       <c r="C193" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -20163,7 +20391,7 @@
         <v>0</v>
       </c>
       <c r="BH193" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -20186,13 +20414,13 @@
         <v>210200</v>
       </c>
       <c r="C194" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -20275,13 +20503,13 @@
         <v>210201</v>
       </c>
       <c r="C195" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -20344,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="BH195" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="BM195">
         <v>0</v>
@@ -20367,13 +20595,13 @@
         <v>210202</v>
       </c>
       <c r="C196" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="G196" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -20388,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="AG196" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AH196">
         <v>0.75</v>
@@ -20445,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="BH196" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="BM196">
         <v>0</v>
@@ -20468,13 +20696,13 @@
         <v>210203</v>
       </c>
       <c r="C197" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="G197" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -20489,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="AG197" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AH197">
         <v>1</v>
@@ -20546,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="BH197" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20569,13 +20797,13 @@
         <v>210204</v>
       </c>
       <c r="C198" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20638,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="BH198" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20661,13 +20889,13 @@
         <v>210205</v>
       </c>
       <c r="C199" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -20750,13 +20978,13 @@
         <v>210206</v>
       </c>
       <c r="C200" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20768,7 +20996,7 @@
         <v>0</v>
       </c>
       <c r="AA200" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AC200">
         <v>1</v>
@@ -20842,13 +21070,13 @@
         <v>210207</v>
       </c>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -20863,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="AG201" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AH201">
         <v>1</v>
@@ -20920,7 +21148,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -20943,13 +21171,13 @@
         <v>210208</v>
       </c>
       <c r="C202" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -21032,13 +21260,13 @@
         <v>210209</v>
       </c>
       <c r="C203" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -21121,13 +21349,13 @@
         <v>210210</v>
       </c>
       <c r="C204" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -21190,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="BH204" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -21213,13 +21441,13 @@
         <v>210211</v>
       </c>
       <c r="C205" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21282,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="BH205" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21305,13 +21533,13 @@
         <v>210212</v>
       </c>
       <c r="C206" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21394,13 +21622,13 @@
         <v>210213</v>
       </c>
       <c r="C207" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21463,7 +21691,7 @@
         <v>0</v>
       </c>
       <c r="BH207" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21486,13 +21714,13 @@
         <v>210214</v>
       </c>
       <c r="C208" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21575,13 +21803,13 @@
         <v>410519</v>
       </c>
       <c r="C209" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -21661,16 +21889,16 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>1061797</v>
+        <v>1094935</v>
       </c>
       <c r="C210" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -21733,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="BH210" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -21753,16 +21981,16 @@
     </row>
     <row r="211" spans="1:72">
       <c r="A211">
-        <v>1061798</v>
+        <v>1094936</v>
       </c>
       <c r="C211" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -21842,16 +22070,16 @@
     </row>
     <row r="212" spans="1:72">
       <c r="A212">
-        <v>1061799</v>
+        <v>1094937</v>
       </c>
       <c r="C212" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -21931,16 +22159,16 @@
     </row>
     <row r="213" spans="1:72">
       <c r="A213">
-        <v>1061800</v>
+        <v>1094938</v>
       </c>
       <c r="C213" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -22020,16 +22248,16 @@
     </row>
     <row r="214" spans="1:72">
       <c r="A214">
-        <v>1061801</v>
+        <v>1094939</v>
       </c>
       <c r="C214" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -22109,16 +22337,16 @@
     </row>
     <row r="215" spans="1:72">
       <c r="A215">
-        <v>1061802</v>
+        <v>1094940</v>
       </c>
       <c r="C215" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -22198,16 +22426,16 @@
     </row>
     <row r="216" spans="1:72">
       <c r="A216">
-        <v>1061803</v>
+        <v>1094941</v>
       </c>
       <c r="C216" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22287,16 +22515,16 @@
     </row>
     <row r="217" spans="1:72">
       <c r="A217">
-        <v>1061804</v>
+        <v>1094942</v>
       </c>
       <c r="C217" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22306,6 +22534,9 @@
       </c>
       <c r="Z217">
         <v>0</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>552</v>
       </c>
       <c r="AC217">
         <v>1</v>
@@ -22376,16 +22607,16 @@
     </row>
     <row r="218" spans="1:72">
       <c r="A218">
-        <v>1061805</v>
+        <v>1094943</v>
       </c>
       <c r="C218" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22446,6 +22677,9 @@
       </c>
       <c r="BG218">
         <v>0</v>
+      </c>
+      <c r="BH218" t="s">
+        <v>213</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22465,16 +22699,16 @@
     </row>
     <row r="219" spans="1:72">
       <c r="A219">
-        <v>1061806</v>
+        <v>1094944</v>
       </c>
       <c r="C219" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22537,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="BH219" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22557,16 +22791,16 @@
     </row>
     <row r="220" spans="1:72">
       <c r="A220">
-        <v>1061807</v>
+        <v>1094945</v>
       </c>
       <c r="C220" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22629,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="BH220" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="BM220">
         <v>0</v>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -233,24 +233,1428 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
+  </si>
+  <si>
+    <t>Church of God</t>
+  </si>
+  <si>
+    <t>Lover of the queens charred bones</t>
+  </si>
+  <si>
+    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Scholars Glasses</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Mothers Quill</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Clerical Tome of Prairs</t>
+  </si>
+  <si>
+    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
+  </si>
+  <si>
+    <t>Delusional Abandoned Gold Mines</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>A broken doll that was once treasured by a child.</t>
+  </si>
+  <si>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
+  </si>
+  <si>
+    <t>Slaves Journal</t>
+  </si>
+  <si>
+    <t>A journal that details the work the slaves had to do in the mines.</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Vile of Sensual Perfume</t>
+  </si>
+  <si>
+    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
+  </si>
+  <si>
+    <t>Bandits Twsited Arm Port</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
+  </si>
+  <si>
+    <t>Vile of Twisted Laughter</t>
+  </si>
+  <si>
+    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
+  </si>
+  <si>
+    <t>Shattered Mace of The Holy</t>
+  </si>
+  <si>
+    <t>This broken mace was once used by the holy warriors of The Church.</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Book</t>
+  </si>
+  <si>
+    <t>Grants the ability to craft weapons better.</t>
+  </si>
+  <si>
+    <t>Weapon Crafting</t>
+  </si>
+  <si>
+    <t>Spell Weaving Book</t>
+  </si>
+  <si>
+    <t>Makes spell crafting slightly easier.</t>
+  </si>
+  <si>
+    <t>Spell Crafting</t>
+  </si>
+  <si>
+    <t>Flask Of Fresh Air</t>
+  </si>
+  <si>
+    <t>Allows you to walk on water.</t>
+  </si>
+  <si>
+    <t>walk-on-water</t>
+  </si>
+  <si>
+    <t>Blacksmith's Book</t>
+  </si>
+  <si>
+    <t>Makes crafting armour better.</t>
+  </si>
+  <si>
+    <t>Armour Crafting</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Book</t>
+  </si>
+  <si>
+    <t>Makes ring crafting slightly easier.</t>
+  </si>
+  <si>
+    <t>Ring Crafting</t>
+  </si>
+  <si>
+    <t>Enchanter's Book</t>
+  </si>
+  <si>
+    <t>Allows you to enchant easily.</t>
+  </si>
+  <si>
+    <t>Enchanting</t>
+  </si>
+  <si>
+    <t>Key of the Labyrinth</t>
+  </si>
+  <si>
+    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
+  </si>
+  <si>
+    <t>labyrinth</t>
+  </si>
+  <si>
+    <t>River Styx Sandals</t>
+  </si>
+  <si>
+    <t>Walk across water made to kill you.</t>
+  </si>
+  <si>
+    <t>walk-on-death-water</t>
+  </si>
+  <si>
+    <t>Life's Flail</t>
+  </si>
+  <si>
+    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
+  </si>
+  <si>
+    <t>shadow-plane</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Now you can see child, you can see deep into the darkness. Let it illuminate your way child.</t>
+  </si>
+  <si>
+    <t>dungeon</t>
+  </si>
+  <si>
+    <t>Dungeon Map</t>
+  </si>
+  <si>
+    <t>It is said that this map is the way to the fabled dungeon plane. Give this item to the Dungeon Master for the torch, with out the torch you will be lost.</t>
+  </si>
+  <si>
+    <t>Dungeon Ink</t>
+  </si>
+  <si>
+    <t>Used in the creation of a dungeon map, it is said this ink has mystical properties.</t>
+  </si>
+  <si>
+    <t>Enchantress' Diary</t>
+  </si>
+  <si>
+    <t>Reading through her diary, it's clear she was a master enchantress. All her notes are here for you, child. Read them.</t>
+  </si>
+  <si>
+    <t>Mage's Tome</t>
+  </si>
+  <si>
+    <t>With this tome you can better craft the spells you need to take down your enemies.</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Master Book</t>
+  </si>
+  <si>
+    <t>The weaponsmiths have all come together and compiled a list of instructions on being proficient at creating weapons.</t>
+  </si>
+  <si>
+    <t>Blacksmith's Master Recipes</t>
+  </si>
+  <si>
+    <t>Ever wanted to create better armour? Have a better chance at crafting it? Here ya go! These notes are compiled from the masters of their craft: Blacksmiths.</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Master Book</t>
+  </si>
+  <si>
+    <t>The masters of the old days have jotted down their notes and now you too can craft powerful rings.</t>
+  </si>
+  <si>
+    <t>Alchemist Tools</t>
+  </si>
+  <si>
+    <t>Speak to the appropriate quest quiver to turn this item in and unlock the Alchemy Skill.</t>
+  </si>
+  <si>
+    <t>Crystal Eye Glass</t>
+  </si>
+  <si>
+    <t>With this, you can use the /pct chat command as opposed to just /pc when hunting Celestial Entities. /pct will teleport you to the plane and location of the entity, free of charge with a 10 second timeout before you can move again.</t>
+  </si>
+  <si>
+    <t>teleport-to-celestial</t>
+  </si>
+  <si>
+    <t>Alchemist Book</t>
+  </si>
+  <si>
+    <t>Makes the crafting of alchemical items easier. (See Skill Modifiers below)</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Disenchanter's Magnifying Glass</t>
+  </si>
+  <si>
+    <t>Increase Disenchanting XP and Skill bonus by 45%. Used automatically.</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>Creepy Baby Doll</t>
+  </si>
+  <si>
+    <t>Makes your affixes irresistible to the enemy. (None of your affixes will be resisted).</t>
+  </si>
+  <si>
+    <t>affixes-irresistible</t>
+  </si>
+  <si>
+    <t>Shadow Plane Grimoire</t>
+  </si>
+  <si>
+    <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 30% chance to devoid an enemy. See below for the Devouring Information. You can also check the Help Docs for Voidance and Devoidance under the Character Information section.</t>
+  </si>
+  <si>
+    <t>Eye of the Beholder</t>
+  </si>
+  <si>
+    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy. Check the Devouring info below, or the Help Docs for Voidance and Devoidance under the Character Information section.</t>
+  </si>
+  <si>
+    <t>Dead King's Crown</t>
+  </si>
+  <si>
+    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
+  </si>
+  <si>
+    <t>Leather Sash</t>
+  </si>
+  <si>
+    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
+  </si>
+  <si>
+    <t>Sash of the Heavens</t>
+  </si>
+  <si>
+    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
+  </si>
+  <si>
+    <t>continue-leveling</t>
+  </si>
+  <si>
+    <t>Grain of sand</t>
+  </si>
+  <si>
+    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
+  </si>
+  <si>
+    <t>gold-dust-rush</t>
+  </si>
+  <si>
+    <t>Golden Wand of Gold</t>
+  </si>
+  <si>
+    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms. It's limited by plane, so you must switch planes to embezzle from that plane. All you have to do is go to your kingdoms tab, click on a kingdom, and you will see the new Mass Embezzle option!</t>
+  </si>
+  <si>
+    <t>mass-embezzle</t>
+  </si>
+  <si>
+    <t>Goblins Jewels</t>
+  </si>
+  <si>
+    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
+  </si>
+  <si>
+    <t>Satan's Mask</t>
+  </si>
+  <si>
+    <t>Satan once wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him, he dropped his mask on the ground before turning to stone.</t>
+  </si>
+  <si>
+    <t>Prison Key</t>
+  </si>
+  <si>
+    <t>This key does not unlock any particular prison on any particular plane. But Hells Gate Keeper might have an answer</t>
+  </si>
+  <si>
+    <t>Demonic Leather Boots</t>
+  </si>
+  <si>
+    <t>Lets you walk on magma in hell.</t>
+  </si>
+  <si>
+    <t>walk-on-magma</t>
+  </si>
+  <si>
+    <t>Second prison key</t>
+  </si>
+  <si>
+    <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
+  </si>
+  <si>
+    <t>Purse of Copper Coins</t>
+  </si>
+  <si>
+    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
+  </si>
+  <si>
+    <t>Dead Fiend's Hide</t>
+  </si>
+  <si>
+    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
+  </si>
+  <si>
+    <t>Book of the Dead Souls</t>
+  </si>
+  <si>
+    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
+  </si>
+  <si>
+    <t>Purgatory's Lantern</t>
+  </si>
+  <si>
+    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
+  </si>
+  <si>
+    <t>purgatory</t>
+  </si>
+  <si>
+    <t>Purse of Shards and Dust</t>
+  </si>
+  <si>
+    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
+  </si>
+  <si>
+    <t>Bag of Child's Bones</t>
+  </si>
+  <si>
+    <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
+  </si>
+  <si>
+    <t>Kingmanship</t>
+  </si>
+  <si>
+    <t>Bone Chalice of Animal Blood</t>
+  </si>
+  <si>
+    <t>This item can be given to the Dungeon master for something you might need.</t>
+  </si>
+  <si>
+    <t>Criticality</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Mirror of the Queen</t>
+  </si>
+  <si>
+    <t>Looking into this mirror causes you to hear the beating of a heart.</t>
+  </si>
+  <si>
+    <t>Bag of Dice</t>
+  </si>
+  <si>
+    <t>A bag of dice, what could this have to do with anything?</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Bag of Chance</t>
+  </si>
+  <si>
+    <t>With this item, you can talk to the Queen of Hearts and reroll and purchase randomly generated affixes as well as move these affixes from one item to the next for a price of course.</t>
+  </si>
+  <si>
+    <t>speak-to-queen-of-hearts</t>
+  </si>
+  <si>
+    <t>Satan's Heart</t>
+  </si>
+  <si>
+    <t>Allows access to Hell.</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>Mark of Hell</t>
+  </si>
+  <si>
+    <t>Give this item to the Shade Lord on Shadow Plane, he will then give you access to Hell.</t>
+  </si>
+  <si>
+    <t>Broken Copper Coin</t>
+  </si>
+  <si>
+    <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
+  </si>
+  <si>
+    <t>Scroll of Prayer</t>
+  </si>
+  <si>
+    <t>Give this item to the Dungeon master, along with a copper coin and he will give you Satans Mark.</t>
+  </si>
+  <si>
+    <t>Satan's Hide</t>
+  </si>
+  <si>
+    <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
+  </si>
+  <si>
+    <t>Satanic Sigil</t>
+  </si>
+  <si>
+    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
+  </si>
+  <si>
+    <t>Bottle of Fire Demon Essence</t>
+  </si>
+  <si>
+    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
+  </si>
+  <si>
+    <t>Flaming Coin</t>
+  </si>
+  <si>
+    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
+  </si>
+  <si>
+    <t>Shadow Ink</t>
+  </si>
+  <si>
+    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
+  </si>
+  <si>
+    <t>Flaming Sword of Ascension</t>
+  </si>
+  <si>
+    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
+  </si>
+  <si>
+    <t>Candle Stick of Hope</t>
+  </si>
+  <si>
+    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
+  </si>
+  <si>
+    <t>Holy Wax</t>
+  </si>
+  <si>
+    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
+  </si>
+  <si>
+    <t>Burnt Wick</t>
+  </si>
+  <si>
+    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
+  </si>
+  <si>
+    <t>Bishop's Enchanted Scroll</t>
+  </si>
+  <si>
+    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
+  </si>
+  <si>
+    <t>Enchanted Candlestick of Light</t>
+  </si>
+  <si>
+    <t>Gain even more experience per fight with this specially enchanted candle!</t>
+  </si>
+  <si>
+    <t>Holy Enchanted Oil</t>
+  </si>
+  <si>
+    <t>Apply this oil to an enchanted candle and watch it become even more powerful. I think the Candle Maker can help you out here.</t>
+  </si>
+  <si>
+    <t>Blessed Enchanted Candle Stick</t>
+  </si>
+  <si>
+    <t>Now that the candle is blessed and enchanted, you should feel more hopeful child!</t>
+  </si>
+  <si>
+    <t>Simple Candlestick</t>
+  </si>
+  <si>
+    <t>Can you see in the darkness, child?</t>
+  </si>
+  <si>
+    <t>Pillar Candle of the Church</t>
+  </si>
+  <si>
+    <t>Light this specially imbued and enchanted candle to gain even more XP per fight!</t>
+  </si>
+  <si>
+    <t>Essence of Rage</t>
+  </si>
+  <si>
+    <t>With this quest item you will gain 50 points per kill in the faction of the map you are currently on.</t>
+  </si>
+  <si>
+    <t>effects-faction-points</t>
+  </si>
+  <si>
+    <t>Book of Currencies</t>
+  </si>
+  <si>
+    <t>This book details the various currencies in Tlessa, which is useful for those looking to learn more about the currencies. If not, Hells Accountant might want this.</t>
+  </si>
+  <si>
+    <t>Treaty of the Smith</t>
+  </si>
+  <si>
+    <t>I am surprised you found this. Long ago, when the doors too Purgatory opened and The Creator walked forward, he left behind his friend: The Smith of Purgatory. The treaty stated that as long as The Creator walked the land the smith could not come into being, for their would be no peace across the land if he did.</t>
+  </si>
+  <si>
+    <t>Magician's Enchanted Copper Coin</t>
+  </si>
+  <si>
+    <t>This rare enchanted copper coin has the magical marking of The Creator, which means it must be a key to the Smith himself. Quick, child! Find the Treaty!</t>
+  </si>
+  <si>
+    <t>The Creator's Last Copper Coin</t>
+  </si>
+  <si>
+    <t>You should not have this, child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
+  </si>
+  <si>
+    <t>get-copper-coins</t>
+  </si>
+  <si>
+    <t>Musty old Church Records</t>
+  </si>
+  <si>
+    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
+  </si>
+  <si>
+    <t>Alchemically Enchanted Holy Candle</t>
+  </si>
+  <si>
+    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
+  </si>
+  <si>
+    <t>Dried up Enchanted Holy Ink</t>
+  </si>
+  <si>
+    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
+  </si>
+  <si>
+    <t>Fanatic's Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick, child. I think...</t>
+  </si>
+  <si>
+    <t>Corrupted Candle of the Church</t>
+  </si>
+  <si>
+    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
+  </si>
+  <si>
+    <t>Purgatory Smith's House Key</t>
+  </si>
+  <si>
+    <t>Lets you enter the house of the purgatory smith.</t>
+  </si>
+  <si>
+    <t>Smith's Hammer</t>
+  </si>
+  <si>
+    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
+  </si>
+  <si>
+    <t>Smith's Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these would be found on the surface. First his hammer is in Dungeons and now some of his components are on the surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Broken Smith's Anvil</t>
+  </si>
+  <si>
+    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smith's tools across the various planes. Was it The Creator?</t>
+  </si>
+  <si>
+    <t>Smith's Dying Ember</t>
+  </si>
+  <si>
+    <t>Satan's cage holds a lot of interesting things to say the least, however why is the Smith's Dying Ember here? Something smells off, child.</t>
+  </si>
+  <si>
+    <t>Candle of the Smith</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smith and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Vial of Water from the well of the Smith</t>
+  </si>
+  <si>
+    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
+  </si>
+  <si>
+    <t>Purgatory's Cursed Candle</t>
+  </si>
+  <si>
+    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
+  </si>
+  <si>
+    <t>Bag of Transformation</t>
+  </si>
+  <si>
+    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
+  </si>
+  <si>
+    <t>Heart of the Eye</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Tome of the Winds</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>King's Book of Hope</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>Feathers of the sky</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>Book of speed</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragon's Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>The Wizard's Enchantment</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
+  </si>
+  <si>
+    <t>Arrow of Truth</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Goddess Bow of Light</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>The Book of Guidance</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
+  </si>
+  <si>
+    <t>Settler's Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>King's Scepter</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>King's Ring</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
+  </si>
+  <si>
+    <t>Alchemist Scrolls</t>
+  </si>
+  <si>
+    <t>A powerful set of scroll to help those who seek to learn even more about the Alchemical arts. (See Skill Modifiers below)</t>
+  </si>
+  <si>
+    <t>Mage's Teleport Scroll</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% XP.</t>
+  </si>
+  <si>
+    <t>Goblin's Quickening Rune</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% XP.</t>
+  </si>
+  <si>
+    <t>Golden Ring of Blur</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
+  </si>
+  <si>
+    <t>Simple Candle Stick</t>
+  </si>
+  <si>
+    <t>Can you see in the darkness child?</t>
+  </si>
+  <si>
+    <t>Purgatory Smiths House Key</t>
+  </si>
+  <si>
+    <t>Something lies in the basement of the house of the Purgatory Smith. Something lies in the cracks of the stone in the basement, a green glowing light that was once thought of as forever lost.</t>
+  </si>
+  <si>
+    <t>enter-purgatory-house</t>
+  </si>
+  <si>
+    <t>Fanatics Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
+  </si>
+  <si>
+    <t>The Creators Last Copper Coin</t>
+  </si>
+  <si>
+    <t>You should not have this child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
+  </si>
+  <si>
+    <t>Settlers Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragons Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Candle of the Smithy</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Smithies Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Enchantresses Diary</t>
+  </si>
+  <si>
+    <t>Reading through her diary, its clear she was a master enchantress. All her notes are here for you child. Read them.</t>
+  </si>
+  <si>
+    <t>Broken Trinket</t>
+  </si>
+  <si>
+    <t>A simple broken trinket. You have heard about these from sources around the world. Maybe someone is looking for this?</t>
+  </si>
+  <si>
+    <t>Book of Tactics</t>
+  </si>
+  <si>
+    <t>They say there is away to get upper hand on the enemy. This book might hold the key. But who would help you get more info out it?</t>
+  </si>
+  <si>
+    <t>Shades book of stories</t>
+  </si>
+  <si>
+    <t>A book on the subject of crafting trinkets. Should make things a bit easier</t>
+  </si>
+  <si>
+    <t>Trinketry</t>
+  </si>
+  <si>
+    <t>Rusted Trinket Tools</t>
+  </si>
+  <si>
+    <t>A set of old and rusted trinket tools that might be able to polished up.</t>
+  </si>
+  <si>
+    <t>Polished Trinket Tools</t>
+  </si>
+  <si>
+    <t>Polished by the shadows and given to you for your service. Now you should find trinketry a little easier.</t>
+  </si>
+  <si>
+    <t>The Beating Heart</t>
+  </si>
+  <si>
+    <t>The heart of purgatory, bloody and still beating. Who would want such a gross item?</t>
+  </si>
+  <si>
+    <t>Lock of hair</t>
+  </si>
+  <si>
+    <t>A lock of hair from the Child of Shade. It might help you with trinketry.</t>
+  </si>
+  <si>
+    <t>Soiled Night Gown</t>
+  </si>
+  <si>
+    <t>Tattered and soiled. This night gown reminds you of a painful story.</t>
+  </si>
+  <si>
+    <t>Locket of the Church</t>
+  </si>
+  <si>
+    <t>A simple locket given to you by the Child of Shade. Let this give your trinketry a boost.</t>
+  </si>
+  <si>
+    <t>Book of Faith</t>
+  </si>
+  <si>
+    <t>A simple book full of fables and stories of ones faith.</t>
+  </si>
+  <si>
+    <t>Ring of Faith</t>
+  </si>
+  <si>
+    <t>A simple ring of ones faith.</t>
+  </si>
+  <si>
+    <t>Cloth of the invisible</t>
+  </si>
+  <si>
+    <t>A simple piece of cloth that sometimes goes invisible.</t>
+  </si>
+  <si>
+    <t>Cloak of Invisibility</t>
+  </si>
+  <si>
+    <t>A cloak you can wear so your enemies cannot find you. This item will hide your location in chat.</t>
+  </si>
+  <si>
+    <t>hide-chat-location</t>
+  </si>
+  <si>
+    <t>Stories of The Children</t>
+  </si>
+  <si>
+    <t>This book contains the story's of the children of the church. Maybe the candle maker wants this for something?</t>
+  </si>
+  <si>
+    <t>Scroll of the Children</t>
+  </si>
+  <si>
+    <t>This scroll holds secrets the Candle Maker is looking for.</t>
+  </si>
+  <si>
+    <t>Small Black Carved Box</t>
+  </si>
+  <si>
+    <t>A small black carved wooden box that contains the screams and pain of those the magic was used on.</t>
+  </si>
+  <si>
+    <t>Missing Scroll Piece</t>
+  </si>
+  <si>
+    <t>This is a missing piece of a scroll for The Candle Maker</t>
+  </si>
+  <si>
+    <t>Research Papers on Flight</t>
+  </si>
+  <si>
+    <t>papers about the research on flight. Some one is looking for these papers.</t>
+  </si>
+  <si>
+    <t>Kalitore Ore</t>
+  </si>
+  <si>
+    <t>A mysterious ore from the depths of the Dungeons of Valifore. It was said this ore was mined to provide power to the airships.</t>
+  </si>
+  <si>
+    <t>Chemists Tools</t>
+  </si>
+  <si>
+    <t>Used by chemists for their old world science research.</t>
+  </si>
+  <si>
+    <t>Chemist Journal</t>
+  </si>
+  <si>
+    <t>A journal that holds the key to the old world science the chemists were once known for practicing.</t>
+  </si>
+  <si>
+    <t>Bullet Casings and Bullets</t>
+  </si>
+  <si>
+    <t>Old tech for the old world. Someone is looking for these.</t>
+  </si>
+  <si>
+    <t>Papers of Flight</t>
+  </si>
+  <si>
+    <t>A set of papers that describe the flight of airships. Someone in hell must want these for some research purposes.</t>
+  </si>
+  <si>
+    <t>Airship Blueprints</t>
+  </si>
+  <si>
+    <t>Blueprints that layout how to build airships for ones kingdoms.</t>
+  </si>
+  <si>
+    <t>Soul Gem of Galith</t>
+  </si>
+  <si>
+    <t>Used in the ancient magic of Rebirth.</t>
+  </si>
+  <si>
+    <t>Judges Helm</t>
+  </si>
+  <si>
+    <t>Back when there was a set of entities known as Judges these were the helms they would wear. Formidable look is what it gave them.</t>
+  </si>
+  <si>
+    <t>Judges Cards</t>
+  </si>
+  <si>
+    <t>A set of cards that the Judges of the past would use to apply the law of the land in an instant.</t>
+  </si>
+  <si>
+    <t>Stolen Coin</t>
+  </si>
+  <si>
+    <t>A simple single coin, that was stolen from a merchant. Did it spark the war?</t>
+  </si>
+  <si>
+    <t>Smugglers Coin</t>
+  </si>
+  <si>
+    <t>Smugglers Coin is an old coin that was once found by The Poet on The Soldier when he first arrived. Now The Soldier hands you the coin.</t>
+  </si>
+  <si>
+    <t>Pirates Lost Key</t>
+  </si>
+  <si>
+    <t>This was once used to open an old vault that was once under Smugglers Port. The key no longer works as the entire vault was demolished long ago.</t>
+  </si>
+  <si>
+    <t>Corrupted Bracelet</t>
+  </si>
+  <si>
+    <t>A corrupted bracelet that eminates dark magic.</t>
+  </si>
+  <si>
+    <t>Shade Dust</t>
+  </si>
+  <si>
+    <t>Dust dropped by the shadows of The Creator. A bit of the past is trapped in this bottle. A bit of the pain, misery and sense of self loathing emanates through you as you hold it.</t>
+  </si>
+  <si>
+    <t>Scholars Necklace</t>
+  </si>
+  <si>
+    <t>Stolen by a cultist from the Scholar of Hell, he might be happy to have this back.</t>
+  </si>
+  <si>
+    <t>The Quartermasters Severed Head</t>
+  </si>
+  <si>
+    <t>You hack, slash and sever the head of the corpse. The blood drains quickly from the head as you place it into the sack.</t>
+  </si>
+  <si>
+    <t>Merchants Walking Stick</t>
+  </si>
+  <si>
+    <t>The Wandering Merchant seems to have lost his walking stick. Will this help guide you back to him?</t>
+  </si>
+  <si>
+    <t>Simple Gem Necklace</t>
+  </si>
+  <si>
+    <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
+  </si>
+  <si>
+    <t>Lost Tome Of Spells</t>
+  </si>
+  <si>
+    <t>A lost tome The Witch was looking for.</t>
+  </si>
+  <si>
+    <t>Clean White Feather</t>
+  </si>
+  <si>
+    <t>A single clean white feather the Dungeon Master is searching for.</t>
+  </si>
+  <si>
+    <t>Ratty Toy Bear</t>
+  </si>
+  <si>
+    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
+  </si>
+  <si>
+    <t>Queens Lost Bracelet</t>
+  </si>
+  <si>
+    <t>The Queen has lost her bracelet here at this weird looking metal wreck. Why it's called a wreck you have no idea. But she lost it here.</t>
+  </si>
+  <si>
+    <t>The Frozen Wreck</t>
+  </si>
+  <si>
+    <t>Wedding Ring</t>
+  </si>
+  <si>
+    <t>A simple diamond wedding ring</t>
+  </si>
+  <si>
+    <t>Christmas Ornament</t>
+  </si>
+  <si>
+    <t>A single shiny silver object that hangs from the tree. What does it symbolize?</t>
+  </si>
+  <si>
+    <t>Abandoned Village</t>
+  </si>
+  <si>
+    <t>Snow balls</t>
+  </si>
+  <si>
+    <t>Round and fluffy, they are fun to throw at people.</t>
+  </si>
+  <si>
+    <t>Coal and Carrot</t>
+  </si>
+  <si>
+    <t>A carrot and two pieces of coal. What are we doing with this?</t>
+  </si>
+  <si>
+    <t>Top Hat and Scarf</t>
+  </si>
+  <si>
+    <t>Who would ware these? They seem so ugly.</t>
+  </si>
+  <si>
+    <t>Ice Skates</t>
+  </si>
+  <si>
+    <t>Should make walking on the ice easier.</t>
+  </si>
+  <si>
+    <t>walk-on-ice</t>
+  </si>
+  <si>
+    <t>Busted Pocket Watch</t>
+  </si>
+  <si>
+    <t>A busted pocket watch stuck on a time from long ago.</t>
+  </si>
+  <si>
+    <t>Queens Coin</t>
+  </si>
+  <si>
+    <t>The a simple coin for the queen - the currency of The Queen</t>
+  </si>
+  <si>
+    <t>Broken Knife</t>
+  </si>
+  <si>
+    <t>A broken knife found in the bank on the ground. What is the story here?</t>
+  </si>
+  <si>
+    <t>Frozen Queens Bank</t>
+  </si>
+  <si>
+    <t>Frozen Cat Toy</t>
+  </si>
+  <si>
+    <t>Mr. Whiskers does love his cat toys.</t>
+  </si>
+  <si>
+    <t>Looting</t>
+  </si>
+  <si>
+    <t>Candy Cane</t>
+  </si>
+  <si>
+    <t>A delicious looking red and white striped cane looking candy treat.</t>
+  </si>
+  <si>
+    <t>Catnip</t>
+  </si>
+  <si>
+    <t>Mr. Whiskers might like this. it's common fact that all cats are drug addicts.</t>
+  </si>
+  <si>
+    <t>Christmas Card</t>
+  </si>
+  <si>
+    <t>A Christmas card that reads: "We are sorry for your loss, but do know that Mr. Whiskers has moved on to a better place. He is beyond the rainbow and is playing and waiting for you to one day, far into the future, when you are old and lived a long and happy life, join him."</t>
+  </si>
+  <si>
+    <t>Gift Wrapped Ashes</t>
+  </si>
+  <si>
+    <t>A gift wrap box of ashes, examining the box it states: Mr. Whiskers - Goose. Why is it gift wrapped? That's so depressing.</t>
+  </si>
+  <si>
+    <t>The Queens Diary</t>
+  </si>
+  <si>
+    <t>The diary of the queen. No matter how hard you try, the book will not open. The back of the book has a name inscribed: The Poet.</t>
+  </si>
+  <si>
+    <t>The Key To Home</t>
+  </si>
+  <si>
+    <t>The key to The Fathers Tomb.</t>
+  </si>
+  <si>
+    <t>Bloody Shirt</t>
+  </si>
+  <si>
+    <t>A basic shirt covered in blood.</t>
+  </si>
+  <si>
+    <t>Broken Forest Road</t>
+  </si>
+  <si>
+    <t>The Child's Journal</t>
+  </si>
+  <si>
+    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
+  </si>
+  <si>
+    <t>The Soldiers Journal</t>
+  </si>
+  <si>
+    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
+  </si>
+  <si>
+    <t>Bloody Snowball</t>
+  </si>
+  <si>
+    <t>Blood stained snowball, a child's broken memory.</t>
+  </si>
+  <si>
+    <t>Pages of the holy book</t>
+  </si>
+  <si>
+    <t>pages that detail the scripture of The Churches holy book</t>
+  </si>
+  <si>
+    <t>Bloody Snowman</t>
+  </si>
+  <si>
+    <t>Box of Memories</t>
+  </si>
+  <si>
+    <t>A child's toy that lights up and shows a story as it spins</t>
+  </si>
+  <si>
+    <t>Child's Drawings</t>
+  </si>
+  <si>
+    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
+  </si>
+  <si>
+    <t>Red Hawks Sword</t>
+  </si>
+  <si>
+    <t>A Red Hawk Sword used in the attack on The Church</t>
+  </si>
+  <si>
+    <t>The Letter</t>
+  </si>
+  <si>
+    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
+  </si>
+  <si>
+    <t>Ice Queens Treaty Scrolls</t>
+  </si>
+  <si>
+    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
+  </si>
+  <si>
+    <t>settle-on-the-ice-plane</t>
+  </si>
+  <si>
+    <t>Ice Shard of Memories</t>
+  </si>
+  <si>
+    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
+  </si>
+  <si>
+    <t>Bottle of Frozen Tears</t>
+  </si>
+  <si>
+    <t>The tears of a child that have been frozen in time.</t>
+  </si>
+  <si>
+    <t>Ice Stave of Hope</t>
+  </si>
+  <si>
+    <t>A stave made of ice that holds the last hope of a grieving mother</t>
+  </si>
+  <si>
+    <t>Wilted Frozen Rose</t>
+  </si>
+  <si>
+    <t>A single rose placed upon the tombstone of a child.</t>
+  </si>
+  <si>
+    <t>The Old Church</t>
+  </si>
+  <si>
+    <t>Love Letter</t>
+  </si>
+  <si>
+    <t>A love letter written by The Child to his then lover.</t>
+  </si>
+  <si>
+    <t>The Poets Walking Stick</t>
+  </si>
+  <si>
+    <t>A simple walking stick used by The Poet</t>
+  </si>
+  <si>
+    <t>Rusted Keys</t>
+  </si>
+  <si>
+    <t>A set of keys that once made the frozen wreck move.</t>
+  </si>
+  <si>
+    <t>Husbands Wallet</t>
+  </si>
+  <si>
+    <t>A wallet covered in blood with a single picture of The Creators father</t>
+  </si>
+  <si>
+    <t>Christmas Tree Light Bulb</t>
+  </si>
+  <si>
+    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
+  </si>
+  <si>
     <t>Faithless Scripture</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>Scripture that was once apart of The Church has faded in the sands of time and is a facinating read by the faithless.</t>
   </si>
   <si>
+    <t>Twsited grave site</t>
+  </si>
+  <si>
     <t>Twisted Dice</t>
   </si>
   <si>
     <t>Dice that you find in the depths of the dungeons. Their rolls and outcome are always twisted to your own delusional desire.</t>
   </si>
   <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
     <t>Bloody Shield</t>
   </si>
   <si>
@@ -303,1395 +1707,6 @@
   </si>
   <si>
     <t>A chipped emerald ring that you found at the Grave Diggers brothers grave. It is a sign you are on the right path.</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
-    <t>Shattered Mace of The Holy</t>
-  </si>
-  <si>
-    <t>This broken mace was once used by the holy warriors of The Church.</t>
-  </si>
-  <si>
-    <t>Vile of Twisted Laughter</t>
-  </si>
-  <si>
-    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
-  </si>
-  <si>
-    <t>Broken Hand Mirror</t>
-  </si>
-  <si>
-    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
-  </si>
-  <si>
-    <t>Vile of Sensual Perfume</t>
-  </si>
-  <si>
-    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
-  </si>
-  <si>
-    <t>Faceless Robe</t>
-  </si>
-  <si>
-    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>Tear of the shade</t>
-  </si>
-  <si>
-    <t>A single tear from The Shadoe Lord.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Torn map of another land</t>
-  </si>
-  <si>
-    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
-  </si>
-  <si>
-    <t>Shattered Emerald</t>
-  </si>
-  <si>
-    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
-  </si>
-  <si>
-    <t>Bottle of missery</t>
-  </si>
-  <si>
-    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
-  </si>
-  <si>
-    <t>The princes ring</t>
-  </si>
-  <si>
-    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Ashes of the shade</t>
-  </si>
-  <si>
-    <t>Ashes that the Child of Shade holds on to. Why?</t>
-  </si>
-  <si>
-    <t>Small wooden cross</t>
-  </si>
-  <si>
-    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
-  </si>
-  <si>
-    <t>Old Silver Flask</t>
-  </si>
-  <si>
-    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
-  </si>
-  <si>
-    <t>Weaponsmith's Book</t>
-  </si>
-  <si>
-    <t>Grants the ability to craft weapons better.</t>
-  </si>
-  <si>
-    <t>Weapon Crafting</t>
-  </si>
-  <si>
-    <t>Spell Weaving Book</t>
-  </si>
-  <si>
-    <t>Makes spell crafting slightly easier.</t>
-  </si>
-  <si>
-    <t>Spell Crafting</t>
-  </si>
-  <si>
-    <t>Flask Of Fresh Air</t>
-  </si>
-  <si>
-    <t>Allows you to walk on water.</t>
-  </si>
-  <si>
-    <t>walk-on-water</t>
-  </si>
-  <si>
-    <t>Blacksmith's Book</t>
-  </si>
-  <si>
-    <t>Makes crafting armour better.</t>
-  </si>
-  <si>
-    <t>Armour Crafting</t>
-  </si>
-  <si>
-    <t>Ring Crafter's Book</t>
-  </si>
-  <si>
-    <t>Makes ring crafting slightly easier.</t>
-  </si>
-  <si>
-    <t>Ring Crafting</t>
-  </si>
-  <si>
-    <t>Enchanter's Book</t>
-  </si>
-  <si>
-    <t>Allows you to enchant easily.</t>
-  </si>
-  <si>
-    <t>Enchanting</t>
-  </si>
-  <si>
-    <t>Key of the Labyrinth</t>
-  </si>
-  <si>
-    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
-  </si>
-  <si>
-    <t>labyrinth</t>
-  </si>
-  <si>
-    <t>River Styx Sandals</t>
-  </si>
-  <si>
-    <t>Walk across water made to kill you.</t>
-  </si>
-  <si>
-    <t>walk-on-death-water</t>
-  </si>
-  <si>
-    <t>Life's Flail</t>
-  </si>
-  <si>
-    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
-  </si>
-  <si>
-    <t>shadow-plane</t>
-  </si>
-  <si>
-    <t>Torch</t>
-  </si>
-  <si>
-    <t>Now you can see child, you can see deep into the darkness. Let it illuminate your way child.</t>
-  </si>
-  <si>
-    <t>dungeon</t>
-  </si>
-  <si>
-    <t>Dungeon Map</t>
-  </si>
-  <si>
-    <t>It is said that this map is the way to the fabled dungeon plane. Give this item to the Dungeon Master for the torch, with out the torch you will be lost.</t>
-  </si>
-  <si>
-    <t>Dungeon Ink</t>
-  </si>
-  <si>
-    <t>Used in the creation of a dungeon map, it is said this ink has mystical properties.</t>
-  </si>
-  <si>
-    <t>Enchantress' Diary</t>
-  </si>
-  <si>
-    <t>Reading through her diary, it's clear she was a master enchantress. All her notes are here for you, child. Read them.</t>
-  </si>
-  <si>
-    <t>Mage's Tome</t>
-  </si>
-  <si>
-    <t>With this tome you can better craft the spells you need to take down your enemies.</t>
-  </si>
-  <si>
-    <t>Weaponsmith's Master Book</t>
-  </si>
-  <si>
-    <t>The weaponsmiths have all come together and compiled a list of instructions on being proficient at creating weapons.</t>
-  </si>
-  <si>
-    <t>Blacksmith's Master Recipes</t>
-  </si>
-  <si>
-    <t>Ever wanted to create better armour? Have a better chance at crafting it? Here ya go! These notes are compiled from the masters of their craft: Blacksmiths.</t>
-  </si>
-  <si>
-    <t>Ring Crafter's Master Book</t>
-  </si>
-  <si>
-    <t>The masters of the old days have jotted down their notes and now you too can craft powerful rings.</t>
-  </si>
-  <si>
-    <t>Alchemist Tools</t>
-  </si>
-  <si>
-    <t>Speak to the appropriate quest quiver to turn this item in and unlock the Alchemy Skill.</t>
-  </si>
-  <si>
-    <t>Crystal Eye Glass</t>
-  </si>
-  <si>
-    <t>With this, you can use the /pct chat command as opposed to just /pc when hunting Celestial Entities. /pct will teleport you to the plane and location of the entity, free of charge with a 10 second timeout before you can move again.</t>
-  </si>
-  <si>
-    <t>teleport-to-celestial</t>
-  </si>
-  <si>
-    <t>Alchemist Book</t>
-  </si>
-  <si>
-    <t>Makes the crafting of alchemical items easier. (See Skill Modifiers below)</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
-  </si>
-  <si>
-    <t>Disenchanter's Magnifying Glass</t>
-  </si>
-  <si>
-    <t>Increase Disenchanting XP and Skill bonus by 45%. Used automatically.</t>
-  </si>
-  <si>
-    <t>Disenchanting</t>
-  </si>
-  <si>
-    <t>Creepy Baby Doll</t>
-  </si>
-  <si>
-    <t>Makes your affixes irresistible to the enemy. (None of your affixes will be resisted).</t>
-  </si>
-  <si>
-    <t>affixes-irresistible</t>
-  </si>
-  <si>
-    <t>Shadow Plane Grimoire</t>
-  </si>
-  <si>
-    <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 30% chance to devoid an enemy. See below for the Devouring Information. You can also check the Help Docs for Voidance and Devoidance under the Character Information section.</t>
-  </si>
-  <si>
-    <t>Eye of the Beholder</t>
-  </si>
-  <si>
-    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy. Check the Devouring info below, or the Help Docs for Voidance and Devoidance under the Character Information section.</t>
-  </si>
-  <si>
-    <t>Dead King's Crown</t>
-  </si>
-  <si>
-    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
-  </si>
-  <si>
-    <t>Leather Sash</t>
-  </si>
-  <si>
-    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
-  </si>
-  <si>
-    <t>Sash of the Heavens</t>
-  </si>
-  <si>
-    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
-  </si>
-  <si>
-    <t>continue-leveling</t>
-  </si>
-  <si>
-    <t>Grain of sand</t>
-  </si>
-  <si>
-    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
-  </si>
-  <si>
-    <t>gold-dust-rush</t>
-  </si>
-  <si>
-    <t>Golden Wand of Gold</t>
-  </si>
-  <si>
-    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms. It's limited by plane, so you must switch planes to embezzle from that plane. All you have to do is go to your kingdoms tab, click on a kingdom, and you will see the new Mass Embezzle option!</t>
-  </si>
-  <si>
-    <t>mass-embezzle</t>
-  </si>
-  <si>
-    <t>Goblins Jewels</t>
-  </si>
-  <si>
-    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
-  </si>
-  <si>
-    <t>Satan's Mask</t>
-  </si>
-  <si>
-    <t>Satan once wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him, he dropped his mask on the ground before turning to stone.</t>
-  </si>
-  <si>
-    <t>Prison Key</t>
-  </si>
-  <si>
-    <t>This key does not unlock any particular prison on any particular plane. But Hells Gate Keeper might have an answer</t>
-  </si>
-  <si>
-    <t>Demonic Leather Boots</t>
-  </si>
-  <si>
-    <t>Lets you walk on magma in hell.</t>
-  </si>
-  <si>
-    <t>walk-on-magma</t>
-  </si>
-  <si>
-    <t>Second prison key</t>
-  </si>
-  <si>
-    <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
-  </si>
-  <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
-    <t>Purse of Copper Coins</t>
-  </si>
-  <si>
-    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
-  </si>
-  <si>
-    <t>Dead Fiend's Hide</t>
-  </si>
-  <si>
-    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
-  </si>
-  <si>
-    <t>Book of the Dead Souls</t>
-  </si>
-  <si>
-    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
-  </si>
-  <si>
-    <t>Purgatory's Lantern</t>
-  </si>
-  <si>
-    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
-  </si>
-  <si>
-    <t>purgatory</t>
-  </si>
-  <si>
-    <t>Purse of Shards and Dust</t>
-  </si>
-  <si>
-    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
-  </si>
-  <si>
-    <t>Bag of Child's Bones</t>
-  </si>
-  <si>
-    <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
-  </si>
-  <si>
-    <t>Kingmanship</t>
-  </si>
-  <si>
-    <t>Bone Chalice of Animal Blood</t>
-  </si>
-  <si>
-    <t>This item can be given to the Dungeon master for something you might need.</t>
-  </si>
-  <si>
-    <t>Criticality</t>
-  </si>
-  <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Mirror of the Queen</t>
-  </si>
-  <si>
-    <t>Looking into this mirror causes you to hear the beating of a heart.</t>
-  </si>
-  <si>
-    <t>Bag of Dice</t>
-  </si>
-  <si>
-    <t>A bag of dice, what could this have to do with anything?</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Bag of Chance</t>
-  </si>
-  <si>
-    <t>With this item, you can talk to the Queen of Hearts and reroll and purchase randomly generated affixes as well as move these affixes from one item to the next for a price of course.</t>
-  </si>
-  <si>
-    <t>speak-to-queen-of-hearts</t>
-  </si>
-  <si>
-    <t>Satan's Heart</t>
-  </si>
-  <si>
-    <t>Allows access to Hell.</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>Mark of Hell</t>
-  </si>
-  <si>
-    <t>Give this item to the Shade Lord on Shadow Plane, he will then give you access to Hell.</t>
-  </si>
-  <si>
-    <t>Broken Copper Coin</t>
-  </si>
-  <si>
-    <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
-  </si>
-  <si>
-    <t>Scroll of Prayer</t>
-  </si>
-  <si>
-    <t>Give this item to the Dungeon master, along with a copper coin and he will give you Satans Mark.</t>
-  </si>
-  <si>
-    <t>Satan's Hide</t>
-  </si>
-  <si>
-    <t>A rare gift indeed, child. The Dungeon Master wants this, he has a shiny toy for you, it won't cost anything but this hide.</t>
-  </si>
-  <si>
-    <t>Satanic Sigil</t>
-  </si>
-  <si>
-    <t>I know for a fact, the Dungeon master wanted this. There was something about the fires of hell, or something ... I am not sure.</t>
-  </si>
-  <si>
-    <t>Bottle of Fire Demon Essence</t>
-  </si>
-  <si>
-    <t>This bottle of a fire demon's essence which can be given to the Witch on Labyrinth. She might have something for it, but nothing comes cheap child.</t>
-  </si>
-  <si>
-    <t>Flaming Coin</t>
-  </si>
-  <si>
-    <t>I think the Shade Lord was looking for this, you might want to speak to him on the Shadow Plane. Can you get there child?</t>
-  </si>
-  <si>
-    <t>Shadow Ink</t>
-  </si>
-  <si>
-    <t>The Dungeon Master might know what to do with this ink. Have you thought of taking it to him?</t>
-  </si>
-  <si>
-    <t>Flaming Sword of Ascension</t>
-  </si>
-  <si>
-    <t>With this item, you might want to speak to the Dungeon Master. He might have something for this item.</t>
-  </si>
-  <si>
-    <t>Candle Stick of Hope</t>
-  </si>
-  <si>
-    <t>There is an enchantment on this item that will apply a specific type of boost to you child!</t>
-  </si>
-  <si>
-    <t>Holy Wax</t>
-  </si>
-  <si>
-    <t>This is all that's left of the last holy candle. These were once candles that were imbued with special enchantments by the Bishops of the time. Alas this creature seemed to be holding the last of the wax on it.</t>
-  </si>
-  <si>
-    <t>Burnt Wick</t>
-  </si>
-  <si>
-    <t>This wick belonged to one of the Holy Candles that Bishops use to enchant. They use to hold protection magics, but mostly magics around strength and training.</t>
-  </si>
-  <si>
-    <t>Bishop's Enchanted Scroll</t>
-  </si>
-  <si>
-    <t>With this scroll, you will be able to apply, through the Candle Maker, a special enchantment for a special item.</t>
-  </si>
-  <si>
-    <t>Enchanted Candlestick of Light</t>
-  </si>
-  <si>
-    <t>Gain even more experience per fight with this specially enchanted candle!</t>
-  </si>
-  <si>
-    <t>Holy Enchanted Oil</t>
-  </si>
-  <si>
-    <t>Apply this oil to an enchanted candle and watch it become even more powerful. I think the Candle Maker can help you out here.</t>
-  </si>
-  <si>
-    <t>Blessed Enchanted Candle Stick</t>
-  </si>
-  <si>
-    <t>Now that the candle is blessed and enchanted, you should feel more hopeful child!</t>
-  </si>
-  <si>
-    <t>Simple Candlestick</t>
-  </si>
-  <si>
-    <t>Can you see in the darkness, child?</t>
-  </si>
-  <si>
-    <t>Pillar Candle of the Church</t>
-  </si>
-  <si>
-    <t>Light this specially imbued and enchanted candle to gain even more XP per fight!</t>
-  </si>
-  <si>
-    <t>Essence of Rage</t>
-  </si>
-  <si>
-    <t>With this quest item you will gain 50 points per kill in the faction of the map you are currently on.</t>
-  </si>
-  <si>
-    <t>effects-faction-points</t>
-  </si>
-  <si>
-    <t>Book of Currencies</t>
-  </si>
-  <si>
-    <t>This book details the various currencies in Tlessa, which is useful for those looking to learn more about the currencies. If not, Hells Accountant might want this.</t>
-  </si>
-  <si>
-    <t>Treaty of the Smith</t>
-  </si>
-  <si>
-    <t>I am surprised you found this. Long ago, when the doors too Purgatory opened and The Creator walked forward, he left behind his friend: The Smith of Purgatory. The treaty stated that as long as The Creator walked the land the smith could not come into being, for their would be no peace across the land if he did.</t>
-  </si>
-  <si>
-    <t>Magician's Enchanted Copper Coin</t>
-  </si>
-  <si>
-    <t>This rare enchanted copper coin has the magical marking of The Creator, which means it must be a key to the Smith himself. Quick, child! Find the Treaty!</t>
-  </si>
-  <si>
-    <t>The Creator's Last Copper Coin</t>
-  </si>
-  <si>
-    <t>You should not have this, child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
-  </si>
-  <si>
-    <t>get-copper-coins</t>
-  </si>
-  <si>
-    <t>Musty old Church Records</t>
-  </si>
-  <si>
-    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
-  </si>
-  <si>
-    <t>Alchemically Enchanted Holy Candle</t>
-  </si>
-  <si>
-    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
-  </si>
-  <si>
-    <t>Dried up Enchanted Holy Ink</t>
-  </si>
-  <si>
-    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
-  </si>
-  <si>
-    <t>Fanatic's Candle of Despair</t>
-  </si>
-  <si>
-    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick, child. I think...</t>
-  </si>
-  <si>
-    <t>Corrupted Candle of the Church</t>
-  </si>
-  <si>
-    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
-  </si>
-  <si>
-    <t>Purgatory Smith's House Key</t>
-  </si>
-  <si>
-    <t>Lets you enter the house of the purgatory smith.</t>
-  </si>
-  <si>
-    <t>Smith's Hammer</t>
-  </si>
-  <si>
-    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
-  </si>
-  <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
-    <t>Smith's Iron Chunks</t>
-  </si>
-  <si>
-    <t>Funny that these would be found on the surface. First his hammer is in Dungeons and now some of his components are on the surface. What is happening?</t>
-  </si>
-  <si>
-    <t>Broken Smith's Anvil</t>
-  </si>
-  <si>
-    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smith's tools across the various planes. Was it The Creator?</t>
-  </si>
-  <si>
-    <t>Smith's Dying Ember</t>
-  </si>
-  <si>
-    <t>Satan's cage holds a lot of interesting things to say the least, however why is the Smith's Dying Ember here? Something smells off, child.</t>
-  </si>
-  <si>
-    <t>Candle of the Smith</t>
-  </si>
-  <si>
-    <t>This unique looking candle has some enchanted engravings on it... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smith and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
-  </si>
-  <si>
-    <t>Vial of Water from the well of the Smith</t>
-  </si>
-  <si>
-    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
-  </si>
-  <si>
-    <t>Purgatory's Cursed Candle</t>
-  </si>
-  <si>
-    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
-  </si>
-  <si>
-    <t>Bag of Transformation</t>
-  </si>
-  <si>
-    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
-  </si>
-  <si>
-    <t>Heart of the Eye</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
-  </si>
-  <si>
-    <t>Tome of the Winds</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the skill bonus upon the first upgrade.</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>King's Book of Hope</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>Feathers of the sky</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Quick Feet</t>
-  </si>
-  <si>
-    <t>Book of speed</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Sky Dragon's Blood Vial</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>The Wizard's Enchantment</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
-  </si>
-  <si>
-    <t>Arrow of Truth</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Goddess Bow of Light</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
-  </si>
-  <si>
-    <t>The Book of Guidance</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
-  </si>
-  <si>
-    <t>Settler's Walking Stick</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>King's Scepter</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>King's Ring</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
-  </si>
-  <si>
-    <t>Alchemist Scrolls</t>
-  </si>
-  <si>
-    <t>A powerful set of scroll to help those who seek to learn even more about the Alchemical arts. (See Skill Modifiers below)</t>
-  </si>
-  <si>
-    <t>Mage's Teleport Scroll</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% XP.</t>
-  </si>
-  <si>
-    <t>Goblin's Quickening Rune</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% XP.</t>
-  </si>
-  <si>
-    <t>Golden Ring of Blur</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
-  </si>
-  <si>
-    <t>Simple Candle Stick</t>
-  </si>
-  <si>
-    <t>Can you see in the darkness child?</t>
-  </si>
-  <si>
-    <t>Purgatory Smiths House Key</t>
-  </si>
-  <si>
-    <t>Something lies in the basement of the house of the Purgatory Smith. Something lies in the cracks of the stone in the basement, a green glowing light that was once thought of as forever lost.</t>
-  </si>
-  <si>
-    <t>enter-purgatory-house</t>
-  </si>
-  <si>
-    <t>Fanatics Candle of Despair</t>
-  </si>
-  <si>
-    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
-  </si>
-  <si>
-    <t>The Creators Last Copper Coin</t>
-  </si>
-  <si>
-    <t>You should not have this child. Do you know what kind of power you are holding? You can now get copper coins which will unlock the Smith in Purgatory. Are you even prepared for the havoc and devastation you are about to rain down?</t>
-  </si>
-  <si>
-    <t>Settlers Walking Stick</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Sky Dragons Blood Vial</t>
-  </si>
-  <si>
-    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
-  </si>
-  <si>
-    <t>Candle of the Smithy</t>
-  </si>
-  <si>
-    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
-  </si>
-  <si>
-    <t>Smithies Iron Chunks</t>
-  </si>
-  <si>
-    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
-  </si>
-  <si>
-    <t>Enchantresses Diary</t>
-  </si>
-  <si>
-    <t>Reading through her diary, its clear she was a master enchantress. All her notes are here for you child. Read them.</t>
-  </si>
-  <si>
-    <t>Broken Trinket</t>
-  </si>
-  <si>
-    <t>A simple broken trinket. You have heard about these from sources around the world. Maybe someone is looking for this?</t>
-  </si>
-  <si>
-    <t>Book of Tactics</t>
-  </si>
-  <si>
-    <t>They say there is away to get upper hand on the enemy. This book might hold the key. But who would help you get more info out it?</t>
-  </si>
-  <si>
-    <t>Shades book of stories</t>
-  </si>
-  <si>
-    <t>A book on the subject of crafting trinkets. Should make things a bit easier</t>
-  </si>
-  <si>
-    <t>Trinketry</t>
-  </si>
-  <si>
-    <t>Rusted Trinket Tools</t>
-  </si>
-  <si>
-    <t>A set of old and rusted trinket tools that might be able to polished up.</t>
-  </si>
-  <si>
-    <t>Polished Trinket Tools</t>
-  </si>
-  <si>
-    <t>Polished by the shadows and given to you for your service. Now you should find trinketry a little easier.</t>
-  </si>
-  <si>
-    <t>The Beating Heart</t>
-  </si>
-  <si>
-    <t>The heart of purgatory, bloody and still beating. Who would want such a gross item?</t>
-  </si>
-  <si>
-    <t>Lock of hair</t>
-  </si>
-  <si>
-    <t>A lock of hair from the Child of Shade. It might help you with trinketry.</t>
-  </si>
-  <si>
-    <t>Soiled Night Gown</t>
-  </si>
-  <si>
-    <t>Tattered and soiled. This night gown reminds you of a painful story.</t>
-  </si>
-  <si>
-    <t>Locket of the Church</t>
-  </si>
-  <si>
-    <t>A simple locket given to you by the Child of Shade. Let this give your trinketry a boost.</t>
-  </si>
-  <si>
-    <t>Book of Faith</t>
-  </si>
-  <si>
-    <t>A simple book full of fables and stories of ones faith.</t>
-  </si>
-  <si>
-    <t>Ring of Faith</t>
-  </si>
-  <si>
-    <t>A simple ring of ones faith.</t>
-  </si>
-  <si>
-    <t>Cloth of the invisible</t>
-  </si>
-  <si>
-    <t>A simple piece of cloth that sometimes goes invisible.</t>
-  </si>
-  <si>
-    <t>Cloak of Invisibility</t>
-  </si>
-  <si>
-    <t>A cloak you can wear so your enemies cannot find you. This item will hide your location in chat.</t>
-  </si>
-  <si>
-    <t>hide-chat-location</t>
-  </si>
-  <si>
-    <t>Stories of The Children</t>
-  </si>
-  <si>
-    <t>This book contains the story's of the children of the church. Maybe the candle maker wants this for something?</t>
-  </si>
-  <si>
-    <t>Scroll of the Children</t>
-  </si>
-  <si>
-    <t>This scroll holds secrets the Candle Maker is looking for.</t>
-  </si>
-  <si>
-    <t>Small Black Carved Box</t>
-  </si>
-  <si>
-    <t>A small black carved wooden box that contains the screams and pain of those the magic was used on.</t>
-  </si>
-  <si>
-    <t>Missing Scroll Piece</t>
-  </si>
-  <si>
-    <t>This is a missing piece of a scroll for The Candle Maker</t>
-  </si>
-  <si>
-    <t>Research Papers on Flight</t>
-  </si>
-  <si>
-    <t>papers about the research on flight. Some one is looking for these papers.</t>
-  </si>
-  <si>
-    <t>Kalitore Ore</t>
-  </si>
-  <si>
-    <t>A mysterious ore from the depths of the Dungeons of Valifore. It was said this ore was mined to provide power to the airships.</t>
-  </si>
-  <si>
-    <t>Chemists Tools</t>
-  </si>
-  <si>
-    <t>Used by chemists for their old world science research.</t>
-  </si>
-  <si>
-    <t>Chemist Journal</t>
-  </si>
-  <si>
-    <t>A journal that holds the key to the old world science the chemists were once known for practicing.</t>
-  </si>
-  <si>
-    <t>Bullet Casings and Bullets</t>
-  </si>
-  <si>
-    <t>Old tech for the old world. Someone is looking for these.</t>
-  </si>
-  <si>
-    <t>Papers of Flight</t>
-  </si>
-  <si>
-    <t>A set of papers that describe the flight of airships. Someone in hell must want these for some research purposes.</t>
-  </si>
-  <si>
-    <t>Airship Blueprints</t>
-  </si>
-  <si>
-    <t>Blueprints that layout how to build airships for ones kingdoms.</t>
-  </si>
-  <si>
-    <t>Soul Gem of Galith</t>
-  </si>
-  <si>
-    <t>Used in the ancient magic of Rebirth.</t>
-  </si>
-  <si>
-    <t>Judges Helm</t>
-  </si>
-  <si>
-    <t>Back when there was a set of entities known as Judges these were the helms they would wear. Formidable look is what it gave them.</t>
-  </si>
-  <si>
-    <t>Judges Cards</t>
-  </si>
-  <si>
-    <t>A set of cards that the Judges of the past would use to apply the law of the land in an instant.</t>
-  </si>
-  <si>
-    <t>Stolen Coin</t>
-  </si>
-  <si>
-    <t>A simple single coin, that was stolen from a merchant. Did it spark the war?</t>
-  </si>
-  <si>
-    <t>Smugglers Coin</t>
-  </si>
-  <si>
-    <t>Smugglers Coin is an old coin that was once found by The Poet on The Soldier when he first arrived. Now The Soldier hands you the coin.</t>
-  </si>
-  <si>
-    <t>Pirates Lost Key</t>
-  </si>
-  <si>
-    <t>This was once used to open an old vault that was once under Smugglers Port. The key no longer works as the entire vault was demolished long ago.</t>
-  </si>
-  <si>
-    <t>Corrupted Bracelet</t>
-  </si>
-  <si>
-    <t>A corrupted bracelet that eminates dark magic.</t>
-  </si>
-  <si>
-    <t>Shade Dust</t>
-  </si>
-  <si>
-    <t>Dust dropped by the shadows of The Creator. A bit of the past is trapped in this bottle. A bit of the pain, misery and sense of self loathing emanates through you as you hold it.</t>
-  </si>
-  <si>
-    <t>Scholars Necklace</t>
-  </si>
-  <si>
-    <t>Stolen by a cultist from the Scholar of Hell, he might be happy to have this back.</t>
-  </si>
-  <si>
-    <t>The Quartermasters Severed Head</t>
-  </si>
-  <si>
-    <t>You hack, slash and sever the head of the corpse. The blood drains quickly from the head as you place it into the sack.</t>
-  </si>
-  <si>
-    <t>Merchants Walking Stick</t>
-  </si>
-  <si>
-    <t>The Wandering Merchant seems to have lost his walking stick. Will this help guide you back to him?</t>
-  </si>
-  <si>
-    <t>Simple Gem Necklace</t>
-  </si>
-  <si>
-    <t>The gem on this necklace holds a single memory, once you cannot tap into, but one another might be able to.</t>
-  </si>
-  <si>
-    <t>Lost Tome Of Spells</t>
-  </si>
-  <si>
-    <t>A lost tome The Witch was looking for.</t>
-  </si>
-  <si>
-    <t>Clean White Feather</t>
-  </si>
-  <si>
-    <t>A single clean white feather the Dungeon Master is searching for.</t>
-  </si>
-  <si>
-    <t>Ratty Toy Bear</t>
-  </si>
-  <si>
-    <t>Given to you by the Dungeon Master for the Clean White Feather. A memory of your own past.</t>
-  </si>
-  <si>
-    <t>Queens Lost Bracelet</t>
-  </si>
-  <si>
-    <t>The Queen has lost her bracelet here at this weird looking metal wreck. Why it's called a wreck you have no idea. But she lost it here.</t>
-  </si>
-  <si>
-    <t>The Frozen Wreck</t>
-  </si>
-  <si>
-    <t>Wedding Ring</t>
-  </si>
-  <si>
-    <t>A simple diamond wedding ring</t>
-  </si>
-  <si>
-    <t>Christmas Ornament</t>
-  </si>
-  <si>
-    <t>A single shiny silver object that hangs from the tree. What does it symbolize?</t>
-  </si>
-  <si>
-    <t>Abandoned Village</t>
-  </si>
-  <si>
-    <t>Snow balls</t>
-  </si>
-  <si>
-    <t>Round and fluffy, they are fun to throw at people.</t>
-  </si>
-  <si>
-    <t>Coal and Carrot</t>
-  </si>
-  <si>
-    <t>A carrot and two pieces of coal. What are we doing with this?</t>
-  </si>
-  <si>
-    <t>Top Hat and Scarf</t>
-  </si>
-  <si>
-    <t>Who would ware these? They seem so ugly.</t>
-  </si>
-  <si>
-    <t>Ice Skates</t>
-  </si>
-  <si>
-    <t>Should make walking on the ice easier.</t>
-  </si>
-  <si>
-    <t>walk-on-ice</t>
-  </si>
-  <si>
-    <t>Busted Pocket Watch</t>
-  </si>
-  <si>
-    <t>A busted pocket watch stuck on a time from long ago.</t>
-  </si>
-  <si>
-    <t>Queens Coin</t>
-  </si>
-  <si>
-    <t>The a simple coin for the queen - the currency of The Queen</t>
-  </si>
-  <si>
-    <t>Broken Knife</t>
-  </si>
-  <si>
-    <t>A broken knife found in the bank on the ground. What is the story here?</t>
-  </si>
-  <si>
-    <t>Frozen Queens Bank</t>
-  </si>
-  <si>
-    <t>Frozen Cat Toy</t>
-  </si>
-  <si>
-    <t>Mr. Whiskers does love his cat toys.</t>
-  </si>
-  <si>
-    <t>Looting</t>
-  </si>
-  <si>
-    <t>Candy Cane</t>
-  </si>
-  <si>
-    <t>A delicious looking red and white striped cane looking candy treat.</t>
-  </si>
-  <si>
-    <t>Catnip</t>
-  </si>
-  <si>
-    <t>Mr. Whiskers might like this. it's common fact that all cats are drug addicts.</t>
-  </si>
-  <si>
-    <t>Christmas Card</t>
-  </si>
-  <si>
-    <t>A Christmas card that reads: "We are sorry for your loss, but do know that Mr. Whiskers has moved on to a better place. He is beyond the rainbow and is playing and waiting for you to one day, far into the future, when you are old and lived a long and happy life, join him."</t>
-  </si>
-  <si>
-    <t>Gift Wrapped Ashes</t>
-  </si>
-  <si>
-    <t>A gift wrap box of ashes, examining the box it states: Mr. Whiskers - Goose. Why is it gift wrapped? That's so depressing.</t>
-  </si>
-  <si>
-    <t>The Queens Diary</t>
-  </si>
-  <si>
-    <t>The diary of the queen. No matter how hard you try, the book will not open. The back of the book has a name inscribed: The Poet.</t>
-  </si>
-  <si>
-    <t>The Key To Home</t>
-  </si>
-  <si>
-    <t>The key to The Fathers Tomb.</t>
-  </si>
-  <si>
-    <t>Bloody Shirt</t>
-  </si>
-  <si>
-    <t>A basic shirt covered in blood.</t>
-  </si>
-  <si>
-    <t>Broken Forest Road</t>
-  </si>
-  <si>
-    <t>The Child's Journal</t>
-  </si>
-  <si>
-    <t>When The child entered the poets house, he found a journal - it was about him, but it was only partially filled. He found other journals about other people, including that of The Soldier</t>
-  </si>
-  <si>
-    <t>The Soldiers Journal</t>
-  </si>
-  <si>
-    <t>The journal of a man who fell in love, a man who had a forbidden love. A man who fought with The Federation, who lost his brother and who became a drunkard who now hides away in his own thoughts.</t>
-  </si>
-  <si>
-    <t>Bloody Snowball</t>
-  </si>
-  <si>
-    <t>Blood stained snowball, a child's broken memory.</t>
-  </si>
-  <si>
-    <t>Pages of the holy book</t>
-  </si>
-  <si>
-    <t>pages that detail the scripture of The Churches holy book</t>
-  </si>
-  <si>
-    <t>Bloody Snowman</t>
-  </si>
-  <si>
-    <t>Box of Memories</t>
-  </si>
-  <si>
-    <t>A child's toy that lights up and shows a story as it spins</t>
-  </si>
-  <si>
-    <t>Child's Drawings</t>
-  </si>
-  <si>
-    <t>Drawing children have done in secret, they tell of a war they plotted against the church. It almost looks like a map.</t>
-  </si>
-  <si>
-    <t>Red Hawks Sword</t>
-  </si>
-  <si>
-    <t>A Red Hawk Sword used in the attack on The Church</t>
-  </si>
-  <si>
-    <t>The Letter</t>
-  </si>
-  <si>
-    <t>A latter The Soldiers Brother wrote for The Soldier him self.</t>
-  </si>
-  <si>
-    <t>Ice Queens Treaty Scrolls</t>
-  </si>
-  <si>
-    <t>Allows one to settle on the Ice Plane. Kingdoms on the Ice Plane will not have 7 day protection.</t>
-  </si>
-  <si>
-    <t>settle-on-the-ice-plane</t>
-  </si>
-  <si>
-    <t>Ice Shard of Memories</t>
-  </si>
-  <si>
-    <t>A simple piece of ice that never melts but always feels cold. It holds a memory of another time.</t>
-  </si>
-  <si>
-    <t>Bottle of Frozen Tears</t>
-  </si>
-  <si>
-    <t>The tears of a child that have been frozen in time.</t>
-  </si>
-  <si>
-    <t>Ice Stave of Hope</t>
-  </si>
-  <si>
-    <t>A stave made of ice that holds the last hope of a grieving mother</t>
-  </si>
-  <si>
-    <t>Wilted Frozen Rose</t>
-  </si>
-  <si>
-    <t>A single rose placed upon the tombstone of a child.</t>
-  </si>
-  <si>
-    <t>The Old Church</t>
-  </si>
-  <si>
-    <t>Love Letter</t>
-  </si>
-  <si>
-    <t>A love letter written by The Child to his then lover.</t>
-  </si>
-  <si>
-    <t>The Poets Walking Stick</t>
-  </si>
-  <si>
-    <t>A simple walking stick used by The Poet</t>
-  </si>
-  <si>
-    <t>Rusted Keys</t>
-  </si>
-  <si>
-    <t>A set of keys that once made the frozen wreck move.</t>
-  </si>
-  <si>
-    <t>Husbands Wallet</t>
-  </si>
-  <si>
-    <t>A wallet covered in blood with a single picture of The Creators father</t>
-  </si>
-  <si>
-    <t>Christmas Tree Light Bulb</t>
-  </si>
-  <si>
-    <t>Allows you to enter: The Old Church (X/Y): 80/256 while on The Ice Plane during The Winter Event.</t>
-  </si>
-  <si>
-    <t>Emerald Necklace</t>
-  </si>
-  <si>
-    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
-  </si>
-  <si>
-    <t>Slaves Journal</t>
-  </si>
-  <si>
-    <t>A journal that details the work the slaves had to do in the mines.</t>
-  </si>
-  <si>
-    <t>Dwarven Chains</t>
-  </si>
-  <si>
-    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
-  </si>
-  <si>
-    <t>Broken Childs Doll</t>
-  </si>
-  <si>
-    <t>A broken doll that was once treasured by a child.</t>
-  </si>
-  <si>
-    <t>Clerical Tome of Prairs</t>
-  </si>
-  <si>
-    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
-  </si>
-  <si>
-    <t>Federation Broach</t>
-  </si>
-  <si>
-    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
-  </si>
-  <si>
-    <t>Twisted Tree Branch</t>
-  </si>
-  <si>
-    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
-  </si>
-  <si>
-    <t>Childs Faceless Idol</t>
-  </si>
-  <si>
-    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
-  </si>
-  <si>
-    <t>mercenary-slot-bonus</t>
-  </si>
-  <si>
-    <t>Mothers Quill</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
-  </si>
-  <si>
-    <t>Scholars Glasses</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
-  </si>
-  <si>
-    <t>Lover of the queens charred bones</t>
-  </si>
-  <si>
-    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2113,7 @@
     <col min="57" max="57" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="58" max="58" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="59" max="59" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="60" max="60" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="37.705" bestFit="true" customWidth="true" style="0"/>
     <col min="61" max="61" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="62" max="62" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="63" max="63" width="26.993" bestFit="true" customWidth="true" style="0"/>
@@ -2333,7 +2348,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1094958</v>
+        <v>1094959</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2371,21 +2386,9 @@
       <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
       <c r="BB2">
         <v>0</v>
       </c>
@@ -2403,6 +2406,9 @@
       </c>
       <c r="BG2">
         <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>75</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -2422,16 +2428,16 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>1094970</v>
+        <v>1094971</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="BH3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2514,16 +2520,16 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>1094969</v>
+        <v>1094970</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="BH4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2606,16 +2612,16 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>1094968</v>
+        <v>1094969</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2676,6 +2682,9 @@
       </c>
       <c r="BG5">
         <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2695,16 +2704,16 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>1094967</v>
+        <v>1094968</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2714,6 +2723,9 @@
       </c>
       <c r="Z6">
         <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>87</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -2784,16 +2796,16 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>1094966</v>
+        <v>1094967</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2873,16 +2885,16 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>1094965</v>
+        <v>1094966</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2911,21 +2923,9 @@
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
       <c r="AV8">
         <v>0</v>
       </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
       <c r="BB8">
         <v>0</v>
       </c>
@@ -2943,6 +2943,9 @@
       </c>
       <c r="BG8">
         <v>0</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>92</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -2962,16 +2965,16 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>1094964</v>
+        <v>1094965</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3000,21 +3003,9 @@
       <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
       <c r="BB9">
         <v>0</v>
       </c>
@@ -3032,6 +3023,9 @@
       </c>
       <c r="BG9">
         <v>0</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>95</v>
       </c>
       <c r="BM9">
         <v>0</v>
@@ -3051,16 +3045,16 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>1094963</v>
+        <v>1094964</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3089,21 +3083,9 @@
       <c r="AM10">
         <v>0</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
       <c r="AV10">
         <v>0</v>
       </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
       <c r="BB10">
         <v>0</v>
       </c>
@@ -3121,6 +3103,9 @@
       </c>
       <c r="BG10">
         <v>0</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>95</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -3140,16 +3125,16 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>1094962</v>
+        <v>1094963</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3178,21 +3163,9 @@
       <c r="AM11">
         <v>0</v>
       </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
       <c r="AV11">
         <v>0</v>
       </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
       <c r="BB11">
         <v>0</v>
       </c>
@@ -3210,6 +3183,9 @@
       </c>
       <c r="BG11">
         <v>0</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>95</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3229,16 +3205,16 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>1094961</v>
+        <v>1094962</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3267,21 +3243,9 @@
       <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
       <c r="AV12">
         <v>0</v>
       </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
       <c r="BB12">
         <v>0</v>
       </c>
@@ -3299,6 +3263,9 @@
       </c>
       <c r="BG12">
         <v>0</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>95</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3318,16 +3285,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>1094960</v>
+        <v>1094961</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3390,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="BH13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3410,16 +3377,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1094959</v>
+        <v>1094960</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3448,19 +3415,7 @@
       <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
       <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
         <v>0</v>
       </c>
       <c r="BB14">
@@ -3499,16 +3454,16 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1094946</v>
+        <v>1094947</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3571,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="BH15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -3591,16 +3546,16 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>1094957</v>
+        <v>1094958</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3661,6 +3616,9 @@
       </c>
       <c r="BG16">
         <v>0</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>111</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3680,16 +3638,16 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>1094956</v>
+        <v>1094957</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3750,6 +3708,9 @@
       </c>
       <c r="BG17">
         <v>0</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>111</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -3769,16 +3730,16 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>1094955</v>
+        <v>1094956</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3841,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="BH18" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -3861,16 +3822,16 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>1094954</v>
+        <v>1094955</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3933,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="BH19" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -3953,16 +3914,16 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>1094953</v>
+        <v>1094954</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -4025,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="BH20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -4045,16 +4006,16 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>1094952</v>
+        <v>1094953</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -4117,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="BH21" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -4137,16 +4098,16 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>1094951</v>
+        <v>1094952</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -4209,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="BH22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -4229,16 +4190,16 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>1094950</v>
+        <v>1094951</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4267,21 +4228,9 @@
       <c r="AM23">
         <v>0</v>
       </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
       <c r="AV23">
         <v>0</v>
       </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
       <c r="BB23">
         <v>0</v>
       </c>
@@ -4301,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="BH23" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="BM23">
         <v>0</v>
@@ -4321,16 +4270,16 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>1094949</v>
+        <v>1094950</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4359,21 +4308,9 @@
       <c r="AM24">
         <v>0</v>
       </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
       <c r="AV24">
         <v>0</v>
       </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
       <c r="BB24">
         <v>0</v>
       </c>
@@ -4393,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="BH24" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -4413,16 +4350,16 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>1094948</v>
+        <v>1094949</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4483,6 +4420,9 @@
       </c>
       <c r="BG25">
         <v>0</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>104</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -4502,16 +4442,16 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>1094947</v>
+        <v>1094948</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4540,21 +4480,9 @@
       <c r="AM26">
         <v>0</v>
       </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
       <c r="AV26">
         <v>0</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
       <c r="BB26">
         <v>0</v>
       </c>
@@ -4572,6 +4500,9 @@
       </c>
       <c r="BG26">
         <v>0</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>127</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4594,13 +4525,13 @@
         <v>487</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4615,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="AG27" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AH27">
         <v>0.15</v>
@@ -4692,13 +4623,13 @@
         <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4719,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="AG28" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AH28">
         <v>0.15</v>
@@ -4796,13 +4727,13 @@
         <v>489</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4814,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -4888,13 +4819,13 @@
         <v>490</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4909,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AG30" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AH30">
         <v>0.15</v>
@@ -4986,13 +4917,13 @@
         <v>491</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5013,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="AG31" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AH31">
         <v>0.15</v>
@@ -5090,13 +5021,13 @@
         <v>492</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -5111,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="AG32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AH32">
         <v>0.15</v>
@@ -5188,13 +5119,13 @@
         <v>493</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -5206,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -5280,13 +5211,13 @@
         <v>494</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5304,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -5378,13 +5309,13 @@
         <v>495</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5402,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -5473,13 +5404,13 @@
         <v>496</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5497,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -5568,13 +5499,13 @@
         <v>497</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5663,13 +5594,13 @@
         <v>498</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5758,13 +5689,13 @@
         <v>499</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5785,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="AG39" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AH39">
         <v>0.5</v>
@@ -5862,13 +5793,13 @@
         <v>500</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5889,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="AG40" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AH40">
         <v>0.5</v>
@@ -5966,13 +5897,13 @@
         <v>501</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5993,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="AG41" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AH41">
         <v>0.5</v>
@@ -6070,13 +6001,13 @@
         <v>502</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -6097,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="AG42" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AH42">
         <v>0.5</v>
@@ -6174,13 +6105,13 @@
         <v>503</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -6198,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AH43">
         <v>0.5</v>
@@ -6275,13 +6206,13 @@
         <v>504</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
         <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6370,13 +6301,13 @@
         <v>505</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6394,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -6465,13 +6396,13 @@
         <v>506</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6489,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AH46">
         <v>0.45</v>
@@ -6566,13 +6497,13 @@
         <v>507</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6590,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="AG47" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AH47">
         <v>0.45</v>
@@ -6667,13 +6598,13 @@
         <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6691,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6762,13 +6693,13 @@
         <v>509</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6786,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6857,13 +6788,13 @@
         <v>510</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6881,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -6952,13 +6883,13 @@
         <v>511</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6976,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="AA51" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -7047,13 +6978,13 @@
         <v>512</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -7139,13 +7070,13 @@
         <v>513</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7163,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="AA53" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -7234,13 +7165,13 @@
         <v>514</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7258,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -7329,13 +7260,13 @@
         <v>515</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7353,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -7424,13 +7355,13 @@
         <v>516</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -7516,13 +7447,13 @@
         <v>517</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7608,13 +7539,13 @@
         <v>518</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7700,13 +7631,13 @@
         <v>519</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7724,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7795,13 +7726,13 @@
         <v>520</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7867,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="BH60" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="BM60">
         <v>0</v>
@@ -7890,13 +7821,13 @@
         <v>521</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7962,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="BH61" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -7985,13 +7916,13 @@
         <v>522</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -8077,13 +8008,13 @@
         <v>523</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -8149,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="BH63" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BM63">
         <v>0</v>
@@ -8172,13 +8103,13 @@
         <v>524</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8196,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -8267,13 +8198,13 @@
         <v>525</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8339,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="BH65" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BM65">
         <v>0</v>
@@ -8362,13 +8293,13 @@
         <v>526</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8386,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AG66" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AH66">
         <v>0.25</v>
@@ -8443,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="BH66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BM66">
         <v>0</v>
@@ -8466,13 +8397,13 @@
         <v>527</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8490,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="AG67" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AH67">
         <v>0.75</v>
@@ -8547,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="BH67" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BM67">
         <v>0</v>
@@ -8570,13 +8501,13 @@
         <v>528</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8662,13 +8593,13 @@
         <v>529</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8686,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AG69" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AH69">
         <v>0.75</v>
@@ -8763,13 +8694,13 @@
         <v>530</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8787,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AI70">
         <v>0</v>
@@ -8858,13 +8789,13 @@
         <v>531</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8882,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8953,13 +8884,13 @@
         <v>532</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -9045,13 +8976,13 @@
         <v>533</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -9117,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="BH73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -9140,13 +9071,13 @@
         <v>534</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -9232,13 +9163,13 @@
         <v>535</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9292,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="BH75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -9315,13 +9246,13 @@
         <v>536</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9407,13 +9338,13 @@
         <v>537</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9499,13 +9430,13 @@
         <v>538</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9591,13 +9522,13 @@
         <v>539</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9663,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9686,13 +9617,13 @@
         <v>540</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9758,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="BH80" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9781,13 +9712,13 @@
         <v>541</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9876,13 +9807,13 @@
         <v>542</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9948,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="BH82" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BM82">
         <v>0</v>
@@ -9971,13 +9902,13 @@
         <v>543</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -10043,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -10066,13 +9997,13 @@
         <v>544</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -10138,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="BH84" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -10161,13 +10092,13 @@
         <v>545</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -10256,13 +10187,13 @@
         <v>546</v>
       </c>
       <c r="C86" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10328,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="BH86" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -10351,13 +10282,13 @@
         <v>547</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10446,13 +10377,13 @@
         <v>548</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10541,13 +10472,13 @@
         <v>549</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10613,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="BH89" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BI89">
         <v>0.8</v>
@@ -10639,13 +10570,13 @@
         <v>550</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10663,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="AA90" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -10680,7 +10611,19 @@
       <c r="AM90">
         <v>0</v>
       </c>
+      <c r="AS90">
+        <v>0</v>
+      </c>
       <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
         <v>0</v>
       </c>
       <c r="BB90">
@@ -10722,13 +10665,13 @@
         <v>551</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10794,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="BH91" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10817,13 +10760,13 @@
         <v>552</v>
       </c>
       <c r="C92" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -10889,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BH92" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BM92">
         <v>0</v>
@@ -10912,13 +10855,13 @@
         <v>553</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -11004,13 +10947,13 @@
         <v>554</v>
       </c>
       <c r="C94" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -11028,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -11099,13 +11042,13 @@
         <v>555</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D95" t="s">
         <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -11171,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="BH95" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BI95">
         <v>0.05</v>
@@ -11200,13 +11143,13 @@
         <v>556</v>
       </c>
       <c r="C96" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D96" t="s">
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -11298,13 +11241,13 @@
         <v>557</v>
       </c>
       <c r="C97" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
         <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -11370,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="BH97" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BI97">
         <v>0.15</v>
@@ -11399,13 +11342,13 @@
         <v>558</v>
       </c>
       <c r="C98" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -11497,13 +11440,13 @@
         <v>559</v>
       </c>
       <c r="C99" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -11595,13 +11538,13 @@
         <v>560</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11687,13 +11630,13 @@
         <v>561</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D101" t="s">
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -11759,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="BH101" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -11782,13 +11725,13 @@
         <v>562</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D102" t="s">
         <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -11854,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="BH102" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BM102">
         <v>0</v>
@@ -11877,13 +11820,13 @@
         <v>563</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D103" t="s">
         <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -11949,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="BH103" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11972,13 +11915,13 @@
         <v>564</v>
       </c>
       <c r="C104" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -12044,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="BH104" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -12067,13 +12010,13 @@
         <v>565</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -12165,13 +12108,13 @@
         <v>566</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
         <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -12237,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="BH106" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -12260,13 +12203,13 @@
         <v>567</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="G107" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -12358,13 +12301,13 @@
         <v>568</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -12430,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="BH108" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -12453,13 +12396,13 @@
         <v>569</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12477,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AG109" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AH109">
         <v>0.25</v>
@@ -12554,13 +12497,13 @@
         <v>570</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12578,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="AG110" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AH110">
         <v>0.25</v>
@@ -12655,13 +12598,13 @@
         <v>571</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12679,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="AG111" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AI111">
         <v>0</v>
@@ -12753,13 +12696,13 @@
         <v>572</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12777,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="AG112" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AI112">
         <v>0</v>
@@ -12851,13 +12794,13 @@
         <v>573</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12875,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="AG113" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AI113">
         <v>0</v>
@@ -12949,13 +12892,13 @@
         <v>574</v>
       </c>
       <c r="C114" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -12973,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="AG114" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AI114">
         <v>0</v>
@@ -13047,13 +12990,13 @@
         <v>575</v>
       </c>
       <c r="C115" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -13071,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="AG115" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AI115">
         <v>0</v>
@@ -13145,13 +13088,13 @@
         <v>576</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -13169,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="AG116" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AI116">
         <v>0</v>
@@ -13243,13 +13186,13 @@
         <v>577</v>
       </c>
       <c r="C117" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -13267,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="AG117" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AI117">
         <v>0</v>
@@ -13341,13 +13284,13 @@
         <v>578</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -13365,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="AG118" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -13439,13 +13382,13 @@
         <v>579</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D119" t="s">
         <v>73</v>
       </c>
       <c r="G119" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -13463,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AI119">
         <v>0</v>
@@ -13537,13 +13480,13 @@
         <v>580</v>
       </c>
       <c r="C120" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D120" t="s">
         <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -13561,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="AG120" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -13635,13 +13578,13 @@
         <v>581</v>
       </c>
       <c r="C121" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D121" t="s">
         <v>73</v>
       </c>
       <c r="G121" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -13659,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AG121" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AI121">
         <v>0</v>
@@ -13733,13 +13676,13 @@
         <v>582</v>
       </c>
       <c r="C122" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D122" t="s">
         <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -13757,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="AG122" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AH122">
         <v>0.5</v>
@@ -13834,13 +13777,13 @@
         <v>583</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -13858,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="AG123" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AI123">
         <v>0</v>
@@ -13932,13 +13875,13 @@
         <v>584</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -13956,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="AG124" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AI124">
         <v>0</v>
@@ -14030,13 +13973,13 @@
         <v>585</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -14054,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="AG125" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AI125">
         <v>0</v>
@@ -14128,13 +14071,13 @@
         <v>586</v>
       </c>
       <c r="C126" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -14223,13 +14166,13 @@
         <v>587</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -14247,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="AA127" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AI127">
         <v>0</v>
@@ -14318,13 +14261,13 @@
         <v>588</v>
       </c>
       <c r="C128" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
         <v>73</v>
       </c>
       <c r="G128" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -14416,13 +14359,13 @@
         <v>589</v>
       </c>
       <c r="C129" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D129" t="s">
         <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -14440,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="AA129" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AI129">
         <v>0</v>
@@ -14511,13 +14454,13 @@
         <v>590</v>
       </c>
       <c r="C130" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D130" t="s">
         <v>73</v>
       </c>
       <c r="G130" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -14535,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="AG130" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AI130">
         <v>0</v>
@@ -14609,13 +14552,13 @@
         <v>591</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D131" t="s">
         <v>73</v>
       </c>
       <c r="G131" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -14633,7 +14576,7 @@
         <v>0</v>
       </c>
       <c r="AG131" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -14707,13 +14650,13 @@
         <v>592</v>
       </c>
       <c r="C132" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D132" t="s">
         <v>73</v>
       </c>
       <c r="G132" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -14805,13 +14748,13 @@
         <v>593</v>
       </c>
       <c r="C133" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D133" t="s">
         <v>73</v>
       </c>
       <c r="G133" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14897,13 +14840,13 @@
         <v>594</v>
       </c>
       <c r="C134" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -14924,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="AG134" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AH134">
         <v>0.5</v>
@@ -15001,13 +14944,13 @@
         <v>595</v>
       </c>
       <c r="C135" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -15070,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="BH135" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="BM135">
         <v>0</v>
@@ -15093,13 +15036,13 @@
         <v>596</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -15162,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="BH136" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="BM136">
         <v>0</v>
@@ -15185,13 +15128,13 @@
         <v>597</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D137" t="s">
         <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -15206,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="AG137" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AH137">
         <v>0.1</v>
@@ -15283,13 +15226,13 @@
         <v>598</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D138" t="s">
         <v>73</v>
       </c>
       <c r="G138" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -15352,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="BH138" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM138">
         <v>0</v>
@@ -15375,13 +15318,13 @@
         <v>599</v>
       </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
         <v>73</v>
       </c>
       <c r="G139" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -15396,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="AG139" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AH139">
         <v>0.25</v>
@@ -15473,13 +15416,13 @@
         <v>600</v>
       </c>
       <c r="C140" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D140" t="s">
         <v>73</v>
       </c>
       <c r="G140" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -15542,7 +15485,7 @@
         <v>0</v>
       </c>
       <c r="BH140" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BM140">
         <v>0</v>
@@ -15565,13 +15508,13 @@
         <v>601</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
         <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -15586,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="AG141" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AH141">
         <v>0.35</v>
@@ -15663,13 +15606,13 @@
         <v>602</v>
       </c>
       <c r="C142" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
         <v>73</v>
       </c>
       <c r="G142" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="O142">
         <v>0</v>
@@ -15732,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="BH142" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BM142">
         <v>0</v>
@@ -15755,13 +15698,13 @@
         <v>603</v>
       </c>
       <c r="C143" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
         <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -15776,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AG143" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AH143">
         <v>0.5</v>
@@ -15853,13 +15796,13 @@
         <v>604</v>
       </c>
       <c r="C144" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D144" t="s">
         <v>73</v>
       </c>
       <c r="G144" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -15922,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="BH144" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM144">
         <v>0</v>
@@ -15945,13 +15888,13 @@
         <v>605</v>
       </c>
       <c r="C145" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
       </c>
       <c r="G145" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -16034,13 +15977,13 @@
         <v>606</v>
       </c>
       <c r="C146" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D146" t="s">
         <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="O146">
         <v>0</v>
@@ -16123,13 +16066,13 @@
         <v>607</v>
       </c>
       <c r="C147" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D147" t="s">
         <v>73</v>
       </c>
       <c r="G147" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -16141,7 +16084,7 @@
         <v>0</v>
       </c>
       <c r="AA147" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AC147">
         <v>1</v>
@@ -16215,13 +16158,13 @@
         <v>608</v>
       </c>
       <c r="C148" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D148" t="s">
         <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -16304,13 +16247,13 @@
         <v>609</v>
       </c>
       <c r="C149" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D149" t="s">
         <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -16393,13 +16336,13 @@
         <v>610</v>
       </c>
       <c r="C150" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -16482,13 +16425,13 @@
         <v>611</v>
       </c>
       <c r="C151" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -16571,13 +16514,13 @@
         <v>612</v>
       </c>
       <c r="C152" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -16660,13 +16603,13 @@
         <v>613</v>
       </c>
       <c r="C153" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -16729,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="BH153" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16752,13 +16695,13 @@
         <v>614</v>
       </c>
       <c r="C154" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -16821,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="BH154" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16844,13 +16787,13 @@
         <v>615</v>
       </c>
       <c r="C155" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -16933,13 +16876,13 @@
         <v>616</v>
       </c>
       <c r="C156" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -17002,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="BH156" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -17025,13 +16968,13 @@
         <v>617</v>
       </c>
       <c r="C157" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -17114,13 +17057,13 @@
         <v>618</v>
       </c>
       <c r="C158" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -17183,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="BH158" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -17206,13 +17149,13 @@
         <v>619</v>
       </c>
       <c r="C159" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -17275,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="BH159" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -17298,13 +17241,13 @@
         <v>620</v>
       </c>
       <c r="C160" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -17387,13 +17330,13 @@
         <v>621</v>
       </c>
       <c r="C161" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -17456,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="BH161" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM161">
         <v>0</v>
@@ -17479,13 +17422,13 @@
         <v>622</v>
       </c>
       <c r="C162" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -17568,13 +17511,13 @@
         <v>623</v>
       </c>
       <c r="C163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17657,13 +17600,13 @@
         <v>624</v>
       </c>
       <c r="C164" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17746,13 +17689,13 @@
         <v>625</v>
       </c>
       <c r="C165" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D165" t="s">
         <v>73</v>
       </c>
       <c r="G165" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -17835,13 +17778,13 @@
         <v>626</v>
       </c>
       <c r="C166" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
         <v>73</v>
       </c>
       <c r="G166" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -17924,13 +17867,13 @@
         <v>627</v>
       </c>
       <c r="C167" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -18013,13 +17956,13 @@
         <v>628</v>
       </c>
       <c r="C168" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -18102,13 +18045,13 @@
         <v>629</v>
       </c>
       <c r="C169" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -18191,13 +18134,13 @@
         <v>630</v>
       </c>
       <c r="C170" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D170" t="s">
         <v>73</v>
       </c>
       <c r="G170" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -18280,13 +18223,13 @@
         <v>631</v>
       </c>
       <c r="C171" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -18369,13 +18312,13 @@
         <v>632</v>
       </c>
       <c r="C172" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D172" t="s">
         <v>73</v>
       </c>
       <c r="G172" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -18458,13 +18401,13 @@
         <v>633</v>
       </c>
       <c r="C173" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D173" t="s">
         <v>73</v>
       </c>
       <c r="G173" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -18547,13 +18490,13 @@
         <v>210180</v>
       </c>
       <c r="C174" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18616,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="BH174" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18639,13 +18582,13 @@
         <v>210181</v>
       </c>
       <c r="C175" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18708,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="BH175" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="BM175">
         <v>0</v>
@@ -18731,13 +18674,13 @@
         <v>210182</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -18800,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="BH176" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18823,13 +18766,13 @@
         <v>210183</v>
       </c>
       <c r="C177" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -18844,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="AG177" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AH177">
         <v>0.35</v>
@@ -18901,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18924,13 +18867,13 @@
         <v>210184</v>
       </c>
       <c r="C178" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D178" t="s">
         <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -18993,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="BH178" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -19016,13 +18959,13 @@
         <v>210185</v>
       </c>
       <c r="C179" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D179" t="s">
         <v>73</v>
       </c>
       <c r="G179" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -19085,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="BH179" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -19108,13 +19051,13 @@
         <v>210186</v>
       </c>
       <c r="C180" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -19126,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="AA180" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AC180">
         <v>1</v>
@@ -19200,13 +19143,13 @@
         <v>210187</v>
       </c>
       <c r="C181" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
       </c>
       <c r="G181" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -19269,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="BH181" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="BM181">
         <v>0</v>
@@ -19292,13 +19235,13 @@
         <v>210188</v>
       </c>
       <c r="C182" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D182" t="s">
         <v>73</v>
       </c>
       <c r="G182" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -19381,13 +19324,13 @@
         <v>210189</v>
       </c>
       <c r="C183" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D183" t="s">
         <v>73</v>
       </c>
       <c r="G183" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -19402,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="AG183" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AH183">
         <v>0.6</v>
@@ -19459,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="BH183" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -19482,13 +19425,13 @@
         <v>210190</v>
       </c>
       <c r="C184" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D184" t="s">
         <v>73</v>
       </c>
       <c r="G184" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -19503,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AG184" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AH184">
         <v>1</v>
@@ -19560,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="BH184" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19583,13 +19526,13 @@
         <v>210191</v>
       </c>
       <c r="C185" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D185" t="s">
         <v>73</v>
       </c>
       <c r="G185" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -19652,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="BH185" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BM185">
         <v>0</v>
@@ -19675,13 +19618,13 @@
         <v>210192</v>
       </c>
       <c r="C186" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D186" t="s">
         <v>73</v>
       </c>
       <c r="G186" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -19696,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="AG186" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AH186">
         <v>0.3</v>
@@ -19753,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="BH186" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BM186">
         <v>0</v>
@@ -19776,13 +19719,13 @@
         <v>210193</v>
       </c>
       <c r="C187" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D187" t="s">
         <v>73</v>
       </c>
       <c r="G187" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -19845,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="BH187" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BM187">
         <v>0</v>
@@ -19868,13 +19811,13 @@
         <v>210194</v>
       </c>
       <c r="C188" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D188" t="s">
         <v>73</v>
       </c>
       <c r="G188" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -19937,7 +19880,7 @@
         <v>0</v>
       </c>
       <c r="BH188" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BM188">
         <v>0</v>
@@ -19960,13 +19903,13 @@
         <v>210195</v>
       </c>
       <c r="C189" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="G189" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -20049,13 +19992,13 @@
         <v>210196</v>
       </c>
       <c r="C190" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="G190" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -20138,13 +20081,13 @@
         <v>210197</v>
       </c>
       <c r="C191" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="G191" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -20207,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="BH191" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -20230,13 +20173,13 @@
         <v>210198</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="G192" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -20299,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="BH192" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -20322,13 +20265,13 @@
         <v>210199</v>
       </c>
       <c r="C193" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -20391,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="BH193" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -20414,13 +20357,13 @@
         <v>210200</v>
       </c>
       <c r="C194" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -20503,13 +20446,13 @@
         <v>210201</v>
       </c>
       <c r="C195" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -20572,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="BH195" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="BM195">
         <v>0</v>
@@ -20595,13 +20538,13 @@
         <v>210202</v>
       </c>
       <c r="C196" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="G196" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -20616,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="AG196" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AH196">
         <v>0.75</v>
@@ -20673,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="BH196" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="BM196">
         <v>0</v>
@@ -20696,13 +20639,13 @@
         <v>210203</v>
       </c>
       <c r="C197" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="G197" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -20717,7 +20660,7 @@
         <v>1</v>
       </c>
       <c r="AG197" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AH197">
         <v>1</v>
@@ -20774,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="BH197" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20797,13 +20740,13 @@
         <v>210204</v>
       </c>
       <c r="C198" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20866,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="BH198" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20889,13 +20832,13 @@
         <v>210205</v>
       </c>
       <c r="C199" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -20978,13 +20921,13 @@
         <v>210206</v>
       </c>
       <c r="C200" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20996,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="AA200" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AC200">
         <v>1</v>
@@ -21070,13 +21013,13 @@
         <v>210207</v>
       </c>
       <c r="C201" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -21091,7 +21034,7 @@
         <v>1</v>
       </c>
       <c r="AG201" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AH201">
         <v>1</v>
@@ -21148,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -21171,13 +21114,13 @@
         <v>210208</v>
       </c>
       <c r="C202" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -21260,13 +21203,13 @@
         <v>210209</v>
       </c>
       <c r="C203" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -21349,13 +21292,13 @@
         <v>210210</v>
       </c>
       <c r="C204" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -21418,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="BH204" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -21441,13 +21384,13 @@
         <v>210211</v>
       </c>
       <c r="C205" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21510,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="BH205" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21533,13 +21476,13 @@
         <v>210212</v>
       </c>
       <c r="C206" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21622,13 +21565,13 @@
         <v>210213</v>
       </c>
       <c r="C207" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21691,7 +21634,7 @@
         <v>0</v>
       </c>
       <c r="BH207" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21714,13 +21657,13 @@
         <v>210214</v>
       </c>
       <c r="C208" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21803,13 +21746,13 @@
         <v>410519</v>
       </c>
       <c r="C209" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -21889,16 +21832,16 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>1094935</v>
+        <v>1094936</v>
       </c>
       <c r="C210" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -21927,21 +21870,9 @@
       <c r="AM210">
         <v>0</v>
       </c>
-      <c r="AS210">
-        <v>0</v>
-      </c>
       <c r="AV210">
         <v>0</v>
       </c>
-      <c r="AX210">
-        <v>0</v>
-      </c>
-      <c r="AY210">
-        <v>0</v>
-      </c>
-      <c r="BA210">
-        <v>0</v>
-      </c>
       <c r="BB210">
         <v>0</v>
       </c>
@@ -21961,7 +21892,7 @@
         <v>0</v>
       </c>
       <c r="BH210" t="s">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -21981,16 +21912,16 @@
     </row>
     <row r="211" spans="1:72">
       <c r="A211">
-        <v>1094936</v>
+        <v>1094937</v>
       </c>
       <c r="C211" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -22051,6 +21982,9 @@
       </c>
       <c r="BG211">
         <v>0</v>
+      </c>
+      <c r="BH211" t="s">
+        <v>81</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -22070,16 +22004,16 @@
     </row>
     <row r="212" spans="1:72">
       <c r="A212">
-        <v>1094937</v>
+        <v>1094938</v>
       </c>
       <c r="C212" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -22140,6 +22074,9 @@
       </c>
       <c r="BG212">
         <v>0</v>
+      </c>
+      <c r="BH212" t="s">
+        <v>81</v>
       </c>
       <c r="BM212">
         <v>0</v>
@@ -22159,16 +22096,16 @@
     </row>
     <row r="213" spans="1:72">
       <c r="A213">
-        <v>1094938</v>
+        <v>1094939</v>
       </c>
       <c r="C213" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -22197,21 +22134,9 @@
       <c r="AM213">
         <v>0</v>
       </c>
-      <c r="AS213">
-        <v>0</v>
-      </c>
       <c r="AV213">
         <v>0</v>
       </c>
-      <c r="AX213">
-        <v>0</v>
-      </c>
-      <c r="AY213">
-        <v>0</v>
-      </c>
-      <c r="BA213">
-        <v>0</v>
-      </c>
       <c r="BB213">
         <v>0</v>
       </c>
@@ -22229,6 +22154,9 @@
       </c>
       <c r="BG213">
         <v>0</v>
+      </c>
+      <c r="BH213" t="s">
+        <v>127</v>
       </c>
       <c r="BM213">
         <v>0</v>
@@ -22248,16 +22176,16 @@
     </row>
     <row r="214" spans="1:72">
       <c r="A214">
-        <v>1094939</v>
+        <v>1094940</v>
       </c>
       <c r="C214" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -22286,21 +22214,9 @@
       <c r="AM214">
         <v>0</v>
       </c>
-      <c r="AS214">
-        <v>0</v>
-      </c>
       <c r="AV214">
         <v>0</v>
       </c>
-      <c r="AX214">
-        <v>0</v>
-      </c>
-      <c r="AY214">
-        <v>0</v>
-      </c>
-      <c r="BA214">
-        <v>0</v>
-      </c>
       <c r="BB214">
         <v>0</v>
       </c>
@@ -22318,6 +22234,9 @@
       </c>
       <c r="BG214">
         <v>0</v>
+      </c>
+      <c r="BH214" t="s">
+        <v>127</v>
       </c>
       <c r="BM214">
         <v>0</v>
@@ -22337,16 +22256,16 @@
     </row>
     <row r="215" spans="1:72">
       <c r="A215">
-        <v>1094940</v>
+        <v>1094941</v>
       </c>
       <c r="C215" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -22375,21 +22294,9 @@
       <c r="AM215">
         <v>0</v>
       </c>
-      <c r="AS215">
-        <v>0</v>
-      </c>
       <c r="AV215">
         <v>0</v>
       </c>
-      <c r="AX215">
-        <v>0</v>
-      </c>
-      <c r="AY215">
-        <v>0</v>
-      </c>
-      <c r="BA215">
-        <v>0</v>
-      </c>
       <c r="BB215">
         <v>0</v>
       </c>
@@ -22407,6 +22314,9 @@
       </c>
       <c r="BG215">
         <v>0</v>
+      </c>
+      <c r="BH215" t="s">
+        <v>75</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22426,16 +22336,16 @@
     </row>
     <row r="216" spans="1:72">
       <c r="A216">
-        <v>1094941</v>
+        <v>1094942</v>
       </c>
       <c r="C216" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22464,21 +22374,9 @@
       <c r="AM216">
         <v>0</v>
       </c>
-      <c r="AS216">
-        <v>0</v>
-      </c>
       <c r="AV216">
         <v>0</v>
       </c>
-      <c r="AX216">
-        <v>0</v>
-      </c>
-      <c r="AY216">
-        <v>0</v>
-      </c>
-      <c r="BA216">
-        <v>0</v>
-      </c>
       <c r="BB216">
         <v>0</v>
       </c>
@@ -22496,6 +22394,9 @@
       </c>
       <c r="BG216">
         <v>0</v>
+      </c>
+      <c r="BH216" t="s">
+        <v>543</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22515,16 +22416,16 @@
     </row>
     <row r="217" spans="1:72">
       <c r="A217">
-        <v>1094942</v>
+        <v>1094943</v>
       </c>
       <c r="C217" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22534,9 +22435,6 @@
       </c>
       <c r="Z217">
         <v>0</v>
-      </c>
-      <c r="AA217" t="s">
-        <v>552</v>
       </c>
       <c r="AC217">
         <v>1</v>
@@ -22556,21 +22454,9 @@
       <c r="AM217">
         <v>0</v>
       </c>
-      <c r="AS217">
-        <v>0</v>
-      </c>
       <c r="AV217">
         <v>0</v>
       </c>
-      <c r="AX217">
-        <v>0</v>
-      </c>
-      <c r="AY217">
-        <v>0</v>
-      </c>
-      <c r="BA217">
-        <v>0</v>
-      </c>
       <c r="BB217">
         <v>0</v>
       </c>
@@ -22588,6 +22474,9 @@
       </c>
       <c r="BG217">
         <v>0</v>
+      </c>
+      <c r="BH217" t="s">
+        <v>75</v>
       </c>
       <c r="BM217">
         <v>0</v>
@@ -22607,16 +22496,16 @@
     </row>
     <row r="218" spans="1:72">
       <c r="A218">
-        <v>1094943</v>
+        <v>1094944</v>
       </c>
       <c r="C218" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22645,21 +22534,9 @@
       <c r="AM218">
         <v>0</v>
       </c>
-      <c r="AS218">
-        <v>0</v>
-      </c>
       <c r="AV218">
         <v>0</v>
       </c>
-      <c r="AX218">
-        <v>0</v>
-      </c>
-      <c r="AY218">
-        <v>0</v>
-      </c>
-      <c r="BA218">
-        <v>0</v>
-      </c>
       <c r="BB218">
         <v>0</v>
       </c>
@@ -22679,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="BH218" t="s">
-        <v>213</v>
+        <v>543</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22699,16 +22576,16 @@
     </row>
     <row r="219" spans="1:72">
       <c r="A219">
-        <v>1094944</v>
+        <v>1094945</v>
       </c>
       <c r="C219" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22737,21 +22614,9 @@
       <c r="AM219">
         <v>0</v>
       </c>
-      <c r="AS219">
-        <v>0</v>
-      </c>
       <c r="AV219">
         <v>0</v>
       </c>
-      <c r="AX219">
-        <v>0</v>
-      </c>
-      <c r="AY219">
-        <v>0</v>
-      </c>
-      <c r="BA219">
-        <v>0</v>
-      </c>
       <c r="BB219">
         <v>0</v>
       </c>
@@ -22771,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="BH219" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22791,16 +22656,16 @@
     </row>
     <row r="220" spans="1:72">
       <c r="A220">
-        <v>1094945</v>
+        <v>1094946</v>
       </c>
       <c r="C220" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22829,21 +22694,9 @@
       <c r="AM220">
         <v>0</v>
       </c>
-      <c r="AS220">
-        <v>0</v>
-      </c>
       <c r="AV220">
         <v>0</v>
       </c>
-      <c r="AX220">
-        <v>0</v>
-      </c>
-      <c r="AY220">
-        <v>0</v>
-      </c>
-      <c r="BA220">
-        <v>0</v>
-      </c>
       <c r="BB220">
         <v>0</v>
       </c>
@@ -22863,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="BH220" t="s">
-        <v>305</v>
+        <v>543</v>
       </c>
       <c r="BM220">
         <v>0</v>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
   <si>
     <t>id</t>
   </si>
@@ -233,274 +233,304 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Clerical Tome of Prayers</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
+  </si>
+  <si>
+    <t>Delusional Abandoned Gold Mines</t>
+  </si>
+  <si>
+    <t>Vile of Twisted Laughter</t>
+  </si>
+  <si>
+    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Shattered Mace of The Holy</t>
+  </si>
+  <si>
+    <t>This broken mace was once used by the holy warriors of The Church.</t>
+  </si>
+  <si>
+    <t>Bandits Twsited Arm Port</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Key to The Abandonded Church</t>
+  </si>
+  <si>
+    <t>Allows one to gain access to a place where the judges call home.</t>
+  </si>
+  <si>
+    <t>Holy Dirt</t>
+  </si>
+  <si>
+    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
+  </si>
+  <si>
+    <t>Roseary of yesteryear</t>
+  </si>
+  <si>
+    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
+  </si>
+  <si>
     <t>Slaves Journal</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>A journal that details the work the slaves had to do in the mines.</t>
   </si>
   <si>
-    <t>Delusional Abandoned Gold Mines</t>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>A broken doll that was once treasured by a child.</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
+  </si>
+  <si>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
+    <t>Shiny Metal Trinket</t>
+  </si>
+  <si>
+    <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Shiny Foil Paper</t>
+  </si>
+  <si>
+    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
+  </si>
+  <si>
+    <t>Glinting Gem of The Deep</t>
+  </si>
+  <si>
+    <t>A simple and shiny gem that is found in the depths of Dungeons</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Goblins Hankerchief</t>
+  </si>
+  <si>
+    <t>Helps to dry the tears of yesterday's stories.</t>
+  </si>
+  <si>
+    <t>Pags Journal</t>
+  </si>
+  <si>
+    <t>A journal written by a man whos only given name is Pags. It details his search for his friend The Creator.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Key to the Stronghold</t>
+  </si>
+  <si>
+    <t>A key that lets one enter the Stronghold and face the Lords!</t>
+  </si>
+  <si>
+    <t>Krogs Journal</t>
+  </si>
+  <si>
+    <t>A journal created by a man named Krog. It details the struggles of running his own kingdom as well as the vannishing of his own brother, who's fate - is unknown.</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
+  </si>
+  <si>
+    <t>Silver Red Hawk Badge</t>
+  </si>
+  <si>
+    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
+  </si>
+  <si>
+    <t>Twsited grave site</t>
+  </si>
+  <si>
+    <t>Papers of Ascension</t>
+  </si>
+  <si>
+    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
+  </si>
+  <si>
+    <t>Church of God</t>
+  </si>
+  <si>
+    <t>Picture of the Wandering Cleric</t>
+  </si>
+  <si>
+    <t>A simple picture on slipper paper, it shows the Jester of Time and the Wandering Cleric, side by side smiling.</t>
+  </si>
+  <si>
+    <t>Journal of another time</t>
+  </si>
+  <si>
+    <t>A journal of The Poet, a journal that shares the darkest secrets of this world, but even a sliver of truth of something that slipped in.</t>
+  </si>
+  <si>
+    <t>Old bloody rusty knife</t>
+  </si>
+  <si>
+    <t>An old bloody rusty knife that has a story of it's own. Hold it child.</t>
+  </si>
+  <si>
+    <t>Silver Blade of Time</t>
+  </si>
+  <si>
+    <t>A silver blade, this can be used to put an end to the delusional and twisted memories that are so corrupted, people call the pain home.</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
+  </si>
+  <si>
+    <t>Scholars Glasses</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
+  </si>
+  <si>
+    <t>Lover of the queens charred bones</t>
+  </si>
+  <si>
+    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
+  </si>
+  <si>
+    <t>Brothers Chipped Sword</t>
+  </si>
+  <si>
+    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
+  </si>
+  <si>
+    <t>Strand of golden hair</t>
+  </si>
+  <si>
+    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>Mothers Quill</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
   </si>
   <si>
     <t>Vile of Sensual Perfume</t>
   </si>
   <si>
     <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
-  </si>
-  <si>
-    <t>Bandits Twsited Arm Port</t>
-  </si>
-  <si>
-    <t>Broken Hand Mirror</t>
-  </si>
-  <si>
-    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
-  </si>
-  <si>
-    <t>Vile of Twisted Laughter</t>
-  </si>
-  <si>
-    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
-  </si>
-  <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
-    <t>Shattered Mace of The Holy</t>
-  </si>
-  <si>
-    <t>This broken mace was once used by the holy warriors of The Church.</t>
-  </si>
-  <si>
-    <t>Emerald Necklace</t>
-  </si>
-  <si>
-    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Key to The Abandonded Church</t>
-  </si>
-  <si>
-    <t>Allows one to gain access to a place where the judges call home.</t>
-  </si>
-  <si>
-    <t>Holy Dirt</t>
-  </si>
-  <si>
-    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
-  </si>
-  <si>
-    <t>Roseary of yesteryear</t>
-  </si>
-  <si>
-    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
-  </si>
-  <si>
-    <t>Faceless Robe</t>
-  </si>
-  <si>
-    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>Dwarven Chains</t>
-  </si>
-  <si>
-    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
-  </si>
-  <si>
-    <t>Broken Childs Doll</t>
-  </si>
-  <si>
-    <t>A broken doll that was once treasured by a child.</t>
-  </si>
-  <si>
-    <t>Clerical Tome of Prayers</t>
-  </si>
-  <si>
-    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
-  </si>
-  <si>
-    <t>Federation Broach</t>
-  </si>
-  <si>
-    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
-  </si>
-  <si>
-    <t>Federation Controlled Town</t>
-  </si>
-  <si>
-    <t>Twisted Tree Branch</t>
-  </si>
-  <si>
-    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
-  </si>
-  <si>
-    <t>Childs Faceless Idol</t>
-  </si>
-  <si>
-    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
-  </si>
-  <si>
-    <t>mercenary-slot-bonus</t>
-  </si>
-  <si>
-    <t>Shiny Metal Trinket</t>
-  </si>
-  <si>
-    <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
-  </si>
-  <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Shiny Foil Paper</t>
-  </si>
-  <si>
-    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
-  </si>
-  <si>
-    <t>Small wooden cross</t>
-  </si>
-  <si>
-    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
-  </si>
-  <si>
-    <t>Church of God</t>
-  </si>
-  <si>
-    <t>Silver Red Hawk Badge</t>
-  </si>
-  <si>
-    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
-  </si>
-  <si>
-    <t>Twsited grave site</t>
-  </si>
-  <si>
-    <t>Papers of Ascension</t>
-  </si>
-  <si>
-    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
-  </si>
-  <si>
-    <t>Picture of the Wandering Cleric</t>
-  </si>
-  <si>
-    <t>A simple picture on slipper paper, it shows the Jester of Time and the Wandering Cleric, side by side smiling.</t>
-  </si>
-  <si>
-    <t>Journal of another time</t>
-  </si>
-  <si>
-    <t>A journal of The Poet, a journal that shares the darkest secrets of this world, but even a sliver of truth of something that slipped in.</t>
-  </si>
-  <si>
-    <t>Old bloody rusty knife</t>
-  </si>
-  <si>
-    <t>An old bloody rusty knife that has a story of it's own. Hold it child.</t>
-  </si>
-  <si>
-    <t>Silver Blade of Time</t>
-  </si>
-  <si>
-    <t>A silver blade, this can be used to put an end to the delusional and twisted memories that are so corrupted, people call the pain home.</t>
-  </si>
-  <si>
-    <t>Shattered Emerald</t>
-  </si>
-  <si>
-    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
-  </si>
-  <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
-    <t>Scholars Glasses</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
-  </si>
-  <si>
-    <t>Lover of the queens charred bones</t>
-  </si>
-  <si>
-    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
-  </si>
-  <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
-    <t>Brothers Chipped Sword</t>
-  </si>
-  <si>
-    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
-  </si>
-  <si>
-    <t>Old Silver Flask</t>
-  </si>
-  <si>
-    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
-  </si>
-  <si>
-    <t>Strand of golden hair</t>
-  </si>
-  <si>
-    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
-  </si>
-  <si>
-    <t>Ashes of the shade</t>
-  </si>
-  <si>
-    <t>Ashes that the Child of Shade holds on to. Why?</t>
-  </si>
-  <si>
-    <t>The princes ring</t>
-  </si>
-  <si>
-    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Bottle of missery</t>
-  </si>
-  <si>
-    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Mothers Quill</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
-  </si>
-  <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
-    <t>Torn map of another land</t>
-  </si>
-  <si>
-    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
-  </si>
-  <si>
-    <t>Tear of the shade</t>
-  </si>
-  <si>
-    <t>A single tear from The Shadoe Lord.</t>
   </si>
   <si>
     <t>Weaponsmith's Book</t>
@@ -2127,7 +2157,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT233"/>
+  <dimension ref="A1:BT238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2429,7 +2459,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1170455</v>
+        <v>1170458</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2467,19 +2497,7 @@
       <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
       <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
@@ -2521,7 +2539,7 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>1170446</v>
+        <v>1170448</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2613,7 +2631,7 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>1170447</v>
+        <v>1170449</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2685,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="BH4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2705,16 +2723,16 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>1170448</v>
+        <v>1170450</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2777,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BH5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2797,7 +2815,7 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>1170449</v>
+        <v>1170451</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -2889,7 +2907,7 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>1170450</v>
+        <v>1170452</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -2959,9 +2977,6 @@
       </c>
       <c r="BG7">
         <v>0</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>83</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -2981,7 +2996,7 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>1170451</v>
+        <v>1170453</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -3051,9 +3066,6 @@
       </c>
       <c r="BG8">
         <v>0</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>83</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -3073,7 +3085,7 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>1170452</v>
+        <v>1170454</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -3162,7 +3174,7 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>1170453</v>
+        <v>1170455</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -3232,6 +3244,9 @@
       </c>
       <c r="BG10">
         <v>0</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>75</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -3251,7 +3266,7 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>1170454</v>
+        <v>1170456</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
@@ -3321,6 +3336,9 @@
       </c>
       <c r="BG11">
         <v>0</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>75</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3340,7 +3358,7 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>1170445</v>
+        <v>1170457</v>
       </c>
       <c r="C12" t="s">
         <v>96</v>
@@ -3412,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="BH12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3432,16 +3450,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>1170456</v>
+        <v>1170447</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3504,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="BH13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3524,16 +3542,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1170457</v>
+        <v>1170459</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3596,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="BH14" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -3616,7 +3634,7 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1170458</v>
+        <v>1170460</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -3654,9 +3672,21 @@
       <c r="AM15">
         <v>0</v>
       </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
       <c r="BB15">
         <v>0</v>
       </c>
@@ -3674,9 +3704,6 @@
       </c>
       <c r="BG15">
         <v>0</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>75</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -3696,7 +3723,7 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>1170459</v>
+        <v>1170461</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
@@ -3716,6 +3743,9 @@
       <c r="Z16">
         <v>0</v>
       </c>
+      <c r="AA16" t="s">
+        <v>107</v>
+      </c>
       <c r="AC16">
         <v>1</v>
       </c>
@@ -3766,9 +3796,6 @@
       </c>
       <c r="BG16">
         <v>0</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>107</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3788,7 +3815,7 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>1170460</v>
+        <v>1988073</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
@@ -3858,6 +3885,9 @@
       </c>
       <c r="BG17">
         <v>0</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>110</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -3877,16 +3907,16 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>1170461</v>
+        <v>1988074</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3896,9 +3926,6 @@
       </c>
       <c r="Z18">
         <v>0</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>112</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -3950,6 +3977,9 @@
       </c>
       <c r="BG18">
         <v>0</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>110</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -3969,7 +3999,7 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>1523366</v>
+        <v>1988096</v>
       </c>
       <c r="C19" t="s">
         <v>113</v>
@@ -4007,7 +4037,7 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>1523367</v>
+        <v>1988097</v>
       </c>
       <c r="C20" t="s">
         <v>116</v>
@@ -4025,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="BH20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -4045,7 +4075,7 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>1170436</v>
+        <v>1988098</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -4056,64 +4086,10 @@
       <c r="G21" t="s">
         <v>119</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
       <c r="AC21">
         <v>1</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
       <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
         <v>0</v>
       </c>
       <c r="BH21" t="s">
@@ -4137,7 +4113,7 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>1170427</v>
+        <v>1988099</v>
       </c>
       <c r="C22" t="s">
         <v>121</v>
@@ -4148,68 +4124,11 @@
       <c r="G22" t="s">
         <v>122</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
       <c r="AC22">
         <v>1</v>
       </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
       <c r="AV22">
         <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>0</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>123</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -4229,79 +4148,22 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>1170428</v>
+        <v>1988100</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
       <c r="AV23">
         <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>120</v>
       </c>
       <c r="BM23">
         <v>0</v>
@@ -4321,16 +4183,16 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>1170429</v>
+        <v>1170437</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4410,16 +4272,16 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>1170430</v>
+        <v>1170427</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4480,6 +4342,9 @@
       </c>
       <c r="BG25">
         <v>0</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>129</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -4499,7 +4364,7 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>1170431</v>
+        <v>1170428</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -4569,6 +4434,9 @@
       </c>
       <c r="BG26">
         <v>0</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>132</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4588,16 +4456,16 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>1170432</v>
+        <v>1170429</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4677,16 +4545,16 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>1170433</v>
+        <v>1170430</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4747,9 +4615,6 @@
       </c>
       <c r="BG28">
         <v>0</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>136</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4769,7 +4634,7 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>1170434</v>
+        <v>1170431</v>
       </c>
       <c r="C29" t="s">
         <v>137</v>
@@ -4839,9 +4704,6 @@
       </c>
       <c r="BG29">
         <v>0</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>136</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -4861,7 +4723,7 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>1170435</v>
+        <v>1170432</v>
       </c>
       <c r="C30" t="s">
         <v>139</v>
@@ -4931,9 +4793,6 @@
       </c>
       <c r="BG30">
         <v>0</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>141</v>
       </c>
       <c r="BM30">
         <v>0</v>
@@ -4953,16 +4812,16 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>1170426</v>
+        <v>1170433</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -5025,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="BH31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -5045,16 +4904,16 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>1170437</v>
+        <v>1170434</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -5115,6 +4974,9 @@
       </c>
       <c r="BG32">
         <v>0</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>115</v>
       </c>
       <c r="BM32">
         <v>0</v>
@@ -5134,16 +4996,16 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>1170438</v>
+        <v>1170435</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -5206,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="BH33" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="BM33">
         <v>0</v>
@@ -5226,7 +5088,7 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>1170439</v>
+        <v>1170436</v>
       </c>
       <c r="C34" t="s">
         <v>148</v>
@@ -5298,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="BH34" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -5318,7 +5180,7 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>1170440</v>
+        <v>1170426</v>
       </c>
       <c r="C35" t="s">
         <v>150</v>
@@ -5390,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="BH35" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="BM35">
         <v>0</v>
@@ -5410,7 +5272,7 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>1170441</v>
+        <v>1170438</v>
       </c>
       <c r="C36" t="s">
         <v>152</v>
@@ -5482,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="BH36" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="BM36">
         <v>0</v>
@@ -5502,16 +5364,16 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>1170442</v>
+        <v>1170439</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -5574,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="BH37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM37">
         <v>0</v>
@@ -5594,16 +5456,16 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>1170443</v>
+        <v>1170440</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -5666,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="BH38" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="BM38">
         <v>0</v>
@@ -5686,16 +5548,16 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>1170444</v>
+        <v>1170441</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -5758,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5778,16 +5640,16 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>487</v>
+        <v>1170442</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -5801,12 +5663,6 @@
       <c r="AC40">
         <v>1</v>
       </c>
-      <c r="AG40" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH40">
-        <v>0.15</v>
-      </c>
       <c r="AI40">
         <v>0</v>
       </c>
@@ -5822,9 +5678,6 @@
       <c r="AM40">
         <v>0</v>
       </c>
-      <c r="AN40">
-        <v>0.25</v>
-      </c>
       <c r="AS40">
         <v>0</v>
       </c>
@@ -5857,6 +5710,9 @@
       </c>
       <c r="BG40">
         <v>0</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>163</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5876,22 +5732,16 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>488</v>
+        <v>1170443</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -5905,12 +5755,6 @@
       <c r="AC41">
         <v>1</v>
       </c>
-      <c r="AG41" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH41">
-        <v>0.15</v>
-      </c>
       <c r="AI41">
         <v>0</v>
       </c>
@@ -5926,9 +5770,6 @@
       <c r="AM41">
         <v>0</v>
       </c>
-      <c r="AN41">
-        <v>0.25</v>
-      </c>
       <c r="AS41">
         <v>0</v>
       </c>
@@ -5961,6 +5802,9 @@
       </c>
       <c r="BG41">
         <v>0</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>115</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -5980,16 +5824,16 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>489</v>
+        <v>1170444</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5999,9 +5843,6 @@
       </c>
       <c r="Z42">
         <v>0</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>170</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -6053,6 +5894,9 @@
       </c>
       <c r="BG42">
         <v>0</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>120</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -6072,16 +5916,16 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>490</v>
+        <v>1170445</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -6095,12 +5939,6 @@
       <c r="AC43">
         <v>1</v>
       </c>
-      <c r="AG43" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH43">
-        <v>0.15</v>
-      </c>
       <c r="AI43">
         <v>0</v>
       </c>
@@ -6116,9 +5954,6 @@
       <c r="AM43">
         <v>0</v>
       </c>
-      <c r="AN43">
-        <v>0.25</v>
-      </c>
       <c r="AS43">
         <v>0</v>
       </c>
@@ -6151,6 +5986,9 @@
       </c>
       <c r="BG43">
         <v>0</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>156</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -6170,22 +6008,16 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>491</v>
+        <v>1170446</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
         <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -6199,12 +6031,6 @@
       <c r="AC44">
         <v>1</v>
       </c>
-      <c r="AG44" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH44">
-        <v>0.15</v>
-      </c>
       <c r="AI44">
         <v>0</v>
       </c>
@@ -6220,9 +6046,6 @@
       <c r="AM44">
         <v>0</v>
       </c>
-      <c r="AN44">
-        <v>0.25</v>
-      </c>
       <c r="AS44">
         <v>0</v>
       </c>
@@ -6255,6 +6078,9 @@
       </c>
       <c r="BG44">
         <v>0</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>81</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -6274,16 +6100,16 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -6298,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="AG45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AH45">
         <v>0.15</v>
@@ -6372,16 +6198,22 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6391,13 +6223,16 @@
       </c>
       <c r="Z46">
         <v>0</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>182</v>
       </c>
       <c r="AC46">
         <v>1</v>
       </c>
+      <c r="AG46" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH46">
+        <v>0.15</v>
+      </c>
       <c r="AI46">
         <v>0</v>
       </c>
@@ -6412,6 +6247,9 @@
       </c>
       <c r="AM46">
         <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0.25</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -6464,22 +6302,16 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -6491,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -6562,22 +6394,16 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6588,8 +6414,14 @@
       <c r="Z48">
         <v>0</v>
       </c>
-      <c r="AA48" t="s">
-        <v>188</v>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH48">
+        <v>0.15</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6605,6 +6437,9 @@
       </c>
       <c r="AM48">
         <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0.25</v>
       </c>
       <c r="AS48">
         <v>0</v>
@@ -6657,16 +6492,16 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6683,8 +6518,14 @@
       <c r="Z49">
         <v>0</v>
       </c>
-      <c r="AA49" t="s">
-        <v>191</v>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH49">
+        <v>0.15</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6700,6 +6541,9 @@
       </c>
       <c r="AM49">
         <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0.25</v>
       </c>
       <c r="AS49">
         <v>0</v>
@@ -6752,22 +6596,16 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -6781,6 +6619,12 @@
       <c r="AC50">
         <v>1</v>
       </c>
+      <c r="AG50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH50">
+        <v>0.15</v>
+      </c>
       <c r="AI50">
         <v>0</v>
       </c>
@@ -6795,6 +6639,9 @@
       </c>
       <c r="AM50">
         <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0.25</v>
       </c>
       <c r="AS50">
         <v>0</v>
@@ -6847,22 +6694,16 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -6872,6 +6713,9 @@
       </c>
       <c r="Z51">
         <v>0</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>192</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -6942,16 +6786,16 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6967,16 +6811,13 @@
       </c>
       <c r="Z52">
         <v>0</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>195</v>
       </c>
       <c r="AC52">
         <v>1</v>
       </c>
-      <c r="AG52" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH52">
-        <v>0.5</v>
-      </c>
       <c r="AI52">
         <v>0</v>
       </c>
@@ -6991,9 +6832,6 @@
       </c>
       <c r="AM52">
         <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0.3</v>
       </c>
       <c r="AS52">
         <v>0</v>
@@ -7046,16 +6884,16 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7072,14 +6910,8 @@
       <c r="Z53">
         <v>0</v>
       </c>
-      <c r="AC53">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH53">
-        <v>0.5</v>
+      <c r="AA53" t="s">
+        <v>198</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -7095,9 +6927,6 @@
       </c>
       <c r="AM53">
         <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0.3</v>
       </c>
       <c r="AS53">
         <v>0</v>
@@ -7150,41 +6979,35 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
+        <v>200</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="s">
         <v>201</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>1</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH54">
-        <v>0.5</v>
-      </c>
       <c r="AI54">
         <v>0</v>
       </c>
@@ -7199,9 +7022,6 @@
       </c>
       <c r="AM54">
         <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0.3</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -7254,7 +7074,7 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
         <v>202</v>
@@ -7283,12 +7103,6 @@
       <c r="AC55">
         <v>1</v>
       </c>
-      <c r="AG55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH55">
-        <v>0.5</v>
-      </c>
       <c r="AI55">
         <v>0</v>
       </c>
@@ -7303,9 +7117,6 @@
       </c>
       <c r="AM55">
         <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0.3</v>
       </c>
       <c r="AS55">
         <v>0</v>
@@ -7358,7 +7169,7 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C56" t="s">
         <v>204</v>
@@ -7384,11 +7195,8 @@
       <c r="Z56">
         <v>0</v>
       </c>
-      <c r="AG56" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH56">
-        <v>0.5</v>
+      <c r="AC56">
+        <v>1</v>
       </c>
       <c r="AI56">
         <v>0</v>
@@ -7404,9 +7212,6 @@
       </c>
       <c r="AM56">
         <v>0</v>
-      </c>
-      <c r="AN56">
-        <v>0.3</v>
       </c>
       <c r="AS56">
         <v>0</v>
@@ -7459,7 +7264,7 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C57" t="s">
         <v>206</v>
@@ -7488,6 +7293,12 @@
       <c r="AC57">
         <v>1</v>
       </c>
+      <c r="AG57" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH57">
+        <v>0.5</v>
+      </c>
       <c r="AI57">
         <v>0</v>
       </c>
@@ -7502,6 +7313,9 @@
       </c>
       <c r="AM57">
         <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0.3</v>
       </c>
       <c r="AS57">
         <v>0</v>
@@ -7554,7 +7368,7 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C58" t="s">
         <v>208</v>
@@ -7580,8 +7394,14 @@
       <c r="Z58">
         <v>0</v>
       </c>
-      <c r="AA58" t="s">
-        <v>210</v>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH58">
+        <v>0.5</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -7597,6 +7417,9 @@
       </c>
       <c r="AM58">
         <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0.3</v>
       </c>
       <c r="AS58">
         <v>0</v>
@@ -7649,16 +7472,16 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7675,11 +7498,14 @@
       <c r="Z59">
         <v>0</v>
       </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
       <c r="AG59" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="AH59">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7697,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS59">
         <v>0</v>
@@ -7750,16 +7576,16 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7776,11 +7602,14 @@
       <c r="Z60">
         <v>0</v>
       </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
       <c r="AG60" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AH60">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI60">
         <v>0</v>
@@ -7798,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS60">
         <v>0</v>
@@ -7851,16 +7680,16 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7877,8 +7706,11 @@
       <c r="Z61">
         <v>0</v>
       </c>
-      <c r="AA61" t="s">
-        <v>219</v>
+      <c r="AG61" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH61">
+        <v>0.5</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -7894,6 +7726,9 @@
       </c>
       <c r="AM61">
         <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0.3</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -7946,16 +7781,16 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7972,8 +7807,8 @@
       <c r="Z62">
         <v>0</v>
       </c>
-      <c r="AA62" t="s">
-        <v>219</v>
+      <c r="AC62">
+        <v>1</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -8018,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="BF62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG62">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM62">
         <v>0</v>
@@ -8041,16 +7876,16 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -8068,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="AA63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -8113,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="BF63">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BG63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BM63">
         <v>0</v>
@@ -8136,16 +7971,16 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8162,8 +7997,11 @@
       <c r="Z64">
         <v>0</v>
       </c>
-      <c r="AA64" t="s">
-        <v>219</v>
+      <c r="AG64" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH64">
+        <v>0.45</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -8180,6 +8018,9 @@
       <c r="AM64">
         <v>0</v>
       </c>
+      <c r="AN64">
+        <v>0.45</v>
+      </c>
       <c r="AS64">
         <v>0</v>
       </c>
@@ -8208,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="BF64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM64">
         <v>0</v>
@@ -8231,16 +8072,16 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8257,6 +8098,12 @@
       <c r="Z65">
         <v>0</v>
       </c>
+      <c r="AG65" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH65">
+        <v>0.45</v>
+      </c>
       <c r="AI65">
         <v>0</v>
       </c>
@@ -8271,6 +8118,9 @@
       </c>
       <c r="AM65">
         <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0.45</v>
       </c>
       <c r="AS65">
         <v>0</v>
@@ -8323,34 +8173,34 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
+        <v>228</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="s">
         <v>229</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>230</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -8418,16 +8268,16 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8445,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="AA67" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AI67">
         <v>0</v>
@@ -8490,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="BF67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BG67">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM67">
         <v>0</v>
@@ -8513,16 +8363,16 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8540,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="AA68" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI68">
         <v>0</v>
@@ -8585,10 +8435,10 @@
         <v>0</v>
       </c>
       <c r="BF68">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -8608,16 +8458,16 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8634,6 +8484,9 @@
       <c r="Z69">
         <v>0</v>
       </c>
+      <c r="AA69" t="s">
+        <v>229</v>
+      </c>
       <c r="AI69">
         <v>0</v>
       </c>
@@ -8677,10 +8530,10 @@
         <v>0</v>
       </c>
       <c r="BF69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM69">
         <v>0</v>
@@ -8700,16 +8553,16 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8792,16 +8645,16 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8817,6 +8670,9 @@
       </c>
       <c r="Z71">
         <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>240</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8884,16 +8740,16 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8911,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AI72">
         <v>0</v>
@@ -8979,16 +8835,16 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -9005,6 +8861,9 @@
       <c r="Z73">
         <v>0</v>
       </c>
+      <c r="AA73" t="s">
+        <v>246</v>
+      </c>
       <c r="AI73">
         <v>0</v>
       </c>
@@ -9052,9 +8911,6 @@
       </c>
       <c r="BG73">
         <v>0</v>
-      </c>
-      <c r="BH73" t="s">
-        <v>157</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -9074,16 +8930,16 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -9147,9 +9003,6 @@
       </c>
       <c r="BG74">
         <v>0</v>
-      </c>
-      <c r="BH74" t="s">
-        <v>157</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -9169,16 +9022,16 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9261,16 +9114,16 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9334,9 +9187,6 @@
       </c>
       <c r="BG76">
         <v>0</v>
-      </c>
-      <c r="BH76" t="s">
-        <v>136</v>
       </c>
       <c r="BM76">
         <v>0</v>
@@ -9356,34 +9206,34 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
+        <v>254</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="s">
         <v>255</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>256</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -9451,16 +9301,16 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9526,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="BH78" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="BM78">
         <v>0</v>
@@ -9546,16 +9396,16 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9572,12 +9422,6 @@
       <c r="Z79">
         <v>0</v>
       </c>
-      <c r="AG79" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH79">
-        <v>0.25</v>
-      </c>
       <c r="AI79">
         <v>0</v>
       </c>
@@ -9593,9 +9437,6 @@
       <c r="AM79">
         <v>0</v>
       </c>
-      <c r="AN79">
-        <v>1</v>
-      </c>
       <c r="AS79">
         <v>0</v>
       </c>
@@ -9630,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9650,16 +9491,16 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9676,12 +9517,6 @@
       <c r="Z80">
         <v>0</v>
       </c>
-      <c r="AG80" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH80">
-        <v>0.75</v>
-      </c>
       <c r="AI80">
         <v>0</v>
       </c>
@@ -9697,9 +9532,6 @@
       <c r="AM80">
         <v>0</v>
       </c>
-      <c r="AN80">
-        <v>1</v>
-      </c>
       <c r="AS80">
         <v>0</v>
       </c>
@@ -9732,9 +9564,6 @@
       </c>
       <c r="BG80">
         <v>0</v>
-      </c>
-      <c r="BH80" t="s">
-        <v>115</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9754,16 +9583,16 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9827,6 +9656,9 @@
       </c>
       <c r="BG81">
         <v>0</v>
+      </c>
+      <c r="BH81" t="s">
+        <v>115</v>
       </c>
       <c r="BM81">
         <v>0</v>
@@ -9846,16 +9678,16 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C82" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9872,11 +9704,8 @@
       <c r="Z82">
         <v>0</v>
       </c>
-      <c r="AG82" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH82">
-        <v>0.75</v>
+      <c r="AA82" t="s">
+        <v>266</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -9893,9 +9722,6 @@
       <c r="AM82">
         <v>0</v>
       </c>
-      <c r="AN82">
-        <v>2</v>
-      </c>
       <c r="AS82">
         <v>0</v>
       </c>
@@ -9924,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="BF82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG82">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM82">
         <v>0</v>
@@ -9947,16 +9773,16 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9973,9 +9799,6 @@
       <c r="Z83">
         <v>0</v>
       </c>
-      <c r="AA83" t="s">
-        <v>272</v>
-      </c>
       <c r="AI83">
         <v>0</v>
       </c>
@@ -10019,10 +9842,13 @@
         <v>0</v>
       </c>
       <c r="BF83">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BG83">
-        <v>0.45</v>
+        <v>0</v>
+      </c>
+      <c r="BH83" t="s">
+        <v>120</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -10042,16 +9868,16 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -10068,8 +9894,11 @@
       <c r="Z84">
         <v>0</v>
       </c>
-      <c r="AA84" t="s">
-        <v>275</v>
+      <c r="AG84" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH84">
+        <v>0.25</v>
       </c>
       <c r="AI84">
         <v>0</v>
@@ -10086,6 +9915,9 @@
       <c r="AM84">
         <v>0</v>
       </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
       <c r="AS84">
         <v>0</v>
       </c>
@@ -10118,6 +9950,9 @@
       </c>
       <c r="BG84">
         <v>0</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>156</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -10137,16 +9972,16 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -10163,6 +9998,12 @@
       <c r="Z85">
         <v>0</v>
       </c>
+      <c r="AG85" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH85">
+        <v>0.75</v>
+      </c>
       <c r="AI85">
         <v>0</v>
       </c>
@@ -10178,6 +10019,9 @@
       <c r="AM85">
         <v>0</v>
       </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
       <c r="AS85">
         <v>0</v>
       </c>
@@ -10210,6 +10054,9 @@
       </c>
       <c r="BG85">
         <v>0</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>110</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -10229,16 +10076,16 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C86" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10302,9 +10149,6 @@
       </c>
       <c r="BG86">
         <v>0</v>
-      </c>
-      <c r="BH86" t="s">
-        <v>154</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -10324,16 +10168,16 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10350,6 +10194,12 @@
       <c r="Z87">
         <v>0</v>
       </c>
+      <c r="AG87" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH87">
+        <v>0.75</v>
+      </c>
       <c r="AI87">
         <v>0</v>
       </c>
@@ -10365,6 +10215,9 @@
       <c r="AM87">
         <v>0</v>
       </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
       <c r="AS87">
         <v>0</v>
       </c>
@@ -10393,10 +10246,10 @@
         <v>0</v>
       </c>
       <c r="BF87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -10416,16 +10269,16 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10442,6 +10295,9 @@
       <c r="Z88">
         <v>0</v>
       </c>
+      <c r="AA88" t="s">
+        <v>282</v>
+      </c>
       <c r="AI88">
         <v>0</v>
       </c>
@@ -10457,9 +10313,21 @@
       <c r="AM88">
         <v>0</v>
       </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
       <c r="AV88">
         <v>0</v>
       </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
       <c r="BB88">
         <v>0</v>
       </c>
@@ -10473,13 +10341,10 @@
         <v>0</v>
       </c>
       <c r="BF88">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG88">
-        <v>0</v>
-      </c>
-      <c r="BH88" t="s">
-        <v>98</v>
+        <v>0.45</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -10499,31 +10364,34 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
+        <v>284</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="s">
         <v>285</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <v>0</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -10591,7 +10459,7 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C90" t="s">
         <v>286</v>
@@ -10683,7 +10551,7 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C91" t="s">
         <v>288</v>
@@ -10756,6 +10624,9 @@
       </c>
       <c r="BG91">
         <v>0</v>
+      </c>
+      <c r="BH91" t="s">
+        <v>120</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10775,7 +10646,7 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C92" t="s">
         <v>290</v>
@@ -10848,9 +10719,6 @@
       </c>
       <c r="BG92">
         <v>0</v>
-      </c>
-      <c r="BH92" t="s">
-        <v>154</v>
       </c>
       <c r="BM92">
         <v>0</v>
@@ -10870,7 +10738,7 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C93" t="s">
         <v>292</v>
@@ -10911,21 +10779,9 @@
       <c r="AM93">
         <v>0</v>
       </c>
-      <c r="AS93">
-        <v>0</v>
-      </c>
       <c r="AV93">
         <v>0</v>
       </c>
-      <c r="AX93">
-        <v>0</v>
-      </c>
-      <c r="AY93">
-        <v>0</v>
-      </c>
-      <c r="BA93">
-        <v>0</v>
-      </c>
       <c r="BB93">
         <v>0</v>
       </c>
@@ -10945,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="BH93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM93">
         <v>0</v>
@@ -10965,7 +10821,7 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C94" t="s">
         <v>294</v>
@@ -11038,9 +10894,6 @@
       </c>
       <c r="BG94">
         <v>0</v>
-      </c>
-      <c r="BI94">
-        <v>0.15</v>
       </c>
       <c r="BM94">
         <v>0</v>
@@ -11060,7 +10913,7 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C95" t="s">
         <v>296</v>
@@ -11133,9 +10986,6 @@
       </c>
       <c r="BG95">
         <v>0</v>
-      </c>
-      <c r="BH95" t="s">
-        <v>115</v>
       </c>
       <c r="BM95">
         <v>0</v>
@@ -11155,7 +11005,7 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C96" t="s">
         <v>298</v>
@@ -11228,9 +11078,6 @@
       </c>
       <c r="BG96">
         <v>0</v>
-      </c>
-      <c r="BH96" t="s">
-        <v>154</v>
       </c>
       <c r="BM96">
         <v>0</v>
@@ -11250,7 +11097,7 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C97" t="s">
         <v>300</v>
@@ -11325,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="BH97" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="BM97">
         <v>0</v>
@@ -11345,7 +11192,7 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C98" t="s">
         <v>302</v>
@@ -11419,8 +11266,8 @@
       <c r="BG98">
         <v>0</v>
       </c>
-      <c r="BI98">
-        <v>0.3</v>
+      <c r="BH98" t="s">
+        <v>163</v>
       </c>
       <c r="BM98">
         <v>0</v>
@@ -11440,7 +11287,7 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C99" t="s">
         <v>304</v>
@@ -11514,8 +11361,8 @@
       <c r="BG99">
         <v>0</v>
       </c>
-      <c r="BH99" t="s">
-        <v>83</v>
+      <c r="BI99">
+        <v>0.15</v>
       </c>
       <c r="BM99">
         <v>0</v>
@@ -11535,7 +11382,7 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C100" t="s">
         <v>306</v>
@@ -11609,8 +11456,8 @@
       <c r="BG100">
         <v>0</v>
       </c>
-      <c r="BI100">
-        <v>0.5</v>
+      <c r="BH100" t="s">
+        <v>110</v>
       </c>
       <c r="BM100">
         <v>0</v>
@@ -11630,7 +11477,7 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -11704,8 +11551,8 @@
       <c r="BG101">
         <v>0</v>
       </c>
-      <c r="BI101">
-        <v>0.05</v>
+      <c r="BH101" t="s">
+        <v>120</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -11725,7 +11572,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C102" t="s">
         <v>310</v>
@@ -11800,10 +11647,7 @@
         <v>0</v>
       </c>
       <c r="BH102" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI102">
-        <v>0.8</v>
+        <v>78</v>
       </c>
       <c r="BM102">
         <v>0</v>
@@ -11823,7 +11667,7 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C103" t="s">
         <v>312</v>
@@ -11849,9 +11693,6 @@
       <c r="Z103">
         <v>0</v>
       </c>
-      <c r="AA103" t="s">
-        <v>314</v>
-      </c>
       <c r="AI103">
         <v>0</v>
       </c>
@@ -11899,6 +11740,9 @@
       </c>
       <c r="BG103">
         <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0.3</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11918,16 +11762,16 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -11993,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="BH104" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -12013,16 +11857,16 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -12087,8 +11931,8 @@
       <c r="BG105">
         <v>0</v>
       </c>
-      <c r="BH105" t="s">
-        <v>115</v>
+      <c r="BI105">
+        <v>0.5</v>
       </c>
       <c r="BM105">
         <v>0</v>
@@ -12108,16 +11952,16 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
         <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -12181,6 +12025,9 @@
       </c>
       <c r="BG106">
         <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0.05</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -12200,16 +12047,16 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="G107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -12226,9 +12073,6 @@
       <c r="Z107">
         <v>0</v>
       </c>
-      <c r="AA107" t="s">
-        <v>323</v>
-      </c>
       <c r="AI107">
         <v>0</v>
       </c>
@@ -12276,6 +12120,12 @@
       </c>
       <c r="BG107">
         <v>0</v>
+      </c>
+      <c r="BH107" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI107">
+        <v>0.8</v>
       </c>
       <c r="BM107">
         <v>0</v>
@@ -12295,16 +12145,16 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -12321,6 +12171,9 @@
       <c r="Z108">
         <v>0</v>
       </c>
+      <c r="AA108" t="s">
+        <v>324</v>
+      </c>
       <c r="AI108">
         <v>0</v>
       </c>
@@ -12368,15 +12221,6 @@
       </c>
       <c r="BG108">
         <v>0</v>
-      </c>
-      <c r="BH108" t="s">
-        <v>115</v>
-      </c>
-      <c r="BI108">
-        <v>0.05</v>
-      </c>
-      <c r="BJ108">
-        <v>1</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -12396,16 +12240,16 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12470,11 +12314,8 @@
       <c r="BG109">
         <v>0</v>
       </c>
-      <c r="BI109">
-        <v>0.95</v>
-      </c>
-      <c r="BJ109">
-        <v>1</v>
+      <c r="BH109" t="s">
+        <v>115</v>
       </c>
       <c r="BM109">
         <v>0</v>
@@ -12494,16 +12335,16 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12569,13 +12410,7 @@
         <v>0</v>
       </c>
       <c r="BH110" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI110">
-        <v>0.15</v>
-      </c>
-      <c r="BJ110">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="BM110">
         <v>0</v>
@@ -12595,16 +12430,16 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12668,12 +12503,6 @@
       </c>
       <c r="BG111">
         <v>0</v>
-      </c>
-      <c r="BI111">
-        <v>1.25</v>
-      </c>
-      <c r="BJ111">
-        <v>1</v>
       </c>
       <c r="BM111">
         <v>0</v>
@@ -12693,32 +12522,35 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
+        <v>332</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="s">
         <v>333</v>
       </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
       <c r="AI112">
         <v>0</v>
       </c>
@@ -12766,12 +12598,6 @@
       </c>
       <c r="BG112">
         <v>0</v>
-      </c>
-      <c r="BI112">
-        <v>1.6</v>
-      </c>
-      <c r="BJ112">
-        <v>1</v>
       </c>
       <c r="BM112">
         <v>0</v>
@@ -12791,7 +12617,7 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C113" t="s">
         <v>334</v>
@@ -12864,6 +12690,15 @@
       </c>
       <c r="BG113">
         <v>0</v>
+      </c>
+      <c r="BH113" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI113">
+        <v>0.05</v>
+      </c>
+      <c r="BJ113">
+        <v>1</v>
       </c>
       <c r="BM113">
         <v>0</v>
@@ -12883,7 +12718,7 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C114" t="s">
         <v>336</v>
@@ -12957,8 +12792,11 @@
       <c r="BG114">
         <v>0</v>
       </c>
-      <c r="BH114" t="s">
-        <v>141</v>
+      <c r="BI114">
+        <v>0.95</v>
+      </c>
+      <c r="BJ114">
+        <v>1</v>
       </c>
       <c r="BM114">
         <v>0</v>
@@ -12978,7 +12816,7 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C115" t="s">
         <v>338</v>
@@ -13053,7 +12891,13 @@
         <v>0</v>
       </c>
       <c r="BH115" t="s">
-        <v>98</v>
+        <v>115</v>
+      </c>
+      <c r="BI115">
+        <v>0.15</v>
+      </c>
+      <c r="BJ115">
+        <v>1</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -13073,7 +12917,7 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C116" t="s">
         <v>340</v>
@@ -13147,8 +12991,11 @@
       <c r="BG116">
         <v>0</v>
       </c>
-      <c r="BH116" t="s">
-        <v>141</v>
+      <c r="BI116">
+        <v>1.25</v>
+      </c>
+      <c r="BJ116">
+        <v>1</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -13168,7 +13015,7 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C117" t="s">
         <v>342</v>
@@ -13242,8 +13089,11 @@
       <c r="BG117">
         <v>0</v>
       </c>
-      <c r="BH117" t="s">
-        <v>157</v>
+      <c r="BI117">
+        <v>1.6</v>
+      </c>
+      <c r="BJ117">
+        <v>1</v>
       </c>
       <c r="BM117">
         <v>0</v>
@@ -13263,7 +13113,7 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C118" t="s">
         <v>344</v>
@@ -13336,12 +13186,6 @@
       </c>
       <c r="BG118">
         <v>0</v>
-      </c>
-      <c r="BI118">
-        <v>0.25</v>
-      </c>
-      <c r="BJ118">
-        <v>1</v>
       </c>
       <c r="BM118">
         <v>0</v>
@@ -13361,7 +13205,7 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C119" t="s">
         <v>346</v>
@@ -13436,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BH119" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="BM119">
         <v>0</v>
@@ -13456,7 +13300,7 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C120" t="s">
         <v>348</v>
@@ -13528,13 +13372,10 @@
         <v>0</v>
       </c>
       <c r="BG120">
-        <v>0.35</v>
-      </c>
-      <c r="BI120">
-        <v>1.6</v>
-      </c>
-      <c r="BJ120">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH120" t="s">
+        <v>156</v>
       </c>
       <c r="BM120">
         <v>0</v>
@@ -13554,7 +13395,7 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C121" t="s">
         <v>350</v>
@@ -13629,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="BH121" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="BM121">
         <v>0</v>
@@ -13649,7 +13490,7 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C122" t="s">
         <v>352</v>
@@ -13675,12 +13516,6 @@
       <c r="Z122">
         <v>0</v>
       </c>
-      <c r="AG122" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH122">
-        <v>0.25</v>
-      </c>
       <c r="AI122">
         <v>0</v>
       </c>
@@ -13696,9 +13531,6 @@
       <c r="AM122">
         <v>0</v>
       </c>
-      <c r="AN122">
-        <v>0.25</v>
-      </c>
       <c r="AS122">
         <v>0</v>
       </c>
@@ -13731,6 +13563,9 @@
       </c>
       <c r="BG122">
         <v>0</v>
+      </c>
+      <c r="BH122" t="s">
+        <v>163</v>
       </c>
       <c r="BM122">
         <v>0</v>
@@ -13750,7 +13585,7 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C123" t="s">
         <v>354</v>
@@ -13776,62 +13611,59 @@
       <c r="Z123">
         <v>0</v>
       </c>
-      <c r="AG123" t="s">
-        <v>356</v>
-      </c>
-      <c r="AH123">
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AS123">
+        <v>0</v>
+      </c>
+      <c r="AV123">
+        <v>0</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
         <v>0.25</v>
       </c>
-      <c r="AI123">
-        <v>0</v>
-      </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
-      <c r="AK123">
-        <v>0</v>
-      </c>
-      <c r="AL123">
-        <v>0</v>
-      </c>
-      <c r="AM123">
-        <v>0</v>
-      </c>
-      <c r="AN123">
-        <v>0.25</v>
-      </c>
-      <c r="AS123">
-        <v>0</v>
-      </c>
-      <c r="AV123">
-        <v>0</v>
-      </c>
-      <c r="AX123">
-        <v>0</v>
-      </c>
-      <c r="AY123">
-        <v>0</v>
-      </c>
-      <c r="BA123">
-        <v>0</v>
-      </c>
-      <c r="BB123">
-        <v>0</v>
-      </c>
-      <c r="BC123">
-        <v>0</v>
-      </c>
-      <c r="BD123">
-        <v>0</v>
-      </c>
-      <c r="BE123">
-        <v>0</v>
-      </c>
-      <c r="BF123">
-        <v>0</v>
-      </c>
-      <c r="BG123">
-        <v>0</v>
+      <c r="BJ123">
+        <v>1</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13851,16 +13683,16 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C124" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -13877,9 +13709,6 @@
       <c r="Z124">
         <v>0</v>
       </c>
-      <c r="AG124" t="s">
-        <v>261</v>
-      </c>
       <c r="AI124">
         <v>0</v>
       </c>
@@ -13895,9 +13724,6 @@
       <c r="AM124">
         <v>0</v>
       </c>
-      <c r="AN124">
-        <v>0.25</v>
-      </c>
       <c r="AS124">
         <v>0</v>
       </c>
@@ -13930,6 +13756,9 @@
       </c>
       <c r="BG124">
         <v>0</v>
+      </c>
+      <c r="BH124" t="s">
+        <v>115</v>
       </c>
       <c r="BM124">
         <v>0</v>
@@ -13949,16 +13778,16 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -13975,9 +13804,6 @@
       <c r="Z125">
         <v>0</v>
       </c>
-      <c r="AG125" t="s">
-        <v>361</v>
-      </c>
       <c r="AI125">
         <v>0</v>
       </c>
@@ -13993,9 +13819,6 @@
       <c r="AM125">
         <v>0</v>
       </c>
-      <c r="AN125">
-        <v>0.25</v>
-      </c>
       <c r="AS125">
         <v>0</v>
       </c>
@@ -14027,7 +13850,13 @@
         <v>0</v>
       </c>
       <c r="BG125">
-        <v>0</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI125">
+        <v>1.6</v>
+      </c>
+      <c r="BJ125">
+        <v>1</v>
       </c>
       <c r="BM125">
         <v>0</v>
@@ -14047,16 +13876,16 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C126" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -14073,9 +13902,6 @@
       <c r="Z126">
         <v>0</v>
       </c>
-      <c r="AG126" t="s">
-        <v>356</v>
-      </c>
       <c r="AI126">
         <v>0</v>
       </c>
@@ -14091,9 +13917,6 @@
       <c r="AM126">
         <v>0</v>
       </c>
-      <c r="AN126">
-        <v>0.5</v>
-      </c>
       <c r="AS126">
         <v>0</v>
       </c>
@@ -14126,6 +13949,9 @@
       </c>
       <c r="BG126">
         <v>0</v>
+      </c>
+      <c r="BH126" t="s">
+        <v>78</v>
       </c>
       <c r="BM126">
         <v>0</v>
@@ -14145,16 +13971,16 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C127" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -14172,7 +13998,10 @@
         <v>0</v>
       </c>
       <c r="AG127" t="s">
-        <v>356</v>
+        <v>279</v>
+      </c>
+      <c r="AH127">
+        <v>0.25</v>
       </c>
       <c r="AI127">
         <v>0</v>
@@ -14190,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="AN127">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS127">
         <v>0</v>
@@ -14243,16 +14072,16 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C128" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D128" t="s">
         <v>73</v>
       </c>
       <c r="G128" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -14270,7 +14099,10 @@
         <v>0</v>
       </c>
       <c r="AG128" t="s">
-        <v>356</v>
+        <v>366</v>
+      </c>
+      <c r="AH128">
+        <v>0.25</v>
       </c>
       <c r="AI128">
         <v>0</v>
@@ -14288,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="AN128">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS128">
         <v>0</v>
@@ -14341,16 +14173,16 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s">
         <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -14368,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="AG129" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AI129">
         <v>0</v>
@@ -14386,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="AN129">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS129">
         <v>0</v>
@@ -14439,35 +14271,35 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C130" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D130" t="s">
         <v>73</v>
       </c>
       <c r="G130" t="s">
+        <v>370</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AG130" t="s">
         <v>371</v>
       </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="s">
-        <v>269</v>
-      </c>
       <c r="AI130">
         <v>0</v>
       </c>
@@ -14484,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="AN130">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS130">
         <v>0</v>
@@ -14537,7 +14369,7 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C131" t="s">
         <v>372</v>
@@ -14564,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="AG131" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -14582,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS131">
         <v>0</v>
@@ -14635,7 +14467,7 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C132" t="s">
         <v>374</v>
@@ -14662,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="AG132" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="AI132">
         <v>0</v>
@@ -14680,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="AN132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS132">
         <v>0</v>
@@ -14733,7 +14565,7 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C133" t="s">
         <v>376</v>
@@ -14760,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="AG133" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="AI133">
         <v>0</v>
@@ -14778,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="AN133">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS133">
         <v>0</v>
@@ -14831,7 +14663,7 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C134" t="s">
         <v>378</v>
@@ -14858,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="AG134" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AI134">
         <v>0</v>
@@ -14876,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="AN134">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS134">
         <v>0</v>
@@ -14929,7 +14761,7 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C135" t="s">
         <v>380</v>
@@ -14956,10 +14788,7 @@
         <v>0</v>
       </c>
       <c r="AG135" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH135">
-        <v>0.5</v>
+        <v>279</v>
       </c>
       <c r="AI135">
         <v>0</v>
@@ -14977,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="AN135">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AS135">
         <v>0</v>
@@ -15030,7 +14859,7 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C136" t="s">
         <v>382</v>
@@ -15057,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="AG136" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="AI136">
         <v>0</v>
@@ -15075,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS136">
         <v>0</v>
@@ -15128,7 +14957,7 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C137" t="s">
         <v>384</v>
@@ -15155,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="AG137" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="AI137">
         <v>0</v>
@@ -15173,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS137">
         <v>0</v>
@@ -15226,7 +15055,7 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C138" t="s">
         <v>386</v>
@@ -15253,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="AG138" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="AI138">
         <v>0</v>
@@ -15271,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS138">
         <v>0</v>
@@ -15324,7 +15153,7 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C139" t="s">
         <v>388</v>
@@ -15350,6 +15179,9 @@
       <c r="Z139">
         <v>0</v>
       </c>
+      <c r="AG139" t="s">
+        <v>271</v>
+      </c>
       <c r="AI139">
         <v>0</v>
       </c>
@@ -15365,6 +15197,9 @@
       <c r="AM139">
         <v>0</v>
       </c>
+      <c r="AN139">
+        <v>1.25</v>
+      </c>
       <c r="AS139">
         <v>0</v>
       </c>
@@ -15397,9 +15232,6 @@
       </c>
       <c r="BG139">
         <v>0</v>
-      </c>
-      <c r="BI139">
-        <v>0.05</v>
       </c>
       <c r="BM139">
         <v>0</v>
@@ -15419,7 +15251,7 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C140" t="s">
         <v>390</v>
@@ -15445,8 +15277,11 @@
       <c r="Z140">
         <v>0</v>
       </c>
-      <c r="AA140" t="s">
-        <v>392</v>
+      <c r="AG140" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH140">
+        <v>0.5</v>
       </c>
       <c r="AI140">
         <v>0</v>
@@ -15462,6 +15297,9 @@
       </c>
       <c r="AM140">
         <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1.1</v>
       </c>
       <c r="AS140">
         <v>0</v>
@@ -15514,16 +15352,16 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C141" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D141" t="s">
         <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -15540,6 +15378,9 @@
       <c r="Z141">
         <v>0</v>
       </c>
+      <c r="AG141" t="s">
+        <v>371</v>
+      </c>
       <c r="AI141">
         <v>0</v>
       </c>
@@ -15555,6 +15396,9 @@
       <c r="AM141">
         <v>0</v>
       </c>
+      <c r="AN141">
+        <v>0.5</v>
+      </c>
       <c r="AS141">
         <v>0</v>
       </c>
@@ -15587,12 +15431,6 @@
       </c>
       <c r="BG141">
         <v>0</v>
-      </c>
-      <c r="BI141">
-        <v>1.25</v>
-      </c>
-      <c r="BJ141">
-        <v>1</v>
       </c>
       <c r="BM141">
         <v>0</v>
@@ -15612,16 +15450,16 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
         <v>73</v>
       </c>
       <c r="G142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -15638,8 +15476,8 @@
       <c r="Z142">
         <v>0</v>
       </c>
-      <c r="AA142" t="s">
-        <v>323</v>
+      <c r="AG142" t="s">
+        <v>371</v>
       </c>
       <c r="AI142">
         <v>0</v>
@@ -15655,6 +15493,9 @@
       </c>
       <c r="AM142">
         <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
       </c>
       <c r="AS142">
         <v>0</v>
@@ -15707,16 +15548,16 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D143" t="s">
         <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -15734,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="AG143" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="AI143">
         <v>0</v>
@@ -15752,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS143">
         <v>0</v>
@@ -15805,16 +15646,16 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D144" t="s">
         <v>73</v>
       </c>
       <c r="G144" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -15831,9 +15672,6 @@
       <c r="Z144">
         <v>0</v>
       </c>
-      <c r="AG144" t="s">
-        <v>356</v>
-      </c>
       <c r="AI144">
         <v>0</v>
       </c>
@@ -15849,9 +15687,6 @@
       <c r="AM144">
         <v>0</v>
       </c>
-      <c r="AN144">
-        <v>1</v>
-      </c>
       <c r="AS144">
         <v>0</v>
       </c>
@@ -15884,6 +15719,9 @@
       </c>
       <c r="BG144">
         <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0.05</v>
       </c>
       <c r="BM144">
         <v>0</v>
@@ -15903,32 +15741,35 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C145" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
       </c>
       <c r="G145" t="s">
+        <v>401</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="s">
         <v>402</v>
       </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
       <c r="AI145">
         <v>0</v>
       </c>
@@ -15976,12 +15817,6 @@
       </c>
       <c r="BG145">
         <v>0</v>
-      </c>
-      <c r="BI145">
-        <v>0.25</v>
-      </c>
-      <c r="BJ145">
-        <v>1</v>
       </c>
       <c r="BM145">
         <v>0</v>
@@ -16001,7 +15836,7 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C146" t="s">
         <v>403</v>
@@ -16074,6 +15909,12 @@
       </c>
       <c r="BG146">
         <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>1.25</v>
+      </c>
+      <c r="BJ146">
+        <v>1</v>
       </c>
       <c r="BM146">
         <v>0</v>
@@ -16093,7 +15934,7 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C147" t="s">
         <v>405</v>
@@ -16119,14 +15960,8 @@
       <c r="Z147">
         <v>0</v>
       </c>
-      <c r="AC147">
-        <v>1</v>
-      </c>
-      <c r="AG147" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH147">
-        <v>0.5</v>
+      <c r="AA147" t="s">
+        <v>333</v>
       </c>
       <c r="AI147">
         <v>0</v>
@@ -16142,9 +15977,6 @@
       </c>
       <c r="AM147">
         <v>0</v>
-      </c>
-      <c r="AN147">
-        <v>0.3</v>
       </c>
       <c r="AS147">
         <v>0</v>
@@ -16197,7 +16029,7 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C148" t="s">
         <v>407</v>
@@ -16208,6 +16040,12 @@
       <c r="G148" t="s">
         <v>408</v>
       </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
       <c r="O148">
         <v>0</v>
       </c>
@@ -16217,8 +16055,8 @@
       <c r="Z148">
         <v>0</v>
       </c>
-      <c r="AC148">
-        <v>1</v>
+      <c r="AG148" t="s">
+        <v>271</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -16235,6 +16073,9 @@
       <c r="AM148">
         <v>0</v>
       </c>
+      <c r="AN148">
+        <v>0.5</v>
+      </c>
       <c r="AS148">
         <v>0</v>
       </c>
@@ -16267,9 +16108,6 @@
       </c>
       <c r="BG148">
         <v>0</v>
-      </c>
-      <c r="BH148" t="s">
-        <v>141</v>
       </c>
       <c r="BM148">
         <v>0</v>
@@ -16289,7 +16127,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C149" t="s">
         <v>409</v>
@@ -16300,6 +16138,12 @@
       <c r="G149" t="s">
         <v>410</v>
       </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
       <c r="O149">
         <v>0</v>
       </c>
@@ -16309,24 +16153,27 @@
       <c r="Z149">
         <v>0</v>
       </c>
-      <c r="AC149">
+      <c r="AG149" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
         <v>1</v>
       </c>
-      <c r="AI149">
-        <v>0</v>
-      </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
-      <c r="AK149">
-        <v>0</v>
-      </c>
-      <c r="AL149">
-        <v>0</v>
-      </c>
-      <c r="AM149">
-        <v>0</v>
-      </c>
       <c r="AS149">
         <v>0</v>
       </c>
@@ -16359,9 +16206,6 @@
       </c>
       <c r="BG149">
         <v>0</v>
-      </c>
-      <c r="BH149" t="s">
-        <v>157</v>
       </c>
       <c r="BM149">
         <v>0</v>
@@ -16381,7 +16225,7 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C150" t="s">
         <v>411</v>
@@ -16392,6 +16236,12 @@
       <c r="G150" t="s">
         <v>412</v>
       </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
       <c r="O150">
         <v>0</v>
       </c>
@@ -16401,65 +16251,59 @@
       <c r="Z150">
         <v>0</v>
       </c>
-      <c r="AC150">
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AS150">
+        <v>0</v>
+      </c>
+      <c r="AV150">
+        <v>0</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0.25</v>
+      </c>
+      <c r="BJ150">
         <v>1</v>
-      </c>
-      <c r="AG150" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH150">
-        <v>0.1</v>
-      </c>
-      <c r="AI150">
-        <v>0</v>
-      </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
-      <c r="AK150">
-        <v>0</v>
-      </c>
-      <c r="AL150">
-        <v>0</v>
-      </c>
-      <c r="AM150">
-        <v>0</v>
-      </c>
-      <c r="AN150">
-        <v>0.15</v>
-      </c>
-      <c r="AS150">
-        <v>0</v>
-      </c>
-      <c r="AV150">
-        <v>0</v>
-      </c>
-      <c r="AX150">
-        <v>0</v>
-      </c>
-      <c r="AY150">
-        <v>0</v>
-      </c>
-      <c r="BA150">
-        <v>0</v>
-      </c>
-      <c r="BB150">
-        <v>0</v>
-      </c>
-      <c r="BC150">
-        <v>0</v>
-      </c>
-      <c r="BD150">
-        <v>0</v>
-      </c>
-      <c r="BE150">
-        <v>0</v>
-      </c>
-      <c r="BF150">
-        <v>0</v>
-      </c>
-      <c r="BG150">
-        <v>0</v>
       </c>
       <c r="BM150">
         <v>0</v>
@@ -16479,16 +16323,22 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C151" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -16499,9 +16349,6 @@
       <c r="Z151">
         <v>0</v>
       </c>
-      <c r="AC151">
-        <v>1</v>
-      </c>
       <c r="AI151">
         <v>0</v>
       </c>
@@ -16549,9 +16396,6 @@
       </c>
       <c r="BG151">
         <v>0</v>
-      </c>
-      <c r="BH151" t="s">
-        <v>83</v>
       </c>
       <c r="BM151">
         <v>0</v>
@@ -16571,16 +16415,22 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C152" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -16595,10 +16445,10 @@
         <v>1</v>
       </c>
       <c r="AG152" t="s">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="AH152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI152">
         <v>0</v>
@@ -16669,16 +16519,16 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C153" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -16741,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="BH153" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16761,16 +16611,16 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -16784,12 +16634,6 @@
       <c r="AC154">
         <v>1</v>
       </c>
-      <c r="AG154" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH154">
-        <v>0.35</v>
-      </c>
       <c r="AI154">
         <v>0</v>
       </c>
@@ -16805,9 +16649,6 @@
       <c r="AM154">
         <v>0</v>
       </c>
-      <c r="AN154">
-        <v>0.45</v>
-      </c>
       <c r="AS154">
         <v>0</v>
       </c>
@@ -16840,6 +16681,9 @@
       </c>
       <c r="BG154">
         <v>0</v>
+      </c>
+      <c r="BH154" t="s">
+        <v>163</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16859,16 +16703,16 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C155" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -16882,6 +16726,12 @@
       <c r="AC155">
         <v>1</v>
       </c>
+      <c r="AG155" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH155">
+        <v>0.1</v>
+      </c>
       <c r="AI155">
         <v>0</v>
       </c>
@@ -16897,6 +16747,9 @@
       <c r="AM155">
         <v>0</v>
       </c>
+      <c r="AN155">
+        <v>0.15</v>
+      </c>
       <c r="AS155">
         <v>0</v>
       </c>
@@ -16929,9 +16782,6 @@
       </c>
       <c r="BG155">
         <v>0</v>
-      </c>
-      <c r="BH155" t="s">
-        <v>154</v>
       </c>
       <c r="BM155">
         <v>0</v>
@@ -16951,7 +16801,7 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C156" t="s">
         <v>424</v>
@@ -16974,12 +16824,6 @@
       <c r="AC156">
         <v>1</v>
       </c>
-      <c r="AG156" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH156">
-        <v>0.5</v>
-      </c>
       <c r="AI156">
         <v>0</v>
       </c>
@@ -16995,9 +16839,6 @@
       <c r="AM156">
         <v>0</v>
       </c>
-      <c r="AN156">
-        <v>0.55</v>
-      </c>
       <c r="AS156">
         <v>0</v>
       </c>
@@ -17030,6 +16871,9 @@
       </c>
       <c r="BG156">
         <v>0</v>
+      </c>
+      <c r="BH156" t="s">
+        <v>78</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -17049,7 +16893,7 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C157" t="s">
         <v>426</v>
@@ -17072,6 +16916,12 @@
       <c r="AC157">
         <v>1</v>
       </c>
+      <c r="AG157" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH157">
+        <v>0.25</v>
+      </c>
       <c r="AI157">
         <v>0</v>
       </c>
@@ -17087,6 +16937,9 @@
       <c r="AM157">
         <v>0</v>
       </c>
+      <c r="AN157">
+        <v>0.3</v>
+      </c>
       <c r="AS157">
         <v>0</v>
       </c>
@@ -17119,9 +16972,6 @@
       </c>
       <c r="BG157">
         <v>0</v>
-      </c>
-      <c r="BH157" t="s">
-        <v>83</v>
       </c>
       <c r="BM157">
         <v>0</v>
@@ -17141,7 +16991,7 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C158" t="s">
         <v>428</v>
@@ -17211,6 +17061,9 @@
       </c>
       <c r="BG158">
         <v>0</v>
+      </c>
+      <c r="BH158" t="s">
+        <v>156</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -17230,7 +17083,7 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C159" t="s">
         <v>430</v>
@@ -17253,6 +17106,12 @@
       <c r="AC159">
         <v>1</v>
       </c>
+      <c r="AG159" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH159">
+        <v>0.35</v>
+      </c>
       <c r="AI159">
         <v>0</v>
       </c>
@@ -17267,6 +17126,9 @@
       </c>
       <c r="AM159">
         <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>0.45</v>
       </c>
       <c r="AS159">
         <v>0</v>
@@ -17319,7 +17181,7 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C160" t="s">
         <v>432</v>
@@ -17339,9 +17201,6 @@
       <c r="Z160">
         <v>0</v>
       </c>
-      <c r="AA160" t="s">
-        <v>434</v>
-      </c>
       <c r="AC160">
         <v>1</v>
       </c>
@@ -17392,6 +17251,9 @@
       </c>
       <c r="BG160">
         <v>0</v>
+      </c>
+      <c r="BH160" t="s">
+        <v>120</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -17411,16 +17273,16 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C161" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -17434,6 +17296,12 @@
       <c r="AC161">
         <v>1</v>
       </c>
+      <c r="AG161" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH161">
+        <v>0.5</v>
+      </c>
       <c r="AI161">
         <v>0</v>
       </c>
@@ -17448,6 +17316,9 @@
       </c>
       <c r="AM161">
         <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>0.55</v>
       </c>
       <c r="AS161">
         <v>0</v>
@@ -17500,16 +17371,16 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -17570,6 +17441,9 @@
       </c>
       <c r="BG162">
         <v>0</v>
+      </c>
+      <c r="BH162" t="s">
+        <v>78</v>
       </c>
       <c r="BM162">
         <v>0</v>
@@ -17589,16 +17463,16 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17678,16 +17552,16 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C164" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17767,25 +17641,28 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D165" t="s">
         <v>73</v>
       </c>
       <c r="G165" t="s">
+        <v>443</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="s">
         <v>444</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
       </c>
       <c r="AC165">
         <v>1</v>
@@ -17856,7 +17733,7 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C166" t="s">
         <v>445</v>
@@ -17926,9 +17803,6 @@
       </c>
       <c r="BG166">
         <v>0</v>
-      </c>
-      <c r="BH166" t="s">
-        <v>136</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -17948,7 +17822,7 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C167" t="s">
         <v>447</v>
@@ -18018,9 +17892,6 @@
       </c>
       <c r="BG167">
         <v>0</v>
-      </c>
-      <c r="BH167" t="s">
-        <v>98</v>
       </c>
       <c r="BM167">
         <v>0</v>
@@ -18040,7 +17911,7 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C168" t="s">
         <v>449</v>
@@ -18129,7 +18000,7 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C169" t="s">
         <v>451</v>
@@ -18199,9 +18070,6 @@
       </c>
       <c r="BG169">
         <v>0</v>
-      </c>
-      <c r="BH169" t="s">
-        <v>157</v>
       </c>
       <c r="BM169">
         <v>0</v>
@@ -18221,7 +18089,7 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C170" t="s">
         <v>453</v>
@@ -18310,7 +18178,7 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C171" t="s">
         <v>455</v>
@@ -18382,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="BH171" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="BM171">
         <v>0</v>
@@ -18402,7 +18270,7 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C172" t="s">
         <v>457</v>
@@ -18474,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="BH172" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="BM172">
         <v>0</v>
@@ -18494,7 +18362,7 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C173" t="s">
         <v>459</v>
@@ -18583,7 +18451,7 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C174" t="s">
         <v>461</v>
@@ -18655,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="BH174" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18675,7 +18543,7 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C175" t="s">
         <v>463</v>
@@ -18764,7 +18632,7 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C176" t="s">
         <v>465</v>
@@ -18834,6 +18702,9 @@
       </c>
       <c r="BG176">
         <v>0</v>
+      </c>
+      <c r="BH176" t="s">
+        <v>120</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18853,7 +18724,7 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C177" t="s">
         <v>467</v>
@@ -18923,6 +18794,9 @@
       </c>
       <c r="BG177">
         <v>0</v>
+      </c>
+      <c r="BH177" t="s">
+        <v>110</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18942,7 +18816,7 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C178" t="s">
         <v>469</v>
@@ -19031,7 +18905,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C179" t="s">
         <v>471</v>
@@ -19101,6 +18975,9 @@
       </c>
       <c r="BG179">
         <v>0</v>
+      </c>
+      <c r="BH179" t="s">
+        <v>78</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -19120,7 +18997,7 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C180" t="s">
         <v>473</v>
@@ -19209,7 +19086,7 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C181" t="s">
         <v>475</v>
@@ -19298,7 +19175,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C182" t="s">
         <v>477</v>
@@ -19387,7 +19264,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C183" t="s">
         <v>479</v>
@@ -19476,7 +19353,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C184" t="s">
         <v>481</v>
@@ -19565,7 +19442,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C185" t="s">
         <v>483</v>
@@ -19654,7 +19531,7 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C186" t="s">
         <v>485</v>
@@ -19743,7 +19620,7 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>210180</v>
+        <v>629</v>
       </c>
       <c r="C187" t="s">
         <v>487</v>
@@ -19813,9 +19690,6 @@
       </c>
       <c r="BG187">
         <v>0</v>
-      </c>
-      <c r="BH187" t="s">
-        <v>489</v>
       </c>
       <c r="BM187">
         <v>0</v>
@@ -19835,16 +19709,16 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>210181</v>
+        <v>630</v>
       </c>
       <c r="C188" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D188" t="s">
         <v>73</v>
       </c>
       <c r="G188" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -19905,9 +19779,6 @@
       </c>
       <c r="BG188">
         <v>0</v>
-      </c>
-      <c r="BH188" t="s">
-        <v>489</v>
       </c>
       <c r="BM188">
         <v>0</v>
@@ -19927,16 +19798,16 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>210182</v>
+        <v>631</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="G189" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -19997,9 +19868,6 @@
       </c>
       <c r="BG189">
         <v>0</v>
-      </c>
-      <c r="BH189" t="s">
-        <v>494</v>
       </c>
       <c r="BM189">
         <v>0</v>
@@ -20019,16 +19887,16 @@
     </row>
     <row r="190" spans="1:72">
       <c r="A190">
-        <v>210183</v>
+        <v>632</v>
       </c>
       <c r="C190" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="G190" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -20042,12 +19910,6 @@
       <c r="AC190">
         <v>1</v>
       </c>
-      <c r="AG190" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH190">
-        <v>0.35</v>
-      </c>
       <c r="AI190">
         <v>0</v>
       </c>
@@ -20063,9 +19925,6 @@
       <c r="AM190">
         <v>0</v>
       </c>
-      <c r="AN190">
-        <v>0.35</v>
-      </c>
       <c r="AS190">
         <v>0</v>
       </c>
@@ -20098,9 +19957,6 @@
       </c>
       <c r="BG190">
         <v>0</v>
-      </c>
-      <c r="BH190" t="s">
-        <v>494</v>
       </c>
       <c r="BM190">
         <v>0</v>
@@ -20120,16 +19976,16 @@
     </row>
     <row r="191" spans="1:72">
       <c r="A191">
-        <v>210184</v>
+        <v>633</v>
       </c>
       <c r="C191" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="G191" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -20190,9 +20046,6 @@
       </c>
       <c r="BG191">
         <v>0</v>
-      </c>
-      <c r="BH191" t="s">
-        <v>494</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -20212,16 +20065,16 @@
     </row>
     <row r="192" spans="1:72">
       <c r="A192">
-        <v>210185</v>
+        <v>210180</v>
       </c>
       <c r="C192" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="G192" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -20284,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="BH192" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -20304,16 +20157,16 @@
     </row>
     <row r="193" spans="1:72">
       <c r="A193">
-        <v>210186</v>
+        <v>210181</v>
       </c>
       <c r="C193" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -20323,9 +20176,6 @@
       </c>
       <c r="Z193">
         <v>0</v>
-      </c>
-      <c r="AA193" t="s">
-        <v>503</v>
       </c>
       <c r="AC193">
         <v>1</v>
@@ -20377,6 +20227,9 @@
       </c>
       <c r="BG193">
         <v>0</v>
+      </c>
+      <c r="BH193" t="s">
+        <v>499</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -20396,16 +20249,16 @@
     </row>
     <row r="194" spans="1:72">
       <c r="A194">
-        <v>210187</v>
+        <v>210182</v>
       </c>
       <c r="C194" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -20468,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="BH194" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="BM194">
         <v>0</v>
@@ -20488,16 +20341,16 @@
     </row>
     <row r="195" spans="1:72">
       <c r="A195">
-        <v>210188</v>
+        <v>210183</v>
       </c>
       <c r="C195" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -20511,6 +20364,12 @@
       <c r="AC195">
         <v>1</v>
       </c>
+      <c r="AG195" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH195">
+        <v>0.35</v>
+      </c>
       <c r="AI195">
         <v>0</v>
       </c>
@@ -20526,6 +20385,9 @@
       <c r="AM195">
         <v>0</v>
       </c>
+      <c r="AN195">
+        <v>0.35</v>
+      </c>
       <c r="AS195">
         <v>0</v>
       </c>
@@ -20558,6 +20420,9 @@
       </c>
       <c r="BG195">
         <v>0</v>
+      </c>
+      <c r="BH195" t="s">
+        <v>504</v>
       </c>
       <c r="BM195">
         <v>0</v>
@@ -20577,16 +20442,16 @@
     </row>
     <row r="196" spans="1:72">
       <c r="A196">
-        <v>210189</v>
+        <v>210184</v>
       </c>
       <c r="C196" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="G196" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -20600,12 +20465,6 @@
       <c r="AC196">
         <v>1</v>
       </c>
-      <c r="AG196" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH196">
-        <v>0.6</v>
-      </c>
       <c r="AI196">
         <v>0</v>
       </c>
@@ -20621,9 +20480,6 @@
       <c r="AM196">
         <v>0</v>
       </c>
-      <c r="AN196">
-        <v>0.6</v>
-      </c>
       <c r="AS196">
         <v>0</v>
       </c>
@@ -20658,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="BH196" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="BM196">
         <v>0</v>
@@ -20678,16 +20534,16 @@
     </row>
     <row r="197" spans="1:72">
       <c r="A197">
-        <v>210190</v>
+        <v>210185</v>
       </c>
       <c r="C197" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="G197" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -20701,12 +20557,6 @@
       <c r="AC197">
         <v>1</v>
       </c>
-      <c r="AG197" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH197">
-        <v>1</v>
-      </c>
       <c r="AI197">
         <v>0</v>
       </c>
@@ -20722,9 +20572,6 @@
       <c r="AM197">
         <v>0</v>
       </c>
-      <c r="AN197">
-        <v>1</v>
-      </c>
       <c r="AS197">
         <v>0</v>
       </c>
@@ -20759,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="BH197" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20779,16 +20626,16 @@
     </row>
     <row r="198" spans="1:72">
       <c r="A198">
-        <v>210191</v>
+        <v>210186</v>
       </c>
       <c r="C198" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20798,6 +20645,9 @@
       </c>
       <c r="Z198">
         <v>0</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>513</v>
       </c>
       <c r="AC198">
         <v>1</v>
@@ -20849,9 +20699,6 @@
       </c>
       <c r="BG198">
         <v>0</v>
-      </c>
-      <c r="BH198" t="s">
-        <v>510</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20871,16 +20718,16 @@
     </row>
     <row r="199" spans="1:72">
       <c r="A199">
-        <v>210192</v>
+        <v>210187</v>
       </c>
       <c r="C199" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -20894,12 +20741,6 @@
       <c r="AC199">
         <v>1</v>
       </c>
-      <c r="AG199" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH199">
-        <v>0.3</v>
-      </c>
       <c r="AI199">
         <v>0</v>
       </c>
@@ -20915,9 +20756,6 @@
       <c r="AM199">
         <v>0</v>
       </c>
-      <c r="AN199">
-        <v>0.3</v>
-      </c>
       <c r="AS199">
         <v>0</v>
       </c>
@@ -20952,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="BH199" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="BM199">
         <v>0</v>
@@ -20972,16 +20810,16 @@
     </row>
     <row r="200" spans="1:72">
       <c r="A200">
-        <v>210193</v>
+        <v>210188</v>
       </c>
       <c r="C200" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -21042,9 +20880,6 @@
       </c>
       <c r="BG200">
         <v>0</v>
-      </c>
-      <c r="BH200" t="s">
-        <v>510</v>
       </c>
       <c r="BM200">
         <v>0</v>
@@ -21064,16 +20899,16 @@
     </row>
     <row r="201" spans="1:72">
       <c r="A201">
-        <v>210194</v>
+        <v>210189</v>
       </c>
       <c r="C201" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -21087,6 +20922,12 @@
       <c r="AC201">
         <v>1</v>
       </c>
+      <c r="AG201" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH201">
+        <v>0.6</v>
+      </c>
       <c r="AI201">
         <v>0</v>
       </c>
@@ -21102,6 +20943,9 @@
       <c r="AM201">
         <v>0</v>
       </c>
+      <c r="AN201">
+        <v>0.6</v>
+      </c>
       <c r="AS201">
         <v>0</v>
       </c>
@@ -21136,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -21156,16 +21000,16 @@
     </row>
     <row r="202" spans="1:72">
       <c r="A202">
-        <v>210195</v>
+        <v>210190</v>
       </c>
       <c r="C202" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -21179,6 +21023,12 @@
       <c r="AC202">
         <v>1</v>
       </c>
+      <c r="AG202" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH202">
+        <v>1</v>
+      </c>
       <c r="AI202">
         <v>0</v>
       </c>
@@ -21194,6 +21044,9 @@
       <c r="AM202">
         <v>0</v>
       </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
       <c r="AS202">
         <v>0</v>
       </c>
@@ -21226,6 +21079,9 @@
       </c>
       <c r="BG202">
         <v>0</v>
+      </c>
+      <c r="BH202" t="s">
+        <v>520</v>
       </c>
       <c r="BM202">
         <v>0</v>
@@ -21245,7 +21101,7 @@
     </row>
     <row r="203" spans="1:72">
       <c r="A203">
-        <v>210196</v>
+        <v>210191</v>
       </c>
       <c r="C203" t="s">
         <v>524</v>
@@ -21315,6 +21171,9 @@
       </c>
       <c r="BG203">
         <v>0</v>
+      </c>
+      <c r="BH203" t="s">
+        <v>520</v>
       </c>
       <c r="BM203">
         <v>0</v>
@@ -21334,7 +21193,7 @@
     </row>
     <row r="204" spans="1:72">
       <c r="A204">
-        <v>210197</v>
+        <v>210192</v>
       </c>
       <c r="C204" t="s">
         <v>526</v>
@@ -21357,6 +21216,12 @@
       <c r="AC204">
         <v>1</v>
       </c>
+      <c r="AG204" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH204">
+        <v>0.3</v>
+      </c>
       <c r="AI204">
         <v>0</v>
       </c>
@@ -21372,6 +21237,9 @@
       <c r="AM204">
         <v>0</v>
       </c>
+      <c r="AN204">
+        <v>0.3</v>
+      </c>
       <c r="AS204">
         <v>0</v>
       </c>
@@ -21406,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="BH204" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -21426,16 +21294,16 @@
     </row>
     <row r="205" spans="1:72">
       <c r="A205">
-        <v>210198</v>
+        <v>210193</v>
       </c>
       <c r="C205" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21498,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="BH205" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21518,16 +21386,16 @@
     </row>
     <row r="206" spans="1:72">
       <c r="A206">
-        <v>210199</v>
+        <v>210194</v>
       </c>
       <c r="C206" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21590,7 +21458,7 @@
         <v>0</v>
       </c>
       <c r="BH206" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="BM206">
         <v>0</v>
@@ -21610,16 +21478,16 @@
     </row>
     <row r="207" spans="1:72">
       <c r="A207">
-        <v>210200</v>
+        <v>210195</v>
       </c>
       <c r="C207" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21699,16 +21567,16 @@
     </row>
     <row r="208" spans="1:72">
       <c r="A208">
-        <v>210201</v>
+        <v>210196</v>
       </c>
       <c r="C208" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21769,9 +21637,6 @@
       </c>
       <c r="BG208">
         <v>0</v>
-      </c>
-      <c r="BH208" t="s">
-        <v>537</v>
       </c>
       <c r="BM208">
         <v>0</v>
@@ -21791,16 +21656,16 @@
     </row>
     <row r="209" spans="1:72">
       <c r="A209">
-        <v>210202</v>
+        <v>210197</v>
       </c>
       <c r="C209" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -21814,12 +21679,6 @@
       <c r="AC209">
         <v>1</v>
       </c>
-      <c r="AG209" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH209">
-        <v>0.75</v>
-      </c>
       <c r="AI209">
         <v>0</v>
       </c>
@@ -21835,9 +21694,6 @@
       <c r="AM209">
         <v>0</v>
       </c>
-      <c r="AN209">
-        <v>1.25</v>
-      </c>
       <c r="AS209">
         <v>0</v>
       </c>
@@ -21872,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="BH209" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM209">
         <v>0</v>
@@ -21892,16 +21748,16 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>210203</v>
+        <v>210198</v>
       </c>
       <c r="C210" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -21915,12 +21771,6 @@
       <c r="AC210">
         <v>1</v>
       </c>
-      <c r="AG210" t="s">
-        <v>356</v>
-      </c>
-      <c r="AH210">
-        <v>1</v>
-      </c>
       <c r="AI210">
         <v>0</v>
       </c>
@@ -21936,9 +21786,6 @@
       <c r="AM210">
         <v>0</v>
       </c>
-      <c r="AN210">
-        <v>1.25</v>
-      </c>
       <c r="AS210">
         <v>0</v>
       </c>
@@ -21973,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="BH210" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -21993,16 +21840,16 @@
     </row>
     <row r="211" spans="1:72">
       <c r="A211">
-        <v>210204</v>
+        <v>210199</v>
       </c>
       <c r="C211" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -22065,7 +21912,7 @@
         <v>0</v>
       </c>
       <c r="BH211" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -22085,16 +21932,16 @@
     </row>
     <row r="212" spans="1:72">
       <c r="A212">
-        <v>210205</v>
+        <v>210200</v>
       </c>
       <c r="C212" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -22174,16 +22021,16 @@
     </row>
     <row r="213" spans="1:72">
       <c r="A213">
-        <v>210206</v>
+        <v>210201</v>
       </c>
       <c r="C213" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -22193,9 +22040,6 @@
       </c>
       <c r="Z213">
         <v>0</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>548</v>
       </c>
       <c r="AC213">
         <v>1</v>
@@ -22247,6 +22091,9 @@
       </c>
       <c r="BG213">
         <v>0</v>
+      </c>
+      <c r="BH213" t="s">
+        <v>547</v>
       </c>
       <c r="BM213">
         <v>0</v>
@@ -22266,16 +22113,16 @@
     </row>
     <row r="214" spans="1:72">
       <c r="A214">
-        <v>210207</v>
+        <v>210202</v>
       </c>
       <c r="C214" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -22290,10 +22137,10 @@
         <v>1</v>
       </c>
       <c r="AG214" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="AH214">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI214">
         <v>0</v>
@@ -22311,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="AN214">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS214">
         <v>0</v>
@@ -22347,7 +22194,7 @@
         <v>0</v>
       </c>
       <c r="BH214" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="BM214">
         <v>0</v>
@@ -22367,16 +22214,16 @@
     </row>
     <row r="215" spans="1:72">
       <c r="A215">
-        <v>210208</v>
+        <v>210203</v>
       </c>
       <c r="C215" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -22390,6 +22237,12 @@
       <c r="AC215">
         <v>1</v>
       </c>
+      <c r="AG215" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH215">
+        <v>1</v>
+      </c>
       <c r="AI215">
         <v>0</v>
       </c>
@@ -22405,6 +22258,9 @@
       <c r="AM215">
         <v>0</v>
       </c>
+      <c r="AN215">
+        <v>1.25</v>
+      </c>
       <c r="AS215">
         <v>0</v>
       </c>
@@ -22437,6 +22293,9 @@
       </c>
       <c r="BG215">
         <v>0</v>
+      </c>
+      <c r="BH215" t="s">
+        <v>547</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22456,16 +22315,16 @@
     </row>
     <row r="216" spans="1:72">
       <c r="A216">
-        <v>210209</v>
+        <v>210204</v>
       </c>
       <c r="C216" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22526,6 +22385,9 @@
       </c>
       <c r="BG216">
         <v>0</v>
+      </c>
+      <c r="BH216" t="s">
+        <v>547</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22545,16 +22407,16 @@
     </row>
     <row r="217" spans="1:72">
       <c r="A217">
-        <v>210210</v>
+        <v>210205</v>
       </c>
       <c r="C217" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22615,9 +22477,6 @@
       </c>
       <c r="BG217">
         <v>0</v>
-      </c>
-      <c r="BH217" t="s">
-        <v>557</v>
       </c>
       <c r="BM217">
         <v>0</v>
@@ -22637,16 +22496,16 @@
     </row>
     <row r="218" spans="1:72">
       <c r="A218">
-        <v>210211</v>
+        <v>210206</v>
       </c>
       <c r="C218" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22656,6 +22515,9 @@
       </c>
       <c r="Z218">
         <v>0</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>558</v>
       </c>
       <c r="AC218">
         <v>1</v>
@@ -22707,9 +22569,6 @@
       </c>
       <c r="BG218">
         <v>0</v>
-      </c>
-      <c r="BH218" t="s">
-        <v>557</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22729,16 +22588,16 @@
     </row>
     <row r="219" spans="1:72">
       <c r="A219">
-        <v>210212</v>
+        <v>210207</v>
       </c>
       <c r="C219" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22752,6 +22611,12 @@
       <c r="AC219">
         <v>1</v>
       </c>
+      <c r="AG219" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH219">
+        <v>1</v>
+      </c>
       <c r="AI219">
         <v>0</v>
       </c>
@@ -22767,6 +22632,9 @@
       <c r="AM219">
         <v>0</v>
       </c>
+      <c r="AN219">
+        <v>1.2</v>
+      </c>
       <c r="AS219">
         <v>0</v>
       </c>
@@ -22799,6 +22667,9 @@
       </c>
       <c r="BG219">
         <v>0</v>
+      </c>
+      <c r="BH219" t="s">
+        <v>499</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22818,16 +22689,16 @@
     </row>
     <row r="220" spans="1:72">
       <c r="A220">
-        <v>210213</v>
+        <v>210208</v>
       </c>
       <c r="C220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22888,9 +22759,6 @@
       </c>
       <c r="BG220">
         <v>0</v>
-      </c>
-      <c r="BH220" t="s">
-        <v>489</v>
       </c>
       <c r="BM220">
         <v>0</v>
@@ -22910,16 +22778,16 @@
     </row>
     <row r="221" spans="1:72">
       <c r="A221">
-        <v>210214</v>
+        <v>210209</v>
       </c>
       <c r="C221" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D221" t="s">
         <v>73</v>
       </c>
       <c r="G221" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O221">
         <v>0</v>
@@ -22999,16 +22867,16 @@
     </row>
     <row r="222" spans="1:72">
       <c r="A222">
-        <v>410519</v>
+        <v>210210</v>
       </c>
       <c r="C222" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D222" t="s">
         <v>73</v>
       </c>
       <c r="G222" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -23069,6 +22937,9 @@
       </c>
       <c r="BG222">
         <v>0</v>
+      </c>
+      <c r="BH222" t="s">
+        <v>567</v>
       </c>
       <c r="BM222">
         <v>0</v>
@@ -23088,7 +22959,7 @@
     </row>
     <row r="223" spans="1:72">
       <c r="A223">
-        <v>1170415</v>
+        <v>210211</v>
       </c>
       <c r="C223" t="s">
         <v>568</v>
@@ -23160,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="BH223" t="s">
-        <v>120</v>
+        <v>567</v>
       </c>
       <c r="BM223">
         <v>0</v>
@@ -23180,7 +23051,7 @@
     </row>
     <row r="224" spans="1:72">
       <c r="A224">
-        <v>1170416</v>
+        <v>210212</v>
       </c>
       <c r="C224" t="s">
         <v>570</v>
@@ -23250,9 +23121,6 @@
       </c>
       <c r="BG224">
         <v>0</v>
-      </c>
-      <c r="BH224" t="s">
-        <v>136</v>
       </c>
       <c r="BM224">
         <v>0</v>
@@ -23272,7 +23140,7 @@
     </row>
     <row r="225" spans="1:72">
       <c r="A225">
-        <v>1170417</v>
+        <v>210213</v>
       </c>
       <c r="C225" t="s">
         <v>572</v>
@@ -23344,7 +23212,7 @@
         <v>0</v>
       </c>
       <c r="BH225" t="s">
-        <v>78</v>
+        <v>499</v>
       </c>
       <c r="BM225">
         <v>0</v>
@@ -23364,7 +23232,7 @@
     </row>
     <row r="226" spans="1:72">
       <c r="A226">
-        <v>1170418</v>
+        <v>210214</v>
       </c>
       <c r="C226" t="s">
         <v>574</v>
@@ -23434,9 +23302,6 @@
       </c>
       <c r="BG226">
         <v>0</v>
-      </c>
-      <c r="BH226" t="s">
-        <v>123</v>
       </c>
       <c r="BM226">
         <v>0</v>
@@ -23456,7 +23321,7 @@
     </row>
     <row r="227" spans="1:72">
       <c r="A227">
-        <v>1170419</v>
+        <v>410519</v>
       </c>
       <c r="C227" t="s">
         <v>576</v>
@@ -23545,7 +23410,7 @@
     </row>
     <row r="228" spans="1:72">
       <c r="A228">
-        <v>1170420</v>
+        <v>1170415</v>
       </c>
       <c r="C228" t="s">
         <v>578</v>
@@ -23617,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="BH228" t="s">
-        <v>580</v>
+        <v>132</v>
       </c>
       <c r="BM228">
         <v>0</v>
@@ -23637,16 +23502,16 @@
     </row>
     <row r="229" spans="1:72">
       <c r="A229">
-        <v>1170421</v>
+        <v>1170416</v>
       </c>
       <c r="C229" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D229" t="s">
         <v>73</v>
       </c>
       <c r="G229" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O229">
         <v>0</v>
@@ -23709,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="BH229" t="s">
-        <v>580</v>
+        <v>115</v>
       </c>
       <c r="BM229">
         <v>0</v>
@@ -23729,16 +23594,16 @@
     </row>
     <row r="230" spans="1:72">
       <c r="A230">
-        <v>1170422</v>
+        <v>1170417</v>
       </c>
       <c r="C230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D230" t="s">
         <v>73</v>
       </c>
       <c r="G230" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O230">
         <v>0</v>
@@ -23801,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="BH230" t="s">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="BM230">
         <v>0</v>
@@ -23821,16 +23686,16 @@
     </row>
     <row r="231" spans="1:72">
       <c r="A231">
-        <v>1170423</v>
+        <v>1170418</v>
       </c>
       <c r="C231" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D231" t="s">
         <v>73</v>
       </c>
       <c r="G231" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O231">
         <v>0</v>
@@ -23893,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="BH231" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BM231">
         <v>0</v>
@@ -23913,16 +23778,16 @@
     </row>
     <row r="232" spans="1:72">
       <c r="A232">
-        <v>1170424</v>
+        <v>1170419</v>
       </c>
       <c r="C232" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D232" t="s">
         <v>73</v>
       </c>
       <c r="G232" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O232">
         <v>0</v>
@@ -23983,9 +23848,6 @@
       </c>
       <c r="BG232">
         <v>0</v>
-      </c>
-      <c r="BH232" t="s">
-        <v>136</v>
       </c>
       <c r="BM232">
         <v>0</v>
@@ -24005,16 +23867,16 @@
     </row>
     <row r="233" spans="1:72">
       <c r="A233">
-        <v>1170425</v>
+        <v>1170420</v>
       </c>
       <c r="C233" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D233" t="s">
         <v>73</v>
       </c>
       <c r="G233" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O233">
         <v>0</v>
@@ -24077,7 +23939,7 @@
         <v>0</v>
       </c>
       <c r="BH233" t="s">
-        <v>123</v>
+        <v>590</v>
       </c>
       <c r="BM233">
         <v>0</v>
@@ -24092,6 +23954,466 @@
         <v>0</v>
       </c>
       <c r="BQ233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:72">
+      <c r="A234">
+        <v>1170421</v>
+      </c>
+      <c r="C234" t="s">
+        <v>591</v>
+      </c>
+      <c r="D234" t="s">
+        <v>73</v>
+      </c>
+      <c r="G234" t="s">
+        <v>592</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>1</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AS234">
+        <v>0</v>
+      </c>
+      <c r="AV234">
+        <v>0</v>
+      </c>
+      <c r="AX234">
+        <v>0</v>
+      </c>
+      <c r="AY234">
+        <v>0</v>
+      </c>
+      <c r="BA234">
+        <v>0</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>0</v>
+      </c>
+      <c r="BD234">
+        <v>0</v>
+      </c>
+      <c r="BE234">
+        <v>0</v>
+      </c>
+      <c r="BF234">
+        <v>0</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234" t="s">
+        <v>590</v>
+      </c>
+      <c r="BM234">
+        <v>0</v>
+      </c>
+      <c r="BN234">
+        <v>0</v>
+      </c>
+      <c r="BO234">
+        <v>0</v>
+      </c>
+      <c r="BP234">
+        <v>0</v>
+      </c>
+      <c r="BQ234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:72">
+      <c r="A235">
+        <v>1170422</v>
+      </c>
+      <c r="C235" t="s">
+        <v>593</v>
+      </c>
+      <c r="D235" t="s">
+        <v>73</v>
+      </c>
+      <c r="G235" t="s">
+        <v>594</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AC235">
+        <v>1</v>
+      </c>
+      <c r="AI235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>0</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>0</v>
+      </c>
+      <c r="AS235">
+        <v>0</v>
+      </c>
+      <c r="AV235">
+        <v>0</v>
+      </c>
+      <c r="AX235">
+        <v>0</v>
+      </c>
+      <c r="AY235">
+        <v>0</v>
+      </c>
+      <c r="BA235">
+        <v>0</v>
+      </c>
+      <c r="BB235">
+        <v>0</v>
+      </c>
+      <c r="BC235">
+        <v>0</v>
+      </c>
+      <c r="BD235">
+        <v>0</v>
+      </c>
+      <c r="BE235">
+        <v>0</v>
+      </c>
+      <c r="BF235">
+        <v>0</v>
+      </c>
+      <c r="BG235">
+        <v>0</v>
+      </c>
+      <c r="BH235" t="s">
+        <v>590</v>
+      </c>
+      <c r="BM235">
+        <v>0</v>
+      </c>
+      <c r="BN235">
+        <v>0</v>
+      </c>
+      <c r="BO235">
+        <v>0</v>
+      </c>
+      <c r="BP235">
+        <v>0</v>
+      </c>
+      <c r="BQ235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:72">
+      <c r="A236">
+        <v>1170423</v>
+      </c>
+      <c r="C236" t="s">
+        <v>595</v>
+      </c>
+      <c r="D236" t="s">
+        <v>73</v>
+      </c>
+      <c r="G236" t="s">
+        <v>596</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AC236">
+        <v>1</v>
+      </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
+      <c r="AJ236">
+        <v>0</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AS236">
+        <v>0</v>
+      </c>
+      <c r="AV236">
+        <v>0</v>
+      </c>
+      <c r="AX236">
+        <v>0</v>
+      </c>
+      <c r="AY236">
+        <v>0</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
+        <v>0</v>
+      </c>
+      <c r="BC236">
+        <v>0</v>
+      </c>
+      <c r="BD236">
+        <v>0</v>
+      </c>
+      <c r="BE236">
+        <v>0</v>
+      </c>
+      <c r="BF236">
+        <v>0</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM236">
+        <v>0</v>
+      </c>
+      <c r="BN236">
+        <v>0</v>
+      </c>
+      <c r="BO236">
+        <v>0</v>
+      </c>
+      <c r="BP236">
+        <v>0</v>
+      </c>
+      <c r="BQ236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:72">
+      <c r="A237">
+        <v>1170424</v>
+      </c>
+      <c r="C237" t="s">
+        <v>597</v>
+      </c>
+      <c r="D237" t="s">
+        <v>73</v>
+      </c>
+      <c r="G237" t="s">
+        <v>598</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
+        <v>1</v>
+      </c>
+      <c r="AI237">
+        <v>0</v>
+      </c>
+      <c r="AJ237">
+        <v>0</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>0</v>
+      </c>
+      <c r="AS237">
+        <v>0</v>
+      </c>
+      <c r="AV237">
+        <v>0</v>
+      </c>
+      <c r="AX237">
+        <v>0</v>
+      </c>
+      <c r="AY237">
+        <v>0</v>
+      </c>
+      <c r="BA237">
+        <v>0</v>
+      </c>
+      <c r="BB237">
+        <v>0</v>
+      </c>
+      <c r="BC237">
+        <v>0</v>
+      </c>
+      <c r="BD237">
+        <v>0</v>
+      </c>
+      <c r="BE237">
+        <v>0</v>
+      </c>
+      <c r="BF237">
+        <v>0</v>
+      </c>
+      <c r="BG237">
+        <v>0</v>
+      </c>
+      <c r="BH237" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM237">
+        <v>0</v>
+      </c>
+      <c r="BN237">
+        <v>0</v>
+      </c>
+      <c r="BO237">
+        <v>0</v>
+      </c>
+      <c r="BP237">
+        <v>0</v>
+      </c>
+      <c r="BQ237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:72">
+      <c r="A238">
+        <v>1170425</v>
+      </c>
+      <c r="C238" t="s">
+        <v>599</v>
+      </c>
+      <c r="D238" t="s">
+        <v>73</v>
+      </c>
+      <c r="G238" t="s">
+        <v>600</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AC238">
+        <v>1</v>
+      </c>
+      <c r="AI238">
+        <v>0</v>
+      </c>
+      <c r="AJ238">
+        <v>0</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AS238">
+        <v>0</v>
+      </c>
+      <c r="AV238">
+        <v>0</v>
+      </c>
+      <c r="AX238">
+        <v>0</v>
+      </c>
+      <c r="AY238">
+        <v>0</v>
+      </c>
+      <c r="BA238">
+        <v>0</v>
+      </c>
+      <c r="BB238">
+        <v>0</v>
+      </c>
+      <c r="BC238">
+        <v>0</v>
+      </c>
+      <c r="BD238">
+        <v>0</v>
+      </c>
+      <c r="BE238">
+        <v>0</v>
+      </c>
+      <c r="BF238">
+        <v>0</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM238">
+        <v>0</v>
+      </c>
+      <c r="BN238">
+        <v>0</v>
+      </c>
+      <c r="BO238">
+        <v>0</v>
+      </c>
+      <c r="BP238">
+        <v>0</v>
+      </c>
+      <c r="BQ238">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
   <si>
     <t>id</t>
   </si>
@@ -233,16 +233,322 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Shiny Metal Trinket</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Key to The Abandonded Church</t>
+  </si>
+  <si>
+    <t>Allows one to gain access to a place where the judges call home.</t>
+  </si>
+  <si>
+    <t>Holy Dirt</t>
+  </si>
+  <si>
+    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
+  </si>
+  <si>
+    <t>Roseary of yesteryear</t>
+  </si>
+  <si>
+    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
+  </si>
+  <si>
+    <t>Slaves Journal</t>
+  </si>
+  <si>
+    <t>A journal that details the work the slaves had to do in the mines.</t>
+  </si>
+  <si>
+    <t>Delusional Abandoned Gold Mines</t>
+  </si>
+  <si>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>A broken doll that was once treasured by a child.</t>
+  </si>
+  <si>
     <t>Clerical Tome of Prayers</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
   </si>
   <si>
-    <t>Delusional Abandoned Gold Mines</t>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
+  </si>
+  <si>
+    <t>Shiny Foil Paper</t>
+  </si>
+  <si>
+    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
+  </si>
+  <si>
+    <t>Glinting Gem of The Deep</t>
+  </si>
+  <si>
+    <t>A simple and shiny gem that is found in the depths of Dungeons</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Goblins Hankerchief</t>
+  </si>
+  <si>
+    <t>Helps to dry the tears of yesterday's stories.</t>
+  </si>
+  <si>
+    <t>Pags Journal</t>
+  </si>
+  <si>
+    <t>A journal written by a man whos only given name is Pags. It details his search for his friend The Creator.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Key to the Stronghold</t>
+  </si>
+  <si>
+    <t>A key that lets one enter the Stronghold and face the Lords!</t>
+  </si>
+  <si>
+    <t>Krogs Journal</t>
+  </si>
+  <si>
+    <t>A journal created by a man named Krog. It details the struggles of running his own kingdom as well as the vannishing of his own brother, who's fate - is unknown.</t>
+  </si>
+  <si>
+    <t>Krogs Letter to Pags</t>
+  </si>
+  <si>
+    <t>A letter from Krogs to his brother Pags. A man who ruled a realm alone and missed his brother.</t>
+  </si>
+  <si>
+    <t>Invitation to the council</t>
+  </si>
+  <si>
+    <t>Allows you to enter The Broken Anvil in hell to take on weekly fights for mythical gear!</t>
+  </si>
+  <si>
+    <t>Broken Blessed Sword of Pags</t>
+  </si>
+  <si>
+    <t>This looks like it was once Pags sword. The shine has lost it's self to the sands of time.</t>
+  </si>
+  <si>
+    <t>Ripped and Bloody Mythical Leather</t>
+  </si>
+  <si>
+    <t>The ripped and bloody mythical leather of a man on the run from danger and death</t>
+  </si>
+  <si>
+    <t>Hand mirror into the past</t>
+  </si>
+  <si>
+    <t>A single hand mirror that shows you the past, the past of what was and what never was at the same time.</t>
+  </si>
+  <si>
+    <t>Strand of golden hair</t>
+  </si>
+  <si>
+    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
+  </si>
+  <si>
+    <t>Bandits Twsited Arm Port</t>
+  </si>
+  <si>
+    <t>Silver Red Hawk Badge</t>
+  </si>
+  <si>
+    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
+  </si>
+  <si>
+    <t>Twsited grave site</t>
+  </si>
+  <si>
+    <t>Papers of Ascension</t>
+  </si>
+  <si>
+    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
+  </si>
+  <si>
+    <t>Church of God</t>
+  </si>
+  <si>
+    <t>Picture of the Wandering Cleric</t>
+  </si>
+  <si>
+    <t>A simple picture on slipper paper, it shows the Jester of Time and the Wandering Cleric, side by side smiling.</t>
+  </si>
+  <si>
+    <t>Journal of another time</t>
+  </si>
+  <si>
+    <t>A journal of The Poet, a journal that shares the darkest secrets of this world, but even a sliver of truth of something that slipped in.</t>
+  </si>
+  <si>
+    <t>Old bloody rusty knife</t>
+  </si>
+  <si>
+    <t>An old bloody rusty knife that has a story of it's own. Hold it child.</t>
+  </si>
+  <si>
+    <t>Silver Blade of Time</t>
+  </si>
+  <si>
+    <t>A silver blade, this can be used to put an end to the delusional and twisted memories that are so corrupted, people call the pain home.</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
+  </si>
+  <si>
+    <t>Scholars Glasses</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
+  </si>
+  <si>
+    <t>Lover of the queens charred bones</t>
+  </si>
+  <si>
+    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
+  </si>
+  <si>
+    <t>Brothers Chipped Sword</t>
+  </si>
+  <si>
+    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>Mothers Quill</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Vile of Sensual Perfume</t>
+  </si>
+  <si>
+    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
   </si>
   <si>
     <t>Vile of Twisted Laughter</t>
@@ -251,286 +557,10 @@
     <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
   </si>
   <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
     <t>Shattered Mace of The Holy</t>
   </si>
   <si>
     <t>This broken mace was once used by the holy warriors of The Church.</t>
-  </si>
-  <si>
-    <t>Bandits Twsited Arm Port</t>
-  </si>
-  <si>
-    <t>Emerald Necklace</t>
-  </si>
-  <si>
-    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Key to The Abandonded Church</t>
-  </si>
-  <si>
-    <t>Allows one to gain access to a place where the judges call home.</t>
-  </si>
-  <si>
-    <t>Holy Dirt</t>
-  </si>
-  <si>
-    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
-  </si>
-  <si>
-    <t>Roseary of yesteryear</t>
-  </si>
-  <si>
-    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
-  </si>
-  <si>
-    <t>Slaves Journal</t>
-  </si>
-  <si>
-    <t>A journal that details the work the slaves had to do in the mines.</t>
-  </si>
-  <si>
-    <t>Dwarven Chains</t>
-  </si>
-  <si>
-    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
-  </si>
-  <si>
-    <t>Broken Childs Doll</t>
-  </si>
-  <si>
-    <t>A broken doll that was once treasured by a child.</t>
-  </si>
-  <si>
-    <t>Broken Hand Mirror</t>
-  </si>
-  <si>
-    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
-  </si>
-  <si>
-    <t>Federation Broach</t>
-  </si>
-  <si>
-    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
-  </si>
-  <si>
-    <t>Federation Controlled Town</t>
-  </si>
-  <si>
-    <t>Twisted Tree Branch</t>
-  </si>
-  <si>
-    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
-  </si>
-  <si>
-    <t>Childs Faceless Idol</t>
-  </si>
-  <si>
-    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
-  </si>
-  <si>
-    <t>mercenary-slot-bonus</t>
-  </si>
-  <si>
-    <t>Shiny Metal Trinket</t>
-  </si>
-  <si>
-    <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
-  </si>
-  <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Shiny Foil Paper</t>
-  </si>
-  <si>
-    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
-  </si>
-  <si>
-    <t>Glinting Gem of The Deep</t>
-  </si>
-  <si>
-    <t>A simple and shiny gem that is found in the depths of Dungeons</t>
-  </si>
-  <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
-    <t>Goblins Hankerchief</t>
-  </si>
-  <si>
-    <t>Helps to dry the tears of yesterday's stories.</t>
-  </si>
-  <si>
-    <t>Pags Journal</t>
-  </si>
-  <si>
-    <t>A journal written by a man whos only given name is Pags. It details his search for his friend The Creator.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Key to the Stronghold</t>
-  </si>
-  <si>
-    <t>A key that lets one enter the Stronghold and face the Lords!</t>
-  </si>
-  <si>
-    <t>Krogs Journal</t>
-  </si>
-  <si>
-    <t>A journal created by a man named Krog. It details the struggles of running his own kingdom as well as the vannishing of his own brother, who's fate - is unknown.</t>
-  </si>
-  <si>
-    <t>Old Silver Flask</t>
-  </si>
-  <si>
-    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
-  </si>
-  <si>
-    <t>Silver Red Hawk Badge</t>
-  </si>
-  <si>
-    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
-  </si>
-  <si>
-    <t>Twsited grave site</t>
-  </si>
-  <si>
-    <t>Papers of Ascension</t>
-  </si>
-  <si>
-    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
-  </si>
-  <si>
-    <t>Church of God</t>
-  </si>
-  <si>
-    <t>Picture of the Wandering Cleric</t>
-  </si>
-  <si>
-    <t>A simple picture on slipper paper, it shows the Jester of Time and the Wandering Cleric, side by side smiling.</t>
-  </si>
-  <si>
-    <t>Journal of another time</t>
-  </si>
-  <si>
-    <t>A journal of The Poet, a journal that shares the darkest secrets of this world, but even a sliver of truth of something that slipped in.</t>
-  </si>
-  <si>
-    <t>Old bloody rusty knife</t>
-  </si>
-  <si>
-    <t>An old bloody rusty knife that has a story of it's own. Hold it child.</t>
-  </si>
-  <si>
-    <t>Silver Blade of Time</t>
-  </si>
-  <si>
-    <t>A silver blade, this can be used to put an end to the delusional and twisted memories that are so corrupted, people call the pain home.</t>
-  </si>
-  <si>
-    <t>Shattered Emerald</t>
-  </si>
-  <si>
-    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
-  </si>
-  <si>
-    <t>Scholars Glasses</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
-  </si>
-  <si>
-    <t>Lover of the queens charred bones</t>
-  </si>
-  <si>
-    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
-  </si>
-  <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
-    <t>Small wooden cross</t>
-  </si>
-  <si>
-    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
-  </si>
-  <si>
-    <t>Brothers Chipped Sword</t>
-  </si>
-  <si>
-    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
-  </si>
-  <si>
-    <t>Strand of golden hair</t>
-  </si>
-  <si>
-    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
-  </si>
-  <si>
-    <t>Ashes of the shade</t>
-  </si>
-  <si>
-    <t>Ashes that the Child of Shade holds on to. Why?</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>The princes ring</t>
-  </si>
-  <si>
-    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Bottle of missery</t>
-  </si>
-  <si>
-    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
-  </si>
-  <si>
-    <t>Mothers Quill</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
-  </si>
-  <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
-    <t>Torn map of another land</t>
-  </si>
-  <si>
-    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
-  </si>
-  <si>
-    <t>Tear of the shade</t>
-  </si>
-  <si>
-    <t>A single tear from The Shadoe Lord.</t>
-  </si>
-  <si>
-    <t>Faceless Robe</t>
-  </si>
-  <si>
-    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Vile of Sensual Perfume</t>
-  </si>
-  <si>
-    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
   </si>
   <si>
     <t>Weaponsmith's Book</t>
@@ -2157,7 +2187,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT238"/>
+  <dimension ref="A1:BT243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2459,7 +2489,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1170458</v>
+        <v>1988073</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2497,7 +2527,19 @@
       <c r="AM2">
         <v>0</v>
       </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
       <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
@@ -2539,7 +2581,7 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>1170448</v>
+        <v>1170451</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2631,7 +2673,7 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>1170449</v>
+        <v>1170452</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2701,9 +2743,6 @@
       </c>
       <c r="BG4">
         <v>0</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>81</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2723,16 +2762,16 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>1170450</v>
+        <v>1170453</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2793,9 +2832,6 @@
       </c>
       <c r="BG5">
         <v>0</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>78</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2815,16 +2851,16 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>1170451</v>
+        <v>1170454</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2885,9 +2921,6 @@
       </c>
       <c r="BG6">
         <v>0</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>78</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -2907,16 +2940,16 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>1170452</v>
+        <v>1170455</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2977,6 +3010,9 @@
       </c>
       <c r="BG7">
         <v>0</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>87</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -2996,7 +3032,7 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>1170453</v>
+        <v>1170456</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -3066,6 +3102,9 @@
       </c>
       <c r="BG8">
         <v>0</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>87</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -3085,7 +3124,7 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>1170454</v>
+        <v>1170457</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -3155,6 +3194,9 @@
       </c>
       <c r="BG9">
         <v>0</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>87</v>
       </c>
       <c r="BM9">
         <v>0</v>
@@ -3174,7 +3216,7 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>1170455</v>
+        <v>1170458</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -3212,21 +3254,9 @@
       <c r="AM10">
         <v>0</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
       <c r="AV10">
         <v>0</v>
       </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
       <c r="BB10">
         <v>0</v>
       </c>
@@ -3246,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="BH10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -3266,7 +3296,7 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>1170456</v>
+        <v>1170459</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
@@ -3338,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="BH11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3358,16 +3388,16 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>1170457</v>
+        <v>1170460</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3428,9 +3458,6 @@
       </c>
       <c r="BG12">
         <v>0</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>75</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3450,16 +3477,16 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>1170447</v>
+        <v>1170461</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3469,6 +3496,9 @@
       </c>
       <c r="Z13">
         <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>101</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -3520,9 +3550,6 @@
       </c>
       <c r="BG13">
         <v>0</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>81</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3542,16 +3569,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1170459</v>
+        <v>1170450</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3614,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="BH14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -3634,16 +3661,16 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1170460</v>
+        <v>1988074</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3704,6 +3731,9 @@
       </c>
       <c r="BG15">
         <v>0</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>75</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -3723,79 +3753,25 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>1170461</v>
+        <v>1988096</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
         <v>107</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
       <c r="AV16">
         <v>0</v>
       </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
+      <c r="BH16" t="s">
+        <v>108</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3815,79 +3791,25 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>1988073</v>
+        <v>1988097</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AC17">
         <v>1</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
       <c r="AV17">
         <v>0</v>
       </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
       <c r="BH17" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -3907,7 +3829,7 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>1988074</v>
+        <v>1988098</v>
       </c>
       <c r="C18" t="s">
         <v>111</v>
@@ -3918,68 +3840,14 @@
       <c r="G18" t="s">
         <v>112</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
       <c r="AC18">
         <v>1</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
       <c r="AV18">
         <v>0</v>
       </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
       <c r="BH18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -3999,25 +3867,22 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>1988096</v>
+        <v>1988099</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC19">
         <v>1</v>
       </c>
       <c r="AV19">
         <v>0</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>115</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -4037,7 +3902,7 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>1988097</v>
+        <v>1988100</v>
       </c>
       <c r="C20" t="s">
         <v>116</v>
@@ -4053,9 +3918,6 @@
       </c>
       <c r="AV20">
         <v>0</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>110</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -4075,7 +3937,7 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>1988098</v>
+        <v>1988101</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -4093,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="BH21" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -4113,16 +3975,16 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>1988099</v>
+        <v>1988102</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC22">
         <v>1</v>
@@ -4148,16 +4010,16 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>1988100</v>
+        <v>1988103</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -4183,76 +4045,25 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>1170437</v>
+        <v>1988104</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AC24">
         <v>1</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
       <c r="AV24">
         <v>0</v>
       </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
+      <c r="BH24" t="s">
+        <v>78</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -4272,79 +4083,25 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>1170427</v>
+        <v>1988105</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
       <c r="AV25">
         <v>0</v>
       </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
-      <c r="BD25">
-        <v>0</v>
-      </c>
-      <c r="BE25">
-        <v>0</v>
-      </c>
-      <c r="BF25">
-        <v>0</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
       <c r="BH25" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -4364,16 +4121,16 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>1170428</v>
+        <v>1170438</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4436,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="BH26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4456,16 +4213,16 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>1170429</v>
+        <v>1170427</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4526,6 +4283,9 @@
       </c>
       <c r="BG27">
         <v>0</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>133</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -4545,16 +4305,16 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>1170430</v>
+        <v>1170428</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4615,6 +4375,9 @@
       </c>
       <c r="BG28">
         <v>0</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>136</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4634,7 +4397,7 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>1170431</v>
+        <v>1170429</v>
       </c>
       <c r="C29" t="s">
         <v>137</v>
@@ -4723,7 +4486,7 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>1170432</v>
+        <v>1170430</v>
       </c>
       <c r="C30" t="s">
         <v>139</v>
@@ -4812,7 +4575,7 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>1170433</v>
+        <v>1170431</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -4882,9 +4645,6 @@
       </c>
       <c r="BG31">
         <v>0</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>115</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -4904,7 +4664,7 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>1170434</v>
+        <v>1170432</v>
       </c>
       <c r="C32" t="s">
         <v>143</v>
@@ -4974,9 +4734,6 @@
       </c>
       <c r="BG32">
         <v>0</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>115</v>
       </c>
       <c r="BM32">
         <v>0</v>
@@ -4996,7 +4753,7 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>1170435</v>
+        <v>1170433</v>
       </c>
       <c r="C33" t="s">
         <v>145</v>
@@ -5068,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BH33" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="BM33">
         <v>0</v>
@@ -5088,16 +4845,16 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>1170436</v>
+        <v>1170434</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -5160,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="BH34" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -5180,16 +4937,16 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>1170426</v>
+        <v>1170435</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -5252,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="BH35" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="BM35">
         <v>0</v>
@@ -5272,7 +5029,7 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>1170438</v>
+        <v>1170436</v>
       </c>
       <c r="C36" t="s">
         <v>152</v>
@@ -5344,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="BH36" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="BM36">
         <v>0</v>
@@ -5364,7 +5121,7 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>1170439</v>
+        <v>1170437</v>
       </c>
       <c r="C37" t="s">
         <v>154</v>
@@ -5434,9 +5191,6 @@
       </c>
       <c r="BG37">
         <v>0</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>156</v>
       </c>
       <c r="BM37">
         <v>0</v>
@@ -5456,16 +5210,16 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>1170440</v>
+        <v>1170426</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -5528,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="BH38" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="BM38">
         <v>0</v>
@@ -5548,16 +5302,16 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>1170441</v>
+        <v>1170439</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -5620,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5640,7 +5394,7 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>1170442</v>
+        <v>1170440</v>
       </c>
       <c r="C40" t="s">
         <v>161</v>
@@ -5712,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="BH40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5732,16 +5486,16 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>1170443</v>
+        <v>1170441</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -5804,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="BH41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -5824,16 +5578,16 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>1170444</v>
+        <v>1170442</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5896,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="BH42" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -5916,7 +5670,7 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>1170445</v>
+        <v>1170443</v>
       </c>
       <c r="C43" t="s">
         <v>168</v>
@@ -5988,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="BH43" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -6008,7 +5762,7 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>1170446</v>
+        <v>1170444</v>
       </c>
       <c r="C44" t="s">
         <v>170</v>
@@ -6080,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="BH44" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -6100,7 +5854,7 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>487</v>
+        <v>1170445</v>
       </c>
       <c r="C45" t="s">
         <v>172</v>
@@ -6123,12 +5877,6 @@
       <c r="AC45">
         <v>1</v>
       </c>
-      <c r="AG45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH45">
-        <v>0.15</v>
-      </c>
       <c r="AI45">
         <v>0</v>
       </c>
@@ -6144,9 +5892,6 @@
       <c r="AM45">
         <v>0</v>
       </c>
-      <c r="AN45">
-        <v>0.25</v>
-      </c>
       <c r="AS45">
         <v>0</v>
       </c>
@@ -6179,6 +5924,9 @@
       </c>
       <c r="BG45">
         <v>0</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>160</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -6198,22 +5946,16 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>488</v>
+        <v>1170446</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>176</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6227,12 +5969,6 @@
       <c r="AC46">
         <v>1</v>
       </c>
-      <c r="AG46" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH46">
-        <v>0.15</v>
-      </c>
       <c r="AI46">
         <v>0</v>
       </c>
@@ -6248,9 +5984,6 @@
       <c r="AM46">
         <v>0</v>
       </c>
-      <c r="AN46">
-        <v>0.25</v>
-      </c>
       <c r="AS46">
         <v>0</v>
       </c>
@@ -6283,6 +6016,9 @@
       </c>
       <c r="BG46">
         <v>0</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>130</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6302,16 +6038,16 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>489</v>
+        <v>1170447</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -6321,9 +6057,6 @@
       </c>
       <c r="Z47">
         <v>0</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>180</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -6375,6 +6108,9 @@
       </c>
       <c r="BG47">
         <v>0</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>130</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -6394,16 +6130,16 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>490</v>
+        <v>1170448</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6417,12 +6153,6 @@
       <c r="AC48">
         <v>1</v>
       </c>
-      <c r="AG48" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH48">
-        <v>0.15</v>
-      </c>
       <c r="AI48">
         <v>0</v>
       </c>
@@ -6438,9 +6168,6 @@
       <c r="AM48">
         <v>0</v>
       </c>
-      <c r="AN48">
-        <v>0.25</v>
-      </c>
       <c r="AS48">
         <v>0</v>
       </c>
@@ -6473,6 +6200,9 @@
       </c>
       <c r="BG48">
         <v>0</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>78</v>
       </c>
       <c r="BM48">
         <v>0</v>
@@ -6492,22 +6222,16 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>491</v>
+        <v>1170449</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -6521,12 +6245,6 @@
       <c r="AC49">
         <v>1</v>
       </c>
-      <c r="AG49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH49">
-        <v>0.15</v>
-      </c>
       <c r="AI49">
         <v>0</v>
       </c>
@@ -6542,9 +6260,6 @@
       <c r="AM49">
         <v>0</v>
       </c>
-      <c r="AN49">
-        <v>0.25</v>
-      </c>
       <c r="AS49">
         <v>0</v>
       </c>
@@ -6577,6 +6292,9 @@
       </c>
       <c r="BG49">
         <v>0</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>130</v>
       </c>
       <c r="BM49">
         <v>0</v>
@@ -6596,16 +6314,16 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -6620,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="AG50" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AH50">
         <v>0.15</v>
@@ -6694,16 +6412,22 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -6713,13 +6437,16 @@
       </c>
       <c r="Z51">
         <v>0</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>192</v>
       </c>
       <c r="AC51">
         <v>1</v>
       </c>
+      <c r="AG51" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH51">
+        <v>0.15</v>
+      </c>
       <c r="AI51">
         <v>0</v>
       </c>
@@ -6734,6 +6461,9 @@
       </c>
       <c r="AM51">
         <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0.25</v>
       </c>
       <c r="AS51">
         <v>0</v>
@@ -6786,22 +6516,16 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -6813,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AA52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AC52">
         <v>1</v>
@@ -6884,22 +6608,16 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>197</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -6910,8 +6628,14 @@
       <c r="Z53">
         <v>0</v>
       </c>
-      <c r="AA53" t="s">
-        <v>198</v>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH53">
+        <v>0.15</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -6927,6 +6651,9 @@
       </c>
       <c r="AM53">
         <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0.25</v>
       </c>
       <c r="AS53">
         <v>0</v>
@@ -6979,16 +6706,16 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7005,8 +6732,14 @@
       <c r="Z54">
         <v>0</v>
       </c>
-      <c r="AA54" t="s">
-        <v>201</v>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH54">
+        <v>0.15</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -7022,6 +6755,9 @@
       </c>
       <c r="AM54">
         <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0.25</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -7074,22 +6810,16 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7103,6 +6833,12 @@
       <c r="AC55">
         <v>1</v>
       </c>
+      <c r="AG55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH55">
+        <v>0.15</v>
+      </c>
       <c r="AI55">
         <v>0</v>
       </c>
@@ -7117,6 +6853,9 @@
       </c>
       <c r="AM55">
         <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0.25</v>
       </c>
       <c r="AS55">
         <v>0</v>
@@ -7169,22 +6908,16 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>205</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7194,6 +6927,9 @@
       </c>
       <c r="Z56">
         <v>0</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>202</v>
       </c>
       <c r="AC56">
         <v>1</v>
@@ -7264,16 +7000,16 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7289,16 +7025,13 @@
       </c>
       <c r="Z57">
         <v>0</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>205</v>
       </c>
       <c r="AC57">
         <v>1</v>
       </c>
-      <c r="AG57" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH57">
-        <v>0.5</v>
-      </c>
       <c r="AI57">
         <v>0</v>
       </c>
@@ -7313,9 +7046,6 @@
       </c>
       <c r="AM57">
         <v>0</v>
-      </c>
-      <c r="AN57">
-        <v>0.3</v>
       </c>
       <c r="AS57">
         <v>0</v>
@@ -7368,16 +7098,16 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7394,14 +7124,8 @@
       <c r="Z58">
         <v>0</v>
       </c>
-      <c r="AC58">
-        <v>1</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH58">
-        <v>0.5</v>
+      <c r="AA58" t="s">
+        <v>208</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -7417,9 +7141,6 @@
       </c>
       <c r="AM58">
         <v>0</v>
-      </c>
-      <c r="AN58">
-        <v>0.3</v>
       </c>
       <c r="AS58">
         <v>0</v>
@@ -7472,41 +7193,35 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
+        <v>210</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="s">
         <v>211</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>1</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH59">
-        <v>0.5</v>
-      </c>
       <c r="AI59">
         <v>0</v>
       </c>
@@ -7521,9 +7236,6 @@
       </c>
       <c r="AM59">
         <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>0.3</v>
       </c>
       <c r="AS59">
         <v>0</v>
@@ -7576,7 +7288,7 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C60" t="s">
         <v>212</v>
@@ -7605,12 +7317,6 @@
       <c r="AC60">
         <v>1</v>
       </c>
-      <c r="AG60" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH60">
-        <v>0.5</v>
-      </c>
       <c r="AI60">
         <v>0</v>
       </c>
@@ -7625,9 +7331,6 @@
       </c>
       <c r="AM60">
         <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>0.3</v>
       </c>
       <c r="AS60">
         <v>0</v>
@@ -7680,7 +7383,7 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C61" t="s">
         <v>214</v>
@@ -7706,11 +7409,8 @@
       <c r="Z61">
         <v>0</v>
       </c>
-      <c r="AG61" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH61">
-        <v>0.5</v>
+      <c r="AC61">
+        <v>1</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -7726,9 +7426,6 @@
       </c>
       <c r="AM61">
         <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>0.3</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -7781,7 +7478,7 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C62" t="s">
         <v>216</v>
@@ -7810,6 +7507,12 @@
       <c r="AC62">
         <v>1</v>
       </c>
+      <c r="AG62" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH62">
+        <v>0.5</v>
+      </c>
       <c r="AI62">
         <v>0</v>
       </c>
@@ -7824,6 +7527,9 @@
       </c>
       <c r="AM62">
         <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0.3</v>
       </c>
       <c r="AS62">
         <v>0</v>
@@ -7876,7 +7582,7 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C63" t="s">
         <v>218</v>
@@ -7902,8 +7608,14 @@
       <c r="Z63">
         <v>0</v>
       </c>
-      <c r="AA63" t="s">
-        <v>220</v>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH63">
+        <v>0.5</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -7919,6 +7631,9 @@
       </c>
       <c r="AM63">
         <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0.3</v>
       </c>
       <c r="AS63">
         <v>0</v>
@@ -7971,16 +7686,16 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -7997,11 +7712,14 @@
       <c r="Z64">
         <v>0</v>
       </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
       <c r="AG64" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="AH64">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -8019,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -8072,16 +7790,16 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8098,11 +7816,14 @@
       <c r="Z65">
         <v>0</v>
       </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
       <c r="AG65" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="AH65">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI65">
         <v>0</v>
@@ -8120,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AN65">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS65">
         <v>0</v>
@@ -8173,16 +7894,16 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8199,8 +7920,11 @@
       <c r="Z66">
         <v>0</v>
       </c>
-      <c r="AA66" t="s">
-        <v>229</v>
+      <c r="AG66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH66">
+        <v>0.5</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -8216,6 +7940,9 @@
       </c>
       <c r="AM66">
         <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0.3</v>
       </c>
       <c r="AS66">
         <v>0</v>
@@ -8268,16 +7995,16 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8294,8 +8021,8 @@
       <c r="Z67">
         <v>0</v>
       </c>
-      <c r="AA67" t="s">
-        <v>229</v>
+      <c r="AC67">
+        <v>1</v>
       </c>
       <c r="AI67">
         <v>0</v>
@@ -8340,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="BF67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG67">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM67">
         <v>0</v>
@@ -8363,16 +8090,16 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8390,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="AA68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI68">
         <v>0</v>
@@ -8435,10 +8162,10 @@
         <v>0</v>
       </c>
       <c r="BF68">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BG68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -8458,16 +8185,16 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8484,8 +8211,11 @@
       <c r="Z69">
         <v>0</v>
       </c>
-      <c r="AA69" t="s">
-        <v>229</v>
+      <c r="AG69" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH69">
+        <v>0.45</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -8502,6 +8232,9 @@
       <c r="AM69">
         <v>0</v>
       </c>
+      <c r="AN69">
+        <v>0.45</v>
+      </c>
       <c r="AS69">
         <v>0</v>
       </c>
@@ -8530,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="BF69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM69">
         <v>0</v>
@@ -8553,16 +8286,16 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8579,6 +8312,12 @@
       <c r="Z70">
         <v>0</v>
       </c>
+      <c r="AG70" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH70">
+        <v>0.45</v>
+      </c>
       <c r="AI70">
         <v>0</v>
       </c>
@@ -8593,6 +8332,9 @@
       </c>
       <c r="AM70">
         <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0.45</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -8645,34 +8387,34 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
+        <v>238</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
         <v>239</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>240</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8740,16 +8482,16 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8767,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AI72">
         <v>0</v>
@@ -8812,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="BF72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BG72">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM72">
         <v>0</v>
@@ -8835,16 +8577,16 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8862,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -8907,10 +8649,10 @@
         <v>0</v>
       </c>
       <c r="BF73">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -8930,16 +8672,16 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8956,6 +8698,9 @@
       <c r="Z74">
         <v>0</v>
       </c>
+      <c r="AA74" t="s">
+        <v>239</v>
+      </c>
       <c r="AI74">
         <v>0</v>
       </c>
@@ -8999,10 +8744,10 @@
         <v>0</v>
       </c>
       <c r="BF74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -9022,16 +8767,16 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9114,16 +8859,16 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9139,6 +8884,9 @@
       </c>
       <c r="Z76">
         <v>0</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>250</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -9206,16 +8954,16 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9233,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="AA77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -9301,16 +9049,16 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9327,6 +9075,9 @@
       <c r="Z78">
         <v>0</v>
       </c>
+      <c r="AA78" t="s">
+        <v>256</v>
+      </c>
       <c r="AI78">
         <v>0</v>
       </c>
@@ -9374,9 +9125,6 @@
       </c>
       <c r="BG78">
         <v>0</v>
-      </c>
-      <c r="BH78" t="s">
-        <v>163</v>
       </c>
       <c r="BM78">
         <v>0</v>
@@ -9396,16 +9144,16 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9469,9 +9217,6 @@
       </c>
       <c r="BG79">
         <v>0</v>
-      </c>
-      <c r="BH79" t="s">
-        <v>163</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9491,16 +9236,16 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9583,16 +9328,16 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9656,9 +9401,6 @@
       </c>
       <c r="BG81">
         <v>0</v>
-      </c>
-      <c r="BH81" t="s">
-        <v>115</v>
       </c>
       <c r="BM81">
         <v>0</v>
@@ -9678,34 +9420,34 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
+        <v>264</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="s">
         <v>265</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>266</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -9773,16 +9515,16 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9848,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -9868,16 +9610,16 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9894,12 +9636,6 @@
       <c r="Z84">
         <v>0</v>
       </c>
-      <c r="AG84" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH84">
-        <v>0.25</v>
-      </c>
       <c r="AI84">
         <v>0</v>
       </c>
@@ -9915,9 +9651,6 @@
       <c r="AM84">
         <v>0</v>
       </c>
-      <c r="AN84">
-        <v>1</v>
-      </c>
       <c r="AS84">
         <v>0</v>
       </c>
@@ -9952,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="BH84" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -9972,16 +9705,16 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9998,12 +9731,6 @@
       <c r="Z85">
         <v>0</v>
       </c>
-      <c r="AG85" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH85">
-        <v>0.75</v>
-      </c>
       <c r="AI85">
         <v>0</v>
       </c>
@@ -10019,9 +9746,6 @@
       <c r="AM85">
         <v>0</v>
       </c>
-      <c r="AN85">
-        <v>1</v>
-      </c>
       <c r="AS85">
         <v>0</v>
       </c>
@@ -10054,9 +9778,6 @@
       </c>
       <c r="BG85">
         <v>0</v>
-      </c>
-      <c r="BH85" t="s">
-        <v>110</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -10076,16 +9797,16 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10149,6 +9870,9 @@
       </c>
       <c r="BG86">
         <v>0</v>
+      </c>
+      <c r="BH86" t="s">
+        <v>108</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -10168,16 +9892,16 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C87" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10194,11 +9918,8 @@
       <c r="Z87">
         <v>0</v>
       </c>
-      <c r="AG87" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH87">
-        <v>0.75</v>
+      <c r="AA87" t="s">
+        <v>276</v>
       </c>
       <c r="AI87">
         <v>0</v>
@@ -10215,9 +9936,6 @@
       <c r="AM87">
         <v>0</v>
       </c>
-      <c r="AN87">
-        <v>2</v>
-      </c>
       <c r="AS87">
         <v>0</v>
       </c>
@@ -10246,10 +9964,10 @@
         <v>0</v>
       </c>
       <c r="BF87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG87">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -10269,16 +9987,16 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10295,9 +10013,6 @@
       <c r="Z88">
         <v>0</v>
       </c>
-      <c r="AA88" t="s">
-        <v>282</v>
-      </c>
       <c r="AI88">
         <v>0</v>
       </c>
@@ -10341,10 +10056,13 @@
         <v>0</v>
       </c>
       <c r="BF88">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BG88">
-        <v>0.45</v>
+        <v>0</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>113</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -10364,16 +10082,16 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C89" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10390,8 +10108,11 @@
       <c r="Z89">
         <v>0</v>
       </c>
-      <c r="AA89" t="s">
-        <v>285</v>
+      <c r="AG89" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH89">
+        <v>0.25</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -10408,6 +10129,9 @@
       <c r="AM89">
         <v>0</v>
       </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
       <c r="AS89">
         <v>0</v>
       </c>
@@ -10440,6 +10164,9 @@
       </c>
       <c r="BG89">
         <v>0</v>
+      </c>
+      <c r="BH89" t="s">
+        <v>160</v>
       </c>
       <c r="BM89">
         <v>0</v>
@@ -10459,16 +10186,16 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10485,6 +10212,12 @@
       <c r="Z90">
         <v>0</v>
       </c>
+      <c r="AG90" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH90">
+        <v>0.75</v>
+      </c>
       <c r="AI90">
         <v>0</v>
       </c>
@@ -10500,6 +10233,9 @@
       <c r="AM90">
         <v>0</v>
       </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
       <c r="AS90">
         <v>0</v>
       </c>
@@ -10532,6 +10268,9 @@
       </c>
       <c r="BG90">
         <v>0</v>
+      </c>
+      <c r="BH90" t="s">
+        <v>75</v>
       </c>
       <c r="BM90">
         <v>0</v>
@@ -10551,16 +10290,16 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10624,9 +10363,6 @@
       </c>
       <c r="BG91">
         <v>0</v>
-      </c>
-      <c r="BH91" t="s">
-        <v>120</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10646,16 +10382,16 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C92" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -10672,6 +10408,12 @@
       <c r="Z92">
         <v>0</v>
       </c>
+      <c r="AG92" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH92">
+        <v>0.75</v>
+      </c>
       <c r="AI92">
         <v>0</v>
       </c>
@@ -10687,6 +10429,9 @@
       <c r="AM92">
         <v>0</v>
       </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
       <c r="AS92">
         <v>0</v>
       </c>
@@ -10715,10 +10460,10 @@
         <v>0</v>
       </c>
       <c r="BF92">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG92">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM92">
         <v>0</v>
@@ -10738,16 +10483,16 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C93" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -10764,6 +10509,9 @@
       <c r="Z93">
         <v>0</v>
       </c>
+      <c r="AA93" t="s">
+        <v>292</v>
+      </c>
       <c r="AI93">
         <v>0</v>
       </c>
@@ -10779,9 +10527,21 @@
       <c r="AM93">
         <v>0</v>
       </c>
+      <c r="AS93">
+        <v>0</v>
+      </c>
       <c r="AV93">
         <v>0</v>
       </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
       <c r="BB93">
         <v>0</v>
       </c>
@@ -10795,13 +10555,10 @@
         <v>0</v>
       </c>
       <c r="BF93">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG93">
-        <v>0</v>
-      </c>
-      <c r="BH93" t="s">
-        <v>156</v>
+        <v>0.45</v>
       </c>
       <c r="BM93">
         <v>0</v>
@@ -10821,31 +10578,34 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="s">
         <v>295</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -10913,7 +10673,7 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C95" t="s">
         <v>296</v>
@@ -11005,7 +10765,7 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C96" t="s">
         <v>298</v>
@@ -11078,6 +10838,9 @@
       </c>
       <c r="BG96">
         <v>0</v>
+      </c>
+      <c r="BH96" t="s">
+        <v>113</v>
       </c>
       <c r="BM96">
         <v>0</v>
@@ -11097,7 +10860,7 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C97" t="s">
         <v>300</v>
@@ -11170,9 +10933,6 @@
       </c>
       <c r="BG97">
         <v>0</v>
-      </c>
-      <c r="BH97" t="s">
-        <v>120</v>
       </c>
       <c r="BM97">
         <v>0</v>
@@ -11192,7 +10952,7 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C98" t="s">
         <v>302</v>
@@ -11233,21 +10993,9 @@
       <c r="AM98">
         <v>0</v>
       </c>
-      <c r="AS98">
-        <v>0</v>
-      </c>
       <c r="AV98">
         <v>0</v>
       </c>
-      <c r="AX98">
-        <v>0</v>
-      </c>
-      <c r="AY98">
-        <v>0</v>
-      </c>
-      <c r="BA98">
-        <v>0</v>
-      </c>
       <c r="BB98">
         <v>0</v>
       </c>
@@ -11267,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="BH98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BM98">
         <v>0</v>
@@ -11287,7 +11035,7 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C99" t="s">
         <v>304</v>
@@ -11360,9 +11108,6 @@
       </c>
       <c r="BG99">
         <v>0</v>
-      </c>
-      <c r="BI99">
-        <v>0.15</v>
       </c>
       <c r="BM99">
         <v>0</v>
@@ -11382,7 +11127,7 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C100" t="s">
         <v>306</v>
@@ -11455,9 +11200,6 @@
       </c>
       <c r="BG100">
         <v>0</v>
-      </c>
-      <c r="BH100" t="s">
-        <v>110</v>
       </c>
       <c r="BM100">
         <v>0</v>
@@ -11477,7 +11219,7 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -11550,9 +11292,6 @@
       </c>
       <c r="BG101">
         <v>0</v>
-      </c>
-      <c r="BH101" t="s">
-        <v>120</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -11572,7 +11311,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C102" t="s">
         <v>310</v>
@@ -11647,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="BH102" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="BM102">
         <v>0</v>
@@ -11667,7 +11406,7 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C103" t="s">
         <v>312</v>
@@ -11741,8 +11480,8 @@
       <c r="BG103">
         <v>0</v>
       </c>
-      <c r="BI103">
-        <v>0.3</v>
+      <c r="BH103" t="s">
+        <v>167</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11762,7 +11501,7 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C104" t="s">
         <v>314</v>
@@ -11836,8 +11575,8 @@
       <c r="BG104">
         <v>0</v>
       </c>
-      <c r="BH104" t="s">
-        <v>78</v>
+      <c r="BI104">
+        <v>0.15</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -11857,7 +11596,7 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C105" t="s">
         <v>316</v>
@@ -11931,8 +11670,8 @@
       <c r="BG105">
         <v>0</v>
       </c>
-      <c r="BI105">
-        <v>0.5</v>
+      <c r="BH105" t="s">
+        <v>75</v>
       </c>
       <c r="BM105">
         <v>0</v>
@@ -11952,7 +11691,7 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
@@ -12026,8 +11765,8 @@
       <c r="BG106">
         <v>0</v>
       </c>
-      <c r="BI106">
-        <v>0.05</v>
+      <c r="BH106" t="s">
+        <v>113</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -12047,7 +11786,7 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C107" t="s">
         <v>320</v>
@@ -12122,10 +11861,7 @@
         <v>0</v>
       </c>
       <c r="BH107" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI107">
-        <v>0.8</v>
+        <v>78</v>
       </c>
       <c r="BM107">
         <v>0</v>
@@ -12145,7 +11881,7 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C108" t="s">
         <v>322</v>
@@ -12171,9 +11907,6 @@
       <c r="Z108">
         <v>0</v>
       </c>
-      <c r="AA108" t="s">
-        <v>324</v>
-      </c>
       <c r="AI108">
         <v>0</v>
       </c>
@@ -12221,6 +11954,9 @@
       </c>
       <c r="BG108">
         <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0.3</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -12240,16 +11976,16 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12315,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="BH109" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="BM109">
         <v>0</v>
@@ -12335,16 +12071,16 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C110" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12409,8 +12145,8 @@
       <c r="BG110">
         <v>0</v>
       </c>
-      <c r="BH110" t="s">
-        <v>110</v>
+      <c r="BI110">
+        <v>0.5</v>
       </c>
       <c r="BM110">
         <v>0</v>
@@ -12430,16 +12166,16 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12503,6 +12239,9 @@
       </c>
       <c r="BG111">
         <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0.05</v>
       </c>
       <c r="BM111">
         <v>0</v>
@@ -12522,16 +12261,16 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12548,9 +12287,6 @@
       <c r="Z112">
         <v>0</v>
       </c>
-      <c r="AA112" t="s">
-        <v>333</v>
-      </c>
       <c r="AI112">
         <v>0</v>
       </c>
@@ -12598,6 +12334,12 @@
       </c>
       <c r="BG112">
         <v>0</v>
+      </c>
+      <c r="BH112" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI112">
+        <v>0.8</v>
       </c>
       <c r="BM112">
         <v>0</v>
@@ -12617,16 +12359,16 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12643,6 +12385,9 @@
       <c r="Z113">
         <v>0</v>
       </c>
+      <c r="AA113" t="s">
+        <v>334</v>
+      </c>
       <c r="AI113">
         <v>0</v>
       </c>
@@ -12690,15 +12435,6 @@
       </c>
       <c r="BG113">
         <v>0</v>
-      </c>
-      <c r="BH113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI113">
-        <v>0.05</v>
-      </c>
-      <c r="BJ113">
-        <v>1</v>
       </c>
       <c r="BM113">
         <v>0</v>
@@ -12718,16 +12454,16 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -12792,11 +12528,8 @@
       <c r="BG114">
         <v>0</v>
       </c>
-      <c r="BI114">
-        <v>0.95</v>
-      </c>
-      <c r="BJ114">
-        <v>1</v>
+      <c r="BH114" t="s">
+        <v>108</v>
       </c>
       <c r="BM114">
         <v>0</v>
@@ -12816,16 +12549,16 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -12891,13 +12624,7 @@
         <v>0</v>
       </c>
       <c r="BH115" t="s">
-        <v>115</v>
-      </c>
-      <c r="BI115">
-        <v>0.15</v>
-      </c>
-      <c r="BJ115">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -12917,16 +12644,16 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -12990,12 +12717,6 @@
       </c>
       <c r="BG116">
         <v>0</v>
-      </c>
-      <c r="BI116">
-        <v>1.25</v>
-      </c>
-      <c r="BJ116">
-        <v>1</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -13015,32 +12736,35 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
+        <v>342</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="s">
         <v>343</v>
       </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
       <c r="AI117">
         <v>0</v>
       </c>
@@ -13088,12 +12812,6 @@
       </c>
       <c r="BG117">
         <v>0</v>
-      </c>
-      <c r="BI117">
-        <v>1.6</v>
-      </c>
-      <c r="BJ117">
-        <v>1</v>
       </c>
       <c r="BM117">
         <v>0</v>
@@ -13113,7 +12831,7 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C118" t="s">
         <v>344</v>
@@ -13186,6 +12904,15 @@
       </c>
       <c r="BG118">
         <v>0</v>
+      </c>
+      <c r="BH118" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI118">
+        <v>0.05</v>
+      </c>
+      <c r="BJ118">
+        <v>1</v>
       </c>
       <c r="BM118">
         <v>0</v>
@@ -13205,7 +12932,7 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C119" t="s">
         <v>346</v>
@@ -13279,8 +13006,11 @@
       <c r="BG119">
         <v>0</v>
       </c>
-      <c r="BH119" t="s">
-        <v>147</v>
+      <c r="BI119">
+        <v>0.95</v>
+      </c>
+      <c r="BJ119">
+        <v>1</v>
       </c>
       <c r="BM119">
         <v>0</v>
@@ -13300,7 +13030,7 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C120" t="s">
         <v>348</v>
@@ -13375,7 +13105,13 @@
         <v>0</v>
       </c>
       <c r="BH120" t="s">
-        <v>156</v>
+        <v>108</v>
+      </c>
+      <c r="BI120">
+        <v>0.15</v>
+      </c>
+      <c r="BJ120">
+        <v>1</v>
       </c>
       <c r="BM120">
         <v>0</v>
@@ -13395,7 +13131,7 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C121" t="s">
         <v>350</v>
@@ -13469,8 +13205,11 @@
       <c r="BG121">
         <v>0</v>
       </c>
-      <c r="BH121" t="s">
-        <v>147</v>
+      <c r="BI121">
+        <v>1.25</v>
+      </c>
+      <c r="BJ121">
+        <v>1</v>
       </c>
       <c r="BM121">
         <v>0</v>
@@ -13490,7 +13229,7 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C122" t="s">
         <v>352</v>
@@ -13564,8 +13303,11 @@
       <c r="BG122">
         <v>0</v>
       </c>
-      <c r="BH122" t="s">
-        <v>163</v>
+      <c r="BI122">
+        <v>1.6</v>
+      </c>
+      <c r="BJ122">
+        <v>1</v>
       </c>
       <c r="BM122">
         <v>0</v>
@@ -13585,7 +13327,7 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C123" t="s">
         <v>354</v>
@@ -13658,12 +13400,6 @@
       </c>
       <c r="BG123">
         <v>0</v>
-      </c>
-      <c r="BI123">
-        <v>0.25</v>
-      </c>
-      <c r="BJ123">
-        <v>1</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13683,7 +13419,7 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C124" t="s">
         <v>356</v>
@@ -13758,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="BH124" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="BM124">
         <v>0</v>
@@ -13778,7 +13514,7 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C125" t="s">
         <v>358</v>
@@ -13850,13 +13586,10 @@
         <v>0</v>
       </c>
       <c r="BG125">
-        <v>0.35</v>
-      </c>
-      <c r="BI125">
-        <v>1.6</v>
-      </c>
-      <c r="BJ125">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH125" t="s">
+        <v>160</v>
       </c>
       <c r="BM125">
         <v>0</v>
@@ -13876,7 +13609,7 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C126" t="s">
         <v>360</v>
@@ -13951,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="BH126" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="BM126">
         <v>0</v>
@@ -13971,7 +13704,7 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C127" t="s">
         <v>362</v>
@@ -13997,12 +13730,6 @@
       <c r="Z127">
         <v>0</v>
       </c>
-      <c r="AG127" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH127">
-        <v>0.25</v>
-      </c>
       <c r="AI127">
         <v>0</v>
       </c>
@@ -14018,9 +13745,6 @@
       <c r="AM127">
         <v>0</v>
       </c>
-      <c r="AN127">
-        <v>0.25</v>
-      </c>
       <c r="AS127">
         <v>0</v>
       </c>
@@ -14053,6 +13777,9 @@
       </c>
       <c r="BG127">
         <v>0</v>
+      </c>
+      <c r="BH127" t="s">
+        <v>167</v>
       </c>
       <c r="BM127">
         <v>0</v>
@@ -14072,7 +13799,7 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C128" t="s">
         <v>364</v>
@@ -14098,62 +13825,59 @@
       <c r="Z128">
         <v>0</v>
       </c>
-      <c r="AG128" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH128">
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AS128">
+        <v>0</v>
+      </c>
+      <c r="AV128">
+        <v>0</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
         <v>0.25</v>
       </c>
-      <c r="AI128">
-        <v>0</v>
-      </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
-      <c r="AK128">
-        <v>0</v>
-      </c>
-      <c r="AL128">
-        <v>0</v>
-      </c>
-      <c r="AM128">
-        <v>0</v>
-      </c>
-      <c r="AN128">
-        <v>0.25</v>
-      </c>
-      <c r="AS128">
-        <v>0</v>
-      </c>
-      <c r="AV128">
-        <v>0</v>
-      </c>
-      <c r="AX128">
-        <v>0</v>
-      </c>
-      <c r="AY128">
-        <v>0</v>
-      </c>
-      <c r="BA128">
-        <v>0</v>
-      </c>
-      <c r="BB128">
-        <v>0</v>
-      </c>
-      <c r="BC128">
-        <v>0</v>
-      </c>
-      <c r="BD128">
-        <v>0</v>
-      </c>
-      <c r="BE128">
-        <v>0</v>
-      </c>
-      <c r="BF128">
-        <v>0</v>
-      </c>
-      <c r="BG128">
-        <v>0</v>
+      <c r="BJ128">
+        <v>1</v>
       </c>
       <c r="BM128">
         <v>0</v>
@@ -14173,16 +13897,16 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D129" t="s">
         <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -14199,9 +13923,6 @@
       <c r="Z129">
         <v>0</v>
       </c>
-      <c r="AG129" t="s">
-        <v>271</v>
-      </c>
       <c r="AI129">
         <v>0</v>
       </c>
@@ -14217,9 +13938,6 @@
       <c r="AM129">
         <v>0</v>
       </c>
-      <c r="AN129">
-        <v>0.25</v>
-      </c>
       <c r="AS129">
         <v>0</v>
       </c>
@@ -14252,6 +13970,9 @@
       </c>
       <c r="BG129">
         <v>0</v>
+      </c>
+      <c r="BH129" t="s">
+        <v>108</v>
       </c>
       <c r="BM129">
         <v>0</v>
@@ -14271,16 +13992,16 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
         <v>73</v>
       </c>
       <c r="G130" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -14297,9 +14018,6 @@
       <c r="Z130">
         <v>0</v>
       </c>
-      <c r="AG130" t="s">
-        <v>371</v>
-      </c>
       <c r="AI130">
         <v>0</v>
       </c>
@@ -14315,9 +14033,6 @@
       <c r="AM130">
         <v>0</v>
       </c>
-      <c r="AN130">
-        <v>0.25</v>
-      </c>
       <c r="AS130">
         <v>0</v>
       </c>
@@ -14349,7 +14064,13 @@
         <v>0</v>
       </c>
       <c r="BG130">
-        <v>0</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI130">
+        <v>1.6</v>
+      </c>
+      <c r="BJ130">
+        <v>1</v>
       </c>
       <c r="BM130">
         <v>0</v>
@@ -14369,16 +14090,16 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C131" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D131" t="s">
         <v>73</v>
       </c>
       <c r="G131" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -14395,9 +14116,6 @@
       <c r="Z131">
         <v>0</v>
       </c>
-      <c r="AG131" t="s">
-        <v>366</v>
-      </c>
       <c r="AI131">
         <v>0</v>
       </c>
@@ -14413,9 +14131,6 @@
       <c r="AM131">
         <v>0</v>
       </c>
-      <c r="AN131">
-        <v>0.5</v>
-      </c>
       <c r="AS131">
         <v>0</v>
       </c>
@@ -14448,6 +14163,9 @@
       </c>
       <c r="BG131">
         <v>0</v>
+      </c>
+      <c r="BH131" t="s">
+        <v>78</v>
       </c>
       <c r="BM131">
         <v>0</v>
@@ -14467,16 +14185,16 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C132" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D132" t="s">
         <v>73</v>
       </c>
       <c r="G132" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -14494,7 +14212,10 @@
         <v>0</v>
       </c>
       <c r="AG132" t="s">
-        <v>366</v>
+        <v>289</v>
+      </c>
+      <c r="AH132">
+        <v>0.25</v>
       </c>
       <c r="AI132">
         <v>0</v>
@@ -14512,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="AN132">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS132">
         <v>0</v>
@@ -14565,16 +14286,16 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D133" t="s">
         <v>73</v>
       </c>
       <c r="G133" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14592,7 +14313,10 @@
         <v>0</v>
       </c>
       <c r="AG133" t="s">
-        <v>366</v>
+        <v>376</v>
+      </c>
+      <c r="AH133">
+        <v>0.25</v>
       </c>
       <c r="AI133">
         <v>0</v>
@@ -14610,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="AN133">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS133">
         <v>0</v>
@@ -14663,16 +14387,16 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -14690,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="AG134" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AI134">
         <v>0</v>
@@ -14708,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AN134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS134">
         <v>0</v>
@@ -14761,35 +14485,35 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
+        <v>380</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AG135" t="s">
         <v>381</v>
       </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="Y135">
-        <v>0</v>
-      </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AG135" t="s">
-        <v>279</v>
-      </c>
       <c r="AI135">
         <v>0</v>
       </c>
@@ -14806,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS135">
         <v>0</v>
@@ -14859,7 +14583,7 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C136" t="s">
         <v>382</v>
@@ -14886,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="AG136" t="s">
-        <v>279</v>
+        <v>376</v>
       </c>
       <c r="AI136">
         <v>0</v>
@@ -14904,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS136">
         <v>0</v>
@@ -14957,7 +14681,7 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C137" t="s">
         <v>384</v>
@@ -14984,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="AG137" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="AI137">
         <v>0</v>
@@ -15002,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS137">
         <v>0</v>
@@ -15055,7 +14779,7 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C138" t="s">
         <v>386</v>
@@ -15082,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="AG138" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="AI138">
         <v>0</v>
@@ -15100,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS138">
         <v>0</v>
@@ -15153,7 +14877,7 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C139" t="s">
         <v>388</v>
@@ -15180,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="AG139" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="AI139">
         <v>0</v>
@@ -15198,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS139">
         <v>0</v>
@@ -15251,7 +14975,7 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C140" t="s">
         <v>390</v>
@@ -15278,10 +15002,7 @@
         <v>0</v>
       </c>
       <c r="AG140" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH140">
-        <v>0.5</v>
+        <v>289</v>
       </c>
       <c r="AI140">
         <v>0</v>
@@ -15299,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AS140">
         <v>0</v>
@@ -15352,7 +15073,7 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C141" t="s">
         <v>392</v>
@@ -15379,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="AG141" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="AI141">
         <v>0</v>
@@ -15397,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS141">
         <v>0</v>
@@ -15450,7 +15171,7 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C142" t="s">
         <v>394</v>
@@ -15477,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="AG142" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="AI142">
         <v>0</v>
@@ -15495,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS142">
         <v>0</v>
@@ -15548,7 +15269,7 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C143" t="s">
         <v>396</v>
@@ -15575,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="AG143" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="AI143">
         <v>0</v>
@@ -15593,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS143">
         <v>0</v>
@@ -15646,7 +15367,7 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C144" t="s">
         <v>398</v>
@@ -15672,6 +15393,9 @@
       <c r="Z144">
         <v>0</v>
       </c>
+      <c r="AG144" t="s">
+        <v>281</v>
+      </c>
       <c r="AI144">
         <v>0</v>
       </c>
@@ -15687,6 +15411,9 @@
       <c r="AM144">
         <v>0</v>
       </c>
+      <c r="AN144">
+        <v>1.25</v>
+      </c>
       <c r="AS144">
         <v>0</v>
       </c>
@@ -15719,9 +15446,6 @@
       </c>
       <c r="BG144">
         <v>0</v>
-      </c>
-      <c r="BI144">
-        <v>0.05</v>
       </c>
       <c r="BM144">
         <v>0</v>
@@ -15741,7 +15465,7 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C145" t="s">
         <v>400</v>
@@ -15767,8 +15491,11 @@
       <c r="Z145">
         <v>0</v>
       </c>
-      <c r="AA145" t="s">
-        <v>402</v>
+      <c r="AG145" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH145">
+        <v>0.5</v>
       </c>
       <c r="AI145">
         <v>0</v>
@@ -15784,6 +15511,9 @@
       </c>
       <c r="AM145">
         <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1.1</v>
       </c>
       <c r="AS145">
         <v>0</v>
@@ -15836,16 +15566,16 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C146" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D146" t="s">
         <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -15862,6 +15592,9 @@
       <c r="Z146">
         <v>0</v>
       </c>
+      <c r="AG146" t="s">
+        <v>381</v>
+      </c>
       <c r="AI146">
         <v>0</v>
       </c>
@@ -15877,6 +15610,9 @@
       <c r="AM146">
         <v>0</v>
       </c>
+      <c r="AN146">
+        <v>0.5</v>
+      </c>
       <c r="AS146">
         <v>0</v>
       </c>
@@ -15909,12 +15645,6 @@
       </c>
       <c r="BG146">
         <v>0</v>
-      </c>
-      <c r="BI146">
-        <v>1.25</v>
-      </c>
-      <c r="BJ146">
-        <v>1</v>
       </c>
       <c r="BM146">
         <v>0</v>
@@ -15934,16 +15664,16 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C147" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D147" t="s">
         <v>73</v>
       </c>
       <c r="G147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -15960,8 +15690,8 @@
       <c r="Z147">
         <v>0</v>
       </c>
-      <c r="AA147" t="s">
-        <v>333</v>
+      <c r="AG147" t="s">
+        <v>381</v>
       </c>
       <c r="AI147">
         <v>0</v>
@@ -15977,6 +15707,9 @@
       </c>
       <c r="AM147">
         <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
       </c>
       <c r="AS147">
         <v>0</v>
@@ -16029,16 +15762,16 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C148" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
         <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -16056,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -16074,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS148">
         <v>0</v>
@@ -16127,16 +15860,16 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D149" t="s">
         <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -16153,9 +15886,6 @@
       <c r="Z149">
         <v>0</v>
       </c>
-      <c r="AG149" t="s">
-        <v>366</v>
-      </c>
       <c r="AI149">
         <v>0</v>
       </c>
@@ -16171,9 +15901,6 @@
       <c r="AM149">
         <v>0</v>
       </c>
-      <c r="AN149">
-        <v>1</v>
-      </c>
       <c r="AS149">
         <v>0</v>
       </c>
@@ -16206,6 +15933,9 @@
       </c>
       <c r="BG149">
         <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0.05</v>
       </c>
       <c r="BM149">
         <v>0</v>
@@ -16225,32 +15955,35 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C150" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
+        <v>411</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150" t="s">
         <v>412</v>
       </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
       <c r="AI150">
         <v>0</v>
       </c>
@@ -16298,12 +16031,6 @@
       </c>
       <c r="BG150">
         <v>0</v>
-      </c>
-      <c r="BI150">
-        <v>0.25</v>
-      </c>
-      <c r="BJ150">
-        <v>1</v>
       </c>
       <c r="BM150">
         <v>0</v>
@@ -16323,7 +16050,7 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C151" t="s">
         <v>413</v>
@@ -16396,6 +16123,12 @@
       </c>
       <c r="BG151">
         <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>1.25</v>
+      </c>
+      <c r="BJ151">
+        <v>1</v>
       </c>
       <c r="BM151">
         <v>0</v>
@@ -16415,7 +16148,7 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C152" t="s">
         <v>415</v>
@@ -16441,14 +16174,8 @@
       <c r="Z152">
         <v>0</v>
       </c>
-      <c r="AC152">
-        <v>1</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH152">
-        <v>0.5</v>
+      <c r="AA152" t="s">
+        <v>343</v>
       </c>
       <c r="AI152">
         <v>0</v>
@@ -16464,9 +16191,6 @@
       </c>
       <c r="AM152">
         <v>0</v>
-      </c>
-      <c r="AN152">
-        <v>0.3</v>
       </c>
       <c r="AS152">
         <v>0</v>
@@ -16519,7 +16243,7 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C153" t="s">
         <v>417</v>
@@ -16530,6 +16254,12 @@
       <c r="G153" t="s">
         <v>418</v>
       </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
       <c r="O153">
         <v>0</v>
       </c>
@@ -16539,8 +16269,8 @@
       <c r="Z153">
         <v>0</v>
       </c>
-      <c r="AC153">
-        <v>1</v>
+      <c r="AG153" t="s">
+        <v>281</v>
       </c>
       <c r="AI153">
         <v>0</v>
@@ -16557,6 +16287,9 @@
       <c r="AM153">
         <v>0</v>
       </c>
+      <c r="AN153">
+        <v>0.5</v>
+      </c>
       <c r="AS153">
         <v>0</v>
       </c>
@@ -16589,9 +16322,6 @@
       </c>
       <c r="BG153">
         <v>0</v>
-      </c>
-      <c r="BH153" t="s">
-        <v>147</v>
       </c>
       <c r="BM153">
         <v>0</v>
@@ -16611,7 +16341,7 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C154" t="s">
         <v>419</v>
@@ -16622,6 +16352,12 @@
       <c r="G154" t="s">
         <v>420</v>
       </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
       <c r="O154">
         <v>0</v>
       </c>
@@ -16631,24 +16367,27 @@
       <c r="Z154">
         <v>0</v>
       </c>
-      <c r="AC154">
+      <c r="AG154" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
+      <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
         <v>1</v>
       </c>
-      <c r="AI154">
-        <v>0</v>
-      </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
-      <c r="AK154">
-        <v>0</v>
-      </c>
-      <c r="AL154">
-        <v>0</v>
-      </c>
-      <c r="AM154">
-        <v>0</v>
-      </c>
       <c r="AS154">
         <v>0</v>
       </c>
@@ -16681,9 +16420,6 @@
       </c>
       <c r="BG154">
         <v>0</v>
-      </c>
-      <c r="BH154" t="s">
-        <v>163</v>
       </c>
       <c r="BM154">
         <v>0</v>
@@ -16703,7 +16439,7 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C155" t="s">
         <v>421</v>
@@ -16714,6 +16450,12 @@
       <c r="G155" t="s">
         <v>422</v>
       </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
       <c r="O155">
         <v>0</v>
       </c>
@@ -16723,65 +16465,59 @@
       <c r="Z155">
         <v>0</v>
       </c>
-      <c r="AC155">
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>0</v>
+      </c>
+      <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AS155">
+        <v>0</v>
+      </c>
+      <c r="AV155">
+        <v>0</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>0.25</v>
+      </c>
+      <c r="BJ155">
         <v>1</v>
-      </c>
-      <c r="AG155" t="s">
-        <v>423</v>
-      </c>
-      <c r="AH155">
-        <v>0.1</v>
-      </c>
-      <c r="AI155">
-        <v>0</v>
-      </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
-      <c r="AK155">
-        <v>0</v>
-      </c>
-      <c r="AL155">
-        <v>0</v>
-      </c>
-      <c r="AM155">
-        <v>0</v>
-      </c>
-      <c r="AN155">
-        <v>0.15</v>
-      </c>
-      <c r="AS155">
-        <v>0</v>
-      </c>
-      <c r="AV155">
-        <v>0</v>
-      </c>
-      <c r="AX155">
-        <v>0</v>
-      </c>
-      <c r="AY155">
-        <v>0</v>
-      </c>
-      <c r="BA155">
-        <v>0</v>
-      </c>
-      <c r="BB155">
-        <v>0</v>
-      </c>
-      <c r="BC155">
-        <v>0</v>
-      </c>
-      <c r="BD155">
-        <v>0</v>
-      </c>
-      <c r="BE155">
-        <v>0</v>
-      </c>
-      <c r="BF155">
-        <v>0</v>
-      </c>
-      <c r="BG155">
-        <v>0</v>
       </c>
       <c r="BM155">
         <v>0</v>
@@ -16801,16 +16537,22 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -16821,9 +16563,6 @@
       <c r="Z156">
         <v>0</v>
       </c>
-      <c r="AC156">
-        <v>1</v>
-      </c>
       <c r="AI156">
         <v>0</v>
       </c>
@@ -16871,9 +16610,6 @@
       </c>
       <c r="BG156">
         <v>0</v>
-      </c>
-      <c r="BH156" t="s">
-        <v>78</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -16893,16 +16629,22 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C157" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -16917,10 +16659,10 @@
         <v>1</v>
       </c>
       <c r="AG157" t="s">
-        <v>423</v>
+        <v>199</v>
       </c>
       <c r="AH157">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI157">
         <v>0</v>
@@ -16991,16 +16733,16 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C158" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -17063,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="BH158" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -17083,16 +16825,16 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -17106,12 +16848,6 @@
       <c r="AC159">
         <v>1</v>
       </c>
-      <c r="AG159" t="s">
-        <v>423</v>
-      </c>
-      <c r="AH159">
-        <v>0.35</v>
-      </c>
       <c r="AI159">
         <v>0</v>
       </c>
@@ -17127,9 +16863,6 @@
       <c r="AM159">
         <v>0</v>
       </c>
-      <c r="AN159">
-        <v>0.45</v>
-      </c>
       <c r="AS159">
         <v>0</v>
       </c>
@@ -17162,6 +16895,9 @@
       </c>
       <c r="BG159">
         <v>0</v>
+      </c>
+      <c r="BH159" t="s">
+        <v>167</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -17181,16 +16917,16 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C160" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -17204,6 +16940,12 @@
       <c r="AC160">
         <v>1</v>
       </c>
+      <c r="AG160" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH160">
+        <v>0.1</v>
+      </c>
       <c r="AI160">
         <v>0</v>
       </c>
@@ -17219,6 +16961,9 @@
       <c r="AM160">
         <v>0</v>
       </c>
+      <c r="AN160">
+        <v>0.15</v>
+      </c>
       <c r="AS160">
         <v>0</v>
       </c>
@@ -17251,9 +16996,6 @@
       </c>
       <c r="BG160">
         <v>0</v>
-      </c>
-      <c r="BH160" t="s">
-        <v>120</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -17273,7 +17015,7 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C161" t="s">
         <v>434</v>
@@ -17296,12 +17038,6 @@
       <c r="AC161">
         <v>1</v>
       </c>
-      <c r="AG161" t="s">
-        <v>423</v>
-      </c>
-      <c r="AH161">
-        <v>0.5</v>
-      </c>
       <c r="AI161">
         <v>0</v>
       </c>
@@ -17317,9 +17053,6 @@
       <c r="AM161">
         <v>0</v>
       </c>
-      <c r="AN161">
-        <v>0.55</v>
-      </c>
       <c r="AS161">
         <v>0</v>
       </c>
@@ -17352,6 +17085,9 @@
       </c>
       <c r="BG161">
         <v>0</v>
+      </c>
+      <c r="BH161" t="s">
+        <v>78</v>
       </c>
       <c r="BM161">
         <v>0</v>
@@ -17371,7 +17107,7 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C162" t="s">
         <v>436</v>
@@ -17394,6 +17130,12 @@
       <c r="AC162">
         <v>1</v>
       </c>
+      <c r="AG162" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH162">
+        <v>0.25</v>
+      </c>
       <c r="AI162">
         <v>0</v>
       </c>
@@ -17409,6 +17151,9 @@
       <c r="AM162">
         <v>0</v>
       </c>
+      <c r="AN162">
+        <v>0.3</v>
+      </c>
       <c r="AS162">
         <v>0</v>
       </c>
@@ -17441,9 +17186,6 @@
       </c>
       <c r="BG162">
         <v>0</v>
-      </c>
-      <c r="BH162" t="s">
-        <v>78</v>
       </c>
       <c r="BM162">
         <v>0</v>
@@ -17463,7 +17205,7 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C163" t="s">
         <v>438</v>
@@ -17533,6 +17275,9 @@
       </c>
       <c r="BG163">
         <v>0</v>
+      </c>
+      <c r="BH163" t="s">
+        <v>160</v>
       </c>
       <c r="BM163">
         <v>0</v>
@@ -17552,7 +17297,7 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C164" t="s">
         <v>440</v>
@@ -17575,6 +17320,12 @@
       <c r="AC164">
         <v>1</v>
       </c>
+      <c r="AG164" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH164">
+        <v>0.35</v>
+      </c>
       <c r="AI164">
         <v>0</v>
       </c>
@@ -17589,6 +17340,9 @@
       </c>
       <c r="AM164">
         <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>0.45</v>
       </c>
       <c r="AS164">
         <v>0</v>
@@ -17641,7 +17395,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C165" t="s">
         <v>442</v>
@@ -17661,9 +17415,6 @@
       <c r="Z165">
         <v>0</v>
       </c>
-      <c r="AA165" t="s">
-        <v>444</v>
-      </c>
       <c r="AC165">
         <v>1</v>
       </c>
@@ -17714,6 +17465,9 @@
       </c>
       <c r="BG165">
         <v>0</v>
+      </c>
+      <c r="BH165" t="s">
+        <v>113</v>
       </c>
       <c r="BM165">
         <v>0</v>
@@ -17733,16 +17487,16 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C166" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
         <v>73</v>
       </c>
       <c r="G166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -17756,6 +17510,12 @@
       <c r="AC166">
         <v>1</v>
       </c>
+      <c r="AG166" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH166">
+        <v>0.5</v>
+      </c>
       <c r="AI166">
         <v>0</v>
       </c>
@@ -17770,6 +17530,9 @@
       </c>
       <c r="AM166">
         <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>0.55</v>
       </c>
       <c r="AS166">
         <v>0</v>
@@ -17822,16 +17585,16 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -17892,6 +17655,9 @@
       </c>
       <c r="BG167">
         <v>0</v>
+      </c>
+      <c r="BH167" t="s">
+        <v>78</v>
       </c>
       <c r="BM167">
         <v>0</v>
@@ -17911,16 +17677,16 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C168" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -18000,16 +17766,16 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C169" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -18089,25 +17855,28 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D170" t="s">
         <v>73</v>
       </c>
       <c r="G170" t="s">
+        <v>453</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="s">
         <v>454</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
       </c>
       <c r="AC170">
         <v>1</v>
@@ -18178,7 +17947,7 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C171" t="s">
         <v>455</v>
@@ -18248,9 +18017,6 @@
       </c>
       <c r="BG171">
         <v>0</v>
-      </c>
-      <c r="BH171" t="s">
-        <v>115</v>
       </c>
       <c r="BM171">
         <v>0</v>
@@ -18270,7 +18036,7 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C172" t="s">
         <v>457</v>
@@ -18340,9 +18106,6 @@
       </c>
       <c r="BG172">
         <v>0</v>
-      </c>
-      <c r="BH172" t="s">
-        <v>156</v>
       </c>
       <c r="BM172">
         <v>0</v>
@@ -18362,7 +18125,7 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C173" t="s">
         <v>459</v>
@@ -18451,7 +18214,7 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C174" t="s">
         <v>461</v>
@@ -18521,9 +18284,6 @@
       </c>
       <c r="BG174">
         <v>0</v>
-      </c>
-      <c r="BH174" t="s">
-        <v>163</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18543,7 +18303,7 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C175" t="s">
         <v>463</v>
@@ -18632,7 +18392,7 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C176" t="s">
         <v>465</v>
@@ -18704,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="BH176" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18724,7 +18484,7 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C177" t="s">
         <v>467</v>
@@ -18796,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18816,7 +18576,7 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C178" t="s">
         <v>469</v>
@@ -18905,7 +18665,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C179" t="s">
         <v>471</v>
@@ -18977,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="BH179" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -18997,7 +18757,7 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C180" t="s">
         <v>473</v>
@@ -19086,7 +18846,7 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C181" t="s">
         <v>475</v>
@@ -19156,6 +18916,9 @@
       </c>
       <c r="BG181">
         <v>0</v>
+      </c>
+      <c r="BH181" t="s">
+        <v>113</v>
       </c>
       <c r="BM181">
         <v>0</v>
@@ -19175,7 +18938,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C182" t="s">
         <v>477</v>
@@ -19245,6 +19008,9 @@
       </c>
       <c r="BG182">
         <v>0</v>
+      </c>
+      <c r="BH182" t="s">
+        <v>75</v>
       </c>
       <c r="BM182">
         <v>0</v>
@@ -19264,7 +19030,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C183" t="s">
         <v>479</v>
@@ -19353,7 +19119,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C184" t="s">
         <v>481</v>
@@ -19423,6 +19189,9 @@
       </c>
       <c r="BG184">
         <v>0</v>
+      </c>
+      <c r="BH184" t="s">
+        <v>78</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19442,7 +19211,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C185" t="s">
         <v>483</v>
@@ -19531,7 +19300,7 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C186" t="s">
         <v>485</v>
@@ -19620,7 +19389,7 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C187" t="s">
         <v>487</v>
@@ -19709,7 +19478,7 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C188" t="s">
         <v>489</v>
@@ -19798,7 +19567,7 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C189" t="s">
         <v>491</v>
@@ -19887,7 +19656,7 @@
     </row>
     <row r="190" spans="1:72">
       <c r="A190">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C190" t="s">
         <v>493</v>
@@ -19976,7 +19745,7 @@
     </row>
     <row r="191" spans="1:72">
       <c r="A191">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C191" t="s">
         <v>495</v>
@@ -20065,7 +19834,7 @@
     </row>
     <row r="192" spans="1:72">
       <c r="A192">
-        <v>210180</v>
+        <v>629</v>
       </c>
       <c r="C192" t="s">
         <v>497</v>
@@ -20135,9 +19904,6 @@
       </c>
       <c r="BG192">
         <v>0</v>
-      </c>
-      <c r="BH192" t="s">
-        <v>499</v>
       </c>
       <c r="BM192">
         <v>0</v>
@@ -20157,16 +19923,16 @@
     </row>
     <row r="193" spans="1:72">
       <c r="A193">
-        <v>210181</v>
+        <v>630</v>
       </c>
       <c r="C193" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -20227,9 +19993,6 @@
       </c>
       <c r="BG193">
         <v>0</v>
-      </c>
-      <c r="BH193" t="s">
-        <v>499</v>
       </c>
       <c r="BM193">
         <v>0</v>
@@ -20249,16 +20012,16 @@
     </row>
     <row r="194" spans="1:72">
       <c r="A194">
-        <v>210182</v>
+        <v>631</v>
       </c>
       <c r="C194" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -20319,9 +20082,6 @@
       </c>
       <c r="BG194">
         <v>0</v>
-      </c>
-      <c r="BH194" t="s">
-        <v>504</v>
       </c>
       <c r="BM194">
         <v>0</v>
@@ -20341,16 +20101,16 @@
     </row>
     <row r="195" spans="1:72">
       <c r="A195">
-        <v>210183</v>
+        <v>632</v>
       </c>
       <c r="C195" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -20364,12 +20124,6 @@
       <c r="AC195">
         <v>1</v>
       </c>
-      <c r="AG195" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH195">
-        <v>0.35</v>
-      </c>
       <c r="AI195">
         <v>0</v>
       </c>
@@ -20385,9 +20139,6 @@
       <c r="AM195">
         <v>0</v>
       </c>
-      <c r="AN195">
-        <v>0.35</v>
-      </c>
       <c r="AS195">
         <v>0</v>
       </c>
@@ -20420,9 +20171,6 @@
       </c>
       <c r="BG195">
         <v>0</v>
-      </c>
-      <c r="BH195" t="s">
-        <v>504</v>
       </c>
       <c r="BM195">
         <v>0</v>
@@ -20442,16 +20190,16 @@
     </row>
     <row r="196" spans="1:72">
       <c r="A196">
-        <v>210184</v>
+        <v>633</v>
       </c>
       <c r="C196" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="G196" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -20512,9 +20260,6 @@
       </c>
       <c r="BG196">
         <v>0</v>
-      </c>
-      <c r="BH196" t="s">
-        <v>504</v>
       </c>
       <c r="BM196">
         <v>0</v>
@@ -20534,16 +20279,16 @@
     </row>
     <row r="197" spans="1:72">
       <c r="A197">
-        <v>210185</v>
+        <v>210180</v>
       </c>
       <c r="C197" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="G197" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -20606,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="BH197" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20626,16 +20371,16 @@
     </row>
     <row r="198" spans="1:72">
       <c r="A198">
-        <v>210186</v>
+        <v>210181</v>
       </c>
       <c r="C198" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20645,9 +20390,6 @@
       </c>
       <c r="Z198">
         <v>0</v>
-      </c>
-      <c r="AA198" t="s">
-        <v>513</v>
       </c>
       <c r="AC198">
         <v>1</v>
@@ -20699,6 +20441,9 @@
       </c>
       <c r="BG198">
         <v>0</v>
+      </c>
+      <c r="BH198" t="s">
+        <v>509</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20718,16 +20463,16 @@
     </row>
     <row r="199" spans="1:72">
       <c r="A199">
-        <v>210187</v>
+        <v>210182</v>
       </c>
       <c r="C199" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -20790,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="BH199" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="BM199">
         <v>0</v>
@@ -20810,16 +20555,16 @@
     </row>
     <row r="200" spans="1:72">
       <c r="A200">
-        <v>210188</v>
+        <v>210183</v>
       </c>
       <c r="C200" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20833,6 +20578,12 @@
       <c r="AC200">
         <v>1</v>
       </c>
+      <c r="AG200" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH200">
+        <v>0.35</v>
+      </c>
       <c r="AI200">
         <v>0</v>
       </c>
@@ -20848,6 +20599,9 @@
       <c r="AM200">
         <v>0</v>
       </c>
+      <c r="AN200">
+        <v>0.35</v>
+      </c>
       <c r="AS200">
         <v>0</v>
       </c>
@@ -20880,6 +20634,9 @@
       </c>
       <c r="BG200">
         <v>0</v>
+      </c>
+      <c r="BH200" t="s">
+        <v>514</v>
       </c>
       <c r="BM200">
         <v>0</v>
@@ -20899,16 +20656,16 @@
     </row>
     <row r="201" spans="1:72">
       <c r="A201">
-        <v>210189</v>
+        <v>210184</v>
       </c>
       <c r="C201" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -20922,12 +20679,6 @@
       <c r="AC201">
         <v>1</v>
       </c>
-      <c r="AG201" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH201">
-        <v>0.6</v>
-      </c>
       <c r="AI201">
         <v>0</v>
       </c>
@@ -20943,9 +20694,6 @@
       <c r="AM201">
         <v>0</v>
       </c>
-      <c r="AN201">
-        <v>0.6</v>
-      </c>
       <c r="AS201">
         <v>0</v>
       </c>
@@ -20980,7 +20728,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -21000,16 +20748,16 @@
     </row>
     <row r="202" spans="1:72">
       <c r="A202">
-        <v>210190</v>
+        <v>210185</v>
       </c>
       <c r="C202" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -21023,12 +20771,6 @@
       <c r="AC202">
         <v>1</v>
       </c>
-      <c r="AG202" t="s">
-        <v>523</v>
-      </c>
-      <c r="AH202">
-        <v>1</v>
-      </c>
       <c r="AI202">
         <v>0</v>
       </c>
@@ -21044,9 +20786,6 @@
       <c r="AM202">
         <v>0</v>
       </c>
-      <c r="AN202">
-        <v>1</v>
-      </c>
       <c r="AS202">
         <v>0</v>
       </c>
@@ -21081,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="BH202" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="BM202">
         <v>0</v>
@@ -21101,16 +20840,16 @@
     </row>
     <row r="203" spans="1:72">
       <c r="A203">
-        <v>210191</v>
+        <v>210186</v>
       </c>
       <c r="C203" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -21120,6 +20859,9 @@
       </c>
       <c r="Z203">
         <v>0</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>523</v>
       </c>
       <c r="AC203">
         <v>1</v>
@@ -21171,9 +20913,6 @@
       </c>
       <c r="BG203">
         <v>0</v>
-      </c>
-      <c r="BH203" t="s">
-        <v>520</v>
       </c>
       <c r="BM203">
         <v>0</v>
@@ -21193,16 +20932,16 @@
     </row>
     <row r="204" spans="1:72">
       <c r="A204">
-        <v>210192</v>
+        <v>210187</v>
       </c>
       <c r="C204" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -21216,12 +20955,6 @@
       <c r="AC204">
         <v>1</v>
       </c>
-      <c r="AG204" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH204">
-        <v>0.3</v>
-      </c>
       <c r="AI204">
         <v>0</v>
       </c>
@@ -21237,9 +20970,6 @@
       <c r="AM204">
         <v>0</v>
       </c>
-      <c r="AN204">
-        <v>0.3</v>
-      </c>
       <c r="AS204">
         <v>0</v>
       </c>
@@ -21274,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="BH204" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -21294,16 +21024,16 @@
     </row>
     <row r="205" spans="1:72">
       <c r="A205">
-        <v>210193</v>
+        <v>210188</v>
       </c>
       <c r="C205" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21364,9 +21094,6 @@
       </c>
       <c r="BG205">
         <v>0</v>
-      </c>
-      <c r="BH205" t="s">
-        <v>520</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21386,16 +21113,16 @@
     </row>
     <row r="206" spans="1:72">
       <c r="A206">
-        <v>210194</v>
+        <v>210189</v>
       </c>
       <c r="C206" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21409,6 +21136,12 @@
       <c r="AC206">
         <v>1</v>
       </c>
+      <c r="AG206" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH206">
+        <v>0.6</v>
+      </c>
       <c r="AI206">
         <v>0</v>
       </c>
@@ -21424,6 +21157,9 @@
       <c r="AM206">
         <v>0</v>
       </c>
+      <c r="AN206">
+        <v>0.6</v>
+      </c>
       <c r="AS206">
         <v>0</v>
       </c>
@@ -21458,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="BH206" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="BM206">
         <v>0</v>
@@ -21478,16 +21214,16 @@
     </row>
     <row r="207" spans="1:72">
       <c r="A207">
-        <v>210195</v>
+        <v>210190</v>
       </c>
       <c r="C207" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21501,6 +21237,12 @@
       <c r="AC207">
         <v>1</v>
       </c>
+      <c r="AG207" t="s">
+        <v>533</v>
+      </c>
+      <c r="AH207">
+        <v>1</v>
+      </c>
       <c r="AI207">
         <v>0</v>
       </c>
@@ -21516,6 +21258,9 @@
       <c r="AM207">
         <v>0</v>
       </c>
+      <c r="AN207">
+        <v>1</v>
+      </c>
       <c r="AS207">
         <v>0</v>
       </c>
@@ -21548,6 +21293,9 @@
       </c>
       <c r="BG207">
         <v>0</v>
+      </c>
+      <c r="BH207" t="s">
+        <v>530</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21567,7 +21315,7 @@
     </row>
     <row r="208" spans="1:72">
       <c r="A208">
-        <v>210196</v>
+        <v>210191</v>
       </c>
       <c r="C208" t="s">
         <v>534</v>
@@ -21637,6 +21385,9 @@
       </c>
       <c r="BG208">
         <v>0</v>
+      </c>
+      <c r="BH208" t="s">
+        <v>530</v>
       </c>
       <c r="BM208">
         <v>0</v>
@@ -21656,7 +21407,7 @@
     </row>
     <row r="209" spans="1:72">
       <c r="A209">
-        <v>210197</v>
+        <v>210192</v>
       </c>
       <c r="C209" t="s">
         <v>536</v>
@@ -21679,6 +21430,12 @@
       <c r="AC209">
         <v>1</v>
       </c>
+      <c r="AG209" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH209">
+        <v>0.3</v>
+      </c>
       <c r="AI209">
         <v>0</v>
       </c>
@@ -21694,6 +21451,9 @@
       <c r="AM209">
         <v>0</v>
       </c>
+      <c r="AN209">
+        <v>0.3</v>
+      </c>
       <c r="AS209">
         <v>0</v>
       </c>
@@ -21728,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="BH209" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="BM209">
         <v>0</v>
@@ -21748,16 +21508,16 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>210198</v>
+        <v>210193</v>
       </c>
       <c r="C210" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -21820,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="BH210" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -21840,16 +21600,16 @@
     </row>
     <row r="211" spans="1:72">
       <c r="A211">
-        <v>210199</v>
+        <v>210194</v>
       </c>
       <c r="C211" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -21912,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="BH211" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -21932,16 +21692,16 @@
     </row>
     <row r="212" spans="1:72">
       <c r="A212">
-        <v>210200</v>
+        <v>210195</v>
       </c>
       <c r="C212" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -22021,16 +21781,16 @@
     </row>
     <row r="213" spans="1:72">
       <c r="A213">
-        <v>210201</v>
+        <v>210196</v>
       </c>
       <c r="C213" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -22091,9 +21851,6 @@
       </c>
       <c r="BG213">
         <v>0</v>
-      </c>
-      <c r="BH213" t="s">
-        <v>547</v>
       </c>
       <c r="BM213">
         <v>0</v>
@@ -22113,16 +21870,16 @@
     </row>
     <row r="214" spans="1:72">
       <c r="A214">
-        <v>210202</v>
+        <v>210197</v>
       </c>
       <c r="C214" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -22136,12 +21893,6 @@
       <c r="AC214">
         <v>1</v>
       </c>
-      <c r="AG214" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH214">
-        <v>0.75</v>
-      </c>
       <c r="AI214">
         <v>0</v>
       </c>
@@ -22157,9 +21908,6 @@
       <c r="AM214">
         <v>0</v>
       </c>
-      <c r="AN214">
-        <v>1.25</v>
-      </c>
       <c r="AS214">
         <v>0</v>
       </c>
@@ -22194,7 +21942,7 @@
         <v>0</v>
       </c>
       <c r="BH214" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BM214">
         <v>0</v>
@@ -22214,16 +21962,16 @@
     </row>
     <row r="215" spans="1:72">
       <c r="A215">
-        <v>210203</v>
+        <v>210198</v>
       </c>
       <c r="C215" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -22237,12 +21985,6 @@
       <c r="AC215">
         <v>1</v>
       </c>
-      <c r="AG215" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH215">
-        <v>1</v>
-      </c>
       <c r="AI215">
         <v>0</v>
       </c>
@@ -22258,9 +22000,6 @@
       <c r="AM215">
         <v>0</v>
       </c>
-      <c r="AN215">
-        <v>1.25</v>
-      </c>
       <c r="AS215">
         <v>0</v>
       </c>
@@ -22295,7 +22034,7 @@
         <v>0</v>
       </c>
       <c r="BH215" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22315,16 +22054,16 @@
     </row>
     <row r="216" spans="1:72">
       <c r="A216">
-        <v>210204</v>
+        <v>210199</v>
       </c>
       <c r="C216" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22387,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="BH216" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22407,16 +22146,16 @@
     </row>
     <row r="217" spans="1:72">
       <c r="A217">
-        <v>210205</v>
+        <v>210200</v>
       </c>
       <c r="C217" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22496,16 +22235,16 @@
     </row>
     <row r="218" spans="1:72">
       <c r="A218">
-        <v>210206</v>
+        <v>210201</v>
       </c>
       <c r="C218" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22515,9 +22254,6 @@
       </c>
       <c r="Z218">
         <v>0</v>
-      </c>
-      <c r="AA218" t="s">
-        <v>558</v>
       </c>
       <c r="AC218">
         <v>1</v>
@@ -22569,6 +22305,9 @@
       </c>
       <c r="BG218">
         <v>0</v>
+      </c>
+      <c r="BH218" t="s">
+        <v>557</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22588,16 +22327,16 @@
     </row>
     <row r="219" spans="1:72">
       <c r="A219">
-        <v>210207</v>
+        <v>210202</v>
       </c>
       <c r="C219" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22612,10 +22351,10 @@
         <v>1</v>
       </c>
       <c r="AG219" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="AH219">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI219">
         <v>0</v>
@@ -22633,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="AN219">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS219">
         <v>0</v>
@@ -22669,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="BH219" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22689,16 +22428,16 @@
     </row>
     <row r="220" spans="1:72">
       <c r="A220">
-        <v>210208</v>
+        <v>210203</v>
       </c>
       <c r="C220" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22712,6 +22451,12 @@
       <c r="AC220">
         <v>1</v>
       </c>
+      <c r="AG220" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH220">
+        <v>1</v>
+      </c>
       <c r="AI220">
         <v>0</v>
       </c>
@@ -22727,6 +22472,9 @@
       <c r="AM220">
         <v>0</v>
       </c>
+      <c r="AN220">
+        <v>1.25</v>
+      </c>
       <c r="AS220">
         <v>0</v>
       </c>
@@ -22759,6 +22507,9 @@
       </c>
       <c r="BG220">
         <v>0</v>
+      </c>
+      <c r="BH220" t="s">
+        <v>557</v>
       </c>
       <c r="BM220">
         <v>0</v>
@@ -22778,16 +22529,16 @@
     </row>
     <row r="221" spans="1:72">
       <c r="A221">
-        <v>210209</v>
+        <v>210204</v>
       </c>
       <c r="C221" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D221" t="s">
         <v>73</v>
       </c>
       <c r="G221" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O221">
         <v>0</v>
@@ -22848,6 +22599,9 @@
       </c>
       <c r="BG221">
         <v>0</v>
+      </c>
+      <c r="BH221" t="s">
+        <v>557</v>
       </c>
       <c r="BM221">
         <v>0</v>
@@ -22867,16 +22621,16 @@
     </row>
     <row r="222" spans="1:72">
       <c r="A222">
-        <v>210210</v>
+        <v>210205</v>
       </c>
       <c r="C222" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D222" t="s">
         <v>73</v>
       </c>
       <c r="G222" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -22937,9 +22691,6 @@
       </c>
       <c r="BG222">
         <v>0</v>
-      </c>
-      <c r="BH222" t="s">
-        <v>567</v>
       </c>
       <c r="BM222">
         <v>0</v>
@@ -22959,16 +22710,16 @@
     </row>
     <row r="223" spans="1:72">
       <c r="A223">
-        <v>210211</v>
+        <v>210206</v>
       </c>
       <c r="C223" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D223" t="s">
         <v>73</v>
       </c>
       <c r="G223" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O223">
         <v>0</v>
@@ -22978,6 +22729,9 @@
       </c>
       <c r="Z223">
         <v>0</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>568</v>
       </c>
       <c r="AC223">
         <v>1</v>
@@ -23029,9 +22783,6 @@
       </c>
       <c r="BG223">
         <v>0</v>
-      </c>
-      <c r="BH223" t="s">
-        <v>567</v>
       </c>
       <c r="BM223">
         <v>0</v>
@@ -23051,16 +22802,16 @@
     </row>
     <row r="224" spans="1:72">
       <c r="A224">
-        <v>210212</v>
+        <v>210207</v>
       </c>
       <c r="C224" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D224" t="s">
         <v>73</v>
       </c>
       <c r="G224" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O224">
         <v>0</v>
@@ -23074,6 +22825,12 @@
       <c r="AC224">
         <v>1</v>
       </c>
+      <c r="AG224" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
       <c r="AI224">
         <v>0</v>
       </c>
@@ -23089,6 +22846,9 @@
       <c r="AM224">
         <v>0</v>
       </c>
+      <c r="AN224">
+        <v>1.2</v>
+      </c>
       <c r="AS224">
         <v>0</v>
       </c>
@@ -23121,6 +22881,9 @@
       </c>
       <c r="BG224">
         <v>0</v>
+      </c>
+      <c r="BH224" t="s">
+        <v>509</v>
       </c>
       <c r="BM224">
         <v>0</v>
@@ -23140,16 +22903,16 @@
     </row>
     <row r="225" spans="1:72">
       <c r="A225">
-        <v>210213</v>
+        <v>210208</v>
       </c>
       <c r="C225" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D225" t="s">
         <v>73</v>
       </c>
       <c r="G225" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -23210,9 +22973,6 @@
       </c>
       <c r="BG225">
         <v>0</v>
-      </c>
-      <c r="BH225" t="s">
-        <v>499</v>
       </c>
       <c r="BM225">
         <v>0</v>
@@ -23232,16 +22992,16 @@
     </row>
     <row r="226" spans="1:72">
       <c r="A226">
-        <v>210214</v>
+        <v>210209</v>
       </c>
       <c r="C226" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D226" t="s">
         <v>73</v>
       </c>
       <c r="G226" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O226">
         <v>0</v>
@@ -23321,16 +23081,16 @@
     </row>
     <row r="227" spans="1:72">
       <c r="A227">
-        <v>410519</v>
+        <v>210210</v>
       </c>
       <c r="C227" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D227" t="s">
         <v>73</v>
       </c>
       <c r="G227" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O227">
         <v>0</v>
@@ -23391,6 +23151,9 @@
       </c>
       <c r="BG227">
         <v>0</v>
+      </c>
+      <c r="BH227" t="s">
+        <v>577</v>
       </c>
       <c r="BM227">
         <v>0</v>
@@ -23410,7 +23173,7 @@
     </row>
     <row r="228" spans="1:72">
       <c r="A228">
-        <v>1170415</v>
+        <v>210211</v>
       </c>
       <c r="C228" t="s">
         <v>578</v>
@@ -23482,7 +23245,7 @@
         <v>0</v>
       </c>
       <c r="BH228" t="s">
-        <v>132</v>
+        <v>577</v>
       </c>
       <c r="BM228">
         <v>0</v>
@@ -23502,7 +23265,7 @@
     </row>
     <row r="229" spans="1:72">
       <c r="A229">
-        <v>1170416</v>
+        <v>210212</v>
       </c>
       <c r="C229" t="s">
         <v>580</v>
@@ -23572,9 +23335,6 @@
       </c>
       <c r="BG229">
         <v>0</v>
-      </c>
-      <c r="BH229" t="s">
-        <v>115</v>
       </c>
       <c r="BM229">
         <v>0</v>
@@ -23594,7 +23354,7 @@
     </row>
     <row r="230" spans="1:72">
       <c r="A230">
-        <v>1170417</v>
+        <v>210213</v>
       </c>
       <c r="C230" t="s">
         <v>582</v>
@@ -23666,7 +23426,7 @@
         <v>0</v>
       </c>
       <c r="BH230" t="s">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="BM230">
         <v>0</v>
@@ -23686,7 +23446,7 @@
     </row>
     <row r="231" spans="1:72">
       <c r="A231">
-        <v>1170418</v>
+        <v>210214</v>
       </c>
       <c r="C231" t="s">
         <v>584</v>
@@ -23756,9 +23516,6 @@
       </c>
       <c r="BG231">
         <v>0</v>
-      </c>
-      <c r="BH231" t="s">
-        <v>129</v>
       </c>
       <c r="BM231">
         <v>0</v>
@@ -23778,7 +23535,7 @@
     </row>
     <row r="232" spans="1:72">
       <c r="A232">
-        <v>1170419</v>
+        <v>410519</v>
       </c>
       <c r="C232" t="s">
         <v>586</v>
@@ -23867,7 +23624,7 @@
     </row>
     <row r="233" spans="1:72">
       <c r="A233">
-        <v>1170420</v>
+        <v>1170415</v>
       </c>
       <c r="C233" t="s">
         <v>588</v>
@@ -23939,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="BH233" t="s">
-        <v>590</v>
+        <v>136</v>
       </c>
       <c r="BM233">
         <v>0</v>
@@ -23959,16 +23716,16 @@
     </row>
     <row r="234" spans="1:72">
       <c r="A234">
-        <v>1170421</v>
+        <v>1170416</v>
       </c>
       <c r="C234" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D234" t="s">
         <v>73</v>
       </c>
       <c r="G234" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O234">
         <v>0</v>
@@ -24031,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="BH234" t="s">
-        <v>590</v>
+        <v>108</v>
       </c>
       <c r="BM234">
         <v>0</v>
@@ -24051,16 +23808,16 @@
     </row>
     <row r="235" spans="1:72">
       <c r="A235">
-        <v>1170422</v>
+        <v>1170417</v>
       </c>
       <c r="C235" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D235" t="s">
         <v>73</v>
       </c>
       <c r="G235" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O235">
         <v>0</v>
@@ -24123,7 +23880,7 @@
         <v>0</v>
       </c>
       <c r="BH235" t="s">
-        <v>590</v>
+        <v>130</v>
       </c>
       <c r="BM235">
         <v>0</v>
@@ -24143,16 +23900,16 @@
     </row>
     <row r="236" spans="1:72">
       <c r="A236">
-        <v>1170423</v>
+        <v>1170418</v>
       </c>
       <c r="C236" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D236" t="s">
         <v>73</v>
       </c>
       <c r="G236" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O236">
         <v>0</v>
@@ -24215,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="BH236" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BM236">
         <v>0</v>
@@ -24235,16 +23992,16 @@
     </row>
     <row r="237" spans="1:72">
       <c r="A237">
-        <v>1170424</v>
+        <v>1170419</v>
       </c>
       <c r="C237" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D237" t="s">
         <v>73</v>
       </c>
       <c r="G237" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O237">
         <v>0</v>
@@ -24305,9 +24062,6 @@
       </c>
       <c r="BG237">
         <v>0</v>
-      </c>
-      <c r="BH237" t="s">
-        <v>115</v>
       </c>
       <c r="BM237">
         <v>0</v>
@@ -24327,16 +24081,16 @@
     </row>
     <row r="238" spans="1:72">
       <c r="A238">
-        <v>1170425</v>
+        <v>1170420</v>
       </c>
       <c r="C238" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D238" t="s">
         <v>73</v>
       </c>
       <c r="G238" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O238">
         <v>0</v>
@@ -24399,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="BH238" t="s">
-        <v>129</v>
+        <v>600</v>
       </c>
       <c r="BM238">
         <v>0</v>
@@ -24414,6 +24168,466 @@
         <v>0</v>
       </c>
       <c r="BQ238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:72">
+      <c r="A239">
+        <v>1170421</v>
+      </c>
+      <c r="C239" t="s">
+        <v>601</v>
+      </c>
+      <c r="D239" t="s">
+        <v>73</v>
+      </c>
+      <c r="G239" t="s">
+        <v>602</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>1</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>0</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AS239">
+        <v>0</v>
+      </c>
+      <c r="AV239">
+        <v>0</v>
+      </c>
+      <c r="AX239">
+        <v>0</v>
+      </c>
+      <c r="AY239">
+        <v>0</v>
+      </c>
+      <c r="BA239">
+        <v>0</v>
+      </c>
+      <c r="BB239">
+        <v>0</v>
+      </c>
+      <c r="BC239">
+        <v>0</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>0</v>
+      </c>
+      <c r="BF239">
+        <v>0</v>
+      </c>
+      <c r="BG239">
+        <v>0</v>
+      </c>
+      <c r="BH239" t="s">
+        <v>600</v>
+      </c>
+      <c r="BM239">
+        <v>0</v>
+      </c>
+      <c r="BN239">
+        <v>0</v>
+      </c>
+      <c r="BO239">
+        <v>0</v>
+      </c>
+      <c r="BP239">
+        <v>0</v>
+      </c>
+      <c r="BQ239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:72">
+      <c r="A240">
+        <v>1170422</v>
+      </c>
+      <c r="C240" t="s">
+        <v>603</v>
+      </c>
+      <c r="D240" t="s">
+        <v>73</v>
+      </c>
+      <c r="G240" t="s">
+        <v>604</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AC240">
+        <v>1</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>0</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>0</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AS240">
+        <v>0</v>
+      </c>
+      <c r="AV240">
+        <v>0</v>
+      </c>
+      <c r="AX240">
+        <v>0</v>
+      </c>
+      <c r="AY240">
+        <v>0</v>
+      </c>
+      <c r="BA240">
+        <v>0</v>
+      </c>
+      <c r="BB240">
+        <v>0</v>
+      </c>
+      <c r="BC240">
+        <v>0</v>
+      </c>
+      <c r="BD240">
+        <v>0</v>
+      </c>
+      <c r="BE240">
+        <v>0</v>
+      </c>
+      <c r="BF240">
+        <v>0</v>
+      </c>
+      <c r="BG240">
+        <v>0</v>
+      </c>
+      <c r="BH240" t="s">
+        <v>600</v>
+      </c>
+      <c r="BM240">
+        <v>0</v>
+      </c>
+      <c r="BN240">
+        <v>0</v>
+      </c>
+      <c r="BO240">
+        <v>0</v>
+      </c>
+      <c r="BP240">
+        <v>0</v>
+      </c>
+      <c r="BQ240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:72">
+      <c r="A241">
+        <v>1170423</v>
+      </c>
+      <c r="C241" t="s">
+        <v>605</v>
+      </c>
+      <c r="D241" t="s">
+        <v>73</v>
+      </c>
+      <c r="G241" t="s">
+        <v>606</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AC241">
+        <v>1</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>0</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AS241">
+        <v>0</v>
+      </c>
+      <c r="AV241">
+        <v>0</v>
+      </c>
+      <c r="AX241">
+        <v>0</v>
+      </c>
+      <c r="AY241">
+        <v>0</v>
+      </c>
+      <c r="BA241">
+        <v>0</v>
+      </c>
+      <c r="BB241">
+        <v>0</v>
+      </c>
+      <c r="BC241">
+        <v>0</v>
+      </c>
+      <c r="BD241">
+        <v>0</v>
+      </c>
+      <c r="BE241">
+        <v>0</v>
+      </c>
+      <c r="BF241">
+        <v>0</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM241">
+        <v>0</v>
+      </c>
+      <c r="BN241">
+        <v>0</v>
+      </c>
+      <c r="BO241">
+        <v>0</v>
+      </c>
+      <c r="BP241">
+        <v>0</v>
+      </c>
+      <c r="BQ241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:72">
+      <c r="A242">
+        <v>1170424</v>
+      </c>
+      <c r="C242" t="s">
+        <v>607</v>
+      </c>
+      <c r="D242" t="s">
+        <v>73</v>
+      </c>
+      <c r="G242" t="s">
+        <v>608</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AC242">
+        <v>1</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AK242">
+        <v>0</v>
+      </c>
+      <c r="AL242">
+        <v>0</v>
+      </c>
+      <c r="AM242">
+        <v>0</v>
+      </c>
+      <c r="AS242">
+        <v>0</v>
+      </c>
+      <c r="AV242">
+        <v>0</v>
+      </c>
+      <c r="AX242">
+        <v>0</v>
+      </c>
+      <c r="AY242">
+        <v>0</v>
+      </c>
+      <c r="BA242">
+        <v>0</v>
+      </c>
+      <c r="BB242">
+        <v>0</v>
+      </c>
+      <c r="BC242">
+        <v>0</v>
+      </c>
+      <c r="BD242">
+        <v>0</v>
+      </c>
+      <c r="BE242">
+        <v>0</v>
+      </c>
+      <c r="BF242">
+        <v>0</v>
+      </c>
+      <c r="BG242">
+        <v>0</v>
+      </c>
+      <c r="BH242" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM242">
+        <v>0</v>
+      </c>
+      <c r="BN242">
+        <v>0</v>
+      </c>
+      <c r="BO242">
+        <v>0</v>
+      </c>
+      <c r="BP242">
+        <v>0</v>
+      </c>
+      <c r="BQ242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:72">
+      <c r="A243">
+        <v>1170425</v>
+      </c>
+      <c r="C243" t="s">
+        <v>609</v>
+      </c>
+      <c r="D243" t="s">
+        <v>73</v>
+      </c>
+      <c r="G243" t="s">
+        <v>610</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AC243">
+        <v>1</v>
+      </c>
+      <c r="AI243">
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <v>0</v>
+      </c>
+      <c r="AL243">
+        <v>0</v>
+      </c>
+      <c r="AM243">
+        <v>0</v>
+      </c>
+      <c r="AS243">
+        <v>0</v>
+      </c>
+      <c r="AV243">
+        <v>0</v>
+      </c>
+      <c r="AX243">
+        <v>0</v>
+      </c>
+      <c r="AY243">
+        <v>0</v>
+      </c>
+      <c r="BA243">
+        <v>0</v>
+      </c>
+      <c r="BB243">
+        <v>0</v>
+      </c>
+      <c r="BC243">
+        <v>0</v>
+      </c>
+      <c r="BD243">
+        <v>0</v>
+      </c>
+      <c r="BE243">
+        <v>0</v>
+      </c>
+      <c r="BF243">
+        <v>0</v>
+      </c>
+      <c r="BG243">
+        <v>0</v>
+      </c>
+      <c r="BH243" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM243">
+        <v>0</v>
+      </c>
+      <c r="BN243">
+        <v>0</v>
+      </c>
+      <c r="BO243">
+        <v>0</v>
+      </c>
+      <c r="BP243">
+        <v>0</v>
+      </c>
+      <c r="BQ243">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>id</t>
   </si>
@@ -233,108 +233,108 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Shiny Foil Paper</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Key to The Abandonded Church</t>
+  </si>
+  <si>
+    <t>Allows one to gain access to a place where the judges call home.</t>
+  </si>
+  <si>
+    <t>Holy Dirt</t>
+  </si>
+  <si>
+    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
+  </si>
+  <si>
+    <t>Roseary of yesteryear</t>
+  </si>
+  <si>
+    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
+  </si>
+  <si>
+    <t>Slaves Journal</t>
+  </si>
+  <si>
+    <t>A journal that details the work the slaves had to do in the mines.</t>
+  </si>
+  <si>
+    <t>Delusional Abandoned Gold Mines</t>
+  </si>
+  <si>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>A broken doll that was once treasured by a child.</t>
+  </si>
+  <si>
+    <t>Clerical Tome of Prayers</t>
+  </si>
+  <si>
+    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
+  </si>
+  <si>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
     <t>Shiny Metal Trinket</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
   </si>
   <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
-    <t>Key to The Abandonded Church</t>
-  </si>
-  <si>
-    <t>Allows one to gain access to a place where the judges call home.</t>
-  </si>
-  <si>
-    <t>Holy Dirt</t>
-  </si>
-  <si>
-    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
-  </si>
-  <si>
-    <t>Roseary of yesteryear</t>
-  </si>
-  <si>
-    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
-  </si>
-  <si>
-    <t>Slaves Journal</t>
-  </si>
-  <si>
-    <t>A journal that details the work the slaves had to do in the mines.</t>
-  </si>
-  <si>
-    <t>Delusional Abandoned Gold Mines</t>
-  </si>
-  <si>
-    <t>Dwarven Chains</t>
-  </si>
-  <si>
-    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
-  </si>
-  <si>
-    <t>Broken Childs Doll</t>
-  </si>
-  <si>
-    <t>A broken doll that was once treasured by a child.</t>
-  </si>
-  <si>
-    <t>Clerical Tome of Prayers</t>
-  </si>
-  <si>
-    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
-  </si>
-  <si>
-    <t>Federation Broach</t>
-  </si>
-  <si>
-    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
-  </si>
-  <si>
-    <t>Federation Controlled Town</t>
-  </si>
-  <si>
-    <t>Twisted Tree Branch</t>
-  </si>
-  <si>
-    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
-  </si>
-  <si>
-    <t>Childs Faceless Idol</t>
-  </si>
-  <si>
-    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
-  </si>
-  <si>
-    <t>mercenary-slot-bonus</t>
-  </si>
-  <si>
     <t>Emerald Necklace</t>
   </si>
   <si>
     <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
   </si>
   <si>
-    <t>Shiny Foil Paper</t>
-  </si>
-  <si>
-    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
-  </si>
-  <si>
     <t>Glinting Gem of The Deep</t>
   </si>
   <si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>A single hand mirror that shows you the past, the past of what was and what never was at the same time.</t>
+  </si>
+  <si>
+    <t>The River Mans Journal</t>
+  </si>
+  <si>
+    <t>A mysterious journal written by an old man simply known as The River Man</t>
   </si>
   <si>
     <t>Strand of golden hair</t>
@@ -2187,7 +2193,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT243"/>
+  <dimension ref="A1:BT244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,7 +2495,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1988073</v>
+        <v>1988074</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1170450</v>
+        <v>1988073</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="BH14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -3661,7 +3667,7 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1988074</v>
+        <v>1170450</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
@@ -3733,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="BH15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -4062,9 +4068,6 @@
       <c r="AV24">
         <v>0</v>
       </c>
-      <c r="BH24" t="s">
-        <v>78</v>
-      </c>
       <c r="BM24">
         <v>0</v>
       </c>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>1170438</v>
+        <v>1988106</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -4132,68 +4135,14 @@
       <c r="G26" t="s">
         <v>129</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
       <c r="AV26">
         <v>0</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
       <c r="BH26" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4213,16 +4162,16 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>1170427</v>
+        <v>1170438</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4285,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BH27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -4305,16 +4254,16 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>1170428</v>
+        <v>1170427</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4377,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="BH28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4397,16 +4346,16 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>1170429</v>
+        <v>1170428</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4467,6 +4416,9 @@
       </c>
       <c r="BG29">
         <v>0</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>138</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -4486,7 +4438,7 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>1170430</v>
+        <v>1170429</v>
       </c>
       <c r="C30" t="s">
         <v>139</v>
@@ -4575,7 +4527,7 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>1170431</v>
+        <v>1170430</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -4664,7 +4616,7 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>1170432</v>
+        <v>1170431</v>
       </c>
       <c r="C32" t="s">
         <v>143</v>
@@ -4753,7 +4705,7 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>1170433</v>
+        <v>1170432</v>
       </c>
       <c r="C33" t="s">
         <v>145</v>
@@ -4823,9 +4775,6 @@
       </c>
       <c r="BG33">
         <v>0</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>108</v>
       </c>
       <c r="BM33">
         <v>0</v>
@@ -4845,7 +4794,7 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>1170434</v>
+        <v>1170433</v>
       </c>
       <c r="C34" t="s">
         <v>147</v>
@@ -4937,7 +4886,7 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>1170435</v>
+        <v>1170434</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
@@ -5009,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="BH35" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="BM35">
         <v>0</v>
@@ -5029,16 +4978,16 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>1170436</v>
+        <v>1170435</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -5101,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="BH36" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="BM36">
         <v>0</v>
@@ -5121,7 +5070,7 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>1170437</v>
+        <v>1170436</v>
       </c>
       <c r="C37" t="s">
         <v>154</v>
@@ -5191,6 +5140,9 @@
       </c>
       <c r="BG37">
         <v>0</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>138</v>
       </c>
       <c r="BM37">
         <v>0</v>
@@ -5210,7 +5162,7 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>1170426</v>
+        <v>1170437</v>
       </c>
       <c r="C38" t="s">
         <v>156</v>
@@ -5280,9 +5232,6 @@
       </c>
       <c r="BG38">
         <v>0</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>136</v>
       </c>
       <c r="BM38">
         <v>0</v>
@@ -5302,7 +5251,7 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>1170439</v>
+        <v>1170426</v>
       </c>
       <c r="C39" t="s">
         <v>158</v>
@@ -5374,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5394,16 +5343,16 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>1170440</v>
+        <v>1170439</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -5466,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="BH40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5486,7 +5435,7 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>1170441</v>
+        <v>1170440</v>
       </c>
       <c r="C41" t="s">
         <v>163</v>
@@ -5558,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="BH41" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -5578,7 +5527,7 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>1170442</v>
+        <v>1170441</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
@@ -5650,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="BH42" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -5670,16 +5619,16 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>1170443</v>
+        <v>1170442</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5742,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="BH43" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -5762,7 +5711,7 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>1170444</v>
+        <v>1170443</v>
       </c>
       <c r="C44" t="s">
         <v>170</v>
@@ -5834,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="BH44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -5854,7 +5803,7 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>1170445</v>
+        <v>1170444</v>
       </c>
       <c r="C45" t="s">
         <v>172</v>
@@ -5926,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="BH45" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -5946,7 +5895,7 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>1170446</v>
+        <v>1170445</v>
       </c>
       <c r="C46" t="s">
         <v>174</v>
@@ -6018,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="BH46" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6038,7 +5987,7 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>1170447</v>
+        <v>1170446</v>
       </c>
       <c r="C47" t="s">
         <v>176</v>
@@ -6110,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="BH47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -6130,7 +6079,7 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>1170448</v>
+        <v>1170447</v>
       </c>
       <c r="C48" t="s">
         <v>178</v>
@@ -6202,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="BH48" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="BM48">
         <v>0</v>
@@ -6222,7 +6171,7 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>1170449</v>
+        <v>1170448</v>
       </c>
       <c r="C49" t="s">
         <v>180</v>
@@ -6294,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="BH49" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="BM49">
         <v>0</v>
@@ -6314,7 +6263,7 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>487</v>
+        <v>1170449</v>
       </c>
       <c r="C50" t="s">
         <v>182</v>
@@ -6337,12 +6286,6 @@
       <c r="AC50">
         <v>1</v>
       </c>
-      <c r="AG50" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH50">
-        <v>0.15</v>
-      </c>
       <c r="AI50">
         <v>0</v>
       </c>
@@ -6358,9 +6301,6 @@
       <c r="AM50">
         <v>0</v>
       </c>
-      <c r="AN50">
-        <v>0.25</v>
-      </c>
       <c r="AS50">
         <v>0</v>
       </c>
@@ -6393,6 +6333,9 @@
       </c>
       <c r="BG50">
         <v>0</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>132</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6412,22 +6355,16 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -6442,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH51">
         <v>0.15</v>
@@ -6516,16 +6453,22 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -6535,13 +6478,16 @@
       </c>
       <c r="Z52">
         <v>0</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>190</v>
       </c>
       <c r="AC52">
         <v>1</v>
       </c>
+      <c r="AG52" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH52">
+        <v>0.15</v>
+      </c>
       <c r="AI52">
         <v>0</v>
       </c>
@@ -6556,6 +6502,9 @@
       </c>
       <c r="AM52">
         <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0.25</v>
       </c>
       <c r="AS52">
         <v>0</v>
@@ -6608,35 +6557,32 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
+        <v>191</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="s">
         <v>192</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
       </c>
       <c r="AC53">
         <v>1</v>
       </c>
-      <c r="AG53" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH53">
-        <v>0.15</v>
-      </c>
       <c r="AI53">
         <v>0</v>
       </c>
@@ -6651,9 +6597,6 @@
       </c>
       <c r="AM53">
         <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0.25</v>
       </c>
       <c r="AS53">
         <v>0</v>
@@ -6706,22 +6649,16 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -6736,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="AG54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH54">
         <v>0.15</v>
@@ -6810,16 +6747,22 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -6834,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="AG55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH55">
         <v>0.15</v>
@@ -6908,16 +6851,16 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -6927,13 +6870,16 @@
       </c>
       <c r="Z56">
         <v>0</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>202</v>
       </c>
       <c r="AC56">
         <v>1</v>
       </c>
+      <c r="AG56" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH56">
+        <v>0.15</v>
+      </c>
       <c r="AI56">
         <v>0</v>
       </c>
@@ -6948,6 +6894,9 @@
       </c>
       <c r="AM56">
         <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0.25</v>
       </c>
       <c r="AS56">
         <v>0</v>
@@ -7000,34 +6949,28 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
+        <v>203</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="s">
         <v>204</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>205</v>
       </c>
       <c r="AC57">
         <v>1</v>
@@ -7098,34 +7041,37 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
+        <v>206</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="s">
         <v>207</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>208</v>
+      <c r="AC58">
+        <v>1</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -7193,34 +7139,34 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
+        <v>209</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="s">
         <v>210</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>211</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7288,34 +7234,34 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
+        <v>212</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="s">
         <v>213</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>1</v>
       </c>
       <c r="AI60">
         <v>0</v>
@@ -7383,7 +7329,7 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C61" t="s">
         <v>214</v>
@@ -7478,7 +7424,7 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C62" t="s">
         <v>216</v>
@@ -7507,12 +7453,6 @@
       <c r="AC62">
         <v>1</v>
       </c>
-      <c r="AG62" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH62">
-        <v>0.5</v>
-      </c>
       <c r="AI62">
         <v>0</v>
       </c>
@@ -7527,9 +7467,6 @@
       </c>
       <c r="AM62">
         <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>0.3</v>
       </c>
       <c r="AS62">
         <v>0</v>
@@ -7582,7 +7519,7 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C63" t="s">
         <v>218</v>
@@ -7612,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="AG63" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AH63">
         <v>0.5</v>
@@ -7686,7 +7623,7 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C64" t="s">
         <v>220</v>
@@ -7716,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="AG64" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AH64">
         <v>0.5</v>
@@ -7790,7 +7727,7 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C65" t="s">
         <v>222</v>
@@ -7820,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="AG65" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AH65">
         <v>0.5</v>
@@ -7894,7 +7831,7 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C66" t="s">
         <v>224</v>
@@ -7920,8 +7857,11 @@
       <c r="Z66">
         <v>0</v>
       </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
       <c r="AG66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH66">
         <v>0.5</v>
@@ -7995,7 +7935,7 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C67" t="s">
         <v>226</v>
@@ -8021,8 +7961,11 @@
       <c r="Z67">
         <v>0</v>
       </c>
-      <c r="AC67">
-        <v>1</v>
+      <c r="AG67" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH67">
+        <v>0.5</v>
       </c>
       <c r="AI67">
         <v>0</v>
@@ -8038,6 +7981,9 @@
       </c>
       <c r="AM67">
         <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0.3</v>
       </c>
       <c r="AS67">
         <v>0</v>
@@ -8090,7 +8036,7 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C68" t="s">
         <v>228</v>
@@ -8116,8 +8062,8 @@
       <c r="Z68">
         <v>0</v>
       </c>
-      <c r="AA68" t="s">
-        <v>230</v>
+      <c r="AC68">
+        <v>1</v>
       </c>
       <c r="AI68">
         <v>0</v>
@@ -8185,38 +8131,35 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
+        <v>231</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="s">
         <v>232</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH69">
-        <v>0.45</v>
-      </c>
       <c r="AI69">
         <v>0</v>
       </c>
@@ -8231,9 +8174,6 @@
       </c>
       <c r="AM69">
         <v>0</v>
-      </c>
-      <c r="AN69">
-        <v>0.45</v>
       </c>
       <c r="AS69">
         <v>0</v>
@@ -8286,34 +8226,34 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
+        <v>234</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="s">
         <v>235</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>236</v>
       </c>
       <c r="AH70">
         <v>0.45</v>
@@ -8387,34 +8327,37 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
+        <v>237</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="s">
         <v>238</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>239</v>
+      <c r="AH71">
+        <v>0.45</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8430,6 +8373,9 @@
       </c>
       <c r="AM71">
         <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0.45</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -8482,35 +8428,35 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
+        <v>240</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
         <v>241</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>239</v>
-      </c>
       <c r="AI72">
         <v>0</v>
       </c>
@@ -8554,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="BF72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG72">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM72">
         <v>0</v>
@@ -8577,7 +8523,7 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C73" t="s">
         <v>242</v>
@@ -8604,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -8649,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="BF73">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BG73">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -8672,7 +8618,7 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C74" t="s">
         <v>244</v>
@@ -8699,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="AA74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -8744,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="BF74">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BG74">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -8767,7 +8713,7 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C75" t="s">
         <v>246</v>
@@ -8793,6 +8739,9 @@
       <c r="Z75">
         <v>0</v>
       </c>
+      <c r="AA75" t="s">
+        <v>241</v>
+      </c>
       <c r="AI75">
         <v>0</v>
       </c>
@@ -8836,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="BF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -8859,7 +8808,7 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C76" t="s">
         <v>248</v>
@@ -8884,9 +8833,6 @@
       </c>
       <c r="Z76">
         <v>0</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>250</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -8954,34 +8900,34 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="s">
         <v>252</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>253</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -9049,34 +8995,34 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
+        <v>254</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="s">
         <v>255</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>256</v>
       </c>
       <c r="AI78">
         <v>0</v>
@@ -9144,31 +9090,34 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
+        <v>257</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="s">
         <v>258</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
       </c>
       <c r="AI79">
         <v>0</v>
@@ -9236,7 +9185,7 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C80" t="s">
         <v>259</v>
@@ -9328,7 +9277,7 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C81" t="s">
         <v>261</v>
@@ -9420,7 +9369,7 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C82" t="s">
         <v>263</v>
@@ -9445,9 +9394,6 @@
       </c>
       <c r="Z82">
         <v>0</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>265</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -9515,32 +9461,35 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
+        <v>266</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="s">
         <v>267</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
       <c r="AI83">
         <v>0</v>
       </c>
@@ -9588,9 +9537,6 @@
       </c>
       <c r="BG83">
         <v>0</v>
-      </c>
-      <c r="BH83" t="s">
-        <v>167</v>
       </c>
       <c r="BM83">
         <v>0</v>
@@ -9610,7 +9556,7 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C84" t="s">
         <v>268</v>
@@ -9685,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="BH84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -9705,7 +9651,7 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C85" t="s">
         <v>270</v>
@@ -9778,6 +9724,9 @@
       </c>
       <c r="BG85">
         <v>0</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>169</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -9797,7 +9746,7 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C86" t="s">
         <v>272</v>
@@ -9870,9 +9819,6 @@
       </c>
       <c r="BG86">
         <v>0</v>
-      </c>
-      <c r="BH86" t="s">
-        <v>108</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -9892,7 +9838,7 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C87" t="s">
         <v>274</v>
@@ -9918,9 +9864,6 @@
       <c r="Z87">
         <v>0</v>
       </c>
-      <c r="AA87" t="s">
-        <v>276</v>
-      </c>
       <c r="AI87">
         <v>0</v>
       </c>
@@ -9968,6 +9911,9 @@
       </c>
       <c r="BG87">
         <v>0</v>
+      </c>
+      <c r="BH87" t="s">
+        <v>108</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -9987,32 +9933,35 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
+        <v>277</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="s">
         <v>278</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
       <c r="AI88">
         <v>0</v>
       </c>
@@ -10060,9 +10009,6 @@
       </c>
       <c r="BG88">
         <v>0</v>
-      </c>
-      <c r="BH88" t="s">
-        <v>113</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -10082,7 +10028,7 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C89" t="s">
         <v>279</v>
@@ -10108,12 +10054,6 @@
       <c r="Z89">
         <v>0</v>
       </c>
-      <c r="AG89" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH89">
-        <v>0.25</v>
-      </c>
       <c r="AI89">
         <v>0</v>
       </c>
@@ -10129,9 +10069,6 @@
       <c r="AM89">
         <v>0</v>
       </c>
-      <c r="AN89">
-        <v>1</v>
-      </c>
       <c r="AS89">
         <v>0</v>
       </c>
@@ -10166,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="BH89" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="BM89">
         <v>0</v>
@@ -10186,37 +10123,37 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
+        <v>282</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="s">
         <v>283</v>
       </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>284</v>
-      </c>
       <c r="AH90">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -10270,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="BH90" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="BM90">
         <v>0</v>
@@ -10290,31 +10227,37 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
+        <v>285</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="s">
         <v>286</v>
       </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>0</v>
+      <c r="AH91">
+        <v>0.75</v>
       </c>
       <c r="AI91">
         <v>0</v>
@@ -10331,6 +10274,9 @@
       <c r="AM91">
         <v>0</v>
       </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
       <c r="AS91">
         <v>0</v>
       </c>
@@ -10363,6 +10309,9 @@
       </c>
       <c r="BG91">
         <v>0</v>
+      </c>
+      <c r="BH91" t="s">
+        <v>75</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10382,7 +10331,7 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C92" t="s">
         <v>287</v>
@@ -10408,12 +10357,6 @@
       <c r="Z92">
         <v>0</v>
       </c>
-      <c r="AG92" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH92">
-        <v>0.75</v>
-      </c>
       <c r="AI92">
         <v>0</v>
       </c>
@@ -10429,9 +10372,6 @@
       <c r="AM92">
         <v>0</v>
       </c>
-      <c r="AN92">
-        <v>2</v>
-      </c>
       <c r="AS92">
         <v>0</v>
       </c>
@@ -10460,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="BF92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG92">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM92">
         <v>0</v>
@@ -10483,34 +10423,37 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
+        <v>290</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="s">
         <v>291</v>
       </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>292</v>
+      <c r="AH93">
+        <v>0.75</v>
       </c>
       <c r="AI93">
         <v>0</v>
@@ -10527,6 +10470,9 @@
       <c r="AM93">
         <v>0</v>
       </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
       <c r="AS93">
         <v>0</v>
       </c>
@@ -10555,10 +10501,10 @@
         <v>0</v>
       </c>
       <c r="BF93">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="BG93">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="BM93">
         <v>0</v>
@@ -10578,35 +10524,35 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
+        <v>293</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="s">
         <v>294</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>295</v>
-      </c>
       <c r="AI94">
         <v>0</v>
       </c>
@@ -10650,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="BF94">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG94">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BM94">
         <v>0</v>
@@ -10673,31 +10619,34 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D95" t="s">
         <v>73</v>
       </c>
       <c r="G95" t="s">
+        <v>296</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="s">
         <v>297</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="Y95">
-        <v>0</v>
-      </c>
-      <c r="Z95">
-        <v>0</v>
       </c>
       <c r="AI95">
         <v>0</v>
@@ -10765,7 +10714,7 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C96" t="s">
         <v>298</v>
@@ -10838,9 +10787,6 @@
       </c>
       <c r="BG96">
         <v>0</v>
-      </c>
-      <c r="BH96" t="s">
-        <v>113</v>
       </c>
       <c r="BM96">
         <v>0</v>
@@ -10860,7 +10806,7 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C97" t="s">
         <v>300</v>
@@ -10933,6 +10879,9 @@
       </c>
       <c r="BG97">
         <v>0</v>
+      </c>
+      <c r="BH97" t="s">
+        <v>113</v>
       </c>
       <c r="BM97">
         <v>0</v>
@@ -10952,7 +10901,7 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C98" t="s">
         <v>302</v>
@@ -10993,9 +10942,21 @@
       <c r="AM98">
         <v>0</v>
       </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
       <c r="AV98">
         <v>0</v>
       </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
       <c r="BB98">
         <v>0</v>
       </c>
@@ -11013,9 +10974,6 @@
       </c>
       <c r="BG98">
         <v>0</v>
-      </c>
-      <c r="BH98" t="s">
-        <v>160</v>
       </c>
       <c r="BM98">
         <v>0</v>
@@ -11035,7 +10993,7 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C99" t="s">
         <v>304</v>
@@ -11076,21 +11034,9 @@
       <c r="AM99">
         <v>0</v>
       </c>
-      <c r="AS99">
-        <v>0</v>
-      </c>
       <c r="AV99">
         <v>0</v>
       </c>
-      <c r="AX99">
-        <v>0</v>
-      </c>
-      <c r="AY99">
-        <v>0</v>
-      </c>
-      <c r="BA99">
-        <v>0</v>
-      </c>
       <c r="BB99">
         <v>0</v>
       </c>
@@ -11108,6 +11054,9 @@
       </c>
       <c r="BG99">
         <v>0</v>
+      </c>
+      <c r="BH99" t="s">
+        <v>162</v>
       </c>
       <c r="BM99">
         <v>0</v>
@@ -11127,7 +11076,7 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C100" t="s">
         <v>306</v>
@@ -11219,7 +11168,7 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -11311,7 +11260,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C102" t="s">
         <v>310</v>
@@ -11384,9 +11333,6 @@
       </c>
       <c r="BG102">
         <v>0</v>
-      </c>
-      <c r="BH102" t="s">
-        <v>113</v>
       </c>
       <c r="BM102">
         <v>0</v>
@@ -11406,7 +11352,7 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C103" t="s">
         <v>312</v>
@@ -11481,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="BH103" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11501,7 +11447,7 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C104" t="s">
         <v>314</v>
@@ -11575,8 +11521,8 @@
       <c r="BG104">
         <v>0</v>
       </c>
-      <c r="BI104">
-        <v>0.15</v>
+      <c r="BH104" t="s">
+        <v>169</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -11596,7 +11542,7 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C105" t="s">
         <v>316</v>
@@ -11670,8 +11616,8 @@
       <c r="BG105">
         <v>0</v>
       </c>
-      <c r="BH105" t="s">
-        <v>75</v>
+      <c r="BI105">
+        <v>0.15</v>
       </c>
       <c r="BM105">
         <v>0</v>
@@ -11691,7 +11637,7 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
@@ -11766,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="BH106" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -11786,7 +11732,7 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C107" t="s">
         <v>320</v>
@@ -11861,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="BH107" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="BM107">
         <v>0</v>
@@ -11881,7 +11827,7 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C108" t="s">
         <v>322</v>
@@ -11955,8 +11901,8 @@
       <c r="BG108">
         <v>0</v>
       </c>
-      <c r="BI108">
-        <v>0.3</v>
+      <c r="BH108" t="s">
+        <v>78</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -11976,7 +11922,7 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C109" t="s">
         <v>324</v>
@@ -12050,8 +11996,8 @@
       <c r="BG109">
         <v>0</v>
       </c>
-      <c r="BH109" t="s">
-        <v>78</v>
+      <c r="BI109">
+        <v>0.3</v>
       </c>
       <c r="BM109">
         <v>0</v>
@@ -12071,7 +12017,7 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C110" t="s">
         <v>326</v>
@@ -12145,8 +12091,8 @@
       <c r="BG110">
         <v>0</v>
       </c>
-      <c r="BI110">
-        <v>0.5</v>
+      <c r="BH110" t="s">
+        <v>78</v>
       </c>
       <c r="BM110">
         <v>0</v>
@@ -12166,7 +12112,7 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C111" t="s">
         <v>328</v>
@@ -12241,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="BI111">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="BM111">
         <v>0</v>
@@ -12261,7 +12207,7 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C112" t="s">
         <v>330</v>
@@ -12335,11 +12281,8 @@
       <c r="BG112">
         <v>0</v>
       </c>
-      <c r="BH112" t="s">
-        <v>160</v>
-      </c>
       <c r="BI112">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="BM112">
         <v>0</v>
@@ -12359,7 +12302,7 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C113" t="s">
         <v>332</v>
@@ -12385,9 +12328,6 @@
       <c r="Z113">
         <v>0</v>
       </c>
-      <c r="AA113" t="s">
-        <v>334</v>
-      </c>
       <c r="AI113">
         <v>0</v>
       </c>
@@ -12435,6 +12375,12 @@
       </c>
       <c r="BG113">
         <v>0</v>
+      </c>
+      <c r="BH113" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI113">
+        <v>0.8</v>
       </c>
       <c r="BM113">
         <v>0</v>
@@ -12454,32 +12400,35 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
+        <v>335</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="s">
         <v>336</v>
       </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
       <c r="AI114">
         <v>0</v>
       </c>
@@ -12527,9 +12476,6 @@
       </c>
       <c r="BG114">
         <v>0</v>
-      </c>
-      <c r="BH114" t="s">
-        <v>108</v>
       </c>
       <c r="BM114">
         <v>0</v>
@@ -12549,7 +12495,7 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C115" t="s">
         <v>337</v>
@@ -12624,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="BH115" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -12644,7 +12590,7 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C116" t="s">
         <v>339</v>
@@ -12717,6 +12663,9 @@
       </c>
       <c r="BG116">
         <v>0</v>
+      </c>
+      <c r="BH116" t="s">
+        <v>75</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -12736,7 +12685,7 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C117" t="s">
         <v>341</v>
@@ -12761,9 +12710,6 @@
       </c>
       <c r="Z117">
         <v>0</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>343</v>
       </c>
       <c r="AI117">
         <v>0</v>
@@ -12831,32 +12777,35 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
       </c>
       <c r="G118" t="s">
+        <v>344</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="s">
         <v>345</v>
       </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
       <c r="AI118">
         <v>0</v>
       </c>
@@ -12904,15 +12853,6 @@
       </c>
       <c r="BG118">
         <v>0</v>
-      </c>
-      <c r="BH118" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI118">
-        <v>0.05</v>
-      </c>
-      <c r="BJ118">
-        <v>1</v>
       </c>
       <c r="BM118">
         <v>0</v>
@@ -12932,7 +12872,7 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C119" t="s">
         <v>346</v>
@@ -13006,8 +12946,11 @@
       <c r="BG119">
         <v>0</v>
       </c>
+      <c r="BH119" t="s">
+        <v>75</v>
+      </c>
       <c r="BI119">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="BJ119">
         <v>1</v>
@@ -13030,7 +12973,7 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C120" t="s">
         <v>348</v>
@@ -13104,11 +13047,8 @@
       <c r="BG120">
         <v>0</v>
       </c>
-      <c r="BH120" t="s">
-        <v>108</v>
-      </c>
       <c r="BI120">
-        <v>0.15</v>
+        <v>0.95</v>
       </c>
       <c r="BJ120">
         <v>1</v>
@@ -13131,7 +13071,7 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C121" t="s">
         <v>350</v>
@@ -13205,8 +13145,11 @@
       <c r="BG121">
         <v>0</v>
       </c>
+      <c r="BH121" t="s">
+        <v>108</v>
+      </c>
       <c r="BI121">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="BJ121">
         <v>1</v>
@@ -13229,7 +13172,7 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C122" t="s">
         <v>352</v>
@@ -13304,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="BI122">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="BJ122">
         <v>1</v>
@@ -13327,7 +13270,7 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C123" t="s">
         <v>354</v>
@@ -13400,6 +13343,12 @@
       </c>
       <c r="BG123">
         <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>1.6</v>
+      </c>
+      <c r="BJ123">
+        <v>1</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13419,7 +13368,7 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C124" t="s">
         <v>356</v>
@@ -13492,9 +13441,6 @@
       </c>
       <c r="BG124">
         <v>0</v>
-      </c>
-      <c r="BH124" t="s">
-        <v>151</v>
       </c>
       <c r="BM124">
         <v>0</v>
@@ -13514,7 +13460,7 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C125" t="s">
         <v>358</v>
@@ -13589,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="BH125" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="BM125">
         <v>0</v>
@@ -13609,7 +13555,7 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C126" t="s">
         <v>360</v>
@@ -13684,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="BH126" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BM126">
         <v>0</v>
@@ -13704,7 +13650,7 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C127" t="s">
         <v>362</v>
@@ -13779,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="BH127" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="BM127">
         <v>0</v>
@@ -13799,7 +13745,7 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C128" t="s">
         <v>364</v>
@@ -13873,11 +13819,8 @@
       <c r="BG128">
         <v>0</v>
       </c>
-      <c r="BI128">
-        <v>0.25</v>
-      </c>
-      <c r="BJ128">
-        <v>1</v>
+      <c r="BH128" t="s">
+        <v>169</v>
       </c>
       <c r="BM128">
         <v>0</v>
@@ -13897,7 +13840,7 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C129" t="s">
         <v>366</v>
@@ -13971,8 +13914,11 @@
       <c r="BG129">
         <v>0</v>
       </c>
-      <c r="BH129" t="s">
-        <v>108</v>
+      <c r="BI129">
+        <v>0.25</v>
+      </c>
+      <c r="BJ129">
+        <v>1</v>
       </c>
       <c r="BM129">
         <v>0</v>
@@ -13992,7 +13938,7 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C130" t="s">
         <v>368</v>
@@ -14064,13 +14010,10 @@
         <v>0</v>
       </c>
       <c r="BG130">
-        <v>0.35</v>
-      </c>
-      <c r="BI130">
-        <v>1.6</v>
-      </c>
-      <c r="BJ130">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH130" t="s">
+        <v>108</v>
       </c>
       <c r="BM130">
         <v>0</v>
@@ -14090,7 +14033,7 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C131" t="s">
         <v>370</v>
@@ -14162,10 +14105,13 @@
         <v>0</v>
       </c>
       <c r="BG131">
-        <v>0</v>
-      </c>
-      <c r="BH131" t="s">
-        <v>78</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI131">
+        <v>1.6</v>
+      </c>
+      <c r="BJ131">
+        <v>1</v>
       </c>
       <c r="BM131">
         <v>0</v>
@@ -14185,7 +14131,7 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C132" t="s">
         <v>372</v>
@@ -14211,12 +14157,6 @@
       <c r="Z132">
         <v>0</v>
       </c>
-      <c r="AG132" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH132">
-        <v>0.25</v>
-      </c>
       <c r="AI132">
         <v>0</v>
       </c>
@@ -14232,9 +14172,6 @@
       <c r="AM132">
         <v>0</v>
       </c>
-      <c r="AN132">
-        <v>0.25</v>
-      </c>
       <c r="AS132">
         <v>0</v>
       </c>
@@ -14267,6 +14204,9 @@
       </c>
       <c r="BG132">
         <v>0</v>
+      </c>
+      <c r="BH132" t="s">
+        <v>78</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -14286,7 +14226,7 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C133" t="s">
         <v>374</v>
@@ -14313,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="AG133" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="AH133">
         <v>0.25</v>
@@ -14387,34 +14327,37 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
+        <v>377</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="s">
         <v>378</v>
       </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>281</v>
+      <c r="AH134">
+        <v>0.25</v>
       </c>
       <c r="AI134">
         <v>0</v>
@@ -14485,7 +14428,7 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C135" t="s">
         <v>379</v>
@@ -14512,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="AG135" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="AI135">
         <v>0</v>
@@ -14583,35 +14526,35 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
+        <v>382</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AG136" t="s">
         <v>383</v>
       </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>376</v>
-      </c>
       <c r="AI136">
         <v>0</v>
       </c>
@@ -14628,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS136">
         <v>0</v>
@@ -14681,7 +14624,7 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C137" t="s">
         <v>384</v>
@@ -14708,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="AG137" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AI137">
         <v>0</v>
@@ -14726,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS137">
         <v>0</v>
@@ -14779,7 +14722,7 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C138" t="s">
         <v>386</v>
@@ -14806,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="AG138" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AI138">
         <v>0</v>
@@ -14824,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS138">
         <v>0</v>
@@ -14877,7 +14820,7 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C139" t="s">
         <v>388</v>
@@ -14904,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="AG139" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="AI139">
         <v>0</v>
@@ -14922,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS139">
         <v>0</v>
@@ -14975,7 +14918,7 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C140" t="s">
         <v>390</v>
@@ -15002,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="AG140" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AI140">
         <v>0</v>
@@ -15020,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS140">
         <v>0</v>
@@ -15073,7 +15016,7 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C141" t="s">
         <v>392</v>
@@ -15100,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="AG141" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AI141">
         <v>0</v>
@@ -15118,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS141">
         <v>0</v>
@@ -15171,7 +15114,7 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C142" t="s">
         <v>394</v>
@@ -15198,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="AG142" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AI142">
         <v>0</v>
@@ -15216,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS142">
         <v>0</v>
@@ -15269,7 +15212,7 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C143" t="s">
         <v>396</v>
@@ -15296,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="AG143" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AI143">
         <v>0</v>
@@ -15314,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS143">
         <v>0</v>
@@ -15367,7 +15310,7 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C144" t="s">
         <v>398</v>
@@ -15394,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="AG144" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AI144">
         <v>0</v>
@@ -15412,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="AN144">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS144">
         <v>0</v>
@@ -15465,7 +15408,7 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C145" t="s">
         <v>400</v>
@@ -15492,10 +15435,7 @@
         <v>0</v>
       </c>
       <c r="AG145" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH145">
-        <v>0.5</v>
+        <v>283</v>
       </c>
       <c r="AI145">
         <v>0</v>
@@ -15513,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="AN145">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AS145">
         <v>0</v>
@@ -15566,7 +15506,7 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
         <v>402</v>
@@ -15593,7 +15533,10 @@
         <v>0</v>
       </c>
       <c r="AG146" t="s">
-        <v>381</v>
+        <v>235</v>
+      </c>
+      <c r="AH146">
+        <v>0.5</v>
       </c>
       <c r="AI146">
         <v>0</v>
@@ -15611,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="AN146">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS146">
         <v>0</v>
@@ -15664,7 +15607,7 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C147" t="s">
         <v>404</v>
@@ -15691,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="AG147" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AI147">
         <v>0</v>
@@ -15709,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS147">
         <v>0</v>
@@ -15762,7 +15705,7 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C148" t="s">
         <v>406</v>
@@ -15789,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -15807,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS148">
         <v>0</v>
@@ -15860,7 +15803,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C149" t="s">
         <v>408</v>
@@ -15886,6 +15829,9 @@
       <c r="Z149">
         <v>0</v>
       </c>
+      <c r="AG149" t="s">
+        <v>383</v>
+      </c>
       <c r="AI149">
         <v>0</v>
       </c>
@@ -15901,6 +15847,9 @@
       <c r="AM149">
         <v>0</v>
       </c>
+      <c r="AN149">
+        <v>1.25</v>
+      </c>
       <c r="AS149">
         <v>0</v>
       </c>
@@ -15933,9 +15882,6 @@
       </c>
       <c r="BG149">
         <v>0</v>
-      </c>
-      <c r="BI149">
-        <v>0.05</v>
       </c>
       <c r="BM149">
         <v>0</v>
@@ -15955,7 +15901,7 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C150" t="s">
         <v>410</v>
@@ -15981,9 +15927,6 @@
       <c r="Z150">
         <v>0</v>
       </c>
-      <c r="AA150" t="s">
-        <v>412</v>
-      </c>
       <c r="AI150">
         <v>0</v>
       </c>
@@ -16031,6 +15974,9 @@
       </c>
       <c r="BG150">
         <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0.05</v>
       </c>
       <c r="BM150">
         <v>0</v>
@@ -16050,32 +15996,35 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
+        <v>413</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151" t="s">
         <v>414</v>
       </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
       <c r="AI151">
         <v>0</v>
       </c>
@@ -16123,12 +16072,6 @@
       </c>
       <c r="BG151">
         <v>0</v>
-      </c>
-      <c r="BI151">
-        <v>1.25</v>
-      </c>
-      <c r="BJ151">
-        <v>1</v>
       </c>
       <c r="BM151">
         <v>0</v>
@@ -16148,7 +16091,7 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C152" t="s">
         <v>415</v>
@@ -16174,9 +16117,6 @@
       <c r="Z152">
         <v>0</v>
       </c>
-      <c r="AA152" t="s">
-        <v>343</v>
-      </c>
       <c r="AI152">
         <v>0</v>
       </c>
@@ -16224,6 +16164,12 @@
       </c>
       <c r="BG152">
         <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>1.25</v>
+      </c>
+      <c r="BJ152">
+        <v>1</v>
       </c>
       <c r="BM152">
         <v>0</v>
@@ -16243,7 +16189,7 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C153" t="s">
         <v>417</v>
@@ -16269,8 +16215,8 @@
       <c r="Z153">
         <v>0</v>
       </c>
-      <c r="AG153" t="s">
-        <v>281</v>
+      <c r="AA153" t="s">
+        <v>345</v>
       </c>
       <c r="AI153">
         <v>0</v>
@@ -16286,9 +16232,6 @@
       </c>
       <c r="AM153">
         <v>0</v>
-      </c>
-      <c r="AN153">
-        <v>0.5</v>
       </c>
       <c r="AS153">
         <v>0</v>
@@ -16341,7 +16284,7 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C154" t="s">
         <v>419</v>
@@ -16368,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="AG154" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="AI154">
         <v>0</v>
@@ -16386,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="AN154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS154">
         <v>0</v>
@@ -16439,7 +16382,7 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C155" t="s">
         <v>421</v>
@@ -16465,6 +16408,9 @@
       <c r="Z155">
         <v>0</v>
       </c>
+      <c r="AG155" t="s">
+        <v>378</v>
+      </c>
       <c r="AI155">
         <v>0</v>
       </c>
@@ -16480,6 +16426,9 @@
       <c r="AM155">
         <v>0</v>
       </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
       <c r="AS155">
         <v>0</v>
       </c>
@@ -16512,12 +16461,6 @@
       </c>
       <c r="BG155">
         <v>0</v>
-      </c>
-      <c r="BI155">
-        <v>0.25</v>
-      </c>
-      <c r="BJ155">
-        <v>1</v>
       </c>
       <c r="BM155">
         <v>0</v>
@@ -16537,7 +16480,7 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C156" t="s">
         <v>423</v>
@@ -16610,6 +16553,12 @@
       </c>
       <c r="BG156">
         <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>0.25</v>
+      </c>
+      <c r="BJ156">
+        <v>1</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -16629,7 +16578,7 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C157" t="s">
         <v>425</v>
@@ -16655,15 +16604,6 @@
       <c r="Z157">
         <v>0</v>
       </c>
-      <c r="AC157">
-        <v>1</v>
-      </c>
-      <c r="AG157" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH157">
-        <v>0.5</v>
-      </c>
       <c r="AI157">
         <v>0</v>
       </c>
@@ -16678,9 +16618,6 @@
       </c>
       <c r="AM157">
         <v>0</v>
-      </c>
-      <c r="AN157">
-        <v>0.3</v>
       </c>
       <c r="AS157">
         <v>0</v>
@@ -16733,7 +16670,7 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C158" t="s">
         <v>427</v>
@@ -16744,6 +16681,12 @@
       <c r="G158" t="s">
         <v>428</v>
       </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
       <c r="O158">
         <v>0</v>
       </c>
@@ -16756,6 +16699,12 @@
       <c r="AC158">
         <v>1</v>
       </c>
+      <c r="AG158" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH158">
+        <v>0.5</v>
+      </c>
       <c r="AI158">
         <v>0</v>
       </c>
@@ -16771,6 +16720,9 @@
       <c r="AM158">
         <v>0</v>
       </c>
+      <c r="AN158">
+        <v>0.3</v>
+      </c>
       <c r="AS158">
         <v>0</v>
       </c>
@@ -16803,9 +16755,6 @@
       </c>
       <c r="BG158">
         <v>0</v>
-      </c>
-      <c r="BH158" t="s">
-        <v>151</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -16825,7 +16774,7 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C159" t="s">
         <v>429</v>
@@ -16897,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="BH159" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -16917,7 +16866,7 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C160" t="s">
         <v>431</v>
@@ -16940,12 +16889,6 @@
       <c r="AC160">
         <v>1</v>
       </c>
-      <c r="AG160" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH160">
-        <v>0.1</v>
-      </c>
       <c r="AI160">
         <v>0</v>
       </c>
@@ -16961,9 +16904,6 @@
       <c r="AM160">
         <v>0</v>
       </c>
-      <c r="AN160">
-        <v>0.15</v>
-      </c>
       <c r="AS160">
         <v>0</v>
       </c>
@@ -16996,6 +16936,9 @@
       </c>
       <c r="BG160">
         <v>0</v>
+      </c>
+      <c r="BH160" t="s">
+        <v>169</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -17015,16 +16958,16 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C161" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -17038,6 +16981,12 @@
       <c r="AC161">
         <v>1</v>
       </c>
+      <c r="AG161" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH161">
+        <v>0.1</v>
+      </c>
       <c r="AI161">
         <v>0</v>
       </c>
@@ -17053,6 +17002,9 @@
       <c r="AM161">
         <v>0</v>
       </c>
+      <c r="AN161">
+        <v>0.15</v>
+      </c>
       <c r="AS161">
         <v>0</v>
       </c>
@@ -17085,9 +17037,6 @@
       </c>
       <c r="BG161">
         <v>0</v>
-      </c>
-      <c r="BH161" t="s">
-        <v>78</v>
       </c>
       <c r="BM161">
         <v>0</v>
@@ -17107,7 +17056,7 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C162" t="s">
         <v>436</v>
@@ -17130,12 +17079,6 @@
       <c r="AC162">
         <v>1</v>
       </c>
-      <c r="AG162" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH162">
-        <v>0.25</v>
-      </c>
       <c r="AI162">
         <v>0</v>
       </c>
@@ -17151,9 +17094,6 @@
       <c r="AM162">
         <v>0</v>
       </c>
-      <c r="AN162">
-        <v>0.3</v>
-      </c>
       <c r="AS162">
         <v>0</v>
       </c>
@@ -17186,6 +17126,9 @@
       </c>
       <c r="BG162">
         <v>0</v>
+      </c>
+      <c r="BH162" t="s">
+        <v>78</v>
       </c>
       <c r="BM162">
         <v>0</v>
@@ -17205,7 +17148,7 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C163" t="s">
         <v>438</v>
@@ -17228,6 +17171,12 @@
       <c r="AC163">
         <v>1</v>
       </c>
+      <c r="AG163" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH163">
+        <v>0.25</v>
+      </c>
       <c r="AI163">
         <v>0</v>
       </c>
@@ -17243,6 +17192,9 @@
       <c r="AM163">
         <v>0</v>
       </c>
+      <c r="AN163">
+        <v>0.3</v>
+      </c>
       <c r="AS163">
         <v>0</v>
       </c>
@@ -17275,9 +17227,6 @@
       </c>
       <c r="BG163">
         <v>0</v>
-      </c>
-      <c r="BH163" t="s">
-        <v>160</v>
       </c>
       <c r="BM163">
         <v>0</v>
@@ -17297,7 +17246,7 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C164" t="s">
         <v>440</v>
@@ -17320,12 +17269,6 @@
       <c r="AC164">
         <v>1</v>
       </c>
-      <c r="AG164" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH164">
-        <v>0.35</v>
-      </c>
       <c r="AI164">
         <v>0</v>
       </c>
@@ -17341,9 +17284,6 @@
       <c r="AM164">
         <v>0</v>
       </c>
-      <c r="AN164">
-        <v>0.45</v>
-      </c>
       <c r="AS164">
         <v>0</v>
       </c>
@@ -17376,6 +17316,9 @@
       </c>
       <c r="BG164">
         <v>0</v>
+      </c>
+      <c r="BH164" t="s">
+        <v>162</v>
       </c>
       <c r="BM164">
         <v>0</v>
@@ -17395,7 +17338,7 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C165" t="s">
         <v>442</v>
@@ -17418,6 +17361,12 @@
       <c r="AC165">
         <v>1</v>
       </c>
+      <c r="AG165" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH165">
+        <v>0.35</v>
+      </c>
       <c r="AI165">
         <v>0</v>
       </c>
@@ -17433,6 +17382,9 @@
       <c r="AM165">
         <v>0</v>
       </c>
+      <c r="AN165">
+        <v>0.45</v>
+      </c>
       <c r="AS165">
         <v>0</v>
       </c>
@@ -17465,9 +17417,6 @@
       </c>
       <c r="BG165">
         <v>0</v>
-      </c>
-      <c r="BH165" t="s">
-        <v>113</v>
       </c>
       <c r="BM165">
         <v>0</v>
@@ -17487,7 +17436,7 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C166" t="s">
         <v>444</v>
@@ -17510,12 +17459,6 @@
       <c r="AC166">
         <v>1</v>
       </c>
-      <c r="AG166" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH166">
-        <v>0.5</v>
-      </c>
       <c r="AI166">
         <v>0</v>
       </c>
@@ -17531,9 +17474,6 @@
       <c r="AM166">
         <v>0</v>
       </c>
-      <c r="AN166">
-        <v>0.55</v>
-      </c>
       <c r="AS166">
         <v>0</v>
       </c>
@@ -17566,6 +17506,9 @@
       </c>
       <c r="BG166">
         <v>0</v>
+      </c>
+      <c r="BH166" t="s">
+        <v>113</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -17585,7 +17528,7 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C167" t="s">
         <v>446</v>
@@ -17608,6 +17551,12 @@
       <c r="AC167">
         <v>1</v>
       </c>
+      <c r="AG167" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH167">
+        <v>0.5</v>
+      </c>
       <c r="AI167">
         <v>0</v>
       </c>
@@ -17623,6 +17572,9 @@
       <c r="AM167">
         <v>0</v>
       </c>
+      <c r="AN167">
+        <v>0.55</v>
+      </c>
       <c r="AS167">
         <v>0</v>
       </c>
@@ -17655,9 +17607,6 @@
       </c>
       <c r="BG167">
         <v>0</v>
-      </c>
-      <c r="BH167" t="s">
-        <v>78</v>
       </c>
       <c r="BM167">
         <v>0</v>
@@ -17677,7 +17626,7 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C168" t="s">
         <v>448</v>
@@ -17747,6 +17696,9 @@
       </c>
       <c r="BG168">
         <v>0</v>
+      </c>
+      <c r="BH168" t="s">
+        <v>78</v>
       </c>
       <c r="BM168">
         <v>0</v>
@@ -17766,7 +17718,7 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C169" t="s">
         <v>450</v>
@@ -17855,7 +17807,7 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C170" t="s">
         <v>452</v>
@@ -17874,9 +17826,6 @@
       </c>
       <c r="Z170">
         <v>0</v>
-      </c>
-      <c r="AA170" t="s">
-        <v>454</v>
       </c>
       <c r="AC170">
         <v>1</v>
@@ -17947,25 +17896,28 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
+        <v>455</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="s">
         <v>456</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
       </c>
       <c r="AC171">
         <v>1</v>
@@ -18036,7 +17988,7 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C172" t="s">
         <v>457</v>
@@ -18125,7 +18077,7 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C173" t="s">
         <v>459</v>
@@ -18214,7 +18166,7 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C174" t="s">
         <v>461</v>
@@ -18303,7 +18255,7 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C175" t="s">
         <v>463</v>
@@ -18392,7 +18344,7 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C176" t="s">
         <v>465</v>
@@ -18462,9 +18414,6 @@
       </c>
       <c r="BG176">
         <v>0</v>
-      </c>
-      <c r="BH176" t="s">
-        <v>108</v>
       </c>
       <c r="BM176">
         <v>0</v>
@@ -18484,7 +18433,7 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C177" t="s">
         <v>467</v>
@@ -18556,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18576,7 +18525,7 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C178" t="s">
         <v>469</v>
@@ -18646,6 +18595,9 @@
       </c>
       <c r="BG178">
         <v>0</v>
+      </c>
+      <c r="BH178" t="s">
+        <v>162</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -18665,7 +18617,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C179" t="s">
         <v>471</v>
@@ -18735,9 +18687,6 @@
       </c>
       <c r="BG179">
         <v>0</v>
-      </c>
-      <c r="BH179" t="s">
-        <v>167</v>
       </c>
       <c r="BM179">
         <v>0</v>
@@ -18757,7 +18706,7 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C180" t="s">
         <v>473</v>
@@ -18827,6 +18776,9 @@
       </c>
       <c r="BG180">
         <v>0</v>
+      </c>
+      <c r="BH180" t="s">
+        <v>169</v>
       </c>
       <c r="BM180">
         <v>0</v>
@@ -18846,7 +18798,7 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C181" t="s">
         <v>475</v>
@@ -18916,9 +18868,6 @@
       </c>
       <c r="BG181">
         <v>0</v>
-      </c>
-      <c r="BH181" t="s">
-        <v>113</v>
       </c>
       <c r="BM181">
         <v>0</v>
@@ -18938,7 +18887,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C182" t="s">
         <v>477</v>
@@ -19010,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="BH182" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="BM182">
         <v>0</v>
@@ -19030,7 +18979,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C183" t="s">
         <v>479</v>
@@ -19100,6 +19049,9 @@
       </c>
       <c r="BG183">
         <v>0</v>
+      </c>
+      <c r="BH183" t="s">
+        <v>75</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -19119,7 +19071,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C184" t="s">
         <v>481</v>
@@ -19189,9 +19141,6 @@
       </c>
       <c r="BG184">
         <v>0</v>
-      </c>
-      <c r="BH184" t="s">
-        <v>78</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19211,7 +19160,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C185" t="s">
         <v>483</v>
@@ -19281,6 +19230,9 @@
       </c>
       <c r="BG185">
         <v>0</v>
+      </c>
+      <c r="BH185" t="s">
+        <v>78</v>
       </c>
       <c r="BM185">
         <v>0</v>
@@ -19300,7 +19252,7 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C186" t="s">
         <v>485</v>
@@ -19389,7 +19341,7 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C187" t="s">
         <v>487</v>
@@ -19478,7 +19430,7 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C188" t="s">
         <v>489</v>
@@ -19567,7 +19519,7 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C189" t="s">
         <v>491</v>
@@ -19656,7 +19608,7 @@
     </row>
     <row r="190" spans="1:72">
       <c r="A190">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C190" t="s">
         <v>493</v>
@@ -19745,7 +19697,7 @@
     </row>
     <row r="191" spans="1:72">
       <c r="A191">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C191" t="s">
         <v>495</v>
@@ -19834,7 +19786,7 @@
     </row>
     <row r="192" spans="1:72">
       <c r="A192">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C192" t="s">
         <v>497</v>
@@ -19923,7 +19875,7 @@
     </row>
     <row r="193" spans="1:72">
       <c r="A193">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C193" t="s">
         <v>499</v>
@@ -20012,7 +19964,7 @@
     </row>
     <row r="194" spans="1:72">
       <c r="A194">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C194" t="s">
         <v>501</v>
@@ -20101,7 +20053,7 @@
     </row>
     <row r="195" spans="1:72">
       <c r="A195">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C195" t="s">
         <v>503</v>
@@ -20190,7 +20142,7 @@
     </row>
     <row r="196" spans="1:72">
       <c r="A196">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C196" t="s">
         <v>505</v>
@@ -20279,7 +20231,7 @@
     </row>
     <row r="197" spans="1:72">
       <c r="A197">
-        <v>210180</v>
+        <v>633</v>
       </c>
       <c r="C197" t="s">
         <v>507</v>
@@ -20349,9 +20301,6 @@
       </c>
       <c r="BG197">
         <v>0</v>
-      </c>
-      <c r="BH197" t="s">
-        <v>509</v>
       </c>
       <c r="BM197">
         <v>0</v>
@@ -20371,16 +20320,16 @@
     </row>
     <row r="198" spans="1:72">
       <c r="A198">
-        <v>210181</v>
+        <v>210180</v>
       </c>
       <c r="C198" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20443,7 +20392,7 @@
         <v>0</v>
       </c>
       <c r="BH198" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20463,7 +20412,7 @@
     </row>
     <row r="199" spans="1:72">
       <c r="A199">
-        <v>210182</v>
+        <v>210181</v>
       </c>
       <c r="C199" t="s">
         <v>512</v>
@@ -20535,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="BH199" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="BM199">
         <v>0</v>
@@ -20555,16 +20504,16 @@
     </row>
     <row r="200" spans="1:72">
       <c r="A200">
-        <v>210183</v>
+        <v>210182</v>
       </c>
       <c r="C200" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20578,12 +20527,6 @@
       <c r="AC200">
         <v>1</v>
       </c>
-      <c r="AG200" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH200">
-        <v>0.35</v>
-      </c>
       <c r="AI200">
         <v>0</v>
       </c>
@@ -20599,9 +20542,6 @@
       <c r="AM200">
         <v>0</v>
       </c>
-      <c r="AN200">
-        <v>0.35</v>
-      </c>
       <c r="AS200">
         <v>0</v>
       </c>
@@ -20636,7 +20576,7 @@
         <v>0</v>
       </c>
       <c r="BH200" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="BM200">
         <v>0</v>
@@ -20656,7 +20596,7 @@
     </row>
     <row r="201" spans="1:72">
       <c r="A201">
-        <v>210184</v>
+        <v>210183</v>
       </c>
       <c r="C201" t="s">
         <v>517</v>
@@ -20679,6 +20619,12 @@
       <c r="AC201">
         <v>1</v>
       </c>
+      <c r="AG201" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH201">
+        <v>0.35</v>
+      </c>
       <c r="AI201">
         <v>0</v>
       </c>
@@ -20694,6 +20640,9 @@
       <c r="AM201">
         <v>0</v>
       </c>
+      <c r="AN201">
+        <v>0.35</v>
+      </c>
       <c r="AS201">
         <v>0</v>
       </c>
@@ -20728,7 +20677,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -20748,7 +20697,7 @@
     </row>
     <row r="202" spans="1:72">
       <c r="A202">
-        <v>210185</v>
+        <v>210184</v>
       </c>
       <c r="C202" t="s">
         <v>519</v>
@@ -20820,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="BH202" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="BM202">
         <v>0</v>
@@ -20840,7 +20789,7 @@
     </row>
     <row r="203" spans="1:72">
       <c r="A203">
-        <v>210186</v>
+        <v>210185</v>
       </c>
       <c r="C203" t="s">
         <v>521</v>
@@ -20860,9 +20809,6 @@
       <c r="Z203">
         <v>0</v>
       </c>
-      <c r="AA203" t="s">
-        <v>523</v>
-      </c>
       <c r="AC203">
         <v>1</v>
       </c>
@@ -20913,6 +20859,9 @@
       </c>
       <c r="BG203">
         <v>0</v>
+      </c>
+      <c r="BH203" t="s">
+        <v>516</v>
       </c>
       <c r="BM203">
         <v>0</v>
@@ -20932,25 +20881,28 @@
     </row>
     <row r="204" spans="1:72">
       <c r="A204">
-        <v>210187</v>
+        <v>210186</v>
       </c>
       <c r="C204" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
+        <v>524</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204" t="s">
         <v>525</v>
-      </c>
-      <c r="O204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
       </c>
       <c r="AC204">
         <v>1</v>
@@ -21002,9 +20954,6 @@
       </c>
       <c r="BG204">
         <v>0</v>
-      </c>
-      <c r="BH204" t="s">
-        <v>509</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -21024,7 +20973,7 @@
     </row>
     <row r="205" spans="1:72">
       <c r="A205">
-        <v>210188</v>
+        <v>210187</v>
       </c>
       <c r="C205" t="s">
         <v>526</v>
@@ -21094,6 +21043,9 @@
       </c>
       <c r="BG205">
         <v>0</v>
+      </c>
+      <c r="BH205" t="s">
+        <v>511</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21113,7 +21065,7 @@
     </row>
     <row r="206" spans="1:72">
       <c r="A206">
-        <v>210189</v>
+        <v>210188</v>
       </c>
       <c r="C206" t="s">
         <v>528</v>
@@ -21136,12 +21088,6 @@
       <c r="AC206">
         <v>1</v>
       </c>
-      <c r="AG206" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH206">
-        <v>0.6</v>
-      </c>
       <c r="AI206">
         <v>0</v>
       </c>
@@ -21157,9 +21103,6 @@
       <c r="AM206">
         <v>0</v>
       </c>
-      <c r="AN206">
-        <v>0.6</v>
-      </c>
       <c r="AS206">
         <v>0</v>
       </c>
@@ -21192,9 +21135,6 @@
       </c>
       <c r="BG206">
         <v>0</v>
-      </c>
-      <c r="BH206" t="s">
-        <v>530</v>
       </c>
       <c r="BM206">
         <v>0</v>
@@ -21214,16 +21154,16 @@
     </row>
     <row r="207" spans="1:72">
       <c r="A207">
-        <v>210190</v>
+        <v>210189</v>
       </c>
       <c r="C207" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21238,10 +21178,10 @@
         <v>1</v>
       </c>
       <c r="AG207" t="s">
-        <v>533</v>
+        <v>235</v>
       </c>
       <c r="AH207">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AI207">
         <v>0</v>
@@ -21259,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="AN207">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AS207">
         <v>0</v>
@@ -21295,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="BH207" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21315,16 +21255,16 @@
     </row>
     <row r="208" spans="1:72">
       <c r="A208">
-        <v>210191</v>
+        <v>210190</v>
       </c>
       <c r="C208" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21338,6 +21278,12 @@
       <c r="AC208">
         <v>1</v>
       </c>
+      <c r="AG208" t="s">
+        <v>535</v>
+      </c>
+      <c r="AH208">
+        <v>1</v>
+      </c>
       <c r="AI208">
         <v>0</v>
       </c>
@@ -21353,6 +21299,9 @@
       <c r="AM208">
         <v>0</v>
       </c>
+      <c r="AN208">
+        <v>1</v>
+      </c>
       <c r="AS208">
         <v>0</v>
       </c>
@@ -21387,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="BH208" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BM208">
         <v>0</v>
@@ -21407,7 +21356,7 @@
     </row>
     <row r="209" spans="1:72">
       <c r="A209">
-        <v>210192</v>
+        <v>210191</v>
       </c>
       <c r="C209" t="s">
         <v>536</v>
@@ -21430,12 +21379,6 @@
       <c r="AC209">
         <v>1</v>
       </c>
-      <c r="AG209" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH209">
-        <v>0.3</v>
-      </c>
       <c r="AI209">
         <v>0</v>
       </c>
@@ -21451,9 +21394,6 @@
       <c r="AM209">
         <v>0</v>
       </c>
-      <c r="AN209">
-        <v>0.3</v>
-      </c>
       <c r="AS209">
         <v>0</v>
       </c>
@@ -21488,7 +21428,7 @@
         <v>0</v>
       </c>
       <c r="BH209" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BM209">
         <v>0</v>
@@ -21508,7 +21448,7 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>210193</v>
+        <v>210192</v>
       </c>
       <c r="C210" t="s">
         <v>538</v>
@@ -21531,6 +21471,12 @@
       <c r="AC210">
         <v>1</v>
       </c>
+      <c r="AG210" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH210">
+        <v>0.3</v>
+      </c>
       <c r="AI210">
         <v>0</v>
       </c>
@@ -21546,6 +21492,9 @@
       <c r="AM210">
         <v>0</v>
       </c>
+      <c r="AN210">
+        <v>0.3</v>
+      </c>
       <c r="AS210">
         <v>0</v>
       </c>
@@ -21580,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="BH210" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -21600,7 +21549,7 @@
     </row>
     <row r="211" spans="1:72">
       <c r="A211">
-        <v>210194</v>
+        <v>210193</v>
       </c>
       <c r="C211" t="s">
         <v>540</v>
@@ -21672,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="BH211" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -21692,7 +21641,7 @@
     </row>
     <row r="212" spans="1:72">
       <c r="A212">
-        <v>210195</v>
+        <v>210194</v>
       </c>
       <c r="C212" t="s">
         <v>542</v>
@@ -21762,6 +21711,9 @@
       </c>
       <c r="BG212">
         <v>0</v>
+      </c>
+      <c r="BH212" t="s">
+        <v>532</v>
       </c>
       <c r="BM212">
         <v>0</v>
@@ -21781,7 +21733,7 @@
     </row>
     <row r="213" spans="1:72">
       <c r="A213">
-        <v>210196</v>
+        <v>210195</v>
       </c>
       <c r="C213" t="s">
         <v>544</v>
@@ -21870,7 +21822,7 @@
     </row>
     <row r="214" spans="1:72">
       <c r="A214">
-        <v>210197</v>
+        <v>210196</v>
       </c>
       <c r="C214" t="s">
         <v>546</v>
@@ -21940,9 +21892,6 @@
       </c>
       <c r="BG214">
         <v>0</v>
-      </c>
-      <c r="BH214" t="s">
-        <v>548</v>
       </c>
       <c r="BM214">
         <v>0</v>
@@ -21962,16 +21911,16 @@
     </row>
     <row r="215" spans="1:72">
       <c r="A215">
-        <v>210198</v>
+        <v>210197</v>
       </c>
       <c r="C215" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -22034,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="BH215" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22054,7 +22003,7 @@
     </row>
     <row r="216" spans="1:72">
       <c r="A216">
-        <v>210199</v>
+        <v>210198</v>
       </c>
       <c r="C216" t="s">
         <v>551</v>
@@ -22126,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="BH216" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22146,7 +22095,7 @@
     </row>
     <row r="217" spans="1:72">
       <c r="A217">
-        <v>210200</v>
+        <v>210199</v>
       </c>
       <c r="C217" t="s">
         <v>553</v>
@@ -22216,6 +22165,9 @@
       </c>
       <c r="BG217">
         <v>0</v>
+      </c>
+      <c r="BH217" t="s">
+        <v>550</v>
       </c>
       <c r="BM217">
         <v>0</v>
@@ -22235,7 +22187,7 @@
     </row>
     <row r="218" spans="1:72">
       <c r="A218">
-        <v>210201</v>
+        <v>210200</v>
       </c>
       <c r="C218" t="s">
         <v>555</v>
@@ -22305,9 +22257,6 @@
       </c>
       <c r="BG218">
         <v>0</v>
-      </c>
-      <c r="BH218" t="s">
-        <v>557</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22327,16 +22276,16 @@
     </row>
     <row r="219" spans="1:72">
       <c r="A219">
-        <v>210202</v>
+        <v>210201</v>
       </c>
       <c r="C219" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22350,12 +22299,6 @@
       <c r="AC219">
         <v>1</v>
       </c>
-      <c r="AG219" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH219">
-        <v>0.75</v>
-      </c>
       <c r="AI219">
         <v>0</v>
       </c>
@@ -22371,9 +22314,6 @@
       <c r="AM219">
         <v>0</v>
       </c>
-      <c r="AN219">
-        <v>1.25</v>
-      </c>
       <c r="AS219">
         <v>0</v>
       </c>
@@ -22408,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="BH219" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22428,7 +22368,7 @@
     </row>
     <row r="220" spans="1:72">
       <c r="A220">
-        <v>210203</v>
+        <v>210202</v>
       </c>
       <c r="C220" t="s">
         <v>560</v>
@@ -22452,10 +22392,10 @@
         <v>1</v>
       </c>
       <c r="AG220" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="AH220">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI220">
         <v>0</v>
@@ -22509,7 +22449,7 @@
         <v>0</v>
       </c>
       <c r="BH220" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="BM220">
         <v>0</v>
@@ -22529,7 +22469,7 @@
     </row>
     <row r="221" spans="1:72">
       <c r="A221">
-        <v>210204</v>
+        <v>210203</v>
       </c>
       <c r="C221" t="s">
         <v>562</v>
@@ -22552,6 +22492,12 @@
       <c r="AC221">
         <v>1</v>
       </c>
+      <c r="AG221" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH221">
+        <v>1</v>
+      </c>
       <c r="AI221">
         <v>0</v>
       </c>
@@ -22567,6 +22513,9 @@
       <c r="AM221">
         <v>0</v>
       </c>
+      <c r="AN221">
+        <v>1.25</v>
+      </c>
       <c r="AS221">
         <v>0</v>
       </c>
@@ -22601,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="BH221" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="BM221">
         <v>0</v>
@@ -22621,7 +22570,7 @@
     </row>
     <row r="222" spans="1:72">
       <c r="A222">
-        <v>210205</v>
+        <v>210204</v>
       </c>
       <c r="C222" t="s">
         <v>564</v>
@@ -22691,6 +22640,9 @@
       </c>
       <c r="BG222">
         <v>0</v>
+      </c>
+      <c r="BH222" t="s">
+        <v>559</v>
       </c>
       <c r="BM222">
         <v>0</v>
@@ -22710,7 +22662,7 @@
     </row>
     <row r="223" spans="1:72">
       <c r="A223">
-        <v>210206</v>
+        <v>210205</v>
       </c>
       <c r="C223" t="s">
         <v>566</v>
@@ -22729,9 +22681,6 @@
       </c>
       <c r="Z223">
         <v>0</v>
-      </c>
-      <c r="AA223" t="s">
-        <v>568</v>
       </c>
       <c r="AC223">
         <v>1</v>
@@ -22802,35 +22751,32 @@
     </row>
     <row r="224" spans="1:72">
       <c r="A224">
-        <v>210207</v>
+        <v>210206</v>
       </c>
       <c r="C224" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D224" t="s">
         <v>73</v>
       </c>
       <c r="G224" t="s">
+        <v>569</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224" t="s">
         <v>570</v>
-      </c>
-      <c r="O224">
-        <v>0</v>
-      </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
       </c>
       <c r="AC224">
         <v>1</v>
       </c>
-      <c r="AG224" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH224">
-        <v>1</v>
-      </c>
       <c r="AI224">
         <v>0</v>
       </c>
@@ -22846,9 +22792,6 @@
       <c r="AM224">
         <v>0</v>
       </c>
-      <c r="AN224">
-        <v>1.2</v>
-      </c>
       <c r="AS224">
         <v>0</v>
       </c>
@@ -22881,9 +22824,6 @@
       </c>
       <c r="BG224">
         <v>0</v>
-      </c>
-      <c r="BH224" t="s">
-        <v>509</v>
       </c>
       <c r="BM224">
         <v>0</v>
@@ -22903,7 +22843,7 @@
     </row>
     <row r="225" spans="1:72">
       <c r="A225">
-        <v>210208</v>
+        <v>210207</v>
       </c>
       <c r="C225" t="s">
         <v>571</v>
@@ -22926,6 +22866,12 @@
       <c r="AC225">
         <v>1</v>
       </c>
+      <c r="AG225" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
       <c r="AI225">
         <v>0</v>
       </c>
@@ -22941,6 +22887,9 @@
       <c r="AM225">
         <v>0</v>
       </c>
+      <c r="AN225">
+        <v>1.2</v>
+      </c>
       <c r="AS225">
         <v>0</v>
       </c>
@@ -22973,6 +22922,9 @@
       </c>
       <c r="BG225">
         <v>0</v>
+      </c>
+      <c r="BH225" t="s">
+        <v>511</v>
       </c>
       <c r="BM225">
         <v>0</v>
@@ -22992,7 +22944,7 @@
     </row>
     <row r="226" spans="1:72">
       <c r="A226">
-        <v>210209</v>
+        <v>210208</v>
       </c>
       <c r="C226" t="s">
         <v>573</v>
@@ -23081,7 +23033,7 @@
     </row>
     <row r="227" spans="1:72">
       <c r="A227">
-        <v>210210</v>
+        <v>210209</v>
       </c>
       <c r="C227" t="s">
         <v>575</v>
@@ -23151,9 +23103,6 @@
       </c>
       <c r="BG227">
         <v>0</v>
-      </c>
-      <c r="BH227" t="s">
-        <v>577</v>
       </c>
       <c r="BM227">
         <v>0</v>
@@ -23173,16 +23122,16 @@
     </row>
     <row r="228" spans="1:72">
       <c r="A228">
-        <v>210211</v>
+        <v>210210</v>
       </c>
       <c r="C228" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D228" t="s">
         <v>73</v>
       </c>
       <c r="G228" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O228">
         <v>0</v>
@@ -23245,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="BH228" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="BM228">
         <v>0</v>
@@ -23265,7 +23214,7 @@
     </row>
     <row r="229" spans="1:72">
       <c r="A229">
-        <v>210212</v>
+        <v>210211</v>
       </c>
       <c r="C229" t="s">
         <v>580</v>
@@ -23335,6 +23284,9 @@
       </c>
       <c r="BG229">
         <v>0</v>
+      </c>
+      <c r="BH229" t="s">
+        <v>579</v>
       </c>
       <c r="BM229">
         <v>0</v>
@@ -23354,7 +23306,7 @@
     </row>
     <row r="230" spans="1:72">
       <c r="A230">
-        <v>210213</v>
+        <v>210212</v>
       </c>
       <c r="C230" t="s">
         <v>582</v>
@@ -23424,9 +23376,6 @@
       </c>
       <c r="BG230">
         <v>0</v>
-      </c>
-      <c r="BH230" t="s">
-        <v>509</v>
       </c>
       <c r="BM230">
         <v>0</v>
@@ -23446,7 +23395,7 @@
     </row>
     <row r="231" spans="1:72">
       <c r="A231">
-        <v>210214</v>
+        <v>210213</v>
       </c>
       <c r="C231" t="s">
         <v>584</v>
@@ -23516,6 +23465,9 @@
       </c>
       <c r="BG231">
         <v>0</v>
+      </c>
+      <c r="BH231" t="s">
+        <v>511</v>
       </c>
       <c r="BM231">
         <v>0</v>
@@ -23535,7 +23487,7 @@
     </row>
     <row r="232" spans="1:72">
       <c r="A232">
-        <v>410519</v>
+        <v>210214</v>
       </c>
       <c r="C232" t="s">
         <v>586</v>
@@ -23624,7 +23576,7 @@
     </row>
     <row r="233" spans="1:72">
       <c r="A233">
-        <v>1170415</v>
+        <v>410519</v>
       </c>
       <c r="C233" t="s">
         <v>588</v>
@@ -23694,9 +23646,6 @@
       </c>
       <c r="BG233">
         <v>0</v>
-      </c>
-      <c r="BH233" t="s">
-        <v>136</v>
       </c>
       <c r="BM233">
         <v>0</v>
@@ -23716,7 +23665,7 @@
     </row>
     <row r="234" spans="1:72">
       <c r="A234">
-        <v>1170416</v>
+        <v>1170415</v>
       </c>
       <c r="C234" t="s">
         <v>590</v>
@@ -23788,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="BH234" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="BM234">
         <v>0</v>
@@ -23808,7 +23757,7 @@
     </row>
     <row r="235" spans="1:72">
       <c r="A235">
-        <v>1170417</v>
+        <v>1170416</v>
       </c>
       <c r="C235" t="s">
         <v>592</v>
@@ -23880,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="BH235" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="BM235">
         <v>0</v>
@@ -23900,7 +23849,7 @@
     </row>
     <row r="236" spans="1:72">
       <c r="A236">
-        <v>1170418</v>
+        <v>1170417</v>
       </c>
       <c r="C236" t="s">
         <v>594</v>
@@ -23972,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="BH236" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BM236">
         <v>0</v>
@@ -23992,7 +23941,7 @@
     </row>
     <row r="237" spans="1:72">
       <c r="A237">
-        <v>1170419</v>
+        <v>1170418</v>
       </c>
       <c r="C237" t="s">
         <v>596</v>
@@ -24062,6 +24011,9 @@
       </c>
       <c r="BG237">
         <v>0</v>
+      </c>
+      <c r="BH237" t="s">
+        <v>135</v>
       </c>
       <c r="BM237">
         <v>0</v>
@@ -24081,7 +24033,7 @@
     </row>
     <row r="238" spans="1:72">
       <c r="A238">
-        <v>1170420</v>
+        <v>1170419</v>
       </c>
       <c r="C238" t="s">
         <v>598</v>
@@ -24151,9 +24103,6 @@
       </c>
       <c r="BG238">
         <v>0</v>
-      </c>
-      <c r="BH238" t="s">
-        <v>600</v>
       </c>
       <c r="BM238">
         <v>0</v>
@@ -24173,16 +24122,16 @@
     </row>
     <row r="239" spans="1:72">
       <c r="A239">
-        <v>1170421</v>
+        <v>1170420</v>
       </c>
       <c r="C239" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D239" t="s">
         <v>73</v>
       </c>
       <c r="G239" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O239">
         <v>0</v>
@@ -24245,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="BH239" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="BM239">
         <v>0</v>
@@ -24265,7 +24214,7 @@
     </row>
     <row r="240" spans="1:72">
       <c r="A240">
-        <v>1170422</v>
+        <v>1170421</v>
       </c>
       <c r="C240" t="s">
         <v>603</v>
@@ -24337,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="BH240" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="BM240">
         <v>0</v>
@@ -24357,7 +24306,7 @@
     </row>
     <row r="241" spans="1:72">
       <c r="A241">
-        <v>1170423</v>
+        <v>1170422</v>
       </c>
       <c r="C241" t="s">
         <v>605</v>
@@ -24429,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="BH241" t="s">
-        <v>133</v>
+        <v>602</v>
       </c>
       <c r="BM241">
         <v>0</v>
@@ -24449,7 +24398,7 @@
     </row>
     <row r="242" spans="1:72">
       <c r="A242">
-        <v>1170424</v>
+        <v>1170423</v>
       </c>
       <c r="C242" t="s">
         <v>607</v>
@@ -24521,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="BH242" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="BM242">
         <v>0</v>
@@ -24541,7 +24490,7 @@
     </row>
     <row r="243" spans="1:72">
       <c r="A243">
-        <v>1170425</v>
+        <v>1170424</v>
       </c>
       <c r="C243" t="s">
         <v>609</v>
@@ -24613,7 +24562,7 @@
         <v>0</v>
       </c>
       <c r="BH243" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="BM243">
         <v>0</v>
@@ -24628,6 +24577,98 @@
         <v>0</v>
       </c>
       <c r="BQ243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:72">
+      <c r="A244">
+        <v>1170425</v>
+      </c>
+      <c r="C244" t="s">
+        <v>611</v>
+      </c>
+      <c r="D244" t="s">
+        <v>73</v>
+      </c>
+      <c r="G244" t="s">
+        <v>612</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
+        <v>1</v>
+      </c>
+      <c r="AI244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <v>0</v>
+      </c>
+      <c r="AL244">
+        <v>0</v>
+      </c>
+      <c r="AM244">
+        <v>0</v>
+      </c>
+      <c r="AS244">
+        <v>0</v>
+      </c>
+      <c r="AV244">
+        <v>0</v>
+      </c>
+      <c r="AX244">
+        <v>0</v>
+      </c>
+      <c r="AY244">
+        <v>0</v>
+      </c>
+      <c r="BA244">
+        <v>0</v>
+      </c>
+      <c r="BB244">
+        <v>0</v>
+      </c>
+      <c r="BC244">
+        <v>0</v>
+      </c>
+      <c r="BD244">
+        <v>0</v>
+      </c>
+      <c r="BE244">
+        <v>0</v>
+      </c>
+      <c r="BF244">
+        <v>0</v>
+      </c>
+      <c r="BG244">
+        <v>0</v>
+      </c>
+      <c r="BH244" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM244">
+        <v>0</v>
+      </c>
+      <c r="BN244">
+        <v>0</v>
+      </c>
+      <c r="BO244">
+        <v>0</v>
+      </c>
+      <c r="BP244">
+        <v>0</v>
+      </c>
+      <c r="BQ244">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
   <si>
     <t>id</t>
   </si>
@@ -233,100 +233,103 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Shiny Metal Trinket</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Key to The Abandonded Church</t>
+  </si>
+  <si>
+    <t>Allows one to gain access to a place where the judges call home.</t>
+  </si>
+  <si>
+    <t>Holy Dirt</t>
+  </si>
+  <si>
+    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
+  </si>
+  <si>
+    <t>Roseary of yesteryear</t>
+  </si>
+  <si>
+    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
+  </si>
+  <si>
+    <t>Slaves Journal</t>
+  </si>
+  <si>
+    <t>A journal that details the work the slaves had to do in the mines.</t>
+  </si>
+  <si>
+    <t>Delusional Abandoned Gold Mines</t>
+  </si>
+  <si>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>A broken doll that was once treasured by a child.</t>
+  </si>
+  <si>
+    <t>Clerical Tome of Prayers</t>
+  </si>
+  <si>
+    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
+  </si>
+  <si>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>access-twisted-memories</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
     <t>Shiny Foil Paper</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
-  </si>
-  <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
-    <t>Dry Firewood</t>
-  </si>
-  <si>
-    <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
-  </si>
-  <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
-    <t>Key to The Abandonded Church</t>
-  </si>
-  <si>
-    <t>Allows one to gain access to a place where the judges call home.</t>
-  </si>
-  <si>
-    <t>Holy Dirt</t>
-  </si>
-  <si>
-    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
-  </si>
-  <si>
-    <t>Roseary of yesteryear</t>
-  </si>
-  <si>
-    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
-  </si>
-  <si>
-    <t>Slaves Journal</t>
-  </si>
-  <si>
-    <t>A journal that details the work the slaves had to do in the mines.</t>
-  </si>
-  <si>
-    <t>Delusional Abandoned Gold Mines</t>
-  </si>
-  <si>
-    <t>Dwarven Chains</t>
-  </si>
-  <si>
-    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
-  </si>
-  <si>
-    <t>Broken Childs Doll</t>
-  </si>
-  <si>
-    <t>A broken doll that was once treasured by a child.</t>
-  </si>
-  <si>
-    <t>Clerical Tome of Prayers</t>
-  </si>
-  <si>
-    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
-  </si>
-  <si>
-    <t>Federation Broach</t>
-  </si>
-  <si>
-    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
-  </si>
-  <si>
-    <t>Federation Controlled Town</t>
-  </si>
-  <si>
-    <t>Twisted Tree Branch</t>
-  </si>
-  <si>
-    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
-  </si>
-  <si>
-    <t>Childs Faceless Idol</t>
-  </si>
-  <si>
-    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
-  </si>
-  <si>
-    <t>mercenary-slot-bonus</t>
-  </si>
-  <si>
-    <t>Shiny Metal Trinket</t>
-  </si>
-  <si>
-    <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
   </si>
   <si>
     <t>Emerald Necklace</t>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>1988074</v>
+        <v>2024675</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3414,6 +3417,9 @@
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AA12" t="s">
+        <v>99</v>
+      </c>
       <c r="AC12">
         <v>1</v>
       </c>
@@ -3432,19 +3438,7 @@
       <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
       <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
@@ -3486,13 +3480,13 @@
         <v>1170461</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3504,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -3575,16 +3569,16 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>1988073</v>
+        <v>2024674</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3670,13 +3664,13 @@
         <v>1170450</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3759,25 +3753,79 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>1988096</v>
+        <v>2024676</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
       <c r="AV16">
         <v>0</v>
       </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
       <c r="BH16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3797,21 +3845,75 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>1988097</v>
+        <v>2024677</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>1</v>
       </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
       <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
         <v>0</v>
       </c>
       <c r="BH17" t="s">
@@ -3835,25 +3937,79 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>1988098</v>
+        <v>2024678</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>1</v>
       </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
       <c r="AV18">
         <v>0</v>
       </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
       <c r="BH18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -3873,21 +4029,75 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>1988099</v>
+        <v>2024679</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>1</v>
       </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
       <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
         <v>0</v>
       </c>
       <c r="BM19">
@@ -3908,21 +4118,75 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>1988100</v>
+        <v>2024680</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>1</v>
       </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
       <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
         <v>0</v>
       </c>
       <c r="BM20">
@@ -3943,21 +4207,75 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>1988101</v>
+        <v>2024681</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
       <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
         <v>0</v>
       </c>
       <c r="BH21" t="s">
@@ -3981,21 +4299,75 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>1988102</v>
+        <v>2024682</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
       <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
         <v>0</v>
       </c>
       <c r="BM22">
@@ -4016,21 +4388,75 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>1988103</v>
+        <v>2024683</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
       <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
         <v>0</v>
       </c>
       <c r="BM23">
@@ -4051,21 +4477,75 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>1988104</v>
+        <v>2024684</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>1</v>
       </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
       <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
         <v>0</v>
       </c>
       <c r="BM24">
@@ -4086,21 +4566,75 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>1988105</v>
+        <v>2024685</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>1</v>
       </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
       <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
         <v>0</v>
       </c>
       <c r="BH25" t="s">
@@ -4124,25 +4658,79 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>1988106</v>
+        <v>2024686</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>1</v>
       </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
       <c r="AV26">
         <v>0</v>
       </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
       <c r="BH26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4165,13 +4753,13 @@
         <v>1170438</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4234,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BH27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -4257,13 +4845,13 @@
         <v>1170427</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4326,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="BH28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4349,13 +4937,13 @@
         <v>1170428</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4418,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="BH29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -4441,13 +5029,13 @@
         <v>1170429</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4530,13 +5118,13 @@
         <v>1170430</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4619,13 +5207,13 @@
         <v>1170431</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4708,13 +5296,13 @@
         <v>1170432</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4797,13 +5385,13 @@
         <v>1170433</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4866,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="BH34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -4889,13 +5477,13 @@
         <v>1170434</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -4958,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="BH35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM35">
         <v>0</v>
@@ -4981,13 +5569,13 @@
         <v>1170435</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -5050,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="BH36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BM36">
         <v>0</v>
@@ -5073,13 +5661,13 @@
         <v>1170436</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -5142,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="BH37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM37">
         <v>0</v>
@@ -5165,13 +5753,13 @@
         <v>1170437</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -5254,13 +5842,13 @@
         <v>1170426</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -5323,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5346,13 +5934,13 @@
         <v>1170439</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -5415,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="BH40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -5438,13 +6026,13 @@
         <v>1170440</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -5507,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="BH41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -5530,13 +6118,13 @@
         <v>1170441</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5599,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="BH42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -5622,13 +6210,13 @@
         <v>1170442</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5691,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -5714,13 +6302,13 @@
         <v>1170443</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
         <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -5783,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="BH44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -5806,13 +6394,13 @@
         <v>1170444</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -5875,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="BH45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -5898,13 +6486,13 @@
         <v>1170445</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -5967,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="BH46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -5990,13 +6578,13 @@
         <v>1170446</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -6059,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="BH47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -6082,13 +6670,13 @@
         <v>1170447</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6151,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="BH48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BM48">
         <v>0</v>
@@ -6174,13 +6762,13 @@
         <v>1170448</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -6266,13 +6854,13 @@
         <v>1170449</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -6335,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="BH50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6358,13 +6946,13 @@
         <v>487</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -6379,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="AG51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH51">
         <v>0.15</v>
@@ -6456,13 +7044,13 @@
         <v>488</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6483,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AG52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH52">
         <v>0.15</v>
@@ -6560,13 +7148,13 @@
         <v>489</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -6578,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="AA53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC53">
         <v>1</v>
@@ -6652,13 +7240,13 @@
         <v>490</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -6673,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="AG54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH54">
         <v>0.15</v>
@@ -6750,13 +7338,13 @@
         <v>491</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -6777,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="AG55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH55">
         <v>0.15</v>
@@ -6854,13 +7442,13 @@
         <v>492</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -6875,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="AG56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH56">
         <v>0.15</v>
@@ -6952,13 +7540,13 @@
         <v>493</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -6970,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC57">
         <v>1</v>
@@ -7044,13 +7632,13 @@
         <v>494</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7068,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC58">
         <v>1</v>
@@ -7142,13 +7730,13 @@
         <v>495</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7166,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7237,13 +7825,13 @@
         <v>496</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7261,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AI60">
         <v>0</v>
@@ -7332,13 +7920,13 @@
         <v>497</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7427,13 +8015,13 @@
         <v>498</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7522,13 +8110,13 @@
         <v>499</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -7549,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="AG63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH63">
         <v>0.5</v>
@@ -7626,13 +8214,13 @@
         <v>500</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -7653,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AG64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH64">
         <v>0.5</v>
@@ -7730,13 +8318,13 @@
         <v>501</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -7757,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="AG65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH65">
         <v>0.5</v>
@@ -7834,13 +8422,13 @@
         <v>502</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7861,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="AG66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH66">
         <v>0.5</v>
@@ -7938,13 +8526,13 @@
         <v>503</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -7962,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="AG67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH67">
         <v>0.5</v>
@@ -8039,13 +8627,13 @@
         <v>504</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8134,13 +8722,13 @@
         <v>505</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8158,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="AA69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -8229,13 +8817,13 @@
         <v>506</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8253,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="AG70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH70">
         <v>0.45</v>
@@ -8330,13 +8918,13 @@
         <v>507</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8354,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AG71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH71">
         <v>0.45</v>
@@ -8431,13 +9019,13 @@
         <v>508</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8455,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72">
         <v>0</v>
@@ -8526,13 +9114,13 @@
         <v>509</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8550,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -8621,13 +9209,13 @@
         <v>510</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8645,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="AA74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -8716,13 +9304,13 @@
         <v>511</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8740,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="AA75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -8811,13 +9399,13 @@
         <v>512</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -8903,13 +9491,13 @@
         <v>513</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -8927,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AA77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -8998,13 +9586,13 @@
         <v>514</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9022,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="AA78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI78">
         <v>0</v>
@@ -9093,13 +9681,13 @@
         <v>515</v>
       </c>
       <c r="C79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9117,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI79">
         <v>0</v>
@@ -9188,13 +9776,13 @@
         <v>516</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9280,13 +9868,13 @@
         <v>517</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9372,13 +9960,13 @@
         <v>518</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9464,13 +10052,13 @@
         <v>519</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9488,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="AA83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI83">
         <v>0</v>
@@ -9559,13 +10147,13 @@
         <v>520</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9631,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="BH84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -9654,13 +10242,13 @@
         <v>521</v>
       </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9726,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="BH85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -9749,13 +10337,13 @@
         <v>522</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -9841,13 +10429,13 @@
         <v>523</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -9913,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="BH87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -9936,13 +10524,13 @@
         <v>524</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -9960,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AA88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI88">
         <v>0</v>
@@ -10031,13 +10619,13 @@
         <v>525</v>
       </c>
       <c r="C89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10103,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="BH89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM89">
         <v>0</v>
@@ -10126,13 +10714,13 @@
         <v>526</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10150,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="AG90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AH90">
         <v>0.25</v>
@@ -10207,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="BH90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM90">
         <v>0</v>
@@ -10230,13 +10818,13 @@
         <v>527</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10254,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="AG91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AH91">
         <v>0.75</v>
@@ -10334,13 +10922,13 @@
         <v>528</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -10426,13 +11014,13 @@
         <v>529</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -10450,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="AG93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH93">
         <v>0.75</v>
@@ -10527,13 +11115,13 @@
         <v>530</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -10551,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -10622,13 +11210,13 @@
         <v>531</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D95" t="s">
         <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -10646,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="AA95" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AI95">
         <v>0</v>
@@ -10717,13 +11305,13 @@
         <v>532</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D96" t="s">
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -10809,13 +11397,13 @@
         <v>533</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
         <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -10881,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="BH97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM97">
         <v>0</v>
@@ -10904,13 +11492,13 @@
         <v>534</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -10996,13 +11584,13 @@
         <v>535</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -11056,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BH99" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM99">
         <v>0</v>
@@ -11079,13 +11667,13 @@
         <v>536</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11171,13 +11759,13 @@
         <v>537</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D101" t="s">
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -11263,13 +11851,13 @@
         <v>538</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D102" t="s">
         <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -11355,13 +11943,13 @@
         <v>539</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D103" t="s">
         <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -11427,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="BH103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11450,13 +12038,13 @@
         <v>540</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -11522,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="BH104" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -11545,13 +12133,13 @@
         <v>541</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -11640,13 +12228,13 @@
         <v>542</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
         <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -11735,13 +12323,13 @@
         <v>543</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="G107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -11807,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="BH107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM107">
         <v>0</v>
@@ -11830,13 +12418,13 @@
         <v>544</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -11925,13 +12513,13 @@
         <v>545</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12020,13 +12608,13 @@
         <v>546</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12115,13 +12703,13 @@
         <v>547</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12210,13 +12798,13 @@
         <v>548</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12305,13 +12893,13 @@
         <v>549</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12377,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="BH113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BI113">
         <v>0.8</v>
@@ -12403,13 +12991,13 @@
         <v>550</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -12427,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="AA114" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI114">
         <v>0</v>
@@ -12498,13 +13086,13 @@
         <v>551</v>
       </c>
       <c r="C115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -12570,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="BH115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -12593,13 +13181,13 @@
         <v>552</v>
       </c>
       <c r="C116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -12688,13 +13276,13 @@
         <v>553</v>
       </c>
       <c r="C117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -12780,13 +13368,13 @@
         <v>554</v>
       </c>
       <c r="C118" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -12804,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="AA118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -12875,13 +13463,13 @@
         <v>555</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D119" t="s">
         <v>73</v>
       </c>
       <c r="G119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -12976,13 +13564,13 @@
         <v>556</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D120" t="s">
         <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -13074,13 +13662,13 @@
         <v>557</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D121" t="s">
         <v>73</v>
       </c>
       <c r="G121" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -13146,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="BH121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BI121">
         <v>0.15</v>
@@ -13175,13 +13763,13 @@
         <v>558</v>
       </c>
       <c r="C122" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D122" t="s">
         <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -13273,13 +13861,13 @@
         <v>559</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -13371,13 +13959,13 @@
         <v>560</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -13463,13 +14051,13 @@
         <v>561</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -13535,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="BH125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BM125">
         <v>0</v>
@@ -13558,13 +14146,13 @@
         <v>562</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -13630,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="BH126" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM126">
         <v>0</v>
@@ -13653,13 +14241,13 @@
         <v>563</v>
       </c>
       <c r="C127" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -13725,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="BH127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BM127">
         <v>0</v>
@@ -13748,13 +14336,13 @@
         <v>564</v>
       </c>
       <c r="C128" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D128" t="s">
         <v>73</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -13820,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="BH128" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM128">
         <v>0</v>
@@ -13843,13 +14431,13 @@
         <v>565</v>
       </c>
       <c r="C129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s">
         <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -13941,13 +14529,13 @@
         <v>566</v>
       </c>
       <c r="C130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D130" t="s">
         <v>73</v>
       </c>
       <c r="G130" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -14013,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="BH130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM130">
         <v>0</v>
@@ -14036,13 +14624,13 @@
         <v>567</v>
       </c>
       <c r="C131" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D131" t="s">
         <v>73</v>
       </c>
       <c r="G131" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -14134,13 +14722,13 @@
         <v>568</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D132" t="s">
         <v>73</v>
       </c>
       <c r="G132" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -14229,13 +14817,13 @@
         <v>569</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D133" t="s">
         <v>73</v>
       </c>
       <c r="G133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14253,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="AG133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH133">
         <v>0.25</v>
@@ -14330,13 +14918,13 @@
         <v>570</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -14354,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="AG134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH134">
         <v>0.25</v>
@@ -14431,13 +15019,13 @@
         <v>571</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -14455,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="AG135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI135">
         <v>0</v>
@@ -14529,13 +15117,13 @@
         <v>572</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -14553,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="AG136" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI136">
         <v>0</v>
@@ -14627,13 +15215,13 @@
         <v>573</v>
       </c>
       <c r="C137" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D137" t="s">
         <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -14651,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="AG137" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI137">
         <v>0</v>
@@ -14725,13 +15313,13 @@
         <v>574</v>
       </c>
       <c r="C138" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D138" t="s">
         <v>73</v>
       </c>
       <c r="G138" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -14749,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="AG138" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI138">
         <v>0</v>
@@ -14823,13 +15411,13 @@
         <v>575</v>
       </c>
       <c r="C139" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
         <v>73</v>
       </c>
       <c r="G139" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -14847,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="AG139" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI139">
         <v>0</v>
@@ -14921,13 +15509,13 @@
         <v>576</v>
       </c>
       <c r="C140" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D140" t="s">
         <v>73</v>
       </c>
       <c r="G140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -14945,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="AG140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI140">
         <v>0</v>
@@ -15019,13 +15607,13 @@
         <v>577</v>
       </c>
       <c r="C141" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
         <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -15043,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="AG141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI141">
         <v>0</v>
@@ -15117,13 +15705,13 @@
         <v>578</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
         <v>73</v>
       </c>
       <c r="G142" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -15141,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="AG142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI142">
         <v>0</v>
@@ -15215,13 +15803,13 @@
         <v>579</v>
       </c>
       <c r="C143" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
         <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -15239,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="AG143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI143">
         <v>0</v>
@@ -15313,13 +15901,13 @@
         <v>580</v>
       </c>
       <c r="C144" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D144" t="s">
         <v>73</v>
       </c>
       <c r="G144" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -15337,7 +15925,7 @@
         <v>0</v>
       </c>
       <c r="AG144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI144">
         <v>0</v>
@@ -15411,13 +15999,13 @@
         <v>581</v>
       </c>
       <c r="C145" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
       </c>
       <c r="G145" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -15435,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="AG145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI145">
         <v>0</v>
@@ -15509,13 +16097,13 @@
         <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D146" t="s">
         <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -15533,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="AG146" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH146">
         <v>0.5</v>
@@ -15610,13 +16198,13 @@
         <v>583</v>
       </c>
       <c r="C147" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D147" t="s">
         <v>73</v>
       </c>
       <c r="G147" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -15634,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="AG147" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI147">
         <v>0</v>
@@ -15708,13 +16296,13 @@
         <v>584</v>
       </c>
       <c r="C148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D148" t="s">
         <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -15732,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -15806,13 +16394,13 @@
         <v>585</v>
       </c>
       <c r="C149" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D149" t="s">
         <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -15830,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="AG149" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI149">
         <v>0</v>
@@ -15904,13 +16492,13 @@
         <v>586</v>
       </c>
       <c r="C150" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -15999,13 +16587,13 @@
         <v>587</v>
       </c>
       <c r="C151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -16023,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="AA151" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AI151">
         <v>0</v>
@@ -16094,13 +16682,13 @@
         <v>588</v>
       </c>
       <c r="C152" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -16192,13 +16780,13 @@
         <v>589</v>
       </c>
       <c r="C153" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -16216,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="AA153" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI153">
         <v>0</v>
@@ -16287,13 +16875,13 @@
         <v>590</v>
       </c>
       <c r="C154" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -16311,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="AG154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI154">
         <v>0</v>
@@ -16385,13 +16973,13 @@
         <v>591</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -16409,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="AG155" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI155">
         <v>0</v>
@@ -16483,13 +17071,13 @@
         <v>592</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -16581,13 +17169,13 @@
         <v>593</v>
       </c>
       <c r="C157" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -16673,13 +17261,13 @@
         <v>594</v>
       </c>
       <c r="C158" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -16700,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="AG158" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH158">
         <v>0.5</v>
@@ -16777,13 +17365,13 @@
         <v>595</v>
       </c>
       <c r="C159" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -16846,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="BH159" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -16869,13 +17457,13 @@
         <v>596</v>
       </c>
       <c r="C160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -16938,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="BH160" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -16961,13 +17549,13 @@
         <v>597</v>
       </c>
       <c r="C161" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -16982,7 +17570,7 @@
         <v>1</v>
       </c>
       <c r="AG161" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH161">
         <v>0.1</v>
@@ -17059,13 +17647,13 @@
         <v>598</v>
       </c>
       <c r="C162" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -17151,13 +17739,13 @@
         <v>599</v>
       </c>
       <c r="C163" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17172,7 +17760,7 @@
         <v>1</v>
       </c>
       <c r="AG163" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH163">
         <v>0.25</v>
@@ -17249,13 +17837,13 @@
         <v>600</v>
       </c>
       <c r="C164" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17318,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="BH164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM164">
         <v>0</v>
@@ -17341,13 +17929,13 @@
         <v>601</v>
       </c>
       <c r="C165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D165" t="s">
         <v>73</v>
       </c>
       <c r="G165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -17362,7 +17950,7 @@
         <v>1</v>
       </c>
       <c r="AG165" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH165">
         <v>0.35</v>
@@ -17439,13 +18027,13 @@
         <v>602</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D166" t="s">
         <v>73</v>
       </c>
       <c r="G166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -17508,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="BH166" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -17531,13 +18119,13 @@
         <v>603</v>
       </c>
       <c r="C167" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -17552,7 +18140,7 @@
         <v>1</v>
       </c>
       <c r="AG167" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH167">
         <v>0.5</v>
@@ -17629,13 +18217,13 @@
         <v>604</v>
       </c>
       <c r="C168" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -17721,13 +18309,13 @@
         <v>605</v>
       </c>
       <c r="C169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -17810,13 +18398,13 @@
         <v>606</v>
       </c>
       <c r="C170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D170" t="s">
         <v>73</v>
       </c>
       <c r="G170" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -17899,13 +18487,13 @@
         <v>607</v>
       </c>
       <c r="C171" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -17917,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="AA171" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AC171">
         <v>1</v>
@@ -17991,13 +18579,13 @@
         <v>608</v>
       </c>
       <c r="C172" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D172" t="s">
         <v>73</v>
       </c>
       <c r="G172" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -18080,13 +18668,13 @@
         <v>609</v>
       </c>
       <c r="C173" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D173" t="s">
         <v>73</v>
       </c>
       <c r="G173" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -18169,13 +18757,13 @@
         <v>610</v>
       </c>
       <c r="C174" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18258,13 +18846,13 @@
         <v>611</v>
       </c>
       <c r="C175" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18347,13 +18935,13 @@
         <v>612</v>
       </c>
       <c r="C176" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -18436,13 +19024,13 @@
         <v>613</v>
       </c>
       <c r="C177" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -18505,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18528,13 +19116,13 @@
         <v>614</v>
       </c>
       <c r="C178" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D178" t="s">
         <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -18597,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="BH178" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -18620,13 +19208,13 @@
         <v>615</v>
       </c>
       <c r="C179" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D179" t="s">
         <v>73</v>
       </c>
       <c r="G179" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -18709,13 +19297,13 @@
         <v>616</v>
       </c>
       <c r="C180" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -18778,7 +19366,7 @@
         <v>0</v>
       </c>
       <c r="BH180" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM180">
         <v>0</v>
@@ -18801,13 +19389,13 @@
         <v>617</v>
       </c>
       <c r="C181" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
       </c>
       <c r="G181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -18890,13 +19478,13 @@
         <v>618</v>
       </c>
       <c r="C182" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D182" t="s">
         <v>73</v>
       </c>
       <c r="G182" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -18959,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="BH182" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM182">
         <v>0</v>
@@ -18982,13 +19570,13 @@
         <v>619</v>
       </c>
       <c r="C183" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D183" t="s">
         <v>73</v>
       </c>
       <c r="G183" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -19074,13 +19662,13 @@
         <v>620</v>
       </c>
       <c r="C184" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D184" t="s">
         <v>73</v>
       </c>
       <c r="G184" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -19163,13 +19751,13 @@
         <v>621</v>
       </c>
       <c r="C185" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D185" t="s">
         <v>73</v>
       </c>
       <c r="G185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -19255,13 +19843,13 @@
         <v>622</v>
       </c>
       <c r="C186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D186" t="s">
         <v>73</v>
       </c>
       <c r="G186" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -19344,13 +19932,13 @@
         <v>623</v>
       </c>
       <c r="C187" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D187" t="s">
         <v>73</v>
       </c>
       <c r="G187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -19433,13 +20021,13 @@
         <v>624</v>
       </c>
       <c r="C188" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D188" t="s">
         <v>73</v>
       </c>
       <c r="G188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -19522,13 +20110,13 @@
         <v>625</v>
       </c>
       <c r="C189" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="G189" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -19611,13 +20199,13 @@
         <v>626</v>
       </c>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="G190" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -19700,13 +20288,13 @@
         <v>627</v>
       </c>
       <c r="C191" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="G191" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -19789,13 +20377,13 @@
         <v>628</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="G192" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -19878,13 +20466,13 @@
         <v>629</v>
       </c>
       <c r="C193" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -19967,13 +20555,13 @@
         <v>630</v>
       </c>
       <c r="C194" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -20056,13 +20644,13 @@
         <v>631</v>
       </c>
       <c r="C195" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -20145,13 +20733,13 @@
         <v>632</v>
       </c>
       <c r="C196" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="G196" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -20234,13 +20822,13 @@
         <v>633</v>
       </c>
       <c r="C197" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="G197" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -20323,13 +20911,13 @@
         <v>210180</v>
       </c>
       <c r="C198" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20392,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="BH198" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -20415,13 +21003,13 @@
         <v>210181</v>
       </c>
       <c r="C199" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -20484,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="BH199" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BM199">
         <v>0</v>
@@ -20507,13 +21095,13 @@
         <v>210182</v>
       </c>
       <c r="C200" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20576,7 +21164,7 @@
         <v>0</v>
       </c>
       <c r="BH200" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BM200">
         <v>0</v>
@@ -20599,13 +21187,13 @@
         <v>210183</v>
       </c>
       <c r="C201" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -20620,7 +21208,7 @@
         <v>1</v>
       </c>
       <c r="AG201" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH201">
         <v>0.35</v>
@@ -20677,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -20700,13 +21288,13 @@
         <v>210184</v>
       </c>
       <c r="C202" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -20769,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="BH202" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BM202">
         <v>0</v>
@@ -20792,13 +21380,13 @@
         <v>210185</v>
       </c>
       <c r="C203" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -20861,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="BH203" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BM203">
         <v>0</v>
@@ -20884,13 +21472,13 @@
         <v>210186</v>
       </c>
       <c r="C204" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -20902,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="AA204" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AC204">
         <v>1</v>
@@ -20976,13 +21564,13 @@
         <v>210187</v>
       </c>
       <c r="C205" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21045,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="BH205" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21068,13 +21656,13 @@
         <v>210188</v>
       </c>
       <c r="C206" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21157,13 +21745,13 @@
         <v>210189</v>
       </c>
       <c r="C207" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21178,7 +21766,7 @@
         <v>1</v>
       </c>
       <c r="AG207" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH207">
         <v>0.6</v>
@@ -21235,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="BH207" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21258,13 +21846,13 @@
         <v>210190</v>
       </c>
       <c r="C208" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21279,7 +21867,7 @@
         <v>1</v>
       </c>
       <c r="AG208" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AH208">
         <v>1</v>
@@ -21336,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="BH208" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BM208">
         <v>0</v>
@@ -21359,13 +21947,13 @@
         <v>210191</v>
       </c>
       <c r="C209" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -21428,7 +22016,7 @@
         <v>0</v>
       </c>
       <c r="BH209" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BM209">
         <v>0</v>
@@ -21451,13 +22039,13 @@
         <v>210192</v>
       </c>
       <c r="C210" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -21472,7 +22060,7 @@
         <v>1</v>
       </c>
       <c r="AG210" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH210">
         <v>0.3</v>
@@ -21529,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="BH210" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -21552,13 +22140,13 @@
         <v>210193</v>
       </c>
       <c r="C211" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -21621,7 +22209,7 @@
         <v>0</v>
       </c>
       <c r="BH211" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -21644,13 +22232,13 @@
         <v>210194</v>
       </c>
       <c r="C212" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -21713,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="BH212" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BM212">
         <v>0</v>
@@ -21736,13 +22324,13 @@
         <v>210195</v>
       </c>
       <c r="C213" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -21825,13 +22413,13 @@
         <v>210196</v>
       </c>
       <c r="C214" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -21914,13 +22502,13 @@
         <v>210197</v>
       </c>
       <c r="C215" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -21983,7 +22571,7 @@
         <v>0</v>
       </c>
       <c r="BH215" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22006,13 +22594,13 @@
         <v>210198</v>
       </c>
       <c r="C216" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22075,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="BH216" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22098,13 +22686,13 @@
         <v>210199</v>
       </c>
       <c r="C217" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22167,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="BH217" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BM217">
         <v>0</v>
@@ -22190,13 +22778,13 @@
         <v>210200</v>
       </c>
       <c r="C218" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22279,13 +22867,13 @@
         <v>210201</v>
       </c>
       <c r="C219" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22348,7 +22936,7 @@
         <v>0</v>
       </c>
       <c r="BH219" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22371,13 +22959,13 @@
         <v>210202</v>
       </c>
       <c r="C220" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22392,7 +22980,7 @@
         <v>1</v>
       </c>
       <c r="AG220" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH220">
         <v>0.75</v>
@@ -22449,7 +23037,7 @@
         <v>0</v>
       </c>
       <c r="BH220" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BM220">
         <v>0</v>
@@ -22472,13 +23060,13 @@
         <v>210203</v>
       </c>
       <c r="C221" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D221" t="s">
         <v>73</v>
       </c>
       <c r="G221" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O221">
         <v>0</v>
@@ -22493,7 +23081,7 @@
         <v>1</v>
       </c>
       <c r="AG221" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH221">
         <v>1</v>
@@ -22550,7 +23138,7 @@
         <v>0</v>
       </c>
       <c r="BH221" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BM221">
         <v>0</v>
@@ -22573,13 +23161,13 @@
         <v>210204</v>
       </c>
       <c r="C222" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D222" t="s">
         <v>73</v>
       </c>
       <c r="G222" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -22642,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="BH222" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BM222">
         <v>0</v>
@@ -22665,13 +23253,13 @@
         <v>210205</v>
       </c>
       <c r="C223" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D223" t="s">
         <v>73</v>
       </c>
       <c r="G223" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O223">
         <v>0</v>
@@ -22754,13 +23342,13 @@
         <v>210206</v>
       </c>
       <c r="C224" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D224" t="s">
         <v>73</v>
       </c>
       <c r="G224" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O224">
         <v>0</v>
@@ -22772,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="AA224" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC224">
         <v>1</v>
@@ -22846,13 +23434,13 @@
         <v>210207</v>
       </c>
       <c r="C225" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D225" t="s">
         <v>73</v>
       </c>
       <c r="G225" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -22867,7 +23455,7 @@
         <v>1</v>
       </c>
       <c r="AG225" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH225">
         <v>1</v>
@@ -22924,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="BH225" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BM225">
         <v>0</v>
@@ -22947,13 +23535,13 @@
         <v>210208</v>
       </c>
       <c r="C226" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D226" t="s">
         <v>73</v>
       </c>
       <c r="G226" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O226">
         <v>0</v>
@@ -23036,13 +23624,13 @@
         <v>210209</v>
       </c>
       <c r="C227" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D227" t="s">
         <v>73</v>
       </c>
       <c r="G227" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O227">
         <v>0</v>
@@ -23125,13 +23713,13 @@
         <v>210210</v>
       </c>
       <c r="C228" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D228" t="s">
         <v>73</v>
       </c>
       <c r="G228" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O228">
         <v>0</v>
@@ -23194,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="BH228" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="BM228">
         <v>0</v>
@@ -23217,13 +23805,13 @@
         <v>210211</v>
       </c>
       <c r="C229" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D229" t="s">
         <v>73</v>
       </c>
       <c r="G229" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O229">
         <v>0</v>
@@ -23286,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="BH229" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="BM229">
         <v>0</v>
@@ -23309,13 +23897,13 @@
         <v>210212</v>
       </c>
       <c r="C230" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D230" t="s">
         <v>73</v>
       </c>
       <c r="G230" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O230">
         <v>0</v>
@@ -23398,13 +23986,13 @@
         <v>210213</v>
       </c>
       <c r="C231" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D231" t="s">
         <v>73</v>
       </c>
       <c r="G231" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O231">
         <v>0</v>
@@ -23467,7 +24055,7 @@
         <v>0</v>
       </c>
       <c r="BH231" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BM231">
         <v>0</v>
@@ -23490,13 +24078,13 @@
         <v>210214</v>
       </c>
       <c r="C232" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D232" t="s">
         <v>73</v>
       </c>
       <c r="G232" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O232">
         <v>0</v>
@@ -23579,13 +24167,13 @@
         <v>410519</v>
       </c>
       <c r="C233" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D233" t="s">
         <v>73</v>
       </c>
       <c r="G233" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O233">
         <v>0</v>
@@ -23668,13 +24256,13 @@
         <v>1170415</v>
       </c>
       <c r="C234" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D234" t="s">
         <v>73</v>
       </c>
       <c r="G234" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O234">
         <v>0</v>
@@ -23737,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="BH234" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM234">
         <v>0</v>
@@ -23760,13 +24348,13 @@
         <v>1170416</v>
       </c>
       <c r="C235" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D235" t="s">
         <v>73</v>
       </c>
       <c r="G235" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O235">
         <v>0</v>
@@ -23829,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="BH235" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM235">
         <v>0</v>
@@ -23852,13 +24440,13 @@
         <v>1170417</v>
       </c>
       <c r="C236" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D236" t="s">
         <v>73</v>
       </c>
       <c r="G236" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O236">
         <v>0</v>
@@ -23921,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="BH236" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BM236">
         <v>0</v>
@@ -23944,13 +24532,13 @@
         <v>1170418</v>
       </c>
       <c r="C237" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D237" t="s">
         <v>73</v>
       </c>
       <c r="G237" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O237">
         <v>0</v>
@@ -24013,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="BH237" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM237">
         <v>0</v>
@@ -24036,13 +24624,13 @@
         <v>1170419</v>
       </c>
       <c r="C238" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D238" t="s">
         <v>73</v>
       </c>
       <c r="G238" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O238">
         <v>0</v>
@@ -24125,13 +24713,13 @@
         <v>1170420</v>
       </c>
       <c r="C239" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D239" t="s">
         <v>73</v>
       </c>
       <c r="G239" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O239">
         <v>0</v>
@@ -24194,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="BH239" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="BM239">
         <v>0</v>
@@ -24217,13 +24805,13 @@
         <v>1170421</v>
       </c>
       <c r="C240" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D240" t="s">
         <v>73</v>
       </c>
       <c r="G240" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O240">
         <v>0</v>
@@ -24286,7 +24874,7 @@
         <v>0</v>
       </c>
       <c r="BH240" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="BM240">
         <v>0</v>
@@ -24309,13 +24897,13 @@
         <v>1170422</v>
       </c>
       <c r="C241" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D241" t="s">
         <v>73</v>
       </c>
       <c r="G241" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O241">
         <v>0</v>
@@ -24378,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="BH241" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="BM241">
         <v>0</v>
@@ -24401,13 +24989,13 @@
         <v>1170423</v>
       </c>
       <c r="C242" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D242" t="s">
         <v>73</v>
       </c>
       <c r="G242" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O242">
         <v>0</v>
@@ -24470,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="BH242" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM242">
         <v>0</v>
@@ -24493,13 +25081,13 @@
         <v>1170424</v>
       </c>
       <c r="C243" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D243" t="s">
         <v>73</v>
       </c>
       <c r="G243" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O243">
         <v>0</v>
@@ -24562,7 +25150,7 @@
         <v>0</v>
       </c>
       <c r="BH243" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM243">
         <v>0</v>
@@ -24585,13 +25173,13 @@
         <v>1170425</v>
       </c>
       <c r="C244" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D244" t="s">
         <v>73</v>
       </c>
       <c r="G244" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O244">
         <v>0</v>
@@ -24654,7 +25242,7 @@
         <v>0</v>
       </c>
       <c r="BH244" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM244">
         <v>0</v>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="626">
   <si>
     <t>id</t>
   </si>
@@ -233,16 +233,367 @@
     <t>item_skill_id</t>
   </si>
   <si>
+    <t>Key to the Stronghold</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>A key that lets one enter the Stronghold and face the Lords!</t>
+  </si>
+  <si>
+    <t>Roseary of yesteryear</t>
+  </si>
+  <si>
+    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
+  </si>
+  <si>
+    <t>Slaves Journal</t>
+  </si>
+  <si>
+    <t>A journal that details the work the slaves had to do in the mines.</t>
+  </si>
+  <si>
+    <t>Delusional Abandoned Gold Mines</t>
+  </si>
+  <si>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>A broken doll that was once treasured by a child.</t>
+  </si>
+  <si>
+    <t>Clerical Tome of Prayers</t>
+  </si>
+  <si>
+    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
+  </si>
+  <si>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
+  </si>
+  <si>
+    <t>access-twisted-memories</t>
+  </si>
+  <si>
+    <t>Childs Faceless Idol</t>
+  </si>
+  <si>
+    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
+  </si>
+  <si>
+    <t>mercenary-slot-bonus</t>
+  </si>
+  <si>
+    <t>Shiny Foil Paper</t>
+  </si>
+  <si>
+    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
+  </si>
+  <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
     <t>Shiny Metal Trinket</t>
   </si>
   <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>A shiny metal trinket. It has no value, but it is shiny. It's almost useless to you, but who could it be useful to?</t>
   </si>
   <si>
-    <t>Labyrinth Maze</t>
+    <t>Glinting Gem of The Deep</t>
+  </si>
+  <si>
+    <t>A simple and shiny gem that is found in the depths of Dungeons</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Goblins Hankerchief</t>
+  </si>
+  <si>
+    <t>Helps to dry the tears of yesterday's stories.</t>
+  </si>
+  <si>
+    <t>Pags Journal</t>
+  </si>
+  <si>
+    <t>A journal written by a man whos only given name is Pags. It details his search for his friend The Creator.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Holy Dirt</t>
+  </si>
+  <si>
+    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
+  </si>
+  <si>
+    <t>Krogs Journal</t>
+  </si>
+  <si>
+    <t>A journal created by a man named Krog. It details the struggles of running his own kingdom as well as the vannishing of his own brother, who's fate - is unknown.</t>
+  </si>
+  <si>
+    <t>Krogs Letter to Pags</t>
+  </si>
+  <si>
+    <t>A letter from Krogs to his brother Pags. A man who ruled a realm alone and missed his brother.</t>
+  </si>
+  <si>
+    <t>Satans Cage</t>
+  </si>
+  <si>
+    <t>Invitation to the council</t>
+  </si>
+  <si>
+    <t>Allows you to enter The Broken Anvil in hell to take on weekly fights for mythical gear!</t>
+  </si>
+  <si>
+    <t>Broken Blessed Sword of Pags</t>
+  </si>
+  <si>
+    <t>This looks like it was once Pags sword. The shine has lost it's self to the sands of time.</t>
+  </si>
+  <si>
+    <t>Ripped and Bloody Mythical Leather</t>
+  </si>
+  <si>
+    <t>The ripped and bloody mythical leather of a man on the run from danger and death</t>
+  </si>
+  <si>
+    <t>Hand mirror into the past</t>
+  </si>
+  <si>
+    <t>A single hand mirror that shows you the past, the past of what was and what never was at the same time.</t>
+  </si>
+  <si>
+    <t>The River Mans Journal</t>
+  </si>
+  <si>
+    <t>A mysterious journal written by an old man simply known as The River Man</t>
+  </si>
+  <si>
+    <t>Poorly Crafted Gold Bar</t>
+  </si>
+  <si>
+    <t>This poorly crafted gold bar is of value, but to whom? And why?</t>
+  </si>
+  <si>
+    <t>Rusted Iron Parts</t>
+  </si>
+  <si>
+    <t>Parts for something. Something old, but what?</t>
+  </si>
+  <si>
+    <t>Shadow Caves</t>
+  </si>
+  <si>
+    <t>Polished Stone Block</t>
+  </si>
+  <si>
+    <t>What could one do with a simple polished stone block? Is it a sample for something else?</t>
+  </si>
+  <si>
+    <t>Chipped Farmers Scythe</t>
+  </si>
+  <si>
+    <t>A simpel chipped scythe used by farmers in the fall.</t>
+  </si>
+  <si>
+    <t>Ancient Pottery Shard</t>
+  </si>
+  <si>
+    <t>A shard of some ancient pottery that might reveal clues to the past.</t>
+  </si>
+  <si>
+    <t>Journal of the trees</t>
+  </si>
+  <si>
+    <t>A scholar from long ago had a journal dedicated to every aspect of a tree. From growing, harvesting and more.</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>Silver Red Hawk Badge</t>
+  </si>
+  <si>
+    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
+  </si>
+  <si>
+    <t>Twsited grave site</t>
+  </si>
+  <si>
+    <t>Papers of Ascension</t>
+  </si>
+  <si>
+    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
+  </si>
+  <si>
+    <t>Church of God</t>
+  </si>
+  <si>
+    <t>Picture of the Wandering Cleric</t>
+  </si>
+  <si>
+    <t>A simple picture on slipper paper, it shows the Jester of Time and the Wandering Cleric, side by side smiling.</t>
+  </si>
+  <si>
+    <t>Journal of another time</t>
+  </si>
+  <si>
+    <t>A journal of The Poet, a journal that shares the darkest secrets of this world, but even a sliver of truth of something that slipped in.</t>
+  </si>
+  <si>
+    <t>Old bloody rusty knife</t>
+  </si>
+  <si>
+    <t>An old bloody rusty knife that has a story of it's own. Hold it child.</t>
+  </si>
+  <si>
+    <t>Silver Blade of Time</t>
+  </si>
+  <si>
+    <t>A silver blade, this can be used to put an end to the delusional and twisted memories that are so corrupted, people call the pain home.</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
+  </si>
+  <si>
+    <t>Scholars Glasses</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
+  </si>
+  <si>
+    <t>Lover of the queens charred bones</t>
+  </si>
+  <si>
+    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
+  </si>
+  <si>
+    <t>Purgatories Dungeons</t>
+  </si>
+  <si>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
+  </si>
+  <si>
+    <t>Strand of golden hair</t>
+  </si>
+  <si>
+    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
+  </si>
+  <si>
+    <t>Bandits Twsited Arm Port</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Ashes that the Child of Shade holds on to. Why?</t>
+  </si>
+  <si>
+    <t>Brothers Chipped Sword</t>
+  </si>
+  <si>
+    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
+  </si>
+  <si>
+    <t>Mothers Quill</t>
+  </si>
+  <si>
+    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>A single tear from The Shadoe Lord.</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
+  </si>
+  <si>
+    <t>Vile of Sensual Perfume</t>
+  </si>
+  <si>
+    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
+  </si>
+  <si>
+    <t>Vile of Twisted Laughter</t>
+  </si>
+  <si>
+    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
+  </si>
+  <si>
+    <t>Shattered Mace of The Holy</t>
+  </si>
+  <si>
+    <t>This broken mace was once used by the holy warriors of The Church.</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
   </si>
   <si>
     <t>Dry Firewood</t>
@@ -251,325 +602,10 @@
     <t>Used to reveal the corpses of the dead. A haunting memory never to be witnessed by mortal men.</t>
   </si>
   <si>
-    <t>Satans Cage</t>
-  </si>
-  <si>
     <t>Key to The Abandonded Church</t>
   </si>
   <si>
     <t>Allows one to gain access to a place where the judges call home.</t>
-  </si>
-  <si>
-    <t>Holy Dirt</t>
-  </si>
-  <si>
-    <t>Dirt from a chapel that is said to be blessed by God himself.</t>
-  </si>
-  <si>
-    <t>Roseary of yesteryear</t>
-  </si>
-  <si>
-    <t>An old roseary that the prophets and clerics would carry with them into battle. Praying to God they survive and make it home again.</t>
-  </si>
-  <si>
-    <t>Slaves Journal</t>
-  </si>
-  <si>
-    <t>A journal that details the work the slaves had to do in the mines.</t>
-  </si>
-  <si>
-    <t>Delusional Abandoned Gold Mines</t>
-  </si>
-  <si>
-    <t>Dwarven Chains</t>
-  </si>
-  <si>
-    <t>It is said that the Federation had imprisoned the dwarves of the north and all but exterminated them.</t>
-  </si>
-  <si>
-    <t>Broken Childs Doll</t>
-  </si>
-  <si>
-    <t>A broken doll that was once treasured by a child.</t>
-  </si>
-  <si>
-    <t>Clerical Tome of Prayers</t>
-  </si>
-  <si>
-    <t>A simple book of various prairs that a cleric would read upon their own reflection.</t>
-  </si>
-  <si>
-    <t>Federation Broach</t>
-  </si>
-  <si>
-    <t>simple broach that displays the isignia of the Federation, A tiger who is roaring with a sickle behind it.</t>
-  </si>
-  <si>
-    <t>Federation Controlled Town</t>
-  </si>
-  <si>
-    <t>Twisted Tree Branch</t>
-  </si>
-  <si>
-    <t>With this item players can enter the Twisted Diemsional Gate in Hell to be automatically taken to the Twisted Memories plane. No traversing required.</t>
-  </si>
-  <si>
-    <t>access-twisted-memories</t>
-  </si>
-  <si>
-    <t>Childs Faceless Idol</t>
-  </si>
-  <si>
-    <t>Given to the children by the church. Toys they were called. Mercenaries they became in the fight against the darkness that crept into a childs dreams. [This item will allow you to gain +50% on currency rewards from slots and additional 5% of copper coins when you are fighting at Purgatory Dungeons]</t>
-  </si>
-  <si>
-    <t>mercenary-slot-bonus</t>
-  </si>
-  <si>
-    <t>Shiny Foil Paper</t>
-  </si>
-  <si>
-    <t>It is said this foil paper was used to keep food covered. Alas the shine is almost gone, yet you know there is someone who likes shiny things.</t>
-  </si>
-  <si>
-    <t>Emerald Necklace</t>
-  </si>
-  <si>
-    <t>A beautiiful necklace given to The Child from The Wondering Prince. It is delicate like a small gold chain - laced with tiny glimmering emeralds.</t>
-  </si>
-  <si>
-    <t>Glinting Gem of The Deep</t>
-  </si>
-  <si>
-    <t>A simple and shiny gem that is found in the depths of Dungeons</t>
-  </si>
-  <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
-    <t>Goblins Hankerchief</t>
-  </si>
-  <si>
-    <t>Helps to dry the tears of yesterday's stories.</t>
-  </si>
-  <si>
-    <t>Pags Journal</t>
-  </si>
-  <si>
-    <t>A journal written by a man whos only given name is Pags. It details his search for his friend The Creator.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Key to the Stronghold</t>
-  </si>
-  <si>
-    <t>A key that lets one enter the Stronghold and face the Lords!</t>
-  </si>
-  <si>
-    <t>Krogs Journal</t>
-  </si>
-  <si>
-    <t>A journal created by a man named Krog. It details the struggles of running his own kingdom as well as the vannishing of his own brother, who's fate - is unknown.</t>
-  </si>
-  <si>
-    <t>Krogs Letter to Pags</t>
-  </si>
-  <si>
-    <t>A letter from Krogs to his brother Pags. A man who ruled a realm alone and missed his brother.</t>
-  </si>
-  <si>
-    <t>Invitation to the council</t>
-  </si>
-  <si>
-    <t>Allows you to enter The Broken Anvil in hell to take on weekly fights for mythical gear!</t>
-  </si>
-  <si>
-    <t>Broken Blessed Sword of Pags</t>
-  </si>
-  <si>
-    <t>This looks like it was once Pags sword. The shine has lost it's self to the sands of time.</t>
-  </si>
-  <si>
-    <t>Ripped and Bloody Mythical Leather</t>
-  </si>
-  <si>
-    <t>The ripped and bloody mythical leather of a man on the run from danger and death</t>
-  </si>
-  <si>
-    <t>Hand mirror into the past</t>
-  </si>
-  <si>
-    <t>A single hand mirror that shows you the past, the past of what was and what never was at the same time.</t>
-  </si>
-  <si>
-    <t>The River Mans Journal</t>
-  </si>
-  <si>
-    <t>A mysterious journal written by an old man simply known as The River Man</t>
-  </si>
-  <si>
-    <t>Strand of golden hair</t>
-  </si>
-  <si>
-    <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
-  </si>
-  <si>
-    <t>Bandits Twsited Arm Port</t>
-  </si>
-  <si>
-    <t>Silver Red Hawk Badge</t>
-  </si>
-  <si>
-    <t>A medal badge given to those who have fallen in battle. A way of remembering the person who passed.</t>
-  </si>
-  <si>
-    <t>Twsited grave site</t>
-  </si>
-  <si>
-    <t>Papers of Ascension</t>
-  </si>
-  <si>
-    <t>Docuemnts that detail an Ascension of another soul who passed through these lands, when these lands were whole and formed.</t>
-  </si>
-  <si>
-    <t>Church of God</t>
-  </si>
-  <si>
-    <t>Picture of the Wandering Cleric</t>
-  </si>
-  <si>
-    <t>A simple picture on slipper paper, it shows the Jester of Time and the Wandering Cleric, side by side smiling.</t>
-  </si>
-  <si>
-    <t>Journal of another time</t>
-  </si>
-  <si>
-    <t>A journal of The Poet, a journal that shares the darkest secrets of this world, but even a sliver of truth of something that slipped in.</t>
-  </si>
-  <si>
-    <t>Old bloody rusty knife</t>
-  </si>
-  <si>
-    <t>An old bloody rusty knife that has a story of it's own. Hold it child.</t>
-  </si>
-  <si>
-    <t>Silver Blade of Time</t>
-  </si>
-  <si>
-    <t>A silver blade, this can be used to put an end to the delusional and twisted memories that are so corrupted, people call the pain home.</t>
-  </si>
-  <si>
-    <t>Shattered Emerald</t>
-  </si>
-  <si>
-    <t>A single broken emerald. It is carved in such a way that it was decorative, but also had meaning.</t>
-  </si>
-  <si>
-    <t>Scholars Glasses</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell has lost his glasses. Maybe he could use these to properly read the material before him?</t>
-  </si>
-  <si>
-    <t>Lover of the queens charred bones</t>
-  </si>
-  <si>
-    <t>The bones of a lover, charred by the flames of hell. The Queen of hearts holds his memory close.</t>
-  </si>
-  <si>
-    <t>Purgatories Dungeons</t>
-  </si>
-  <si>
-    <t>Small wooden cross</t>
-  </si>
-  <si>
-    <t>A small wooden cross that you found on the ground. Small enough for a childs hands.</t>
-  </si>
-  <si>
-    <t>Old Silver Flask</t>
-  </si>
-  <si>
-    <t>There is a man, a drunk old man - or so they say. A hermit, he hides.</t>
-  </si>
-  <si>
-    <t>Brothers Chipped Sword</t>
-  </si>
-  <si>
-    <t>A chipped and old sword, held by a brother who tends to his grave.</t>
-  </si>
-  <si>
-    <t>Ashes of the shade</t>
-  </si>
-  <si>
-    <t>Ashes that the Child of Shade holds on to. Why?</t>
-  </si>
-  <si>
-    <t>Gold Mine</t>
-  </si>
-  <si>
-    <t>The princes ring</t>
-  </si>
-  <si>
-    <t>A ring given to The Soldier who lost it sometime ago. A ring given to him by The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Bottle of missery</t>
-  </si>
-  <si>
-    <t>Drink away the sorrows of the past and refuse to accept the fate that is before you.</t>
-  </si>
-  <si>
-    <t>Mothers Quill</t>
-  </si>
-  <si>
-    <t>The Scholar of Hell once had a mother, or so they say - who gave him the quill she use to write her curses with.</t>
-  </si>
-  <si>
-    <t>Shadow Caves</t>
-  </si>
-  <si>
-    <t>Torn map of another land</t>
-  </si>
-  <si>
-    <t>The land upon the map does not look famillar to you, It does not seem to be that of the famed land The Wondering Prince comes from, the one you seek. It seems to be of another more distant land.</t>
-  </si>
-  <si>
-    <t>Tear of the shade</t>
-  </si>
-  <si>
-    <t>A single tear from The Shadoe Lord.</t>
-  </si>
-  <si>
-    <t>Faceless Robe</t>
-  </si>
-  <si>
-    <t>A faceless robe worn by a faceless man who people say is The Wondering Prince.</t>
-  </si>
-  <si>
-    <t>Vile of Sensual Perfume</t>
-  </si>
-  <si>
-    <t>A vile of sweet., sensual perfume that puts any one in the mood.</t>
-  </si>
-  <si>
-    <t>Broken Hand Mirror</t>
-  </si>
-  <si>
-    <t>Found in the ruins of a building in Brothels Port, this broken hand mirror shows a twisted world when you look into the shards of glass.</t>
-  </si>
-  <si>
-    <t>Vile of Twisted Laughter</t>
-  </si>
-  <si>
-    <t>A simple vile that contains the demonic sinister and twisted laughter. Laughter that haunts ones soul.</t>
-  </si>
-  <si>
-    <t>Shattered Mace of The Holy</t>
-  </si>
-  <si>
-    <t>This broken mace was once used by the holy warriors of The Church.</t>
   </si>
   <si>
     <t>Weaponsmith's Book</t>
@@ -2196,7 +2232,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BT244"/>
+  <dimension ref="A1:BT250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2498,7 +2534,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>2024675</v>
+        <v>2024679</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2568,9 +2604,6 @@
       </c>
       <c r="BG2">
         <v>0</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>75</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -2590,16 +2623,16 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>1170451</v>
+        <v>1170454</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2660,9 +2693,6 @@
       </c>
       <c r="BG3">
         <v>0</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>78</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2682,16 +2712,16 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>1170452</v>
+        <v>1170455</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2752,6 +2782,9 @@
       </c>
       <c r="BG4">
         <v>0</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>79</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2771,16 +2804,16 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>1170453</v>
+        <v>1170456</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2841,6 +2874,9 @@
       </c>
       <c r="BG5">
         <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>79</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2860,16 +2896,16 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>1170454</v>
+        <v>1170457</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2930,6 +2966,9 @@
       </c>
       <c r="BG6">
         <v>0</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>79</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -2949,16 +2988,16 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>1170455</v>
+        <v>1170458</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2987,21 +3026,9 @@
       <c r="AM7">
         <v>0</v>
       </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
       <c r="AV7">
         <v>0</v>
       </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
       <c r="BB7">
         <v>0</v>
       </c>
@@ -3021,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="BH7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -3041,16 +3068,16 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>1170456</v>
+        <v>1170459</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3113,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -3133,25 +3160,28 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>1170457</v>
+        <v>1170460</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
       </c>
       <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
         <v>91</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -3171,21 +3201,9 @@
       <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
       <c r="BB9">
         <v>0</v>
       </c>
@@ -3203,9 +3221,6 @@
       </c>
       <c r="BG9">
         <v>0</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>87</v>
       </c>
       <c r="BM9">
         <v>0</v>
@@ -3225,7 +3240,7 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>1170458</v>
+        <v>1170461</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -3245,6 +3260,9 @@
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10" t="s">
+        <v>94</v>
+      </c>
       <c r="AC10">
         <v>1</v>
       </c>
@@ -3263,9 +3281,21 @@
       <c r="AM10">
         <v>0</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
       <c r="AV10">
         <v>0</v>
       </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
       <c r="BB10">
         <v>0</v>
       </c>
@@ -3283,9 +3313,6 @@
       </c>
       <c r="BG10">
         <v>0</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>87</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -3305,16 +3332,16 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>1170459</v>
+        <v>2024674</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3377,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BH11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3397,16 +3424,16 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>1170460</v>
+        <v>2024675</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3416,9 +3443,6 @@
       </c>
       <c r="Z12">
         <v>0</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>99</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -3438,9 +3462,21 @@
       <c r="AM12">
         <v>0</v>
       </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
       <c r="BB12">
         <v>0</v>
       </c>
@@ -3458,6 +3494,9 @@
       </c>
       <c r="BG12">
         <v>0</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>97</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3477,7 +3516,7 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>1170461</v>
+        <v>2024676</v>
       </c>
       <c r="C13" t="s">
         <v>100</v>
@@ -3497,9 +3536,6 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" t="s">
-        <v>102</v>
-      </c>
       <c r="AC13">
         <v>1</v>
       </c>
@@ -3550,6 +3586,9 @@
       </c>
       <c r="BG13">
         <v>0</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>102</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3569,7 +3608,7 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>2024674</v>
+        <v>2024677</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -3641,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="BH14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -3661,7 +3700,7 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>1170450</v>
+        <v>2024678</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
@@ -3733,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="BH15" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -3753,16 +3792,16 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>2024676</v>
+        <v>1170453</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3823,9 +3862,6 @@
       </c>
       <c r="BG16">
         <v>0</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>109</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -3845,7 +3881,7 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>2024677</v>
+        <v>2024680</v>
       </c>
       <c r="C17" t="s">
         <v>110</v>
@@ -3915,9 +3951,6 @@
       </c>
       <c r="BG17">
         <v>0</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>75</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -3937,7 +3970,7 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>2024678</v>
+        <v>2024681</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
@@ -4029,7 +4062,7 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>2024679</v>
+        <v>2024682</v>
       </c>
       <c r="C19" t="s">
         <v>115</v>
@@ -4118,7 +4151,7 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>2024680</v>
+        <v>2024683</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
@@ -4207,7 +4240,7 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>2024681</v>
+        <v>2024684</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -4277,9 +4310,6 @@
       </c>
       <c r="BG21">
         <v>0</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>78</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -4299,7 +4329,7 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>2024682</v>
+        <v>2024685</v>
       </c>
       <c r="C22" t="s">
         <v>121</v>
@@ -4369,6 +4399,9 @@
       </c>
       <c r="BG22">
         <v>0</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>114</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -4388,7 +4421,7 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>2024683</v>
+        <v>2024686</v>
       </c>
       <c r="C23" t="s">
         <v>123</v>
@@ -4458,6 +4491,9 @@
       </c>
       <c r="BG23">
         <v>0</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>102</v>
       </c>
       <c r="BM23">
         <v>0</v>
@@ -4477,7 +4513,7 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>2024684</v>
+        <v>2025664</v>
       </c>
       <c r="C24" t="s">
         <v>125</v>
@@ -4488,65 +4524,14 @@
       <c r="G24" t="s">
         <v>126</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
       <c r="AC24">
         <v>1</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
       <c r="AV24">
         <v>0</v>
       </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
+      <c r="BH24" t="s">
+        <v>102</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -4566,7 +4551,7 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>2024685</v>
+        <v>2025665</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
@@ -4577,68 +4562,14 @@
       <c r="G25" t="s">
         <v>128</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
       <c r="AV25">
         <v>0</v>
       </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
-      <c r="BD25">
-        <v>0</v>
-      </c>
-      <c r="BE25">
-        <v>0</v>
-      </c>
-      <c r="BF25">
-        <v>0</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
       <c r="BH25" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -4658,79 +4589,25 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>2024686</v>
+        <v>2025666</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
       <c r="AV26">
         <v>0</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
       <c r="BH26" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -4750,79 +4627,25 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>1170438</v>
+        <v>2025667</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="AC27">
         <v>1</v>
       </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
       <c r="AV27">
         <v>0</v>
       </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
       <c r="BH27" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -4842,7 +4665,7 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>1170427</v>
+        <v>2025668</v>
       </c>
       <c r="C28" t="s">
         <v>134</v>
@@ -4853,68 +4676,14 @@
       <c r="G28" t="s">
         <v>135</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
       <c r="AC28">
         <v>1</v>
       </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
       <c r="AV28">
         <v>0</v>
       </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
       <c r="BH28" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -4934,79 +4703,25 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>1170428</v>
+        <v>2025669</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
       <c r="AV29">
         <v>0</v>
       </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
       <c r="BH29" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -5026,16 +4741,16 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>1170429</v>
+        <v>1170440</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -5096,6 +4811,9 @@
       </c>
       <c r="BG30">
         <v>0</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>140</v>
       </c>
       <c r="BM30">
         <v>0</v>
@@ -5115,16 +4833,16 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>1170430</v>
+        <v>1170427</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -5185,6 +4903,9 @@
       </c>
       <c r="BG31">
         <v>0</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>143</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -5204,7 +4925,7 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>1170431</v>
+        <v>1170428</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
@@ -5274,6 +4995,9 @@
       </c>
       <c r="BG32">
         <v>0</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>146</v>
       </c>
       <c r="BM32">
         <v>0</v>
@@ -5293,16 +5017,16 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>1170432</v>
+        <v>1170429</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -5382,16 +5106,16 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>1170433</v>
+        <v>1170430</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -5452,9 +5176,6 @@
       </c>
       <c r="BG34">
         <v>0</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>109</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -5474,16 +5195,16 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>1170434</v>
+        <v>1170431</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -5544,9 +5265,6 @@
       </c>
       <c r="BG35">
         <v>0</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>109</v>
       </c>
       <c r="BM35">
         <v>0</v>
@@ -5566,16 +5284,16 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>1170435</v>
+        <v>1170432</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -5636,9 +5354,6 @@
       </c>
       <c r="BG36">
         <v>0</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>154</v>
       </c>
       <c r="BM36">
         <v>0</v>
@@ -5658,7 +5373,7 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>1170436</v>
+        <v>1170433</v>
       </c>
       <c r="C37" t="s">
         <v>155</v>
@@ -5730,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="BH37" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="BM37">
         <v>0</v>
@@ -5750,7 +5465,7 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>1170437</v>
+        <v>1170434</v>
       </c>
       <c r="C38" t="s">
         <v>157</v>
@@ -5820,6 +5535,9 @@
       </c>
       <c r="BG38">
         <v>0</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>102</v>
       </c>
       <c r="BM38">
         <v>0</v>
@@ -5839,7 +5557,7 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>1170426</v>
+        <v>1170435</v>
       </c>
       <c r="C39" t="s">
         <v>159</v>
@@ -5911,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="BM39">
         <v>0</v>
@@ -5931,16 +5649,16 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>1170439</v>
+        <v>1170436</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -6003,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="BH40" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="BM40">
         <v>0</v>
@@ -6023,7 +5741,7 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>1170440</v>
+        <v>1170437</v>
       </c>
       <c r="C41" t="s">
         <v>164</v>
@@ -6093,9 +5811,6 @@
       </c>
       <c r="BG41">
         <v>0</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>163</v>
       </c>
       <c r="BM41">
         <v>0</v>
@@ -6115,7 +5830,7 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>1170441</v>
+        <v>1170438</v>
       </c>
       <c r="C42" t="s">
         <v>166</v>
@@ -6187,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="BH42" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="BM42">
         <v>0</v>
@@ -6207,16 +5922,16 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>1170442</v>
+        <v>1170439</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -6279,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="BH43" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -6299,7 +6014,7 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>1170443</v>
+        <v>1170426</v>
       </c>
       <c r="C44" t="s">
         <v>171</v>
@@ -6371,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="BH44" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -6391,7 +6106,7 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>1170444</v>
+        <v>1170441</v>
       </c>
       <c r="C45" t="s">
         <v>173</v>
@@ -6463,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="BH45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -6483,7 +6198,7 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>1170445</v>
+        <v>1170442</v>
       </c>
       <c r="C46" t="s">
         <v>175</v>
@@ -6555,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BH46" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6575,7 +6290,7 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>1170446</v>
+        <v>1170443</v>
       </c>
       <c r="C47" t="s">
         <v>177</v>
@@ -6647,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="BH47" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -6667,7 +6382,7 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>1170447</v>
+        <v>1170444</v>
       </c>
       <c r="C48" t="s">
         <v>179</v>
@@ -6739,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="BH48" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="BM48">
         <v>0</v>
@@ -6759,7 +6474,7 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>1170448</v>
+        <v>1170445</v>
       </c>
       <c r="C49" t="s">
         <v>181</v>
@@ -6831,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="BH49" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="BM49">
         <v>0</v>
@@ -6851,7 +6566,7 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>1170449</v>
+        <v>1170446</v>
       </c>
       <c r="C50" t="s">
         <v>183</v>
@@ -6923,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="BH50" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="BM50">
         <v>0</v>
@@ -6943,7 +6658,7 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>487</v>
+        <v>1170447</v>
       </c>
       <c r="C51" t="s">
         <v>185</v>
@@ -6966,12 +6681,6 @@
       <c r="AC51">
         <v>1</v>
       </c>
-      <c r="AG51" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH51">
-        <v>0.15</v>
-      </c>
       <c r="AI51">
         <v>0</v>
       </c>
@@ -6987,9 +6696,6 @@
       <c r="AM51">
         <v>0</v>
       </c>
-      <c r="AN51">
-        <v>0.25</v>
-      </c>
       <c r="AS51">
         <v>0</v>
       </c>
@@ -7022,6 +6728,9 @@
       </c>
       <c r="BG51">
         <v>0</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>168</v>
       </c>
       <c r="BM51">
         <v>0</v>
@@ -7041,22 +6750,16 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>488</v>
+        <v>1170448</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -7070,12 +6773,6 @@
       <c r="AC52">
         <v>1</v>
       </c>
-      <c r="AG52" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH52">
-        <v>0.15</v>
-      </c>
       <c r="AI52">
         <v>0</v>
       </c>
@@ -7091,9 +6788,6 @@
       <c r="AM52">
         <v>0</v>
       </c>
-      <c r="AN52">
-        <v>0.25</v>
-      </c>
       <c r="AS52">
         <v>0</v>
       </c>
@@ -7126,6 +6820,9 @@
       </c>
       <c r="BG52">
         <v>0</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>114</v>
       </c>
       <c r="BM52">
         <v>0</v>
@@ -7145,16 +6842,16 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>489</v>
+        <v>1170449</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -7164,9 +6861,6 @@
       </c>
       <c r="Z53">
         <v>0</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>193</v>
       </c>
       <c r="AC53">
         <v>1</v>
@@ -7218,6 +6912,9 @@
       </c>
       <c r="BG53">
         <v>0</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>168</v>
       </c>
       <c r="BM53">
         <v>0</v>
@@ -7237,16 +6934,16 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>490</v>
+        <v>1170450</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -7260,12 +6957,6 @@
       <c r="AC54">
         <v>1</v>
       </c>
-      <c r="AG54" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH54">
-        <v>0.15</v>
-      </c>
       <c r="AI54">
         <v>0</v>
       </c>
@@ -7281,9 +6972,6 @@
       <c r="AM54">
         <v>0</v>
       </c>
-      <c r="AN54">
-        <v>0.25</v>
-      </c>
       <c r="AS54">
         <v>0</v>
       </c>
@@ -7316,6 +7004,9 @@
       </c>
       <c r="BG54">
         <v>0</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>114</v>
       </c>
       <c r="BM54">
         <v>0</v>
@@ -7335,22 +7026,16 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>491</v>
+        <v>1170451</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>198</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7364,12 +7049,6 @@
       <c r="AC55">
         <v>1</v>
       </c>
-      <c r="AG55" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH55">
-        <v>0.15</v>
-      </c>
       <c r="AI55">
         <v>0</v>
       </c>
@@ -7385,9 +7064,6 @@
       <c r="AM55">
         <v>0</v>
       </c>
-      <c r="AN55">
-        <v>0.25</v>
-      </c>
       <c r="AS55">
         <v>0</v>
       </c>
@@ -7420,6 +7096,9 @@
       </c>
       <c r="BG55">
         <v>0</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>114</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -7439,16 +7118,16 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>492</v>
+        <v>1170452</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7462,12 +7141,6 @@
       <c r="AC56">
         <v>1</v>
       </c>
-      <c r="AG56" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH56">
-        <v>0.15</v>
-      </c>
       <c r="AI56">
         <v>0</v>
       </c>
@@ -7482,9 +7155,6 @@
       </c>
       <c r="AM56">
         <v>0</v>
-      </c>
-      <c r="AN56">
-        <v>0.25</v>
       </c>
       <c r="AS56">
         <v>0</v>
@@ -7537,16 +7207,16 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7556,13 +7226,16 @@
       </c>
       <c r="Z57">
         <v>0</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>205</v>
       </c>
       <c r="AC57">
         <v>1</v>
       </c>
+      <c r="AG57" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH57">
+        <v>0.15</v>
+      </c>
       <c r="AI57">
         <v>0</v>
       </c>
@@ -7577,6 +7250,9 @@
       </c>
       <c r="AM57">
         <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0.25</v>
       </c>
       <c r="AS57">
         <v>0</v>
@@ -7629,16 +7305,16 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7654,13 +7330,16 @@
       </c>
       <c r="Z58">
         <v>0</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>208</v>
       </c>
       <c r="AC58">
         <v>1</v>
       </c>
+      <c r="AG58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH58">
+        <v>0.15</v>
+      </c>
       <c r="AI58">
         <v>0</v>
       </c>
@@ -7675,6 +7354,9 @@
       </c>
       <c r="AM58">
         <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0.25</v>
       </c>
       <c r="AS58">
         <v>0</v>
@@ -7727,22 +7409,16 @@
     </row>
     <row r="59" spans="1:72">
       <c r="A59">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>210</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -7754,7 +7430,10 @@
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7822,22 +7501,16 @@
     </row>
     <row r="60" spans="1:72">
       <c r="A60">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>213</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7848,8 +7521,14 @@
       <c r="Z60">
         <v>0</v>
       </c>
-      <c r="AA60" t="s">
-        <v>214</v>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH60">
+        <v>0.15</v>
       </c>
       <c r="AI60">
         <v>0</v>
@@ -7865,6 +7544,9 @@
       </c>
       <c r="AM60">
         <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0.25</v>
       </c>
       <c r="AS60">
         <v>0</v>
@@ -7917,16 +7599,16 @@
     </row>
     <row r="61" spans="1:72">
       <c r="A61">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7946,6 +7628,12 @@
       <c r="AC61">
         <v>1</v>
       </c>
+      <c r="AG61" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH61">
+        <v>0.15</v>
+      </c>
       <c r="AI61">
         <v>0</v>
       </c>
@@ -7960,6 +7648,9 @@
       </c>
       <c r="AM61">
         <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0.25</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -8012,22 +7703,16 @@
     </row>
     <row r="62" spans="1:72">
       <c r="A62">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>218</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -8041,6 +7726,12 @@
       <c r="AC62">
         <v>1</v>
       </c>
+      <c r="AG62" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH62">
+        <v>0.15</v>
+      </c>
       <c r="AI62">
         <v>0</v>
       </c>
@@ -8055,6 +7746,9 @@
       </c>
       <c r="AM62">
         <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0.25</v>
       </c>
       <c r="AS62">
         <v>0</v>
@@ -8107,22 +7801,16 @@
     </row>
     <row r="63" spans="1:72">
       <c r="A63">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>220</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -8132,16 +7820,13 @@
       </c>
       <c r="Z63">
         <v>0</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>217</v>
       </c>
       <c r="AC63">
         <v>1</v>
       </c>
-      <c r="AG63" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH63">
-        <v>0.5</v>
-      </c>
       <c r="AI63">
         <v>0</v>
       </c>
@@ -8156,9 +7841,6 @@
       </c>
       <c r="AM63">
         <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>0.3</v>
       </c>
       <c r="AS63">
         <v>0</v>
@@ -8211,16 +7893,16 @@
     </row>
     <row r="64" spans="1:72">
       <c r="A64">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8236,16 +7918,13 @@
       </c>
       <c r="Z64">
         <v>0</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>220</v>
       </c>
       <c r="AC64">
         <v>1</v>
       </c>
-      <c r="AG64" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH64">
-        <v>0.5</v>
-      </c>
       <c r="AI64">
         <v>0</v>
       </c>
@@ -8260,9 +7939,6 @@
       </c>
       <c r="AM64">
         <v>0</v>
-      </c>
-      <c r="AN64">
-        <v>0.3</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -8315,16 +7991,16 @@
     </row>
     <row r="65" spans="1:72">
       <c r="A65">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8341,14 +8017,8 @@
       <c r="Z65">
         <v>0</v>
       </c>
-      <c r="AC65">
-        <v>1</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH65">
-        <v>0.5</v>
+      <c r="AA65" t="s">
+        <v>223</v>
       </c>
       <c r="AI65">
         <v>0</v>
@@ -8364,9 +8034,6 @@
       </c>
       <c r="AM65">
         <v>0</v>
-      </c>
-      <c r="AN65">
-        <v>0.3</v>
       </c>
       <c r="AS65">
         <v>0</v>
@@ -8419,41 +8086,35 @@
     </row>
     <row r="66" spans="1:72">
       <c r="A66">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
+        <v>225</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="s">
         <v>226</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>1</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH66">
-        <v>0.5</v>
-      </c>
       <c r="AI66">
         <v>0</v>
       </c>
@@ -8468,9 +8129,6 @@
       </c>
       <c r="AM66">
         <v>0</v>
-      </c>
-      <c r="AN66">
-        <v>0.3</v>
       </c>
       <c r="AS66">
         <v>0</v>
@@ -8523,7 +8181,7 @@
     </row>
     <row r="67" spans="1:72">
       <c r="A67">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C67" t="s">
         <v>227</v>
@@ -8549,11 +8207,8 @@
       <c r="Z67">
         <v>0</v>
       </c>
-      <c r="AG67" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH67">
-        <v>0.5</v>
+      <c r="AC67">
+        <v>1</v>
       </c>
       <c r="AI67">
         <v>0</v>
@@ -8569,9 +8224,6 @@
       </c>
       <c r="AM67">
         <v>0</v>
-      </c>
-      <c r="AN67">
-        <v>0.3</v>
       </c>
       <c r="AS67">
         <v>0</v>
@@ -8624,7 +8276,7 @@
     </row>
     <row r="68" spans="1:72">
       <c r="A68">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C68" t="s">
         <v>229</v>
@@ -8719,7 +8371,7 @@
     </row>
     <row r="69" spans="1:72">
       <c r="A69">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C69" t="s">
         <v>231</v>
@@ -8745,8 +8397,14 @@
       <c r="Z69">
         <v>0</v>
       </c>
-      <c r="AA69" t="s">
-        <v>233</v>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH69">
+        <v>0.5</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -8762,6 +8420,9 @@
       </c>
       <c r="AM69">
         <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0.3</v>
       </c>
       <c r="AS69">
         <v>0</v>
@@ -8814,16 +8475,16 @@
     </row>
     <row r="70" spans="1:72">
       <c r="A70">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8840,11 +8501,14 @@
       <c r="Z70">
         <v>0</v>
       </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
       <c r="AG70" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="AH70">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI70">
         <v>0</v>
@@ -8862,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -8915,16 +8579,16 @@
     </row>
     <row r="71" spans="1:72">
       <c r="A71">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8941,11 +8605,14 @@
       <c r="Z71">
         <v>0</v>
       </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
       <c r="AG71" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="AH71">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8963,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="AN71">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -9016,16 +8683,16 @@
     </row>
     <row r="72" spans="1:72">
       <c r="A72">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -9042,8 +8709,14 @@
       <c r="Z72">
         <v>0</v>
       </c>
-      <c r="AA72" t="s">
-        <v>242</v>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH72">
+        <v>0.5</v>
       </c>
       <c r="AI72">
         <v>0</v>
@@ -9059,6 +8732,9 @@
       </c>
       <c r="AM72">
         <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0.3</v>
       </c>
       <c r="AS72">
         <v>0</v>
@@ -9111,16 +8787,16 @@
     </row>
     <row r="73" spans="1:72">
       <c r="A73">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -9137,8 +8813,11 @@
       <c r="Z73">
         <v>0</v>
       </c>
-      <c r="AA73" t="s">
-        <v>242</v>
+      <c r="AG73" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH73">
+        <v>0.5</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -9155,6 +8834,9 @@
       <c r="AM73">
         <v>0</v>
       </c>
+      <c r="AN73">
+        <v>0.3</v>
+      </c>
       <c r="AS73">
         <v>0</v>
       </c>
@@ -9183,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="BF73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG73">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -9206,16 +8888,16 @@
     </row>
     <row r="74" spans="1:72">
       <c r="A74">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -9232,8 +8914,8 @@
       <c r="Z74">
         <v>0</v>
       </c>
-      <c r="AA74" t="s">
-        <v>242</v>
+      <c r="AC74">
+        <v>1</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -9278,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="BF74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BG74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -9301,16 +8983,16 @@
     </row>
     <row r="75" spans="1:72">
       <c r="A75">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9328,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="AA75" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -9373,10 +9055,10 @@
         <v>0</v>
       </c>
       <c r="BF75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -9396,16 +9078,16 @@
     </row>
     <row r="76" spans="1:72">
       <c r="A76">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9422,6 +9104,12 @@
       <c r="Z76">
         <v>0</v>
       </c>
+      <c r="AG76" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH76">
+        <v>0.45</v>
+      </c>
       <c r="AI76">
         <v>0</v>
       </c>
@@ -9436,6 +9124,9 @@
       </c>
       <c r="AM76">
         <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0.45</v>
       </c>
       <c r="AS76">
         <v>0</v>
@@ -9488,16 +9179,16 @@
     </row>
     <row r="77" spans="1:72">
       <c r="A77">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9514,8 +9205,11 @@
       <c r="Z77">
         <v>0</v>
       </c>
-      <c r="AA77" t="s">
-        <v>253</v>
+      <c r="AG77" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH77">
+        <v>0.45</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -9531,6 +9225,9 @@
       </c>
       <c r="AM77">
         <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0.45</v>
       </c>
       <c r="AS77">
         <v>0</v>
@@ -9583,16 +9280,16 @@
     </row>
     <row r="78" spans="1:72">
       <c r="A78">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9610,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="AA78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AI78">
         <v>0</v>
@@ -9678,16 +9375,16 @@
     </row>
     <row r="79" spans="1:72">
       <c r="A79">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9705,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AI79">
         <v>0</v>
@@ -9750,10 +9447,10 @@
         <v>0</v>
       </c>
       <c r="BF79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BG79">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BM79">
         <v>0</v>
@@ -9773,16 +9470,16 @@
     </row>
     <row r="80" spans="1:72">
       <c r="A80">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9799,6 +9496,9 @@
       <c r="Z80">
         <v>0</v>
       </c>
+      <c r="AA80" t="s">
+        <v>254</v>
+      </c>
       <c r="AI80">
         <v>0</v>
       </c>
@@ -9842,10 +9542,10 @@
         <v>0</v>
       </c>
       <c r="BF80">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM80">
         <v>0</v>
@@ -9865,16 +9565,16 @@
     </row>
     <row r="81" spans="1:72">
       <c r="A81">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9891,6 +9591,9 @@
       <c r="Z81">
         <v>0</v>
       </c>
+      <c r="AA81" t="s">
+        <v>254</v>
+      </c>
       <c r="AI81">
         <v>0</v>
       </c>
@@ -9934,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="BF81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM81">
         <v>0</v>
@@ -9957,16 +9660,16 @@
     </row>
     <row r="82" spans="1:72">
       <c r="A82">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C82" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -10049,16 +9752,16 @@
     </row>
     <row r="83" spans="1:72">
       <c r="A83">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -10076,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="AA83" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AI83">
         <v>0</v>
@@ -10144,16 +9847,16 @@
     </row>
     <row r="84" spans="1:72">
       <c r="A84">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -10170,6 +9873,9 @@
       <c r="Z84">
         <v>0</v>
       </c>
+      <c r="AA84" t="s">
+        <v>268</v>
+      </c>
       <c r="AI84">
         <v>0</v>
       </c>
@@ -10217,9 +9923,6 @@
       </c>
       <c r="BG84">
         <v>0</v>
-      </c>
-      <c r="BH84" t="s">
-        <v>170</v>
       </c>
       <c r="BM84">
         <v>0</v>
@@ -10239,16 +9942,16 @@
     </row>
     <row r="85" spans="1:72">
       <c r="A85">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -10265,6 +9968,9 @@
       <c r="Z85">
         <v>0</v>
       </c>
+      <c r="AA85" t="s">
+        <v>271</v>
+      </c>
       <c r="AI85">
         <v>0</v>
       </c>
@@ -10312,9 +10018,6 @@
       </c>
       <c r="BG85">
         <v>0</v>
-      </c>
-      <c r="BH85" t="s">
-        <v>170</v>
       </c>
       <c r="BM85">
         <v>0</v>
@@ -10334,16 +10037,16 @@
     </row>
     <row r="86" spans="1:72">
       <c r="A86">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10426,16 +10129,16 @@
     </row>
     <row r="87" spans="1:72">
       <c r="A87">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10499,9 +10202,6 @@
       </c>
       <c r="BG87">
         <v>0</v>
-      </c>
-      <c r="BH87" t="s">
-        <v>109</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -10521,16 +10221,16 @@
     </row>
     <row r="88" spans="1:72">
       <c r="A88">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10546,9 +10246,6 @@
       </c>
       <c r="Z88">
         <v>0</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>279</v>
       </c>
       <c r="AI88">
         <v>0</v>
@@ -10616,16 +10313,16 @@
     </row>
     <row r="89" spans="1:72">
       <c r="A89">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10642,6 +10339,9 @@
       <c r="Z89">
         <v>0</v>
       </c>
+      <c r="AA89" t="s">
+        <v>280</v>
+      </c>
       <c r="AI89">
         <v>0</v>
       </c>
@@ -10689,9 +10389,6 @@
       </c>
       <c r="BG89">
         <v>0</v>
-      </c>
-      <c r="BH89" t="s">
-        <v>114</v>
       </c>
       <c r="BM89">
         <v>0</v>
@@ -10711,16 +10408,16 @@
     </row>
     <row r="90" spans="1:72">
       <c r="A90">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10737,12 +10434,6 @@
       <c r="Z90">
         <v>0</v>
       </c>
-      <c r="AG90" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH90">
-        <v>0.25</v>
-      </c>
       <c r="AI90">
         <v>0</v>
       </c>
@@ -10758,9 +10449,6 @@
       <c r="AM90">
         <v>0</v>
       </c>
-      <c r="AN90">
-        <v>1</v>
-      </c>
       <c r="AS90">
         <v>0</v>
       </c>
@@ -10795,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="BH90" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="BM90">
         <v>0</v>
@@ -10815,16 +10503,16 @@
     </row>
     <row r="91" spans="1:72">
       <c r="A91">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10841,12 +10529,6 @@
       <c r="Z91">
         <v>0</v>
       </c>
-      <c r="AG91" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH91">
-        <v>0.75</v>
-      </c>
       <c r="AI91">
         <v>0</v>
       </c>
@@ -10862,9 +10544,6 @@
       <c r="AM91">
         <v>0</v>
       </c>
-      <c r="AN91">
-        <v>1</v>
-      </c>
       <c r="AS91">
         <v>0</v>
       </c>
@@ -10899,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="BH91" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="BM91">
         <v>0</v>
@@ -10919,16 +10598,16 @@
     </row>
     <row r="92" spans="1:72">
       <c r="A92">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -11011,16 +10690,16 @@
     </row>
     <row r="93" spans="1:72">
       <c r="A93">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -11037,12 +10716,6 @@
       <c r="Z93">
         <v>0</v>
       </c>
-      <c r="AG93" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH93">
-        <v>0.75</v>
-      </c>
       <c r="AI93">
         <v>0</v>
       </c>
@@ -11058,9 +10731,6 @@
       <c r="AM93">
         <v>0</v>
       </c>
-      <c r="AN93">
-        <v>2</v>
-      </c>
       <c r="AS93">
         <v>0</v>
       </c>
@@ -11089,10 +10759,13 @@
         <v>0</v>
       </c>
       <c r="BF93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG93">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="BH93" t="s">
+        <v>102</v>
       </c>
       <c r="BM93">
         <v>0</v>
@@ -11112,16 +10785,16 @@
     </row>
     <row r="94" spans="1:72">
       <c r="A94">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -11139,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -11184,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="BF94">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BG94">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BM94">
         <v>0</v>
@@ -11207,16 +10880,16 @@
     </row>
     <row r="95" spans="1:72">
       <c r="A95">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D95" t="s">
         <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -11233,9 +10906,6 @@
       <c r="Z95">
         <v>0</v>
       </c>
-      <c r="AA95" t="s">
-        <v>298</v>
-      </c>
       <c r="AI95">
         <v>0</v>
       </c>
@@ -11283,6 +10953,9 @@
       </c>
       <c r="BG95">
         <v>0</v>
+      </c>
+      <c r="BH95" t="s">
+        <v>107</v>
       </c>
       <c r="BM95">
         <v>0</v>
@@ -11302,16 +10975,16 @@
     </row>
     <row r="96" spans="1:72">
       <c r="A96">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C96" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D96" t="s">
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -11328,6 +11001,12 @@
       <c r="Z96">
         <v>0</v>
       </c>
+      <c r="AG96" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH96">
+        <v>0.25</v>
+      </c>
       <c r="AI96">
         <v>0</v>
       </c>
@@ -11343,6 +11022,9 @@
       <c r="AM96">
         <v>0</v>
       </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
       <c r="AS96">
         <v>0</v>
       </c>
@@ -11375,6 +11057,9 @@
       </c>
       <c r="BG96">
         <v>0</v>
+      </c>
+      <c r="BH96" t="s">
+        <v>140</v>
       </c>
       <c r="BM96">
         <v>0</v>
@@ -11394,16 +11079,16 @@
     </row>
     <row r="97" spans="1:72">
       <c r="A97">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D97" t="s">
         <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -11420,6 +11105,12 @@
       <c r="Z97">
         <v>0</v>
       </c>
+      <c r="AG97" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH97">
+        <v>0.75</v>
+      </c>
       <c r="AI97">
         <v>0</v>
       </c>
@@ -11435,6 +11126,9 @@
       <c r="AM97">
         <v>0</v>
       </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
       <c r="AS97">
         <v>0</v>
       </c>
@@ -11469,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="BH97" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="BM97">
         <v>0</v>
@@ -11489,16 +11183,16 @@
     </row>
     <row r="98" spans="1:72">
       <c r="A98">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D98" t="s">
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -11581,16 +11275,16 @@
     </row>
     <row r="99" spans="1:72">
       <c r="A99">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -11607,6 +11301,12 @@
       <c r="Z99">
         <v>0</v>
       </c>
+      <c r="AG99" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH99">
+        <v>0.75</v>
+      </c>
       <c r="AI99">
         <v>0</v>
       </c>
@@ -11622,9 +11322,24 @@
       <c r="AM99">
         <v>0</v>
       </c>
+      <c r="AN99">
+        <v>2</v>
+      </c>
+      <c r="AS99">
+        <v>0</v>
+      </c>
       <c r="AV99">
         <v>0</v>
       </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
       <c r="BB99">
         <v>0</v>
       </c>
@@ -11638,13 +11353,10 @@
         <v>0</v>
       </c>
       <c r="BF99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG99">
-        <v>0</v>
-      </c>
-      <c r="BH99" t="s">
-        <v>163</v>
+        <v>0.3</v>
       </c>
       <c r="BM99">
         <v>0</v>
@@ -11664,16 +11376,16 @@
     </row>
     <row r="100" spans="1:72">
       <c r="A100">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11690,6 +11402,9 @@
       <c r="Z100">
         <v>0</v>
       </c>
+      <c r="AA100" t="s">
+        <v>307</v>
+      </c>
       <c r="AI100">
         <v>0</v>
       </c>
@@ -11733,10 +11448,10 @@
         <v>0</v>
       </c>
       <c r="BF100">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BG100">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BM100">
         <v>0</v>
@@ -11756,31 +11471,34 @@
     </row>
     <row r="101" spans="1:72">
       <c r="A101">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D101" t="s">
         <v>73</v>
       </c>
       <c r="G101" t="s">
+        <v>309</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="s">
         <v>310</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="Y101">
-        <v>0</v>
-      </c>
-      <c r="Z101">
-        <v>0</v>
       </c>
       <c r="AI101">
         <v>0</v>
@@ -11848,7 +11566,7 @@
     </row>
     <row r="102" spans="1:72">
       <c r="A102">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C102" t="s">
         <v>311</v>
@@ -11940,7 +11658,7 @@
     </row>
     <row r="103" spans="1:72">
       <c r="A103">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C103" t="s">
         <v>313</v>
@@ -12015,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="BH103" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -12035,7 +11753,7 @@
     </row>
     <row r="104" spans="1:72">
       <c r="A104">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C104" t="s">
         <v>315</v>
@@ -12108,9 +11826,6 @@
       </c>
       <c r="BG104">
         <v>0</v>
-      </c>
-      <c r="BH104" t="s">
-        <v>170</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -12130,7 +11845,7 @@
     </row>
     <row r="105" spans="1:72">
       <c r="A105">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C105" t="s">
         <v>317</v>
@@ -12171,21 +11886,9 @@
       <c r="AM105">
         <v>0</v>
       </c>
-      <c r="AS105">
-        <v>0</v>
-      </c>
       <c r="AV105">
         <v>0</v>
       </c>
-      <c r="AX105">
-        <v>0</v>
-      </c>
-      <c r="AY105">
-        <v>0</v>
-      </c>
-      <c r="BA105">
-        <v>0</v>
-      </c>
       <c r="BB105">
         <v>0</v>
       </c>
@@ -12204,8 +11907,8 @@
       <c r="BG105">
         <v>0</v>
       </c>
-      <c r="BI105">
-        <v>0.15</v>
+      <c r="BH105" t="s">
+        <v>140</v>
       </c>
       <c r="BM105">
         <v>0</v>
@@ -12225,7 +11928,7 @@
     </row>
     <row r="106" spans="1:72">
       <c r="A106">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C106" t="s">
         <v>319</v>
@@ -12298,9 +12001,6 @@
       </c>
       <c r="BG106">
         <v>0</v>
-      </c>
-      <c r="BH106" t="s">
-        <v>75</v>
       </c>
       <c r="BM106">
         <v>0</v>
@@ -12320,7 +12020,7 @@
     </row>
     <row r="107" spans="1:72">
       <c r="A107">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C107" t="s">
         <v>321</v>
@@ -12393,9 +12093,6 @@
       </c>
       <c r="BG107">
         <v>0</v>
-      </c>
-      <c r="BH107" t="s">
-        <v>114</v>
       </c>
       <c r="BM107">
         <v>0</v>
@@ -12415,7 +12112,7 @@
     </row>
     <row r="108" spans="1:72">
       <c r="A108">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C108" t="s">
         <v>323</v>
@@ -12488,9 +12185,6 @@
       </c>
       <c r="BG108">
         <v>0</v>
-      </c>
-      <c r="BH108" t="s">
-        <v>78</v>
       </c>
       <c r="BM108">
         <v>0</v>
@@ -12510,7 +12204,7 @@
     </row>
     <row r="109" spans="1:72">
       <c r="A109">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C109" t="s">
         <v>325</v>
@@ -12584,8 +12278,8 @@
       <c r="BG109">
         <v>0</v>
       </c>
-      <c r="BI109">
-        <v>0.3</v>
+      <c r="BH109" t="s">
+        <v>107</v>
       </c>
       <c r="BM109">
         <v>0</v>
@@ -12605,7 +12299,7 @@
     </row>
     <row r="110" spans="1:72">
       <c r="A110">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C110" t="s">
         <v>327</v>
@@ -12680,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="BH110" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="BM110">
         <v>0</v>
@@ -12700,7 +12394,7 @@
     </row>
     <row r="111" spans="1:72">
       <c r="A111">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C111" t="s">
         <v>329</v>
@@ -12775,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="BI111">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="BM111">
         <v>0</v>
@@ -12795,7 +12489,7 @@
     </row>
     <row r="112" spans="1:72">
       <c r="A112">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C112" t="s">
         <v>331</v>
@@ -12869,8 +12563,8 @@
       <c r="BG112">
         <v>0</v>
       </c>
-      <c r="BI112">
-        <v>0.05</v>
+      <c r="BH112" t="s">
+        <v>97</v>
       </c>
       <c r="BM112">
         <v>0</v>
@@ -12890,7 +12584,7 @@
     </row>
     <row r="113" spans="1:72">
       <c r="A113">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C113" t="s">
         <v>333</v>
@@ -12965,10 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BH113" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI113">
-        <v>0.8</v>
+        <v>107</v>
       </c>
       <c r="BM113">
         <v>0</v>
@@ -12988,7 +12679,7 @@
     </row>
     <row r="114" spans="1:72">
       <c r="A114">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C114" t="s">
         <v>335</v>
@@ -13014,9 +12705,6 @@
       <c r="Z114">
         <v>0</v>
       </c>
-      <c r="AA114" t="s">
-        <v>337</v>
-      </c>
       <c r="AI114">
         <v>0</v>
       </c>
@@ -13064,6 +12752,9 @@
       </c>
       <c r="BG114">
         <v>0</v>
+      </c>
+      <c r="BH114" t="s">
+        <v>114</v>
       </c>
       <c r="BM114">
         <v>0</v>
@@ -13083,16 +12774,16 @@
     </row>
     <row r="115" spans="1:72">
       <c r="A115">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -13157,8 +12848,8 @@
       <c r="BG115">
         <v>0</v>
       </c>
-      <c r="BH115" t="s">
-        <v>109</v>
+      <c r="BI115">
+        <v>0.3</v>
       </c>
       <c r="BM115">
         <v>0</v>
@@ -13178,16 +12869,16 @@
     </row>
     <row r="116" spans="1:72">
       <c r="A116">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -13253,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="BH116" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -13273,16 +12964,16 @@
     </row>
     <row r="117" spans="1:72">
       <c r="A117">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -13346,6 +13037,9 @@
       </c>
       <c r="BG117">
         <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0.5</v>
       </c>
       <c r="BM117">
         <v>0</v>
@@ -13365,16 +13059,16 @@
     </row>
     <row r="118" spans="1:72">
       <c r="A118">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -13391,9 +13085,6 @@
       <c r="Z118">
         <v>0</v>
       </c>
-      <c r="AA118" t="s">
-        <v>346</v>
-      </c>
       <c r="AI118">
         <v>0</v>
       </c>
@@ -13441,6 +13132,9 @@
       </c>
       <c r="BG118">
         <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0.05</v>
       </c>
       <c r="BM118">
         <v>0</v>
@@ -13460,16 +13154,16 @@
     </row>
     <row r="119" spans="1:72">
       <c r="A119">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D119" t="s">
         <v>73</v>
       </c>
       <c r="G119" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -13535,13 +13229,10 @@
         <v>0</v>
       </c>
       <c r="BH119" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="BI119">
-        <v>0.05</v>
-      </c>
-      <c r="BJ119">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BM119">
         <v>0</v>
@@ -13561,16 +13252,16 @@
     </row>
     <row r="120" spans="1:72">
       <c r="A120">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
         <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -13587,6 +13278,9 @@
       <c r="Z120">
         <v>0</v>
       </c>
+      <c r="AA120" t="s">
+        <v>349</v>
+      </c>
       <c r="AI120">
         <v>0</v>
       </c>
@@ -13634,12 +13328,6 @@
       </c>
       <c r="BG120">
         <v>0</v>
-      </c>
-      <c r="BI120">
-        <v>0.95</v>
-      </c>
-      <c r="BJ120">
-        <v>1</v>
       </c>
       <c r="BM120">
         <v>0</v>
@@ -13659,16 +13347,16 @@
     </row>
     <row r="121" spans="1:72">
       <c r="A121">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C121" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D121" t="s">
         <v>73</v>
       </c>
       <c r="G121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -13734,13 +13422,7 @@
         <v>0</v>
       </c>
       <c r="BH121" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI121">
-        <v>0.15</v>
-      </c>
-      <c r="BJ121">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="BM121">
         <v>0</v>
@@ -13760,16 +13442,16 @@
     </row>
     <row r="122" spans="1:72">
       <c r="A122">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D122" t="s">
         <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -13834,11 +13516,8 @@
       <c r="BG122">
         <v>0</v>
       </c>
-      <c r="BI122">
-        <v>1.25</v>
-      </c>
-      <c r="BJ122">
-        <v>1</v>
+      <c r="BH122" t="s">
+        <v>97</v>
       </c>
       <c r="BM122">
         <v>0</v>
@@ -13858,16 +13537,16 @@
     </row>
     <row r="123" spans="1:72">
       <c r="A123">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -13931,12 +13610,6 @@
       </c>
       <c r="BG123">
         <v>0</v>
-      </c>
-      <c r="BI123">
-        <v>1.6</v>
-      </c>
-      <c r="BJ123">
-        <v>1</v>
       </c>
       <c r="BM123">
         <v>0</v>
@@ -13956,31 +13629,34 @@
     </row>
     <row r="124" spans="1:72">
       <c r="A124">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C124" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
+        <v>357</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124" t="s">
         <v>358</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
       </c>
       <c r="AI124">
         <v>0</v>
@@ -14048,7 +13724,7 @@
     </row>
     <row r="125" spans="1:72">
       <c r="A125">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C125" t="s">
         <v>359</v>
@@ -14123,7 +13799,13 @@
         <v>0</v>
       </c>
       <c r="BH125" t="s">
-        <v>154</v>
+        <v>97</v>
+      </c>
+      <c r="BI125">
+        <v>0.05</v>
+      </c>
+      <c r="BJ125">
+        <v>1</v>
       </c>
       <c r="BM125">
         <v>0</v>
@@ -14143,7 +13825,7 @@
     </row>
     <row r="126" spans="1:72">
       <c r="A126">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C126" t="s">
         <v>361</v>
@@ -14217,8 +13899,11 @@
       <c r="BG126">
         <v>0</v>
       </c>
-      <c r="BH126" t="s">
-        <v>163</v>
+      <c r="BI126">
+        <v>0.95</v>
+      </c>
+      <c r="BJ126">
+        <v>1</v>
       </c>
       <c r="BM126">
         <v>0</v>
@@ -14238,7 +13923,7 @@
     </row>
     <row r="127" spans="1:72">
       <c r="A127">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C127" t="s">
         <v>363</v>
@@ -14313,7 +13998,13 @@
         <v>0</v>
       </c>
       <c r="BH127" t="s">
-        <v>154</v>
+        <v>102</v>
+      </c>
+      <c r="BI127">
+        <v>0.15</v>
+      </c>
+      <c r="BJ127">
+        <v>1</v>
       </c>
       <c r="BM127">
         <v>0</v>
@@ -14333,7 +14024,7 @@
     </row>
     <row r="128" spans="1:72">
       <c r="A128">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C128" t="s">
         <v>365</v>
@@ -14407,8 +14098,11 @@
       <c r="BG128">
         <v>0</v>
       </c>
-      <c r="BH128" t="s">
-        <v>170</v>
+      <c r="BI128">
+        <v>1.25</v>
+      </c>
+      <c r="BJ128">
+        <v>1</v>
       </c>
       <c r="BM128">
         <v>0</v>
@@ -14428,7 +14122,7 @@
     </row>
     <row r="129" spans="1:72">
       <c r="A129">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C129" t="s">
         <v>367</v>
@@ -14503,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="BI129">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="BJ129">
         <v>1</v>
@@ -14526,7 +14220,7 @@
     </row>
     <row r="130" spans="1:72">
       <c r="A130">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C130" t="s">
         <v>369</v>
@@ -14599,9 +14293,6 @@
       </c>
       <c r="BG130">
         <v>0</v>
-      </c>
-      <c r="BH130" t="s">
-        <v>109</v>
       </c>
       <c r="BM130">
         <v>0</v>
@@ -14621,7 +14312,7 @@
     </row>
     <row r="131" spans="1:72">
       <c r="A131">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C131" t="s">
         <v>371</v>
@@ -14693,13 +14384,10 @@
         <v>0</v>
       </c>
       <c r="BG131">
-        <v>0.35</v>
-      </c>
-      <c r="BI131">
-        <v>1.6</v>
-      </c>
-      <c r="BJ131">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH131" t="s">
+        <v>161</v>
       </c>
       <c r="BM131">
         <v>0</v>
@@ -14719,7 +14407,7 @@
     </row>
     <row r="132" spans="1:72">
       <c r="A132">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C132" t="s">
         <v>373</v>
@@ -14794,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="BH132" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -14814,7 +14502,7 @@
     </row>
     <row r="133" spans="1:72">
       <c r="A133">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C133" t="s">
         <v>375</v>
@@ -14840,12 +14528,6 @@
       <c r="Z133">
         <v>0</v>
       </c>
-      <c r="AG133" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH133">
-        <v>0.25</v>
-      </c>
       <c r="AI133">
         <v>0</v>
       </c>
@@ -14861,9 +14543,6 @@
       <c r="AM133">
         <v>0</v>
       </c>
-      <c r="AN133">
-        <v>0.25</v>
-      </c>
       <c r="AS133">
         <v>0</v>
       </c>
@@ -14896,6 +14575,9 @@
       </c>
       <c r="BG133">
         <v>0</v>
+      </c>
+      <c r="BH133" t="s">
+        <v>161</v>
       </c>
       <c r="BM133">
         <v>0</v>
@@ -14915,7 +14597,7 @@
     </row>
     <row r="134" spans="1:72">
       <c r="A134">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C134" t="s">
         <v>377</v>
@@ -14941,12 +14623,6 @@
       <c r="Z134">
         <v>0</v>
       </c>
-      <c r="AG134" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH134">
-        <v>0.25</v>
-      </c>
       <c r="AI134">
         <v>0</v>
       </c>
@@ -14962,9 +14638,6 @@
       <c r="AM134">
         <v>0</v>
       </c>
-      <c r="AN134">
-        <v>0.25</v>
-      </c>
       <c r="AS134">
         <v>0</v>
       </c>
@@ -14997,6 +14670,9 @@
       </c>
       <c r="BG134">
         <v>0</v>
+      </c>
+      <c r="BH134" t="s">
+        <v>129</v>
       </c>
       <c r="BM134">
         <v>0</v>
@@ -15016,16 +14692,16 @@
     </row>
     <row r="135" spans="1:72">
       <c r="A135">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -15042,9 +14718,6 @@
       <c r="Z135">
         <v>0</v>
       </c>
-      <c r="AG135" t="s">
-        <v>284</v>
-      </c>
       <c r="AI135">
         <v>0</v>
       </c>
@@ -15060,41 +14733,44 @@
       <c r="AM135">
         <v>0</v>
       </c>
-      <c r="AN135">
+      <c r="AS135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
         <v>0.25</v>
       </c>
-      <c r="AS135">
-        <v>0</v>
-      </c>
-      <c r="AV135">
-        <v>0</v>
-      </c>
-      <c r="AX135">
-        <v>0</v>
-      </c>
-      <c r="AY135">
-        <v>0</v>
-      </c>
-      <c r="BA135">
-        <v>0</v>
-      </c>
-      <c r="BB135">
-        <v>0</v>
-      </c>
-      <c r="BC135">
-        <v>0</v>
-      </c>
-      <c r="BD135">
-        <v>0</v>
-      </c>
-      <c r="BE135">
-        <v>0</v>
-      </c>
-      <c r="BF135">
-        <v>0</v>
-      </c>
-      <c r="BG135">
-        <v>0</v>
+      <c r="BJ135">
+        <v>1</v>
       </c>
       <c r="BM135">
         <v>0</v>
@@ -15114,16 +14790,16 @@
     </row>
     <row r="136" spans="1:72">
       <c r="A136">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -15140,9 +14816,6 @@
       <c r="Z136">
         <v>0</v>
       </c>
-      <c r="AG136" t="s">
-        <v>384</v>
-      </c>
       <c r="AI136">
         <v>0</v>
       </c>
@@ -15158,9 +14831,6 @@
       <c r="AM136">
         <v>0</v>
       </c>
-      <c r="AN136">
-        <v>0.25</v>
-      </c>
       <c r="AS136">
         <v>0</v>
       </c>
@@ -15193,6 +14863,9 @@
       </c>
       <c r="BG136">
         <v>0</v>
+      </c>
+      <c r="BH136" t="s">
+        <v>102</v>
       </c>
       <c r="BM136">
         <v>0</v>
@@ -15212,16 +14885,16 @@
     </row>
     <row r="137" spans="1:72">
       <c r="A137">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C137" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
         <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -15238,9 +14911,6 @@
       <c r="Z137">
         <v>0</v>
       </c>
-      <c r="AG137" t="s">
-        <v>379</v>
-      </c>
       <c r="AI137">
         <v>0</v>
       </c>
@@ -15256,9 +14926,6 @@
       <c r="AM137">
         <v>0</v>
       </c>
-      <c r="AN137">
-        <v>0.5</v>
-      </c>
       <c r="AS137">
         <v>0</v>
       </c>
@@ -15290,7 +14957,13 @@
         <v>0</v>
       </c>
       <c r="BG137">
-        <v>0</v>
+        <v>0.35</v>
+      </c>
+      <c r="BI137">
+        <v>1.6</v>
+      </c>
+      <c r="BJ137">
+        <v>1</v>
       </c>
       <c r="BM137">
         <v>0</v>
@@ -15310,16 +14983,16 @@
     </row>
     <row r="138" spans="1:72">
       <c r="A138">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D138" t="s">
         <v>73</v>
       </c>
       <c r="G138" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -15336,9 +15009,6 @@
       <c r="Z138">
         <v>0</v>
       </c>
-      <c r="AG138" t="s">
-        <v>379</v>
-      </c>
       <c r="AI138">
         <v>0</v>
       </c>
@@ -15354,9 +15024,6 @@
       <c r="AM138">
         <v>0</v>
       </c>
-      <c r="AN138">
-        <v>1</v>
-      </c>
       <c r="AS138">
         <v>0</v>
       </c>
@@ -15389,6 +15056,9 @@
       </c>
       <c r="BG138">
         <v>0</v>
+      </c>
+      <c r="BH138" t="s">
+        <v>114</v>
       </c>
       <c r="BM138">
         <v>0</v>
@@ -15408,16 +15078,16 @@
     </row>
     <row r="139" spans="1:72">
       <c r="A139">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D139" t="s">
         <v>73</v>
       </c>
       <c r="G139" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -15435,7 +15105,10 @@
         <v>0</v>
       </c>
       <c r="AG139" t="s">
-        <v>379</v>
+        <v>304</v>
+      </c>
+      <c r="AH139">
+        <v>0.25</v>
       </c>
       <c r="AI139">
         <v>0</v>
@@ -15453,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS139">
         <v>0</v>
@@ -15506,16 +15179,16 @@
     </row>
     <row r="140" spans="1:72">
       <c r="A140">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
         <v>73</v>
       </c>
       <c r="G140" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -15533,7 +15206,10 @@
         <v>0</v>
       </c>
       <c r="AG140" t="s">
-        <v>292</v>
+        <v>391</v>
+      </c>
+      <c r="AH140">
+        <v>0.25</v>
       </c>
       <c r="AI140">
         <v>0</v>
@@ -15551,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS140">
         <v>0</v>
@@ -15604,16 +15280,16 @@
     </row>
     <row r="141" spans="1:72">
       <c r="A141">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C141" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D141" t="s">
         <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -15631,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="AG141" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AI141">
         <v>0</v>
@@ -15649,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS141">
         <v>0</v>
@@ -15702,35 +15378,35 @@
     </row>
     <row r="142" spans="1:72">
       <c r="A142">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
         <v>73</v>
       </c>
       <c r="G142" t="s">
+        <v>395</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="s">
         <v>396</v>
       </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AG142" t="s">
-        <v>292</v>
-      </c>
       <c r="AI142">
         <v>0</v>
       </c>
@@ -15747,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS142">
         <v>0</v>
@@ -15800,7 +15476,7 @@
     </row>
     <row r="143" spans="1:72">
       <c r="A143">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C143" t="s">
         <v>397</v>
@@ -15827,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="AG143" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="AI143">
         <v>0</v>
@@ -15898,7 +15574,7 @@
     </row>
     <row r="144" spans="1:72">
       <c r="A144">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C144" t="s">
         <v>399</v>
@@ -15925,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="AG144" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="AI144">
         <v>0</v>
@@ -15996,7 +15672,7 @@
     </row>
     <row r="145" spans="1:72">
       <c r="A145">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C145" t="s">
         <v>401</v>
@@ -16023,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="AG145" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="AI145">
         <v>0</v>
@@ -16094,7 +15770,7 @@
     </row>
     <row r="146" spans="1:72">
       <c r="A146">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C146" t="s">
         <v>403</v>
@@ -16121,28 +15797,25 @@
         <v>0</v>
       </c>
       <c r="AG146" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH146">
+        <v>304</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
         <v>0.5</v>
-      </c>
-      <c r="AI146">
-        <v>0</v>
-      </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
-      <c r="AK146">
-        <v>0</v>
-      </c>
-      <c r="AL146">
-        <v>0</v>
-      </c>
-      <c r="AM146">
-        <v>0</v>
-      </c>
-      <c r="AN146">
-        <v>1.1</v>
       </c>
       <c r="AS146">
         <v>0</v>
@@ -16195,7 +15868,7 @@
     </row>
     <row r="147" spans="1:72">
       <c r="A147">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C147" t="s">
         <v>405</v>
@@ -16222,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="AG147" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="AI147">
         <v>0</v>
@@ -16240,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS147">
         <v>0</v>
@@ -16293,7 +15966,7 @@
     </row>
     <row r="148" spans="1:72">
       <c r="A148">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C148" t="s">
         <v>407</v>
@@ -16320,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -16338,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS148">
         <v>0</v>
@@ -16391,7 +16064,7 @@
     </row>
     <row r="149" spans="1:72">
       <c r="A149">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C149" t="s">
         <v>409</v>
@@ -16418,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="AG149" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="AI149">
         <v>0</v>
@@ -16436,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS149">
         <v>0</v>
@@ -16489,7 +16162,7 @@
     </row>
     <row r="150" spans="1:72">
       <c r="A150">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C150" t="s">
         <v>411</v>
@@ -16515,6 +16188,9 @@
       <c r="Z150">
         <v>0</v>
       </c>
+      <c r="AG150" t="s">
+        <v>296</v>
+      </c>
       <c r="AI150">
         <v>0</v>
       </c>
@@ -16530,6 +16206,9 @@
       <c r="AM150">
         <v>0</v>
       </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
       <c r="AS150">
         <v>0</v>
       </c>
@@ -16562,9 +16241,6 @@
       </c>
       <c r="BG150">
         <v>0</v>
-      </c>
-      <c r="BI150">
-        <v>0.05</v>
       </c>
       <c r="BM150">
         <v>0</v>
@@ -16584,7 +16260,7 @@
     </row>
     <row r="151" spans="1:72">
       <c r="A151">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C151" t="s">
         <v>413</v>
@@ -16610,8 +16286,8 @@
       <c r="Z151">
         <v>0</v>
       </c>
-      <c r="AA151" t="s">
-        <v>415</v>
+      <c r="AG151" t="s">
+        <v>296</v>
       </c>
       <c r="AI151">
         <v>0</v>
@@ -16627,6 +16303,9 @@
       </c>
       <c r="AM151">
         <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1.25</v>
       </c>
       <c r="AS151">
         <v>0</v>
@@ -16679,16 +16358,16 @@
     </row>
     <row r="152" spans="1:72">
       <c r="A152">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C152" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -16705,6 +16384,12 @@
       <c r="Z152">
         <v>0</v>
       </c>
+      <c r="AG152" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH152">
+        <v>0.5</v>
+      </c>
       <c r="AI152">
         <v>0</v>
       </c>
@@ -16720,6 +16405,9 @@
       <c r="AM152">
         <v>0</v>
       </c>
+      <c r="AN152">
+        <v>1.1</v>
+      </c>
       <c r="AS152">
         <v>0</v>
       </c>
@@ -16752,12 +16440,6 @@
       </c>
       <c r="BG152">
         <v>0</v>
-      </c>
-      <c r="BI152">
-        <v>1.25</v>
-      </c>
-      <c r="BJ152">
-        <v>1</v>
       </c>
       <c r="BM152">
         <v>0</v>
@@ -16777,16 +16459,16 @@
     </row>
     <row r="153" spans="1:72">
       <c r="A153">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C153" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -16803,8 +16485,8 @@
       <c r="Z153">
         <v>0</v>
       </c>
-      <c r="AA153" t="s">
-        <v>346</v>
+      <c r="AG153" t="s">
+        <v>396</v>
       </c>
       <c r="AI153">
         <v>0</v>
@@ -16820,6 +16502,9 @@
       </c>
       <c r="AM153">
         <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>0.5</v>
       </c>
       <c r="AS153">
         <v>0</v>
@@ -16872,16 +16557,16 @@
     </row>
     <row r="154" spans="1:72">
       <c r="A154">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -16899,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="AG154" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="AI154">
         <v>0</v>
@@ -16917,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="AN154">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS154">
         <v>0</v>
@@ -16970,16 +16655,16 @@
     </row>
     <row r="155" spans="1:72">
       <c r="A155">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C155" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -16997,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="AG155" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="AI155">
         <v>0</v>
@@ -17015,7 +16700,7 @@
         <v>0</v>
       </c>
       <c r="AN155">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS155">
         <v>0</v>
@@ -17068,16 +16753,16 @@
     </row>
     <row r="156" spans="1:72">
       <c r="A156">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -17143,10 +16828,7 @@
         <v>0</v>
       </c>
       <c r="BI156">
-        <v>0.25</v>
-      </c>
-      <c r="BJ156">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="BM156">
         <v>0</v>
@@ -17166,31 +16848,34 @@
     </row>
     <row r="157" spans="1:72">
       <c r="A157">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C157" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
+        <v>426</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="s">
         <v>427</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
-      <c r="Z157">
-        <v>0</v>
       </c>
       <c r="AI157">
         <v>0</v>
@@ -17258,7 +16943,7 @@
     </row>
     <row r="158" spans="1:72">
       <c r="A158">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C158" t="s">
         <v>428</v>
@@ -17284,65 +16969,59 @@
       <c r="Z158">
         <v>0</v>
       </c>
-      <c r="AC158">
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AS158">
+        <v>0</v>
+      </c>
+      <c r="AV158">
+        <v>0</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>1.25</v>
+      </c>
+      <c r="BJ158">
         <v>1</v>
-      </c>
-      <c r="AG158" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH158">
-        <v>0.5</v>
-      </c>
-      <c r="AI158">
-        <v>0</v>
-      </c>
-      <c r="AJ158">
-        <v>0</v>
-      </c>
-      <c r="AK158">
-        <v>0</v>
-      </c>
-      <c r="AL158">
-        <v>0</v>
-      </c>
-      <c r="AM158">
-        <v>0</v>
-      </c>
-      <c r="AN158">
-        <v>0.3</v>
-      </c>
-      <c r="AS158">
-        <v>0</v>
-      </c>
-      <c r="AV158">
-        <v>0</v>
-      </c>
-      <c r="AX158">
-        <v>0</v>
-      </c>
-      <c r="AY158">
-        <v>0</v>
-      </c>
-      <c r="BA158">
-        <v>0</v>
-      </c>
-      <c r="BB158">
-        <v>0</v>
-      </c>
-      <c r="BC158">
-        <v>0</v>
-      </c>
-      <c r="BD158">
-        <v>0</v>
-      </c>
-      <c r="BE158">
-        <v>0</v>
-      </c>
-      <c r="BF158">
-        <v>0</v>
-      </c>
-      <c r="BG158">
-        <v>0</v>
       </c>
       <c r="BM158">
         <v>0</v>
@@ -17362,7 +17041,7 @@
     </row>
     <row r="159" spans="1:72">
       <c r="A159">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C159" t="s">
         <v>430</v>
@@ -17373,6 +17052,12 @@
       <c r="G159" t="s">
         <v>431</v>
       </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
       <c r="O159">
         <v>0</v>
       </c>
@@ -17382,8 +17067,8 @@
       <c r="Z159">
         <v>0</v>
       </c>
-      <c r="AC159">
-        <v>1</v>
+      <c r="AA159" t="s">
+        <v>358</v>
       </c>
       <c r="AI159">
         <v>0</v>
@@ -17432,9 +17117,6 @@
       </c>
       <c r="BG159">
         <v>0</v>
-      </c>
-      <c r="BH159" t="s">
-        <v>154</v>
       </c>
       <c r="BM159">
         <v>0</v>
@@ -17454,7 +17136,7 @@
     </row>
     <row r="160" spans="1:72">
       <c r="A160">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C160" t="s">
         <v>432</v>
@@ -17465,6 +17147,12 @@
       <c r="G160" t="s">
         <v>433</v>
       </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
       <c r="O160">
         <v>0</v>
       </c>
@@ -17474,8 +17162,8 @@
       <c r="Z160">
         <v>0</v>
       </c>
-      <c r="AC160">
-        <v>1</v>
+      <c r="AG160" t="s">
+        <v>296</v>
       </c>
       <c r="AI160">
         <v>0</v>
@@ -17492,6 +17180,9 @@
       <c r="AM160">
         <v>0</v>
       </c>
+      <c r="AN160">
+        <v>0.5</v>
+      </c>
       <c r="AS160">
         <v>0</v>
       </c>
@@ -17524,9 +17215,6 @@
       </c>
       <c r="BG160">
         <v>0</v>
-      </c>
-      <c r="BH160" t="s">
-        <v>170</v>
       </c>
       <c r="BM160">
         <v>0</v>
@@ -17546,7 +17234,7 @@
     </row>
     <row r="161" spans="1:72">
       <c r="A161">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C161" t="s">
         <v>434</v>
@@ -17557,6 +17245,12 @@
       <c r="G161" t="s">
         <v>435</v>
       </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
       <c r="O161">
         <v>0</v>
       </c>
@@ -17566,32 +17260,26 @@
       <c r="Z161">
         <v>0</v>
       </c>
-      <c r="AC161">
+      <c r="AG161" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
         <v>1</v>
-      </c>
-      <c r="AG161" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH161">
-        <v>0.1</v>
-      </c>
-      <c r="AI161">
-        <v>0</v>
-      </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
-      <c r="AK161">
-        <v>0</v>
-      </c>
-      <c r="AL161">
-        <v>0</v>
-      </c>
-      <c r="AM161">
-        <v>0</v>
-      </c>
-      <c r="AN161">
-        <v>0.15</v>
       </c>
       <c r="AS161">
         <v>0</v>
@@ -17644,16 +17332,22 @@
     </row>
     <row r="162" spans="1:72">
       <c r="A162">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -17664,59 +17358,59 @@
       <c r="Z162">
         <v>0</v>
       </c>
-      <c r="AC162">
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AS162">
+        <v>0</v>
+      </c>
+      <c r="AV162">
+        <v>0</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>0</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>0</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>0.25</v>
+      </c>
+      <c r="BJ162">
         <v>1</v>
-      </c>
-      <c r="AI162">
-        <v>0</v>
-      </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
-      <c r="AK162">
-        <v>0</v>
-      </c>
-      <c r="AL162">
-        <v>0</v>
-      </c>
-      <c r="AM162">
-        <v>0</v>
-      </c>
-      <c r="AS162">
-        <v>0</v>
-      </c>
-      <c r="AV162">
-        <v>0</v>
-      </c>
-      <c r="AX162">
-        <v>0</v>
-      </c>
-      <c r="AY162">
-        <v>0</v>
-      </c>
-      <c r="BA162">
-        <v>0</v>
-      </c>
-      <c r="BB162">
-        <v>0</v>
-      </c>
-      <c r="BC162">
-        <v>0</v>
-      </c>
-      <c r="BD162">
-        <v>0</v>
-      </c>
-      <c r="BE162">
-        <v>0</v>
-      </c>
-      <c r="BF162">
-        <v>0</v>
-      </c>
-      <c r="BG162">
-        <v>0</v>
-      </c>
-      <c r="BH162" t="s">
-        <v>78</v>
       </c>
       <c r="BM162">
         <v>0</v>
@@ -17736,16 +17430,22 @@
     </row>
     <row r="163" spans="1:72">
       <c r="A163">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -17756,15 +17456,6 @@
       <c r="Z163">
         <v>0</v>
       </c>
-      <c r="AC163">
-        <v>1</v>
-      </c>
-      <c r="AG163" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH163">
-        <v>0.25</v>
-      </c>
       <c r="AI163">
         <v>0</v>
       </c>
@@ -17779,9 +17470,6 @@
       </c>
       <c r="AM163">
         <v>0</v>
-      </c>
-      <c r="AN163">
-        <v>0.3</v>
       </c>
       <c r="AS163">
         <v>0</v>
@@ -17834,16 +17522,22 @@
     </row>
     <row r="164" spans="1:72">
       <c r="A164">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C164" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -17857,6 +17551,12 @@
       <c r="AC164">
         <v>1</v>
       </c>
+      <c r="AG164" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH164">
+        <v>0.5</v>
+      </c>
       <c r="AI164">
         <v>0</v>
       </c>
@@ -17872,6 +17572,9 @@
       <c r="AM164">
         <v>0</v>
       </c>
+      <c r="AN164">
+        <v>0.3</v>
+      </c>
       <c r="AS164">
         <v>0</v>
       </c>
@@ -17904,9 +17607,6 @@
       </c>
       <c r="BG164">
         <v>0</v>
-      </c>
-      <c r="BH164" t="s">
-        <v>163</v>
       </c>
       <c r="BM164">
         <v>0</v>
@@ -17926,16 +17626,16 @@
     </row>
     <row r="165" spans="1:72">
       <c r="A165">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D165" t="s">
         <v>73</v>
       </c>
       <c r="G165" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -17949,12 +17649,6 @@
       <c r="AC165">
         <v>1</v>
       </c>
-      <c r="AG165" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH165">
-        <v>0.35</v>
-      </c>
       <c r="AI165">
         <v>0</v>
       </c>
@@ -17970,9 +17664,6 @@
       <c r="AM165">
         <v>0</v>
       </c>
-      <c r="AN165">
-        <v>0.45</v>
-      </c>
       <c r="AS165">
         <v>0</v>
       </c>
@@ -18005,6 +17696,9 @@
       </c>
       <c r="BG165">
         <v>0</v>
+      </c>
+      <c r="BH165" t="s">
+        <v>161</v>
       </c>
       <c r="BM165">
         <v>0</v>
@@ -18024,16 +17718,16 @@
     </row>
     <row r="166" spans="1:72">
       <c r="A166">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C166" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
         <v>73</v>
       </c>
       <c r="G166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -18096,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="BH166" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="BM166">
         <v>0</v>
@@ -18116,16 +17810,16 @@
     </row>
     <row r="167" spans="1:72">
       <c r="A167">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -18140,10 +17834,10 @@
         <v>1</v>
       </c>
       <c r="AG167" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AH167">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AI167">
         <v>0</v>
@@ -18161,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="AN167">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="AS167">
         <v>0</v>
@@ -18214,7 +17908,7 @@
     </row>
     <row r="168" spans="1:72">
       <c r="A168">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C168" t="s">
         <v>449</v>
@@ -18286,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="BH168" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="BM168">
         <v>0</v>
@@ -18306,7 +18000,7 @@
     </row>
     <row r="169" spans="1:72">
       <c r="A169">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C169" t="s">
         <v>451</v>
@@ -18329,6 +18023,12 @@
       <c r="AC169">
         <v>1</v>
       </c>
+      <c r="AG169" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH169">
+        <v>0.25</v>
+      </c>
       <c r="AI169">
         <v>0</v>
       </c>
@@ -18343,6 +18043,9 @@
       </c>
       <c r="AM169">
         <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>0.3</v>
       </c>
       <c r="AS169">
         <v>0</v>
@@ -18395,7 +18098,7 @@
     </row>
     <row r="170" spans="1:72">
       <c r="A170">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C170" t="s">
         <v>453</v>
@@ -18465,6 +18168,9 @@
       </c>
       <c r="BG170">
         <v>0</v>
+      </c>
+      <c r="BH170" t="s">
+        <v>140</v>
       </c>
       <c r="BM170">
         <v>0</v>
@@ -18484,7 +18190,7 @@
     </row>
     <row r="171" spans="1:72">
       <c r="A171">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C171" t="s">
         <v>455</v>
@@ -18504,12 +18210,15 @@
       <c r="Z171">
         <v>0</v>
       </c>
-      <c r="AA171" t="s">
-        <v>457</v>
-      </c>
       <c r="AC171">
         <v>1</v>
       </c>
+      <c r="AG171" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH171">
+        <v>0.35</v>
+      </c>
       <c r="AI171">
         <v>0</v>
       </c>
@@ -18524,6 +18233,9 @@
       </c>
       <c r="AM171">
         <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>0.45</v>
       </c>
       <c r="AS171">
         <v>0</v>
@@ -18576,16 +18288,16 @@
     </row>
     <row r="172" spans="1:72">
       <c r="A172">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D172" t="s">
         <v>73</v>
       </c>
       <c r="G172" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -18646,6 +18358,9 @@
       </c>
       <c r="BG172">
         <v>0</v>
+      </c>
+      <c r="BH172" t="s">
+        <v>107</v>
       </c>
       <c r="BM172">
         <v>0</v>
@@ -18665,16 +18380,16 @@
     </row>
     <row r="173" spans="1:72">
       <c r="A173">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C173" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D173" t="s">
         <v>73</v>
       </c>
       <c r="G173" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -18688,6 +18403,12 @@
       <c r="AC173">
         <v>1</v>
       </c>
+      <c r="AG173" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH173">
+        <v>0.5</v>
+      </c>
       <c r="AI173">
         <v>0</v>
       </c>
@@ -18702,6 +18423,9 @@
       </c>
       <c r="AM173">
         <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>0.55</v>
       </c>
       <c r="AS173">
         <v>0</v>
@@ -18754,16 +18478,16 @@
     </row>
     <row r="174" spans="1:72">
       <c r="A174">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C174" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18824,6 +18548,9 @@
       </c>
       <c r="BG174">
         <v>0</v>
+      </c>
+      <c r="BH174" t="s">
+        <v>114</v>
       </c>
       <c r="BM174">
         <v>0</v>
@@ -18843,16 +18570,16 @@
     </row>
     <row r="175" spans="1:72">
       <c r="A175">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C175" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18932,16 +18659,16 @@
     </row>
     <row r="176" spans="1:72">
       <c r="A176">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C176" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -19021,25 +18748,28 @@
     </row>
     <row r="177" spans="1:72">
       <c r="A177">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C177" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
+        <v>468</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177" t="s">
         <v>469</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
       </c>
       <c r="AC177">
         <v>1</v>
@@ -19091,9 +18821,6 @@
       </c>
       <c r="BG177">
         <v>0</v>
-      </c>
-      <c r="BH177" t="s">
-        <v>109</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -19113,7 +18840,7 @@
     </row>
     <row r="178" spans="1:72">
       <c r="A178">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C178" t="s">
         <v>470</v>
@@ -19183,9 +18910,6 @@
       </c>
       <c r="BG178">
         <v>0</v>
-      </c>
-      <c r="BH178" t="s">
-        <v>163</v>
       </c>
       <c r="BM178">
         <v>0</v>
@@ -19205,7 +18929,7 @@
     </row>
     <row r="179" spans="1:72">
       <c r="A179">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C179" t="s">
         <v>472</v>
@@ -19294,7 +19018,7 @@
     </row>
     <row r="180" spans="1:72">
       <c r="A180">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C180" t="s">
         <v>474</v>
@@ -19364,9 +19088,6 @@
       </c>
       <c r="BG180">
         <v>0</v>
-      </c>
-      <c r="BH180" t="s">
-        <v>170</v>
       </c>
       <c r="BM180">
         <v>0</v>
@@ -19386,7 +19107,7 @@
     </row>
     <row r="181" spans="1:72">
       <c r="A181">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C181" t="s">
         <v>476</v>
@@ -19475,7 +19196,7 @@
     </row>
     <row r="182" spans="1:72">
       <c r="A182">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C182" t="s">
         <v>478</v>
@@ -19545,9 +19266,6 @@
       </c>
       <c r="BG182">
         <v>0</v>
-      </c>
-      <c r="BH182" t="s">
-        <v>114</v>
       </c>
       <c r="BM182">
         <v>0</v>
@@ -19567,7 +19285,7 @@
     </row>
     <row r="183" spans="1:72">
       <c r="A183">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C183" t="s">
         <v>480</v>
@@ -19639,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="BH183" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="BM183">
         <v>0</v>
@@ -19659,7 +19377,7 @@
     </row>
     <row r="184" spans="1:72">
       <c r="A184">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C184" t="s">
         <v>482</v>
@@ -19729,6 +19447,9 @@
       </c>
       <c r="BG184">
         <v>0</v>
+      </c>
+      <c r="BH184" t="s">
+        <v>140</v>
       </c>
       <c r="BM184">
         <v>0</v>
@@ -19748,7 +19469,7 @@
     </row>
     <row r="185" spans="1:72">
       <c r="A185">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C185" t="s">
         <v>484</v>
@@ -19818,9 +19539,6 @@
       </c>
       <c r="BG185">
         <v>0</v>
-      </c>
-      <c r="BH185" t="s">
-        <v>78</v>
       </c>
       <c r="BM185">
         <v>0</v>
@@ -19840,7 +19558,7 @@
     </row>
     <row r="186" spans="1:72">
       <c r="A186">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C186" t="s">
         <v>486</v>
@@ -19910,6 +19628,9 @@
       </c>
       <c r="BG186">
         <v>0</v>
+      </c>
+      <c r="BH186" t="s">
+        <v>129</v>
       </c>
       <c r="BM186">
         <v>0</v>
@@ -19929,7 +19650,7 @@
     </row>
     <row r="187" spans="1:72">
       <c r="A187">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C187" t="s">
         <v>488</v>
@@ -20018,7 +19739,7 @@
     </row>
     <row r="188" spans="1:72">
       <c r="A188">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C188" t="s">
         <v>490</v>
@@ -20088,6 +19809,9 @@
       </c>
       <c r="BG188">
         <v>0</v>
+      </c>
+      <c r="BH188" t="s">
+        <v>107</v>
       </c>
       <c r="BM188">
         <v>0</v>
@@ -20107,7 +19831,7 @@
     </row>
     <row r="189" spans="1:72">
       <c r="A189">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C189" t="s">
         <v>492</v>
@@ -20177,6 +19901,9 @@
       </c>
       <c r="BG189">
         <v>0</v>
+      </c>
+      <c r="BH189" t="s">
+        <v>97</v>
       </c>
       <c r="BM189">
         <v>0</v>
@@ -20196,7 +19923,7 @@
     </row>
     <row r="190" spans="1:72">
       <c r="A190">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C190" t="s">
         <v>494</v>
@@ -20285,7 +20012,7 @@
     </row>
     <row r="191" spans="1:72">
       <c r="A191">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C191" t="s">
         <v>496</v>
@@ -20355,6 +20082,9 @@
       </c>
       <c r="BG191">
         <v>0</v>
+      </c>
+      <c r="BH191" t="s">
+        <v>114</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -20374,7 +20104,7 @@
     </row>
     <row r="192" spans="1:72">
       <c r="A192">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C192" t="s">
         <v>498</v>
@@ -20463,7 +20193,7 @@
     </row>
     <row r="193" spans="1:72">
       <c r="A193">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C193" t="s">
         <v>500</v>
@@ -20552,7 +20282,7 @@
     </row>
     <row r="194" spans="1:72">
       <c r="A194">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C194" t="s">
         <v>502</v>
@@ -20641,7 +20371,7 @@
     </row>
     <row r="195" spans="1:72">
       <c r="A195">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C195" t="s">
         <v>504</v>
@@ -20730,7 +20460,7 @@
     </row>
     <row r="196" spans="1:72">
       <c r="A196">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C196" t="s">
         <v>506</v>
@@ -20819,7 +20549,7 @@
     </row>
     <row r="197" spans="1:72">
       <c r="A197">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C197" t="s">
         <v>508</v>
@@ -20908,7 +20638,7 @@
     </row>
     <row r="198" spans="1:72">
       <c r="A198">
-        <v>210180</v>
+        <v>628</v>
       </c>
       <c r="C198" t="s">
         <v>510</v>
@@ -20978,9 +20708,6 @@
       </c>
       <c r="BG198">
         <v>0</v>
-      </c>
-      <c r="BH198" t="s">
-        <v>512</v>
       </c>
       <c r="BM198">
         <v>0</v>
@@ -21000,16 +20727,16 @@
     </row>
     <row r="199" spans="1:72">
       <c r="A199">
-        <v>210181</v>
+        <v>629</v>
       </c>
       <c r="C199" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -21070,9 +20797,6 @@
       </c>
       <c r="BG199">
         <v>0</v>
-      </c>
-      <c r="BH199" t="s">
-        <v>512</v>
       </c>
       <c r="BM199">
         <v>0</v>
@@ -21092,16 +20816,16 @@
     </row>
     <row r="200" spans="1:72">
       <c r="A200">
-        <v>210182</v>
+        <v>630</v>
       </c>
       <c r="C200" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -21162,9 +20886,6 @@
       </c>
       <c r="BG200">
         <v>0</v>
-      </c>
-      <c r="BH200" t="s">
-        <v>517</v>
       </c>
       <c r="BM200">
         <v>0</v>
@@ -21184,16 +20905,16 @@
     </row>
     <row r="201" spans="1:72">
       <c r="A201">
-        <v>210183</v>
+        <v>631</v>
       </c>
       <c r="C201" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -21207,12 +20928,6 @@
       <c r="AC201">
         <v>1</v>
       </c>
-      <c r="AG201" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH201">
-        <v>0.35</v>
-      </c>
       <c r="AI201">
         <v>0</v>
       </c>
@@ -21228,9 +20943,6 @@
       <c r="AM201">
         <v>0</v>
       </c>
-      <c r="AN201">
-        <v>0.35</v>
-      </c>
       <c r="AS201">
         <v>0</v>
       </c>
@@ -21263,9 +20975,6 @@
       </c>
       <c r="BG201">
         <v>0</v>
-      </c>
-      <c r="BH201" t="s">
-        <v>517</v>
       </c>
       <c r="BM201">
         <v>0</v>
@@ -21285,16 +20994,16 @@
     </row>
     <row r="202" spans="1:72">
       <c r="A202">
-        <v>210184</v>
+        <v>632</v>
       </c>
       <c r="C202" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -21355,9 +21064,6 @@
       </c>
       <c r="BG202">
         <v>0</v>
-      </c>
-      <c r="BH202" t="s">
-        <v>517</v>
       </c>
       <c r="BM202">
         <v>0</v>
@@ -21377,16 +21083,16 @@
     </row>
     <row r="203" spans="1:72">
       <c r="A203">
-        <v>210185</v>
+        <v>633</v>
       </c>
       <c r="C203" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -21447,9 +21153,6 @@
       </c>
       <c r="BG203">
         <v>0</v>
-      </c>
-      <c r="BH203" t="s">
-        <v>517</v>
       </c>
       <c r="BM203">
         <v>0</v>
@@ -21469,16 +21172,16 @@
     </row>
     <row r="204" spans="1:72">
       <c r="A204">
-        <v>210186</v>
+        <v>210180</v>
       </c>
       <c r="C204" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -21488,9 +21191,6 @@
       </c>
       <c r="Z204">
         <v>0</v>
-      </c>
-      <c r="AA204" t="s">
-        <v>526</v>
       </c>
       <c r="AC204">
         <v>1</v>
@@ -21542,6 +21242,9 @@
       </c>
       <c r="BG204">
         <v>0</v>
+      </c>
+      <c r="BH204" t="s">
+        <v>524</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -21561,16 +21264,16 @@
     </row>
     <row r="205" spans="1:72">
       <c r="A205">
-        <v>210187</v>
+        <v>210181</v>
       </c>
       <c r="C205" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21633,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="BH205" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="BM205">
         <v>0</v>
@@ -21653,16 +21356,16 @@
     </row>
     <row r="206" spans="1:72">
       <c r="A206">
-        <v>210188</v>
+        <v>210182</v>
       </c>
       <c r="C206" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21723,6 +21426,9 @@
       </c>
       <c r="BG206">
         <v>0</v>
+      </c>
+      <c r="BH206" t="s">
+        <v>529</v>
       </c>
       <c r="BM206">
         <v>0</v>
@@ -21742,16 +21448,16 @@
     </row>
     <row r="207" spans="1:72">
       <c r="A207">
-        <v>210189</v>
+        <v>210183</v>
       </c>
       <c r="C207" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21766,10 +21472,10 @@
         <v>1</v>
       </c>
       <c r="AG207" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="AH207">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="AI207">
         <v>0</v>
@@ -21787,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="AN207">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="AS207">
         <v>0</v>
@@ -21823,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="BH207" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="BM207">
         <v>0</v>
@@ -21843,16 +21549,16 @@
     </row>
     <row r="208" spans="1:72">
       <c r="A208">
-        <v>210190</v>
+        <v>210184</v>
       </c>
       <c r="C208" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21866,12 +21572,6 @@
       <c r="AC208">
         <v>1</v>
       </c>
-      <c r="AG208" t="s">
-        <v>536</v>
-      </c>
-      <c r="AH208">
-        <v>1</v>
-      </c>
       <c r="AI208">
         <v>0</v>
       </c>
@@ -21887,9 +21587,6 @@
       <c r="AM208">
         <v>0</v>
       </c>
-      <c r="AN208">
-        <v>1</v>
-      </c>
       <c r="AS208">
         <v>0</v>
       </c>
@@ -21924,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="BH208" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="BM208">
         <v>0</v>
@@ -21944,16 +21641,16 @@
     </row>
     <row r="209" spans="1:72">
       <c r="A209">
-        <v>210191</v>
+        <v>210185</v>
       </c>
       <c r="C209" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -22016,7 +21713,7 @@
         <v>0</v>
       </c>
       <c r="BH209" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="BM209">
         <v>0</v>
@@ -22036,16 +21733,16 @@
     </row>
     <row r="210" spans="1:72">
       <c r="A210">
-        <v>210192</v>
+        <v>210186</v>
       </c>
       <c r="C210" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -22055,16 +21752,13 @@
       </c>
       <c r="Z210">
         <v>0</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>538</v>
       </c>
       <c r="AC210">
         <v>1</v>
       </c>
-      <c r="AG210" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH210">
-        <v>0.3</v>
-      </c>
       <c r="AI210">
         <v>0</v>
       </c>
@@ -22080,9 +21774,6 @@
       <c r="AM210">
         <v>0</v>
       </c>
-      <c r="AN210">
-        <v>0.3</v>
-      </c>
       <c r="AS210">
         <v>0</v>
       </c>
@@ -22115,9 +21806,6 @@
       </c>
       <c r="BG210">
         <v>0</v>
-      </c>
-      <c r="BH210" t="s">
-        <v>533</v>
       </c>
       <c r="BM210">
         <v>0</v>
@@ -22137,16 +21825,16 @@
     </row>
     <row r="211" spans="1:72">
       <c r="A211">
-        <v>210193</v>
+        <v>210187</v>
       </c>
       <c r="C211" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -22209,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="BH211" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -22229,16 +21917,16 @@
     </row>
     <row r="212" spans="1:72">
       <c r="A212">
-        <v>210194</v>
+        <v>210188</v>
       </c>
       <c r="C212" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -22299,9 +21987,6 @@
       </c>
       <c r="BG212">
         <v>0</v>
-      </c>
-      <c r="BH212" t="s">
-        <v>533</v>
       </c>
       <c r="BM212">
         <v>0</v>
@@ -22321,16 +22006,16 @@
     </row>
     <row r="213" spans="1:72">
       <c r="A213">
-        <v>210195</v>
+        <v>210189</v>
       </c>
       <c r="C213" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -22344,6 +22029,12 @@
       <c r="AC213">
         <v>1</v>
       </c>
+      <c r="AG213" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH213">
+        <v>0.6</v>
+      </c>
       <c r="AI213">
         <v>0</v>
       </c>
@@ -22359,6 +22050,9 @@
       <c r="AM213">
         <v>0</v>
       </c>
+      <c r="AN213">
+        <v>0.6</v>
+      </c>
       <c r="AS213">
         <v>0</v>
       </c>
@@ -22391,6 +22085,9 @@
       </c>
       <c r="BG213">
         <v>0</v>
+      </c>
+      <c r="BH213" t="s">
+        <v>545</v>
       </c>
       <c r="BM213">
         <v>0</v>
@@ -22410,16 +22107,16 @@
     </row>
     <row r="214" spans="1:72">
       <c r="A214">
-        <v>210196</v>
+        <v>210190</v>
       </c>
       <c r="C214" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -22433,6 +22130,12 @@
       <c r="AC214">
         <v>1</v>
       </c>
+      <c r="AG214" t="s">
+        <v>548</v>
+      </c>
+      <c r="AH214">
+        <v>1</v>
+      </c>
       <c r="AI214">
         <v>0</v>
       </c>
@@ -22448,6 +22151,9 @@
       <c r="AM214">
         <v>0</v>
       </c>
+      <c r="AN214">
+        <v>1</v>
+      </c>
       <c r="AS214">
         <v>0</v>
       </c>
@@ -22480,6 +22186,9 @@
       </c>
       <c r="BG214">
         <v>0</v>
+      </c>
+      <c r="BH214" t="s">
+        <v>545</v>
       </c>
       <c r="BM214">
         <v>0</v>
@@ -22499,7 +22208,7 @@
     </row>
     <row r="215" spans="1:72">
       <c r="A215">
-        <v>210197</v>
+        <v>210191</v>
       </c>
       <c r="C215" t="s">
         <v>549</v>
@@ -22571,7 +22280,7 @@
         <v>0</v>
       </c>
       <c r="BH215" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22591,16 +22300,16 @@
     </row>
     <row r="216" spans="1:72">
       <c r="A216">
-        <v>210198</v>
+        <v>210192</v>
       </c>
       <c r="C216" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22614,6 +22323,12 @@
       <c r="AC216">
         <v>1</v>
       </c>
+      <c r="AG216" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH216">
+        <v>0.3</v>
+      </c>
       <c r="AI216">
         <v>0</v>
       </c>
@@ -22629,6 +22344,9 @@
       <c r="AM216">
         <v>0</v>
       </c>
+      <c r="AN216">
+        <v>0.3</v>
+      </c>
       <c r="AS216">
         <v>0</v>
       </c>
@@ -22663,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="BH216" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22683,16 +22401,16 @@
     </row>
     <row r="217" spans="1:72">
       <c r="A217">
-        <v>210199</v>
+        <v>210193</v>
       </c>
       <c r="C217" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22755,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="BH217" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="BM217">
         <v>0</v>
@@ -22775,16 +22493,16 @@
     </row>
     <row r="218" spans="1:72">
       <c r="A218">
-        <v>210200</v>
+        <v>210194</v>
       </c>
       <c r="C218" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22845,6 +22563,9 @@
       </c>
       <c r="BG218">
         <v>0</v>
+      </c>
+      <c r="BH218" t="s">
+        <v>545</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22864,16 +22585,16 @@
     </row>
     <row r="219" spans="1:72">
       <c r="A219">
-        <v>210201</v>
+        <v>210195</v>
       </c>
       <c r="C219" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22934,9 +22655,6 @@
       </c>
       <c r="BG219">
         <v>0</v>
-      </c>
-      <c r="BH219" t="s">
-        <v>560</v>
       </c>
       <c r="BM219">
         <v>0</v>
@@ -22956,16 +22674,16 @@
     </row>
     <row r="220" spans="1:72">
       <c r="A220">
-        <v>210202</v>
+        <v>210196</v>
       </c>
       <c r="C220" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22979,12 +22697,6 @@
       <c r="AC220">
         <v>1</v>
       </c>
-      <c r="AG220" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH220">
-        <v>0.75</v>
-      </c>
       <c r="AI220">
         <v>0</v>
       </c>
@@ -23000,9 +22712,6 @@
       <c r="AM220">
         <v>0</v>
       </c>
-      <c r="AN220">
-        <v>1.25</v>
-      </c>
       <c r="AS220">
         <v>0</v>
       </c>
@@ -23035,9 +22744,6 @@
       </c>
       <c r="BG220">
         <v>0</v>
-      </c>
-      <c r="BH220" t="s">
-        <v>560</v>
       </c>
       <c r="BM220">
         <v>0</v>
@@ -23057,16 +22763,16 @@
     </row>
     <row r="221" spans="1:72">
       <c r="A221">
-        <v>210203</v>
+        <v>210197</v>
       </c>
       <c r="C221" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D221" t="s">
         <v>73</v>
       </c>
       <c r="G221" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O221">
         <v>0</v>
@@ -23080,12 +22786,6 @@
       <c r="AC221">
         <v>1</v>
       </c>
-      <c r="AG221" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH221">
-        <v>1</v>
-      </c>
       <c r="AI221">
         <v>0</v>
       </c>
@@ -23101,9 +22801,6 @@
       <c r="AM221">
         <v>0</v>
       </c>
-      <c r="AN221">
-        <v>1.25</v>
-      </c>
       <c r="AS221">
         <v>0</v>
       </c>
@@ -23138,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="BH221" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="BM221">
         <v>0</v>
@@ -23158,16 +22855,16 @@
     </row>
     <row r="222" spans="1:72">
       <c r="A222">
-        <v>210204</v>
+        <v>210198</v>
       </c>
       <c r="C222" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D222" t="s">
         <v>73</v>
       </c>
       <c r="G222" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -23230,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="BH222" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="BM222">
         <v>0</v>
@@ -23250,16 +22947,16 @@
     </row>
     <row r="223" spans="1:72">
       <c r="A223">
-        <v>210205</v>
+        <v>210199</v>
       </c>
       <c r="C223" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D223" t="s">
         <v>73</v>
       </c>
       <c r="G223" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O223">
         <v>0</v>
@@ -23320,6 +23017,9 @@
       </c>
       <c r="BG223">
         <v>0</v>
+      </c>
+      <c r="BH223" t="s">
+        <v>563</v>
       </c>
       <c r="BM223">
         <v>0</v>
@@ -23339,16 +23039,16 @@
     </row>
     <row r="224" spans="1:72">
       <c r="A224">
-        <v>210206</v>
+        <v>210200</v>
       </c>
       <c r="C224" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D224" t="s">
         <v>73</v>
       </c>
       <c r="G224" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O224">
         <v>0</v>
@@ -23358,9 +23058,6 @@
       </c>
       <c r="Z224">
         <v>0</v>
-      </c>
-      <c r="AA224" t="s">
-        <v>571</v>
       </c>
       <c r="AC224">
         <v>1</v>
@@ -23431,16 +23128,16 @@
     </row>
     <row r="225" spans="1:72">
       <c r="A225">
-        <v>210207</v>
+        <v>210201</v>
       </c>
       <c r="C225" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D225" t="s">
         <v>73</v>
       </c>
       <c r="G225" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -23454,12 +23151,6 @@
       <c r="AC225">
         <v>1</v>
       </c>
-      <c r="AG225" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH225">
-        <v>1</v>
-      </c>
       <c r="AI225">
         <v>0</v>
       </c>
@@ -23475,9 +23166,6 @@
       <c r="AM225">
         <v>0</v>
       </c>
-      <c r="AN225">
-        <v>1.2</v>
-      </c>
       <c r="AS225">
         <v>0</v>
       </c>
@@ -23512,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="BH225" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="BM225">
         <v>0</v>
@@ -23532,16 +23220,16 @@
     </row>
     <row r="226" spans="1:72">
       <c r="A226">
-        <v>210208</v>
+        <v>210202</v>
       </c>
       <c r="C226" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D226" t="s">
         <v>73</v>
       </c>
       <c r="G226" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O226">
         <v>0</v>
@@ -23555,6 +23243,12 @@
       <c r="AC226">
         <v>1</v>
       </c>
+      <c r="AG226" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH226">
+        <v>0.75</v>
+      </c>
       <c r="AI226">
         <v>0</v>
       </c>
@@ -23570,6 +23264,9 @@
       <c r="AM226">
         <v>0</v>
       </c>
+      <c r="AN226">
+        <v>1.25</v>
+      </c>
       <c r="AS226">
         <v>0</v>
       </c>
@@ -23602,6 +23299,9 @@
       </c>
       <c r="BG226">
         <v>0</v>
+      </c>
+      <c r="BH226" t="s">
+        <v>572</v>
       </c>
       <c r="BM226">
         <v>0</v>
@@ -23621,16 +23321,16 @@
     </row>
     <row r="227" spans="1:72">
       <c r="A227">
-        <v>210209</v>
+        <v>210203</v>
       </c>
       <c r="C227" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D227" t="s">
         <v>73</v>
       </c>
       <c r="G227" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O227">
         <v>0</v>
@@ -23644,6 +23344,12 @@
       <c r="AC227">
         <v>1</v>
       </c>
+      <c r="AG227" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
       <c r="AI227">
         <v>0</v>
       </c>
@@ -23659,6 +23365,9 @@
       <c r="AM227">
         <v>0</v>
       </c>
+      <c r="AN227">
+        <v>1.25</v>
+      </c>
       <c r="AS227">
         <v>0</v>
       </c>
@@ -23691,6 +23400,9 @@
       </c>
       <c r="BG227">
         <v>0</v>
+      </c>
+      <c r="BH227" t="s">
+        <v>572</v>
       </c>
       <c r="BM227">
         <v>0</v>
@@ -23710,16 +23422,16 @@
     </row>
     <row r="228" spans="1:72">
       <c r="A228">
-        <v>210210</v>
+        <v>210204</v>
       </c>
       <c r="C228" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D228" t="s">
         <v>73</v>
       </c>
       <c r="G228" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O228">
         <v>0</v>
@@ -23782,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="BH228" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="BM228">
         <v>0</v>
@@ -23802,16 +23514,16 @@
     </row>
     <row r="229" spans="1:72">
       <c r="A229">
-        <v>210211</v>
+        <v>210205</v>
       </c>
       <c r="C229" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D229" t="s">
         <v>73</v>
       </c>
       <c r="G229" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O229">
         <v>0</v>
@@ -23872,9 +23584,6 @@
       </c>
       <c r="BG229">
         <v>0</v>
-      </c>
-      <c r="BH229" t="s">
-        <v>580</v>
       </c>
       <c r="BM229">
         <v>0</v>
@@ -23894,16 +23603,16 @@
     </row>
     <row r="230" spans="1:72">
       <c r="A230">
-        <v>210212</v>
+        <v>210206</v>
       </c>
       <c r="C230" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D230" t="s">
         <v>73</v>
       </c>
       <c r="G230" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O230">
         <v>0</v>
@@ -23913,6 +23622,9 @@
       </c>
       <c r="Z230">
         <v>0</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>583</v>
       </c>
       <c r="AC230">
         <v>1</v>
@@ -23983,16 +23695,16 @@
     </row>
     <row r="231" spans="1:72">
       <c r="A231">
-        <v>210213</v>
+        <v>210207</v>
       </c>
       <c r="C231" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D231" t="s">
         <v>73</v>
       </c>
       <c r="G231" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O231">
         <v>0</v>
@@ -24006,6 +23718,12 @@
       <c r="AC231">
         <v>1</v>
       </c>
+      <c r="AG231" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
       <c r="AI231">
         <v>0</v>
       </c>
@@ -24021,6 +23739,9 @@
       <c r="AM231">
         <v>0</v>
       </c>
+      <c r="AN231">
+        <v>1.2</v>
+      </c>
       <c r="AS231">
         <v>0</v>
       </c>
@@ -24055,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="BH231" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="BM231">
         <v>0</v>
@@ -24075,16 +23796,16 @@
     </row>
     <row r="232" spans="1:72">
       <c r="A232">
-        <v>210214</v>
+        <v>210208</v>
       </c>
       <c r="C232" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D232" t="s">
         <v>73</v>
       </c>
       <c r="G232" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O232">
         <v>0</v>
@@ -24164,16 +23885,16 @@
     </row>
     <row r="233" spans="1:72">
       <c r="A233">
-        <v>410519</v>
+        <v>210209</v>
       </c>
       <c r="C233" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D233" t="s">
         <v>73</v>
       </c>
       <c r="G233" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O233">
         <v>0</v>
@@ -24253,16 +23974,16 @@
     </row>
     <row r="234" spans="1:72">
       <c r="A234">
-        <v>1170415</v>
+        <v>210210</v>
       </c>
       <c r="C234" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D234" t="s">
         <v>73</v>
       </c>
       <c r="G234" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O234">
         <v>0</v>
@@ -24325,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="BH234" t="s">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="BM234">
         <v>0</v>
@@ -24345,7 +24066,7 @@
     </row>
     <row r="235" spans="1:72">
       <c r="A235">
-        <v>1170416</v>
+        <v>210211</v>
       </c>
       <c r="C235" t="s">
         <v>593</v>
@@ -24417,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="BH235" t="s">
-        <v>109</v>
+        <v>592</v>
       </c>
       <c r="BM235">
         <v>0</v>
@@ -24437,7 +24158,7 @@
     </row>
     <row r="236" spans="1:72">
       <c r="A236">
-        <v>1170417</v>
+        <v>210212</v>
       </c>
       <c r="C236" t="s">
         <v>595</v>
@@ -24507,9 +24228,6 @@
       </c>
       <c r="BG236">
         <v>0</v>
-      </c>
-      <c r="BH236" t="s">
-        <v>133</v>
       </c>
       <c r="BM236">
         <v>0</v>
@@ -24529,7 +24247,7 @@
     </row>
     <row r="237" spans="1:72">
       <c r="A237">
-        <v>1170418</v>
+        <v>210213</v>
       </c>
       <c r="C237" t="s">
         <v>597</v>
@@ -24601,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="BH237" t="s">
-        <v>136</v>
+        <v>524</v>
       </c>
       <c r="BM237">
         <v>0</v>
@@ -24621,7 +24339,7 @@
     </row>
     <row r="238" spans="1:72">
       <c r="A238">
-        <v>1170419</v>
+        <v>210214</v>
       </c>
       <c r="C238" t="s">
         <v>599</v>
@@ -24710,7 +24428,7 @@
     </row>
     <row r="239" spans="1:72">
       <c r="A239">
-        <v>1170420</v>
+        <v>410519</v>
       </c>
       <c r="C239" t="s">
         <v>601</v>
@@ -24780,9 +24498,6 @@
       </c>
       <c r="BG239">
         <v>0</v>
-      </c>
-      <c r="BH239" t="s">
-        <v>603</v>
       </c>
       <c r="BM239">
         <v>0</v>
@@ -24802,16 +24517,16 @@
     </row>
     <row r="240" spans="1:72">
       <c r="A240">
-        <v>1170421</v>
+        <v>1170415</v>
       </c>
       <c r="C240" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D240" t="s">
         <v>73</v>
       </c>
       <c r="G240" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O240">
         <v>0</v>
@@ -24874,7 +24589,7 @@
         <v>0</v>
       </c>
       <c r="BH240" t="s">
-        <v>603</v>
+        <v>146</v>
       </c>
       <c r="BM240">
         <v>0</v>
@@ -24894,16 +24609,16 @@
     </row>
     <row r="241" spans="1:72">
       <c r="A241">
-        <v>1170422</v>
+        <v>1170416</v>
       </c>
       <c r="C241" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D241" t="s">
         <v>73</v>
       </c>
       <c r="G241" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O241">
         <v>0</v>
@@ -24966,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="BH241" t="s">
-        <v>603</v>
+        <v>102</v>
       </c>
       <c r="BM241">
         <v>0</v>
@@ -24986,16 +24701,16 @@
     </row>
     <row r="242" spans="1:72">
       <c r="A242">
-        <v>1170423</v>
+        <v>1170417</v>
       </c>
       <c r="C242" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D242" t="s">
         <v>73</v>
       </c>
       <c r="G242" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O242">
         <v>0</v>
@@ -25058,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="BH242" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="BM242">
         <v>0</v>
@@ -25078,16 +24793,16 @@
     </row>
     <row r="243" spans="1:72">
       <c r="A243">
-        <v>1170424</v>
+        <v>1170418</v>
       </c>
       <c r="C243" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D243" t="s">
         <v>73</v>
       </c>
       <c r="G243" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O243">
         <v>0</v>
@@ -25150,7 +24865,7 @@
         <v>0</v>
       </c>
       <c r="BH243" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="BM243">
         <v>0</v>
@@ -25170,16 +24885,16 @@
     </row>
     <row r="244" spans="1:72">
       <c r="A244">
-        <v>1170425</v>
+        <v>1170419</v>
       </c>
       <c r="C244" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D244" t="s">
         <v>73</v>
       </c>
       <c r="G244" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O244">
         <v>0</v>
@@ -25241,9 +24956,6 @@
       <c r="BG244">
         <v>0</v>
       </c>
-      <c r="BH244" t="s">
-        <v>136</v>
-      </c>
       <c r="BM244">
         <v>0</v>
       </c>
@@ -25257,6 +24969,558 @@
         <v>0</v>
       </c>
       <c r="BQ244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:72">
+      <c r="A245">
+        <v>1170420</v>
+      </c>
+      <c r="C245" t="s">
+        <v>613</v>
+      </c>
+      <c r="D245" t="s">
+        <v>73</v>
+      </c>
+      <c r="G245" t="s">
+        <v>614</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AC245">
+        <v>1</v>
+      </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <v>0</v>
+      </c>
+      <c r="AL245">
+        <v>0</v>
+      </c>
+      <c r="AM245">
+        <v>0</v>
+      </c>
+      <c r="AS245">
+        <v>0</v>
+      </c>
+      <c r="AV245">
+        <v>0</v>
+      </c>
+      <c r="AX245">
+        <v>0</v>
+      </c>
+      <c r="AY245">
+        <v>0</v>
+      </c>
+      <c r="BA245">
+        <v>0</v>
+      </c>
+      <c r="BB245">
+        <v>0</v>
+      </c>
+      <c r="BC245">
+        <v>0</v>
+      </c>
+      <c r="BD245">
+        <v>0</v>
+      </c>
+      <c r="BE245">
+        <v>0</v>
+      </c>
+      <c r="BF245">
+        <v>0</v>
+      </c>
+      <c r="BG245">
+        <v>0</v>
+      </c>
+      <c r="BH245" t="s">
+        <v>615</v>
+      </c>
+      <c r="BM245">
+        <v>0</v>
+      </c>
+      <c r="BN245">
+        <v>0</v>
+      </c>
+      <c r="BO245">
+        <v>0</v>
+      </c>
+      <c r="BP245">
+        <v>0</v>
+      </c>
+      <c r="BQ245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:72">
+      <c r="A246">
+        <v>1170421</v>
+      </c>
+      <c r="C246" t="s">
+        <v>616</v>
+      </c>
+      <c r="D246" t="s">
+        <v>73</v>
+      </c>
+      <c r="G246" t="s">
+        <v>617</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AC246">
+        <v>1</v>
+      </c>
+      <c r="AI246">
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <v>0</v>
+      </c>
+      <c r="AK246">
+        <v>0</v>
+      </c>
+      <c r="AL246">
+        <v>0</v>
+      </c>
+      <c r="AM246">
+        <v>0</v>
+      </c>
+      <c r="AS246">
+        <v>0</v>
+      </c>
+      <c r="AV246">
+        <v>0</v>
+      </c>
+      <c r="AX246">
+        <v>0</v>
+      </c>
+      <c r="AY246">
+        <v>0</v>
+      </c>
+      <c r="BA246">
+        <v>0</v>
+      </c>
+      <c r="BB246">
+        <v>0</v>
+      </c>
+      <c r="BC246">
+        <v>0</v>
+      </c>
+      <c r="BD246">
+        <v>0</v>
+      </c>
+      <c r="BE246">
+        <v>0</v>
+      </c>
+      <c r="BF246">
+        <v>0</v>
+      </c>
+      <c r="BG246">
+        <v>0</v>
+      </c>
+      <c r="BH246" t="s">
+        <v>615</v>
+      </c>
+      <c r="BM246">
+        <v>0</v>
+      </c>
+      <c r="BN246">
+        <v>0</v>
+      </c>
+      <c r="BO246">
+        <v>0</v>
+      </c>
+      <c r="BP246">
+        <v>0</v>
+      </c>
+      <c r="BQ246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:72">
+      <c r="A247">
+        <v>1170422</v>
+      </c>
+      <c r="C247" t="s">
+        <v>618</v>
+      </c>
+      <c r="D247" t="s">
+        <v>73</v>
+      </c>
+      <c r="G247" t="s">
+        <v>619</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AC247">
+        <v>1</v>
+      </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <v>0</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
+      <c r="AS247">
+        <v>0</v>
+      </c>
+      <c r="AV247">
+        <v>0</v>
+      </c>
+      <c r="AX247">
+        <v>0</v>
+      </c>
+      <c r="AY247">
+        <v>0</v>
+      </c>
+      <c r="BA247">
+        <v>0</v>
+      </c>
+      <c r="BB247">
+        <v>0</v>
+      </c>
+      <c r="BC247">
+        <v>0</v>
+      </c>
+      <c r="BD247">
+        <v>0</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
+        <v>0</v>
+      </c>
+      <c r="BG247">
+        <v>0</v>
+      </c>
+      <c r="BH247" t="s">
+        <v>615</v>
+      </c>
+      <c r="BM247">
+        <v>0</v>
+      </c>
+      <c r="BN247">
+        <v>0</v>
+      </c>
+      <c r="BO247">
+        <v>0</v>
+      </c>
+      <c r="BP247">
+        <v>0</v>
+      </c>
+      <c r="BQ247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:72">
+      <c r="A248">
+        <v>1170423</v>
+      </c>
+      <c r="C248" t="s">
+        <v>620</v>
+      </c>
+      <c r="D248" t="s">
+        <v>73</v>
+      </c>
+      <c r="G248" t="s">
+        <v>621</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AC248">
+        <v>1</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AS248">
+        <v>0</v>
+      </c>
+      <c r="AV248">
+        <v>0</v>
+      </c>
+      <c r="AX248">
+        <v>0</v>
+      </c>
+      <c r="AY248">
+        <v>0</v>
+      </c>
+      <c r="BA248">
+        <v>0</v>
+      </c>
+      <c r="BB248">
+        <v>0</v>
+      </c>
+      <c r="BC248">
+        <v>0</v>
+      </c>
+      <c r="BD248">
+        <v>0</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>0</v>
+      </c>
+      <c r="BG248">
+        <v>0</v>
+      </c>
+      <c r="BH248" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM248">
+        <v>0</v>
+      </c>
+      <c r="BN248">
+        <v>0</v>
+      </c>
+      <c r="BO248">
+        <v>0</v>
+      </c>
+      <c r="BP248">
+        <v>0</v>
+      </c>
+      <c r="BQ248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:72">
+      <c r="A249">
+        <v>1170424</v>
+      </c>
+      <c r="C249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D249" t="s">
+        <v>73</v>
+      </c>
+      <c r="G249" t="s">
+        <v>623</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>1</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <v>0</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AS249">
+        <v>0</v>
+      </c>
+      <c r="AV249">
+        <v>0</v>
+      </c>
+      <c r="AX249">
+        <v>0</v>
+      </c>
+      <c r="AY249">
+        <v>0</v>
+      </c>
+      <c r="BA249">
+        <v>0</v>
+      </c>
+      <c r="BB249">
+        <v>0</v>
+      </c>
+      <c r="BC249">
+        <v>0</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>0</v>
+      </c>
+      <c r="BG249">
+        <v>0</v>
+      </c>
+      <c r="BH249" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM249">
+        <v>0</v>
+      </c>
+      <c r="BN249">
+        <v>0</v>
+      </c>
+      <c r="BO249">
+        <v>0</v>
+      </c>
+      <c r="BP249">
+        <v>0</v>
+      </c>
+      <c r="BQ249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:72">
+      <c r="A250">
+        <v>1170425</v>
+      </c>
+      <c r="C250" t="s">
+        <v>624</v>
+      </c>
+      <c r="D250" t="s">
+        <v>73</v>
+      </c>
+      <c r="G250" t="s">
+        <v>625</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AC250">
+        <v>1</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
+      <c r="AS250">
+        <v>0</v>
+      </c>
+      <c r="AV250">
+        <v>0</v>
+      </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
+      <c r="AY250">
+        <v>0</v>
+      </c>
+      <c r="BA250">
+        <v>0</v>
+      </c>
+      <c r="BB250">
+        <v>0</v>
+      </c>
+      <c r="BC250">
+        <v>0</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>0</v>
+      </c>
+      <c r="BG250">
+        <v>0</v>
+      </c>
+      <c r="BH250" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM250">
+        <v>0</v>
+      </c>
+      <c r="BN250">
+        <v>0</v>
+      </c>
+      <c r="BO250">
+        <v>0</v>
+      </c>
+      <c r="BP250">
+        <v>0</v>
+      </c>
+      <c r="BQ250">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>id</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>A strand of hair from a women of the brothel. Her beauty is nothing but radiance.</t>
+  </si>
+  <si>
+    <t>Bandits Twisted Arm Port</t>
   </si>
   <si>
     <t>Ashes of the shade</t>
@@ -4754,7 +4757,7 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>2250390</v>
+        <v>2250557</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -4843,7 +4846,7 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>2250392</v>
+        <v>2253652</v>
       </c>
       <c r="C27" t="s">
         <v>132</v>
@@ -4854,10 +4857,64 @@
       <c r="G27" t="s">
         <v>133</v>
       </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
       <c r="AC27">
         <v>1</v>
       </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
       <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
         <v>0</v>
       </c>
       <c r="BM27">
@@ -4878,7 +4935,7 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>2250393</v>
+        <v>2253653</v>
       </c>
       <c r="C28" t="s">
         <v>134</v>
@@ -4889,10 +4946,64 @@
       <c r="G28" t="s">
         <v>135</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
       <c r="AC28">
         <v>1</v>
       </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
       <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
         <v>0</v>
       </c>
       <c r="BH28" t="s">
@@ -4916,7 +5027,7 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>2250394</v>
+        <v>2253654</v>
       </c>
       <c r="C29" t="s">
         <v>137</v>
@@ -4927,10 +5038,64 @@
       <c r="G29" t="s">
         <v>138</v>
       </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
       <c r="AC29">
         <v>1</v>
       </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
       <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
         <v>0</v>
       </c>
       <c r="BH29" t="s">
@@ -4954,7 +5119,7 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>2250395</v>
+        <v>2253655</v>
       </c>
       <c r="C30" t="s">
         <v>139</v>
@@ -4965,10 +5130,64 @@
       <c r="G30" t="s">
         <v>140</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
       <c r="AC30">
         <v>1</v>
       </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
       <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
         <v>0</v>
       </c>
       <c r="BM30">
@@ -4989,7 +5208,7 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>2250396</v>
+        <v>2253656</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -5000,10 +5219,64 @@
       <c r="G31" t="s">
         <v>142</v>
       </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
       <c r="AC31">
         <v>1</v>
       </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
       <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
         <v>0</v>
       </c>
       <c r="BM31">
@@ -5024,7 +5297,7 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>2250397</v>
+        <v>2253657</v>
       </c>
       <c r="C32" t="s">
         <v>143</v>
@@ -5035,13 +5308,67 @@
       <c r="G32" t="s">
         <v>144</v>
       </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
       <c r="AA32" t="s">
         <v>145</v>
       </c>
       <c r="AC32">
         <v>1</v>
       </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
       <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
         <v>0</v>
       </c>
       <c r="BM32">
@@ -5192,21 +5519,9 @@
       <c r="AM34">
         <v>0</v>
       </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
       <c r="AV34">
         <v>0</v>
       </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
       <c r="BB34">
         <v>0</v>
       </c>
@@ -5224,6 +5539,9 @@
       </c>
       <c r="BG34">
         <v>0</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>100</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -6186,21 +6504,9 @@
       <c r="AM45">
         <v>0</v>
       </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
       <c r="AV45">
         <v>0</v>
       </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>0</v>
-      </c>
       <c r="BB45">
         <v>0</v>
       </c>
@@ -6218,6 +6524,9 @@
       </c>
       <c r="BG45">
         <v>0</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>173</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -6240,13 +6549,13 @@
         <v>1170439</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6309,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="BH46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -6332,13 +6641,13 @@
         <v>1170440</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -6401,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="BH47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -6424,13 +6733,13 @@
         <v>1170441</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6516,13 +6825,13 @@
         <v>1170426</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -6608,13 +6917,13 @@
         <v>1170443</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -6700,13 +7009,13 @@
         <v>1170444</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -6792,13 +7101,13 @@
         <v>1170445</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -6861,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="BH52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM52">
         <v>0</v>
@@ -6884,13 +7193,13 @@
         <v>1170446</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
         <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -6973,13 +7282,13 @@
         <v>1170447</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -7008,21 +7317,9 @@
       <c r="AM54">
         <v>0</v>
       </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
       <c r="AV54">
         <v>0</v>
       </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
       <c r="BB54">
         <v>0</v>
       </c>
@@ -7040,6 +7337,9 @@
       </c>
       <c r="BG54">
         <v>0</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>173</v>
       </c>
       <c r="BM54">
         <v>0</v>
@@ -7062,13 +7362,13 @@
         <v>1170448</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7154,13 +7454,13 @@
         <v>1170449</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7189,21 +7489,9 @@
       <c r="AM56">
         <v>0</v>
       </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
       <c r="AV56">
         <v>0</v>
       </c>
-      <c r="AX56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
       <c r="BB56">
         <v>0</v>
       </c>
@@ -7221,6 +7509,9 @@
       </c>
       <c r="BG56">
         <v>0</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>136</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -7243,13 +7534,13 @@
         <v>1170450</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7335,13 +7626,13 @@
         <v>1170451</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -7427,13 +7718,13 @@
         <v>1170452</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -7516,13 +7807,13 @@
         <v>1170453</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7605,13 +7896,13 @@
         <v>1170454</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -7694,13 +7985,13 @@
         <v>1170455</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -7786,13 +8077,13 @@
         <v>1170456</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
         <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -7878,13 +8169,13 @@
         <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -7899,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="AG64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH64">
         <v>0.15</v>
@@ -7976,13 +8267,13 @@
         <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8003,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="AG65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH65">
         <v>0.15</v>
@@ -8080,13 +8371,13 @@
         <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -8098,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="AA66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC66">
         <v>1</v>
@@ -8172,13 +8463,13 @@
         <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -8193,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="AG67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH67">
         <v>0.15</v>
@@ -8270,13 +8561,13 @@
         <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8297,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="AG68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH68">
         <v>0.15</v>
@@ -8374,13 +8665,13 @@
         <v>492</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -8395,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="AG69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH69">
         <v>0.15</v>
@@ -8472,13 +8763,13 @@
         <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -8490,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC70">
         <v>1</v>
@@ -8564,13 +8855,13 @@
         <v>494</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8588,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC71">
         <v>1</v>
@@ -8662,13 +8953,13 @@
         <v>495</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8686,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI72">
         <v>0</v>
@@ -8757,13 +9048,13 @@
         <v>496</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8781,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -8852,13 +9143,13 @@
         <v>497</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8947,13 +9238,13 @@
         <v>498</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -9042,13 +9333,13 @@
         <v>499</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -9069,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="AG76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH76">
         <v>0.5</v>
@@ -9146,13 +9437,13 @@
         <v>500</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9173,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="AG77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH77">
         <v>0.5</v>
@@ -9250,13 +9541,13 @@
         <v>501</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9277,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="AG78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH78">
         <v>0.5</v>
@@ -9354,13 +9645,13 @@
         <v>502</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9381,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="AG79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH79">
         <v>0.5</v>
@@ -9458,13 +9749,13 @@
         <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9482,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AG80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH80">
         <v>0.5</v>
@@ -9559,13 +9850,13 @@
         <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9654,13 +9945,13 @@
         <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9678,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="AA82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -9749,13 +10040,13 @@
         <v>506</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9773,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="AG83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH83">
         <v>0.45</v>
@@ -9850,13 +10141,13 @@
         <v>507</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9874,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="AG84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH84">
         <v>0.45</v>
@@ -9951,13 +10242,13 @@
         <v>508</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9975,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="AA85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI85">
         <v>0</v>
@@ -10046,13 +10337,13 @@
         <v>509</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10070,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="AA86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI86">
         <v>0</v>
@@ -10141,13 +10432,13 @@
         <v>510</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -10165,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="AA87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI87">
         <v>0</v>
@@ -10236,13 +10527,13 @@
         <v>511</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -10260,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="AA88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI88">
         <v>0</v>
@@ -10331,13 +10622,13 @@
         <v>512</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -10423,13 +10714,13 @@
         <v>513</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10447,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="AA90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -10518,13 +10809,13 @@
         <v>514</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10542,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="AA91" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI91">
         <v>0</v>
@@ -10613,13 +10904,13 @@
         <v>515</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
         <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -10637,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="AA92" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI92">
         <v>0</v>
@@ -10708,13 +10999,13 @@
         <v>516</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -10800,13 +11091,13 @@
         <v>517</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
       <c r="G94" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -10892,13 +11183,13 @@
         <v>518</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D95" t="s">
         <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -10984,13 +11275,13 @@
         <v>519</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D96" t="s">
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -11008,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="AA96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AI96">
         <v>0</v>
@@ -11079,13 +11370,13 @@
         <v>520</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D97" t="s">
         <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -11174,13 +11465,13 @@
         <v>521</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D98" t="s">
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -11269,13 +11560,13 @@
         <v>522</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -11361,13 +11652,13 @@
         <v>523</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11456,13 +11747,13 @@
         <v>524</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -11480,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="AA101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI101">
         <v>0</v>
@@ -11551,13 +11842,13 @@
         <v>525</v>
       </c>
       <c r="C102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
         <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -11646,13 +11937,13 @@
         <v>526</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
         <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -11670,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="AG103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AH103">
         <v>0.25</v>
@@ -11727,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="BH103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM103">
         <v>0</v>
@@ -11750,13 +12041,13 @@
         <v>527</v>
       </c>
       <c r="C104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D104" t="s">
         <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -11774,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AG104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH104">
         <v>0.75</v>
@@ -11854,13 +12145,13 @@
         <v>528</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D105" t="s">
         <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -11946,13 +12237,13 @@
         <v>529</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D106" t="s">
         <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -11970,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="AG106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH106">
         <v>0.75</v>
@@ -12047,13 +12338,13 @@
         <v>530</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -12071,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="AA107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AI107">
         <v>0</v>
@@ -12142,13 +12433,13 @@
         <v>531</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -12166,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="AA108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AI108">
         <v>0</v>
@@ -12237,13 +12528,13 @@
         <v>532</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -12329,13 +12620,13 @@
         <v>533</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
         <v>73</v>
       </c>
       <c r="G110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12424,13 +12715,13 @@
         <v>534</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
         <v>73</v>
       </c>
       <c r="G111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12516,13 +12807,13 @@
         <v>535</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
         <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12576,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="BH112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM112">
         <v>0</v>
@@ -12599,13 +12890,13 @@
         <v>536</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D113" t="s">
         <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12691,13 +12982,13 @@
         <v>537</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
       <c r="G114" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -12783,13 +13074,13 @@
         <v>538</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D115" t="s">
         <v>73</v>
       </c>
       <c r="G115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -12875,13 +13166,13 @@
         <v>539</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -12970,13 +13261,13 @@
         <v>540</v>
       </c>
       <c r="C117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
         <v>73</v>
       </c>
       <c r="G117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -13065,13 +13356,13 @@
         <v>541</v>
       </c>
       <c r="C118" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -13160,13 +13451,13 @@
         <v>542</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D119" t="s">
         <v>73</v>
       </c>
       <c r="G119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -13255,13 +13546,13 @@
         <v>543</v>
       </c>
       <c r="C120" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
         <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -13350,13 +13641,13 @@
         <v>544</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
         <v>73</v>
       </c>
       <c r="G121" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -13445,13 +13736,13 @@
         <v>545</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D122" t="s">
         <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -13540,13 +13831,13 @@
         <v>546</v>
       </c>
       <c r="C123" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -13635,13 +13926,13 @@
         <v>547</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D124" t="s">
         <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -13730,13 +14021,13 @@
         <v>548</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D125" t="s">
         <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -13825,13 +14116,13 @@
         <v>549</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D126" t="s">
         <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -13897,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="BH126" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BI126">
         <v>0.8</v>
@@ -13923,13 +14214,13 @@
         <v>550</v>
       </c>
       <c r="C127" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="G127" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -13947,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="AA127" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AI127">
         <v>0</v>
@@ -14018,13 +14309,13 @@
         <v>551</v>
       </c>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D128" t="s">
         <v>73</v>
       </c>
       <c r="G128" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -14113,13 +14404,13 @@
         <v>552</v>
       </c>
       <c r="C129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D129" t="s">
         <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -14208,13 +14499,13 @@
         <v>553</v>
       </c>
       <c r="C130" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
         <v>73</v>
       </c>
       <c r="G130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -14300,13 +14591,13 @@
         <v>554</v>
       </c>
       <c r="C131" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D131" t="s">
         <v>73</v>
       </c>
       <c r="G131" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -14324,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="AA131" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -14395,13 +14686,13 @@
         <v>555</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D132" t="s">
         <v>73</v>
       </c>
       <c r="G132" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -14496,13 +14787,13 @@
         <v>556</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D133" t="s">
         <v>73</v>
       </c>
       <c r="G133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14594,13 +14885,13 @@
         <v>557</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
         <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -14695,13 +14986,13 @@
         <v>558</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s">
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -14793,13 +15084,13 @@
         <v>559</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
         <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -14891,13 +15182,13 @@
         <v>560</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
         <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -14983,13 +15274,13 @@
         <v>561</v>
       </c>
       <c r="C138" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D138" t="s">
         <v>73</v>
       </c>
       <c r="G138" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -15078,13 +15369,13 @@
         <v>562</v>
       </c>
       <c r="C139" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D139" t="s">
         <v>73</v>
       </c>
       <c r="G139" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -15150,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="BH139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM139">
         <v>0</v>
@@ -15173,13 +15464,13 @@
         <v>563</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
         <v>73</v>
       </c>
       <c r="G140" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -15268,13 +15559,13 @@
         <v>564</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D141" t="s">
         <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -15363,13 +15654,13 @@
         <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
         <v>73</v>
       </c>
       <c r="G142" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -15461,13 +15752,13 @@
         <v>566</v>
       </c>
       <c r="C143" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D143" t="s">
         <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -15556,13 +15847,13 @@
         <v>567</v>
       </c>
       <c r="C144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D144" t="s">
         <v>73</v>
       </c>
       <c r="G144" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -15654,13 +15945,13 @@
         <v>568</v>
       </c>
       <c r="C145" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
       </c>
       <c r="G145" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -15749,13 +16040,13 @@
         <v>569</v>
       </c>
       <c r="C146" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D146" t="s">
         <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -15773,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="AG146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH146">
         <v>0.25</v>
@@ -15850,13 +16141,13 @@
         <v>570</v>
       </c>
       <c r="C147" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D147" t="s">
         <v>73</v>
       </c>
       <c r="G147" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -15874,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="AG147" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AH147">
         <v>0.25</v>
@@ -15951,13 +16242,13 @@
         <v>571</v>
       </c>
       <c r="C148" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
         <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -15975,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -16049,13 +16340,13 @@
         <v>572</v>
       </c>
       <c r="C149" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D149" t="s">
         <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -16073,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="AG149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI149">
         <v>0</v>
@@ -16147,13 +16438,13 @@
         <v>573</v>
       </c>
       <c r="C150" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
       </c>
       <c r="G150" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -16171,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="AG150" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI150">
         <v>0</v>
@@ -16245,13 +16536,13 @@
         <v>574</v>
       </c>
       <c r="C151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D151" t="s">
         <v>73</v>
       </c>
       <c r="G151" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -16269,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="AG151" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI151">
         <v>0</v>
@@ -16343,13 +16634,13 @@
         <v>575</v>
       </c>
       <c r="C152" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D152" t="s">
         <v>73</v>
       </c>
       <c r="G152" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -16367,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="AG152" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI152">
         <v>0</v>
@@ -16441,13 +16732,13 @@
         <v>576</v>
       </c>
       <c r="C153" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
       </c>
       <c r="G153" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -16465,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="AG153" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AI153">
         <v>0</v>
@@ -16539,13 +16830,13 @@
         <v>577</v>
       </c>
       <c r="C154" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
       </c>
       <c r="G154" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -16563,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="AG154" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AI154">
         <v>0</v>
@@ -16637,13 +16928,13 @@
         <v>578</v>
       </c>
       <c r="C155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -16661,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="AG155" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AI155">
         <v>0</v>
@@ -16735,13 +17026,13 @@
         <v>579</v>
       </c>
       <c r="C156" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D156" t="s">
         <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -16759,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="AG156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI156">
         <v>0</v>
@@ -16833,13 +17124,13 @@
         <v>580</v>
       </c>
       <c r="C157" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
         <v>73</v>
       </c>
       <c r="G157" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -16857,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="AG157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI157">
         <v>0</v>
@@ -16931,13 +17222,13 @@
         <v>581</v>
       </c>
       <c r="C158" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D158" t="s">
         <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -16955,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="AG158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI158">
         <v>0</v>
@@ -17029,13 +17320,13 @@
         <v>582</v>
       </c>
       <c r="C159" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D159" t="s">
         <v>73</v>
       </c>
       <c r="G159" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -17053,7 +17344,7 @@
         <v>0</v>
       </c>
       <c r="AG159" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH159">
         <v>0.5</v>
@@ -17130,13 +17421,13 @@
         <v>583</v>
       </c>
       <c r="C160" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -17154,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="AG160" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI160">
         <v>0</v>
@@ -17228,13 +17519,13 @@
         <v>584</v>
       </c>
       <c r="C161" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D161" t="s">
         <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -17252,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="AG161" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI161">
         <v>0</v>
@@ -17326,13 +17617,13 @@
         <v>585</v>
       </c>
       <c r="C162" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -17350,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="AG162" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI162">
         <v>0</v>
@@ -17424,13 +17715,13 @@
         <v>586</v>
       </c>
       <c r="C163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D163" t="s">
         <v>73</v>
       </c>
       <c r="G163" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -17519,13 +17810,13 @@
         <v>587</v>
       </c>
       <c r="C164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D164" t="s">
         <v>73</v>
       </c>
       <c r="G164" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -17543,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="AA164" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI164">
         <v>0</v>
@@ -17614,13 +17905,13 @@
         <v>588</v>
       </c>
       <c r="C165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D165" t="s">
         <v>73</v>
       </c>
       <c r="G165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -17712,13 +18003,13 @@
         <v>589</v>
       </c>
       <c r="C166" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
         <v>73</v>
       </c>
       <c r="G166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -17736,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="AA166" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI166">
         <v>0</v>
@@ -17807,13 +18098,13 @@
         <v>590</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
         <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -17831,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="AG167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI167">
         <v>0</v>
@@ -17905,13 +18196,13 @@
         <v>591</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s">
         <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -17929,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="AG168" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI168">
         <v>0</v>
@@ -18003,13 +18294,13 @@
         <v>592</v>
       </c>
       <c r="C169" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D169" t="s">
         <v>73</v>
       </c>
       <c r="G169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -18101,13 +18392,13 @@
         <v>593</v>
       </c>
       <c r="C170" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D170" t="s">
         <v>73</v>
       </c>
       <c r="G170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -18193,13 +18484,13 @@
         <v>594</v>
       </c>
       <c r="C171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D171" t="s">
         <v>73</v>
       </c>
       <c r="G171" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -18220,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="AG171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH171">
         <v>0.5</v>
@@ -18297,13 +18588,13 @@
         <v>595</v>
       </c>
       <c r="C172" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D172" t="s">
         <v>73</v>
       </c>
       <c r="G172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -18389,13 +18680,13 @@
         <v>596</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D173" t="s">
         <v>73</v>
       </c>
       <c r="G173" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -18481,13 +18772,13 @@
         <v>597</v>
       </c>
       <c r="C174" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D174" t="s">
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -18502,7 +18793,7 @@
         <v>1</v>
       </c>
       <c r="AG174" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH174">
         <v>0.1</v>
@@ -18579,13 +18870,13 @@
         <v>598</v>
       </c>
       <c r="C175" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D175" t="s">
         <v>73</v>
       </c>
       <c r="G175" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -18671,13 +18962,13 @@
         <v>599</v>
       </c>
       <c r="C176" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D176" t="s">
         <v>73</v>
       </c>
       <c r="G176" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -18692,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="AG176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH176">
         <v>0.25</v>
@@ -18769,13 +19060,13 @@
         <v>600</v>
       </c>
       <c r="C177" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D177" t="s">
         <v>73</v>
       </c>
       <c r="G177" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -18838,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="BH177" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM177">
         <v>0</v>
@@ -18861,13 +19152,13 @@
         <v>601</v>
       </c>
       <c r="C178" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D178" t="s">
         <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -18882,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AG178" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH178">
         <v>0.35</v>
@@ -18959,13 +19250,13 @@
         <v>602</v>
       </c>
       <c r="C179" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D179" t="s">
         <v>73</v>
       </c>
       <c r="G179" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -19051,13 +19342,13 @@
         <v>603</v>
       </c>
       <c r="C180" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -19072,7 +19363,7 @@
         <v>1</v>
       </c>
       <c r="AG180" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH180">
         <v>0.5</v>
@@ -19149,13 +19440,13 @@
         <v>604</v>
       </c>
       <c r="C181" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
       </c>
       <c r="G181" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -19241,13 +19532,13 @@
         <v>605</v>
       </c>
       <c r="C182" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D182" t="s">
         <v>73</v>
       </c>
       <c r="G182" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -19330,13 +19621,13 @@
         <v>606</v>
       </c>
       <c r="C183" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D183" t="s">
         <v>73</v>
       </c>
       <c r="G183" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -19419,13 +19710,13 @@
         <v>607</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D184" t="s">
         <v>73</v>
       </c>
       <c r="G184" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -19437,7 +19728,7 @@
         <v>0</v>
       </c>
       <c r="AA184" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AC184">
         <v>1</v>
@@ -19511,13 +19802,13 @@
         <v>608</v>
       </c>
       <c r="C185" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D185" t="s">
         <v>73</v>
       </c>
       <c r="G185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -19600,13 +19891,13 @@
         <v>609</v>
       </c>
       <c r="C186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D186" t="s">
         <v>73</v>
       </c>
       <c r="G186" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -19689,13 +19980,13 @@
         <v>610</v>
       </c>
       <c r="C187" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D187" t="s">
         <v>73</v>
       </c>
       <c r="G187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -19778,13 +20069,13 @@
         <v>611</v>
       </c>
       <c r="C188" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D188" t="s">
         <v>73</v>
       </c>
       <c r="G188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -19867,13 +20158,13 @@
         <v>612</v>
       </c>
       <c r="C189" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="G189" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -19956,13 +20247,13 @@
         <v>613</v>
       </c>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="G190" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -20048,13 +20339,13 @@
         <v>614</v>
       </c>
       <c r="C191" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="G191" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -20117,7 +20408,7 @@
         <v>0</v>
       </c>
       <c r="BH191" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM191">
         <v>0</v>
@@ -20140,13 +20431,13 @@
         <v>615</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="G192" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -20229,13 +20520,13 @@
         <v>616</v>
       </c>
       <c r="C193" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="G193" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -20321,13 +20612,13 @@
         <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="G194" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -20410,13 +20701,13 @@
         <v>618</v>
       </c>
       <c r="C195" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="G195" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -20502,13 +20793,13 @@
         <v>619</v>
       </c>
       <c r="C196" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="G196" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -20594,13 +20885,13 @@
         <v>620</v>
       </c>
       <c r="C197" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="G197" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -20683,13 +20974,13 @@
         <v>621</v>
       </c>
       <c r="C198" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="G198" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -20775,13 +21066,13 @@
         <v>622</v>
       </c>
       <c r="C199" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="G199" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -20864,13 +21155,13 @@
         <v>623</v>
       </c>
       <c r="C200" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -20953,13 +21244,13 @@
         <v>624</v>
       </c>
       <c r="C201" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D201" t="s">
         <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -21042,13 +21333,13 @@
         <v>625</v>
       </c>
       <c r="C202" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D202" t="s">
         <v>73</v>
       </c>
       <c r="G202" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -21131,13 +21422,13 @@
         <v>626</v>
       </c>
       <c r="C203" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D203" t="s">
         <v>73</v>
       </c>
       <c r="G203" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -21220,13 +21511,13 @@
         <v>627</v>
       </c>
       <c r="C204" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D204" t="s">
         <v>73</v>
       </c>
       <c r="G204" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -21309,13 +21600,13 @@
         <v>628</v>
       </c>
       <c r="C205" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D205" t="s">
         <v>73</v>
       </c>
       <c r="G205" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -21398,13 +21689,13 @@
         <v>629</v>
       </c>
       <c r="C206" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D206" t="s">
         <v>73</v>
       </c>
       <c r="G206" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -21487,13 +21778,13 @@
         <v>630</v>
       </c>
       <c r="C207" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D207" t="s">
         <v>73</v>
       </c>
       <c r="G207" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -21576,13 +21867,13 @@
         <v>631</v>
       </c>
       <c r="C208" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D208" t="s">
         <v>73</v>
       </c>
       <c r="G208" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -21665,13 +21956,13 @@
         <v>632</v>
       </c>
       <c r="C209" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D209" t="s">
         <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -21754,13 +22045,13 @@
         <v>633</v>
       </c>
       <c r="C210" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D210" t="s">
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -21843,13 +22134,13 @@
         <v>210180</v>
       </c>
       <c r="C211" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -21912,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="BH211" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM211">
         <v>0</v>
@@ -21935,13 +22226,13 @@
         <v>210181</v>
       </c>
       <c r="C212" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D212" t="s">
         <v>73</v>
       </c>
       <c r="G212" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -22004,7 +22295,7 @@
         <v>0</v>
       </c>
       <c r="BH212" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM212">
         <v>0</v>
@@ -22027,13 +22318,13 @@
         <v>210182</v>
       </c>
       <c r="C213" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D213" t="s">
         <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -22096,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="BH213" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BM213">
         <v>0</v>
@@ -22119,13 +22410,13 @@
         <v>210183</v>
       </c>
       <c r="C214" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -22140,7 +22431,7 @@
         <v>1</v>
       </c>
       <c r="AG214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH214">
         <v>0.35</v>
@@ -22197,7 +22488,7 @@
         <v>0</v>
       </c>
       <c r="BH214" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BM214">
         <v>0</v>
@@ -22220,13 +22511,13 @@
         <v>210184</v>
       </c>
       <c r="C215" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -22289,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="BH215" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BM215">
         <v>0</v>
@@ -22312,13 +22603,13 @@
         <v>210185</v>
       </c>
       <c r="C216" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
       </c>
       <c r="G216" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -22381,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="BH216" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BM216">
         <v>0</v>
@@ -22404,13 +22695,13 @@
         <v>210186</v>
       </c>
       <c r="C217" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
       </c>
       <c r="G217" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -22422,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="AA217" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AC217">
         <v>1</v>
@@ -22496,13 +22787,13 @@
         <v>210187</v>
       </c>
       <c r="C218" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
       </c>
       <c r="G218" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -22565,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="BH218" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM218">
         <v>0</v>
@@ -22588,13 +22879,13 @@
         <v>210188</v>
       </c>
       <c r="C219" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
       </c>
       <c r="G219" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -22677,13 +22968,13 @@
         <v>210189</v>
       </c>
       <c r="C220" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
       </c>
       <c r="G220" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -22698,7 +22989,7 @@
         <v>1</v>
       </c>
       <c r="AG220" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH220">
         <v>0.6</v>
@@ -22755,7 +23046,7 @@
         <v>0</v>
       </c>
       <c r="BH220" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BM220">
         <v>0</v>
@@ -22778,13 +23069,13 @@
         <v>210190</v>
       </c>
       <c r="C221" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D221" t="s">
         <v>73</v>
       </c>
       <c r="G221" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O221">
         <v>0</v>
@@ -22799,7 +23090,7 @@
         <v>1</v>
       </c>
       <c r="AG221" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AH221">
         <v>1</v>
@@ -22856,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="BH221" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BM221">
         <v>0</v>
@@ -22879,13 +23170,13 @@
         <v>210191</v>
       </c>
       <c r="C222" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D222" t="s">
         <v>73</v>
       </c>
       <c r="G222" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -22948,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="BH222" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BM222">
         <v>0</v>
@@ -22971,13 +23262,13 @@
         <v>210192</v>
       </c>
       <c r="C223" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D223" t="s">
         <v>73</v>
       </c>
       <c r="G223" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O223">
         <v>0</v>
@@ -22992,7 +23283,7 @@
         <v>1</v>
       </c>
       <c r="AG223" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH223">
         <v>0.3</v>
@@ -23049,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="BH223" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BM223">
         <v>0</v>
@@ -23072,13 +23363,13 @@
         <v>210193</v>
       </c>
       <c r="C224" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D224" t="s">
         <v>73</v>
       </c>
       <c r="G224" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O224">
         <v>0</v>
@@ -23141,7 +23432,7 @@
         <v>0</v>
       </c>
       <c r="BH224" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BM224">
         <v>0</v>
@@ -23164,13 +23455,13 @@
         <v>210194</v>
       </c>
       <c r="C225" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D225" t="s">
         <v>73</v>
       </c>
       <c r="G225" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -23233,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="BH225" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BM225">
         <v>0</v>
@@ -23256,13 +23547,13 @@
         <v>210195</v>
       </c>
       <c r="C226" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D226" t="s">
         <v>73</v>
       </c>
       <c r="G226" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O226">
         <v>0</v>
@@ -23345,13 +23636,13 @@
         <v>210196</v>
       </c>
       <c r="C227" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D227" t="s">
         <v>73</v>
       </c>
       <c r="G227" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O227">
         <v>0</v>
@@ -23434,13 +23725,13 @@
         <v>210197</v>
       </c>
       <c r="C228" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D228" t="s">
         <v>73</v>
       </c>
       <c r="G228" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O228">
         <v>0</v>
@@ -23503,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="BH228" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="BM228">
         <v>0</v>
@@ -23526,13 +23817,13 @@
         <v>210198</v>
       </c>
       <c r="C229" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D229" t="s">
         <v>73</v>
       </c>
       <c r="G229" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O229">
         <v>0</v>
@@ -23595,7 +23886,7 @@
         <v>0</v>
       </c>
       <c r="BH229" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="BM229">
         <v>0</v>
@@ -23618,13 +23909,13 @@
         <v>210199</v>
       </c>
       <c r="C230" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D230" t="s">
         <v>73</v>
       </c>
       <c r="G230" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O230">
         <v>0</v>
@@ -23687,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="BH230" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="BM230">
         <v>0</v>
@@ -23710,13 +24001,13 @@
         <v>210200</v>
       </c>
       <c r="C231" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D231" t="s">
         <v>73</v>
       </c>
       <c r="G231" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O231">
         <v>0</v>
@@ -23799,13 +24090,13 @@
         <v>210201</v>
       </c>
       <c r="C232" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D232" t="s">
         <v>73</v>
       </c>
       <c r="G232" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O232">
         <v>0</v>
@@ -23868,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="BH232" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="BM232">
         <v>0</v>
@@ -23891,13 +24182,13 @@
         <v>210202</v>
       </c>
       <c r="C233" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D233" t="s">
         <v>73</v>
       </c>
       <c r="G233" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O233">
         <v>0</v>
@@ -23912,7 +24203,7 @@
         <v>1</v>
       </c>
       <c r="AG233" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH233">
         <v>0.75</v>
@@ -23969,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="BH233" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="BM233">
         <v>0</v>
@@ -23992,13 +24283,13 @@
         <v>210203</v>
       </c>
       <c r="C234" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D234" t="s">
         <v>73</v>
       </c>
       <c r="G234" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O234">
         <v>0</v>
@@ -24013,7 +24304,7 @@
         <v>1</v>
       </c>
       <c r="AG234" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AH234">
         <v>1</v>
@@ -24070,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="BH234" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="BM234">
         <v>0</v>
@@ -24093,13 +24384,13 @@
         <v>210204</v>
       </c>
       <c r="C235" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D235" t="s">
         <v>73</v>
       </c>
       <c r="G235" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O235">
         <v>0</v>
@@ -24162,7 +24453,7 @@
         <v>0</v>
       </c>
       <c r="BH235" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="BM235">
         <v>0</v>
@@ -24185,13 +24476,13 @@
         <v>210205</v>
       </c>
       <c r="C236" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D236" t="s">
         <v>73</v>
       </c>
       <c r="G236" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O236">
         <v>0</v>
@@ -24274,13 +24565,13 @@
         <v>210206</v>
       </c>
       <c r="C237" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D237" t="s">
         <v>73</v>
       </c>
       <c r="G237" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O237">
         <v>0</v>
@@ -24292,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="AA237" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AC237">
         <v>1</v>
@@ -24366,13 +24657,13 @@
         <v>210207</v>
       </c>
       <c r="C238" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D238" t="s">
         <v>73</v>
       </c>
       <c r="G238" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O238">
         <v>0</v>
@@ -24387,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AG238" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH238">
         <v>1</v>
@@ -24444,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="BH238" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM238">
         <v>0</v>
@@ -24467,13 +24758,13 @@
         <v>210208</v>
       </c>
       <c r="C239" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D239" t="s">
         <v>73</v>
       </c>
       <c r="G239" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O239">
         <v>0</v>
@@ -24556,13 +24847,13 @@
         <v>210209</v>
       </c>
       <c r="C240" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D240" t="s">
         <v>73</v>
       </c>
       <c r="G240" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O240">
         <v>0</v>
@@ -24645,13 +24936,13 @@
         <v>210210</v>
       </c>
       <c r="C241" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D241" t="s">
         <v>73</v>
       </c>
       <c r="G241" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O241">
         <v>0</v>
@@ -24714,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="BH241" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="BM241">
         <v>0</v>
@@ -24737,13 +25028,13 @@
         <v>210211</v>
       </c>
       <c r="C242" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D242" t="s">
         <v>73</v>
       </c>
       <c r="G242" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O242">
         <v>0</v>
@@ -24806,7 +25097,7 @@
         <v>0</v>
       </c>
       <c r="BH242" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="BM242">
         <v>0</v>
@@ -24829,13 +25120,13 @@
         <v>210212</v>
       </c>
       <c r="C243" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D243" t="s">
         <v>73</v>
       </c>
       <c r="G243" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O243">
         <v>0</v>
@@ -24918,13 +25209,13 @@
         <v>210213</v>
       </c>
       <c r="C244" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D244" t="s">
         <v>73</v>
       </c>
       <c r="G244" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O244">
         <v>0</v>
@@ -24987,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="BH244" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BM244">
         <v>0</v>
@@ -25010,13 +25301,13 @@
         <v>210214</v>
       </c>
       <c r="C245" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D245" t="s">
         <v>73</v>
       </c>
       <c r="G245" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O245">
         <v>0</v>
@@ -25099,13 +25390,13 @@
         <v>410519</v>
       </c>
       <c r="C246" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D246" t="s">
         <v>73</v>
       </c>
       <c r="G246" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O246">
         <v>0</v>
@@ -25188,13 +25479,13 @@
         <v>1170415</v>
       </c>
       <c r="C247" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D247" t="s">
         <v>73</v>
       </c>
       <c r="G247" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O247">
         <v>0</v>
@@ -25280,13 +25571,13 @@
         <v>1170416</v>
       </c>
       <c r="C248" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D248" t="s">
         <v>73</v>
       </c>
       <c r="G248" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O248">
         <v>0</v>
@@ -25372,13 +25663,13 @@
         <v>1170417</v>
       </c>
       <c r="C249" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D249" t="s">
         <v>73</v>
       </c>
       <c r="G249" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O249">
         <v>0</v>
@@ -25407,21 +25698,9 @@
       <c r="AM249">
         <v>0</v>
       </c>
-      <c r="AS249">
-        <v>0</v>
-      </c>
       <c r="AV249">
         <v>0</v>
       </c>
-      <c r="AX249">
-        <v>0</v>
-      </c>
-      <c r="AY249">
-        <v>0</v>
-      </c>
-      <c r="BA249">
-        <v>0</v>
-      </c>
       <c r="BB249">
         <v>0</v>
       </c>
@@ -25439,6 +25718,9 @@
       </c>
       <c r="BG249">
         <v>0</v>
+      </c>
+      <c r="BH249" t="s">
+        <v>166</v>
       </c>
       <c r="BM249">
         <v>0</v>
@@ -25461,13 +25743,13 @@
         <v>1170418</v>
       </c>
       <c r="C250" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D250" t="s">
         <v>73</v>
       </c>
       <c r="G250" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O250">
         <v>0</v>
@@ -25496,21 +25778,9 @@
       <c r="AM250">
         <v>0</v>
       </c>
-      <c r="AS250">
-        <v>0</v>
-      </c>
       <c r="AV250">
         <v>0</v>
       </c>
-      <c r="AX250">
-        <v>0</v>
-      </c>
-      <c r="AY250">
-        <v>0</v>
-      </c>
-      <c r="BA250">
-        <v>0</v>
-      </c>
       <c r="BB250">
         <v>0</v>
       </c>
@@ -25528,6 +25798,9 @@
       </c>
       <c r="BG250">
         <v>0</v>
+      </c>
+      <c r="BH250" t="s">
+        <v>136</v>
       </c>
       <c r="BM250">
         <v>0</v>
@@ -25550,13 +25823,13 @@
         <v>1170419</v>
       </c>
       <c r="C251" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D251" t="s">
         <v>73</v>
       </c>
       <c r="G251" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O251">
         <v>0</v>
@@ -25639,13 +25912,13 @@
         <v>1170420</v>
       </c>
       <c r="C252" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D252" t="s">
         <v>73</v>
       </c>
       <c r="G252" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O252">
         <v>0</v>
@@ -25708,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="BH252" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="BM252">
         <v>0</v>
@@ -25731,13 +26004,13 @@
         <v>1170421</v>
       </c>
       <c r="C253" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D253" t="s">
         <v>73</v>
       </c>
       <c r="G253" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O253">
         <v>0</v>
@@ -25800,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="BH253" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="BM253">
         <v>0</v>
@@ -25823,13 +26096,13 @@
         <v>1170422</v>
       </c>
       <c r="C254" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D254" t="s">
         <v>73</v>
       </c>
       <c r="G254" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O254">
         <v>0</v>
@@ -25892,7 +26165,7 @@
         <v>0</v>
       </c>
       <c r="BH254" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="BM254">
         <v>0</v>
@@ -25915,13 +26188,13 @@
         <v>1170423</v>
       </c>
       <c r="C255" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D255" t="s">
         <v>73</v>
       </c>
       <c r="G255" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O255">
         <v>0</v>
@@ -25950,21 +26223,9 @@
       <c r="AM255">
         <v>0</v>
       </c>
-      <c r="AS255">
-        <v>0</v>
-      </c>
       <c r="AV255">
         <v>0</v>
       </c>
-      <c r="AX255">
-        <v>0</v>
-      </c>
-      <c r="AY255">
-        <v>0</v>
-      </c>
-      <c r="BA255">
-        <v>0</v>
-      </c>
       <c r="BB255">
         <v>0</v>
       </c>
@@ -25982,6 +26243,9 @@
       </c>
       <c r="BG255">
         <v>0</v>
+      </c>
+      <c r="BH255" t="s">
+        <v>176</v>
       </c>
       <c r="BM255">
         <v>0</v>
@@ -26004,13 +26268,13 @@
         <v>1170424</v>
       </c>
       <c r="C256" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D256" t="s">
         <v>73</v>
       </c>
       <c r="G256" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O256">
         <v>0</v>
@@ -26096,13 +26360,13 @@
         <v>1170425</v>
       </c>
       <c r="C257" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D257" t="s">
         <v>73</v>
       </c>
       <c r="G257" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O257">
         <v>0</v>
@@ -26131,21 +26395,9 @@
       <c r="AM257">
         <v>0</v>
       </c>
-      <c r="AS257">
-        <v>0</v>
-      </c>
       <c r="AV257">
         <v>0</v>
       </c>
-      <c r="AX257">
-        <v>0</v>
-      </c>
-      <c r="AY257">
-        <v>0</v>
-      </c>
-      <c r="BA257">
-        <v>0</v>
-      </c>
       <c r="BB257">
         <v>0</v>
       </c>
@@ -26163,6 +26415,9 @@
       </c>
       <c r="BG257">
         <v>0</v>
+      </c>
+      <c r="BH257" t="s">
+        <v>136</v>
       </c>
       <c r="BM257">
         <v>0</v>

--- a/resources/data-imports/Items/quest-items.xlsx
+++ b/resources/data-imports/Items/quest-items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
   <si>
     <t>id</t>
   </si>
@@ -242,6 +242,66 @@
     <t>There is a ship, high in the sky, driven by a man who wore a ring carved of emeralds from another plane. Another time.</t>
   </si>
   <si>
+    <t>Musty Childs Teddy bare</t>
+  </si>
+  <si>
+    <t>A musty old child's teddy bare that Trix once carried when he watched the Ascension.</t>
+  </si>
+  <si>
+    <t>Church of God</t>
+  </si>
+  <si>
+    <t>Wet Cat Food</t>
+  </si>
+  <si>
+    <t>Wet cat food that Mrs. Piper is obssessed with.</t>
+  </si>
+  <si>
+    <t>Frozen Pet Cemetary</t>
+  </si>
+  <si>
+    <t>Tree Skirt</t>
+  </si>
+  <si>
+    <t>An old ratted christmas tree skirt that is ratted and torn. Cat's generally like to sleep on these things unless of course they are busy tearing the tree down.</t>
+  </si>
+  <si>
+    <t>Gingerbread Cookies</t>
+  </si>
+  <si>
+    <t>These cookies, while old and stale do not taste as such. They taste as if they have come fresh out the oven. warm and soft. They invoke memories of a better time, almost in a magical way.</t>
+  </si>
+  <si>
+    <t>Frozen Queens Bank</t>
+  </si>
+  <si>
+    <t>Isabella’s earrings</t>
+  </si>
+  <si>
+    <t>These earrings were worn by Isabella on the night of the crash. it is said they can show a time when there was closeness between two people. Alas you wonder if the magic has gone out in them.</t>
+  </si>
+  <si>
+    <t>The Frozen Wreck</t>
+  </si>
+  <si>
+    <t>Leather watch</t>
+  </si>
+  <si>
+    <t>An old leather watch that has some significance to an enchanted snowman.</t>
+  </si>
+  <si>
+    <t>Dusty old presents</t>
+  </si>
+  <si>
+    <t>Old presents that were for The Child, gifted by his parents. Gadgets and gizmos. Alas he never saw that christmas and now The Poet, old and haggard searches for them. Why?</t>
+  </si>
+  <si>
+    <t>Bloody Journal</t>
+  </si>
+  <si>
+    <t>A journal that talks of a failed ascension, the jouney to such an ascension and the way The Poet guided The Child, or at least attempted to.</t>
+  </si>
+  <si>
     <t>Christmas Tree Ordainment</t>
   </si>
   <si>
@@ -251,66 +311,6 @@
     <t>Banshee Fields of Tomorrow</t>
   </si>
   <si>
-    <t>Bloody Journal</t>
-  </si>
-  <si>
-    <t>A journal that talks of a failed ascension, the jouney to such an ascension and the way The Poet guided The Child, or at least attempted to.</t>
-  </si>
-  <si>
-    <t>Dusty old presents</t>
-  </si>
-  <si>
-    <t>Old presents that were for The Child, gifted by his parents. Gadgets and gizmos. Alas he never saw that christmas and now The Poet, old and haggard searches for them. Why?</t>
-  </si>
-  <si>
-    <t>The Frozen Wreck</t>
-  </si>
-  <si>
-    <t>Leather watch</t>
-  </si>
-  <si>
-    <t>An old leather watch that has some significance to an enchanted snowman.</t>
-  </si>
-  <si>
-    <t>Isabella’s earrings</t>
-  </si>
-  <si>
-    <t>These earrings were worn by Isabella on the night of the crash. it is said they can show a time when there was closeness between two people. Alas you wonder if the magic has gone out in them.</t>
-  </si>
-  <si>
-    <t>Gingerbread Cookies</t>
-  </si>
-  <si>
-    <t>These cookies, while old and stale do not taste as such. They taste as if they have come fresh out the oven. warm and soft. They invoke memories of a better time, almost in a magical way.</t>
-  </si>
-  <si>
-    <t>Frozen Queens Bank</t>
-  </si>
-  <si>
-    <t>Tree Skirt</t>
-  </si>
-  <si>
-    <t>An old ratted christmas tree skirt that is ratted and torn. Cat's generally like to sleep on these things unless of course they are busy tearing the tree down.</t>
-  </si>
-  <si>
-    <t>Wet Ca